--- a/_Out/NFDataCfg/Excel/NPC.xlsx
+++ b/_Out/NFDataCfg/Excel/NPC.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Desktop\NoahGameFrame\_Out\NFDataCfg\Excel_Ini\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Desktop\NoahGameFrame\_Out\NFDataCfg\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -12784,91 +12784,91 @@
       <c r="A3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="2" t="b">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="b">
+      <c r="C3" s="2">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="b">
+      <c r="D3" s="2">
         <v>1</v>
       </c>
-      <c r="E3" s="2" t="b">
+      <c r="E3" s="2">
         <v>1</v>
       </c>
-      <c r="F3" s="2" t="b">
+      <c r="F3" s="2">
         <v>1</v>
       </c>
-      <c r="G3" s="2" t="b">
+      <c r="G3" s="2">
         <v>1</v>
       </c>
-      <c r="H3" s="2" t="b">
+      <c r="H3" s="2">
         <v>1</v>
       </c>
-      <c r="I3" s="2" t="b">
+      <c r="I3" s="2">
         <v>1</v>
       </c>
-      <c r="J3" s="2" t="b">
+      <c r="J3" s="2">
         <v>1</v>
       </c>
-      <c r="K3" s="2" t="b">
+      <c r="K3" s="2">
         <v>1</v>
       </c>
-      <c r="L3" s="2" t="b">
+      <c r="L3" s="2">
         <v>1</v>
       </c>
-      <c r="M3" s="2" t="b">
+      <c r="M3" s="2">
         <v>1</v>
       </c>
-      <c r="N3" s="2" t="b">
+      <c r="N3" s="2">
         <v>1</v>
       </c>
-      <c r="O3" s="2" t="b">
+      <c r="O3" s="2">
         <v>1</v>
       </c>
-      <c r="P3" s="2" t="b">
+      <c r="P3" s="2">
         <v>1</v>
       </c>
-      <c r="Q3" s="2" t="b">
+      <c r="Q3" s="2">
         <v>1</v>
       </c>
-      <c r="R3" s="2" t="b">
+      <c r="R3" s="2">
         <v>1</v>
       </c>
-      <c r="S3" s="2" t="b">
+      <c r="S3" s="2">
         <v>1</v>
       </c>
-      <c r="T3" s="2" t="b">
+      <c r="T3" s="2">
         <v>1</v>
       </c>
-      <c r="U3" s="2" t="b">
+      <c r="U3" s="2">
         <v>1</v>
       </c>
-      <c r="V3" s="2" t="b">
+      <c r="V3" s="2">
         <v>1</v>
       </c>
-      <c r="W3" s="2" t="b">
+      <c r="W3" s="2">
         <v>1</v>
       </c>
-      <c r="X3" s="2" t="b">
+      <c r="X3" s="2">
         <v>1</v>
       </c>
-      <c r="Y3" s="2" t="b">
+      <c r="Y3" s="2">
         <v>1</v>
       </c>
-      <c r="Z3" s="2" t="b">
+      <c r="Z3" s="2">
         <v>1</v>
       </c>
-      <c r="AA3" s="2" t="b">
+      <c r="AA3" s="2">
         <v>1</v>
       </c>
-      <c r="AB3" s="2" t="b">
+      <c r="AB3" s="2">
         <v>1</v>
       </c>
-      <c r="AC3" s="2" t="b">
+      <c r="AC3" s="2">
         <v>1</v>
       </c>
-      <c r="AD3" s="2" t="b">
+      <c r="AD3" s="2">
         <v>1</v>
       </c>
     </row>
@@ -12876,91 +12876,91 @@
       <c r="A4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="2" t="b">
+      <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="b">
+      <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="b">
+      <c r="D4" s="2">
         <v>1</v>
       </c>
-      <c r="E4" s="2" t="b">
+      <c r="E4" s="2">
         <v>1</v>
       </c>
-      <c r="F4" s="2" t="b">
+      <c r="F4" s="2">
         <v>1</v>
       </c>
-      <c r="G4" s="2" t="b">
+      <c r="G4" s="2">
         <v>1</v>
       </c>
-      <c r="H4" s="2" t="b">
+      <c r="H4" s="2">
         <v>1</v>
       </c>
-      <c r="I4" s="2" t="b">
+      <c r="I4" s="2">
         <v>1</v>
       </c>
-      <c r="J4" s="2" t="b">
+      <c r="J4" s="2">
         <v>1</v>
       </c>
-      <c r="K4" s="2" t="b">
+      <c r="K4" s="2">
         <v>1</v>
       </c>
-      <c r="L4" s="2" t="b">
+      <c r="L4" s="2">
         <v>1</v>
       </c>
-      <c r="M4" s="2" t="b">
+      <c r="M4" s="2">
         <v>1</v>
       </c>
-      <c r="N4" s="2" t="b">
+      <c r="N4" s="2">
         <v>1</v>
       </c>
-      <c r="O4" s="2" t="b">
+      <c r="O4" s="2">
         <v>1</v>
       </c>
-      <c r="P4" s="2" t="b">
+      <c r="P4" s="2">
         <v>1</v>
       </c>
-      <c r="Q4" s="2" t="b">
+      <c r="Q4" s="2">
         <v>1</v>
       </c>
-      <c r="R4" s="2" t="b">
+      <c r="R4" s="2">
         <v>1</v>
       </c>
-      <c r="S4" s="2" t="b">
+      <c r="S4" s="2">
         <v>1</v>
       </c>
-      <c r="T4" s="2" t="b">
+      <c r="T4" s="2">
         <v>1</v>
       </c>
-      <c r="U4" s="2" t="b">
+      <c r="U4" s="2">
         <v>1</v>
       </c>
-      <c r="V4" s="2" t="b">
+      <c r="V4" s="2">
         <v>1</v>
       </c>
-      <c r="W4" s="2" t="b">
+      <c r="W4" s="2">
         <v>1</v>
       </c>
-      <c r="X4" s="2" t="b">
+      <c r="X4" s="2">
         <v>1</v>
       </c>
-      <c r="Y4" s="2" t="b">
+      <c r="Y4" s="2">
         <v>1</v>
       </c>
-      <c r="Z4" s="2" t="b">
+      <c r="Z4" s="2">
         <v>1</v>
       </c>
-      <c r="AA4" s="2" t="b">
+      <c r="AA4" s="2">
         <v>1</v>
       </c>
-      <c r="AB4" s="2" t="b">
+      <c r="AB4" s="2">
         <v>1</v>
       </c>
-      <c r="AC4" s="2" t="b">
+      <c r="AC4" s="2">
         <v>1</v>
       </c>
-      <c r="AD4" s="2" t="b">
+      <c r="AD4" s="2">
         <v>1</v>
       </c>
     </row>
@@ -12968,91 +12968,91 @@
       <c r="A5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="R5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="S5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="T5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="U5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="V5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="W5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="X5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="2" t="b">
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0</v>
+      </c>
+      <c r="V5" s="2">
+        <v>0</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0</v>
+      </c>
+      <c r="X5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="2">
         <v>0</v>
       </c>
     </row>
@@ -13060,91 +13060,91 @@
       <c r="A6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="R6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="S6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="T6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="U6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="V6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="W6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="X6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="2" t="b">
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0</v>
+      </c>
+      <c r="X6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="2">
         <v>0</v>
       </c>
     </row>
@@ -13152,91 +13152,91 @@
       <c r="A7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="O7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="P7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="R7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="S7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="T7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="U7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="V7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="W7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="X7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="3" t="b">
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0</v>
+      </c>
+      <c r="R7" s="3">
+        <v>0</v>
+      </c>
+      <c r="S7" s="3">
+        <v>0</v>
+      </c>
+      <c r="T7" s="3">
+        <v>0</v>
+      </c>
+      <c r="U7" s="3">
+        <v>0</v>
+      </c>
+      <c r="V7" s="3">
+        <v>0</v>
+      </c>
+      <c r="W7" s="3">
+        <v>0</v>
+      </c>
+      <c r="X7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="3">
         <v>0</v>
       </c>
     </row>
@@ -13244,91 +13244,91 @@
       <c r="A8" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="B8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="R8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="S8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="T8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="U8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="V8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="W8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="X8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="3" t="b">
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="3">
         <v>0</v>
       </c>
     </row>
@@ -13336,91 +13336,91 @@
       <c r="A9" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="R9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="S9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="T9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="U9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="V9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="W9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="X9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="3" t="b">
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3">
+        <v>0</v>
+      </c>
+      <c r="X9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="3">
         <v>0</v>
       </c>
     </row>

--- a/_Out/NFDataCfg/Excel/NPC.xlsx
+++ b/_Out/NFDataCfg/Excel/NPC.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10343" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10343"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -2490,7 +2490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
@@ -2724,97 +2724,97 @@
       <c r="A3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="b">
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="b">
+      <c r="D3" s="2">
         <v>1</v>
       </c>
-      <c r="E3" s="2" t="b">
+      <c r="E3" s="2">
         <v>1</v>
       </c>
-      <c r="F3" s="2" t="b">
+      <c r="F3" s="2">
         <v>1</v>
       </c>
-      <c r="G3" s="2" t="b">
+      <c r="G3" s="2">
         <v>1</v>
       </c>
-      <c r="H3" s="2" t="b">
+      <c r="H3" s="2">
         <v>1</v>
       </c>
-      <c r="I3" s="2" t="b">
+      <c r="I3" s="2">
         <v>1</v>
       </c>
-      <c r="J3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="R3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="S3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="T3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="U3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="V3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="W3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="X3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="2" t="b">
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0</v>
+      </c>
+      <c r="T3" s="2">
+        <v>0</v>
+      </c>
+      <c r="U3" s="2">
+        <v>0</v>
+      </c>
+      <c r="V3" s="2">
+        <v>0</v>
+      </c>
+      <c r="W3" s="2">
+        <v>0</v>
+      </c>
+      <c r="X3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2822,97 +2822,97 @@
       <c r="A4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2" t="b">
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="b">
+      <c r="D4" s="2">
         <v>1</v>
       </c>
-      <c r="E4" s="2" t="b">
+      <c r="E4" s="2">
         <v>1</v>
       </c>
-      <c r="F4" s="2" t="b">
+      <c r="F4" s="2">
         <v>1</v>
       </c>
-      <c r="G4" s="2" t="b">
+      <c r="G4" s="2">
         <v>1</v>
       </c>
-      <c r="H4" s="2" t="b">
+      <c r="H4" s="2">
         <v>1</v>
       </c>
-      <c r="I4" s="2" t="b">
+      <c r="I4" s="2">
         <v>1</v>
       </c>
-      <c r="J4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="R4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="S4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="T4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="U4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="V4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="W4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="X4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="2" t="b">
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0</v>
+      </c>
+      <c r="U4" s="2">
+        <v>0</v>
+      </c>
+      <c r="V4" s="2">
+        <v>0</v>
+      </c>
+      <c r="W4" s="2">
+        <v>0</v>
+      </c>
+      <c r="X4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="2">
         <v>1</v>
       </c>
-      <c r="AE4" s="2" t="b">
+      <c r="AE4" s="2">
         <v>1</v>
       </c>
-      <c r="AF4" s="2" t="b">
+      <c r="AF4" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2920,97 +2920,97 @@
       <c r="A5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2" t="b">
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="D5" s="2" t="b">
+      <c r="D5" s="2">
         <v>1</v>
       </c>
-      <c r="E5" s="2" t="b">
+      <c r="E5" s="2">
         <v>1</v>
       </c>
-      <c r="F5" s="2" t="b">
+      <c r="F5" s="2">
         <v>1</v>
       </c>
-      <c r="G5" s="2" t="b">
+      <c r="G5" s="2">
         <v>1</v>
       </c>
-      <c r="H5" s="2" t="b">
+      <c r="H5" s="2">
         <v>1</v>
       </c>
-      <c r="I5" s="2" t="b">
+      <c r="I5" s="2">
         <v>1</v>
       </c>
-      <c r="J5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="R5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="S5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="T5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="U5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="V5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="W5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="X5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="2" t="b">
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0</v>
+      </c>
+      <c r="V5" s="2">
+        <v>0</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0</v>
+      </c>
+      <c r="X5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="2">
         <v>1</v>
       </c>
-      <c r="AE5" s="2" t="b">
+      <c r="AE5" s="2">
         <v>1</v>
       </c>
-      <c r="AF5" s="2" t="b">
+      <c r="AF5" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3018,97 +3018,97 @@
       <c r="A6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="R6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="S6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="T6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="U6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="V6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="W6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="X6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="2" t="b">
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0</v>
+      </c>
+      <c r="X6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3116,97 +3116,97 @@
       <c r="A7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="O7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="P7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="R7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="S7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="T7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="U7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="V7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="W7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="X7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="3" t="b">
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0</v>
+      </c>
+      <c r="R7" s="3">
+        <v>0</v>
+      </c>
+      <c r="S7" s="3">
+        <v>0</v>
+      </c>
+      <c r="T7" s="3">
+        <v>0</v>
+      </c>
+      <c r="U7" s="3">
+        <v>0</v>
+      </c>
+      <c r="V7" s="3">
+        <v>0</v>
+      </c>
+      <c r="W7" s="3">
+        <v>0</v>
+      </c>
+      <c r="X7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3214,97 +3214,97 @@
       <c r="A8" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="B8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="R8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="S8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="T8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="U8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="V8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="W8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="X8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="3" t="b">
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3312,97 +3312,97 @@
       <c r="A9" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="R9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="S9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="T9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="U9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="V9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="W9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="X9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="3" t="b">
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3">
+        <v>0</v>
+      </c>
+      <c r="X9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="3">
         <v>0</v>
       </c>
     </row>
@@ -12587,7 +12587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>

--- a/_Out/NFDataCfg/Excel/NPC.xlsx
+++ b/_Out/NFDataCfg/Excel/NPC.xlsx
@@ -2493,9 +2493,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L112" sqref="L112"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/_Out/NFDataCfg/Excel/NPC.xlsx
+++ b/_Out/NFDataCfg/Excel/NPC.xlsx
@@ -1832,8 +1832,8 @@
   <dimension ref="A1:AI62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/_Out/NFDataCfg/Excel/NPC.xlsx
+++ b/_Out/NFDataCfg/Excel/NPC.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="382">
   <si>
     <t>Id</t>
   </si>
@@ -88,9 +88,6 @@
     <t>ShowName</t>
   </si>
   <si>
-    <t>EquipIDRef</t>
-  </si>
-  <si>
     <t>SpriteFile</t>
   </si>
   <si>
@@ -202,9 +199,6 @@
     <t>显示名字</t>
   </si>
   <si>
-    <t>装备列表索引</t>
-  </si>
-  <si>
     <t>图标</t>
   </si>
   <si>
@@ -226,21 +220,12 @@
     <t>Default</t>
   </si>
   <si>
-    <t>DropBag_1</t>
-  </si>
-  <si>
     <t>PlayerAtt1</t>
   </si>
   <si>
     <t>ConsumeData_1</t>
   </si>
   <si>
-    <t>ShowName_1</t>
-  </si>
-  <si>
-    <t>EquipIDRef_1</t>
-  </si>
-  <si>
     <t>UIResources/Sprites/Item</t>
   </si>
   <si>
@@ -253,69 +238,36 @@
     <t>PlayerAtt21</t>
   </si>
   <si>
-    <t>ShowName_21</t>
-  </si>
-  <si>
     <t>PlayerAtt26</t>
   </si>
   <si>
-    <t>ShowName_26</t>
-  </si>
-  <si>
     <t>PlayerAtt31</t>
   </si>
   <si>
-    <t>ShowName_31</t>
-  </si>
-  <si>
     <t>PlayerAtt34</t>
   </si>
   <si>
-    <t>ShowName_34</t>
-  </si>
-  <si>
     <t>PlayerAtt38</t>
   </si>
   <si>
-    <t>ShowName_38</t>
-  </si>
-  <si>
     <t>PlayerAtt42</t>
   </si>
   <si>
-    <t>ShowName_42</t>
-  </si>
-  <si>
     <t>PlayerAtt44</t>
   </si>
   <si>
-    <t>ShowName_44</t>
-  </si>
-  <si>
     <t>PlayerAtt45</t>
   </si>
   <si>
-    <t>ShowName_45</t>
-  </si>
-  <si>
     <t>PlayerAtt48</t>
   </si>
   <si>
-    <t>ShowName_48</t>
-  </si>
-  <si>
     <t>PlayerAtt49</t>
   </si>
   <si>
-    <t>ShowName_49</t>
-  </si>
-  <si>
     <t>PlayerAtt51</t>
   </si>
   <si>
-    <t>ShowName_51</t>
-  </si>
-  <si>
     <t>PlayerAtt52</t>
   </si>
   <si>
@@ -1118,6 +1070,114 @@
   </si>
   <si>
     <t>Level</t>
+  </si>
+  <si>
+    <t>Item_MP1</t>
+  </si>
+  <si>
+    <t>Item_MP2</t>
+  </si>
+  <si>
+    <t>Item_MP3</t>
+  </si>
+  <si>
+    <t>Item_MP4</t>
+  </si>
+  <si>
+    <t>Item_MP5</t>
+  </si>
+  <si>
+    <t>Item_MP6</t>
+  </si>
+  <si>
+    <t>Item_HP1</t>
+  </si>
+  <si>
+    <t>Item_HP2</t>
+  </si>
+  <si>
+    <t>Item_HP3</t>
+  </si>
+  <si>
+    <t>Item_HP4</t>
+  </si>
+  <si>
+    <t>Item_HP5</t>
+  </si>
+  <si>
+    <t>Item_HP6</t>
+  </si>
+  <si>
+    <t>Item_ATK_Water_1</t>
+  </si>
+  <si>
+    <t>Item_ATK_Water_2</t>
+  </si>
+  <si>
+    <t>Item_ATK_Water_3</t>
+  </si>
+  <si>
+    <t>Item_ATK_Water_4</t>
+  </si>
+  <si>
+    <t>Item_ATK_Water_5</t>
+  </si>
+  <si>
+    <t>Item_ATK_Water_6</t>
+  </si>
+  <si>
+    <t>Item_Avoid_Def_Water_1</t>
+  </si>
+  <si>
+    <t>Item_Avoid_Def_Water_2</t>
+  </si>
+  <si>
+    <t>Item_Avoid_Def_Water_3</t>
+  </si>
+  <si>
+    <t>Item_Avoid_Def_Water_4</t>
+  </si>
+  <si>
+    <t>Item_Avoid_Def_Water_5</t>
+  </si>
+  <si>
+    <t>DropProbability</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>掉落概率%</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>100</t>
   </si>
 </sst>
 </file>
@@ -1153,7 +1213,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1193,6 +1253,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1353,7 +1419,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1460,6 +1526,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1831,9 +1906,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
+      <selection pane="bottomLeft" activeCell="AB11" sqref="AB11:AB21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1850,14 +1925,13 @@
     <col min="12" max="14" width="13" customWidth="1"/>
     <col min="15" max="15" width="47.46484375" customWidth="1"/>
     <col min="16" max="16" width="14.73046875" customWidth="1"/>
-    <col min="18" max="18" width="16.86328125" customWidth="1"/>
-    <col min="19" max="19" width="27" customWidth="1"/>
-    <col min="20" max="22" width="27" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.796875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.796875" customWidth="1"/>
-    <col min="27" max="27" width="23.9296875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.9296875" customWidth="1"/>
+    <col min="18" max="19" width="22.9296875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27" customWidth="1"/>
+    <col min="21" max="23" width="27" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.796875" customWidth="1"/>
+    <col min="28" max="28" width="23.9296875" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="27.3984375" customWidth="1"/>
     <col min="30" max="30" width="22.1328125" customWidth="1"/>
     <col min="31" max="31" width="36" customWidth="1"/>
@@ -1876,7 +1950,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1894,7 +1968,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>8</v>
@@ -1903,7 +1977,7 @@
         <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>13</v>
@@ -1912,7 +1986,7 @@
         <v>10</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>11</v>
@@ -1921,167 +1995,167 @@
         <v>12</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>175</v>
+        <v>369</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="AC1" s="10" t="s">
+      <c r="AD1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:35" s="2" customFormat="1" ht="14.25">
       <c r="A2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="O2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="R2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>27</v>
       </c>
       <c r="T2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI2" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC2" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:35" s="2" customFormat="1" ht="14.25">
       <c r="A3" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -2188,7 +2262,7 @@
     </row>
     <row r="4" spans="1:35" s="2" customFormat="1" ht="14.25">
       <c r="A4" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -2295,7 +2369,7 @@
     </row>
     <row r="5" spans="1:35" s="2" customFormat="1" ht="14.25">
       <c r="A5" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -2402,7 +2476,7 @@
     </row>
     <row r="6" spans="1:35" s="2" customFormat="1" ht="14.25">
       <c r="A6" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
@@ -2509,7 +2583,7 @@
     </row>
     <row r="7" spans="1:35" s="3" customFormat="1">
       <c r="A7" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" s="3">
         <v>0</v>
@@ -2559,11 +2633,11 @@
       <c r="Q7" s="3">
         <v>0</v>
       </c>
-      <c r="R7" s="3">
-        <v>0</v>
-      </c>
-      <c r="S7" s="3">
-        <v>0</v>
+      <c r="R7" s="2">
+        <v>1</v>
+      </c>
+      <c r="S7" s="2">
+        <v>1</v>
       </c>
       <c r="T7" s="3">
         <v>0</v>
@@ -2580,17 +2654,17 @@
       <c r="X7" s="3">
         <v>0</v>
       </c>
-      <c r="Y7" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="3">
-        <v>0</v>
+      <c r="Y7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>1</v>
       </c>
       <c r="AA7" s="3">
         <v>0</v>
       </c>
-      <c r="AB7" s="3">
-        <v>0</v>
+      <c r="AB7" s="2">
+        <v>1</v>
       </c>
       <c r="AC7" s="3">
         <v>0</v>
@@ -2616,7 +2690,7 @@
     </row>
     <row r="8" spans="1:35" s="3" customFormat="1">
       <c r="A8" s="7" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -2723,7 +2797,7 @@
     </row>
     <row r="9" spans="1:35" s="3" customFormat="1">
       <c r="A9" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
@@ -2830,100 +2904,100 @@
     </row>
     <row r="10" spans="1:35" s="4" customFormat="1" ht="40.9" thickBot="1">
       <c r="A10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="J10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="O10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O10" s="4" t="s">
+      <c r="P10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="P10" s="4" t="s">
+      <c r="Q10" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q10" s="4" t="s">
+      <c r="R10" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="R10" s="4" t="s">
+      <c r="S10" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="T10" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="S10" s="4" t="s">
+      <c r="U10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="W10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="X10" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="T10" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="U10" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="V10" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="W10" s="4" t="s">
+      <c r="Y10" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="X10" s="4" t="s">
+      <c r="Z10" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="Y10" s="4" t="s">
+      <c r="AA10" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="Z10" s="4" t="s">
+      <c r="AB10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AA10" s="4" t="s">
+      <c r="AC10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD10" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AB10" s="4" t="s">
+      <c r="AE10" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AC10" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD10" s="4" t="s">
+      <c r="AF10" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AE10" s="4" t="s">
+      <c r="AG10" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AF10" s="4" t="s">
+      <c r="AH10" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AG10" s="4" t="s">
+      <c r="AI10" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AH10" s="4" t="s">
+    </row>
+    <row r="11" spans="1:35" ht="13.9" thickBot="1">
+      <c r="A11" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="AI10" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35">
-      <c r="A11" s="9" t="s">
-        <v>63</v>
-      </c>
       <c r="C11">
         <v>0</v>
       </c>
@@ -2961,7 +3035,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -2969,36 +3043,36 @@
       <c r="Q11">
         <v>20</v>
       </c>
-      <c r="R11" t="s">
+      <c r="R11" s="37" t="s">
+        <v>346</v>
+      </c>
+      <c r="S11" s="37" t="s">
+        <v>370</v>
+      </c>
+      <c r="X11">
+        <v>2</v>
+      </c>
+      <c r="Y11" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="38" t="s">
+        <v>341</v>
+      </c>
+      <c r="AC11" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="W11">
-        <v>2</v>
-      </c>
-      <c r="X11" s="9" t="s">
+      <c r="AD11" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE11" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="Y11" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB11" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC11" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD11" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE11" s="13" t="s">
-        <v>70</v>
-      </c>
       <c r="AF11">
         <v>0</v>
       </c>
@@ -3012,9 +3086,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:35">
+    <row r="12" spans="1:35" ht="13.9" thickBot="1">
       <c r="A12" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -3053,7 +3127,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -3061,35 +3135,35 @@
       <c r="Q12">
         <v>20</v>
       </c>
-      <c r="R12" t="s">
+      <c r="R12" s="37" t="s">
+        <v>347</v>
+      </c>
+      <c r="S12" s="37" t="s">
+        <v>372</v>
+      </c>
+      <c r="X12">
+        <v>2</v>
+      </c>
+      <c r="Y12" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="38" t="s">
+        <v>341</v>
+      </c>
+      <c r="AC12" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="W12">
-        <v>2</v>
-      </c>
-      <c r="X12" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB12" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC12" s="12" t="s">
-        <v>69</v>
-      </c>
       <c r="AD12" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="AE12" s="13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -3104,9 +3178,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:35">
+    <row r="13" spans="1:35" ht="13.9" thickBot="1">
       <c r="A13" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -3145,7 +3219,7 @@
         <v>2</v>
       </c>
       <c r="O13" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -3153,35 +3227,35 @@
       <c r="Q13">
         <v>20</v>
       </c>
-      <c r="R13" t="s">
+      <c r="R13" s="37" t="s">
+        <v>348</v>
+      </c>
+      <c r="S13" s="37" t="s">
+        <v>373</v>
+      </c>
+      <c r="X13">
+        <v>2</v>
+      </c>
+      <c r="Y13" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="38" t="s">
+        <v>341</v>
+      </c>
+      <c r="AC13" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="W13">
-        <v>2</v>
-      </c>
-      <c r="X13" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB13" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC13" s="12" t="s">
-        <v>69</v>
-      </c>
       <c r="AD13" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="AE13" s="13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -3196,9 +3270,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:35">
+    <row r="14" spans="1:35" ht="13.9" thickBot="1">
       <c r="A14" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -3237,7 +3311,7 @@
         <v>2</v>
       </c>
       <c r="O14" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -3245,35 +3319,35 @@
       <c r="Q14">
         <v>20</v>
       </c>
-      <c r="R14" t="s">
+      <c r="R14" s="37" t="s">
+        <v>349</v>
+      </c>
+      <c r="S14" s="37" t="s">
+        <v>374</v>
+      </c>
+      <c r="X14">
+        <v>2</v>
+      </c>
+      <c r="Y14" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="38" t="s">
+        <v>341</v>
+      </c>
+      <c r="AC14" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="W14">
-        <v>2</v>
-      </c>
-      <c r="X14" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB14" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC14" s="12" t="s">
-        <v>69</v>
-      </c>
       <c r="AD14" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="AE14" s="13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -3288,9 +3362,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:35">
+    <row r="15" spans="1:35" ht="13.9" thickBot="1">
       <c r="A15" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -3329,7 +3403,7 @@
         <v>2</v>
       </c>
       <c r="O15" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -3337,35 +3411,35 @@
       <c r="Q15">
         <v>20</v>
       </c>
-      <c r="R15" t="s">
+      <c r="R15" s="37" t="s">
+        <v>350</v>
+      </c>
+      <c r="S15" s="37" t="s">
+        <v>375</v>
+      </c>
+      <c r="X15">
+        <v>2</v>
+      </c>
+      <c r="Y15" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="38" t="s">
+        <v>341</v>
+      </c>
+      <c r="AC15" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="W15">
-        <v>2</v>
-      </c>
-      <c r="X15" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z15">
-        <v>0</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB15" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC15" s="12" t="s">
-        <v>69</v>
-      </c>
       <c r="AD15" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="AE15" s="13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -3380,9 +3454,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35">
+    <row r="16" spans="1:35" ht="13.9" thickBot="1">
       <c r="A16" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -3421,7 +3495,7 @@
         <v>2</v>
       </c>
       <c r="O16" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -3429,35 +3503,35 @@
       <c r="Q16">
         <v>20</v>
       </c>
-      <c r="R16" t="s">
+      <c r="R16" s="37" t="s">
+        <v>351</v>
+      </c>
+      <c r="S16" s="37" t="s">
+        <v>376</v>
+      </c>
+      <c r="X16">
+        <v>2</v>
+      </c>
+      <c r="Y16" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="38" t="s">
+        <v>341</v>
+      </c>
+      <c r="AC16" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="W16">
-        <v>2</v>
-      </c>
-      <c r="X16" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB16" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC16" s="12" t="s">
-        <v>69</v>
-      </c>
       <c r="AD16" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="AE16" s="13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -3472,9 +3546,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35">
+    <row r="17" spans="1:35" ht="13.9" thickBot="1">
       <c r="A17" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -3513,7 +3587,7 @@
         <v>2</v>
       </c>
       <c r="O17" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -3521,35 +3595,35 @@
       <c r="Q17">
         <v>20</v>
       </c>
-      <c r="R17" t="s">
+      <c r="R17" s="37" t="s">
+        <v>352</v>
+      </c>
+      <c r="S17" s="37" t="s">
+        <v>377</v>
+      </c>
+      <c r="X17">
+        <v>2</v>
+      </c>
+      <c r="Y17" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="38" t="s">
+        <v>341</v>
+      </c>
+      <c r="AC17" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="W17">
-        <v>2</v>
-      </c>
-      <c r="X17" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB17" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC17" s="12" t="s">
-        <v>69</v>
-      </c>
       <c r="AD17" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="AE17" s="13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -3564,9 +3638,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:35">
+    <row r="18" spans="1:35" ht="13.9" thickBot="1">
       <c r="A18" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -3605,7 +3679,7 @@
         <v>2</v>
       </c>
       <c r="O18" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -3613,35 +3687,35 @@
       <c r="Q18">
         <v>20</v>
       </c>
-      <c r="R18" t="s">
+      <c r="R18" s="37" t="s">
+        <v>353</v>
+      </c>
+      <c r="S18" s="37" t="s">
+        <v>378</v>
+      </c>
+      <c r="X18">
+        <v>2</v>
+      </c>
+      <c r="Y18" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="38" t="s">
+        <v>341</v>
+      </c>
+      <c r="AC18" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="W18">
-        <v>2</v>
-      </c>
-      <c r="X18" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB18" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC18" s="12" t="s">
-        <v>69</v>
-      </c>
       <c r="AD18" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="AE18" s="13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -3656,9 +3730,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:35">
+    <row r="19" spans="1:35" ht="13.9" thickBot="1">
       <c r="A19" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -3697,7 +3771,7 @@
         <v>2</v>
       </c>
       <c r="O19" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -3705,35 +3779,35 @@
       <c r="Q19">
         <v>20</v>
       </c>
-      <c r="R19" t="s">
+      <c r="R19" s="37" t="s">
+        <v>354</v>
+      </c>
+      <c r="S19" s="37" t="s">
+        <v>379</v>
+      </c>
+      <c r="X19">
+        <v>2</v>
+      </c>
+      <c r="Y19" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="38" t="s">
+        <v>341</v>
+      </c>
+      <c r="AC19" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="W19">
-        <v>2</v>
-      </c>
-      <c r="X19" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB19" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC19" s="12" t="s">
-        <v>69</v>
-      </c>
       <c r="AD19" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="AE19" s="13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -3748,9 +3822,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:35">
+    <row r="20" spans="1:35" ht="13.9" thickBot="1">
       <c r="A20" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -3789,7 +3863,7 @@
         <v>2</v>
       </c>
       <c r="O20" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -3797,35 +3871,35 @@
       <c r="Q20">
         <v>20</v>
       </c>
-      <c r="R20" t="s">
+      <c r="R20" s="37" t="s">
+        <v>355</v>
+      </c>
+      <c r="S20" s="37" t="s">
+        <v>380</v>
+      </c>
+      <c r="X20">
+        <v>2</v>
+      </c>
+      <c r="Y20" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="38" t="s">
+        <v>341</v>
+      </c>
+      <c r="AC20" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="W20">
-        <v>2</v>
-      </c>
-      <c r="X20" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z20">
-        <v>0</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>89</v>
-      </c>
-      <c r="AB20" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC20" s="12" t="s">
-        <v>69</v>
-      </c>
       <c r="AD20" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="AE20" s="13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -3840,9 +3914,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:35">
+    <row r="21" spans="1:35" ht="13.9" thickBot="1">
       <c r="A21" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -3881,7 +3955,7 @@
         <v>2</v>
       </c>
       <c r="O21" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -3889,35 +3963,35 @@
       <c r="Q21">
         <v>20</v>
       </c>
-      <c r="R21" t="s">
+      <c r="R21" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="S21" s="37" t="s">
+        <v>381</v>
+      </c>
+      <c r="X21">
+        <v>2</v>
+      </c>
+      <c r="Y21" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="38" t="s">
+        <v>341</v>
+      </c>
+      <c r="AC21" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="W21">
-        <v>2</v>
-      </c>
-      <c r="X21" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z21">
-        <v>0</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB21" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC21" s="12" t="s">
-        <v>69</v>
-      </c>
       <c r="AD21" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="AE21" s="13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -3934,7 +4008,7 @@
     </row>
     <row r="22" spans="1:35" ht="13.9" thickBot="1">
       <c r="A22" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -3973,7 +4047,7 @@
         <v>2</v>
       </c>
       <c r="O22" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -3981,35 +4055,35 @@
       <c r="Q22">
         <v>20</v>
       </c>
-      <c r="R22" t="s">
+      <c r="R22" s="37" t="s">
+        <v>357</v>
+      </c>
+      <c r="S22" s="37" t="s">
+        <v>381</v>
+      </c>
+      <c r="X22">
+        <v>2</v>
+      </c>
+      <c r="Y22" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="38" t="s">
+        <v>341</v>
+      </c>
+      <c r="AC22" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="W22">
-        <v>2</v>
-      </c>
-      <c r="X22" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z22">
-        <v>0</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB22" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC22" s="12" t="s">
-        <v>69</v>
-      </c>
       <c r="AD22" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="AE22" s="13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -4026,7 +4100,7 @@
     </row>
     <row r="23" spans="1:35" s="31" customFormat="1" ht="13.9" thickBot="1">
       <c r="A23" s="30" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C23" s="31">
         <v>0</v>
@@ -4065,7 +4139,7 @@
         <v>2</v>
       </c>
       <c r="O23" s="31" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="P23" s="31">
         <v>0</v>
@@ -4073,47 +4147,47 @@
       <c r="Q23" s="31">
         <v>20</v>
       </c>
-      <c r="R23" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="S23" s="31" t="s">
-        <v>176</v>
+      <c r="R23" s="36" t="s">
+        <v>358</v>
+      </c>
+      <c r="S23" s="36" t="s">
+        <v>370</v>
       </c>
       <c r="T23" s="31" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="U23" s="31" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="V23" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="W23" s="31">
-        <v>2</v>
-      </c>
-      <c r="X23" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y23" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z23" s="31">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="31" t="s">
-        <v>357</v>
-      </c>
-      <c r="AB23" s="32" t="s">
-        <v>68</v>
+        <v>151</v>
+      </c>
+      <c r="W23" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="X23" s="31">
+        <v>2</v>
+      </c>
+      <c r="Y23" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z23" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA23" s="31">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="31" t="s">
+        <v>341</v>
       </c>
       <c r="AC23" s="33" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="AD23" s="34" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="AE23" s="31" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="AF23" s="31">
         <v>0</v>
@@ -4130,7 +4204,7 @@
     </row>
     <row r="24" spans="1:35" s="27" customFormat="1" ht="13.9" thickBot="1">
       <c r="A24" s="35" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C24" s="27">
         <v>0</v>
@@ -4169,7 +4243,7 @@
         <v>2</v>
       </c>
       <c r="O24" s="27" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="P24" s="27">
         <v>1</v>
@@ -4177,47 +4251,47 @@
       <c r="Q24" s="27">
         <v>20</v>
       </c>
-      <c r="R24" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="S24" s="27" t="s">
-        <v>177</v>
+      <c r="R24" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="S24" s="36" t="s">
+        <v>372</v>
       </c>
       <c r="T24" s="27" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="U24" s="27" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="V24" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="W24" s="27">
-        <v>2</v>
-      </c>
-      <c r="X24" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y24" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z24" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="27" t="s">
-        <v>358</v>
-      </c>
-      <c r="AB24" s="28" t="s">
-        <v>68</v>
+        <v>152</v>
+      </c>
+      <c r="W24" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="X24" s="27">
+        <v>2</v>
+      </c>
+      <c r="Y24" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z24" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA24" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="27" t="s">
+        <v>342</v>
       </c>
       <c r="AC24" s="29" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="AD24" s="14" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="AE24" s="27" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="AF24" s="27">
         <v>0</v>
@@ -4234,7 +4308,7 @@
     </row>
     <row r="25" spans="1:35" s="27" customFormat="1" ht="13.9" thickBot="1">
       <c r="A25" s="35" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C25" s="27">
         <v>0</v>
@@ -4273,7 +4347,7 @@
         <v>2</v>
       </c>
       <c r="O25" s="27" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="P25" s="27">
         <v>0</v>
@@ -4281,47 +4355,47 @@
       <c r="Q25" s="27">
         <v>20</v>
       </c>
-      <c r="R25" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="S25" s="27" t="s">
-        <v>178</v>
+      <c r="R25" s="36" t="s">
+        <v>360</v>
+      </c>
+      <c r="S25" s="36" t="s">
+        <v>373</v>
       </c>
       <c r="T25" s="27" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="U25" s="27" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="V25" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="W25" s="27">
-        <v>2</v>
-      </c>
-      <c r="X25" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y25" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z25" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="27" t="s">
-        <v>359</v>
-      </c>
-      <c r="AB25" s="28" t="s">
-        <v>68</v>
+        <v>153</v>
+      </c>
+      <c r="W25" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="X25" s="27">
+        <v>2</v>
+      </c>
+      <c r="Y25" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z25" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA25" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="27" t="s">
+        <v>343</v>
       </c>
       <c r="AC25" s="29" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="AD25" s="14" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="AE25" s="27" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="AF25" s="27">
         <v>0</v>
@@ -4338,7 +4412,7 @@
     </row>
     <row r="26" spans="1:35" s="27" customFormat="1">
       <c r="A26" s="35" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="C26" s="27">
         <v>0</v>
@@ -4377,7 +4451,7 @@
         <v>2</v>
       </c>
       <c r="O26" s="27" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="P26" s="27">
         <v>0</v>
@@ -4385,47 +4459,47 @@
       <c r="Q26" s="27">
         <v>20</v>
       </c>
-      <c r="R26" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="S26" s="27" t="s">
-        <v>179</v>
+      <c r="R26" s="36" t="s">
+        <v>361</v>
+      </c>
+      <c r="S26" s="36" t="s">
+        <v>374</v>
       </c>
       <c r="T26" s="27" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="U26" s="27" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="V26" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="W26" s="27">
-        <v>2</v>
-      </c>
-      <c r="X26" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y26" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z26" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="27" t="s">
-        <v>360</v>
-      </c>
-      <c r="AB26" s="28" t="s">
-        <v>68</v>
+        <v>154</v>
+      </c>
+      <c r="W26" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="X26" s="27">
+        <v>2</v>
+      </c>
+      <c r="Y26" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z26" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA26" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="27" t="s">
+        <v>344</v>
       </c>
       <c r="AC26" s="29" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="AD26" s="14" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="AE26" s="27" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="AF26" s="27">
         <v>0</v>
@@ -4442,7 +4516,7 @@
     </row>
     <row r="27" spans="1:35" s="25" customFormat="1">
       <c r="A27" s="24" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="C27" s="25">
         <v>0</v>
@@ -4481,7 +4555,7 @@
         <v>2</v>
       </c>
       <c r="O27" s="25" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="P27" s="25">
         <v>0</v>
@@ -4489,35 +4563,35 @@
       <c r="Q27" s="25">
         <v>20</v>
       </c>
-      <c r="R27" s="25" t="s">
+      <c r="R27" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="S27" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="X27" s="25">
+        <v>2</v>
+      </c>
+      <c r="Y27" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z27" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA27" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="AC27" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="W27" s="25">
-        <v>2</v>
-      </c>
-      <c r="X27" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y27" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z27" s="25">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="25" t="s">
-        <v>246</v>
-      </c>
-      <c r="AB27" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC27" s="15" t="s">
-        <v>69</v>
-      </c>
       <c r="AD27" s="25" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="AE27" s="26" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF27" s="25">
         <v>0</v>
@@ -4534,7 +4608,7 @@
     </row>
     <row r="28" spans="1:35" s="16" customFormat="1">
       <c r="A28" s="19" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="C28" s="16">
         <v>0</v>
@@ -4573,7 +4647,7 @@
         <v>2</v>
       </c>
       <c r="O28" s="25" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="P28" s="16">
         <v>0</v>
@@ -4581,35 +4655,35 @@
       <c r="Q28" s="16">
         <v>20</v>
       </c>
-      <c r="R28" s="16" t="s">
+      <c r="R28" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="S28" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="X28" s="16">
+        <v>2</v>
+      </c>
+      <c r="Y28" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z28" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA28" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="AC28" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="W28" s="16">
-        <v>2</v>
-      </c>
-      <c r="X28" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y28" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z28" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="AB28" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC28" s="17" t="s">
-        <v>69</v>
-      </c>
       <c r="AD28" s="16" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="AE28" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF28" s="16">
         <v>0</v>
@@ -4626,7 +4700,7 @@
     </row>
     <row r="29" spans="1:35" s="16" customFormat="1">
       <c r="A29" s="19" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="C29" s="16">
         <v>0</v>
@@ -4665,7 +4739,7 @@
         <v>2</v>
       </c>
       <c r="O29" s="25" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="P29" s="16">
         <v>0</v>
@@ -4674,34 +4748,34 @@
         <v>20</v>
       </c>
       <c r="R29" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="S29" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="X29" s="16">
+        <v>2</v>
+      </c>
+      <c r="Y29" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z29" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA29" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC29" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="W29" s="16">
-        <v>2</v>
-      </c>
-      <c r="X29" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y29" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z29" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="AB29" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC29" s="17" t="s">
-        <v>69</v>
-      </c>
       <c r="AD29" s="16" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="AE29" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF29" s="16">
         <v>0</v>
@@ -4718,7 +4792,7 @@
     </row>
     <row r="30" spans="1:35" s="16" customFormat="1">
       <c r="A30" s="19" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="C30" s="16">
         <v>0</v>
@@ -4757,7 +4831,7 @@
         <v>2</v>
       </c>
       <c r="O30" s="16" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="P30" s="16">
         <v>0</v>
@@ -4766,34 +4840,34 @@
         <v>20</v>
       </c>
       <c r="R30" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="S30" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="X30" s="16">
+        <v>2</v>
+      </c>
+      <c r="Y30" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z30" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA30" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC30" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="W30" s="16">
-        <v>2</v>
-      </c>
-      <c r="X30" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y30" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z30" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="AB30" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC30" s="17" t="s">
-        <v>69</v>
-      </c>
       <c r="AD30" s="16" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="AE30" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF30" s="16">
         <v>0</v>
@@ -4810,7 +4884,7 @@
     </row>
     <row r="31" spans="1:35" s="16" customFormat="1">
       <c r="A31" s="19" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="C31" s="16">
         <v>0</v>
@@ -4849,7 +4923,7 @@
         <v>2</v>
       </c>
       <c r="O31" s="16" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="P31" s="16">
         <v>0</v>
@@ -4858,34 +4932,34 @@
         <v>20</v>
       </c>
       <c r="R31" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="S31" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="X31" s="16">
+        <v>2</v>
+      </c>
+      <c r="Y31" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z31" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA31" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="AC31" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="W31" s="16">
-        <v>2</v>
-      </c>
-      <c r="X31" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y31" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z31" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="AB31" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC31" s="17" t="s">
-        <v>69</v>
-      </c>
       <c r="AD31" s="16" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="AE31" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF31" s="16">
         <v>0</v>
@@ -4902,7 +4976,7 @@
     </row>
     <row r="32" spans="1:35" s="16" customFormat="1">
       <c r="A32" s="19" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="C32" s="16">
         <v>0</v>
@@ -4941,7 +5015,7 @@
         <v>2</v>
       </c>
       <c r="O32" s="16" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="P32" s="16">
         <v>0</v>
@@ -4950,34 +5024,34 @@
         <v>20</v>
       </c>
       <c r="R32" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="S32" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="X32" s="16">
+        <v>2</v>
+      </c>
+      <c r="Y32" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z32" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA32" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="AC32" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="W32" s="16">
-        <v>2</v>
-      </c>
-      <c r="X32" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y32" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z32" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="AB32" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC32" s="17" t="s">
-        <v>69</v>
-      </c>
       <c r="AD32" s="16" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="AE32" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF32" s="16">
         <v>0</v>
@@ -4994,7 +5068,7 @@
     </row>
     <row r="33" spans="1:35" s="16" customFormat="1">
       <c r="A33" s="19" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="C33" s="16">
         <v>0</v>
@@ -5033,7 +5107,7 @@
         <v>2</v>
       </c>
       <c r="O33" s="16" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="P33" s="16">
         <v>0</v>
@@ -5042,34 +5116,34 @@
         <v>20</v>
       </c>
       <c r="R33" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="S33" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="X33" s="16">
+        <v>2</v>
+      </c>
+      <c r="Y33" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z33" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA33" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="AC33" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="W33" s="16">
-        <v>2</v>
-      </c>
-      <c r="X33" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y33" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z33" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA33" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="AB33" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC33" s="17" t="s">
-        <v>69</v>
-      </c>
       <c r="AD33" s="16" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="AE33" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF33" s="16">
         <v>0</v>
@@ -5086,7 +5160,7 @@
     </row>
     <row r="34" spans="1:35" s="16" customFormat="1">
       <c r="A34" s="19" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="C34" s="16">
         <v>0</v>
@@ -5125,7 +5199,7 @@
         <v>2</v>
       </c>
       <c r="O34" s="16" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="P34" s="16">
         <v>0</v>
@@ -5133,35 +5207,35 @@
       <c r="Q34" s="16">
         <v>20</v>
       </c>
-      <c r="R34" s="16" t="s">
+      <c r="R34" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="S34" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="X34" s="16">
+        <v>2</v>
+      </c>
+      <c r="Y34" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z34" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA34" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="AC34" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="W34" s="16">
-        <v>2</v>
-      </c>
-      <c r="X34" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y34" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z34" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA34" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="AB34" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC34" s="17" t="s">
-        <v>69</v>
-      </c>
       <c r="AD34" s="16" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="AE34" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF34" s="16">
         <v>0</v>
@@ -5178,7 +5252,7 @@
     </row>
     <row r="35" spans="1:35" s="16" customFormat="1">
       <c r="A35" s="19" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="C35" s="16">
         <v>0</v>
@@ -5217,7 +5291,7 @@
         <v>2</v>
       </c>
       <c r="O35" s="16" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="P35" s="16">
         <v>0</v>
@@ -5225,35 +5299,35 @@
       <c r="Q35" s="16">
         <v>20</v>
       </c>
-      <c r="R35" s="16" t="s">
+      <c r="R35" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="S35" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="X35" s="16">
+        <v>2</v>
+      </c>
+      <c r="Y35" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z35" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA35" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC35" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="W35" s="16">
-        <v>2</v>
-      </c>
-      <c r="X35" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y35" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z35" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="AB35" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC35" s="17" t="s">
-        <v>69</v>
-      </c>
       <c r="AD35" s="16" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="AE35" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF35" s="16">
         <v>0</v>
@@ -5270,7 +5344,7 @@
     </row>
     <row r="36" spans="1:35" s="16" customFormat="1">
       <c r="A36" s="19" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="C36" s="16">
         <v>0</v>
@@ -5309,7 +5383,7 @@
         <v>3</v>
       </c>
       <c r="O36" s="16" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="P36" s="16">
         <v>0</v>
@@ -5317,35 +5391,35 @@
       <c r="Q36" s="16">
         <v>20</v>
       </c>
-      <c r="R36" s="16" t="s">
+      <c r="R36" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="S36" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="X36" s="16">
+        <v>2</v>
+      </c>
+      <c r="Y36" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z36" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA36" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="AC36" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="W36" s="16">
-        <v>2</v>
-      </c>
-      <c r="X36" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y36" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z36" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA36" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="AB36" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC36" s="17" t="s">
-        <v>69</v>
-      </c>
       <c r="AD36" s="16" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="AE36" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF36" s="16">
         <v>0</v>
@@ -5362,7 +5436,7 @@
     </row>
     <row r="37" spans="1:35" s="16" customFormat="1">
       <c r="A37" s="19" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="C37" s="16">
         <v>0</v>
@@ -5401,7 +5475,7 @@
         <v>3</v>
       </c>
       <c r="O37" s="16" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="P37" s="16">
         <v>0</v>
@@ -5409,35 +5483,35 @@
       <c r="Q37" s="16">
         <v>20</v>
       </c>
-      <c r="R37" s="16" t="s">
+      <c r="R37" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="S37" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="X37" s="16">
+        <v>2</v>
+      </c>
+      <c r="Y37" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z37" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA37" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="AC37" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="W37" s="16">
-        <v>2</v>
-      </c>
-      <c r="X37" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y37" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z37" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA37" s="16" t="s">
-        <v>256</v>
-      </c>
-      <c r="AB37" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC37" s="17" t="s">
-        <v>69</v>
-      </c>
       <c r="AD37" s="16" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="AE37" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF37" s="16">
         <v>0</v>
@@ -5454,7 +5528,7 @@
     </row>
     <row r="38" spans="1:35" s="16" customFormat="1">
       <c r="A38" s="19" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="C38" s="16">
         <v>0</v>
@@ -5493,7 +5567,7 @@
         <v>3</v>
       </c>
       <c r="O38" s="16" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="P38" s="16">
         <v>0</v>
@@ -5501,35 +5575,35 @@
       <c r="Q38" s="16">
         <v>20</v>
       </c>
-      <c r="R38" s="16" t="s">
+      <c r="R38" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="S38" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="X38" s="16">
+        <v>2</v>
+      </c>
+      <c r="Y38" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z38" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA38" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="AC38" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="W38" s="16">
-        <v>2</v>
-      </c>
-      <c r="X38" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y38" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z38" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA38" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="AB38" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC38" s="17" t="s">
-        <v>69</v>
-      </c>
       <c r="AD38" s="16" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="AE38" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF38" s="16">
         <v>0</v>
@@ -5546,7 +5620,7 @@
     </row>
     <row r="39" spans="1:35" s="16" customFormat="1">
       <c r="A39" s="19" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="C39" s="16">
         <v>0</v>
@@ -5585,7 +5659,7 @@
         <v>1</v>
       </c>
       <c r="O39" s="16" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="P39" s="16">
         <v>0</v>
@@ -5593,35 +5667,35 @@
       <c r="Q39" s="16">
         <v>20</v>
       </c>
-      <c r="R39" s="16" t="s">
+      <c r="R39" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="S39" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="X39" s="16">
+        <v>2</v>
+      </c>
+      <c r="Y39" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z39" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA39" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="AC39" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="W39" s="16">
-        <v>2</v>
-      </c>
-      <c r="X39" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y39" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z39" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA39" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="AB39" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC39" s="17" t="s">
-        <v>69</v>
-      </c>
       <c r="AD39" s="16" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="AE39" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF39" s="16">
         <v>0</v>
@@ -5638,7 +5712,7 @@
     </row>
     <row r="40" spans="1:35" s="16" customFormat="1">
       <c r="A40" s="19" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="C40" s="16">
         <v>0</v>
@@ -5677,7 +5751,7 @@
         <v>1</v>
       </c>
       <c r="O40" s="16" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="P40" s="16">
         <v>0</v>
@@ -5685,35 +5759,35 @@
       <c r="Q40" s="16">
         <v>20</v>
       </c>
-      <c r="R40" s="16" t="s">
+      <c r="R40" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="S40" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="X40" s="16">
+        <v>2</v>
+      </c>
+      <c r="Y40" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z40" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA40" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="AC40" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="W40" s="16">
-        <v>2</v>
-      </c>
-      <c r="X40" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y40" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z40" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA40" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="AB40" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC40" s="17" t="s">
-        <v>69</v>
-      </c>
       <c r="AD40" s="16" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="AE40" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF40" s="16">
         <v>0</v>
@@ -5730,7 +5804,7 @@
     </row>
     <row r="41" spans="1:35" s="16" customFormat="1">
       <c r="A41" s="19" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="C41" s="16">
         <v>0</v>
@@ -5769,7 +5843,7 @@
         <v>1</v>
       </c>
       <c r="O41" s="16" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="P41" s="16">
         <v>0</v>
@@ -5777,35 +5851,35 @@
       <c r="Q41" s="16">
         <v>20</v>
       </c>
-      <c r="R41" s="16" t="s">
+      <c r="R41" s="17" t="s">
+        <v>353</v>
+      </c>
+      <c r="S41" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="X41" s="16">
+        <v>2</v>
+      </c>
+      <c r="Y41" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z41" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA41" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="AC41" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="W41" s="16">
-        <v>2</v>
-      </c>
-      <c r="X41" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y41" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z41" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA41" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="AB41" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC41" s="17" t="s">
-        <v>69</v>
-      </c>
       <c r="AD41" s="16" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="AE41" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF41" s="16">
         <v>0</v>
@@ -5822,7 +5896,7 @@
     </row>
     <row r="42" spans="1:35" s="16" customFormat="1">
       <c r="A42" s="19" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="C42" s="16">
         <v>0</v>
@@ -5861,7 +5935,7 @@
         <v>2</v>
       </c>
       <c r="O42" s="16" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="P42" s="16">
         <v>0</v>
@@ -5869,35 +5943,35 @@
       <c r="Q42" s="16">
         <v>20</v>
       </c>
-      <c r="R42" s="16" t="s">
+      <c r="R42" s="17" t="s">
+        <v>354</v>
+      </c>
+      <c r="S42" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="X42" s="16">
+        <v>2</v>
+      </c>
+      <c r="Y42" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z42" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA42" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="AC42" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="W42" s="16">
-        <v>2</v>
-      </c>
-      <c r="X42" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y42" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z42" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA42" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="AB42" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC42" s="17" t="s">
-        <v>69</v>
-      </c>
       <c r="AD42" s="16" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="AE42" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF42" s="16">
         <v>0</v>
@@ -5914,7 +5988,7 @@
     </row>
     <row r="43" spans="1:35" s="16" customFormat="1">
       <c r="A43" s="19" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="C43" s="16">
         <v>0</v>
@@ -5953,7 +6027,7 @@
         <v>2</v>
       </c>
       <c r="O43" s="16" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="P43" s="16">
         <v>0</v>
@@ -5961,35 +6035,35 @@
       <c r="Q43" s="16">
         <v>20</v>
       </c>
-      <c r="R43" s="16" t="s">
+      <c r="R43" s="17" t="s">
+        <v>355</v>
+      </c>
+      <c r="S43" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="X43" s="16">
+        <v>2</v>
+      </c>
+      <c r="Y43" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z43" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA43" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="AC43" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="W43" s="16">
-        <v>2</v>
-      </c>
-      <c r="X43" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y43" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z43" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA43" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="AB43" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC43" s="17" t="s">
-        <v>69</v>
-      </c>
       <c r="AD43" s="16" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="AE43" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF43" s="16">
         <v>0</v>
@@ -6006,7 +6080,7 @@
     </row>
     <row r="44" spans="1:35" s="16" customFormat="1">
       <c r="A44" s="19" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="C44" s="16">
         <v>0</v>
@@ -6045,7 +6119,7 @@
         <v>2</v>
       </c>
       <c r="O44" s="16" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="P44" s="16">
         <v>0</v>
@@ -6053,35 +6127,35 @@
       <c r="Q44" s="16">
         <v>20</v>
       </c>
-      <c r="R44" s="16" t="s">
+      <c r="R44" s="17" t="s">
+        <v>356</v>
+      </c>
+      <c r="S44" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="X44" s="16">
+        <v>2</v>
+      </c>
+      <c r="Y44" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z44" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA44" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="AC44" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="W44" s="16">
-        <v>2</v>
-      </c>
-      <c r="X44" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y44" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z44" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA44" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="AB44" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC44" s="17" t="s">
-        <v>69</v>
-      </c>
       <c r="AD44" s="16" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="AE44" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF44" s="16">
         <v>0</v>
@@ -6098,7 +6172,7 @@
     </row>
     <row r="45" spans="1:35" s="16" customFormat="1">
       <c r="A45" s="19" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="C45" s="16">
         <v>0</v>
@@ -6137,7 +6211,7 @@
         <v>2</v>
       </c>
       <c r="O45" s="16" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="P45" s="16">
         <v>0</v>
@@ -6145,35 +6219,35 @@
       <c r="Q45" s="16">
         <v>20</v>
       </c>
-      <c r="R45" s="16" t="s">
+      <c r="R45" s="17" t="s">
+        <v>357</v>
+      </c>
+      <c r="S45" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="X45" s="16">
+        <v>2</v>
+      </c>
+      <c r="Y45" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z45" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA45" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="AC45" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="W45" s="16">
-        <v>2</v>
-      </c>
-      <c r="X45" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y45" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z45" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA45" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="AB45" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC45" s="17" t="s">
-        <v>69</v>
-      </c>
       <c r="AD45" s="16" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="AE45" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF45" s="16">
         <v>0</v>
@@ -6190,7 +6264,7 @@
     </row>
     <row r="46" spans="1:35" s="16" customFormat="1">
       <c r="A46" s="19" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="C46" s="16">
         <v>0</v>
@@ -6229,7 +6303,7 @@
         <v>2</v>
       </c>
       <c r="O46" s="16" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="P46" s="16">
         <v>0</v>
@@ -6237,35 +6311,35 @@
       <c r="Q46" s="16">
         <v>20</v>
       </c>
-      <c r="R46" s="16" t="s">
+      <c r="R46" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="S46" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="X46" s="16">
+        <v>2</v>
+      </c>
+      <c r="Y46" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z46" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA46" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="AC46" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="W46" s="16">
-        <v>2</v>
-      </c>
-      <c r="X46" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y46" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z46" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA46" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="AB46" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC46" s="17" t="s">
-        <v>69</v>
-      </c>
       <c r="AD46" s="16" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="AE46" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF46" s="16">
         <v>0</v>
@@ -6282,7 +6356,7 @@
     </row>
     <row r="47" spans="1:35" s="16" customFormat="1">
       <c r="A47" s="19" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="C47" s="16">
         <v>0</v>
@@ -6321,7 +6395,7 @@
         <v>2</v>
       </c>
       <c r="O47" s="16" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="P47" s="16">
         <v>0</v>
@@ -6329,35 +6403,35 @@
       <c r="Q47" s="16">
         <v>20</v>
       </c>
-      <c r="R47" s="16" t="s">
+      <c r="R47" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="S47" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="X47" s="16">
+        <v>2</v>
+      </c>
+      <c r="Y47" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z47" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA47" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="AC47" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="W47" s="16">
-        <v>2</v>
-      </c>
-      <c r="X47" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y47" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z47" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA47" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="AB47" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC47" s="17" t="s">
-        <v>69</v>
-      </c>
       <c r="AD47" s="16" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="AE47" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF47" s="16">
         <v>0</v>
@@ -6374,7 +6448,7 @@
     </row>
     <row r="48" spans="1:35" s="16" customFormat="1">
       <c r="A48" s="19" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="C48" s="16">
         <v>0</v>
@@ -6413,7 +6487,7 @@
         <v>3</v>
       </c>
       <c r="O48" s="16" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="P48" s="16">
         <v>0</v>
@@ -6421,35 +6495,35 @@
       <c r="Q48" s="16">
         <v>20</v>
       </c>
-      <c r="R48" s="16" t="s">
+      <c r="R48" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="S48" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="X48" s="16">
+        <v>2</v>
+      </c>
+      <c r="Y48" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z48" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA48" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="AC48" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="W48" s="16">
-        <v>2</v>
-      </c>
-      <c r="X48" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y48" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z48" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA48" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="AB48" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC48" s="17" t="s">
-        <v>69</v>
-      </c>
       <c r="AD48" s="16" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="AE48" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF48" s="16">
         <v>0</v>
@@ -6466,7 +6540,7 @@
     </row>
     <row r="49" spans="1:35" s="16" customFormat="1">
       <c r="A49" s="19" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="C49" s="16">
         <v>0</v>
@@ -6505,7 +6579,7 @@
         <v>3</v>
       </c>
       <c r="O49" s="16" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="P49" s="16">
         <v>0</v>
@@ -6513,35 +6587,35 @@
       <c r="Q49" s="16">
         <v>20</v>
       </c>
-      <c r="R49" s="16" t="s">
+      <c r="R49" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="S49" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="X49" s="16">
+        <v>2</v>
+      </c>
+      <c r="Y49" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z49" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA49" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="AC49" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="W49" s="16">
-        <v>2</v>
-      </c>
-      <c r="X49" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y49" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z49" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA49" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="AB49" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC49" s="17" t="s">
-        <v>69</v>
-      </c>
       <c r="AD49" s="16" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="AE49" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF49" s="16">
         <v>0</v>
@@ -6558,7 +6632,7 @@
     </row>
     <row r="50" spans="1:35" s="16" customFormat="1">
       <c r="A50" s="19" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="C50" s="16">
         <v>0</v>
@@ -6597,7 +6671,7 @@
         <v>3</v>
       </c>
       <c r="O50" s="16" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="P50" s="16">
         <v>0</v>
@@ -6605,35 +6679,35 @@
       <c r="Q50" s="16">
         <v>20</v>
       </c>
-      <c r="R50" s="16" t="s">
+      <c r="R50" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="S50" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="X50" s="16">
+        <v>2</v>
+      </c>
+      <c r="Y50" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z50" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA50" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="AC50" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="W50" s="16">
-        <v>2</v>
-      </c>
-      <c r="X50" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y50" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z50" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA50" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="AB50" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC50" s="17" t="s">
-        <v>69</v>
-      </c>
       <c r="AD50" s="16" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="AE50" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF50" s="16">
         <v>0</v>
@@ -6650,7 +6724,7 @@
     </row>
     <row r="51" spans="1:35" s="16" customFormat="1">
       <c r="A51" s="19" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="C51" s="16">
         <v>0</v>
@@ -6689,7 +6763,7 @@
         <v>2</v>
       </c>
       <c r="O51" s="16" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="P51" s="16">
         <v>0</v>
@@ -6697,35 +6771,35 @@
       <c r="Q51" s="16">
         <v>20</v>
       </c>
-      <c r="R51" s="16" t="s">
+      <c r="R51" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="S51" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="X51" s="16">
+        <v>2</v>
+      </c>
+      <c r="Y51" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z51" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA51" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="AC51" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="W51" s="16">
-        <v>2</v>
-      </c>
-      <c r="X51" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y51" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z51" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA51" s="16" t="s">
-        <v>267</v>
-      </c>
-      <c r="AB51" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC51" s="17" t="s">
-        <v>69</v>
-      </c>
       <c r="AD51" s="16" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="AE51" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF51" s="16">
         <v>0</v>
@@ -6742,7 +6816,7 @@
     </row>
     <row r="52" spans="1:35" s="16" customFormat="1">
       <c r="A52" s="19" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="C52" s="16">
         <v>0</v>
@@ -6781,7 +6855,7 @@
         <v>2</v>
       </c>
       <c r="O52" s="16" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="P52" s="16">
         <v>0</v>
@@ -6790,34 +6864,34 @@
         <v>20</v>
       </c>
       <c r="R52" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="S52" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="X52" s="16">
+        <v>2</v>
+      </c>
+      <c r="Y52" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z52" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA52" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="AC52" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="W52" s="16">
-        <v>2</v>
-      </c>
-      <c r="X52" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y52" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z52" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA52" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="AB52" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC52" s="17" t="s">
-        <v>69</v>
-      </c>
       <c r="AD52" s="16" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="AE52" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF52" s="16">
         <v>0</v>
@@ -6834,7 +6908,7 @@
     </row>
     <row r="53" spans="1:35" s="16" customFormat="1">
       <c r="A53" s="19" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="C53" s="16">
         <v>0</v>
@@ -6873,7 +6947,7 @@
         <v>2</v>
       </c>
       <c r="O53" s="16" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="P53" s="16">
         <v>0</v>
@@ -6882,34 +6956,34 @@
         <v>20</v>
       </c>
       <c r="R53" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="S53" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="X53" s="16">
+        <v>2</v>
+      </c>
+      <c r="Y53" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z53" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA53" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="AC53" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="W53" s="16">
-        <v>2</v>
-      </c>
-      <c r="X53" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y53" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z53" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA53" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="AB53" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC53" s="17" t="s">
-        <v>69</v>
-      </c>
       <c r="AD53" s="16" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="AE53" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF53" s="16">
         <v>0</v>
@@ -6926,7 +7000,7 @@
     </row>
     <row r="54" spans="1:35" s="16" customFormat="1">
       <c r="A54" s="19" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="C54" s="16">
         <v>0</v>
@@ -6965,7 +7039,7 @@
         <v>3</v>
       </c>
       <c r="O54" s="16" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="P54" s="16">
         <v>0</v>
@@ -6974,34 +7048,34 @@
         <v>20</v>
       </c>
       <c r="R54" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="S54" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="X54" s="16">
+        <v>2</v>
+      </c>
+      <c r="Y54" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z54" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA54" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="AC54" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="W54" s="16">
-        <v>2</v>
-      </c>
-      <c r="X54" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y54" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z54" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA54" s="16" t="s">
-        <v>270</v>
-      </c>
-      <c r="AB54" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC54" s="17" t="s">
-        <v>69</v>
-      </c>
       <c r="AD54" s="16" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="AE54" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF54" s="16">
         <v>0</v>
@@ -7018,7 +7092,7 @@
     </row>
     <row r="55" spans="1:35" s="16" customFormat="1">
       <c r="A55" s="19" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="C55" s="16">
         <v>0</v>
@@ -7057,7 +7131,7 @@
         <v>3</v>
       </c>
       <c r="O55" s="16" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="P55" s="16">
         <v>0</v>
@@ -7066,34 +7140,34 @@
         <v>20</v>
       </c>
       <c r="R55" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="S55" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="X55" s="16">
+        <v>2</v>
+      </c>
+      <c r="Y55" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z55" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA55" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="AC55" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="W55" s="16">
-        <v>2</v>
-      </c>
-      <c r="X55" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y55" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z55" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA55" s="16" t="s">
-        <v>271</v>
-      </c>
-      <c r="AB55" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC55" s="17" t="s">
-        <v>69</v>
-      </c>
       <c r="AD55" s="16" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="AE55" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF55" s="16">
         <v>0</v>
@@ -7110,7 +7184,7 @@
     </row>
     <row r="56" spans="1:35" s="16" customFormat="1">
       <c r="A56" s="19" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="C56" s="16">
         <v>0</v>
@@ -7149,7 +7223,7 @@
         <v>3</v>
       </c>
       <c r="O56" s="16" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="P56" s="16">
         <v>0</v>
@@ -7158,34 +7232,34 @@
         <v>20</v>
       </c>
       <c r="R56" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="S56" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="X56" s="16">
+        <v>2</v>
+      </c>
+      <c r="Y56" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z56" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA56" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB56" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="AC56" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="W56" s="16">
-        <v>2</v>
-      </c>
-      <c r="X56" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y56" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z56" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA56" s="16" t="s">
-        <v>272</v>
-      </c>
-      <c r="AB56" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC56" s="17" t="s">
-        <v>69</v>
-      </c>
       <c r="AD56" s="16" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="AE56" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF56" s="16">
         <v>0</v>
@@ -7202,7 +7276,7 @@
     </row>
     <row r="57" spans="1:35" s="16" customFormat="1">
       <c r="A57" s="19" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="C57" s="16">
         <v>0</v>
@@ -7241,7 +7315,7 @@
         <v>2</v>
       </c>
       <c r="O57" s="16" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="P57" s="16">
         <v>0</v>
@@ -7250,34 +7324,34 @@
         <v>20</v>
       </c>
       <c r="R57" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="S57" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="X57" s="16">
+        <v>2</v>
+      </c>
+      <c r="Y57" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z57" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA57" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="AC57" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="W57" s="16">
-        <v>2</v>
-      </c>
-      <c r="X57" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y57" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z57" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA57" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="AB57" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC57" s="17" t="s">
-        <v>69</v>
-      </c>
       <c r="AD57" s="16" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="AE57" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF57" s="16">
         <v>0</v>
@@ -7294,7 +7368,7 @@
     </row>
     <row r="58" spans="1:35" s="16" customFormat="1">
       <c r="A58" s="19" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="C58" s="16">
         <v>0</v>
@@ -7333,7 +7407,7 @@
         <v>2</v>
       </c>
       <c r="O58" s="16" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="P58" s="16">
         <v>0</v>
@@ -7342,34 +7416,34 @@
         <v>20</v>
       </c>
       <c r="R58" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="S58" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="X58" s="16">
+        <v>2</v>
+      </c>
+      <c r="Y58" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z58" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA58" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="AC58" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="W58" s="16">
-        <v>2</v>
-      </c>
-      <c r="X58" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y58" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z58" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA58" s="16" t="s">
-        <v>274</v>
-      </c>
-      <c r="AB58" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC58" s="17" t="s">
-        <v>69</v>
-      </c>
       <c r="AD58" s="16" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="AE58" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF58" s="16">
         <v>0</v>
@@ -7386,7 +7460,7 @@
     </row>
     <row r="59" spans="1:35" s="21" customFormat="1" ht="13.9" thickBot="1">
       <c r="A59" s="20" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="C59" s="21">
         <v>0</v>
@@ -7425,7 +7499,7 @@
         <v>2</v>
       </c>
       <c r="O59" s="16" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="P59" s="21">
         <v>0</v>
@@ -7433,35 +7507,35 @@
       <c r="Q59" s="21">
         <v>20</v>
       </c>
-      <c r="R59" s="21" t="s">
+      <c r="R59" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="S59" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="X59" s="21">
+        <v>2</v>
+      </c>
+      <c r="Y59" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z59" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA59" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="AC59" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="W59" s="21">
-        <v>2</v>
-      </c>
-      <c r="X59" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y59" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z59" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA59" s="21" t="s">
-        <v>275</v>
-      </c>
-      <c r="AB59" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC59" s="22" t="s">
-        <v>69</v>
-      </c>
       <c r="AD59" s="21" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="AE59" s="23" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF59" s="21">
         <v>0</v>
@@ -7478,7 +7552,7 @@
     </row>
     <row r="60" spans="1:35" s="16" customFormat="1">
       <c r="A60" s="19" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="C60" s="16">
         <v>0</v>
@@ -7517,7 +7591,7 @@
         <v>2</v>
       </c>
       <c r="O60" s="16" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="P60" s="16">
         <v>0</v>
@@ -7526,34 +7600,34 @@
         <v>20</v>
       </c>
       <c r="R60" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="S60" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="X60" s="16">
+        <v>2</v>
+      </c>
+      <c r="Y60" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z60" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA60" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="AC60" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="W60" s="16">
-        <v>2</v>
-      </c>
-      <c r="X60" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y60" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z60" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA60" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="AB60" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC60" s="17" t="s">
-        <v>69</v>
-      </c>
       <c r="AD60" s="16" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="AE60" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF60" s="16">
         <v>0</v>
@@ -7570,7 +7644,7 @@
     </row>
     <row r="61" spans="1:35" s="16" customFormat="1">
       <c r="A61" s="19" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="C61" s="16">
         <v>0</v>
@@ -7609,7 +7683,7 @@
         <v>2</v>
       </c>
       <c r="O61" s="16" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="P61" s="16">
         <v>0</v>
@@ -7618,34 +7692,34 @@
         <v>20</v>
       </c>
       <c r="R61" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="S61" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="X61" s="16">
+        <v>2</v>
+      </c>
+      <c r="Y61" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z61" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA61" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="AC61" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="W61" s="16">
-        <v>2</v>
-      </c>
-      <c r="X61" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y61" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z61" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA61" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="AB61" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC61" s="17" t="s">
-        <v>69</v>
-      </c>
       <c r="AD61" s="16" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="AE61" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF61" s="16">
         <v>0</v>
@@ -7662,7 +7736,7 @@
     </row>
     <row r="62" spans="1:35" s="21" customFormat="1" ht="13.9" thickBot="1">
       <c r="A62" s="20" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="C62" s="21">
         <v>0</v>
@@ -7701,7 +7775,7 @@
         <v>2</v>
       </c>
       <c r="O62" s="16" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="P62" s="21">
         <v>0</v>
@@ -7709,35 +7783,35 @@
       <c r="Q62" s="21">
         <v>20</v>
       </c>
-      <c r="R62" s="21" t="s">
+      <c r="R62" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="S62" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="X62" s="21">
+        <v>2</v>
+      </c>
+      <c r="Y62" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z62" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA62" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="AC62" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="W62" s="21">
-        <v>2</v>
-      </c>
-      <c r="X62" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y62" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z62" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA62" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="AB62" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC62" s="22" t="s">
-        <v>69</v>
-      </c>
       <c r="AD62" s="21" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="AE62" s="23" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF62" s="21">
         <v>0</v>
@@ -7755,7 +7829,7 @@
   </sheetData>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:AI9" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y8:Z9 AB8:AB9 AC7:AI9 B7:Q9 T7:X9 AA7:AA9 R8:S9" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7783,188 +7857,188 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:30" s="2" customFormat="1">
       <c r="A2" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:30" s="2" customFormat="1">
       <c r="A3" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -8056,7 +8130,7 @@
     </row>
     <row r="4" spans="1:30" s="2" customFormat="1">
       <c r="A4" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
@@ -8148,7 +8222,7 @@
     </row>
     <row r="5" spans="1:30" s="2" customFormat="1">
       <c r="A5" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -8240,7 +8314,7 @@
     </row>
     <row r="6" spans="1:30" s="2" customFormat="1">
       <c r="A6" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
@@ -8332,7 +8406,7 @@
     </row>
     <row r="7" spans="1:30" s="3" customFormat="1">
       <c r="A7" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" s="3">
         <v>0</v>
@@ -8424,7 +8498,7 @@
     </row>
     <row r="8" spans="1:30" s="3" customFormat="1">
       <c r="A8" s="7" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -8516,7 +8590,7 @@
     </row>
     <row r="9" spans="1:30" s="3" customFormat="1">
       <c r="A9" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
@@ -8608,94 +8682,94 @@
     </row>
     <row r="10" spans="1:30" s="4" customFormat="1" ht="54">
       <c r="A10" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="U10" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="V10" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="W10" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="4" t="s">
+      <c r="X10" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="Y10" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="Z10" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="AA10" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="AB10" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="AC10" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="N10" s="4" t="s">
+      <c r="AD10" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="S10" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="T10" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="U10" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="V10" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="W10" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="X10" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y10" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="Z10" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA10" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="AB10" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AC10" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="AD10" s="4" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:30">

--- a/_Out/NFDataCfg/Excel/NPC.xlsx
+++ b/_Out/NFDataCfg/Excel/NPC.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="370">
   <si>
     <t>Id</t>
   </si>
@@ -233,42 +233,6 @@
   </si>
   <si>
     <t>Prefabs/Object/Dwarf_Warrior</t>
-  </si>
-  <si>
-    <t>PlayerAtt21</t>
-  </si>
-  <si>
-    <t>PlayerAtt26</t>
-  </si>
-  <si>
-    <t>PlayerAtt31</t>
-  </si>
-  <si>
-    <t>PlayerAtt34</t>
-  </si>
-  <si>
-    <t>PlayerAtt38</t>
-  </si>
-  <si>
-    <t>PlayerAtt42</t>
-  </si>
-  <si>
-    <t>PlayerAtt44</t>
-  </si>
-  <si>
-    <t>PlayerAtt45</t>
-  </si>
-  <si>
-    <t>PlayerAtt48</t>
-  </si>
-  <si>
-    <t>PlayerAtt49</t>
-  </si>
-  <si>
-    <t>PlayerAtt51</t>
-  </si>
-  <si>
-    <t>PlayerAtt52</t>
   </si>
   <si>
     <t>NPC_HERO_Orc_Slinger</t>
@@ -1419,7 +1383,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1502,9 +1466,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
@@ -1906,9 +1867,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB11" sqref="AB11:AB21"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AF50" sqref="AF50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1950,7 +1911,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1968,7 +1929,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>8</v>
@@ -1977,7 +1938,7 @@
         <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>13</v>
@@ -1986,7 +1947,7 @@
         <v>10</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>11</v>
@@ -1995,19 +1956,19 @@
         <v>12</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>13</v>
@@ -2254,7 +2215,7 @@
         <v>0</v>
       </c>
       <c r="AH3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI3" s="2">
         <v>0</v>
@@ -2690,7 +2651,7 @@
     </row>
     <row r="8" spans="1:35" s="3" customFormat="1">
       <c r="A8" s="7" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -2943,7 +2904,7 @@
         <v>48</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="T10" s="4" t="s">
         <v>49</v>
@@ -3043,11 +3004,11 @@
       <c r="Q11">
         <v>20</v>
       </c>
-      <c r="R11" s="37" t="s">
-        <v>346</v>
-      </c>
-      <c r="S11" s="37" t="s">
-        <v>370</v>
+      <c r="R11" s="36" t="s">
+        <v>334</v>
+      </c>
+      <c r="S11" s="36" t="s">
+        <v>358</v>
       </c>
       <c r="X11">
         <v>2</v>
@@ -3061,8 +3022,8 @@
       <c r="AA11">
         <v>0</v>
       </c>
-      <c r="AB11" s="38" t="s">
-        <v>341</v>
+      <c r="AB11" s="37" t="s">
+        <v>329</v>
       </c>
       <c r="AC11" s="12" t="s">
         <v>64</v>
@@ -3088,7 +3049,7 @@
     </row>
     <row r="12" spans="1:35" ht="13.9" thickBot="1">
       <c r="A12" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -3127,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -3135,17 +3096,17 @@
       <c r="Q12">
         <v>20</v>
       </c>
-      <c r="R12" s="37" t="s">
-        <v>347</v>
-      </c>
-      <c r="S12" s="37" t="s">
-        <v>372</v>
+      <c r="R12" s="36" t="s">
+        <v>335</v>
+      </c>
+      <c r="S12" s="36" t="s">
+        <v>360</v>
       </c>
       <c r="X12">
         <v>2</v>
       </c>
       <c r="Y12" s="9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="Z12" t="s">
         <v>63</v>
@@ -3153,14 +3114,14 @@
       <c r="AA12">
         <v>0</v>
       </c>
-      <c r="AB12" s="38" t="s">
-        <v>341</v>
+      <c r="AB12" s="37" t="s">
+        <v>329</v>
       </c>
       <c r="AC12" s="12" t="s">
         <v>64</v>
       </c>
       <c r="AD12" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="AE12" s="13" t="s">
         <v>65</v>
@@ -3180,7 +3141,7 @@
     </row>
     <row r="13" spans="1:35" ht="13.9" thickBot="1">
       <c r="A13" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -3219,7 +3180,7 @@
         <v>2</v>
       </c>
       <c r="O13" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -3227,17 +3188,17 @@
       <c r="Q13">
         <v>20</v>
       </c>
-      <c r="R13" s="37" t="s">
-        <v>348</v>
-      </c>
-      <c r="S13" s="37" t="s">
-        <v>373</v>
+      <c r="R13" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="S13" s="36" t="s">
+        <v>361</v>
       </c>
       <c r="X13">
         <v>2</v>
       </c>
       <c r="Y13" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="Z13" t="s">
         <v>63</v>
@@ -3245,14 +3206,14 @@
       <c r="AA13">
         <v>0</v>
       </c>
-      <c r="AB13" s="38" t="s">
-        <v>341</v>
+      <c r="AB13" s="37" t="s">
+        <v>329</v>
       </c>
       <c r="AC13" s="12" t="s">
         <v>64</v>
       </c>
       <c r="AD13" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="AE13" s="13" t="s">
         <v>65</v>
@@ -3272,7 +3233,7 @@
     </row>
     <row r="14" spans="1:35" ht="13.9" thickBot="1">
       <c r="A14" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -3311,7 +3272,7 @@
         <v>2</v>
       </c>
       <c r="O14" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -3319,17 +3280,17 @@
       <c r="Q14">
         <v>20</v>
       </c>
-      <c r="R14" s="37" t="s">
-        <v>349</v>
-      </c>
-      <c r="S14" s="37" t="s">
-        <v>374</v>
+      <c r="R14" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="S14" s="36" t="s">
+        <v>362</v>
       </c>
       <c r="X14">
         <v>2</v>
       </c>
       <c r="Y14" s="9" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="Z14" t="s">
         <v>63</v>
@@ -3337,14 +3298,14 @@
       <c r="AA14">
         <v>0</v>
       </c>
-      <c r="AB14" s="38" t="s">
-        <v>341</v>
+      <c r="AB14" s="37" t="s">
+        <v>329</v>
       </c>
       <c r="AC14" s="12" t="s">
         <v>64</v>
       </c>
       <c r="AD14" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="AE14" s="13" t="s">
         <v>65</v>
@@ -3364,7 +3325,7 @@
     </row>
     <row r="15" spans="1:35" ht="13.9" thickBot="1">
       <c r="A15" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -3403,7 +3364,7 @@
         <v>2</v>
       </c>
       <c r="O15" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -3411,17 +3372,17 @@
       <c r="Q15">
         <v>20</v>
       </c>
-      <c r="R15" s="37" t="s">
-        <v>350</v>
-      </c>
-      <c r="S15" s="37" t="s">
-        <v>375</v>
+      <c r="R15" s="36" t="s">
+        <v>338</v>
+      </c>
+      <c r="S15" s="36" t="s">
+        <v>363</v>
       </c>
       <c r="X15">
         <v>2</v>
       </c>
       <c r="Y15" s="9" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="Z15" t="s">
         <v>63</v>
@@ -3429,14 +3390,14 @@
       <c r="AA15">
         <v>0</v>
       </c>
-      <c r="AB15" s="38" t="s">
-        <v>341</v>
+      <c r="AB15" s="37" t="s">
+        <v>329</v>
       </c>
       <c r="AC15" s="12" t="s">
         <v>64</v>
       </c>
       <c r="AD15" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="AE15" s="13" t="s">
         <v>65</v>
@@ -3456,7 +3417,7 @@
     </row>
     <row r="16" spans="1:35" ht="13.9" thickBot="1">
       <c r="A16" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -3495,7 +3456,7 @@
         <v>2</v>
       </c>
       <c r="O16" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -3503,17 +3464,17 @@
       <c r="Q16">
         <v>20</v>
       </c>
-      <c r="R16" s="37" t="s">
-        <v>351</v>
-      </c>
-      <c r="S16" s="37" t="s">
-        <v>376</v>
+      <c r="R16" s="36" t="s">
+        <v>339</v>
+      </c>
+      <c r="S16" s="36" t="s">
+        <v>364</v>
       </c>
       <c r="X16">
         <v>2</v>
       </c>
       <c r="Y16" s="9" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="Z16" t="s">
         <v>63</v>
@@ -3521,14 +3482,14 @@
       <c r="AA16">
         <v>0</v>
       </c>
-      <c r="AB16" s="38" t="s">
-        <v>341</v>
+      <c r="AB16" s="37" t="s">
+        <v>329</v>
       </c>
       <c r="AC16" s="12" t="s">
         <v>64</v>
       </c>
       <c r="AD16" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="AE16" s="13" t="s">
         <v>65</v>
@@ -3548,7 +3509,7 @@
     </row>
     <row r="17" spans="1:35" ht="13.9" thickBot="1">
       <c r="A17" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -3587,7 +3548,7 @@
         <v>2</v>
       </c>
       <c r="O17" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -3595,17 +3556,17 @@
       <c r="Q17">
         <v>20</v>
       </c>
-      <c r="R17" s="37" t="s">
-        <v>352</v>
-      </c>
-      <c r="S17" s="37" t="s">
-        <v>377</v>
+      <c r="R17" s="36" t="s">
+        <v>340</v>
+      </c>
+      <c r="S17" s="36" t="s">
+        <v>365</v>
       </c>
       <c r="X17">
         <v>2</v>
       </c>
       <c r="Y17" s="9" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="Z17" t="s">
         <v>63</v>
@@ -3613,14 +3574,14 @@
       <c r="AA17">
         <v>0</v>
       </c>
-      <c r="AB17" s="38" t="s">
-        <v>341</v>
+      <c r="AB17" s="37" t="s">
+        <v>329</v>
       </c>
       <c r="AC17" s="12" t="s">
         <v>64</v>
       </c>
       <c r="AD17" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="AE17" s="13" t="s">
         <v>65</v>
@@ -3640,7 +3601,7 @@
     </row>
     <row r="18" spans="1:35" ht="13.9" thickBot="1">
       <c r="A18" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -3679,7 +3640,7 @@
         <v>2</v>
       </c>
       <c r="O18" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -3687,17 +3648,17 @@
       <c r="Q18">
         <v>20</v>
       </c>
-      <c r="R18" s="37" t="s">
-        <v>353</v>
-      </c>
-      <c r="S18" s="37" t="s">
-        <v>378</v>
+      <c r="R18" s="36" t="s">
+        <v>341</v>
+      </c>
+      <c r="S18" s="36" t="s">
+        <v>366</v>
       </c>
       <c r="X18">
         <v>2</v>
       </c>
       <c r="Y18" s="9" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="Z18" t="s">
         <v>63</v>
@@ -3705,14 +3666,14 @@
       <c r="AA18">
         <v>0</v>
       </c>
-      <c r="AB18" s="38" t="s">
-        <v>341</v>
+      <c r="AB18" s="37" t="s">
+        <v>329</v>
       </c>
       <c r="AC18" s="12" t="s">
         <v>64</v>
       </c>
       <c r="AD18" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="AE18" s="13" t="s">
         <v>65</v>
@@ -3732,7 +3693,7 @@
     </row>
     <row r="19" spans="1:35" ht="13.9" thickBot="1">
       <c r="A19" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -3771,7 +3732,7 @@
         <v>2</v>
       </c>
       <c r="O19" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -3779,17 +3740,17 @@
       <c r="Q19">
         <v>20</v>
       </c>
-      <c r="R19" s="37" t="s">
-        <v>354</v>
-      </c>
-      <c r="S19" s="37" t="s">
-        <v>379</v>
+      <c r="R19" s="36" t="s">
+        <v>342</v>
+      </c>
+      <c r="S19" s="36" t="s">
+        <v>367</v>
       </c>
       <c r="X19">
         <v>2</v>
       </c>
       <c r="Y19" s="9" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="Z19" t="s">
         <v>63</v>
@@ -3797,14 +3758,14 @@
       <c r="AA19">
         <v>0</v>
       </c>
-      <c r="AB19" s="38" t="s">
-        <v>341</v>
+      <c r="AB19" s="37" t="s">
+        <v>329</v>
       </c>
       <c r="AC19" s="12" t="s">
         <v>64</v>
       </c>
       <c r="AD19" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="AE19" s="13" t="s">
         <v>65</v>
@@ -3824,7 +3785,7 @@
     </row>
     <row r="20" spans="1:35" ht="13.9" thickBot="1">
       <c r="A20" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -3863,7 +3824,7 @@
         <v>2</v>
       </c>
       <c r="O20" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -3871,17 +3832,17 @@
       <c r="Q20">
         <v>20</v>
       </c>
-      <c r="R20" s="37" t="s">
-        <v>355</v>
-      </c>
-      <c r="S20" s="37" t="s">
-        <v>380</v>
+      <c r="R20" s="36" t="s">
+        <v>343</v>
+      </c>
+      <c r="S20" s="36" t="s">
+        <v>368</v>
       </c>
       <c r="X20">
         <v>2</v>
       </c>
       <c r="Y20" s="9" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="Z20" t="s">
         <v>63</v>
@@ -3889,14 +3850,14 @@
       <c r="AA20">
         <v>0</v>
       </c>
-      <c r="AB20" s="38" t="s">
-        <v>341</v>
+      <c r="AB20" s="37" t="s">
+        <v>329</v>
       </c>
       <c r="AC20" s="12" t="s">
         <v>64</v>
       </c>
       <c r="AD20" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="AE20" s="13" t="s">
         <v>65</v>
@@ -3916,7 +3877,7 @@
     </row>
     <row r="21" spans="1:35" ht="13.9" thickBot="1">
       <c r="A21" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -3955,7 +3916,7 @@
         <v>2</v>
       </c>
       <c r="O21" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -3963,17 +3924,17 @@
       <c r="Q21">
         <v>20</v>
       </c>
-      <c r="R21" s="37" t="s">
-        <v>356</v>
-      </c>
-      <c r="S21" s="37" t="s">
-        <v>381</v>
+      <c r="R21" s="36" t="s">
+        <v>344</v>
+      </c>
+      <c r="S21" s="36" t="s">
+        <v>369</v>
       </c>
       <c r="X21">
         <v>2</v>
       </c>
       <c r="Y21" s="9" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="Z21" t="s">
         <v>63</v>
@@ -3981,14 +3942,14 @@
       <c r="AA21">
         <v>0</v>
       </c>
-      <c r="AB21" s="38" t="s">
-        <v>341</v>
+      <c r="AB21" s="37" t="s">
+        <v>329</v>
       </c>
       <c r="AC21" s="12" t="s">
         <v>64</v>
       </c>
       <c r="AD21" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="AE21" s="13" t="s">
         <v>65</v>
@@ -4008,7 +3969,7 @@
     </row>
     <row r="22" spans="1:35" ht="13.9" thickBot="1">
       <c r="A22" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -4047,7 +4008,7 @@
         <v>2</v>
       </c>
       <c r="O22" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -4055,17 +4016,17 @@
       <c r="Q22">
         <v>20</v>
       </c>
-      <c r="R22" s="37" t="s">
-        <v>357</v>
-      </c>
-      <c r="S22" s="37" t="s">
-        <v>381</v>
+      <c r="R22" s="36" t="s">
+        <v>345</v>
+      </c>
+      <c r="S22" s="36" t="s">
+        <v>369</v>
       </c>
       <c r="X22">
         <v>2</v>
       </c>
       <c r="Y22" s="9" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="Z22" t="s">
         <v>63</v>
@@ -4073,14 +4034,14 @@
       <c r="AA22">
         <v>0</v>
       </c>
-      <c r="AB22" s="38" t="s">
-        <v>341</v>
+      <c r="AB22" s="37" t="s">
+        <v>329</v>
       </c>
       <c r="AC22" s="12" t="s">
         <v>64</v>
       </c>
       <c r="AD22" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="AE22" s="13" t="s">
         <v>65</v>
@@ -4098,121 +4059,121 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:35" s="31" customFormat="1" ht="13.9" thickBot="1">
-      <c r="A23" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" s="31">
-        <v>0</v>
-      </c>
-      <c r="D23" s="31">
-        <v>100</v>
-      </c>
-      <c r="E23" s="31">
-        <v>100</v>
-      </c>
-      <c r="F23" s="31">
-        <v>0</v>
-      </c>
-      <c r="G23" s="31">
-        <v>0</v>
-      </c>
-      <c r="H23" s="31">
-        <v>0</v>
-      </c>
-      <c r="I23" s="31">
-        <v>0</v>
-      </c>
-      <c r="J23" s="31">
-        <v>0</v>
-      </c>
-      <c r="K23" s="31">
-        <v>0</v>
-      </c>
-      <c r="L23" s="31">
-        <v>0</v>
-      </c>
-      <c r="M23" s="31">
-        <v>0</v>
-      </c>
-      <c r="N23" s="31">
-        <v>2</v>
-      </c>
-      <c r="O23" s="31" t="s">
-        <v>334</v>
-      </c>
-      <c r="P23" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="31">
+    <row r="23" spans="1:35" s="30" customFormat="1" ht="13.9" thickBot="1">
+      <c r="A23" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="30">
+        <v>0</v>
+      </c>
+      <c r="D23" s="30">
+        <v>100</v>
+      </c>
+      <c r="E23" s="30">
+        <v>100</v>
+      </c>
+      <c r="F23" s="30">
+        <v>0</v>
+      </c>
+      <c r="G23" s="30">
+        <v>0</v>
+      </c>
+      <c r="H23" s="30">
+        <v>0</v>
+      </c>
+      <c r="I23" s="30">
+        <v>0</v>
+      </c>
+      <c r="J23" s="30">
+        <v>0</v>
+      </c>
+      <c r="K23" s="30">
+        <v>0</v>
+      </c>
+      <c r="L23" s="30">
+        <v>0</v>
+      </c>
+      <c r="M23" s="30">
+        <v>0</v>
+      </c>
+      <c r="N23" s="30">
+        <v>2</v>
+      </c>
+      <c r="O23" s="30" t="s">
+        <v>322</v>
+      </c>
+      <c r="P23" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="30">
         <v>20</v>
       </c>
-      <c r="R23" s="36" t="s">
+      <c r="R23" s="35" t="s">
+        <v>346</v>
+      </c>
+      <c r="S23" s="35" t="s">
         <v>358</v>
       </c>
-      <c r="S23" s="36" t="s">
-        <v>370</v>
-      </c>
-      <c r="T23" s="31" t="s">
-        <v>160</v>
-      </c>
-      <c r="U23" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="V23" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="W23" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="X23" s="31">
-        <v>2</v>
-      </c>
-      <c r="Y23" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z23" s="31" t="s">
+      <c r="T23" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="U23" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="V23" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="W23" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="X23" s="30">
+        <v>2</v>
+      </c>
+      <c r="Y23" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z23" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="AA23" s="31">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="31" t="s">
-        <v>341</v>
-      </c>
-      <c r="AC23" s="33" t="s">
-        <v>340</v>
-      </c>
-      <c r="AD23" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="AE23" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF23" s="31">
-        <v>0</v>
-      </c>
-      <c r="AG23" s="31">
-        <v>0</v>
-      </c>
-      <c r="AH23" s="31">
-        <v>0</v>
-      </c>
-      <c r="AI23" s="31">
+      <c r="AA23" s="30">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="AC23" s="32" t="s">
+        <v>328</v>
+      </c>
+      <c r="AD23" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE23" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF23" s="30">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="30">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="30">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:35" s="27" customFormat="1" ht="13.9" thickBot="1">
-      <c r="A24" s="35" t="s">
-        <v>81</v>
+      <c r="A24" s="34" t="s">
+        <v>69</v>
       </c>
       <c r="C24" s="27">
         <v>0</v>
       </c>
-      <c r="D24" s="31">
-        <v>100</v>
-      </c>
-      <c r="E24" s="31">
+      <c r="D24" s="30">
+        <v>100</v>
+      </c>
+      <c r="E24" s="30">
         <v>100</v>
       </c>
       <c r="F24" s="27">
@@ -4239,11 +4200,11 @@
       <c r="M24" s="27">
         <v>0</v>
       </c>
-      <c r="N24" s="31">
+      <c r="N24" s="30">
         <v>2</v>
       </c>
       <c r="O24" s="27" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="P24" s="27">
         <v>1</v>
@@ -4251,29 +4212,29 @@
       <c r="Q24" s="27">
         <v>20</v>
       </c>
-      <c r="R24" s="36" t="s">
-        <v>359</v>
-      </c>
-      <c r="S24" s="36" t="s">
-        <v>372</v>
+      <c r="R24" s="35" t="s">
+        <v>347</v>
+      </c>
+      <c r="S24" s="35" t="s">
+        <v>360</v>
       </c>
       <c r="T24" s="27" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="U24" s="27" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="V24" s="27" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="W24" s="27" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="X24" s="27">
         <v>2</v>
       </c>
-      <c r="Y24" s="28" t="s">
-        <v>78</v>
+      <c r="Y24" s="31" t="s">
+        <v>62</v>
       </c>
       <c r="Z24" s="27" t="s">
         <v>63</v>
@@ -4282,16 +4243,16 @@
         <v>0</v>
       </c>
       <c r="AB24" s="27" t="s">
-        <v>342</v>
-      </c>
-      <c r="AC24" s="29" t="s">
-        <v>340</v>
+        <v>330</v>
+      </c>
+      <c r="AC24" s="28" t="s">
+        <v>328</v>
       </c>
       <c r="AD24" s="14" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="AE24" s="27" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="AF24" s="27">
         <v>0</v>
@@ -4307,16 +4268,16 @@
       </c>
     </row>
     <row r="25" spans="1:35" s="27" customFormat="1" ht="13.9" thickBot="1">
-      <c r="A25" s="35" t="s">
-        <v>83</v>
+      <c r="A25" s="34" t="s">
+        <v>71</v>
       </c>
       <c r="C25" s="27">
         <v>0</v>
       </c>
-      <c r="D25" s="31">
-        <v>100</v>
-      </c>
-      <c r="E25" s="31">
+      <c r="D25" s="30">
+        <v>100</v>
+      </c>
+      <c r="E25" s="30">
         <v>100</v>
       </c>
       <c r="F25" s="27">
@@ -4343,11 +4304,11 @@
       <c r="M25" s="27">
         <v>0</v>
       </c>
-      <c r="N25" s="31">
+      <c r="N25" s="30">
         <v>2</v>
       </c>
       <c r="O25" s="27" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="P25" s="27">
         <v>0</v>
@@ -4355,29 +4316,29 @@
       <c r="Q25" s="27">
         <v>20</v>
       </c>
-      <c r="R25" s="36" t="s">
-        <v>360</v>
-      </c>
-      <c r="S25" s="36" t="s">
-        <v>373</v>
+      <c r="R25" s="35" t="s">
+        <v>348</v>
+      </c>
+      <c r="S25" s="35" t="s">
+        <v>361</v>
       </c>
       <c r="T25" s="27" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="U25" s="27" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="V25" s="27" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="W25" s="27" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="X25" s="27">
         <v>2</v>
       </c>
-      <c r="Y25" s="28" t="s">
-        <v>78</v>
+      <c r="Y25" s="31" t="s">
+        <v>62</v>
       </c>
       <c r="Z25" s="27" t="s">
         <v>63</v>
@@ -4386,16 +4347,16 @@
         <v>0</v>
       </c>
       <c r="AB25" s="27" t="s">
-        <v>343</v>
-      </c>
-      <c r="AC25" s="29" t="s">
-        <v>340</v>
+        <v>331</v>
+      </c>
+      <c r="AC25" s="28" t="s">
+        <v>328</v>
       </c>
       <c r="AD25" s="14" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="AE25" s="27" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="AF25" s="27">
         <v>0</v>
@@ -4411,16 +4372,16 @@
       </c>
     </row>
     <row r="26" spans="1:35" s="27" customFormat="1">
-      <c r="A26" s="35" t="s">
-        <v>333</v>
+      <c r="A26" s="34" t="s">
+        <v>321</v>
       </c>
       <c r="C26" s="27">
         <v>0</v>
       </c>
-      <c r="D26" s="31">
-        <v>100</v>
-      </c>
-      <c r="E26" s="31">
+      <c r="D26" s="30">
+        <v>100</v>
+      </c>
+      <c r="E26" s="30">
         <v>100</v>
       </c>
       <c r="F26" s="27">
@@ -4447,11 +4408,11 @@
       <c r="M26" s="27">
         <v>0</v>
       </c>
-      <c r="N26" s="31">
+      <c r="N26" s="30">
         <v>2</v>
       </c>
       <c r="O26" s="27" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="P26" s="27">
         <v>0</v>
@@ -4459,29 +4420,29 @@
       <c r="Q26" s="27">
         <v>20</v>
       </c>
-      <c r="R26" s="36" t="s">
-        <v>361</v>
-      </c>
-      <c r="S26" s="36" t="s">
-        <v>374</v>
+      <c r="R26" s="35" t="s">
+        <v>349</v>
+      </c>
+      <c r="S26" s="35" t="s">
+        <v>362</v>
       </c>
       <c r="T26" s="27" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="U26" s="27" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="V26" s="27" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="W26" s="27" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="X26" s="27">
         <v>2</v>
       </c>
-      <c r="Y26" s="28" t="s">
-        <v>78</v>
+      <c r="Y26" s="31" t="s">
+        <v>62</v>
       </c>
       <c r="Z26" s="27" t="s">
         <v>63</v>
@@ -4490,16 +4451,16 @@
         <v>0</v>
       </c>
       <c r="AB26" s="27" t="s">
-        <v>344</v>
-      </c>
-      <c r="AC26" s="29" t="s">
-        <v>340</v>
+        <v>332</v>
+      </c>
+      <c r="AC26" s="28" t="s">
+        <v>328</v>
       </c>
       <c r="AD26" s="14" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="AE26" s="27" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="AF26" s="27">
         <v>0</v>
@@ -4516,7 +4477,7 @@
     </row>
     <row r="27" spans="1:35" s="25" customFormat="1">
       <c r="A27" s="24" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="C27" s="25">
         <v>0</v>
@@ -4555,7 +4516,7 @@
         <v>2</v>
       </c>
       <c r="O27" s="25" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="P27" s="25">
         <v>0</v>
@@ -4564,16 +4525,16 @@
         <v>20</v>
       </c>
       <c r="R27" s="17" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="S27" s="17" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="X27" s="25">
         <v>2</v>
       </c>
       <c r="Y27" s="15" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="Z27" s="25" t="s">
         <v>63</v>
@@ -4582,13 +4543,13 @@
         <v>0</v>
       </c>
       <c r="AB27" s="25" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="AC27" s="15" t="s">
         <v>64</v>
       </c>
       <c r="AD27" s="25" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="AE27" s="26" t="s">
         <v>65</v>
@@ -4608,7 +4569,7 @@
     </row>
     <row r="28" spans="1:35" s="16" customFormat="1">
       <c r="A28" s="19" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C28" s="16">
         <v>0</v>
@@ -4647,7 +4608,7 @@
         <v>2</v>
       </c>
       <c r="O28" s="25" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="P28" s="16">
         <v>0</v>
@@ -4656,16 +4617,16 @@
         <v>20</v>
       </c>
       <c r="R28" s="17" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="S28" s="17" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="X28" s="16">
         <v>2</v>
       </c>
-      <c r="Y28" s="17" t="s">
-        <v>78</v>
+      <c r="Y28" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="Z28" s="16" t="s">
         <v>63</v>
@@ -4674,13 +4635,13 @@
         <v>0</v>
       </c>
       <c r="AB28" s="16" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="AC28" s="17" t="s">
         <v>64</v>
       </c>
       <c r="AD28" s="16" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="AE28" s="18" t="s">
         <v>65</v>
@@ -4700,7 +4661,7 @@
     </row>
     <row r="29" spans="1:35" s="16" customFormat="1">
       <c r="A29" s="19" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="C29" s="16">
         <v>0</v>
@@ -4739,7 +4700,7 @@
         <v>2</v>
       </c>
       <c r="O29" s="25" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="P29" s="16">
         <v>0</v>
@@ -4748,16 +4709,16 @@
         <v>20</v>
       </c>
       <c r="R29" s="16" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="S29" s="17" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="X29" s="16">
         <v>2</v>
       </c>
-      <c r="Y29" s="17" t="s">
-        <v>78</v>
+      <c r="Y29" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="Z29" s="16" t="s">
         <v>63</v>
@@ -4766,13 +4727,13 @@
         <v>0</v>
       </c>
       <c r="AB29" s="16" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="AC29" s="17" t="s">
         <v>64</v>
       </c>
       <c r="AD29" s="16" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="AE29" s="18" t="s">
         <v>65</v>
@@ -4792,7 +4753,7 @@
     </row>
     <row r="30" spans="1:35" s="16" customFormat="1">
       <c r="A30" s="19" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C30" s="16">
         <v>0</v>
@@ -4831,7 +4792,7 @@
         <v>2</v>
       </c>
       <c r="O30" s="16" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="P30" s="16">
         <v>0</v>
@@ -4840,16 +4801,16 @@
         <v>20</v>
       </c>
       <c r="R30" s="16" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="S30" s="17" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="X30" s="16">
         <v>2</v>
       </c>
-      <c r="Y30" s="17" t="s">
-        <v>78</v>
+      <c r="Y30" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="Z30" s="16" t="s">
         <v>63</v>
@@ -4858,13 +4819,13 @@
         <v>0</v>
       </c>
       <c r="AB30" s="16" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="AC30" s="17" t="s">
         <v>64</v>
       </c>
       <c r="AD30" s="16" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="AE30" s="18" t="s">
         <v>65</v>
@@ -4884,7 +4845,7 @@
     </row>
     <row r="31" spans="1:35" s="16" customFormat="1">
       <c r="A31" s="19" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="C31" s="16">
         <v>0</v>
@@ -4923,7 +4884,7 @@
         <v>2</v>
       </c>
       <c r="O31" s="16" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="P31" s="16">
         <v>0</v>
@@ -4932,16 +4893,16 @@
         <v>20</v>
       </c>
       <c r="R31" s="16" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="S31" s="17" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="X31" s="16">
         <v>2</v>
       </c>
-      <c r="Y31" s="17" t="s">
-        <v>78</v>
+      <c r="Y31" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="Z31" s="16" t="s">
         <v>63</v>
@@ -4950,13 +4911,13 @@
         <v>0</v>
       </c>
       <c r="AB31" s="16" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="AC31" s="17" t="s">
         <v>64</v>
       </c>
       <c r="AD31" s="16" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="AE31" s="18" t="s">
         <v>65</v>
@@ -4976,7 +4937,7 @@
     </row>
     <row r="32" spans="1:35" s="16" customFormat="1">
       <c r="A32" s="19" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="C32" s="16">
         <v>0</v>
@@ -5015,7 +4976,7 @@
         <v>2</v>
       </c>
       <c r="O32" s="16" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="P32" s="16">
         <v>0</v>
@@ -5024,16 +4985,16 @@
         <v>20</v>
       </c>
       <c r="R32" s="16" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="S32" s="17" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="X32" s="16">
         <v>2</v>
       </c>
-      <c r="Y32" s="17" t="s">
-        <v>78</v>
+      <c r="Y32" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="Z32" s="16" t="s">
         <v>63</v>
@@ -5042,13 +5003,13 @@
         <v>0</v>
       </c>
       <c r="AB32" s="16" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="AC32" s="17" t="s">
         <v>64</v>
       </c>
       <c r="AD32" s="16" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="AE32" s="18" t="s">
         <v>65</v>
@@ -5068,7 +5029,7 @@
     </row>
     <row r="33" spans="1:35" s="16" customFormat="1">
       <c r="A33" s="19" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C33" s="16">
         <v>0</v>
@@ -5107,7 +5068,7 @@
         <v>2</v>
       </c>
       <c r="O33" s="16" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="P33" s="16">
         <v>0</v>
@@ -5116,16 +5077,16 @@
         <v>20</v>
       </c>
       <c r="R33" s="16" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="S33" s="17" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="X33" s="16">
         <v>2</v>
       </c>
-      <c r="Y33" s="17" t="s">
-        <v>78</v>
+      <c r="Y33" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="Z33" s="16" t="s">
         <v>63</v>
@@ -5134,13 +5095,13 @@
         <v>0</v>
       </c>
       <c r="AB33" s="16" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="AC33" s="17" t="s">
         <v>64</v>
       </c>
       <c r="AD33" s="16" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="AE33" s="18" t="s">
         <v>65</v>
@@ -5160,7 +5121,7 @@
     </row>
     <row r="34" spans="1:35" s="16" customFormat="1">
       <c r="A34" s="19" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="C34" s="16">
         <v>0</v>
@@ -5199,7 +5160,7 @@
         <v>2</v>
       </c>
       <c r="O34" s="16" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="P34" s="16">
         <v>0</v>
@@ -5208,16 +5169,16 @@
         <v>20</v>
       </c>
       <c r="R34" s="17" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="S34" s="17" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="X34" s="16">
         <v>2</v>
       </c>
-      <c r="Y34" s="17" t="s">
-        <v>78</v>
+      <c r="Y34" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="Z34" s="16" t="s">
         <v>63</v>
@@ -5226,13 +5187,13 @@
         <v>0</v>
       </c>
       <c r="AB34" s="16" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="AC34" s="17" t="s">
         <v>64</v>
       </c>
       <c r="AD34" s="16" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="AE34" s="18" t="s">
         <v>65</v>
@@ -5252,7 +5213,7 @@
     </row>
     <row r="35" spans="1:35" s="16" customFormat="1">
       <c r="A35" s="19" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="C35" s="16">
         <v>0</v>
@@ -5291,7 +5252,7 @@
         <v>2</v>
       </c>
       <c r="O35" s="16" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="P35" s="16">
         <v>0</v>
@@ -5300,16 +5261,16 @@
         <v>20</v>
       </c>
       <c r="R35" s="17" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="S35" s="17" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="X35" s="16">
         <v>2</v>
       </c>
-      <c r="Y35" s="17" t="s">
-        <v>78</v>
+      <c r="Y35" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="Z35" s="16" t="s">
         <v>63</v>
@@ -5318,13 +5279,13 @@
         <v>0</v>
       </c>
       <c r="AB35" s="16" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="AC35" s="17" t="s">
         <v>64</v>
       </c>
       <c r="AD35" s="16" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="AE35" s="18" t="s">
         <v>65</v>
@@ -5344,7 +5305,7 @@
     </row>
     <row r="36" spans="1:35" s="16" customFormat="1">
       <c r="A36" s="19" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="C36" s="16">
         <v>0</v>
@@ -5383,7 +5344,7 @@
         <v>3</v>
       </c>
       <c r="O36" s="16" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="P36" s="16">
         <v>0</v>
@@ -5392,16 +5353,16 @@
         <v>20</v>
       </c>
       <c r="R36" s="17" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="S36" s="17" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="X36" s="16">
         <v>2</v>
       </c>
-      <c r="Y36" s="17" t="s">
-        <v>78</v>
+      <c r="Y36" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="Z36" s="16" t="s">
         <v>63</v>
@@ -5410,13 +5371,13 @@
         <v>0</v>
       </c>
       <c r="AB36" s="16" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="AC36" s="17" t="s">
         <v>64</v>
       </c>
       <c r="AD36" s="16" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="AE36" s="18" t="s">
         <v>65</v>
@@ -5436,7 +5397,7 @@
     </row>
     <row r="37" spans="1:35" s="16" customFormat="1">
       <c r="A37" s="19" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C37" s="16">
         <v>0</v>
@@ -5475,7 +5436,7 @@
         <v>3</v>
       </c>
       <c r="O37" s="16" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="P37" s="16">
         <v>0</v>
@@ -5484,16 +5445,16 @@
         <v>20</v>
       </c>
       <c r="R37" s="17" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="S37" s="17" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="X37" s="16">
         <v>2</v>
       </c>
-      <c r="Y37" s="17" t="s">
-        <v>78</v>
+      <c r="Y37" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="Z37" s="16" t="s">
         <v>63</v>
@@ -5502,13 +5463,13 @@
         <v>0</v>
       </c>
       <c r="AB37" s="16" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="AC37" s="17" t="s">
         <v>64</v>
       </c>
       <c r="AD37" s="16" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="AE37" s="18" t="s">
         <v>65</v>
@@ -5528,7 +5489,7 @@
     </row>
     <row r="38" spans="1:35" s="16" customFormat="1">
       <c r="A38" s="19" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C38" s="16">
         <v>0</v>
@@ -5567,7 +5528,7 @@
         <v>3</v>
       </c>
       <c r="O38" s="16" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="P38" s="16">
         <v>0</v>
@@ -5576,16 +5537,16 @@
         <v>20</v>
       </c>
       <c r="R38" s="17" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="S38" s="17" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="X38" s="16">
         <v>2</v>
       </c>
-      <c r="Y38" s="17" t="s">
-        <v>78</v>
+      <c r="Y38" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="Z38" s="16" t="s">
         <v>63</v>
@@ -5594,13 +5555,13 @@
         <v>0</v>
       </c>
       <c r="AB38" s="16" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="AC38" s="17" t="s">
         <v>64</v>
       </c>
       <c r="AD38" s="16" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="AE38" s="18" t="s">
         <v>65</v>
@@ -5620,7 +5581,7 @@
     </row>
     <row r="39" spans="1:35" s="16" customFormat="1">
       <c r="A39" s="19" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="C39" s="16">
         <v>0</v>
@@ -5659,7 +5620,7 @@
         <v>1</v>
       </c>
       <c r="O39" s="16" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="P39" s="16">
         <v>0</v>
@@ -5668,16 +5629,16 @@
         <v>20</v>
       </c>
       <c r="R39" s="17" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="S39" s="17" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="X39" s="16">
         <v>2</v>
       </c>
-      <c r="Y39" s="17" t="s">
-        <v>78</v>
+      <c r="Y39" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="Z39" s="16" t="s">
         <v>63</v>
@@ -5686,13 +5647,13 @@
         <v>0</v>
       </c>
       <c r="AB39" s="16" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="AC39" s="17" t="s">
         <v>64</v>
       </c>
       <c r="AD39" s="16" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="AE39" s="18" t="s">
         <v>65</v>
@@ -5712,7 +5673,7 @@
     </row>
     <row r="40" spans="1:35" s="16" customFormat="1">
       <c r="A40" s="19" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="C40" s="16">
         <v>0</v>
@@ -5751,7 +5712,7 @@
         <v>1</v>
       </c>
       <c r="O40" s="16" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="P40" s="16">
         <v>0</v>
@@ -5760,16 +5721,16 @@
         <v>20</v>
       </c>
       <c r="R40" s="17" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="S40" s="17" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="X40" s="16">
         <v>2</v>
       </c>
-      <c r="Y40" s="17" t="s">
-        <v>78</v>
+      <c r="Y40" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="Z40" s="16" t="s">
         <v>63</v>
@@ -5778,13 +5739,13 @@
         <v>0</v>
       </c>
       <c r="AB40" s="16" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="AC40" s="17" t="s">
         <v>64</v>
       </c>
       <c r="AD40" s="16" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="AE40" s="18" t="s">
         <v>65</v>
@@ -5804,7 +5765,7 @@
     </row>
     <row r="41" spans="1:35" s="16" customFormat="1">
       <c r="A41" s="19" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="C41" s="16">
         <v>0</v>
@@ -5843,7 +5804,7 @@
         <v>1</v>
       </c>
       <c r="O41" s="16" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="P41" s="16">
         <v>0</v>
@@ -5852,16 +5813,16 @@
         <v>20</v>
       </c>
       <c r="R41" s="17" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="S41" s="17" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="X41" s="16">
         <v>2</v>
       </c>
-      <c r="Y41" s="17" t="s">
-        <v>78</v>
+      <c r="Y41" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="Z41" s="16" t="s">
         <v>63</v>
@@ -5870,13 +5831,13 @@
         <v>0</v>
       </c>
       <c r="AB41" s="16" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="AC41" s="17" t="s">
         <v>64</v>
       </c>
       <c r="AD41" s="16" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="AE41" s="18" t="s">
         <v>65</v>
@@ -5896,7 +5857,7 @@
     </row>
     <row r="42" spans="1:35" s="16" customFormat="1">
       <c r="A42" s="19" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="C42" s="16">
         <v>0</v>
@@ -5935,7 +5896,7 @@
         <v>2</v>
       </c>
       <c r="O42" s="16" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="P42" s="16">
         <v>0</v>
@@ -5944,16 +5905,16 @@
         <v>20</v>
       </c>
       <c r="R42" s="17" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="S42" s="17" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="X42" s="16">
         <v>2</v>
       </c>
-      <c r="Y42" s="17" t="s">
-        <v>78</v>
+      <c r="Y42" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="Z42" s="16" t="s">
         <v>63</v>
@@ -5962,13 +5923,13 @@
         <v>0</v>
       </c>
       <c r="AB42" s="16" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="AC42" s="17" t="s">
         <v>64</v>
       </c>
       <c r="AD42" s="16" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="AE42" s="18" t="s">
         <v>65</v>
@@ -5988,7 +5949,7 @@
     </row>
     <row r="43" spans="1:35" s="16" customFormat="1">
       <c r="A43" s="19" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C43" s="16">
         <v>0</v>
@@ -6027,7 +5988,7 @@
         <v>2</v>
       </c>
       <c r="O43" s="16" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="P43" s="16">
         <v>0</v>
@@ -6036,16 +5997,16 @@
         <v>20</v>
       </c>
       <c r="R43" s="17" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="S43" s="17" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="X43" s="16">
         <v>2</v>
       </c>
-      <c r="Y43" s="17" t="s">
-        <v>78</v>
+      <c r="Y43" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="Z43" s="16" t="s">
         <v>63</v>
@@ -6054,13 +6015,13 @@
         <v>0</v>
       </c>
       <c r="AB43" s="16" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="AC43" s="17" t="s">
         <v>64</v>
       </c>
       <c r="AD43" s="16" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="AE43" s="18" t="s">
         <v>65</v>
@@ -6080,7 +6041,7 @@
     </row>
     <row r="44" spans="1:35" s="16" customFormat="1">
       <c r="A44" s="19" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C44" s="16">
         <v>0</v>
@@ -6119,7 +6080,7 @@
         <v>2</v>
       </c>
       <c r="O44" s="16" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="P44" s="16">
         <v>0</v>
@@ -6128,16 +6089,16 @@
         <v>20</v>
       </c>
       <c r="R44" s="17" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="S44" s="17" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="X44" s="16">
         <v>2</v>
       </c>
-      <c r="Y44" s="17" t="s">
-        <v>78</v>
+      <c r="Y44" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="Z44" s="16" t="s">
         <v>63</v>
@@ -6146,13 +6107,13 @@
         <v>0</v>
       </c>
       <c r="AB44" s="16" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="AC44" s="17" t="s">
         <v>64</v>
       </c>
       <c r="AD44" s="16" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="AE44" s="18" t="s">
         <v>65</v>
@@ -6172,7 +6133,7 @@
     </row>
     <row r="45" spans="1:35" s="16" customFormat="1">
       <c r="A45" s="19" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="C45" s="16">
         <v>0</v>
@@ -6211,7 +6172,7 @@
         <v>2</v>
       </c>
       <c r="O45" s="16" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="P45" s="16">
         <v>0</v>
@@ -6220,16 +6181,16 @@
         <v>20</v>
       </c>
       <c r="R45" s="17" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="S45" s="17" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="X45" s="16">
         <v>2</v>
       </c>
-      <c r="Y45" s="17" t="s">
-        <v>78</v>
+      <c r="Y45" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="Z45" s="16" t="s">
         <v>63</v>
@@ -6238,13 +6199,13 @@
         <v>0</v>
       </c>
       <c r="AB45" s="16" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="AC45" s="17" t="s">
         <v>64</v>
       </c>
       <c r="AD45" s="16" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="AE45" s="18" t="s">
         <v>65</v>
@@ -6264,7 +6225,7 @@
     </row>
     <row r="46" spans="1:35" s="16" customFormat="1">
       <c r="A46" s="19" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="C46" s="16">
         <v>0</v>
@@ -6303,7 +6264,7 @@
         <v>2</v>
       </c>
       <c r="O46" s="16" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="P46" s="16">
         <v>0</v>
@@ -6312,16 +6273,16 @@
         <v>20</v>
       </c>
       <c r="R46" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="S46" s="17" t="s">
         <v>358</v>
       </c>
-      <c r="S46" s="17" t="s">
-        <v>370</v>
-      </c>
       <c r="X46" s="16">
         <v>2</v>
       </c>
-      <c r="Y46" s="17" t="s">
-        <v>78</v>
+      <c r="Y46" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="Z46" s="16" t="s">
         <v>63</v>
@@ -6330,13 +6291,13 @@
         <v>0</v>
       </c>
       <c r="AB46" s="16" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="AC46" s="17" t="s">
         <v>64</v>
       </c>
       <c r="AD46" s="16" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="AE46" s="18" t="s">
         <v>65</v>
@@ -6356,7 +6317,7 @@
     </row>
     <row r="47" spans="1:35" s="16" customFormat="1">
       <c r="A47" s="19" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C47" s="16">
         <v>0</v>
@@ -6395,7 +6356,7 @@
         <v>2</v>
       </c>
       <c r="O47" s="16" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="P47" s="16">
         <v>0</v>
@@ -6404,16 +6365,16 @@
         <v>20</v>
       </c>
       <c r="R47" s="17" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="S47" s="17" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="X47" s="16">
         <v>2</v>
       </c>
-      <c r="Y47" s="17" t="s">
-        <v>78</v>
+      <c r="Y47" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="Z47" s="16" t="s">
         <v>63</v>
@@ -6422,13 +6383,13 @@
         <v>0</v>
       </c>
       <c r="AB47" s="16" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="AC47" s="17" t="s">
         <v>64</v>
       </c>
       <c r="AD47" s="16" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="AE47" s="18" t="s">
         <v>65</v>
@@ -6448,7 +6409,7 @@
     </row>
     <row r="48" spans="1:35" s="16" customFormat="1">
       <c r="A48" s="19" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="C48" s="16">
         <v>0</v>
@@ -6487,7 +6448,7 @@
         <v>3</v>
       </c>
       <c r="O48" s="16" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="P48" s="16">
         <v>0</v>
@@ -6496,16 +6457,16 @@
         <v>20</v>
       </c>
       <c r="R48" s="17" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="S48" s="17" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="X48" s="16">
         <v>2</v>
       </c>
-      <c r="Y48" s="17" t="s">
-        <v>78</v>
+      <c r="Y48" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="Z48" s="16" t="s">
         <v>63</v>
@@ -6514,13 +6475,13 @@
         <v>0</v>
       </c>
       <c r="AB48" s="16" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="AC48" s="17" t="s">
         <v>64</v>
       </c>
       <c r="AD48" s="16" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="AE48" s="18" t="s">
         <v>65</v>
@@ -6540,7 +6501,7 @@
     </row>
     <row r="49" spans="1:35" s="16" customFormat="1">
       <c r="A49" s="19" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="C49" s="16">
         <v>0</v>
@@ -6579,7 +6540,7 @@
         <v>3</v>
       </c>
       <c r="O49" s="16" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="P49" s="16">
         <v>0</v>
@@ -6588,16 +6549,16 @@
         <v>20</v>
       </c>
       <c r="R49" s="17" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="S49" s="17" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="X49" s="16">
         <v>2</v>
       </c>
-      <c r="Y49" s="17" t="s">
-        <v>78</v>
+      <c r="Y49" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="Z49" s="16" t="s">
         <v>63</v>
@@ -6606,13 +6567,13 @@
         <v>0</v>
       </c>
       <c r="AB49" s="16" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="AC49" s="17" t="s">
         <v>64</v>
       </c>
       <c r="AD49" s="16" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="AE49" s="18" t="s">
         <v>65</v>
@@ -6632,7 +6593,7 @@
     </row>
     <row r="50" spans="1:35" s="16" customFormat="1">
       <c r="A50" s="19" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C50" s="16">
         <v>0</v>
@@ -6671,7 +6632,7 @@
         <v>3</v>
       </c>
       <c r="O50" s="16" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="P50" s="16">
         <v>0</v>
@@ -6680,16 +6641,16 @@
         <v>20</v>
       </c>
       <c r="R50" s="17" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="S50" s="17" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="X50" s="16">
         <v>2</v>
       </c>
-      <c r="Y50" s="17" t="s">
-        <v>78</v>
+      <c r="Y50" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="Z50" s="16" t="s">
         <v>63</v>
@@ -6698,13 +6659,13 @@
         <v>0</v>
       </c>
       <c r="AB50" s="16" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="AC50" s="17" t="s">
         <v>64</v>
       </c>
       <c r="AD50" s="16" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="AE50" s="18" t="s">
         <v>65</v>
@@ -6724,7 +6685,7 @@
     </row>
     <row r="51" spans="1:35" s="16" customFormat="1">
       <c r="A51" s="19" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C51" s="16">
         <v>0</v>
@@ -6763,7 +6724,7 @@
         <v>2</v>
       </c>
       <c r="O51" s="16" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="P51" s="16">
         <v>0</v>
@@ -6772,16 +6733,16 @@
         <v>20</v>
       </c>
       <c r="R51" s="17" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="S51" s="17" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="X51" s="16">
         <v>2</v>
       </c>
-      <c r="Y51" s="17" t="s">
-        <v>78</v>
+      <c r="Y51" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="Z51" s="16" t="s">
         <v>63</v>
@@ -6790,13 +6751,13 @@
         <v>0</v>
       </c>
       <c r="AB51" s="16" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="AC51" s="17" t="s">
         <v>64</v>
       </c>
       <c r="AD51" s="16" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="AE51" s="18" t="s">
         <v>65</v>
@@ -6816,7 +6777,7 @@
     </row>
     <row r="52" spans="1:35" s="16" customFormat="1">
       <c r="A52" s="19" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="C52" s="16">
         <v>0</v>
@@ -6855,7 +6816,7 @@
         <v>2</v>
       </c>
       <c r="O52" s="16" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="P52" s="16">
         <v>0</v>
@@ -6864,16 +6825,16 @@
         <v>20</v>
       </c>
       <c r="R52" s="16" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="S52" s="17" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="X52" s="16">
         <v>2</v>
       </c>
-      <c r="Y52" s="17" t="s">
-        <v>78</v>
+      <c r="Y52" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="Z52" s="16" t="s">
         <v>63</v>
@@ -6882,13 +6843,13 @@
         <v>0</v>
       </c>
       <c r="AB52" s="16" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="AC52" s="17" t="s">
         <v>64</v>
       </c>
       <c r="AD52" s="16" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="AE52" s="18" t="s">
         <v>65</v>
@@ -6908,7 +6869,7 @@
     </row>
     <row r="53" spans="1:35" s="16" customFormat="1">
       <c r="A53" s="19" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="C53" s="16">
         <v>0</v>
@@ -6947,7 +6908,7 @@
         <v>2</v>
       </c>
       <c r="O53" s="16" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="P53" s="16">
         <v>0</v>
@@ -6956,16 +6917,16 @@
         <v>20</v>
       </c>
       <c r="R53" s="16" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="S53" s="17" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="X53" s="16">
         <v>2</v>
       </c>
-      <c r="Y53" s="17" t="s">
-        <v>78</v>
+      <c r="Y53" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="Z53" s="16" t="s">
         <v>63</v>
@@ -6974,13 +6935,13 @@
         <v>0</v>
       </c>
       <c r="AB53" s="16" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="AC53" s="17" t="s">
         <v>64</v>
       </c>
       <c r="AD53" s="16" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="AE53" s="18" t="s">
         <v>65</v>
@@ -7000,7 +6961,7 @@
     </row>
     <row r="54" spans="1:35" s="16" customFormat="1">
       <c r="A54" s="19" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="C54" s="16">
         <v>0</v>
@@ -7039,7 +7000,7 @@
         <v>3</v>
       </c>
       <c r="O54" s="16" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="P54" s="16">
         <v>0</v>
@@ -7048,16 +7009,16 @@
         <v>20</v>
       </c>
       <c r="R54" s="16" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="S54" s="17" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="X54" s="16">
         <v>2</v>
       </c>
-      <c r="Y54" s="17" t="s">
-        <v>78</v>
+      <c r="Y54" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="Z54" s="16" t="s">
         <v>63</v>
@@ -7066,13 +7027,13 @@
         <v>0</v>
       </c>
       <c r="AB54" s="16" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="AC54" s="17" t="s">
         <v>64</v>
       </c>
       <c r="AD54" s="16" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="AE54" s="18" t="s">
         <v>65</v>
@@ -7092,7 +7053,7 @@
     </row>
     <row r="55" spans="1:35" s="16" customFormat="1">
       <c r="A55" s="19" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C55" s="16">
         <v>0</v>
@@ -7131,7 +7092,7 @@
         <v>3</v>
       </c>
       <c r="O55" s="16" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="P55" s="16">
         <v>0</v>
@@ -7140,16 +7101,16 @@
         <v>20</v>
       </c>
       <c r="R55" s="16" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="S55" s="17" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="X55" s="16">
         <v>2</v>
       </c>
-      <c r="Y55" s="17" t="s">
-        <v>78</v>
+      <c r="Y55" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="Z55" s="16" t="s">
         <v>63</v>
@@ -7158,13 +7119,13 @@
         <v>0</v>
       </c>
       <c r="AB55" s="16" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="AC55" s="17" t="s">
         <v>64</v>
       </c>
       <c r="AD55" s="16" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="AE55" s="18" t="s">
         <v>65</v>
@@ -7184,7 +7145,7 @@
     </row>
     <row r="56" spans="1:35" s="16" customFormat="1">
       <c r="A56" s="19" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="C56" s="16">
         <v>0</v>
@@ -7223,7 +7184,7 @@
         <v>3</v>
       </c>
       <c r="O56" s="16" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="P56" s="16">
         <v>0</v>
@@ -7232,16 +7193,16 @@
         <v>20</v>
       </c>
       <c r="R56" s="16" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="S56" s="17" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="X56" s="16">
         <v>2</v>
       </c>
-      <c r="Y56" s="17" t="s">
-        <v>78</v>
+      <c r="Y56" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="Z56" s="16" t="s">
         <v>63</v>
@@ -7250,13 +7211,13 @@
         <v>0</v>
       </c>
       <c r="AB56" s="16" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="AC56" s="17" t="s">
         <v>64</v>
       </c>
       <c r="AD56" s="16" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="AE56" s="18" t="s">
         <v>65</v>
@@ -7276,7 +7237,7 @@
     </row>
     <row r="57" spans="1:35" s="16" customFormat="1">
       <c r="A57" s="19" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="C57" s="16">
         <v>0</v>
@@ -7315,7 +7276,7 @@
         <v>2</v>
       </c>
       <c r="O57" s="16" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="P57" s="16">
         <v>0</v>
@@ -7324,16 +7285,16 @@
         <v>20</v>
       </c>
       <c r="R57" s="16" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="S57" s="17" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="X57" s="16">
         <v>2</v>
       </c>
-      <c r="Y57" s="17" t="s">
-        <v>78</v>
+      <c r="Y57" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="Z57" s="16" t="s">
         <v>63</v>
@@ -7342,13 +7303,13 @@
         <v>0</v>
       </c>
       <c r="AB57" s="16" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="AC57" s="17" t="s">
         <v>64</v>
       </c>
       <c r="AD57" s="16" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="AE57" s="18" t="s">
         <v>65</v>
@@ -7368,7 +7329,7 @@
     </row>
     <row r="58" spans="1:35" s="16" customFormat="1">
       <c r="A58" s="19" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C58" s="16">
         <v>0</v>
@@ -7407,7 +7368,7 @@
         <v>2</v>
       </c>
       <c r="O58" s="16" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="P58" s="16">
         <v>0</v>
@@ -7416,16 +7377,16 @@
         <v>20</v>
       </c>
       <c r="R58" s="16" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="S58" s="17" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="X58" s="16">
         <v>2</v>
       </c>
-      <c r="Y58" s="17" t="s">
-        <v>78</v>
+      <c r="Y58" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="Z58" s="16" t="s">
         <v>63</v>
@@ -7434,13 +7395,13 @@
         <v>0</v>
       </c>
       <c r="AB58" s="16" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="AC58" s="17" t="s">
         <v>64</v>
       </c>
       <c r="AD58" s="16" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="AE58" s="18" t="s">
         <v>65</v>
@@ -7460,7 +7421,7 @@
     </row>
     <row r="59" spans="1:35" s="21" customFormat="1" ht="13.9" thickBot="1">
       <c r="A59" s="20" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="C59" s="21">
         <v>0</v>
@@ -7499,7 +7460,7 @@
         <v>2</v>
       </c>
       <c r="O59" s="16" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="P59" s="21">
         <v>0</v>
@@ -7508,16 +7469,16 @@
         <v>20</v>
       </c>
       <c r="R59" s="16" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="S59" s="17" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="X59" s="21">
         <v>2</v>
       </c>
-      <c r="Y59" s="22" t="s">
-        <v>78</v>
+      <c r="Y59" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="Z59" s="21" t="s">
         <v>63</v>
@@ -7526,13 +7487,13 @@
         <v>0</v>
       </c>
       <c r="AB59" s="21" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="AC59" s="22" t="s">
         <v>64</v>
       </c>
       <c r="AD59" s="21" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="AE59" s="23" t="s">
         <v>65</v>
@@ -7552,7 +7513,7 @@
     </row>
     <row r="60" spans="1:35" s="16" customFormat="1">
       <c r="A60" s="19" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C60" s="16">
         <v>0</v>
@@ -7591,7 +7552,7 @@
         <v>2</v>
       </c>
       <c r="O60" s="16" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="P60" s="16">
         <v>0</v>
@@ -7600,16 +7561,16 @@
         <v>20</v>
       </c>
       <c r="R60" s="16" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="S60" s="17" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="X60" s="16">
         <v>2</v>
       </c>
-      <c r="Y60" s="17" t="s">
-        <v>78</v>
+      <c r="Y60" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="Z60" s="16" t="s">
         <v>63</v>
@@ -7618,13 +7579,13 @@
         <v>0</v>
       </c>
       <c r="AB60" s="16" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="AC60" s="17" t="s">
         <v>64</v>
       </c>
       <c r="AD60" s="16" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="AE60" s="18" t="s">
         <v>65</v>
@@ -7644,7 +7605,7 @@
     </row>
     <row r="61" spans="1:35" s="16" customFormat="1">
       <c r="A61" s="19" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="C61" s="16">
         <v>0</v>
@@ -7683,7 +7644,7 @@
         <v>2</v>
       </c>
       <c r="O61" s="16" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="P61" s="16">
         <v>0</v>
@@ -7692,16 +7653,16 @@
         <v>20</v>
       </c>
       <c r="R61" s="16" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="S61" s="17" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="X61" s="16">
         <v>2</v>
       </c>
-      <c r="Y61" s="17" t="s">
-        <v>78</v>
+      <c r="Y61" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="Z61" s="16" t="s">
         <v>63</v>
@@ -7710,13 +7671,13 @@
         <v>0</v>
       </c>
       <c r="AB61" s="16" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="AC61" s="17" t="s">
         <v>64</v>
       </c>
       <c r="AD61" s="16" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="AE61" s="18" t="s">
         <v>65</v>
@@ -7736,7 +7697,7 @@
     </row>
     <row r="62" spans="1:35" s="21" customFormat="1" ht="13.9" thickBot="1">
       <c r="A62" s="20" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="C62" s="21">
         <v>0</v>
@@ -7775,7 +7736,7 @@
         <v>2</v>
       </c>
       <c r="O62" s="16" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="P62" s="21">
         <v>0</v>
@@ -7784,16 +7745,16 @@
         <v>20</v>
       </c>
       <c r="R62" s="16" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="S62" s="17" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="X62" s="21">
         <v>2</v>
       </c>
-      <c r="Y62" s="22" t="s">
-        <v>78</v>
+      <c r="Y62" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="Z62" s="21" t="s">
         <v>63</v>
@@ -7802,13 +7763,13 @@
         <v>0</v>
       </c>
       <c r="AB62" s="21" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="AC62" s="22" t="s">
         <v>64</v>
       </c>
       <c r="AD62" s="21" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="AE62" s="23" t="s">
         <v>65</v>
@@ -7857,91 +7818,91 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:30" s="2" customFormat="1">
@@ -8498,7 +8459,7 @@
     </row>
     <row r="8" spans="1:30" s="3" customFormat="1">
       <c r="A8" s="7" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -8685,13 +8646,13 @@
         <v>36</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>40</v>
@@ -8703,73 +8664,73 @@
         <v>41</v>
       </c>
       <c r="H10" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="T10" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="U10" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="V10" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="W10" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="X10" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="Y10" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="N10" s="4" t="s">
+      <c r="Z10" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="O10" s="4" t="s">
+      <c r="AA10" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="P10" s="4" t="s">
+      <c r="AB10" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="Q10" s="4" t="s">
+      <c r="AC10" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="R10" s="4" t="s">
+      <c r="AD10" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="S10" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="T10" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="U10" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="V10" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="W10" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="X10" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y10" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z10" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA10" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="AB10" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="AC10" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="AD10" s="4" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:30">

--- a/_Out/NFDataCfg/Excel/NPC.xlsx
+++ b/_Out/NFDataCfg/Excel/NPC.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18528"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -214,9 +214,6 @@
     <t>召唤者，主人</t>
   </si>
   <si>
-    <t>NPC类型</t>
-  </si>
-  <si>
     <t>Default</t>
   </si>
   <si>
@@ -1142,6 +1139,9 @@
   </si>
   <si>
     <t>100</t>
+  </si>
+  <si>
+    <t>NPC类型,0building,1master,2hero</t>
   </si>
 </sst>
 </file>
@@ -1867,9 +1867,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF50" sqref="AF50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AI10" sqref="AI10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1911,7 +1911,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1929,7 +1929,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>8</v>
@@ -1938,7 +1938,7 @@
         <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>13</v>
@@ -1947,7 +1947,7 @@
         <v>10</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>11</v>
@@ -1956,19 +1956,19 @@
         <v>12</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>13</v>
@@ -2651,7 +2651,7 @@
     </row>
     <row r="8" spans="1:35" s="3" customFormat="1">
       <c r="A8" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -2863,7 +2863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" s="4" customFormat="1" ht="40.9" thickBot="1">
+    <row r="10" spans="1:35" s="4" customFormat="1" ht="67.900000000000006" thickBot="1">
       <c r="A10" s="8" t="s">
         <v>36</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>48</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="T10" s="4" t="s">
         <v>49</v>
@@ -2952,12 +2952,12 @@
         <v>59</v>
       </c>
       <c r="AI10" s="4" t="s">
-        <v>60</v>
+        <v>369</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="13.9" thickBot="1">
       <c r="A11" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -2996,7 +2996,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -3005,34 +3005,34 @@
         <v>20</v>
       </c>
       <c r="R11" s="36" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="S11" s="36" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="X11">
         <v>2</v>
       </c>
       <c r="Y11" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z11" t="s">
         <v>62</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="37" t="s">
+        <v>328</v>
+      </c>
+      <c r="AC11" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="37" t="s">
-        <v>329</v>
-      </c>
-      <c r="AC11" s="12" t="s">
+      <c r="AD11" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE11" s="13" t="s">
         <v>64</v>
-      </c>
-      <c r="AD11" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE11" s="13" t="s">
-        <v>65</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -3049,7 +3049,7 @@
     </row>
     <row r="12" spans="1:35" ht="13.9" thickBot="1">
       <c r="A12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -3097,34 +3097,34 @@
         <v>20</v>
       </c>
       <c r="R12" s="36" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="S12" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="X12">
         <v>2</v>
       </c>
       <c r="Y12" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z12" t="s">
         <v>62</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="37" t="s">
+        <v>328</v>
+      </c>
+      <c r="AC12" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="37" t="s">
-        <v>329</v>
-      </c>
-      <c r="AC12" s="12" t="s">
+      <c r="AD12" t="s">
+        <v>308</v>
+      </c>
+      <c r="AE12" s="13" t="s">
         <v>64</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>309</v>
-      </c>
-      <c r="AE12" s="13" t="s">
-        <v>65</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -3141,7 +3141,7 @@
     </row>
     <row r="13" spans="1:35" ht="13.9" thickBot="1">
       <c r="A13" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -3180,7 +3180,7 @@
         <v>2</v>
       </c>
       <c r="O13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -3189,34 +3189,34 @@
         <v>20</v>
       </c>
       <c r="R13" s="36" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="S13" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="X13">
         <v>2</v>
       </c>
       <c r="Y13" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z13" t="s">
         <v>62</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="37" t="s">
+        <v>328</v>
+      </c>
+      <c r="AC13" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="37" t="s">
-        <v>329</v>
-      </c>
-      <c r="AC13" s="12" t="s">
+      <c r="AD13" t="s">
+        <v>307</v>
+      </c>
+      <c r="AE13" s="13" t="s">
         <v>64</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>308</v>
-      </c>
-      <c r="AE13" s="13" t="s">
-        <v>65</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -3233,7 +3233,7 @@
     </row>
     <row r="14" spans="1:35" ht="13.9" thickBot="1">
       <c r="A14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -3272,7 +3272,7 @@
         <v>2</v>
       </c>
       <c r="O14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -3281,34 +3281,34 @@
         <v>20</v>
       </c>
       <c r="R14" s="36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="S14" s="36" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="X14">
         <v>2</v>
       </c>
       <c r="Y14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z14" t="s">
         <v>62</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="37" t="s">
+        <v>328</v>
+      </c>
+      <c r="AC14" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="37" t="s">
-        <v>329</v>
-      </c>
-      <c r="AC14" s="12" t="s">
+      <c r="AD14" t="s">
+        <v>306</v>
+      </c>
+      <c r="AE14" s="13" t="s">
         <v>64</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>307</v>
-      </c>
-      <c r="AE14" s="13" t="s">
-        <v>65</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -3325,7 +3325,7 @@
     </row>
     <row r="15" spans="1:35" ht="13.9" thickBot="1">
       <c r="A15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -3364,7 +3364,7 @@
         <v>2</v>
       </c>
       <c r="O15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -3373,34 +3373,34 @@
         <v>20</v>
       </c>
       <c r="R15" s="36" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="S15" s="36" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="X15">
         <v>2</v>
       </c>
       <c r="Y15" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z15" t="s">
         <v>62</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="37" t="s">
+        <v>328</v>
+      </c>
+      <c r="AC15" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="37" t="s">
-        <v>329</v>
-      </c>
-      <c r="AC15" s="12" t="s">
+      <c r="AD15" t="s">
+        <v>305</v>
+      </c>
+      <c r="AE15" s="13" t="s">
         <v>64</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>306</v>
-      </c>
-      <c r="AE15" s="13" t="s">
-        <v>65</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="16" spans="1:35" ht="13.9" thickBot="1">
       <c r="A16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -3456,7 +3456,7 @@
         <v>2</v>
       </c>
       <c r="O16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -3465,34 +3465,34 @@
         <v>20</v>
       </c>
       <c r="R16" s="36" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="S16" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="X16">
         <v>2</v>
       </c>
       <c r="Y16" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z16" t="s">
         <v>62</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="37" t="s">
+        <v>328</v>
+      </c>
+      <c r="AC16" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="37" t="s">
-        <v>329</v>
-      </c>
-      <c r="AC16" s="12" t="s">
+      <c r="AD16" t="s">
+        <v>304</v>
+      </c>
+      <c r="AE16" s="13" t="s">
         <v>64</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>305</v>
-      </c>
-      <c r="AE16" s="13" t="s">
-        <v>65</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -3509,7 +3509,7 @@
     </row>
     <row r="17" spans="1:35" ht="13.9" thickBot="1">
       <c r="A17" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>2</v>
       </c>
       <c r="O17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -3557,34 +3557,34 @@
         <v>20</v>
       </c>
       <c r="R17" s="36" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="S17" s="36" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="X17">
         <v>2</v>
       </c>
       <c r="Y17" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z17" t="s">
         <v>62</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="37" t="s">
+        <v>328</v>
+      </c>
+      <c r="AC17" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="37" t="s">
-        <v>329</v>
-      </c>
-      <c r="AC17" s="12" t="s">
+      <c r="AD17" t="s">
+        <v>302</v>
+      </c>
+      <c r="AE17" s="13" t="s">
         <v>64</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>303</v>
-      </c>
-      <c r="AE17" s="13" t="s">
-        <v>65</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -3601,7 +3601,7 @@
     </row>
     <row r="18" spans="1:35" ht="13.9" thickBot="1">
       <c r="A18" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -3640,7 +3640,7 @@
         <v>2</v>
       </c>
       <c r="O18" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -3649,34 +3649,34 @@
         <v>20</v>
       </c>
       <c r="R18" s="36" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="S18" s="36" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="X18">
         <v>2</v>
       </c>
       <c r="Y18" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z18" t="s">
         <v>62</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="37" t="s">
+        <v>328</v>
+      </c>
+      <c r="AC18" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="37" t="s">
-        <v>329</v>
-      </c>
-      <c r="AC18" s="12" t="s">
+      <c r="AD18" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE18" s="13" t="s">
         <v>64</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>304</v>
-      </c>
-      <c r="AE18" s="13" t="s">
-        <v>65</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -3693,7 +3693,7 @@
     </row>
     <row r="19" spans="1:35" ht="13.9" thickBot="1">
       <c r="A19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -3732,7 +3732,7 @@
         <v>2</v>
       </c>
       <c r="O19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -3741,34 +3741,34 @@
         <v>20</v>
       </c>
       <c r="R19" s="36" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="S19" s="36" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="X19">
         <v>2</v>
       </c>
       <c r="Y19" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z19" t="s">
         <v>62</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="37" t="s">
+        <v>328</v>
+      </c>
+      <c r="AC19" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="37" t="s">
-        <v>329</v>
-      </c>
-      <c r="AC19" s="12" t="s">
+      <c r="AD19" t="s">
+        <v>301</v>
+      </c>
+      <c r="AE19" s="13" t="s">
         <v>64</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>302</v>
-      </c>
-      <c r="AE19" s="13" t="s">
-        <v>65</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -3785,7 +3785,7 @@
     </row>
     <row r="20" spans="1:35" ht="13.9" thickBot="1">
       <c r="A20" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -3824,7 +3824,7 @@
         <v>2</v>
       </c>
       <c r="O20" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -3833,34 +3833,34 @@
         <v>20</v>
       </c>
       <c r="R20" s="36" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="S20" s="36" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="X20">
         <v>2</v>
       </c>
       <c r="Y20" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z20" t="s">
         <v>62</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="37" t="s">
+        <v>328</v>
+      </c>
+      <c r="AC20" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="AA20">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="37" t="s">
-        <v>329</v>
-      </c>
-      <c r="AC20" s="12" t="s">
+      <c r="AD20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AE20" s="13" t="s">
         <v>64</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>301</v>
-      </c>
-      <c r="AE20" s="13" t="s">
-        <v>65</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -3877,7 +3877,7 @@
     </row>
     <row r="21" spans="1:35" ht="13.9" thickBot="1">
       <c r="A21" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>2</v>
       </c>
       <c r="O21" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -3925,34 +3925,34 @@
         <v>20</v>
       </c>
       <c r="R21" s="36" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="S21" s="36" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="X21">
         <v>2</v>
       </c>
       <c r="Y21" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z21" t="s">
         <v>62</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="37" t="s">
+        <v>328</v>
+      </c>
+      <c r="AC21" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="AA21">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="37" t="s">
-        <v>329</v>
-      </c>
-      <c r="AC21" s="12" t="s">
+      <c r="AD21" t="s">
+        <v>299</v>
+      </c>
+      <c r="AE21" s="13" t="s">
         <v>64</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>300</v>
-      </c>
-      <c r="AE21" s="13" t="s">
-        <v>65</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -3969,7 +3969,7 @@
     </row>
     <row r="22" spans="1:35" ht="13.9" thickBot="1">
       <c r="A22" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -4008,7 +4008,7 @@
         <v>2</v>
       </c>
       <c r="O22" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -4017,34 +4017,34 @@
         <v>20</v>
       </c>
       <c r="R22" s="36" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="S22" s="36" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="X22">
         <v>2</v>
       </c>
       <c r="Y22" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z22" t="s">
         <v>62</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="37" t="s">
+        <v>328</v>
+      </c>
+      <c r="AC22" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="AA22">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="37" t="s">
-        <v>329</v>
-      </c>
-      <c r="AC22" s="12" t="s">
+      <c r="AD22" t="s">
+        <v>298</v>
+      </c>
+      <c r="AE22" s="13" t="s">
         <v>64</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>299</v>
-      </c>
-      <c r="AE22" s="13" t="s">
-        <v>65</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -4061,7 +4061,7 @@
     </row>
     <row r="23" spans="1:35" s="30" customFormat="1" ht="13.9" thickBot="1">
       <c r="A23" s="29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C23" s="30">
         <v>0</v>
@@ -4100,7 +4100,7 @@
         <v>2</v>
       </c>
       <c r="O23" s="30" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="P23" s="30">
         <v>0</v>
@@ -4109,46 +4109,46 @@
         <v>20</v>
       </c>
       <c r="R23" s="35" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="S23" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="T23" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U23" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="V23" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="W23" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="X23" s="30">
         <v>2</v>
       </c>
       <c r="Y23" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z23" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="Z23" s="30" t="s">
-        <v>63</v>
-      </c>
       <c r="AA23" s="30">
         <v>0</v>
       </c>
       <c r="AB23" s="30" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AC23" s="32" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AD23" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AE23" s="30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AF23" s="30">
         <v>0</v>
@@ -4165,7 +4165,7 @@
     </row>
     <row r="24" spans="1:35" s="27" customFormat="1" ht="13.9" thickBot="1">
       <c r="A24" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C24" s="27">
         <v>0</v>
@@ -4204,7 +4204,7 @@
         <v>2</v>
       </c>
       <c r="O24" s="27" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P24" s="27">
         <v>1</v>
@@ -4213,46 +4213,46 @@
         <v>20</v>
       </c>
       <c r="R24" s="35" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="S24" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="T24" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U24" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="V24" s="27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="W24" s="27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="X24" s="27">
         <v>2</v>
       </c>
       <c r="Y24" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z24" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="Z24" s="27" t="s">
-        <v>63</v>
-      </c>
       <c r="AA24" s="27">
         <v>0</v>
       </c>
       <c r="AB24" s="27" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AC24" s="28" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AD24" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AE24" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AF24" s="27">
         <v>0</v>
@@ -4269,7 +4269,7 @@
     </row>
     <row r="25" spans="1:35" s="27" customFormat="1" ht="13.9" thickBot="1">
       <c r="A25" s="34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C25" s="27">
         <v>0</v>
@@ -4308,7 +4308,7 @@
         <v>2</v>
       </c>
       <c r="O25" s="27" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P25" s="27">
         <v>0</v>
@@ -4317,46 +4317,46 @@
         <v>20</v>
       </c>
       <c r="R25" s="35" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="S25" s="35" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="T25" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="U25" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="V25" s="27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="W25" s="27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="X25" s="27">
         <v>2</v>
       </c>
       <c r="Y25" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z25" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="Z25" s="27" t="s">
-        <v>63</v>
-      </c>
       <c r="AA25" s="27">
         <v>0</v>
       </c>
       <c r="AB25" s="27" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AC25" s="28" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AD25" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AE25" s="27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AF25" s="27">
         <v>0</v>
@@ -4373,7 +4373,7 @@
     </row>
     <row r="26" spans="1:35" s="27" customFormat="1">
       <c r="A26" s="34" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C26" s="27">
         <v>0</v>
@@ -4412,7 +4412,7 @@
         <v>2</v>
       </c>
       <c r="O26" s="27" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="P26" s="27">
         <v>0</v>
@@ -4421,46 +4421,46 @@
         <v>20</v>
       </c>
       <c r="R26" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="S26" s="35" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="T26" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="U26" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="V26" s="27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="W26" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="X26" s="27">
         <v>2</v>
       </c>
       <c r="Y26" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z26" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="Z26" s="27" t="s">
-        <v>63</v>
-      </c>
       <c r="AA26" s="27">
         <v>0</v>
       </c>
       <c r="AB26" s="27" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AC26" s="28" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AD26" s="14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AE26" s="27" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AF26" s="27">
         <v>0</v>
@@ -4477,7 +4477,7 @@
     </row>
     <row r="27" spans="1:35" s="25" customFormat="1">
       <c r="A27" s="24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C27" s="25">
         <v>0</v>
@@ -4516,7 +4516,7 @@
         <v>2</v>
       </c>
       <c r="O27" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P27" s="25">
         <v>0</v>
@@ -4525,34 +4525,34 @@
         <v>20</v>
       </c>
       <c r="R27" s="17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="S27" s="17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="X27" s="25">
         <v>2</v>
       </c>
       <c r="Y27" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z27" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="Z27" s="25" t="s">
+      <c r="AA27" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="AC27" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="AA27" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="AC27" s="15" t="s">
+      <c r="AD27" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="AE27" s="26" t="s">
         <v>64</v>
-      </c>
-      <c r="AD27" s="25" t="s">
-        <v>251</v>
-      </c>
-      <c r="AE27" s="26" t="s">
-        <v>65</v>
       </c>
       <c r="AF27" s="25">
         <v>0</v>
@@ -4569,7 +4569,7 @@
     </row>
     <row r="28" spans="1:35" s="16" customFormat="1">
       <c r="A28" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C28" s="16">
         <v>0</v>
@@ -4608,7 +4608,7 @@
         <v>2</v>
       </c>
       <c r="O28" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P28" s="16">
         <v>0</v>
@@ -4617,34 +4617,34 @@
         <v>20</v>
       </c>
       <c r="R28" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="S28" s="17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="X28" s="16">
         <v>2</v>
       </c>
       <c r="Y28" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z28" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="Z28" s="16" t="s">
+      <c r="AA28" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC28" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="AA28" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="AC28" s="17" t="s">
+      <c r="AD28" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="AE28" s="18" t="s">
         <v>64</v>
-      </c>
-      <c r="AD28" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="AE28" s="18" t="s">
-        <v>65</v>
       </c>
       <c r="AF28" s="16">
         <v>0</v>
@@ -4661,7 +4661,7 @@
     </row>
     <row r="29" spans="1:35" s="16" customFormat="1">
       <c r="A29" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C29" s="16">
         <v>0</v>
@@ -4700,7 +4700,7 @@
         <v>2</v>
       </c>
       <c r="O29" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P29" s="16">
         <v>0</v>
@@ -4709,34 +4709,34 @@
         <v>20</v>
       </c>
       <c r="R29" s="16" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="S29" s="17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="X29" s="16">
         <v>2</v>
       </c>
       <c r="Y29" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z29" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="Z29" s="16" t="s">
+      <c r="AA29" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="AC29" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="AA29" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="AC29" s="17" t="s">
+      <c r="AD29" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="AE29" s="18" t="s">
         <v>64</v>
-      </c>
-      <c r="AD29" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="AE29" s="18" t="s">
-        <v>65</v>
       </c>
       <c r="AF29" s="16">
         <v>0</v>
@@ -4753,7 +4753,7 @@
     </row>
     <row r="30" spans="1:35" s="16" customFormat="1">
       <c r="A30" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C30" s="16">
         <v>0</v>
@@ -4792,7 +4792,7 @@
         <v>2</v>
       </c>
       <c r="O30" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P30" s="16">
         <v>0</v>
@@ -4801,34 +4801,34 @@
         <v>20</v>
       </c>
       <c r="R30" s="16" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="S30" s="17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="X30" s="16">
         <v>2</v>
       </c>
       <c r="Y30" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z30" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="Z30" s="16" t="s">
+      <c r="AA30" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="AC30" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="AA30" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB30" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="AC30" s="17" t="s">
+      <c r="AD30" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="AE30" s="18" t="s">
         <v>64</v>
-      </c>
-      <c r="AD30" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="AE30" s="18" t="s">
-        <v>65</v>
       </c>
       <c r="AF30" s="16">
         <v>0</v>
@@ -4845,7 +4845,7 @@
     </row>
     <row r="31" spans="1:35" s="16" customFormat="1">
       <c r="A31" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C31" s="16">
         <v>0</v>
@@ -4884,7 +4884,7 @@
         <v>2</v>
       </c>
       <c r="O31" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P31" s="16">
         <v>0</v>
@@ -4893,34 +4893,34 @@
         <v>20</v>
       </c>
       <c r="R31" s="16" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="S31" s="17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="X31" s="16">
         <v>2</v>
       </c>
       <c r="Y31" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z31" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="Z31" s="16" t="s">
+      <c r="AA31" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="AC31" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="AA31" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB31" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="AC31" s="17" t="s">
+      <c r="AD31" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="AE31" s="18" t="s">
         <v>64</v>
-      </c>
-      <c r="AD31" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="AE31" s="18" t="s">
-        <v>65</v>
       </c>
       <c r="AF31" s="16">
         <v>0</v>
@@ -4937,7 +4937,7 @@
     </row>
     <row r="32" spans="1:35" s="16" customFormat="1">
       <c r="A32" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C32" s="16">
         <v>0</v>
@@ -4976,7 +4976,7 @@
         <v>2</v>
       </c>
       <c r="O32" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P32" s="16">
         <v>0</v>
@@ -4985,34 +4985,34 @@
         <v>20</v>
       </c>
       <c r="R32" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="S32" s="17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="X32" s="16">
         <v>2</v>
       </c>
       <c r="Y32" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z32" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="Z32" s="16" t="s">
+      <c r="AA32" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="AC32" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="AA32" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB32" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="AC32" s="17" t="s">
+      <c r="AD32" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="AE32" s="18" t="s">
         <v>64</v>
-      </c>
-      <c r="AD32" s="16" t="s">
-        <v>256</v>
-      </c>
-      <c r="AE32" s="18" t="s">
-        <v>65</v>
       </c>
       <c r="AF32" s="16">
         <v>0</v>
@@ -5029,7 +5029,7 @@
     </row>
     <row r="33" spans="1:35" s="16" customFormat="1">
       <c r="A33" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C33" s="16">
         <v>0</v>
@@ -5068,7 +5068,7 @@
         <v>2</v>
       </c>
       <c r="O33" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P33" s="16">
         <v>0</v>
@@ -5077,34 +5077,34 @@
         <v>20</v>
       </c>
       <c r="R33" s="16" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="S33" s="17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="X33" s="16">
         <v>2</v>
       </c>
       <c r="Y33" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z33" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="Z33" s="16" t="s">
+      <c r="AA33" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC33" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="AA33" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB33" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="AC33" s="17" t="s">
+      <c r="AD33" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="AE33" s="18" t="s">
         <v>64</v>
-      </c>
-      <c r="AD33" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="AE33" s="18" t="s">
-        <v>65</v>
       </c>
       <c r="AF33" s="16">
         <v>0</v>
@@ -5121,7 +5121,7 @@
     </row>
     <row r="34" spans="1:35" s="16" customFormat="1">
       <c r="A34" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C34" s="16">
         <v>0</v>
@@ -5160,7 +5160,7 @@
         <v>2</v>
       </c>
       <c r="O34" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P34" s="16">
         <v>0</v>
@@ -5169,34 +5169,34 @@
         <v>20</v>
       </c>
       <c r="R34" s="17" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="S34" s="17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="X34" s="16">
         <v>2</v>
       </c>
       <c r="Y34" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z34" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="Z34" s="16" t="s">
+      <c r="AA34" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="AC34" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="AA34" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB34" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="AC34" s="17" t="s">
+      <c r="AD34" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="AE34" s="18" t="s">
         <v>64</v>
-      </c>
-      <c r="AD34" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="AE34" s="18" t="s">
-        <v>65</v>
       </c>
       <c r="AF34" s="16">
         <v>0</v>
@@ -5213,7 +5213,7 @@
     </row>
     <row r="35" spans="1:35" s="16" customFormat="1">
       <c r="A35" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C35" s="16">
         <v>0</v>
@@ -5252,7 +5252,7 @@
         <v>2</v>
       </c>
       <c r="O35" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P35" s="16">
         <v>0</v>
@@ -5261,34 +5261,34 @@
         <v>20</v>
       </c>
       <c r="R35" s="17" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="S35" s="17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="X35" s="16">
         <v>2</v>
       </c>
       <c r="Y35" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z35" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="Z35" s="16" t="s">
+      <c r="AA35" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="AC35" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="AA35" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB35" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="AC35" s="17" t="s">
+      <c r="AD35" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="AE35" s="18" t="s">
         <v>64</v>
-      </c>
-      <c r="AD35" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="AE35" s="18" t="s">
-        <v>65</v>
       </c>
       <c r="AF35" s="16">
         <v>0</v>
@@ -5305,7 +5305,7 @@
     </row>
     <row r="36" spans="1:35" s="16" customFormat="1">
       <c r="A36" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C36" s="16">
         <v>0</v>
@@ -5344,7 +5344,7 @@
         <v>3</v>
       </c>
       <c r="O36" s="16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P36" s="16">
         <v>0</v>
@@ -5353,34 +5353,34 @@
         <v>20</v>
       </c>
       <c r="R36" s="17" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="S36" s="17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="X36" s="16">
         <v>2</v>
       </c>
       <c r="Y36" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z36" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="Z36" s="16" t="s">
+      <c r="AA36" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="AC36" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="AA36" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB36" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="AC36" s="17" t="s">
+      <c r="AD36" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="AE36" s="18" t="s">
         <v>64</v>
-      </c>
-      <c r="AD36" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="AE36" s="18" t="s">
-        <v>65</v>
       </c>
       <c r="AF36" s="16">
         <v>0</v>
@@ -5397,7 +5397,7 @@
     </row>
     <row r="37" spans="1:35" s="16" customFormat="1">
       <c r="A37" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C37" s="16">
         <v>0</v>
@@ -5436,7 +5436,7 @@
         <v>3</v>
       </c>
       <c r="O37" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P37" s="16">
         <v>0</v>
@@ -5445,34 +5445,34 @@
         <v>20</v>
       </c>
       <c r="R37" s="17" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="S37" s="17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="X37" s="16">
         <v>2</v>
       </c>
       <c r="Y37" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z37" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="Z37" s="16" t="s">
+      <c r="AA37" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="AC37" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="AA37" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB37" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="AC37" s="17" t="s">
+      <c r="AD37" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="AE37" s="18" t="s">
         <v>64</v>
-      </c>
-      <c r="AD37" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="AE37" s="18" t="s">
-        <v>65</v>
       </c>
       <c r="AF37" s="16">
         <v>0</v>
@@ -5489,7 +5489,7 @@
     </row>
     <row r="38" spans="1:35" s="16" customFormat="1">
       <c r="A38" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C38" s="16">
         <v>0</v>
@@ -5528,7 +5528,7 @@
         <v>3</v>
       </c>
       <c r="O38" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P38" s="16">
         <v>0</v>
@@ -5537,34 +5537,34 @@
         <v>20</v>
       </c>
       <c r="R38" s="17" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="S38" s="17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="X38" s="16">
         <v>2</v>
       </c>
       <c r="Y38" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z38" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="Z38" s="16" t="s">
+      <c r="AA38" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="AC38" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="AA38" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB38" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="AC38" s="17" t="s">
+      <c r="AD38" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="AE38" s="18" t="s">
         <v>64</v>
-      </c>
-      <c r="AD38" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="AE38" s="18" t="s">
-        <v>65</v>
       </c>
       <c r="AF38" s="16">
         <v>0</v>
@@ -5581,46 +5581,46 @@
     </row>
     <row r="39" spans="1:35" s="16" customFormat="1">
       <c r="A39" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="C39" s="16">
+        <v>0</v>
+      </c>
+      <c r="D39" s="25">
+        <v>100</v>
+      </c>
+      <c r="E39" s="25">
+        <v>100</v>
+      </c>
+      <c r="F39" s="16">
+        <v>0</v>
+      </c>
+      <c r="G39" s="16">
+        <v>0</v>
+      </c>
+      <c r="H39" s="16">
+        <v>0</v>
+      </c>
+      <c r="I39" s="16">
+        <v>0</v>
+      </c>
+      <c r="J39" s="16">
+        <v>0</v>
+      </c>
+      <c r="K39" s="16">
+        <v>0</v>
+      </c>
+      <c r="L39" s="16">
+        <v>0</v>
+      </c>
+      <c r="M39" s="16">
+        <v>1</v>
+      </c>
+      <c r="N39" s="25">
+        <v>1</v>
+      </c>
+      <c r="O39" s="16" t="s">
         <v>287</v>
-      </c>
-      <c r="C39" s="16">
-        <v>0</v>
-      </c>
-      <c r="D39" s="25">
-        <v>100</v>
-      </c>
-      <c r="E39" s="25">
-        <v>100</v>
-      </c>
-      <c r="F39" s="16">
-        <v>0</v>
-      </c>
-      <c r="G39" s="16">
-        <v>0</v>
-      </c>
-      <c r="H39" s="16">
-        <v>0</v>
-      </c>
-      <c r="I39" s="16">
-        <v>0</v>
-      </c>
-      <c r="J39" s="16">
-        <v>0</v>
-      </c>
-      <c r="K39" s="16">
-        <v>0</v>
-      </c>
-      <c r="L39" s="16">
-        <v>0</v>
-      </c>
-      <c r="M39" s="16">
-        <v>1</v>
-      </c>
-      <c r="N39" s="25">
-        <v>1</v>
-      </c>
-      <c r="O39" s="16" t="s">
-        <v>288</v>
       </c>
       <c r="P39" s="16">
         <v>0</v>
@@ -5629,34 +5629,34 @@
         <v>20</v>
       </c>
       <c r="R39" s="17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="S39" s="17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="X39" s="16">
         <v>2</v>
       </c>
       <c r="Y39" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z39" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="Z39" s="16" t="s">
+      <c r="AA39" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="AC39" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="AA39" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB39" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="AC39" s="17" t="s">
+      <c r="AD39" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="AE39" s="18" t="s">
         <v>64</v>
-      </c>
-      <c r="AD39" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="AE39" s="18" t="s">
-        <v>65</v>
       </c>
       <c r="AF39" s="16">
         <v>0</v>
@@ -5673,7 +5673,7 @@
     </row>
     <row r="40" spans="1:35" s="16" customFormat="1">
       <c r="A40" s="19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C40" s="16">
         <v>0</v>
@@ -5712,7 +5712,7 @@
         <v>1</v>
       </c>
       <c r="O40" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P40" s="16">
         <v>0</v>
@@ -5721,34 +5721,34 @@
         <v>20</v>
       </c>
       <c r="R40" s="17" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="S40" s="17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="X40" s="16">
         <v>2</v>
       </c>
       <c r="Y40" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z40" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="Z40" s="16" t="s">
+      <c r="AA40" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="AC40" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="AA40" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB40" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="AC40" s="17" t="s">
+      <c r="AD40" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="AE40" s="18" t="s">
         <v>64</v>
-      </c>
-      <c r="AD40" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="AE40" s="18" t="s">
-        <v>65</v>
       </c>
       <c r="AF40" s="16">
         <v>0</v>
@@ -5765,7 +5765,7 @@
     </row>
     <row r="41" spans="1:35" s="16" customFormat="1">
       <c r="A41" s="19" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C41" s="16">
         <v>0</v>
@@ -5804,7 +5804,7 @@
         <v>1</v>
       </c>
       <c r="O41" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P41" s="16">
         <v>0</v>
@@ -5813,34 +5813,34 @@
         <v>20</v>
       </c>
       <c r="R41" s="17" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="S41" s="17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="X41" s="16">
         <v>2</v>
       </c>
       <c r="Y41" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z41" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="Z41" s="16" t="s">
+      <c r="AA41" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="AC41" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="AA41" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB41" s="16" t="s">
+      <c r="AD41" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="AC41" s="17" t="s">
+      <c r="AE41" s="18" t="s">
         <v>64</v>
-      </c>
-      <c r="AD41" s="16" t="s">
-        <v>292</v>
-      </c>
-      <c r="AE41" s="18" t="s">
-        <v>65</v>
       </c>
       <c r="AF41" s="16">
         <v>0</v>
@@ -5857,7 +5857,7 @@
     </row>
     <row r="42" spans="1:35" s="16" customFormat="1">
       <c r="A42" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C42" s="16">
         <v>0</v>
@@ -5896,7 +5896,7 @@
         <v>2</v>
       </c>
       <c r="O42" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P42" s="16">
         <v>0</v>
@@ -5905,34 +5905,34 @@
         <v>20</v>
       </c>
       <c r="R42" s="17" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="S42" s="17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="X42" s="16">
         <v>2</v>
       </c>
       <c r="Y42" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z42" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="Z42" s="16" t="s">
+      <c r="AA42" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC42" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="AA42" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB42" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="AC42" s="17" t="s">
+      <c r="AD42" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="AE42" s="18" t="s">
         <v>64</v>
-      </c>
-      <c r="AD42" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="AE42" s="18" t="s">
-        <v>65</v>
       </c>
       <c r="AF42" s="16">
         <v>0</v>
@@ -5949,7 +5949,7 @@
     </row>
     <row r="43" spans="1:35" s="16" customFormat="1">
       <c r="A43" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C43" s="16">
         <v>0</v>
@@ -5988,7 +5988,7 @@
         <v>2</v>
       </c>
       <c r="O43" s="16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P43" s="16">
         <v>0</v>
@@ -5997,34 +5997,34 @@
         <v>20</v>
       </c>
       <c r="R43" s="17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="S43" s="17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="X43" s="16">
         <v>2</v>
       </c>
       <c r="Y43" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z43" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="Z43" s="16" t="s">
+      <c r="AA43" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="AC43" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="AA43" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB43" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="AC43" s="17" t="s">
+      <c r="AD43" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="AE43" s="18" t="s">
         <v>64</v>
-      </c>
-      <c r="AD43" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="AE43" s="18" t="s">
-        <v>65</v>
       </c>
       <c r="AF43" s="16">
         <v>0</v>
@@ -6041,7 +6041,7 @@
     </row>
     <row r="44" spans="1:35" s="16" customFormat="1">
       <c r="A44" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C44" s="16">
         <v>0</v>
@@ -6080,7 +6080,7 @@
         <v>2</v>
       </c>
       <c r="O44" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P44" s="16">
         <v>0</v>
@@ -6089,34 +6089,34 @@
         <v>20</v>
       </c>
       <c r="R44" s="17" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="S44" s="17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="X44" s="16">
         <v>2</v>
       </c>
       <c r="Y44" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z44" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="Z44" s="16" t="s">
+      <c r="AA44" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="AC44" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="AA44" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB44" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="AC44" s="17" t="s">
+      <c r="AD44" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="AE44" s="18" t="s">
         <v>64</v>
-      </c>
-      <c r="AD44" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="AE44" s="18" t="s">
-        <v>65</v>
       </c>
       <c r="AF44" s="16">
         <v>0</v>
@@ -6133,7 +6133,7 @@
     </row>
     <row r="45" spans="1:35" s="16" customFormat="1">
       <c r="A45" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C45" s="16">
         <v>0</v>
@@ -6172,7 +6172,7 @@
         <v>2</v>
       </c>
       <c r="O45" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="P45" s="16">
         <v>0</v>
@@ -6181,34 +6181,34 @@
         <v>20</v>
       </c>
       <c r="R45" s="17" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="S45" s="17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="X45" s="16">
         <v>2</v>
       </c>
       <c r="Y45" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z45" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="Z45" s="16" t="s">
+      <c r="AA45" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC45" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="AA45" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB45" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="AC45" s="17" t="s">
+      <c r="AD45" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="AE45" s="18" t="s">
         <v>64</v>
-      </c>
-      <c r="AD45" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="AE45" s="18" t="s">
-        <v>65</v>
       </c>
       <c r="AF45" s="16">
         <v>0</v>
@@ -6225,7 +6225,7 @@
     </row>
     <row r="46" spans="1:35" s="16" customFormat="1">
       <c r="A46" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C46" s="16">
         <v>0</v>
@@ -6264,7 +6264,7 @@
         <v>2</v>
       </c>
       <c r="O46" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P46" s="16">
         <v>0</v>
@@ -6273,34 +6273,34 @@
         <v>20</v>
       </c>
       <c r="R46" s="17" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="S46" s="17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="X46" s="16">
         <v>2</v>
       </c>
       <c r="Y46" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z46" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="Z46" s="16" t="s">
+      <c r="AA46" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC46" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="AA46" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB46" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="AC46" s="17" t="s">
+      <c r="AD46" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="AE46" s="18" t="s">
         <v>64</v>
-      </c>
-      <c r="AD46" s="16" t="s">
-        <v>267</v>
-      </c>
-      <c r="AE46" s="18" t="s">
-        <v>65</v>
       </c>
       <c r="AF46" s="16">
         <v>0</v>
@@ -6317,7 +6317,7 @@
     </row>
     <row r="47" spans="1:35" s="16" customFormat="1">
       <c r="A47" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C47" s="16">
         <v>0</v>
@@ -6356,7 +6356,7 @@
         <v>2</v>
       </c>
       <c r="O47" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P47" s="16">
         <v>0</v>
@@ -6365,34 +6365,34 @@
         <v>20</v>
       </c>
       <c r="R47" s="17" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="S47" s="17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="X47" s="16">
         <v>2</v>
       </c>
       <c r="Y47" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z47" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="Z47" s="16" t="s">
+      <c r="AA47" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="AC47" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="AA47" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB47" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="AC47" s="17" t="s">
+      <c r="AD47" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE47" s="18" t="s">
         <v>64</v>
-      </c>
-      <c r="AD47" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="AE47" s="18" t="s">
-        <v>65</v>
       </c>
       <c r="AF47" s="16">
         <v>0</v>
@@ -6409,7 +6409,7 @@
     </row>
     <row r="48" spans="1:35" s="16" customFormat="1">
       <c r="A48" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C48" s="16">
         <v>0</v>
@@ -6448,7 +6448,7 @@
         <v>3</v>
       </c>
       <c r="O48" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P48" s="16">
         <v>0</v>
@@ -6457,34 +6457,34 @@
         <v>20</v>
       </c>
       <c r="R48" s="17" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="S48" s="17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="X48" s="16">
         <v>2</v>
       </c>
       <c r="Y48" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z48" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="Z48" s="16" t="s">
+      <c r="AA48" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="AC48" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="AA48" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB48" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="AC48" s="17" t="s">
+      <c r="AD48" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="AE48" s="18" t="s">
         <v>64</v>
-      </c>
-      <c r="AD48" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="AE48" s="18" t="s">
-        <v>65</v>
       </c>
       <c r="AF48" s="16">
         <v>0</v>
@@ -6501,7 +6501,7 @@
     </row>
     <row r="49" spans="1:35" s="16" customFormat="1">
       <c r="A49" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C49" s="16">
         <v>0</v>
@@ -6540,7 +6540,7 @@
         <v>3</v>
       </c>
       <c r="O49" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P49" s="16">
         <v>0</v>
@@ -6549,34 +6549,34 @@
         <v>20</v>
       </c>
       <c r="R49" s="17" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="S49" s="17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="X49" s="16">
         <v>2</v>
       </c>
       <c r="Y49" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z49" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="Z49" s="16" t="s">
+      <c r="AA49" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="AC49" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="AA49" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB49" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="AC49" s="17" t="s">
+      <c r="AD49" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="AE49" s="18" t="s">
         <v>64</v>
-      </c>
-      <c r="AD49" s="16" t="s">
-        <v>270</v>
-      </c>
-      <c r="AE49" s="18" t="s">
-        <v>65</v>
       </c>
       <c r="AF49" s="16">
         <v>0</v>
@@ -6593,7 +6593,7 @@
     </row>
     <row r="50" spans="1:35" s="16" customFormat="1">
       <c r="A50" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C50" s="16">
         <v>0</v>
@@ -6632,7 +6632,7 @@
         <v>3</v>
       </c>
       <c r="O50" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P50" s="16">
         <v>0</v>
@@ -6641,34 +6641,34 @@
         <v>20</v>
       </c>
       <c r="R50" s="17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="S50" s="17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="X50" s="16">
         <v>2</v>
       </c>
       <c r="Y50" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z50" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="Z50" s="16" t="s">
+      <c r="AA50" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="AC50" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="AA50" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB50" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="AC50" s="17" t="s">
+      <c r="AD50" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="AE50" s="18" t="s">
         <v>64</v>
-      </c>
-      <c r="AD50" s="16" t="s">
-        <v>271</v>
-      </c>
-      <c r="AE50" s="18" t="s">
-        <v>65</v>
       </c>
       <c r="AF50" s="16">
         <v>0</v>
@@ -6685,7 +6685,7 @@
     </row>
     <row r="51" spans="1:35" s="16" customFormat="1">
       <c r="A51" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C51" s="16">
         <v>0</v>
@@ -6724,7 +6724,7 @@
         <v>2</v>
       </c>
       <c r="O51" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P51" s="16">
         <v>0</v>
@@ -6733,34 +6733,34 @@
         <v>20</v>
       </c>
       <c r="R51" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="S51" s="17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="X51" s="16">
         <v>2</v>
       </c>
       <c r="Y51" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z51" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="Z51" s="16" t="s">
+      <c r="AA51" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC51" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="AA51" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB51" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="AC51" s="17" t="s">
+      <c r="AD51" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="AE51" s="18" t="s">
         <v>64</v>
-      </c>
-      <c r="AD51" s="16" t="s">
-        <v>272</v>
-      </c>
-      <c r="AE51" s="18" t="s">
-        <v>65</v>
       </c>
       <c r="AF51" s="16">
         <v>0</v>
@@ -6777,7 +6777,7 @@
     </row>
     <row r="52" spans="1:35" s="16" customFormat="1">
       <c r="A52" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C52" s="16">
         <v>0</v>
@@ -6816,7 +6816,7 @@
         <v>2</v>
       </c>
       <c r="O52" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P52" s="16">
         <v>0</v>
@@ -6825,34 +6825,34 @@
         <v>20</v>
       </c>
       <c r="R52" s="16" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="S52" s="17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="X52" s="16">
         <v>2</v>
       </c>
       <c r="Y52" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z52" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="Z52" s="16" t="s">
+      <c r="AA52" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="AC52" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="AA52" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB52" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="AC52" s="17" t="s">
+      <c r="AD52" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="AE52" s="18" t="s">
         <v>64</v>
-      </c>
-      <c r="AD52" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="AE52" s="18" t="s">
-        <v>65</v>
       </c>
       <c r="AF52" s="16">
         <v>0</v>
@@ -6869,7 +6869,7 @@
     </row>
     <row r="53" spans="1:35" s="16" customFormat="1">
       <c r="A53" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C53" s="16">
         <v>0</v>
@@ -6908,7 +6908,7 @@
         <v>2</v>
       </c>
       <c r="O53" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P53" s="16">
         <v>0</v>
@@ -6917,34 +6917,34 @@
         <v>20</v>
       </c>
       <c r="R53" s="16" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="S53" s="17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="X53" s="16">
         <v>2</v>
       </c>
       <c r="Y53" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z53" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="Z53" s="16" t="s">
+      <c r="AA53" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="AC53" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="AA53" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB53" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="AC53" s="17" t="s">
+      <c r="AD53" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="AE53" s="18" t="s">
         <v>64</v>
-      </c>
-      <c r="AD53" s="16" t="s">
-        <v>274</v>
-      </c>
-      <c r="AE53" s="18" t="s">
-        <v>65</v>
       </c>
       <c r="AF53" s="16">
         <v>0</v>
@@ -6961,7 +6961,7 @@
     </row>
     <row r="54" spans="1:35" s="16" customFormat="1">
       <c r="A54" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C54" s="16">
         <v>0</v>
@@ -7000,7 +7000,7 @@
         <v>3</v>
       </c>
       <c r="O54" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="P54" s="16">
         <v>0</v>
@@ -7009,34 +7009,34 @@
         <v>20</v>
       </c>
       <c r="R54" s="16" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="S54" s="17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="X54" s="16">
         <v>2</v>
       </c>
       <c r="Y54" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z54" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="Z54" s="16" t="s">
+      <c r="AA54" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="AC54" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="AA54" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB54" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="AC54" s="17" t="s">
+      <c r="AD54" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="AE54" s="18" t="s">
         <v>64</v>
-      </c>
-      <c r="AD54" s="16" t="s">
-        <v>275</v>
-      </c>
-      <c r="AE54" s="18" t="s">
-        <v>65</v>
       </c>
       <c r="AF54" s="16">
         <v>0</v>
@@ -7053,7 +7053,7 @@
     </row>
     <row r="55" spans="1:35" s="16" customFormat="1">
       <c r="A55" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C55" s="16">
         <v>0</v>
@@ -7092,7 +7092,7 @@
         <v>3</v>
       </c>
       <c r="O55" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="P55" s="16">
         <v>0</v>
@@ -7101,34 +7101,34 @@
         <v>20</v>
       </c>
       <c r="R55" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="S55" s="17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="X55" s="16">
         <v>2</v>
       </c>
       <c r="Y55" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z55" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="Z55" s="16" t="s">
+      <c r="AA55" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="AC55" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="AA55" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB55" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="AC55" s="17" t="s">
+      <c r="AD55" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="AE55" s="18" t="s">
         <v>64</v>
-      </c>
-      <c r="AD55" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="AE55" s="18" t="s">
-        <v>65</v>
       </c>
       <c r="AF55" s="16">
         <v>0</v>
@@ -7145,7 +7145,7 @@
     </row>
     <row r="56" spans="1:35" s="16" customFormat="1">
       <c r="A56" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C56" s="16">
         <v>0</v>
@@ -7184,7 +7184,7 @@
         <v>3</v>
       </c>
       <c r="O56" s="16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P56" s="16">
         <v>0</v>
@@ -7193,34 +7193,34 @@
         <v>20</v>
       </c>
       <c r="R56" s="16" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="S56" s="17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="X56" s="16">
         <v>2</v>
       </c>
       <c r="Y56" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z56" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="Z56" s="16" t="s">
+      <c r="AA56" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB56" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="AC56" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="AA56" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB56" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="AC56" s="17" t="s">
+      <c r="AD56" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="AE56" s="18" t="s">
         <v>64</v>
-      </c>
-      <c r="AD56" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="AE56" s="18" t="s">
-        <v>65</v>
       </c>
       <c r="AF56" s="16">
         <v>0</v>
@@ -7237,7 +7237,7 @@
     </row>
     <row r="57" spans="1:35" s="16" customFormat="1">
       <c r="A57" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C57" s="16">
         <v>0</v>
@@ -7276,7 +7276,7 @@
         <v>2</v>
       </c>
       <c r="O57" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P57" s="16">
         <v>0</v>
@@ -7285,34 +7285,34 @@
         <v>20</v>
       </c>
       <c r="R57" s="16" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="S57" s="17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="X57" s="16">
         <v>2</v>
       </c>
       <c r="Y57" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z57" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="Z57" s="16" t="s">
+      <c r="AA57" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="AC57" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="AA57" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB57" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="AC57" s="17" t="s">
+      <c r="AD57" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="AE57" s="18" t="s">
         <v>64</v>
-      </c>
-      <c r="AD57" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="AE57" s="18" t="s">
-        <v>65</v>
       </c>
       <c r="AF57" s="16">
         <v>0</v>
@@ -7329,7 +7329,7 @@
     </row>
     <row r="58" spans="1:35" s="16" customFormat="1">
       <c r="A58" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C58" s="16">
         <v>0</v>
@@ -7368,7 +7368,7 @@
         <v>2</v>
       </c>
       <c r="O58" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P58" s="16">
         <v>0</v>
@@ -7377,34 +7377,34 @@
         <v>20</v>
       </c>
       <c r="R58" s="16" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="S58" s="17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="X58" s="16">
         <v>2</v>
       </c>
       <c r="Y58" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z58" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="Z58" s="16" t="s">
+      <c r="AA58" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="AC58" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="AA58" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB58" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="AC58" s="17" t="s">
+      <c r="AD58" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="AE58" s="18" t="s">
         <v>64</v>
-      </c>
-      <c r="AD58" s="16" t="s">
-        <v>279</v>
-      </c>
-      <c r="AE58" s="18" t="s">
-        <v>65</v>
       </c>
       <c r="AF58" s="16">
         <v>0</v>
@@ -7421,7 +7421,7 @@
     </row>
     <row r="59" spans="1:35" s="21" customFormat="1" ht="13.9" thickBot="1">
       <c r="A59" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C59" s="21">
         <v>0</v>
@@ -7460,7 +7460,7 @@
         <v>2</v>
       </c>
       <c r="O59" s="16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P59" s="21">
         <v>0</v>
@@ -7469,34 +7469,34 @@
         <v>20</v>
       </c>
       <c r="R59" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="S59" s="17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="X59" s="21">
         <v>2</v>
       </c>
       <c r="Y59" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z59" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="Z59" s="21" t="s">
+      <c r="AA59" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="AC59" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="AA59" s="21">
-        <v>0</v>
-      </c>
-      <c r="AB59" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="AC59" s="22" t="s">
+      <c r="AD59" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="AE59" s="23" t="s">
         <v>64</v>
-      </c>
-      <c r="AD59" s="21" t="s">
-        <v>280</v>
-      </c>
-      <c r="AE59" s="23" t="s">
-        <v>65</v>
       </c>
       <c r="AF59" s="21">
         <v>0</v>
@@ -7513,7 +7513,7 @@
     </row>
     <row r="60" spans="1:35" s="16" customFormat="1">
       <c r="A60" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C60" s="16">
         <v>0</v>
@@ -7552,7 +7552,7 @@
         <v>2</v>
       </c>
       <c r="O60" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P60" s="16">
         <v>0</v>
@@ -7561,34 +7561,34 @@
         <v>20</v>
       </c>
       <c r="R60" s="16" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="S60" s="17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="X60" s="16">
         <v>2</v>
       </c>
       <c r="Y60" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z60" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="Z60" s="16" t="s">
+      <c r="AA60" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="AC60" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="AA60" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB60" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="AC60" s="17" t="s">
+      <c r="AD60" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="AE60" s="18" t="s">
         <v>64</v>
-      </c>
-      <c r="AD60" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="AE60" s="18" t="s">
-        <v>65</v>
       </c>
       <c r="AF60" s="16">
         <v>0</v>
@@ -7605,7 +7605,7 @@
     </row>
     <row r="61" spans="1:35" s="16" customFormat="1">
       <c r="A61" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C61" s="16">
         <v>0</v>
@@ -7644,7 +7644,7 @@
         <v>2</v>
       </c>
       <c r="O61" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P61" s="16">
         <v>0</v>
@@ -7653,34 +7653,34 @@
         <v>20</v>
       </c>
       <c r="R61" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="S61" s="17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="X61" s="16">
         <v>2</v>
       </c>
       <c r="Y61" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z61" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="Z61" s="16" t="s">
+      <c r="AA61" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="AC61" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="AA61" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB61" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="AC61" s="17" t="s">
+      <c r="AD61" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="AE61" s="18" t="s">
         <v>64</v>
-      </c>
-      <c r="AD61" s="16" t="s">
-        <v>282</v>
-      </c>
-      <c r="AE61" s="18" t="s">
-        <v>65</v>
       </c>
       <c r="AF61" s="16">
         <v>0</v>
@@ -7697,7 +7697,7 @@
     </row>
     <row r="62" spans="1:35" s="21" customFormat="1" ht="13.9" thickBot="1">
       <c r="A62" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C62" s="21">
         <v>0</v>
@@ -7736,7 +7736,7 @@
         <v>2</v>
       </c>
       <c r="O62" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P62" s="21">
         <v>0</v>
@@ -7745,34 +7745,34 @@
         <v>20</v>
       </c>
       <c r="R62" s="16" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="S62" s="17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="X62" s="21">
         <v>2</v>
       </c>
       <c r="Y62" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z62" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="Z62" s="21" t="s">
+      <c r="AA62" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="AC62" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="AA62" s="21">
-        <v>0</v>
-      </c>
-      <c r="AB62" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="AC62" s="22" t="s">
+      <c r="AD62" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="AE62" s="23" t="s">
         <v>64</v>
-      </c>
-      <c r="AD62" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="AE62" s="23" t="s">
-        <v>65</v>
       </c>
       <c r="AF62" s="21">
         <v>0</v>
@@ -7818,91 +7818,91 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AC1" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="AD1" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:30" s="2" customFormat="1">
@@ -8459,7 +8459,7 @@
     </row>
     <row r="8" spans="1:30" s="3" customFormat="1">
       <c r="A8" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -8646,13 +8646,13 @@
         <v>36</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>40</v>
@@ -8664,73 +8664,73 @@
         <v>41</v>
       </c>
       <c r="H10" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="J10" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="K10" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="L10" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="M10" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="N10" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="N10" s="4" t="s">
+      <c r="O10" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="O10" s="4" t="s">
+      <c r="P10" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="P10" s="4" t="s">
+      <c r="Q10" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="Q10" s="4" t="s">
+      <c r="R10" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="R10" s="4" t="s">
+      <c r="S10" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="S10" s="4" t="s">
+      <c r="T10" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="T10" s="4" t="s">
+      <c r="U10" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="U10" s="4" t="s">
+      <c r="V10" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="V10" s="4" t="s">
+      <c r="W10" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="W10" s="4" t="s">
+      <c r="X10" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="X10" s="4" t="s">
+      <c r="Y10" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="Y10" s="4" t="s">
+      <c r="Z10" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="Z10" s="4" t="s">
+      <c r="AA10" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="AA10" s="4" t="s">
+      <c r="AB10" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="AB10" s="4" t="s">
+      <c r="AC10" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="AC10" s="4" t="s">
+      <c r="AD10" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="AD10" s="4" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:30">

--- a/_Out/NFDataCfg/Excel/NPC.xlsx
+++ b/_Out/NFDataCfg/Excel/NPC.xlsx
@@ -20,6 +20,7 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
+  <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="422">
   <si>
     <t>Id</t>
   </si>
@@ -1141,14 +1142,170 @@
     <t>100</t>
   </si>
   <si>
-    <t>NPC类型,0building,1master,2hero</t>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>DescID</t>
+  </si>
+  <si>
+    <t>DescID_PlantMonster-Red</t>
+  </si>
+  <si>
+    <t>DescID_MushroomMonster-Pink</t>
+  </si>
+  <si>
+    <t>DescID_MonsterHornet-Green</t>
+  </si>
+  <si>
+    <t>DescID_MonsterCatBat-Purple</t>
+  </si>
+  <si>
+    <t>DescID_MaskedOrc-Green</t>
+  </si>
+  <si>
+    <t>DescID_Magma Demon-Orange</t>
+  </si>
+  <si>
+    <t>DescID_Magma Demon-Blue</t>
+  </si>
+  <si>
+    <t>DescID_FlowerMonster-Red</t>
+  </si>
+  <si>
+    <t>DescID_FlowerMonster-Blue</t>
+  </si>
+  <si>
+    <t>DescID_CrawlingBug-Red</t>
+  </si>
+  <si>
+    <t>DescID_CrawlingBug-Green</t>
+  </si>
+  <si>
+    <t>DescID_HERO_Orc_Slinger</t>
+  </si>
+  <si>
+    <t>DescID_HERO_Dwarf_Warrior</t>
+  </si>
+  <si>
+    <t>DescID_HERO_Wererat_Soldier</t>
+  </si>
+  <si>
+    <t>DescID_HERO_Samurai</t>
+  </si>
+  <si>
+    <t>DescID_dragon_cannon_1</t>
+  </si>
+  <si>
+    <t>DescID_dragon_cannon_2</t>
+  </si>
+  <si>
+    <t>DescID_dragon_cannon_3</t>
+  </si>
+  <si>
+    <t>DescID_gold_mine_1</t>
+  </si>
+  <si>
+    <t>DescID_gold_mine_2</t>
+  </si>
+  <si>
+    <t>DescID_gold_mine_3</t>
+  </si>
+  <si>
+    <t>DescID_ballista_tower_1</t>
+  </si>
+  <si>
+    <t>DescID_ballista_tower_2</t>
+  </si>
+  <si>
+    <t>DescID_ballista_tower_3</t>
+  </si>
+  <si>
+    <t>DescID_townhall_1</t>
+  </si>
+  <si>
+    <t>DescID_townhall_2</t>
+  </si>
+  <si>
+    <t>DescID_townhall_3</t>
+  </si>
+  <si>
+    <t>DescID_cannon_small_1</t>
+  </si>
+  <si>
+    <t>DescID_cannon_small_2</t>
+  </si>
+  <si>
+    <t>DescID_cannon_small_3</t>
+  </si>
+  <si>
+    <t>DescID_gold_storage_1</t>
+  </si>
+  <si>
+    <t>DescID_gold_storage_2</t>
+  </si>
+  <si>
+    <t>DescID_gold_storage_3</t>
+  </si>
+  <si>
+    <t>DescID_mana_storage_1</t>
+  </si>
+  <si>
+    <t>DescID_mana_storage_2</t>
+  </si>
+  <si>
+    <t>DescID_mana_storage_3</t>
+  </si>
+  <si>
+    <t>DescID_barrack_1</t>
+  </si>
+  <si>
+    <t>DescID_barrack_2</t>
+  </si>
+  <si>
+    <t>DescID_barrack_3</t>
+  </si>
+  <si>
+    <t>DescID_bomb_1</t>
+  </si>
+  <si>
+    <t>DescID_bomb_2</t>
+  </si>
+  <si>
+    <t>DescID_bomb_3</t>
+  </si>
+  <si>
+    <t>DescID_worker_hut_1</t>
+  </si>
+  <si>
+    <t>DescID_worker_hut_2</t>
+  </si>
+  <si>
+    <t>DescID_worker_hut_3</t>
+  </si>
+  <si>
+    <t>DescID_anti_air_tower_1</t>
+  </si>
+  <si>
+    <t>DescID_anti_air_tower_2</t>
+  </si>
+  <si>
+    <t>DescID_anti_air_tower_3</t>
+  </si>
+  <si>
+    <t>DescID_mana_well_1</t>
+  </si>
+  <si>
+    <t>DescID_mana_well_2</t>
+  </si>
+  <si>
+    <t>DescID_mana_well_3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1175,6 +1332,11 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1383,7 +1545,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1496,6 +1658,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1865,11 +2033,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI62"/>
+  <dimension ref="A1:AJ62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AI10" sqref="AI10"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AJ22" sqref="AJ22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1898,9 +2066,10 @@
     <col min="31" max="31" width="36" customWidth="1"/>
     <col min="32" max="32" width="9.9296875" customWidth="1"/>
     <col min="34" max="34" width="12.59765625" customWidth="1"/>
+    <col min="36" max="36" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="1" customFormat="1" ht="14.25">
+    <row r="1" spans="1:36" s="1" customFormat="1" ht="14.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2006,8 +2175,11 @@
       <c r="AI1" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="AJ1" s="1" t="s">
+        <v>370</v>
+      </c>
     </row>
-    <row r="2" spans="1:35" s="2" customFormat="1" ht="14.25">
+    <row r="2" spans="1:36" s="2" customFormat="1" ht="14.25">
       <c r="A2" s="6" t="s">
         <v>25</v>
       </c>
@@ -2113,8 +2285,11 @@
       <c r="AI2" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="AJ2" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="3" spans="1:35" s="2" customFormat="1" ht="14.25">
+    <row r="3" spans="1:36" s="2" customFormat="1" ht="14.25">
       <c r="A3" s="6" t="s">
         <v>30</v>
       </c>
@@ -2220,8 +2395,11 @@
       <c r="AI3" s="2">
         <v>0</v>
       </c>
+      <c r="AJ3" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:35" s="2" customFormat="1" ht="14.25">
+    <row r="4" spans="1:36" s="2" customFormat="1" ht="14.25">
       <c r="A4" s="6" t="s">
         <v>31</v>
       </c>
@@ -2327,8 +2505,11 @@
       <c r="AI4" s="2">
         <v>0</v>
       </c>
+      <c r="AJ4" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:35" s="2" customFormat="1" ht="14.25">
+    <row r="5" spans="1:36" s="2" customFormat="1" ht="14.25">
       <c r="A5" s="6" t="s">
         <v>32</v>
       </c>
@@ -2434,8 +2615,11 @@
       <c r="AI5" s="2">
         <v>0</v>
       </c>
+      <c r="AJ5" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:35" s="2" customFormat="1" ht="14.25">
+    <row r="6" spans="1:36" s="2" customFormat="1" ht="14.25">
       <c r="A6" s="6" t="s">
         <v>33</v>
       </c>
@@ -2541,8 +2725,11 @@
       <c r="AI6" s="2">
         <v>0</v>
       </c>
+      <c r="AJ6" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:35" s="3" customFormat="1">
+    <row r="7" spans="1:36" s="3" customFormat="1">
       <c r="A7" s="7" t="s">
         <v>34</v>
       </c>
@@ -2648,8 +2835,11 @@
       <c r="AI7" s="3">
         <v>0</v>
       </c>
+      <c r="AJ7" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:35" s="3" customFormat="1">
+    <row r="8" spans="1:36" s="3" customFormat="1">
       <c r="A8" s="7" t="s">
         <v>283</v>
       </c>
@@ -2755,8 +2945,11 @@
       <c r="AI8" s="3">
         <v>0</v>
       </c>
+      <c r="AJ8" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:35" s="3" customFormat="1">
+    <row r="9" spans="1:36" s="3" customFormat="1">
       <c r="A9" s="7" t="s">
         <v>35</v>
       </c>
@@ -2862,8 +3055,11 @@
       <c r="AI9" s="3">
         <v>0</v>
       </c>
+      <c r="AJ9" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:35" s="4" customFormat="1" ht="67.900000000000006" thickBot="1">
+    <row r="10" spans="1:36" s="4" customFormat="1" ht="40.9" thickBot="1">
       <c r="A10" s="8" t="s">
         <v>36</v>
       </c>
@@ -2954,8 +3150,11 @@
       <c r="AI10" s="4" t="s">
         <v>369</v>
       </c>
+      <c r="AJ10" s="4" t="s">
+        <v>369</v>
+      </c>
     </row>
-    <row r="11" spans="1:35" ht="13.9" thickBot="1">
+    <row r="11" spans="1:36" ht="13.9" thickBot="1">
       <c r="A11" s="9" t="s">
         <v>60</v>
       </c>
@@ -3046,8 +3245,11 @@
       <c r="AI11">
         <v>0</v>
       </c>
+      <c r="AJ11" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="12" spans="1:35" ht="13.9" thickBot="1">
+    <row r="12" spans="1:36" ht="13.9" thickBot="1">
       <c r="A12" t="s">
         <v>308</v>
       </c>
@@ -3138,8 +3340,11 @@
       <c r="AI12">
         <v>0</v>
       </c>
+      <c r="AJ12" t="s">
+        <v>371</v>
+      </c>
     </row>
-    <row r="13" spans="1:35" ht="13.9" thickBot="1">
+    <row r="13" spans="1:36" ht="13.9" thickBot="1">
       <c r="A13" t="s">
         <v>307</v>
       </c>
@@ -3230,8 +3435,11 @@
       <c r="AI13">
         <v>0</v>
       </c>
+      <c r="AJ13" t="s">
+        <v>372</v>
+      </c>
     </row>
-    <row r="14" spans="1:35" ht="13.9" thickBot="1">
+    <row r="14" spans="1:36" ht="13.9" thickBot="1">
       <c r="A14" t="s">
         <v>306</v>
       </c>
@@ -3322,8 +3530,11 @@
       <c r="AI14">
         <v>0</v>
       </c>
+      <c r="AJ14" t="s">
+        <v>373</v>
+      </c>
     </row>
-    <row r="15" spans="1:35" ht="13.9" thickBot="1">
+    <row r="15" spans="1:36" ht="13.9" thickBot="1">
       <c r="A15" t="s">
         <v>305</v>
       </c>
@@ -3414,8 +3625,11 @@
       <c r="AI15">
         <v>0</v>
       </c>
+      <c r="AJ15" t="s">
+        <v>374</v>
+      </c>
     </row>
-    <row r="16" spans="1:35" ht="13.9" thickBot="1">
+    <row r="16" spans="1:36" ht="13.9" thickBot="1">
       <c r="A16" t="s">
         <v>304</v>
       </c>
@@ -3506,8 +3720,11 @@
       <c r="AI16">
         <v>0</v>
       </c>
+      <c r="AJ16" t="s">
+        <v>375</v>
+      </c>
     </row>
-    <row r="17" spans="1:35" ht="13.9" thickBot="1">
+    <row r="17" spans="1:36" ht="13.9" thickBot="1">
       <c r="A17" t="s">
         <v>302</v>
       </c>
@@ -3598,8 +3815,11 @@
       <c r="AI17">
         <v>0</v>
       </c>
+      <c r="AJ17" t="s">
+        <v>376</v>
+      </c>
     </row>
-    <row r="18" spans="1:35" ht="13.9" thickBot="1">
+    <row r="18" spans="1:36" ht="13.9" thickBot="1">
       <c r="A18" t="s">
         <v>303</v>
       </c>
@@ -3690,8 +3910,11 @@
       <c r="AI18">
         <v>0</v>
       </c>
+      <c r="AJ18" t="s">
+        <v>377</v>
+      </c>
     </row>
-    <row r="19" spans="1:35" ht="13.9" thickBot="1">
+    <row r="19" spans="1:36" ht="13.9" thickBot="1">
       <c r="A19" t="s">
         <v>301</v>
       </c>
@@ -3782,8 +4005,11 @@
       <c r="AI19">
         <v>0</v>
       </c>
+      <c r="AJ19" t="s">
+        <v>378</v>
+      </c>
     </row>
-    <row r="20" spans="1:35" ht="13.9" thickBot="1">
+    <row r="20" spans="1:36" ht="13.9" thickBot="1">
       <c r="A20" t="s">
         <v>300</v>
       </c>
@@ -3874,8 +4100,11 @@
       <c r="AI20">
         <v>0</v>
       </c>
+      <c r="AJ20" t="s">
+        <v>379</v>
+      </c>
     </row>
-    <row r="21" spans="1:35" ht="13.9" thickBot="1">
+    <row r="21" spans="1:36" ht="13.9" thickBot="1">
       <c r="A21" t="s">
         <v>299</v>
       </c>
@@ -3966,8 +4195,11 @@
       <c r="AI21">
         <v>0</v>
       </c>
+      <c r="AJ21" t="s">
+        <v>380</v>
+      </c>
     </row>
-    <row r="22" spans="1:35" ht="13.9" thickBot="1">
+    <row r="22" spans="1:36" ht="13.9" thickBot="1">
       <c r="A22" t="s">
         <v>298</v>
       </c>
@@ -4058,8 +4290,11 @@
       <c r="AI22">
         <v>0</v>
       </c>
+      <c r="AJ22" s="39" t="s">
+        <v>381</v>
+      </c>
     </row>
-    <row r="23" spans="1:35" s="30" customFormat="1" ht="13.9" thickBot="1">
+    <row r="23" spans="1:36" s="30" customFormat="1" ht="13.9" thickBot="1">
       <c r="A23" s="29" t="s">
         <v>66</v>
       </c>
@@ -4162,8 +4397,11 @@
       <c r="AI23" s="30">
         <v>0</v>
       </c>
+      <c r="AJ23" s="34" t="s">
+        <v>382</v>
+      </c>
     </row>
-    <row r="24" spans="1:35" s="27" customFormat="1" ht="13.9" thickBot="1">
+    <row r="24" spans="1:36" s="27" customFormat="1" ht="13.9" thickBot="1">
       <c r="A24" s="34" t="s">
         <v>68</v>
       </c>
@@ -4266,8 +4504,11 @@
       <c r="AI24" s="27">
         <v>0</v>
       </c>
+      <c r="AJ24" s="34" t="s">
+        <v>383</v>
+      </c>
     </row>
-    <row r="25" spans="1:35" s="27" customFormat="1" ht="13.9" thickBot="1">
+    <row r="25" spans="1:36" s="27" customFormat="1" ht="13.9" thickBot="1">
       <c r="A25" s="34" t="s">
         <v>70</v>
       </c>
@@ -4370,8 +4611,11 @@
       <c r="AI25" s="27">
         <v>0</v>
       </c>
+      <c r="AJ25" s="34" t="s">
+        <v>384</v>
+      </c>
     </row>
-    <row r="26" spans="1:35" s="27" customFormat="1">
+    <row r="26" spans="1:36" s="27" customFormat="1">
       <c r="A26" s="34" t="s">
         <v>320</v>
       </c>
@@ -4474,8 +4718,11 @@
       <c r="AI26" s="27">
         <v>0</v>
       </c>
+      <c r="AJ26" s="38" t="s">
+        <v>385</v>
+      </c>
     </row>
-    <row r="27" spans="1:35" s="25" customFormat="1">
+    <row r="27" spans="1:36" s="25" customFormat="1">
       <c r="A27" s="24" t="s">
         <v>151</v>
       </c>
@@ -4566,8 +4813,11 @@
       <c r="AI27" s="25">
         <v>0</v>
       </c>
+      <c r="AJ27" s="19" t="s">
+        <v>386</v>
+      </c>
     </row>
-    <row r="28" spans="1:35" s="16" customFormat="1">
+    <row r="28" spans="1:36" s="16" customFormat="1">
       <c r="A28" s="19" t="s">
         <v>161</v>
       </c>
@@ -4658,8 +4908,11 @@
       <c r="AI28" s="16">
         <v>0</v>
       </c>
+      <c r="AJ28" s="19" t="s">
+        <v>387</v>
+      </c>
     </row>
-    <row r="29" spans="1:35" s="16" customFormat="1">
+    <row r="29" spans="1:36" s="16" customFormat="1">
       <c r="A29" s="19" t="s">
         <v>171</v>
       </c>
@@ -4750,8 +5003,11 @@
       <c r="AI29" s="16">
         <v>0</v>
       </c>
+      <c r="AJ29" s="19" t="s">
+        <v>388</v>
+      </c>
     </row>
-    <row r="30" spans="1:35" s="16" customFormat="1">
+    <row r="30" spans="1:36" s="16" customFormat="1">
       <c r="A30" s="19" t="s">
         <v>152</v>
       </c>
@@ -4842,8 +5098,11 @@
       <c r="AI30" s="16">
         <v>0</v>
       </c>
+      <c r="AJ30" s="19" t="s">
+        <v>389</v>
+      </c>
     </row>
-    <row r="31" spans="1:35" s="16" customFormat="1">
+    <row r="31" spans="1:36" s="16" customFormat="1">
       <c r="A31" s="19" t="s">
         <v>162</v>
       </c>
@@ -4934,8 +5193,11 @@
       <c r="AI31" s="16">
         <v>0</v>
       </c>
+      <c r="AJ31" s="19" t="s">
+        <v>390</v>
+      </c>
     </row>
-    <row r="32" spans="1:35" s="16" customFormat="1">
+    <row r="32" spans="1:36" s="16" customFormat="1">
       <c r="A32" s="19" t="s">
         <v>172</v>
       </c>
@@ -5026,8 +5288,11 @@
       <c r="AI32" s="16">
         <v>0</v>
       </c>
+      <c r="AJ32" s="19" t="s">
+        <v>391</v>
+      </c>
     </row>
-    <row r="33" spans="1:35" s="16" customFormat="1">
+    <row r="33" spans="1:36" s="16" customFormat="1">
       <c r="A33" s="19" t="s">
         <v>153</v>
       </c>
@@ -5118,8 +5383,11 @@
       <c r="AI33" s="16">
         <v>0</v>
       </c>
+      <c r="AJ33" s="19" t="s">
+        <v>392</v>
+      </c>
     </row>
-    <row r="34" spans="1:35" s="16" customFormat="1">
+    <row r="34" spans="1:36" s="16" customFormat="1">
       <c r="A34" s="19" t="s">
         <v>163</v>
       </c>
@@ -5210,8 +5478,11 @@
       <c r="AI34" s="16">
         <v>0</v>
       </c>
+      <c r="AJ34" s="19" t="s">
+        <v>393</v>
+      </c>
     </row>
-    <row r="35" spans="1:35" s="16" customFormat="1">
+    <row r="35" spans="1:36" s="16" customFormat="1">
       <c r="A35" s="19" t="s">
         <v>173</v>
       </c>
@@ -5302,8 +5573,11 @@
       <c r="AI35" s="16">
         <v>0</v>
       </c>
+      <c r="AJ35" s="19" t="s">
+        <v>394</v>
+      </c>
     </row>
-    <row r="36" spans="1:35" s="16" customFormat="1">
+    <row r="36" spans="1:36" s="16" customFormat="1">
       <c r="A36" s="19" t="s">
         <v>154</v>
       </c>
@@ -5394,8 +5668,11 @@
       <c r="AI36" s="16">
         <v>0</v>
       </c>
+      <c r="AJ36" s="19" t="s">
+        <v>395</v>
+      </c>
     </row>
-    <row r="37" spans="1:35" s="16" customFormat="1">
+    <row r="37" spans="1:36" s="16" customFormat="1">
       <c r="A37" s="19" t="s">
         <v>164</v>
       </c>
@@ -5486,8 +5763,11 @@
       <c r="AI37" s="16">
         <v>0</v>
       </c>
+      <c r="AJ37" s="19" t="s">
+        <v>396</v>
+      </c>
     </row>
-    <row r="38" spans="1:35" s="16" customFormat="1">
+    <row r="38" spans="1:36" s="16" customFormat="1">
       <c r="A38" s="19" t="s">
         <v>174</v>
       </c>
@@ -5578,8 +5858,11 @@
       <c r="AI38" s="16">
         <v>0</v>
       </c>
+      <c r="AJ38" s="19" t="s">
+        <v>397</v>
+      </c>
     </row>
-    <row r="39" spans="1:35" s="16" customFormat="1">
+    <row r="39" spans="1:36" s="16" customFormat="1">
       <c r="A39" s="19" t="s">
         <v>286</v>
       </c>
@@ -5670,8 +5953,11 @@
       <c r="AI39" s="16">
         <v>0</v>
       </c>
+      <c r="AJ39" s="19" t="s">
+        <v>398</v>
+      </c>
     </row>
-    <row r="40" spans="1:35" s="16" customFormat="1">
+    <row r="40" spans="1:36" s="16" customFormat="1">
       <c r="A40" s="19" t="s">
         <v>296</v>
       </c>
@@ -5762,8 +6048,11 @@
       <c r="AI40" s="16">
         <v>0</v>
       </c>
+      <c r="AJ40" s="19" t="s">
+        <v>399</v>
+      </c>
     </row>
-    <row r="41" spans="1:35" s="16" customFormat="1">
+    <row r="41" spans="1:36" s="16" customFormat="1">
       <c r="A41" s="19" t="s">
         <v>297</v>
       </c>
@@ -5854,8 +6143,11 @@
       <c r="AI41" s="16">
         <v>0</v>
       </c>
+      <c r="AJ41" s="19" t="s">
+        <v>400</v>
+      </c>
     </row>
-    <row r="42" spans="1:35" s="16" customFormat="1">
+    <row r="42" spans="1:36" s="16" customFormat="1">
       <c r="A42" s="19" t="s">
         <v>155</v>
       </c>
@@ -5946,8 +6238,11 @@
       <c r="AI42" s="16">
         <v>0</v>
       </c>
+      <c r="AJ42" s="19" t="s">
+        <v>401</v>
+      </c>
     </row>
-    <row r="43" spans="1:35" s="16" customFormat="1">
+    <row r="43" spans="1:36" s="16" customFormat="1">
       <c r="A43" s="19" t="s">
         <v>165</v>
       </c>
@@ -6038,8 +6333,11 @@
       <c r="AI43" s="16">
         <v>0</v>
       </c>
+      <c r="AJ43" s="19" t="s">
+        <v>402</v>
+      </c>
     </row>
-    <row r="44" spans="1:35" s="16" customFormat="1">
+    <row r="44" spans="1:36" s="16" customFormat="1">
       <c r="A44" s="19" t="s">
         <v>175</v>
       </c>
@@ -6130,8 +6428,11 @@
       <c r="AI44" s="16">
         <v>0</v>
       </c>
+      <c r="AJ44" s="19" t="s">
+        <v>403</v>
+      </c>
     </row>
-    <row r="45" spans="1:35" s="16" customFormat="1">
+    <row r="45" spans="1:36" s="16" customFormat="1">
       <c r="A45" s="19" t="s">
         <v>156</v>
       </c>
@@ -6222,8 +6523,11 @@
       <c r="AI45" s="16">
         <v>0</v>
       </c>
+      <c r="AJ45" s="19" t="s">
+        <v>404</v>
+      </c>
     </row>
-    <row r="46" spans="1:35" s="16" customFormat="1">
+    <row r="46" spans="1:36" s="16" customFormat="1">
       <c r="A46" s="19" t="s">
         <v>166</v>
       </c>
@@ -6314,8 +6618,11 @@
       <c r="AI46" s="16">
         <v>0</v>
       </c>
+      <c r="AJ46" s="19" t="s">
+        <v>405</v>
+      </c>
     </row>
-    <row r="47" spans="1:35" s="16" customFormat="1">
+    <row r="47" spans="1:36" s="16" customFormat="1">
       <c r="A47" s="19" t="s">
         <v>176</v>
       </c>
@@ -6406,8 +6713,11 @@
       <c r="AI47" s="16">
         <v>0</v>
       </c>
+      <c r="AJ47" s="19" t="s">
+        <v>406</v>
+      </c>
     </row>
-    <row r="48" spans="1:35" s="16" customFormat="1">
+    <row r="48" spans="1:36" s="16" customFormat="1">
       <c r="A48" s="19" t="s">
         <v>157</v>
       </c>
@@ -6498,8 +6808,11 @@
       <c r="AI48" s="16">
         <v>0</v>
       </c>
+      <c r="AJ48" s="19" t="s">
+        <v>407</v>
+      </c>
     </row>
-    <row r="49" spans="1:35" s="16" customFormat="1">
+    <row r="49" spans="1:36" s="16" customFormat="1">
       <c r="A49" s="19" t="s">
         <v>167</v>
       </c>
@@ -6590,8 +6903,11 @@
       <c r="AI49" s="16">
         <v>0</v>
       </c>
+      <c r="AJ49" s="19" t="s">
+        <v>408</v>
+      </c>
     </row>
-    <row r="50" spans="1:35" s="16" customFormat="1">
+    <row r="50" spans="1:36" s="16" customFormat="1">
       <c r="A50" s="19" t="s">
         <v>177</v>
       </c>
@@ -6682,8 +6998,11 @@
       <c r="AI50" s="16">
         <v>0</v>
       </c>
+      <c r="AJ50" s="19" t="s">
+        <v>409</v>
+      </c>
     </row>
-    <row r="51" spans="1:35" s="16" customFormat="1">
+    <row r="51" spans="1:36" s="16" customFormat="1">
       <c r="A51" s="19" t="s">
         <v>158</v>
       </c>
@@ -6774,8 +7093,11 @@
       <c r="AI51" s="16">
         <v>0</v>
       </c>
+      <c r="AJ51" s="19" t="s">
+        <v>410</v>
+      </c>
     </row>
-    <row r="52" spans="1:35" s="16" customFormat="1">
+    <row r="52" spans="1:36" s="16" customFormat="1">
       <c r="A52" s="19" t="s">
         <v>168</v>
       </c>
@@ -6866,8 +7188,11 @@
       <c r="AI52" s="16">
         <v>0</v>
       </c>
+      <c r="AJ52" s="19" t="s">
+        <v>411</v>
+      </c>
     </row>
-    <row r="53" spans="1:35" s="16" customFormat="1">
+    <row r="53" spans="1:36" s="16" customFormat="1">
       <c r="A53" s="19" t="s">
         <v>178</v>
       </c>
@@ -6958,8 +7283,11 @@
       <c r="AI53" s="16">
         <v>0</v>
       </c>
+      <c r="AJ53" s="19" t="s">
+        <v>412</v>
+      </c>
     </row>
-    <row r="54" spans="1:35" s="16" customFormat="1">
+    <row r="54" spans="1:36" s="16" customFormat="1">
       <c r="A54" s="19" t="s">
         <v>159</v>
       </c>
@@ -7050,8 +7378,11 @@
       <c r="AI54" s="16">
         <v>0</v>
       </c>
+      <c r="AJ54" s="19" t="s">
+        <v>413</v>
+      </c>
     </row>
-    <row r="55" spans="1:35" s="16" customFormat="1">
+    <row r="55" spans="1:36" s="16" customFormat="1">
       <c r="A55" s="19" t="s">
         <v>169</v>
       </c>
@@ -7142,8 +7473,11 @@
       <c r="AI55" s="16">
         <v>0</v>
       </c>
+      <c r="AJ55" s="19" t="s">
+        <v>414</v>
+      </c>
     </row>
-    <row r="56" spans="1:35" s="16" customFormat="1">
+    <row r="56" spans="1:36" s="16" customFormat="1">
       <c r="A56" s="19" t="s">
         <v>179</v>
       </c>
@@ -7234,8 +7568,11 @@
       <c r="AI56" s="16">
         <v>0</v>
       </c>
+      <c r="AJ56" s="19" t="s">
+        <v>415</v>
+      </c>
     </row>
-    <row r="57" spans="1:35" s="16" customFormat="1">
+    <row r="57" spans="1:36" s="16" customFormat="1">
       <c r="A57" s="19" t="s">
         <v>160</v>
       </c>
@@ -7326,8 +7663,11 @@
       <c r="AI57" s="16">
         <v>0</v>
       </c>
+      <c r="AJ57" s="19" t="s">
+        <v>416</v>
+      </c>
     </row>
-    <row r="58" spans="1:35" s="16" customFormat="1">
+    <row r="58" spans="1:36" s="16" customFormat="1" ht="13.9" thickBot="1">
       <c r="A58" s="19" t="s">
         <v>170</v>
       </c>
@@ -7418,8 +7758,11 @@
       <c r="AI58" s="16">
         <v>0</v>
       </c>
+      <c r="AJ58" s="20" t="s">
+        <v>417</v>
+      </c>
     </row>
-    <row r="59" spans="1:35" s="21" customFormat="1" ht="13.9" thickBot="1">
+    <row r="59" spans="1:36" s="21" customFormat="1" ht="13.9" thickBot="1">
       <c r="A59" s="20" t="s">
         <v>180</v>
       </c>
@@ -7510,8 +7853,11 @@
       <c r="AI59" s="21">
         <v>0</v>
       </c>
+      <c r="AJ59" s="19" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="60" spans="1:35" s="16" customFormat="1">
+    <row r="60" spans="1:36" s="16" customFormat="1">
       <c r="A60" s="19" t="s">
         <v>181</v>
       </c>
@@ -7602,8 +7948,11 @@
       <c r="AI60" s="16">
         <v>0</v>
       </c>
+      <c r="AJ60" s="19" t="s">
+        <v>419</v>
+      </c>
     </row>
-    <row r="61" spans="1:35" s="16" customFormat="1">
+    <row r="61" spans="1:36" s="16" customFormat="1" ht="13.9" thickBot="1">
       <c r="A61" s="19" t="s">
         <v>182</v>
       </c>
@@ -7694,8 +8043,11 @@
       <c r="AI61" s="16">
         <v>0</v>
       </c>
+      <c r="AJ61" s="20" t="s">
+        <v>420</v>
+      </c>
     </row>
-    <row r="62" spans="1:35" s="21" customFormat="1" ht="13.9" thickBot="1">
+    <row r="62" spans="1:36" s="21" customFormat="1" ht="13.9" thickBot="1">
       <c r="A62" s="20" t="s">
         <v>183</v>
       </c>
@@ -7785,12 +8137,15 @@
       </c>
       <c r="AI62" s="21">
         <v>0</v>
+      </c>
+      <c r="AJ62" s="21" t="s">
+        <v>421</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y8:Z9 AB8:AB9 AC7:AI9 B7:Q9 T7:X9 AA7:AA9 R8:S9" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y8:Z9 AB8:AB9 AC7:AJ9 B7:Q9 T7:X9 AA7:AA9 R8:S9" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/_Out/NFDataCfg/Excel/NPC.xlsx
+++ b/_Out/NFDataCfg/Excel/NPC.xlsx
@@ -1181,18 +1181,6 @@
     <t>DescID_CrawlingBug-Green</t>
   </si>
   <si>
-    <t>DescID_HERO_Orc_Slinger</t>
-  </si>
-  <si>
-    <t>DescID_HERO_Dwarf_Warrior</t>
-  </si>
-  <si>
-    <t>DescID_HERO_Wererat_Soldier</t>
-  </si>
-  <si>
-    <t>DescID_HERO_Samurai</t>
-  </si>
-  <si>
     <t>DescID_dragon_cannon_1</t>
   </si>
   <si>
@@ -1299,6 +1287,18 @@
   </si>
   <si>
     <t>DescID_mana_well_3</t>
+  </si>
+  <si>
+    <t>DescID_Orc_Slinger</t>
+  </si>
+  <si>
+    <t>DescID_Dwarf_Warrior</t>
+  </si>
+  <si>
+    <t>DescID_Wererat_Soldier</t>
+  </si>
+  <si>
+    <t>DescID_Samurai</t>
   </si>
 </sst>
 </file>
@@ -2037,7 +2037,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AJ22" sqref="AJ22"/>
+      <selection pane="bottomLeft" activeCell="AJ25" sqref="AJ25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2286,7 +2286,7 @@
         <v>27</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:36" s="2" customFormat="1" ht="14.25">
@@ -4398,7 +4398,7 @@
         <v>0</v>
       </c>
       <c r="AJ23" s="34" t="s">
-        <v>382</v>
+        <v>418</v>
       </c>
     </row>
     <row r="24" spans="1:36" s="27" customFormat="1" ht="13.9" thickBot="1">
@@ -4505,7 +4505,7 @@
         <v>0</v>
       </c>
       <c r="AJ24" s="34" t="s">
-        <v>383</v>
+        <v>419</v>
       </c>
     </row>
     <row r="25" spans="1:36" s="27" customFormat="1" ht="13.9" thickBot="1">
@@ -4612,7 +4612,7 @@
         <v>0</v>
       </c>
       <c r="AJ25" s="34" t="s">
-        <v>384</v>
+        <v>420</v>
       </c>
     </row>
     <row r="26" spans="1:36" s="27" customFormat="1">
@@ -4719,7 +4719,7 @@
         <v>0</v>
       </c>
       <c r="AJ26" s="38" t="s">
-        <v>385</v>
+        <v>421</v>
       </c>
     </row>
     <row r="27" spans="1:36" s="25" customFormat="1">
@@ -4814,7 +4814,7 @@
         <v>0</v>
       </c>
       <c r="AJ27" s="19" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="28" spans="1:36" s="16" customFormat="1">
@@ -4909,7 +4909,7 @@
         <v>0</v>
       </c>
       <c r="AJ28" s="19" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="29" spans="1:36" s="16" customFormat="1">
@@ -5004,7 +5004,7 @@
         <v>0</v>
       </c>
       <c r="AJ29" s="19" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="30" spans="1:36" s="16" customFormat="1">
@@ -5099,7 +5099,7 @@
         <v>0</v>
       </c>
       <c r="AJ30" s="19" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="31" spans="1:36" s="16" customFormat="1">
@@ -5194,7 +5194,7 @@
         <v>0</v>
       </c>
       <c r="AJ31" s="19" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="32" spans="1:36" s="16" customFormat="1">
@@ -5289,7 +5289,7 @@
         <v>0</v>
       </c>
       <c r="AJ32" s="19" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="33" spans="1:36" s="16" customFormat="1">
@@ -5384,7 +5384,7 @@
         <v>0</v>
       </c>
       <c r="AJ33" s="19" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="34" spans="1:36" s="16" customFormat="1">
@@ -5479,7 +5479,7 @@
         <v>0</v>
       </c>
       <c r="AJ34" s="19" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="35" spans="1:36" s="16" customFormat="1">
@@ -5574,7 +5574,7 @@
         <v>0</v>
       </c>
       <c r="AJ35" s="19" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="36" spans="1:36" s="16" customFormat="1">
@@ -5669,7 +5669,7 @@
         <v>0</v>
       </c>
       <c r="AJ36" s="19" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="37" spans="1:36" s="16" customFormat="1">
@@ -5764,7 +5764,7 @@
         <v>0</v>
       </c>
       <c r="AJ37" s="19" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="38" spans="1:36" s="16" customFormat="1">
@@ -5859,7 +5859,7 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="19" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="39" spans="1:36" s="16" customFormat="1">
@@ -5954,7 +5954,7 @@
         <v>0</v>
       </c>
       <c r="AJ39" s="19" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="40" spans="1:36" s="16" customFormat="1">
@@ -6049,7 +6049,7 @@
         <v>0</v>
       </c>
       <c r="AJ40" s="19" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="41" spans="1:36" s="16" customFormat="1">
@@ -6144,7 +6144,7 @@
         <v>0</v>
       </c>
       <c r="AJ41" s="19" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="42" spans="1:36" s="16" customFormat="1">
@@ -6239,7 +6239,7 @@
         <v>0</v>
       </c>
       <c r="AJ42" s="19" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="43" spans="1:36" s="16" customFormat="1">
@@ -6334,7 +6334,7 @@
         <v>0</v>
       </c>
       <c r="AJ43" s="19" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="44" spans="1:36" s="16" customFormat="1">
@@ -6429,7 +6429,7 @@
         <v>0</v>
       </c>
       <c r="AJ44" s="19" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="45" spans="1:36" s="16" customFormat="1">
@@ -6524,7 +6524,7 @@
         <v>0</v>
       </c>
       <c r="AJ45" s="19" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="46" spans="1:36" s="16" customFormat="1">
@@ -6619,7 +6619,7 @@
         <v>0</v>
       </c>
       <c r="AJ46" s="19" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="47" spans="1:36" s="16" customFormat="1">
@@ -6714,7 +6714,7 @@
         <v>0</v>
       </c>
       <c r="AJ47" s="19" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="48" spans="1:36" s="16" customFormat="1">
@@ -6809,7 +6809,7 @@
         <v>0</v>
       </c>
       <c r="AJ48" s="19" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="49" spans="1:36" s="16" customFormat="1">
@@ -6904,7 +6904,7 @@
         <v>0</v>
       </c>
       <c r="AJ49" s="19" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="50" spans="1:36" s="16" customFormat="1">
@@ -6999,7 +6999,7 @@
         <v>0</v>
       </c>
       <c r="AJ50" s="19" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="51" spans="1:36" s="16" customFormat="1">
@@ -7094,7 +7094,7 @@
         <v>0</v>
       </c>
       <c r="AJ51" s="19" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="52" spans="1:36" s="16" customFormat="1">
@@ -7189,7 +7189,7 @@
         <v>0</v>
       </c>
       <c r="AJ52" s="19" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="53" spans="1:36" s="16" customFormat="1">
@@ -7284,7 +7284,7 @@
         <v>0</v>
       </c>
       <c r="AJ53" s="19" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="54" spans="1:36" s="16" customFormat="1">
@@ -7379,7 +7379,7 @@
         <v>0</v>
       </c>
       <c r="AJ54" s="19" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="55" spans="1:36" s="16" customFormat="1">
@@ -7474,7 +7474,7 @@
         <v>0</v>
       </c>
       <c r="AJ55" s="19" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="56" spans="1:36" s="16" customFormat="1">
@@ -7569,7 +7569,7 @@
         <v>0</v>
       </c>
       <c r="AJ56" s="19" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="57" spans="1:36" s="16" customFormat="1">
@@ -7664,7 +7664,7 @@
         <v>0</v>
       </c>
       <c r="AJ57" s="19" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="58" spans="1:36" s="16" customFormat="1" ht="13.9" thickBot="1">
@@ -7759,7 +7759,7 @@
         <v>0</v>
       </c>
       <c r="AJ58" s="20" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="59" spans="1:36" s="21" customFormat="1" ht="13.9" thickBot="1">
@@ -7854,7 +7854,7 @@
         <v>0</v>
       </c>
       <c r="AJ59" s="19" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="60" spans="1:36" s="16" customFormat="1">
@@ -7949,7 +7949,7 @@
         <v>0</v>
       </c>
       <c r="AJ60" s="19" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="61" spans="1:36" s="16" customFormat="1" ht="13.9" thickBot="1">
@@ -8044,7 +8044,7 @@
         <v>0</v>
       </c>
       <c r="AJ61" s="20" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="62" spans="1:36" s="21" customFormat="1" ht="13.9" thickBot="1">
@@ -8139,7 +8139,7 @@
         <v>0</v>
       </c>
       <c r="AJ62" s="21" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>

--- a/_Out/NFDataCfg/Excel/NPC.xlsx
+++ b/_Out/NFDataCfg/Excel/NPC.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="424">
   <si>
     <t>Id</t>
   </si>
@@ -1299,6 +1299,12 @@
   </si>
   <si>
     <t>DescID_Samurai</t>
+  </si>
+  <si>
+    <t>AIOwnerID</t>
+  </si>
+  <si>
+    <t>AI</t>
   </si>
 </sst>
 </file>
@@ -2033,11 +2039,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ62"/>
+  <dimension ref="A1:AK62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AJ25" sqref="AJ25"/>
+      <selection pane="bottomLeft" activeCell="AI11" sqref="AI11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2065,11 +2071,11 @@
     <col min="30" max="30" width="22.1328125" customWidth="1"/>
     <col min="31" max="31" width="36" customWidth="1"/>
     <col min="32" max="32" width="9.9296875" customWidth="1"/>
-    <col min="34" max="34" width="12.59765625" customWidth="1"/>
-    <col min="36" max="36" width="25" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="12.59765625" customWidth="1"/>
+    <col min="37" max="37" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="1" customFormat="1" ht="14.25">
+    <row r="1" spans="1:37" s="1" customFormat="1" ht="14.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2173,13 +2179,16 @@
         <v>23</v>
       </c>
       <c r="AI1" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="2" spans="1:36" s="2" customFormat="1" ht="14.25">
+    <row r="2" spans="1:37" s="2" customFormat="1" ht="14.25">
       <c r="A2" s="6" t="s">
         <v>25</v>
       </c>
@@ -2283,13 +2292,16 @@
         <v>29</v>
       </c>
       <c r="AI2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AK2" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:36" s="2" customFormat="1" ht="14.25">
+    <row r="3" spans="1:37" s="2" customFormat="1" ht="14.25">
       <c r="A3" s="6" t="s">
         <v>30</v>
       </c>
@@ -2393,13 +2405,16 @@
         <v>1</v>
       </c>
       <c r="AI3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" s="2" customFormat="1" ht="14.25">
+    <row r="4" spans="1:37" s="2" customFormat="1" ht="14.25">
       <c r="A4" s="6" t="s">
         <v>31</v>
       </c>
@@ -2503,13 +2518,16 @@
         <v>1</v>
       </c>
       <c r="AI4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="2" customFormat="1" ht="14.25">
+    <row r="5" spans="1:37" s="2" customFormat="1" ht="14.25">
       <c r="A5" s="6" t="s">
         <v>32</v>
       </c>
@@ -2613,13 +2631,16 @@
         <v>1</v>
       </c>
       <c r="AI5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ5" s="2">
         <v>0</v>
       </c>
+      <c r="AK5" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:36" s="2" customFormat="1" ht="14.25">
+    <row r="6" spans="1:37" s="2" customFormat="1" ht="14.25">
       <c r="A6" s="6" t="s">
         <v>33</v>
       </c>
@@ -2728,8 +2749,11 @@
       <c r="AJ6" s="2">
         <v>0</v>
       </c>
+      <c r="AK6" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:36" s="3" customFormat="1">
+    <row r="7" spans="1:37" s="3" customFormat="1">
       <c r="A7" s="7" t="s">
         <v>34</v>
       </c>
@@ -2838,8 +2862,11 @@
       <c r="AJ7" s="3">
         <v>0</v>
       </c>
+      <c r="AK7" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:36" s="3" customFormat="1">
+    <row r="8" spans="1:37" s="3" customFormat="1">
       <c r="A8" s="7" t="s">
         <v>283</v>
       </c>
@@ -2948,8 +2975,11 @@
       <c r="AJ8" s="3">
         <v>0</v>
       </c>
+      <c r="AK8" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:36" s="3" customFormat="1">
+    <row r="9" spans="1:37" s="3" customFormat="1">
       <c r="A9" s="7" t="s">
         <v>35</v>
       </c>
@@ -3058,8 +3088,11 @@
       <c r="AJ9" s="3">
         <v>0</v>
       </c>
+      <c r="AK9" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:36" s="4" customFormat="1" ht="40.9" thickBot="1">
+    <row r="10" spans="1:37" s="4" customFormat="1" ht="40.9" thickBot="1">
       <c r="A10" s="8" t="s">
         <v>36</v>
       </c>
@@ -3148,13 +3181,16 @@
         <v>59</v>
       </c>
       <c r="AI10" s="4" t="s">
-        <v>369</v>
+        <v>423</v>
       </c>
       <c r="AJ10" s="4" t="s">
         <v>369</v>
       </c>
+      <c r="AK10" s="4" t="s">
+        <v>369</v>
+      </c>
     </row>
-    <row r="11" spans="1:36" ht="13.9" thickBot="1">
+    <row r="11" spans="1:37" ht="13.9" thickBot="1">
       <c r="A11" s="9" t="s">
         <v>60</v>
       </c>
@@ -3245,11 +3281,14 @@
       <c r="AI11">
         <v>0</v>
       </c>
-      <c r="AJ11" t="s">
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="13.9" thickBot="1">
+    <row r="12" spans="1:37" ht="13.9" thickBot="1">
       <c r="A12" t="s">
         <v>308</v>
       </c>
@@ -3340,11 +3379,14 @@
       <c r="AI12">
         <v>0</v>
       </c>
-      <c r="AJ12" t="s">
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="13.9" thickBot="1">
+    <row r="13" spans="1:37" ht="13.9" thickBot="1">
       <c r="A13" t="s">
         <v>307</v>
       </c>
@@ -3435,11 +3477,14 @@
       <c r="AI13">
         <v>0</v>
       </c>
-      <c r="AJ13" t="s">
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="13.9" thickBot="1">
+    <row r="14" spans="1:37" ht="13.9" thickBot="1">
       <c r="A14" t="s">
         <v>306</v>
       </c>
@@ -3530,11 +3575,14 @@
       <c r="AI14">
         <v>0</v>
       </c>
-      <c r="AJ14" t="s">
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="13.9" thickBot="1">
+    <row r="15" spans="1:37" ht="13.9" thickBot="1">
       <c r="A15" t="s">
         <v>305</v>
       </c>
@@ -3625,11 +3673,14 @@
       <c r="AI15">
         <v>0</v>
       </c>
-      <c r="AJ15" t="s">
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="13.9" thickBot="1">
+    <row r="16" spans="1:37" ht="13.9" thickBot="1">
       <c r="A16" t="s">
         <v>304</v>
       </c>
@@ -3720,11 +3771,14 @@
       <c r="AI16">
         <v>0</v>
       </c>
-      <c r="AJ16" t="s">
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="17" spans="1:36" ht="13.9" thickBot="1">
+    <row r="17" spans="1:37" ht="13.9" thickBot="1">
       <c r="A17" t="s">
         <v>302</v>
       </c>
@@ -3815,11 +3869,14 @@
       <c r="AI17">
         <v>0</v>
       </c>
-      <c r="AJ17" t="s">
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="18" spans="1:36" ht="13.9" thickBot="1">
+    <row r="18" spans="1:37" ht="13.9" thickBot="1">
       <c r="A18" t="s">
         <v>303</v>
       </c>
@@ -3910,11 +3967,14 @@
       <c r="AI18">
         <v>0</v>
       </c>
-      <c r="AJ18" t="s">
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="19" spans="1:36" ht="13.9" thickBot="1">
+    <row r="19" spans="1:37" ht="13.9" thickBot="1">
       <c r="A19" t="s">
         <v>301</v>
       </c>
@@ -4005,11 +4065,14 @@
       <c r="AI19">
         <v>0</v>
       </c>
-      <c r="AJ19" t="s">
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="20" spans="1:36" ht="13.9" thickBot="1">
+    <row r="20" spans="1:37" ht="13.9" thickBot="1">
       <c r="A20" t="s">
         <v>300</v>
       </c>
@@ -4100,11 +4163,14 @@
       <c r="AI20">
         <v>0</v>
       </c>
-      <c r="AJ20" t="s">
+      <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="21" spans="1:36" ht="13.9" thickBot="1">
+    <row r="21" spans="1:37" ht="13.9" thickBot="1">
       <c r="A21" t="s">
         <v>299</v>
       </c>
@@ -4195,11 +4261,14 @@
       <c r="AI21">
         <v>0</v>
       </c>
-      <c r="AJ21" t="s">
+      <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="22" spans="1:36" ht="13.9" thickBot="1">
+    <row r="22" spans="1:37" ht="13.9" thickBot="1">
       <c r="A22" t="s">
         <v>298</v>
       </c>
@@ -4290,11 +4359,14 @@
       <c r="AI22">
         <v>0</v>
       </c>
-      <c r="AJ22" s="39" t="s">
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="39" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="23" spans="1:36" s="30" customFormat="1" ht="13.9" thickBot="1">
+    <row r="23" spans="1:37" s="30" customFormat="1" ht="13.9" thickBot="1">
       <c r="A23" s="29" t="s">
         <v>66</v>
       </c>
@@ -4397,11 +4469,14 @@
       <c r="AI23" s="30">
         <v>0</v>
       </c>
-      <c r="AJ23" s="34" t="s">
+      <c r="AJ23" s="30">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="34" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="24" spans="1:36" s="27" customFormat="1" ht="13.9" thickBot="1">
+    <row r="24" spans="1:37" s="27" customFormat="1" ht="13.9" thickBot="1">
       <c r="A24" s="34" t="s">
         <v>68</v>
       </c>
@@ -4504,11 +4579,14 @@
       <c r="AI24" s="27">
         <v>0</v>
       </c>
-      <c r="AJ24" s="34" t="s">
+      <c r="AJ24" s="27">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="34" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="25" spans="1:36" s="27" customFormat="1" ht="13.9" thickBot="1">
+    <row r="25" spans="1:37" s="27" customFormat="1" ht="13.9" thickBot="1">
       <c r="A25" s="34" t="s">
         <v>70</v>
       </c>
@@ -4611,11 +4689,14 @@
       <c r="AI25" s="27">
         <v>0</v>
       </c>
-      <c r="AJ25" s="34" t="s">
+      <c r="AJ25" s="27">
+        <v>0</v>
+      </c>
+      <c r="AK25" s="34" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="26" spans="1:36" s="27" customFormat="1">
+    <row r="26" spans="1:37" s="27" customFormat="1">
       <c r="A26" s="34" t="s">
         <v>320</v>
       </c>
@@ -4718,11 +4799,14 @@
       <c r="AI26" s="27">
         <v>0</v>
       </c>
-      <c r="AJ26" s="38" t="s">
+      <c r="AJ26" s="27">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="38" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="27" spans="1:36" s="25" customFormat="1">
+    <row r="27" spans="1:37" s="25" customFormat="1">
       <c r="A27" s="24" t="s">
         <v>151</v>
       </c>
@@ -4813,11 +4897,14 @@
       <c r="AI27" s="25">
         <v>0</v>
       </c>
-      <c r="AJ27" s="19" t="s">
+      <c r="AJ27" s="25">
+        <v>0</v>
+      </c>
+      <c r="AK27" s="19" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="28" spans="1:36" s="16" customFormat="1">
+    <row r="28" spans="1:37" s="16" customFormat="1">
       <c r="A28" s="19" t="s">
         <v>161</v>
       </c>
@@ -4908,11 +4995,14 @@
       <c r="AI28" s="16">
         <v>0</v>
       </c>
-      <c r="AJ28" s="19" t="s">
+      <c r="AJ28" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK28" s="19" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="29" spans="1:36" s="16" customFormat="1">
+    <row r="29" spans="1:37" s="16" customFormat="1">
       <c r="A29" s="19" t="s">
         <v>171</v>
       </c>
@@ -5003,11 +5093,14 @@
       <c r="AI29" s="16">
         <v>0</v>
       </c>
-      <c r="AJ29" s="19" t="s">
+      <c r="AJ29" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK29" s="19" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="30" spans="1:36" s="16" customFormat="1">
+    <row r="30" spans="1:37" s="16" customFormat="1">
       <c r="A30" s="19" t="s">
         <v>152</v>
       </c>
@@ -5098,11 +5191,14 @@
       <c r="AI30" s="16">
         <v>0</v>
       </c>
-      <c r="AJ30" s="19" t="s">
+      <c r="AJ30" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK30" s="19" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="31" spans="1:36" s="16" customFormat="1">
+    <row r="31" spans="1:37" s="16" customFormat="1">
       <c r="A31" s="19" t="s">
         <v>162</v>
       </c>
@@ -5193,11 +5289,14 @@
       <c r="AI31" s="16">
         <v>0</v>
       </c>
-      <c r="AJ31" s="19" t="s">
+      <c r="AJ31" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK31" s="19" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="32" spans="1:36" s="16" customFormat="1">
+    <row r="32" spans="1:37" s="16" customFormat="1">
       <c r="A32" s="19" t="s">
         <v>172</v>
       </c>
@@ -5288,11 +5387,14 @@
       <c r="AI32" s="16">
         <v>0</v>
       </c>
-      <c r="AJ32" s="19" t="s">
+      <c r="AJ32" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK32" s="19" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="33" spans="1:36" s="16" customFormat="1">
+    <row r="33" spans="1:37" s="16" customFormat="1">
       <c r="A33" s="19" t="s">
         <v>153</v>
       </c>
@@ -5383,11 +5485,14 @@
       <c r="AI33" s="16">
         <v>0</v>
       </c>
-      <c r="AJ33" s="19" t="s">
+      <c r="AJ33" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK33" s="19" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="34" spans="1:36" s="16" customFormat="1">
+    <row r="34" spans="1:37" s="16" customFormat="1">
       <c r="A34" s="19" t="s">
         <v>163</v>
       </c>
@@ -5478,11 +5583,14 @@
       <c r="AI34" s="16">
         <v>0</v>
       </c>
-      <c r="AJ34" s="19" t="s">
+      <c r="AJ34" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK34" s="19" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="35" spans="1:36" s="16" customFormat="1">
+    <row r="35" spans="1:37" s="16" customFormat="1">
       <c r="A35" s="19" t="s">
         <v>173</v>
       </c>
@@ -5573,11 +5681,14 @@
       <c r="AI35" s="16">
         <v>0</v>
       </c>
-      <c r="AJ35" s="19" t="s">
+      <c r="AJ35" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK35" s="19" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="36" spans="1:36" s="16" customFormat="1">
+    <row r="36" spans="1:37" s="16" customFormat="1">
       <c r="A36" s="19" t="s">
         <v>154</v>
       </c>
@@ -5668,11 +5779,14 @@
       <c r="AI36" s="16">
         <v>0</v>
       </c>
-      <c r="AJ36" s="19" t="s">
+      <c r="AJ36" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK36" s="19" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="37" spans="1:36" s="16" customFormat="1">
+    <row r="37" spans="1:37" s="16" customFormat="1">
       <c r="A37" s="19" t="s">
         <v>164</v>
       </c>
@@ -5763,11 +5877,14 @@
       <c r="AI37" s="16">
         <v>0</v>
       </c>
-      <c r="AJ37" s="19" t="s">
+      <c r="AJ37" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK37" s="19" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="38" spans="1:36" s="16" customFormat="1">
+    <row r="38" spans="1:37" s="16" customFormat="1">
       <c r="A38" s="19" t="s">
         <v>174</v>
       </c>
@@ -5858,11 +5975,14 @@
       <c r="AI38" s="16">
         <v>0</v>
       </c>
-      <c r="AJ38" s="19" t="s">
+      <c r="AJ38" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK38" s="19" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="39" spans="1:36" s="16" customFormat="1">
+    <row r="39" spans="1:37" s="16" customFormat="1">
       <c r="A39" s="19" t="s">
         <v>286</v>
       </c>
@@ -5953,11 +6073,14 @@
       <c r="AI39" s="16">
         <v>0</v>
       </c>
-      <c r="AJ39" s="19" t="s">
+      <c r="AJ39" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK39" s="19" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="40" spans="1:36" s="16" customFormat="1">
+    <row r="40" spans="1:37" s="16" customFormat="1">
       <c r="A40" s="19" t="s">
         <v>296</v>
       </c>
@@ -6048,11 +6171,14 @@
       <c r="AI40" s="16">
         <v>0</v>
       </c>
-      <c r="AJ40" s="19" t="s">
+      <c r="AJ40" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK40" s="19" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="41" spans="1:36" s="16" customFormat="1">
+    <row r="41" spans="1:37" s="16" customFormat="1">
       <c r="A41" s="19" t="s">
         <v>297</v>
       </c>
@@ -6143,11 +6269,14 @@
       <c r="AI41" s="16">
         <v>0</v>
       </c>
-      <c r="AJ41" s="19" t="s">
+      <c r="AJ41" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK41" s="19" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="42" spans="1:36" s="16" customFormat="1">
+    <row r="42" spans="1:37" s="16" customFormat="1">
       <c r="A42" s="19" t="s">
         <v>155</v>
       </c>
@@ -6238,11 +6367,14 @@
       <c r="AI42" s="16">
         <v>0</v>
       </c>
-      <c r="AJ42" s="19" t="s">
+      <c r="AJ42" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK42" s="19" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="43" spans="1:36" s="16" customFormat="1">
+    <row r="43" spans="1:37" s="16" customFormat="1">
       <c r="A43" s="19" t="s">
         <v>165</v>
       </c>
@@ -6333,11 +6465,14 @@
       <c r="AI43" s="16">
         <v>0</v>
       </c>
-      <c r="AJ43" s="19" t="s">
+      <c r="AJ43" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK43" s="19" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="44" spans="1:36" s="16" customFormat="1">
+    <row r="44" spans="1:37" s="16" customFormat="1">
       <c r="A44" s="19" t="s">
         <v>175</v>
       </c>
@@ -6428,11 +6563,14 @@
       <c r="AI44" s="16">
         <v>0</v>
       </c>
-      <c r="AJ44" s="19" t="s">
+      <c r="AJ44" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK44" s="19" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="45" spans="1:36" s="16" customFormat="1">
+    <row r="45" spans="1:37" s="16" customFormat="1">
       <c r="A45" s="19" t="s">
         <v>156</v>
       </c>
@@ -6523,11 +6661,14 @@
       <c r="AI45" s="16">
         <v>0</v>
       </c>
-      <c r="AJ45" s="19" t="s">
+      <c r="AJ45" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK45" s="19" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="46" spans="1:36" s="16" customFormat="1">
+    <row r="46" spans="1:37" s="16" customFormat="1">
       <c r="A46" s="19" t="s">
         <v>166</v>
       </c>
@@ -6618,11 +6759,14 @@
       <c r="AI46" s="16">
         <v>0</v>
       </c>
-      <c r="AJ46" s="19" t="s">
+      <c r="AJ46" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK46" s="19" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="47" spans="1:36" s="16" customFormat="1">
+    <row r="47" spans="1:37" s="16" customFormat="1">
       <c r="A47" s="19" t="s">
         <v>176</v>
       </c>
@@ -6713,11 +6857,14 @@
       <c r="AI47" s="16">
         <v>0</v>
       </c>
-      <c r="AJ47" s="19" t="s">
+      <c r="AJ47" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK47" s="19" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="48" spans="1:36" s="16" customFormat="1">
+    <row r="48" spans="1:37" s="16" customFormat="1">
       <c r="A48" s="19" t="s">
         <v>157</v>
       </c>
@@ -6808,11 +6955,14 @@
       <c r="AI48" s="16">
         <v>0</v>
       </c>
-      <c r="AJ48" s="19" t="s">
+      <c r="AJ48" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK48" s="19" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="49" spans="1:36" s="16" customFormat="1">
+    <row r="49" spans="1:37" s="16" customFormat="1">
       <c r="A49" s="19" t="s">
         <v>167</v>
       </c>
@@ -6903,11 +7053,14 @@
       <c r="AI49" s="16">
         <v>0</v>
       </c>
-      <c r="AJ49" s="19" t="s">
+      <c r="AJ49" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK49" s="19" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="50" spans="1:36" s="16" customFormat="1">
+    <row r="50" spans="1:37" s="16" customFormat="1">
       <c r="A50" s="19" t="s">
         <v>177</v>
       </c>
@@ -6998,11 +7151,14 @@
       <c r="AI50" s="16">
         <v>0</v>
       </c>
-      <c r="AJ50" s="19" t="s">
+      <c r="AJ50" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK50" s="19" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="51" spans="1:36" s="16" customFormat="1">
+    <row r="51" spans="1:37" s="16" customFormat="1">
       <c r="A51" s="19" t="s">
         <v>158</v>
       </c>
@@ -7093,11 +7249,14 @@
       <c r="AI51" s="16">
         <v>0</v>
       </c>
-      <c r="AJ51" s="19" t="s">
+      <c r="AJ51" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK51" s="19" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="52" spans="1:36" s="16" customFormat="1">
+    <row r="52" spans="1:37" s="16" customFormat="1">
       <c r="A52" s="19" t="s">
         <v>168</v>
       </c>
@@ -7188,11 +7347,14 @@
       <c r="AI52" s="16">
         <v>0</v>
       </c>
-      <c r="AJ52" s="19" t="s">
+      <c r="AJ52" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK52" s="19" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="53" spans="1:36" s="16" customFormat="1">
+    <row r="53" spans="1:37" s="16" customFormat="1">
       <c r="A53" s="19" t="s">
         <v>178</v>
       </c>
@@ -7283,11 +7445,14 @@
       <c r="AI53" s="16">
         <v>0</v>
       </c>
-      <c r="AJ53" s="19" t="s">
+      <c r="AJ53" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK53" s="19" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="54" spans="1:36" s="16" customFormat="1">
+    <row r="54" spans="1:37" s="16" customFormat="1">
       <c r="A54" s="19" t="s">
         <v>159</v>
       </c>
@@ -7378,11 +7543,14 @@
       <c r="AI54" s="16">
         <v>0</v>
       </c>
-      <c r="AJ54" s="19" t="s">
+      <c r="AJ54" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK54" s="19" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="55" spans="1:36" s="16" customFormat="1">
+    <row r="55" spans="1:37" s="16" customFormat="1">
       <c r="A55" s="19" t="s">
         <v>169</v>
       </c>
@@ -7473,11 +7641,14 @@
       <c r="AI55" s="16">
         <v>0</v>
       </c>
-      <c r="AJ55" s="19" t="s">
+      <c r="AJ55" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK55" s="19" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="56" spans="1:36" s="16" customFormat="1">
+    <row r="56" spans="1:37" s="16" customFormat="1">
       <c r="A56" s="19" t="s">
         <v>179</v>
       </c>
@@ -7568,11 +7739,14 @@
       <c r="AI56" s="16">
         <v>0</v>
       </c>
-      <c r="AJ56" s="19" t="s">
+      <c r="AJ56" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK56" s="19" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="57" spans="1:36" s="16" customFormat="1">
+    <row r="57" spans="1:37" s="16" customFormat="1">
       <c r="A57" s="19" t="s">
         <v>160</v>
       </c>
@@ -7663,11 +7837,14 @@
       <c r="AI57" s="16">
         <v>0</v>
       </c>
-      <c r="AJ57" s="19" t="s">
+      <c r="AJ57" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK57" s="19" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="58" spans="1:36" s="16" customFormat="1" ht="13.9" thickBot="1">
+    <row r="58" spans="1:37" s="16" customFormat="1" ht="13.9" thickBot="1">
       <c r="A58" s="19" t="s">
         <v>170</v>
       </c>
@@ -7758,11 +7935,14 @@
       <c r="AI58" s="16">
         <v>0</v>
       </c>
-      <c r="AJ58" s="20" t="s">
+      <c r="AJ58" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK58" s="20" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="59" spans="1:36" s="21" customFormat="1" ht="13.9" thickBot="1">
+    <row r="59" spans="1:37" s="21" customFormat="1" ht="13.9" thickBot="1">
       <c r="A59" s="20" t="s">
         <v>180</v>
       </c>
@@ -7853,11 +8033,14 @@
       <c r="AI59" s="21">
         <v>0</v>
       </c>
-      <c r="AJ59" s="19" t="s">
+      <c r="AJ59" s="21">
+        <v>0</v>
+      </c>
+      <c r="AK59" s="19" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="60" spans="1:36" s="16" customFormat="1">
+    <row r="60" spans="1:37" s="16" customFormat="1">
       <c r="A60" s="19" t="s">
         <v>181</v>
       </c>
@@ -7948,11 +8131,14 @@
       <c r="AI60" s="16">
         <v>0</v>
       </c>
-      <c r="AJ60" s="19" t="s">
+      <c r="AJ60" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK60" s="19" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="61" spans="1:36" s="16" customFormat="1" ht="13.9" thickBot="1">
+    <row r="61" spans="1:37" s="16" customFormat="1" ht="13.9" thickBot="1">
       <c r="A61" s="19" t="s">
         <v>182</v>
       </c>
@@ -8043,11 +8229,14 @@
       <c r="AI61" s="16">
         <v>0</v>
       </c>
-      <c r="AJ61" s="20" t="s">
+      <c r="AJ61" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK61" s="20" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="62" spans="1:36" s="21" customFormat="1" ht="13.9" thickBot="1">
+    <row r="62" spans="1:37" s="21" customFormat="1" ht="13.9" thickBot="1">
       <c r="A62" s="20" t="s">
         <v>183</v>
       </c>
@@ -8138,14 +8327,17 @@
       <c r="AI62" s="21">
         <v>0</v>
       </c>
-      <c r="AJ62" s="21" t="s">
+      <c r="AJ62" s="21">
+        <v>0</v>
+      </c>
+      <c r="AK62" s="21" t="s">
         <v>417</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y8:Z9 AB8:AB9 AC7:AJ9 B7:Q9 T7:X9 AA7:AA9 R8:S9" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y8:Z9 AB8:AB9 R8:S9 B7:Q9 T7:X9 AA7:AA9 AC7:AK9" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/_Out/NFDataCfg/Excel/NPC.xlsx
+++ b/_Out/NFDataCfg/Excel/NPC.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="425">
   <si>
     <t>Id</t>
   </si>
@@ -1305,6 +1305,9 @@
   </si>
   <si>
     <t>AI</t>
+  </si>
+  <si>
+    <t>UIResources/BuilderSprite</t>
   </si>
 </sst>
 </file>
@@ -1551,7 +1554,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1616,9 +1619,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -2041,9 +2041,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AI11" sqref="AI11"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AC27" sqref="AC27:AC62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3239,10 +3239,10 @@
       <c r="Q11">
         <v>20</v>
       </c>
-      <c r="R11" s="36" t="s">
+      <c r="R11" s="35" t="s">
         <v>333</v>
       </c>
-      <c r="S11" s="36" t="s">
+      <c r="S11" s="35" t="s">
         <v>357</v>
       </c>
       <c r="X11">
@@ -3257,7 +3257,7 @@
       <c r="AA11">
         <v>0</v>
       </c>
-      <c r="AB11" s="37" t="s">
+      <c r="AB11" s="36" t="s">
         <v>328</v>
       </c>
       <c r="AC11" s="12" t="s">
@@ -3337,10 +3337,10 @@
       <c r="Q12">
         <v>20</v>
       </c>
-      <c r="R12" s="36" t="s">
+      <c r="R12" s="35" t="s">
         <v>334</v>
       </c>
-      <c r="S12" s="36" t="s">
+      <c r="S12" s="35" t="s">
         <v>359</v>
       </c>
       <c r="X12">
@@ -3355,7 +3355,7 @@
       <c r="AA12">
         <v>0</v>
       </c>
-      <c r="AB12" s="37" t="s">
+      <c r="AB12" s="36" t="s">
         <v>328</v>
       </c>
       <c r="AC12" s="12" t="s">
@@ -3435,10 +3435,10 @@
       <c r="Q13">
         <v>20</v>
       </c>
-      <c r="R13" s="36" t="s">
+      <c r="R13" s="35" t="s">
         <v>335</v>
       </c>
-      <c r="S13" s="36" t="s">
+      <c r="S13" s="35" t="s">
         <v>360</v>
       </c>
       <c r="X13">
@@ -3453,7 +3453,7 @@
       <c r="AA13">
         <v>0</v>
       </c>
-      <c r="AB13" s="37" t="s">
+      <c r="AB13" s="36" t="s">
         <v>328</v>
       </c>
       <c r="AC13" s="12" t="s">
@@ -3533,10 +3533,10 @@
       <c r="Q14">
         <v>20</v>
       </c>
-      <c r="R14" s="36" t="s">
+      <c r="R14" s="35" t="s">
         <v>336</v>
       </c>
-      <c r="S14" s="36" t="s">
+      <c r="S14" s="35" t="s">
         <v>361</v>
       </c>
       <c r="X14">
@@ -3551,7 +3551,7 @@
       <c r="AA14">
         <v>0</v>
       </c>
-      <c r="AB14" s="37" t="s">
+      <c r="AB14" s="36" t="s">
         <v>328</v>
       </c>
       <c r="AC14" s="12" t="s">
@@ -3631,10 +3631,10 @@
       <c r="Q15">
         <v>20</v>
       </c>
-      <c r="R15" s="36" t="s">
+      <c r="R15" s="35" t="s">
         <v>337</v>
       </c>
-      <c r="S15" s="36" t="s">
+      <c r="S15" s="35" t="s">
         <v>362</v>
       </c>
       <c r="X15">
@@ -3649,7 +3649,7 @@
       <c r="AA15">
         <v>0</v>
       </c>
-      <c r="AB15" s="37" t="s">
+      <c r="AB15" s="36" t="s">
         <v>328</v>
       </c>
       <c r="AC15" s="12" t="s">
@@ -3729,10 +3729,10 @@
       <c r="Q16">
         <v>20</v>
       </c>
-      <c r="R16" s="36" t="s">
+      <c r="R16" s="35" t="s">
         <v>338</v>
       </c>
-      <c r="S16" s="36" t="s">
+      <c r="S16" s="35" t="s">
         <v>363</v>
       </c>
       <c r="X16">
@@ -3747,7 +3747,7 @@
       <c r="AA16">
         <v>0</v>
       </c>
-      <c r="AB16" s="37" t="s">
+      <c r="AB16" s="36" t="s">
         <v>328</v>
       </c>
       <c r="AC16" s="12" t="s">
@@ -3827,10 +3827,10 @@
       <c r="Q17">
         <v>20</v>
       </c>
-      <c r="R17" s="36" t="s">
+      <c r="R17" s="35" t="s">
         <v>339</v>
       </c>
-      <c r="S17" s="36" t="s">
+      <c r="S17" s="35" t="s">
         <v>364</v>
       </c>
       <c r="X17">
@@ -3845,7 +3845,7 @@
       <c r="AA17">
         <v>0</v>
       </c>
-      <c r="AB17" s="37" t="s">
+      <c r="AB17" s="36" t="s">
         <v>328</v>
       </c>
       <c r="AC17" s="12" t="s">
@@ -3925,10 +3925,10 @@
       <c r="Q18">
         <v>20</v>
       </c>
-      <c r="R18" s="36" t="s">
+      <c r="R18" s="35" t="s">
         <v>340</v>
       </c>
-      <c r="S18" s="36" t="s">
+      <c r="S18" s="35" t="s">
         <v>365</v>
       </c>
       <c r="X18">
@@ -3943,7 +3943,7 @@
       <c r="AA18">
         <v>0</v>
       </c>
-      <c r="AB18" s="37" t="s">
+      <c r="AB18" s="36" t="s">
         <v>328</v>
       </c>
       <c r="AC18" s="12" t="s">
@@ -4023,10 +4023,10 @@
       <c r="Q19">
         <v>20</v>
       </c>
-      <c r="R19" s="36" t="s">
+      <c r="R19" s="35" t="s">
         <v>341</v>
       </c>
-      <c r="S19" s="36" t="s">
+      <c r="S19" s="35" t="s">
         <v>366</v>
       </c>
       <c r="X19">
@@ -4041,7 +4041,7 @@
       <c r="AA19">
         <v>0</v>
       </c>
-      <c r="AB19" s="37" t="s">
+      <c r="AB19" s="36" t="s">
         <v>328</v>
       </c>
       <c r="AC19" s="12" t="s">
@@ -4121,10 +4121,10 @@
       <c r="Q20">
         <v>20</v>
       </c>
-      <c r="R20" s="36" t="s">
+      <c r="R20" s="35" t="s">
         <v>342</v>
       </c>
-      <c r="S20" s="36" t="s">
+      <c r="S20" s="35" t="s">
         <v>367</v>
       </c>
       <c r="X20">
@@ -4139,7 +4139,7 @@
       <c r="AA20">
         <v>0</v>
       </c>
-      <c r="AB20" s="37" t="s">
+      <c r="AB20" s="36" t="s">
         <v>328</v>
       </c>
       <c r="AC20" s="12" t="s">
@@ -4219,10 +4219,10 @@
       <c r="Q21">
         <v>20</v>
       </c>
-      <c r="R21" s="36" t="s">
+      <c r="R21" s="35" t="s">
         <v>343</v>
       </c>
-      <c r="S21" s="36" t="s">
+      <c r="S21" s="35" t="s">
         <v>368</v>
       </c>
       <c r="X21">
@@ -4237,7 +4237,7 @@
       <c r="AA21">
         <v>0</v>
       </c>
-      <c r="AB21" s="37" t="s">
+      <c r="AB21" s="36" t="s">
         <v>328</v>
       </c>
       <c r="AC21" s="12" t="s">
@@ -4317,10 +4317,10 @@
       <c r="Q22">
         <v>20</v>
       </c>
-      <c r="R22" s="36" t="s">
+      <c r="R22" s="35" t="s">
         <v>344</v>
       </c>
-      <c r="S22" s="36" t="s">
+      <c r="S22" s="35" t="s">
         <v>368</v>
       </c>
       <c r="X22">
@@ -4335,7 +4335,7 @@
       <c r="AA22">
         <v>0</v>
       </c>
-      <c r="AB22" s="37" t="s">
+      <c r="AB22" s="36" t="s">
         <v>328</v>
       </c>
       <c r="AC22" s="12" t="s">
@@ -4362,497 +4362,497 @@
       <c r="AJ22">
         <v>0</v>
       </c>
-      <c r="AK22" s="39" t="s">
+      <c r="AK22" s="38" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="23" spans="1:37" s="30" customFormat="1" ht="13.9" thickBot="1">
-      <c r="A23" s="29" t="s">
+    <row r="23" spans="1:37" s="29" customFormat="1" ht="13.9" thickBot="1">
+      <c r="A23" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="30">
-        <v>0</v>
-      </c>
-      <c r="D23" s="30">
+      <c r="C23" s="29">
+        <v>0</v>
+      </c>
+      <c r="D23" s="29">
         <v>100</v>
       </c>
-      <c r="E23" s="30">
+      <c r="E23" s="29">
         <v>100</v>
       </c>
-      <c r="F23" s="30">
-        <v>0</v>
-      </c>
-      <c r="G23" s="30">
-        <v>0</v>
-      </c>
-      <c r="H23" s="30">
-        <v>0</v>
-      </c>
-      <c r="I23" s="30">
-        <v>0</v>
-      </c>
-      <c r="J23" s="30">
-        <v>0</v>
-      </c>
-      <c r="K23" s="30">
-        <v>0</v>
-      </c>
-      <c r="L23" s="30">
-        <v>0</v>
-      </c>
-      <c r="M23" s="30">
-        <v>0</v>
-      </c>
-      <c r="N23" s="30">
-        <v>2</v>
-      </c>
-      <c r="O23" s="30" t="s">
+      <c r="F23" s="29">
+        <v>0</v>
+      </c>
+      <c r="G23" s="29">
+        <v>0</v>
+      </c>
+      <c r="H23" s="29">
+        <v>0</v>
+      </c>
+      <c r="I23" s="29">
+        <v>0</v>
+      </c>
+      <c r="J23" s="29">
+        <v>0</v>
+      </c>
+      <c r="K23" s="29">
+        <v>0</v>
+      </c>
+      <c r="L23" s="29">
+        <v>0</v>
+      </c>
+      <c r="M23" s="29">
+        <v>0</v>
+      </c>
+      <c r="N23" s="29">
+        <v>2</v>
+      </c>
+      <c r="O23" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="P23" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="30">
+      <c r="P23" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="29">
         <v>20</v>
       </c>
-      <c r="R23" s="35" t="s">
+      <c r="R23" s="34" t="s">
         <v>345</v>
       </c>
-      <c r="S23" s="35" t="s">
+      <c r="S23" s="34" t="s">
         <v>357</v>
       </c>
-      <c r="T23" s="30" t="s">
+      <c r="T23" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="U23" s="30" t="s">
+      <c r="U23" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="V23" s="30" t="s">
+      <c r="V23" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="W23" s="30" t="s">
+      <c r="W23" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="X23" s="30">
-        <v>2</v>
-      </c>
-      <c r="Y23" s="31" t="s">
+      <c r="X23" s="29">
+        <v>2</v>
+      </c>
+      <c r="Y23" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="Z23" s="30" t="s">
+      <c r="Z23" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AA23" s="30">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="30" t="s">
+      <c r="AA23" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="AC23" s="32" t="s">
+      <c r="AC23" s="31" t="s">
         <v>327</v>
       </c>
-      <c r="AD23" s="33" t="s">
+      <c r="AD23" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="AE23" s="30" t="s">
+      <c r="AE23" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="AF23" s="30">
-        <v>0</v>
-      </c>
-      <c r="AG23" s="30">
-        <v>0</v>
-      </c>
-      <c r="AH23" s="30">
-        <v>0</v>
-      </c>
-      <c r="AI23" s="30">
-        <v>0</v>
-      </c>
-      <c r="AJ23" s="30">
-        <v>0</v>
-      </c>
-      <c r="AK23" s="34" t="s">
+      <c r="AF23" s="29">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="29">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="29">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="29">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="29">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="33" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="24" spans="1:37" s="27" customFormat="1" ht="13.9" thickBot="1">
-      <c r="A24" s="34" t="s">
+    <row r="24" spans="1:37" s="26" customFormat="1" ht="13.9" thickBot="1">
+      <c r="A24" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="27">
-        <v>0</v>
-      </c>
-      <c r="D24" s="30">
+      <c r="C24" s="26">
+        <v>0</v>
+      </c>
+      <c r="D24" s="29">
         <v>100</v>
       </c>
-      <c r="E24" s="30">
+      <c r="E24" s="29">
         <v>100</v>
       </c>
-      <c r="F24" s="27">
-        <v>0</v>
-      </c>
-      <c r="G24" s="27">
-        <v>0</v>
-      </c>
-      <c r="H24" s="27">
-        <v>0</v>
-      </c>
-      <c r="I24" s="27">
-        <v>0</v>
-      </c>
-      <c r="J24" s="27">
-        <v>0</v>
-      </c>
-      <c r="K24" s="27">
-        <v>0</v>
-      </c>
-      <c r="L24" s="27">
-        <v>0</v>
-      </c>
-      <c r="M24" s="27">
-        <v>0</v>
-      </c>
-      <c r="N24" s="30">
-        <v>2</v>
-      </c>
-      <c r="O24" s="27" t="s">
+      <c r="F24" s="26">
+        <v>0</v>
+      </c>
+      <c r="G24" s="26">
+        <v>0</v>
+      </c>
+      <c r="H24" s="26">
+        <v>0</v>
+      </c>
+      <c r="I24" s="26">
+        <v>0</v>
+      </c>
+      <c r="J24" s="26">
+        <v>0</v>
+      </c>
+      <c r="K24" s="26">
+        <v>0</v>
+      </c>
+      <c r="L24" s="26">
+        <v>0</v>
+      </c>
+      <c r="M24" s="26">
+        <v>0</v>
+      </c>
+      <c r="N24" s="29">
+        <v>2</v>
+      </c>
+      <c r="O24" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="P24" s="27">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="27">
+      <c r="P24" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="26">
         <v>20</v>
       </c>
-      <c r="R24" s="35" t="s">
+      <c r="R24" s="34" t="s">
         <v>346</v>
       </c>
-      <c r="S24" s="35" t="s">
+      <c r="S24" s="34" t="s">
         <v>359</v>
       </c>
-      <c r="T24" s="27" t="s">
+      <c r="T24" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="U24" s="27" t="s">
+      <c r="U24" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="V24" s="27" t="s">
+      <c r="V24" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="W24" s="27" t="s">
+      <c r="W24" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="X24" s="27">
-        <v>2</v>
-      </c>
-      <c r="Y24" s="31" t="s">
+      <c r="X24" s="26">
+        <v>2</v>
+      </c>
+      <c r="Y24" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="Z24" s="27" t="s">
+      <c r="Z24" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="AA24" s="27">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="27" t="s">
+      <c r="AA24" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="26" t="s">
         <v>329</v>
       </c>
-      <c r="AC24" s="28" t="s">
+      <c r="AC24" s="27" t="s">
         <v>327</v>
       </c>
       <c r="AD24" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="AE24" s="27" t="s">
+      <c r="AE24" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="AF24" s="27">
-        <v>0</v>
-      </c>
-      <c r="AG24" s="27">
-        <v>0</v>
-      </c>
-      <c r="AH24" s="27">
-        <v>0</v>
-      </c>
-      <c r="AI24" s="27">
-        <v>0</v>
-      </c>
-      <c r="AJ24" s="27">
-        <v>0</v>
-      </c>
-      <c r="AK24" s="34" t="s">
+      <c r="AF24" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="26">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="26">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="26">
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="26">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="33" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="25" spans="1:37" s="27" customFormat="1" ht="13.9" thickBot="1">
-      <c r="A25" s="34" t="s">
+    <row r="25" spans="1:37" s="26" customFormat="1" ht="13.9" thickBot="1">
+      <c r="A25" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="C25" s="27">
-        <v>0</v>
-      </c>
-      <c r="D25" s="30">
+      <c r="C25" s="26">
+        <v>0</v>
+      </c>
+      <c r="D25" s="29">
         <v>100</v>
       </c>
-      <c r="E25" s="30">
+      <c r="E25" s="29">
         <v>100</v>
       </c>
-      <c r="F25" s="27">
-        <v>0</v>
-      </c>
-      <c r="G25" s="27">
-        <v>0</v>
-      </c>
-      <c r="H25" s="27">
-        <v>0</v>
-      </c>
-      <c r="I25" s="27">
-        <v>0</v>
-      </c>
-      <c r="J25" s="27">
-        <v>0</v>
-      </c>
-      <c r="K25" s="27">
-        <v>0</v>
-      </c>
-      <c r="L25" s="27">
-        <v>0</v>
-      </c>
-      <c r="M25" s="27">
-        <v>0</v>
-      </c>
-      <c r="N25" s="30">
-        <v>2</v>
-      </c>
-      <c r="O25" s="27" t="s">
+      <c r="F25" s="26">
+        <v>0</v>
+      </c>
+      <c r="G25" s="26">
+        <v>0</v>
+      </c>
+      <c r="H25" s="26">
+        <v>0</v>
+      </c>
+      <c r="I25" s="26">
+        <v>0</v>
+      </c>
+      <c r="J25" s="26">
+        <v>0</v>
+      </c>
+      <c r="K25" s="26">
+        <v>0</v>
+      </c>
+      <c r="L25" s="26">
+        <v>0</v>
+      </c>
+      <c r="M25" s="26">
+        <v>0</v>
+      </c>
+      <c r="N25" s="29">
+        <v>2</v>
+      </c>
+      <c r="O25" s="26" t="s">
         <v>323</v>
       </c>
-      <c r="P25" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="27">
+      <c r="P25" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="26">
         <v>20</v>
       </c>
-      <c r="R25" s="35" t="s">
+      <c r="R25" s="34" t="s">
         <v>347</v>
       </c>
-      <c r="S25" s="35" t="s">
+      <c r="S25" s="34" t="s">
         <v>360</v>
       </c>
-      <c r="T25" s="27" t="s">
+      <c r="T25" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="U25" s="27" t="s">
+      <c r="U25" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="V25" s="27" t="s">
+      <c r="V25" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="W25" s="27" t="s">
+      <c r="W25" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="X25" s="27">
-        <v>2</v>
-      </c>
-      <c r="Y25" s="31" t="s">
+      <c r="X25" s="26">
+        <v>2</v>
+      </c>
+      <c r="Y25" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="Z25" s="27" t="s">
+      <c r="Z25" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="AA25" s="27">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="27" t="s">
+      <c r="AA25" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="26" t="s">
         <v>330</v>
       </c>
-      <c r="AC25" s="28" t="s">
+      <c r="AC25" s="27" t="s">
         <v>327</v>
       </c>
       <c r="AD25" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="AE25" s="27" t="s">
+      <c r="AE25" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="AF25" s="27">
-        <v>0</v>
-      </c>
-      <c r="AG25" s="27">
-        <v>0</v>
-      </c>
-      <c r="AH25" s="27">
-        <v>0</v>
-      </c>
-      <c r="AI25" s="27">
-        <v>0</v>
-      </c>
-      <c r="AJ25" s="27">
-        <v>0</v>
-      </c>
-      <c r="AK25" s="34" t="s">
+      <c r="AF25" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="26">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="26">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="26">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="26">
+        <v>0</v>
+      </c>
+      <c r="AK25" s="33" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="26" spans="1:37" s="27" customFormat="1">
-      <c r="A26" s="34" t="s">
+    <row r="26" spans="1:37" s="26" customFormat="1">
+      <c r="A26" s="33" t="s">
         <v>320</v>
       </c>
-      <c r="C26" s="27">
-        <v>0</v>
-      </c>
-      <c r="D26" s="30">
+      <c r="C26" s="26">
+        <v>0</v>
+      </c>
+      <c r="D26" s="29">
         <v>100</v>
       </c>
-      <c r="E26" s="30">
+      <c r="E26" s="29">
         <v>100</v>
       </c>
-      <c r="F26" s="27">
-        <v>0</v>
-      </c>
-      <c r="G26" s="27">
-        <v>0</v>
-      </c>
-      <c r="H26" s="27">
-        <v>0</v>
-      </c>
-      <c r="I26" s="27">
-        <v>0</v>
-      </c>
-      <c r="J26" s="27">
-        <v>0</v>
-      </c>
-      <c r="K26" s="27">
-        <v>0</v>
-      </c>
-      <c r="L26" s="27">
-        <v>0</v>
-      </c>
-      <c r="M26" s="27">
-        <v>0</v>
-      </c>
-      <c r="N26" s="30">
-        <v>2</v>
-      </c>
-      <c r="O26" s="27" t="s">
+      <c r="F26" s="26">
+        <v>0</v>
+      </c>
+      <c r="G26" s="26">
+        <v>0</v>
+      </c>
+      <c r="H26" s="26">
+        <v>0</v>
+      </c>
+      <c r="I26" s="26">
+        <v>0</v>
+      </c>
+      <c r="J26" s="26">
+        <v>0</v>
+      </c>
+      <c r="K26" s="26">
+        <v>0</v>
+      </c>
+      <c r="L26" s="26">
+        <v>0</v>
+      </c>
+      <c r="M26" s="26">
+        <v>0</v>
+      </c>
+      <c r="N26" s="29">
+        <v>2</v>
+      </c>
+      <c r="O26" s="26" t="s">
         <v>324</v>
       </c>
-      <c r="P26" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="27">
+      <c r="P26" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="26">
         <v>20</v>
       </c>
-      <c r="R26" s="35" t="s">
+      <c r="R26" s="34" t="s">
         <v>348</v>
       </c>
-      <c r="S26" s="35" t="s">
+      <c r="S26" s="34" t="s">
         <v>361</v>
       </c>
-      <c r="T26" s="27" t="s">
+      <c r="T26" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="U26" s="27" t="s">
+      <c r="U26" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="V26" s="27" t="s">
+      <c r="V26" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="W26" s="27" t="s">
+      <c r="W26" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="X26" s="27">
-        <v>2</v>
-      </c>
-      <c r="Y26" s="31" t="s">
+      <c r="X26" s="26">
+        <v>2</v>
+      </c>
+      <c r="Y26" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="Z26" s="27" t="s">
+      <c r="Z26" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="AA26" s="27">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="27" t="s">
+      <c r="AA26" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="26" t="s">
         <v>331</v>
       </c>
-      <c r="AC26" s="28" t="s">
+      <c r="AC26" s="27" t="s">
         <v>327</v>
       </c>
       <c r="AD26" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="AE26" s="27" t="s">
+      <c r="AE26" s="26" t="s">
         <v>325</v>
       </c>
-      <c r="AF26" s="27">
-        <v>0</v>
-      </c>
-      <c r="AG26" s="27">
-        <v>0</v>
-      </c>
-      <c r="AH26" s="27">
-        <v>0</v>
-      </c>
-      <c r="AI26" s="27">
-        <v>0</v>
-      </c>
-      <c r="AJ26" s="27">
-        <v>0</v>
-      </c>
-      <c r="AK26" s="38" t="s">
+      <c r="AF26" s="26">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="26">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="26">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="26">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="26">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="37" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="27" spans="1:37" s="25" customFormat="1">
-      <c r="A27" s="24" t="s">
+    <row r="27" spans="1:37" s="24" customFormat="1">
+      <c r="A27" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="C27" s="25">
-        <v>0</v>
-      </c>
-      <c r="D27" s="25">
+      <c r="C27" s="24">
+        <v>0</v>
+      </c>
+      <c r="D27" s="24">
         <v>100</v>
       </c>
-      <c r="E27" s="25">
+      <c r="E27" s="24">
         <v>100</v>
       </c>
-      <c r="F27" s="25">
-        <v>0</v>
-      </c>
-      <c r="G27" s="25">
-        <v>0</v>
-      </c>
-      <c r="H27" s="25">
-        <v>0</v>
-      </c>
-      <c r="I27" s="25">
-        <v>0</v>
-      </c>
-      <c r="J27" s="25">
-        <v>0</v>
-      </c>
-      <c r="K27" s="25">
-        <v>0</v>
-      </c>
-      <c r="L27" s="25">
-        <v>2</v>
-      </c>
-      <c r="M27" s="25">
-        <v>2</v>
-      </c>
-      <c r="N27" s="25">
-        <v>2</v>
-      </c>
-      <c r="O27" s="25" t="s">
+      <c r="F27" s="24">
+        <v>0</v>
+      </c>
+      <c r="G27" s="24">
+        <v>0</v>
+      </c>
+      <c r="H27" s="24">
+        <v>0</v>
+      </c>
+      <c r="I27" s="24">
+        <v>0</v>
+      </c>
+      <c r="J27" s="24">
+        <v>0</v>
+      </c>
+      <c r="K27" s="24">
+        <v>0</v>
+      </c>
+      <c r="L27" s="24">
+        <v>2</v>
+      </c>
+      <c r="M27" s="24">
+        <v>2</v>
+      </c>
+      <c r="N27" s="24">
+        <v>2</v>
+      </c>
+      <c r="O27" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="P27" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="25">
+      <c r="P27" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="24">
         <v>20</v>
       </c>
       <c r="R27" s="17" t="s">
@@ -4861,43 +4861,43 @@
       <c r="S27" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="X27" s="25">
+      <c r="X27" s="24">
         <v>2</v>
       </c>
       <c r="Y27" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="Z27" s="25" t="s">
+      <c r="Z27" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="AA27" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="25" t="s">
+      <c r="AA27" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="24" t="s">
         <v>217</v>
       </c>
       <c r="AC27" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD27" s="25" t="s">
+        <v>424</v>
+      </c>
+      <c r="AD27" s="24" t="s">
         <v>250</v>
       </c>
-      <c r="AE27" s="26" t="s">
+      <c r="AE27" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="AF27" s="25">
-        <v>0</v>
-      </c>
-      <c r="AG27" s="25">
-        <v>0</v>
-      </c>
-      <c r="AH27" s="25">
-        <v>0</v>
-      </c>
-      <c r="AI27" s="25">
-        <v>0</v>
-      </c>
-      <c r="AJ27" s="25">
+      <c r="AF27" s="24">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="24">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="24">
+        <v>0</v>
+      </c>
+      <c r="AI27" s="24">
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="24">
         <v>0</v>
       </c>
       <c r="AK27" s="19" t="s">
@@ -4911,10 +4911,10 @@
       <c r="C28" s="16">
         <v>0</v>
       </c>
-      <c r="D28" s="25">
+      <c r="D28" s="24">
         <v>100</v>
       </c>
-      <c r="E28" s="25">
+      <c r="E28" s="24">
         <v>100</v>
       </c>
       <c r="F28" s="16">
@@ -4941,10 +4941,10 @@
       <c r="M28" s="16">
         <v>2</v>
       </c>
-      <c r="N28" s="25">
-        <v>2</v>
-      </c>
-      <c r="O28" s="25" t="s">
+      <c r="N28" s="24">
+        <v>2</v>
+      </c>
+      <c r="O28" s="24" t="s">
         <v>185</v>
       </c>
       <c r="P28" s="16">
@@ -4974,8 +4974,8 @@
       <c r="AB28" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="AC28" s="17" t="s">
-        <v>63</v>
+      <c r="AC28" s="15" t="s">
+        <v>424</v>
       </c>
       <c r="AD28" s="16" t="s">
         <v>251</v>
@@ -5009,10 +5009,10 @@
       <c r="C29" s="16">
         <v>0</v>
       </c>
-      <c r="D29" s="25">
+      <c r="D29" s="24">
         <v>100</v>
       </c>
-      <c r="E29" s="25">
+      <c r="E29" s="24">
         <v>100</v>
       </c>
       <c r="F29" s="16">
@@ -5039,10 +5039,10 @@
       <c r="M29" s="16">
         <v>2</v>
       </c>
-      <c r="N29" s="25">
-        <v>2</v>
-      </c>
-      <c r="O29" s="25" t="s">
+      <c r="N29" s="24">
+        <v>2</v>
+      </c>
+      <c r="O29" s="24" t="s">
         <v>186</v>
       </c>
       <c r="P29" s="16">
@@ -5072,8 +5072,8 @@
       <c r="AB29" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="AC29" s="17" t="s">
-        <v>63</v>
+      <c r="AC29" s="15" t="s">
+        <v>424</v>
       </c>
       <c r="AD29" s="16" t="s">
         <v>252</v>
@@ -5107,10 +5107,10 @@
       <c r="C30" s="16">
         <v>0</v>
       </c>
-      <c r="D30" s="25">
+      <c r="D30" s="24">
         <v>100</v>
       </c>
-      <c r="E30" s="25">
+      <c r="E30" s="24">
         <v>100</v>
       </c>
       <c r="F30" s="16">
@@ -5137,7 +5137,7 @@
       <c r="M30" s="16">
         <v>2</v>
       </c>
-      <c r="N30" s="25">
+      <c r="N30" s="24">
         <v>2</v>
       </c>
       <c r="O30" s="16" t="s">
@@ -5170,8 +5170,8 @@
       <c r="AB30" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="AC30" s="17" t="s">
-        <v>63</v>
+      <c r="AC30" s="15" t="s">
+        <v>424</v>
       </c>
       <c r="AD30" s="16" t="s">
         <v>253</v>
@@ -5205,10 +5205,10 @@
       <c r="C31" s="16">
         <v>0</v>
       </c>
-      <c r="D31" s="25">
+      <c r="D31" s="24">
         <v>100</v>
       </c>
-      <c r="E31" s="25">
+      <c r="E31" s="24">
         <v>100</v>
       </c>
       <c r="F31" s="16">
@@ -5235,7 +5235,7 @@
       <c r="M31" s="16">
         <v>2</v>
       </c>
-      <c r="N31" s="25">
+      <c r="N31" s="24">
         <v>2</v>
       </c>
       <c r="O31" s="16" t="s">
@@ -5268,8 +5268,8 @@
       <c r="AB31" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="AC31" s="17" t="s">
-        <v>63</v>
+      <c r="AC31" s="15" t="s">
+        <v>424</v>
       </c>
       <c r="AD31" s="16" t="s">
         <v>254</v>
@@ -5303,10 +5303,10 @@
       <c r="C32" s="16">
         <v>0</v>
       </c>
-      <c r="D32" s="25">
+      <c r="D32" s="24">
         <v>100</v>
       </c>
-      <c r="E32" s="25">
+      <c r="E32" s="24">
         <v>100</v>
       </c>
       <c r="F32" s="16">
@@ -5333,7 +5333,7 @@
       <c r="M32" s="16">
         <v>2</v>
       </c>
-      <c r="N32" s="25">
+      <c r="N32" s="24">
         <v>2</v>
       </c>
       <c r="O32" s="16" t="s">
@@ -5366,8 +5366,8 @@
       <c r="AB32" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="AC32" s="17" t="s">
-        <v>63</v>
+      <c r="AC32" s="15" t="s">
+        <v>424</v>
       </c>
       <c r="AD32" s="16" t="s">
         <v>255</v>
@@ -5401,10 +5401,10 @@
       <c r="C33" s="16">
         <v>0</v>
       </c>
-      <c r="D33" s="25">
+      <c r="D33" s="24">
         <v>100</v>
       </c>
-      <c r="E33" s="25">
+      <c r="E33" s="24">
         <v>100</v>
       </c>
       <c r="F33" s="16">
@@ -5431,7 +5431,7 @@
       <c r="M33" s="16">
         <v>1</v>
       </c>
-      <c r="N33" s="25">
+      <c r="N33" s="24">
         <v>2</v>
       </c>
       <c r="O33" s="16" t="s">
@@ -5464,8 +5464,8 @@
       <c r="AB33" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="AC33" s="17" t="s">
-        <v>63</v>
+      <c r="AC33" s="15" t="s">
+        <v>424</v>
       </c>
       <c r="AD33" s="16" t="s">
         <v>256</v>
@@ -5499,10 +5499,10 @@
       <c r="C34" s="16">
         <v>0</v>
       </c>
-      <c r="D34" s="25">
+      <c r="D34" s="24">
         <v>100</v>
       </c>
-      <c r="E34" s="25">
+      <c r="E34" s="24">
         <v>100</v>
       </c>
       <c r="F34" s="16">
@@ -5529,7 +5529,7 @@
       <c r="M34" s="16">
         <v>1</v>
       </c>
-      <c r="N34" s="25">
+      <c r="N34" s="24">
         <v>2</v>
       </c>
       <c r="O34" s="16" t="s">
@@ -5562,8 +5562,8 @@
       <c r="AB34" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="AC34" s="17" t="s">
-        <v>63</v>
+      <c r="AC34" s="15" t="s">
+        <v>424</v>
       </c>
       <c r="AD34" s="16" t="s">
         <v>257</v>
@@ -5597,10 +5597,10 @@
       <c r="C35" s="16">
         <v>0</v>
       </c>
-      <c r="D35" s="25">
+      <c r="D35" s="24">
         <v>100</v>
       </c>
-      <c r="E35" s="25">
+      <c r="E35" s="24">
         <v>100</v>
       </c>
       <c r="F35" s="16">
@@ -5627,7 +5627,7 @@
       <c r="M35" s="16">
         <v>1</v>
       </c>
-      <c r="N35" s="25">
+      <c r="N35" s="24">
         <v>2</v>
       </c>
       <c r="O35" s="16" t="s">
@@ -5660,8 +5660,8 @@
       <c r="AB35" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="AC35" s="17" t="s">
-        <v>63</v>
+      <c r="AC35" s="15" t="s">
+        <v>424</v>
       </c>
       <c r="AD35" s="16" t="s">
         <v>258</v>
@@ -5695,10 +5695,10 @@
       <c r="C36" s="16">
         <v>0</v>
       </c>
-      <c r="D36" s="25">
+      <c r="D36" s="24">
         <v>100</v>
       </c>
-      <c r="E36" s="25">
+      <c r="E36" s="24">
         <v>100</v>
       </c>
       <c r="F36" s="16">
@@ -5725,7 +5725,7 @@
       <c r="M36" s="16">
         <v>3</v>
       </c>
-      <c r="N36" s="25">
+      <c r="N36" s="24">
         <v>3</v>
       </c>
       <c r="O36" s="16" t="s">
@@ -5758,8 +5758,8 @@
       <c r="AB36" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="AC36" s="17" t="s">
-        <v>63</v>
+      <c r="AC36" s="15" t="s">
+        <v>424</v>
       </c>
       <c r="AD36" s="16" t="s">
         <v>259</v>
@@ -5793,10 +5793,10 @@
       <c r="C37" s="16">
         <v>0</v>
       </c>
-      <c r="D37" s="25">
+      <c r="D37" s="24">
         <v>100</v>
       </c>
-      <c r="E37" s="25">
+      <c r="E37" s="24">
         <v>100</v>
       </c>
       <c r="F37" s="16">
@@ -5823,7 +5823,7 @@
       <c r="M37" s="16">
         <v>3</v>
       </c>
-      <c r="N37" s="25">
+      <c r="N37" s="24">
         <v>3</v>
       </c>
       <c r="O37" s="16" t="s">
@@ -5856,8 +5856,8 @@
       <c r="AB37" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="AC37" s="17" t="s">
-        <v>63</v>
+      <c r="AC37" s="15" t="s">
+        <v>424</v>
       </c>
       <c r="AD37" s="16" t="s">
         <v>260</v>
@@ -5891,10 +5891,10 @@
       <c r="C38" s="16">
         <v>0</v>
       </c>
-      <c r="D38" s="25">
+      <c r="D38" s="24">
         <v>100</v>
       </c>
-      <c r="E38" s="25">
+      <c r="E38" s="24">
         <v>100</v>
       </c>
       <c r="F38" s="16">
@@ -5921,7 +5921,7 @@
       <c r="M38" s="16">
         <v>3</v>
       </c>
-      <c r="N38" s="25">
+      <c r="N38" s="24">
         <v>3</v>
       </c>
       <c r="O38" s="16" t="s">
@@ -5954,8 +5954,8 @@
       <c r="AB38" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="AC38" s="17" t="s">
-        <v>63</v>
+      <c r="AC38" s="15" t="s">
+        <v>424</v>
       </c>
       <c r="AD38" s="16" t="s">
         <v>261</v>
@@ -5989,10 +5989,10 @@
       <c r="C39" s="16">
         <v>0</v>
       </c>
-      <c r="D39" s="25">
+      <c r="D39" s="24">
         <v>100</v>
       </c>
-      <c r="E39" s="25">
+      <c r="E39" s="24">
         <v>100</v>
       </c>
       <c r="F39" s="16">
@@ -6019,7 +6019,7 @@
       <c r="M39" s="16">
         <v>1</v>
       </c>
-      <c r="N39" s="25">
+      <c r="N39" s="24">
         <v>1</v>
       </c>
       <c r="O39" s="16" t="s">
@@ -6052,8 +6052,8 @@
       <c r="AB39" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="AC39" s="17" t="s">
-        <v>63</v>
+      <c r="AC39" s="15" t="s">
+        <v>424</v>
       </c>
       <c r="AD39" s="16" t="s">
         <v>293</v>
@@ -6087,10 +6087,10 @@
       <c r="C40" s="16">
         <v>0</v>
       </c>
-      <c r="D40" s="25">
+      <c r="D40" s="24">
         <v>100</v>
       </c>
-      <c r="E40" s="25">
+      <c r="E40" s="24">
         <v>100</v>
       </c>
       <c r="F40" s="16">
@@ -6117,7 +6117,7 @@
       <c r="M40" s="16">
         <v>1</v>
       </c>
-      <c r="N40" s="25">
+      <c r="N40" s="24">
         <v>1</v>
       </c>
       <c r="O40" s="16" t="s">
@@ -6150,8 +6150,8 @@
       <c r="AB40" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="AC40" s="17" t="s">
-        <v>63</v>
+      <c r="AC40" s="15" t="s">
+        <v>424</v>
       </c>
       <c r="AD40" s="16" t="s">
         <v>292</v>
@@ -6185,10 +6185,10 @@
       <c r="C41" s="16">
         <v>0</v>
       </c>
-      <c r="D41" s="25">
+      <c r="D41" s="24">
         <v>100</v>
       </c>
-      <c r="E41" s="25">
+      <c r="E41" s="24">
         <v>100</v>
       </c>
       <c r="F41" s="16">
@@ -6215,7 +6215,7 @@
       <c r="M41" s="16">
         <v>1</v>
       </c>
-      <c r="N41" s="25">
+      <c r="N41" s="24">
         <v>1</v>
       </c>
       <c r="O41" s="16" t="s">
@@ -6248,8 +6248,8 @@
       <c r="AB41" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="AC41" s="17" t="s">
-        <v>63</v>
+      <c r="AC41" s="15" t="s">
+        <v>424</v>
       </c>
       <c r="AD41" s="16" t="s">
         <v>291</v>
@@ -6283,10 +6283,10 @@
       <c r="C42" s="16">
         <v>0</v>
       </c>
-      <c r="D42" s="25">
+      <c r="D42" s="24">
         <v>100</v>
       </c>
-      <c r="E42" s="25">
+      <c r="E42" s="24">
         <v>100</v>
       </c>
       <c r="F42" s="16">
@@ -6313,7 +6313,7 @@
       <c r="M42" s="16">
         <v>2</v>
       </c>
-      <c r="N42" s="25">
+      <c r="N42" s="24">
         <v>2</v>
       </c>
       <c r="O42" s="16" t="s">
@@ -6346,8 +6346,8 @@
       <c r="AB42" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="AC42" s="17" t="s">
-        <v>63</v>
+      <c r="AC42" s="15" t="s">
+        <v>424</v>
       </c>
       <c r="AD42" s="16" t="s">
         <v>262</v>
@@ -6381,10 +6381,10 @@
       <c r="C43" s="16">
         <v>0</v>
       </c>
-      <c r="D43" s="25">
+      <c r="D43" s="24">
         <v>100</v>
       </c>
-      <c r="E43" s="25">
+      <c r="E43" s="24">
         <v>100</v>
       </c>
       <c r="F43" s="16">
@@ -6411,7 +6411,7 @@
       <c r="M43" s="16">
         <v>2</v>
       </c>
-      <c r="N43" s="25">
+      <c r="N43" s="24">
         <v>2</v>
       </c>
       <c r="O43" s="16" t="s">
@@ -6444,8 +6444,8 @@
       <c r="AB43" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="AC43" s="17" t="s">
-        <v>63</v>
+      <c r="AC43" s="15" t="s">
+        <v>424</v>
       </c>
       <c r="AD43" s="16" t="s">
         <v>263</v>
@@ -6479,10 +6479,10 @@
       <c r="C44" s="16">
         <v>0</v>
       </c>
-      <c r="D44" s="25">
+      <c r="D44" s="24">
         <v>100</v>
       </c>
-      <c r="E44" s="25">
+      <c r="E44" s="24">
         <v>100</v>
       </c>
       <c r="F44" s="16">
@@ -6509,7 +6509,7 @@
       <c r="M44" s="16">
         <v>2</v>
       </c>
-      <c r="N44" s="25">
+      <c r="N44" s="24">
         <v>2</v>
       </c>
       <c r="O44" s="16" t="s">
@@ -6542,8 +6542,8 @@
       <c r="AB44" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="AC44" s="17" t="s">
-        <v>63</v>
+      <c r="AC44" s="15" t="s">
+        <v>424</v>
       </c>
       <c r="AD44" s="16" t="s">
         <v>264</v>
@@ -6577,10 +6577,10 @@
       <c r="C45" s="16">
         <v>0</v>
       </c>
-      <c r="D45" s="25">
+      <c r="D45" s="24">
         <v>100</v>
       </c>
-      <c r="E45" s="25">
+      <c r="E45" s="24">
         <v>100</v>
       </c>
       <c r="F45" s="16">
@@ -6607,7 +6607,7 @@
       <c r="M45" s="16">
         <v>2</v>
       </c>
-      <c r="N45" s="25">
+      <c r="N45" s="24">
         <v>2</v>
       </c>
       <c r="O45" s="16" t="s">
@@ -6640,8 +6640,8 @@
       <c r="AB45" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="AC45" s="17" t="s">
-        <v>63</v>
+      <c r="AC45" s="15" t="s">
+        <v>424</v>
       </c>
       <c r="AD45" s="16" t="s">
         <v>265</v>
@@ -6675,10 +6675,10 @@
       <c r="C46" s="16">
         <v>0</v>
       </c>
-      <c r="D46" s="25">
+      <c r="D46" s="24">
         <v>100</v>
       </c>
-      <c r="E46" s="25">
+      <c r="E46" s="24">
         <v>100</v>
       </c>
       <c r="F46" s="16">
@@ -6705,7 +6705,7 @@
       <c r="M46" s="16">
         <v>2</v>
       </c>
-      <c r="N46" s="25">
+      <c r="N46" s="24">
         <v>2</v>
       </c>
       <c r="O46" s="16" t="s">
@@ -6738,8 +6738,8 @@
       <c r="AB46" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="AC46" s="17" t="s">
-        <v>63</v>
+      <c r="AC46" s="15" t="s">
+        <v>424</v>
       </c>
       <c r="AD46" s="16" t="s">
         <v>266</v>
@@ -6773,10 +6773,10 @@
       <c r="C47" s="16">
         <v>0</v>
       </c>
-      <c r="D47" s="25">
+      <c r="D47" s="24">
         <v>100</v>
       </c>
-      <c r="E47" s="25">
+      <c r="E47" s="24">
         <v>100</v>
       </c>
       <c r="F47" s="16">
@@ -6803,7 +6803,7 @@
       <c r="M47" s="16">
         <v>2</v>
       </c>
-      <c r="N47" s="25">
+      <c r="N47" s="24">
         <v>2</v>
       </c>
       <c r="O47" s="16" t="s">
@@ -6836,8 +6836,8 @@
       <c r="AB47" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="AC47" s="17" t="s">
-        <v>63</v>
+      <c r="AC47" s="15" t="s">
+        <v>424</v>
       </c>
       <c r="AD47" s="16" t="s">
         <v>267</v>
@@ -6871,10 +6871,10 @@
       <c r="C48" s="16">
         <v>0</v>
       </c>
-      <c r="D48" s="25">
+      <c r="D48" s="24">
         <v>100</v>
       </c>
-      <c r="E48" s="25">
+      <c r="E48" s="24">
         <v>100</v>
       </c>
       <c r="F48" s="16">
@@ -6901,7 +6901,7 @@
       <c r="M48" s="16">
         <v>3</v>
       </c>
-      <c r="N48" s="25">
+      <c r="N48" s="24">
         <v>3</v>
       </c>
       <c r="O48" s="16" t="s">
@@ -6934,8 +6934,8 @@
       <c r="AB48" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="AC48" s="17" t="s">
-        <v>63</v>
+      <c r="AC48" s="15" t="s">
+        <v>424</v>
       </c>
       <c r="AD48" s="16" t="s">
         <v>268</v>
@@ -6969,10 +6969,10 @@
       <c r="C49" s="16">
         <v>0</v>
       </c>
-      <c r="D49" s="25">
+      <c r="D49" s="24">
         <v>100</v>
       </c>
-      <c r="E49" s="25">
+      <c r="E49" s="24">
         <v>100</v>
       </c>
       <c r="F49" s="16">
@@ -6999,7 +6999,7 @@
       <c r="M49" s="16">
         <v>3</v>
       </c>
-      <c r="N49" s="25">
+      <c r="N49" s="24">
         <v>3</v>
       </c>
       <c r="O49" s="16" t="s">
@@ -7032,8 +7032,8 @@
       <c r="AB49" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="AC49" s="17" t="s">
-        <v>63</v>
+      <c r="AC49" s="15" t="s">
+        <v>424</v>
       </c>
       <c r="AD49" s="16" t="s">
         <v>269</v>
@@ -7067,10 +7067,10 @@
       <c r="C50" s="16">
         <v>0</v>
       </c>
-      <c r="D50" s="25">
+      <c r="D50" s="24">
         <v>100</v>
       </c>
-      <c r="E50" s="25">
+      <c r="E50" s="24">
         <v>100</v>
       </c>
       <c r="F50" s="16">
@@ -7097,7 +7097,7 @@
       <c r="M50" s="16">
         <v>3</v>
       </c>
-      <c r="N50" s="25">
+      <c r="N50" s="24">
         <v>3</v>
       </c>
       <c r="O50" s="16" t="s">
@@ -7130,8 +7130,8 @@
       <c r="AB50" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="AC50" s="17" t="s">
-        <v>63</v>
+      <c r="AC50" s="15" t="s">
+        <v>424</v>
       </c>
       <c r="AD50" s="16" t="s">
         <v>270</v>
@@ -7165,10 +7165,10 @@
       <c r="C51" s="16">
         <v>0</v>
       </c>
-      <c r="D51" s="25">
+      <c r="D51" s="24">
         <v>100</v>
       </c>
-      <c r="E51" s="25">
+      <c r="E51" s="24">
         <v>100</v>
       </c>
       <c r="F51" s="16">
@@ -7195,7 +7195,7 @@
       <c r="M51" s="16">
         <v>2</v>
       </c>
-      <c r="N51" s="25">
+      <c r="N51" s="24">
         <v>2</v>
       </c>
       <c r="O51" s="16" t="s">
@@ -7228,8 +7228,8 @@
       <c r="AB51" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="AC51" s="17" t="s">
-        <v>63</v>
+      <c r="AC51" s="15" t="s">
+        <v>424</v>
       </c>
       <c r="AD51" s="16" t="s">
         <v>271</v>
@@ -7263,10 +7263,10 @@
       <c r="C52" s="16">
         <v>0</v>
       </c>
-      <c r="D52" s="25">
+      <c r="D52" s="24">
         <v>100</v>
       </c>
-      <c r="E52" s="25">
+      <c r="E52" s="24">
         <v>100</v>
       </c>
       <c r="F52" s="16">
@@ -7293,7 +7293,7 @@
       <c r="M52" s="16">
         <v>2</v>
       </c>
-      <c r="N52" s="25">
+      <c r="N52" s="24">
         <v>2</v>
       </c>
       <c r="O52" s="16" t="s">
@@ -7326,8 +7326,8 @@
       <c r="AB52" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="AC52" s="17" t="s">
-        <v>63</v>
+      <c r="AC52" s="15" t="s">
+        <v>424</v>
       </c>
       <c r="AD52" s="16" t="s">
         <v>272</v>
@@ -7361,10 +7361,10 @@
       <c r="C53" s="16">
         <v>0</v>
       </c>
-      <c r="D53" s="25">
+      <c r="D53" s="24">
         <v>100</v>
       </c>
-      <c r="E53" s="25">
+      <c r="E53" s="24">
         <v>100</v>
       </c>
       <c r="F53" s="16">
@@ -7391,7 +7391,7 @@
       <c r="M53" s="16">
         <v>2</v>
       </c>
-      <c r="N53" s="25">
+      <c r="N53" s="24">
         <v>2</v>
       </c>
       <c r="O53" s="16" t="s">
@@ -7424,8 +7424,8 @@
       <c r="AB53" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="AC53" s="17" t="s">
-        <v>63</v>
+      <c r="AC53" s="15" t="s">
+        <v>424</v>
       </c>
       <c r="AD53" s="16" t="s">
         <v>273</v>
@@ -7459,10 +7459,10 @@
       <c r="C54" s="16">
         <v>0</v>
       </c>
-      <c r="D54" s="25">
+      <c r="D54" s="24">
         <v>100</v>
       </c>
-      <c r="E54" s="25">
+      <c r="E54" s="24">
         <v>100</v>
       </c>
       <c r="F54" s="16">
@@ -7489,7 +7489,7 @@
       <c r="M54" s="16">
         <v>2</v>
       </c>
-      <c r="N54" s="25">
+      <c r="N54" s="24">
         <v>3</v>
       </c>
       <c r="O54" s="16" t="s">
@@ -7522,8 +7522,8 @@
       <c r="AB54" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="AC54" s="17" t="s">
-        <v>63</v>
+      <c r="AC54" s="15" t="s">
+        <v>424</v>
       </c>
       <c r="AD54" s="16" t="s">
         <v>274</v>
@@ -7557,10 +7557,10 @@
       <c r="C55" s="16">
         <v>0</v>
       </c>
-      <c r="D55" s="25">
+      <c r="D55" s="24">
         <v>100</v>
       </c>
-      <c r="E55" s="25">
+      <c r="E55" s="24">
         <v>100</v>
       </c>
       <c r="F55" s="16">
@@ -7587,7 +7587,7 @@
       <c r="M55" s="16">
         <v>2</v>
       </c>
-      <c r="N55" s="25">
+      <c r="N55" s="24">
         <v>3</v>
       </c>
       <c r="O55" s="16" t="s">
@@ -7620,8 +7620,8 @@
       <c r="AB55" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="AC55" s="17" t="s">
-        <v>63</v>
+      <c r="AC55" s="15" t="s">
+        <v>424</v>
       </c>
       <c r="AD55" s="16" t="s">
         <v>275</v>
@@ -7655,10 +7655,10 @@
       <c r="C56" s="16">
         <v>0</v>
       </c>
-      <c r="D56" s="25">
+      <c r="D56" s="24">
         <v>100</v>
       </c>
-      <c r="E56" s="25">
+      <c r="E56" s="24">
         <v>100</v>
       </c>
       <c r="F56" s="16">
@@ -7685,7 +7685,7 @@
       <c r="M56" s="16">
         <v>2</v>
       </c>
-      <c r="N56" s="25">
+      <c r="N56" s="24">
         <v>3</v>
       </c>
       <c r="O56" s="16" t="s">
@@ -7718,8 +7718,8 @@
       <c r="AB56" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="AC56" s="17" t="s">
-        <v>63</v>
+      <c r="AC56" s="15" t="s">
+        <v>424</v>
       </c>
       <c r="AD56" s="16" t="s">
         <v>276</v>
@@ -7753,10 +7753,10 @@
       <c r="C57" s="16">
         <v>0</v>
       </c>
-      <c r="D57" s="25">
+      <c r="D57" s="24">
         <v>100</v>
       </c>
-      <c r="E57" s="25">
+      <c r="E57" s="24">
         <v>100</v>
       </c>
       <c r="F57" s="16">
@@ -7780,10 +7780,10 @@
       <c r="L57" s="16">
         <v>0</v>
       </c>
-      <c r="M57" s="25">
-        <v>2</v>
-      </c>
-      <c r="N57" s="25">
+      <c r="M57" s="24">
+        <v>2</v>
+      </c>
+      <c r="N57" s="24">
         <v>2</v>
       </c>
       <c r="O57" s="16" t="s">
@@ -7816,8 +7816,8 @@
       <c r="AB57" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="AC57" s="17" t="s">
-        <v>63</v>
+      <c r="AC57" s="15" t="s">
+        <v>424</v>
       </c>
       <c r="AD57" s="16" t="s">
         <v>277</v>
@@ -7851,10 +7851,10 @@
       <c r="C58" s="16">
         <v>0</v>
       </c>
-      <c r="D58" s="25">
+      <c r="D58" s="24">
         <v>100</v>
       </c>
-      <c r="E58" s="25">
+      <c r="E58" s="24">
         <v>100</v>
       </c>
       <c r="F58" s="16">
@@ -7878,10 +7878,10 @@
       <c r="L58" s="16">
         <v>0</v>
       </c>
-      <c r="M58" s="25">
-        <v>2</v>
-      </c>
-      <c r="N58" s="25">
+      <c r="M58" s="24">
+        <v>2</v>
+      </c>
+      <c r="N58" s="24">
         <v>2</v>
       </c>
       <c r="O58" s="16" t="s">
@@ -7914,8 +7914,8 @@
       <c r="AB58" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="AC58" s="17" t="s">
-        <v>63</v>
+      <c r="AC58" s="15" t="s">
+        <v>424</v>
       </c>
       <c r="AD58" s="16" t="s">
         <v>278</v>
@@ -7949,10 +7949,10 @@
       <c r="C59" s="21">
         <v>0</v>
       </c>
-      <c r="D59" s="25">
+      <c r="D59" s="24">
         <v>100</v>
       </c>
-      <c r="E59" s="25">
+      <c r="E59" s="24">
         <v>100</v>
       </c>
       <c r="F59" s="21">
@@ -7976,10 +7976,10 @@
       <c r="L59" s="21">
         <v>0</v>
       </c>
-      <c r="M59" s="25">
-        <v>2</v>
-      </c>
-      <c r="N59" s="25">
+      <c r="M59" s="24">
+        <v>2</v>
+      </c>
+      <c r="N59" s="24">
         <v>2</v>
       </c>
       <c r="O59" s="16" t="s">
@@ -8012,13 +8012,13 @@
       <c r="AB59" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="AC59" s="22" t="s">
-        <v>63</v>
+      <c r="AC59" s="15" t="s">
+        <v>424</v>
       </c>
       <c r="AD59" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="AE59" s="23" t="s">
+      <c r="AE59" s="22" t="s">
         <v>64</v>
       </c>
       <c r="AF59" s="21">
@@ -8047,10 +8047,10 @@
       <c r="C60" s="16">
         <v>0</v>
       </c>
-      <c r="D60" s="25">
+      <c r="D60" s="24">
         <v>100</v>
       </c>
-      <c r="E60" s="25">
+      <c r="E60" s="24">
         <v>100</v>
       </c>
       <c r="F60" s="16">
@@ -8077,7 +8077,7 @@
       <c r="M60" s="16">
         <v>1</v>
       </c>
-      <c r="N60" s="25">
+      <c r="N60" s="24">
         <v>2</v>
       </c>
       <c r="O60" s="16" t="s">
@@ -8110,8 +8110,8 @@
       <c r="AB60" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="AC60" s="17" t="s">
-        <v>63</v>
+      <c r="AC60" s="15" t="s">
+        <v>424</v>
       </c>
       <c r="AD60" s="16" t="s">
         <v>280</v>
@@ -8145,10 +8145,10 @@
       <c r="C61" s="16">
         <v>0</v>
       </c>
-      <c r="D61" s="25">
+      <c r="D61" s="24">
         <v>100</v>
       </c>
-      <c r="E61" s="25">
+      <c r="E61" s="24">
         <v>100</v>
       </c>
       <c r="F61" s="16">
@@ -8175,7 +8175,7 @@
       <c r="M61" s="16">
         <v>1</v>
       </c>
-      <c r="N61" s="25">
+      <c r="N61" s="24">
         <v>2</v>
       </c>
       <c r="O61" s="16" t="s">
@@ -8208,8 +8208,8 @@
       <c r="AB61" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="AC61" s="17" t="s">
-        <v>63</v>
+      <c r="AC61" s="15" t="s">
+        <v>424</v>
       </c>
       <c r="AD61" s="16" t="s">
         <v>281</v>
@@ -8243,10 +8243,10 @@
       <c r="C62" s="21">
         <v>0</v>
       </c>
-      <c r="D62" s="25">
+      <c r="D62" s="24">
         <v>100</v>
       </c>
-      <c r="E62" s="25">
+      <c r="E62" s="24">
         <v>100</v>
       </c>
       <c r="F62" s="21">
@@ -8273,7 +8273,7 @@
       <c r="M62" s="21">
         <v>1</v>
       </c>
-      <c r="N62" s="25">
+      <c r="N62" s="24">
         <v>2</v>
       </c>
       <c r="O62" s="16" t="s">
@@ -8306,13 +8306,13 @@
       <c r="AB62" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="AC62" s="22" t="s">
-        <v>63</v>
+      <c r="AC62" s="15" t="s">
+        <v>424</v>
       </c>
       <c r="AD62" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="AE62" s="23" t="s">
+      <c r="AE62" s="22" t="s">
         <v>64</v>
       </c>
       <c r="AF62" s="21">

--- a/_Out/NFDataCfg/Excel/NPC.xlsx
+++ b/_Out/NFDataCfg/Excel/NPC.xlsx
@@ -98,9 +98,6 @@
     <t>ShowCard</t>
   </si>
   <si>
-    <t>HeroType</t>
-  </si>
-  <si>
     <t>Camp</t>
   </si>
   <si>
@@ -206,9 +203,6 @@
     <t>卡牌背景</t>
   </si>
   <si>
-    <t>英雄类型，力智敏</t>
-  </si>
-  <si>
     <t>阵营</t>
   </si>
   <si>
@@ -1308,6 +1302,12 @@
   </si>
   <si>
     <t>UIResources/BuilderSprite</t>
+  </si>
+  <si>
+    <t>HeroStar</t>
+  </si>
+  <si>
+    <t>英雄star</t>
   </si>
 </sst>
 </file>
@@ -2041,9 +2041,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC27" sqref="AC27:AC62"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AI10" sqref="AI10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2086,7 +2086,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -2104,7 +2104,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>8</v>
@@ -2113,7 +2113,7 @@
         <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>13</v>
@@ -2122,7 +2122,7 @@
         <v>10</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>11</v>
@@ -2131,19 +2131,19 @@
         <v>12</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="W1" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>13</v>
@@ -2170,140 +2170,140 @@
         <v>20</v>
       </c>
       <c r="AF1" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AI1" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="AK1" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="2" spans="1:37" s="2" customFormat="1" ht="14.25">
       <c r="A2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="O2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="R2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="X2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC2" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="AK2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:37" s="2" customFormat="1" ht="14.25">
       <c r="A3" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -2396,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="AF3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG3" s="2">
         <v>0</v>
@@ -2416,7 +2416,7 @@
     </row>
     <row r="4" spans="1:37" s="2" customFormat="1" ht="14.25">
       <c r="A4" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -2509,7 +2509,7 @@
         <v>0</v>
       </c>
       <c r="AF4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG4" s="2">
         <v>1</v>
@@ -2529,7 +2529,7 @@
     </row>
     <row r="5" spans="1:37" s="2" customFormat="1" ht="14.25">
       <c r="A5" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -2642,7 +2642,7 @@
     </row>
     <row r="6" spans="1:37" s="2" customFormat="1" ht="14.25">
       <c r="A6" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
@@ -2755,7 +2755,7 @@
     </row>
     <row r="7" spans="1:37" s="3" customFormat="1">
       <c r="A7" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="3">
         <v>0</v>
@@ -2868,7 +2868,7 @@
     </row>
     <row r="8" spans="1:37" s="3" customFormat="1">
       <c r="A8" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -2981,7 +2981,7 @@
     </row>
     <row r="9" spans="1:37" s="3" customFormat="1">
       <c r="A9" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
@@ -3094,105 +3094,105 @@
     </row>
     <row r="10" spans="1:37" s="4" customFormat="1" ht="40.9" thickBot="1">
       <c r="A10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="J10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="O10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="O10" s="4" t="s">
+      <c r="P10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="P10" s="4" t="s">
+      <c r="Q10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="Q10" s="4" t="s">
+      <c r="R10" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="R10" s="4" t="s">
+      <c r="S10" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="T10" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="S10" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="T10" s="4" t="s">
+      <c r="U10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="W10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="X10" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="U10" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="V10" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="W10" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="X10" s="4" t="s">
+      <c r="Y10" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="Y10" s="4" t="s">
+      <c r="Z10" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="Z10" s="4" t="s">
+      <c r="AA10" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="AA10" s="4" t="s">
+      <c r="AB10" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="AB10" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="AC10" s="11" t="s">
         <v>18</v>
       </c>
       <c r="AD10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE10" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AE10" s="4" t="s">
+      <c r="AF10" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="AG10" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AF10" s="4" t="s">
+      <c r="AH10" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AG10" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH10" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="AI10" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AJ10" s="4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="AK10" s="4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="11" spans="1:37" ht="13.9" thickBot="1">
       <c r="A11" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -3231,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -3240,35 +3240,35 @@
         <v>20</v>
       </c>
       <c r="R11" s="35" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="S11" s="35" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="X11">
         <v>2</v>
       </c>
       <c r="Y11" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="36" t="s">
+        <v>326</v>
+      </c>
+      <c r="AC11" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AD11" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE11" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="AC11" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD11" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE11" s="13" t="s">
-        <v>64</v>
-      </c>
       <c r="AF11">
         <v>0</v>
       </c>
@@ -3285,12 +3285,12 @@
         <v>0</v>
       </c>
       <c r="AK11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:37" ht="13.9" thickBot="1">
       <c r="A12" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -3338,35 +3338,35 @@
         <v>20</v>
       </c>
       <c r="R12" s="35" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="S12" s="35" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="X12">
         <v>2</v>
       </c>
       <c r="Y12" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="36" t="s">
+        <v>326</v>
+      </c>
+      <c r="AC12" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AD12" t="s">
+        <v>306</v>
+      </c>
+      <c r="AE12" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="AC12" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>308</v>
-      </c>
-      <c r="AE12" s="13" t="s">
-        <v>64</v>
-      </c>
       <c r="AF12">
         <v>0</v>
       </c>
@@ -3383,12 +3383,12 @@
         <v>0</v>
       </c>
       <c r="AK12" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="13" spans="1:37" ht="13.9" thickBot="1">
       <c r="A13" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -3427,7 +3427,7 @@
         <v>2</v>
       </c>
       <c r="O13" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -3436,35 +3436,35 @@
         <v>20</v>
       </c>
       <c r="R13" s="35" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="S13" s="35" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="X13">
         <v>2</v>
       </c>
       <c r="Y13" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="36" t="s">
+        <v>326</v>
+      </c>
+      <c r="AC13" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AD13" t="s">
+        <v>305</v>
+      </c>
+      <c r="AE13" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="AC13" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>307</v>
-      </c>
-      <c r="AE13" s="13" t="s">
-        <v>64</v>
-      </c>
       <c r="AF13">
         <v>0</v>
       </c>
@@ -3481,12 +3481,12 @@
         <v>0</v>
       </c>
       <c r="AK13" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14" spans="1:37" ht="13.9" thickBot="1">
       <c r="A14" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -3525,7 +3525,7 @@
         <v>2</v>
       </c>
       <c r="O14" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -3534,35 +3534,35 @@
         <v>20</v>
       </c>
       <c r="R14" s="35" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="S14" s="35" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="X14">
         <v>2</v>
       </c>
       <c r="Y14" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="36" t="s">
+        <v>326</v>
+      </c>
+      <c r="AC14" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AD14" t="s">
+        <v>304</v>
+      </c>
+      <c r="AE14" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="AC14" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>306</v>
-      </c>
-      <c r="AE14" s="13" t="s">
-        <v>64</v>
-      </c>
       <c r="AF14">
         <v>0</v>
       </c>
@@ -3579,12 +3579,12 @@
         <v>0</v>
       </c>
       <c r="AK14" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15" spans="1:37" ht="13.9" thickBot="1">
       <c r="A15" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -3623,7 +3623,7 @@
         <v>2</v>
       </c>
       <c r="O15" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -3632,35 +3632,35 @@
         <v>20</v>
       </c>
       <c r="R15" s="35" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="S15" s="35" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="X15">
         <v>2</v>
       </c>
       <c r="Y15" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="36" t="s">
+        <v>326</v>
+      </c>
+      <c r="AC15" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AD15" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE15" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="AC15" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>305</v>
-      </c>
-      <c r="AE15" s="13" t="s">
-        <v>64</v>
-      </c>
       <c r="AF15">
         <v>0</v>
       </c>
@@ -3677,12 +3677,12 @@
         <v>0</v>
       </c>
       <c r="AK15" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="16" spans="1:37" ht="13.9" thickBot="1">
       <c r="A16" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>2</v>
       </c>
       <c r="O16" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -3730,35 +3730,35 @@
         <v>20</v>
       </c>
       <c r="R16" s="35" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="S16" s="35" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="X16">
         <v>2</v>
       </c>
       <c r="Y16" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="36" t="s">
+        <v>326</v>
+      </c>
+      <c r="AC16" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AD16" t="s">
+        <v>302</v>
+      </c>
+      <c r="AE16" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="AC16" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>304</v>
-      </c>
-      <c r="AE16" s="13" t="s">
-        <v>64</v>
-      </c>
       <c r="AF16">
         <v>0</v>
       </c>
@@ -3775,12 +3775,12 @@
         <v>0</v>
       </c>
       <c r="AK16" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="17" spans="1:37" ht="13.9" thickBot="1">
       <c r="A17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -3819,7 +3819,7 @@
         <v>2</v>
       </c>
       <c r="O17" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -3828,35 +3828,35 @@
         <v>20</v>
       </c>
       <c r="R17" s="35" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="S17" s="35" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="X17">
         <v>2</v>
       </c>
       <c r="Y17" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="36" t="s">
+        <v>326</v>
+      </c>
+      <c r="AC17" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AD17" t="s">
+        <v>300</v>
+      </c>
+      <c r="AE17" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="AC17" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>302</v>
-      </c>
-      <c r="AE17" s="13" t="s">
-        <v>64</v>
-      </c>
       <c r="AF17">
         <v>0</v>
       </c>
@@ -3873,12 +3873,12 @@
         <v>0</v>
       </c>
       <c r="AK17" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="18" spans="1:37" ht="13.9" thickBot="1">
       <c r="A18" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -3917,7 +3917,7 @@
         <v>2</v>
       </c>
       <c r="O18" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -3926,35 +3926,35 @@
         <v>20</v>
       </c>
       <c r="R18" s="35" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="S18" s="35" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="X18">
         <v>2</v>
       </c>
       <c r="Y18" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="36" t="s">
+        <v>326</v>
+      </c>
+      <c r="AC18" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="AD18" t="s">
+        <v>301</v>
+      </c>
+      <c r="AE18" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="AC18" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>303</v>
-      </c>
-      <c r="AE18" s="13" t="s">
-        <v>64</v>
-      </c>
       <c r="AF18">
         <v>0</v>
       </c>
@@ -3971,12 +3971,12 @@
         <v>0</v>
       </c>
       <c r="AK18" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="19" spans="1:37" ht="13.9" thickBot="1">
       <c r="A19" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -4015,7 +4015,7 @@
         <v>2</v>
       </c>
       <c r="O19" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -4024,35 +4024,35 @@
         <v>20</v>
       </c>
       <c r="R19" s="35" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="S19" s="35" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="X19">
         <v>2</v>
       </c>
       <c r="Y19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="36" t="s">
+        <v>326</v>
+      </c>
+      <c r="AC19" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="AD19" t="s">
+        <v>299</v>
+      </c>
+      <c r="AE19" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="AC19" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>301</v>
-      </c>
-      <c r="AE19" s="13" t="s">
-        <v>64</v>
-      </c>
       <c r="AF19">
         <v>0</v>
       </c>
@@ -4069,12 +4069,12 @@
         <v>0</v>
       </c>
       <c r="AK19" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="20" spans="1:37" ht="13.9" thickBot="1">
       <c r="A20" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -4113,7 +4113,7 @@
         <v>2</v>
       </c>
       <c r="O20" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -4122,35 +4122,35 @@
         <v>20</v>
       </c>
       <c r="R20" s="35" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="S20" s="35" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="X20">
         <v>2</v>
       </c>
       <c r="Y20" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="36" t="s">
+        <v>326</v>
+      </c>
+      <c r="AC20" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="AD20" t="s">
+        <v>298</v>
+      </c>
+      <c r="AE20" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="AA20">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="AC20" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>300</v>
-      </c>
-      <c r="AE20" s="13" t="s">
-        <v>64</v>
-      </c>
       <c r="AF20">
         <v>0</v>
       </c>
@@ -4167,12 +4167,12 @@
         <v>0</v>
       </c>
       <c r="AK20" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="21" spans="1:37" ht="13.9" thickBot="1">
       <c r="A21" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -4211,7 +4211,7 @@
         <v>2</v>
       </c>
       <c r="O21" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -4220,35 +4220,35 @@
         <v>20</v>
       </c>
       <c r="R21" s="35" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="S21" s="35" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="X21">
         <v>2</v>
       </c>
       <c r="Y21" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="36" t="s">
+        <v>326</v>
+      </c>
+      <c r="AC21" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="AD21" t="s">
+        <v>297</v>
+      </c>
+      <c r="AE21" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="AA21">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="AC21" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>299</v>
-      </c>
-      <c r="AE21" s="13" t="s">
-        <v>64</v>
-      </c>
       <c r="AF21">
         <v>0</v>
       </c>
@@ -4265,12 +4265,12 @@
         <v>0</v>
       </c>
       <c r="AK21" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="22" spans="1:37" ht="13.9" thickBot="1">
       <c r="A22" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -4309,7 +4309,7 @@
         <v>2</v>
       </c>
       <c r="O22" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -4318,35 +4318,35 @@
         <v>20</v>
       </c>
       <c r="R22" s="35" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="S22" s="35" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="X22">
         <v>2</v>
       </c>
       <c r="Y22" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="36" t="s">
+        <v>326</v>
+      </c>
+      <c r="AC22" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="AD22" t="s">
+        <v>296</v>
+      </c>
+      <c r="AE22" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="AA22">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="AC22" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>298</v>
-      </c>
-      <c r="AE22" s="13" t="s">
-        <v>64</v>
-      </c>
       <c r="AF22">
         <v>0</v>
       </c>
@@ -4363,12 +4363,12 @@
         <v>0</v>
       </c>
       <c r="AK22" s="38" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="23" spans="1:37" s="29" customFormat="1" ht="13.9" thickBot="1">
       <c r="A23" s="28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C23" s="29">
         <v>0</v>
@@ -4407,7 +4407,7 @@
         <v>2</v>
       </c>
       <c r="O23" s="29" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="P23" s="29">
         <v>0</v>
@@ -4416,46 +4416,46 @@
         <v>20</v>
       </c>
       <c r="R23" s="34" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="S23" s="34" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="T23" s="29" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="U23" s="29" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="V23" s="29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W23" s="29" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="X23" s="29">
         <v>2</v>
       </c>
       <c r="Y23" s="30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Z23" s="29" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AA23" s="29">
         <v>0</v>
       </c>
       <c r="AB23" s="29" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AC23" s="31" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AD23" s="32" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AE23" s="29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AF23" s="29">
         <v>0</v>
@@ -4470,15 +4470,15 @@
         <v>0</v>
       </c>
       <c r="AJ23" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK23" s="33" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="24" spans="1:37" s="26" customFormat="1" ht="13.9" thickBot="1">
       <c r="A24" s="33" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C24" s="26">
         <v>0</v>
@@ -4517,7 +4517,7 @@
         <v>2</v>
       </c>
       <c r="O24" s="26" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="P24" s="26">
         <v>1</v>
@@ -4526,46 +4526,46 @@
         <v>20</v>
       </c>
       <c r="R24" s="34" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="S24" s="34" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="T24" s="26" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="U24" s="26" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="V24" s="26" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W24" s="26" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="X24" s="26">
         <v>2</v>
       </c>
       <c r="Y24" s="30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Z24" s="26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AA24" s="26">
         <v>0</v>
       </c>
       <c r="AB24" s="26" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="AC24" s="27" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AD24" s="14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AE24" s="26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AF24" s="26">
         <v>0</v>
@@ -4580,15 +4580,15 @@
         <v>0</v>
       </c>
       <c r="AJ24" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK24" s="33" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="25" spans="1:37" s="26" customFormat="1" ht="13.9" thickBot="1">
       <c r="A25" s="33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C25" s="26">
         <v>0</v>
@@ -4627,7 +4627,7 @@
         <v>2</v>
       </c>
       <c r="O25" s="26" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="P25" s="26">
         <v>0</v>
@@ -4636,46 +4636,46 @@
         <v>20</v>
       </c>
       <c r="R25" s="34" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="S25" s="34" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="T25" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="U25" s="26" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="V25" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="W25" s="26" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="X25" s="26">
         <v>2</v>
       </c>
       <c r="Y25" s="30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Z25" s="26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AA25" s="26">
         <v>0</v>
       </c>
       <c r="AB25" s="26" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AC25" s="27" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AD25" s="14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AE25" s="26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AF25" s="26">
         <v>0</v>
@@ -4690,15 +4690,15 @@
         <v>0</v>
       </c>
       <c r="AJ25" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK25" s="33" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="26" spans="1:37" s="26" customFormat="1">
       <c r="A26" s="33" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C26" s="26">
         <v>0</v>
@@ -4737,7 +4737,7 @@
         <v>2</v>
       </c>
       <c r="O26" s="26" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="P26" s="26">
         <v>0</v>
@@ -4746,46 +4746,46 @@
         <v>20</v>
       </c>
       <c r="R26" s="34" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="S26" s="34" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="T26" s="26" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="U26" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="V26" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="W26" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="X26" s="26">
         <v>2</v>
       </c>
       <c r="Y26" s="30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Z26" s="26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AA26" s="26">
         <v>0</v>
       </c>
       <c r="AB26" s="26" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AC26" s="27" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AD26" s="14" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AE26" s="26" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="AF26" s="26">
         <v>0</v>
@@ -4800,15 +4800,15 @@
         <v>0</v>
       </c>
       <c r="AJ26" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK26" s="37" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="27" spans="1:37" s="24" customFormat="1">
       <c r="A27" s="23" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C27" s="24">
         <v>0</v>
@@ -4847,7 +4847,7 @@
         <v>2</v>
       </c>
       <c r="O27" s="24" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P27" s="24">
         <v>0</v>
@@ -4856,35 +4856,35 @@
         <v>20</v>
       </c>
       <c r="R27" s="17" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="S27" s="17" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="X27" s="24">
         <v>2</v>
       </c>
       <c r="Y27" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Z27" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA27" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="AC27" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="AD27" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="AE27" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="AA27" s="24">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="24" t="s">
-        <v>217</v>
-      </c>
-      <c r="AC27" s="15" t="s">
-        <v>424</v>
-      </c>
-      <c r="AD27" s="24" t="s">
-        <v>250</v>
-      </c>
-      <c r="AE27" s="25" t="s">
-        <v>64</v>
-      </c>
       <c r="AF27" s="24">
         <v>0</v>
       </c>
@@ -4898,15 +4898,15 @@
         <v>0</v>
       </c>
       <c r="AJ27" s="24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK27" s="19" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="28" spans="1:37" s="16" customFormat="1">
       <c r="A28" s="19" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C28" s="16">
         <v>0</v>
@@ -4945,7 +4945,7 @@
         <v>2</v>
       </c>
       <c r="O28" s="24" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="P28" s="16">
         <v>0</v>
@@ -4954,35 +4954,35 @@
         <v>20</v>
       </c>
       <c r="R28" s="17" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="S28" s="17" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="X28" s="16">
         <v>2</v>
       </c>
       <c r="Y28" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Z28" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA28" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="AC28" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="AD28" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="AE28" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="AA28" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="AC28" s="15" t="s">
-        <v>424</v>
-      </c>
-      <c r="AD28" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="AE28" s="18" t="s">
-        <v>64</v>
-      </c>
       <c r="AF28" s="16">
         <v>0</v>
       </c>
@@ -4996,15 +4996,15 @@
         <v>0</v>
       </c>
       <c r="AJ28" s="16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK28" s="19" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="29" spans="1:37" s="16" customFormat="1">
       <c r="A29" s="19" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C29" s="16">
         <v>0</v>
@@ -5043,7 +5043,7 @@
         <v>2</v>
       </c>
       <c r="O29" s="24" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="P29" s="16">
         <v>0</v>
@@ -5052,35 +5052,35 @@
         <v>20</v>
       </c>
       <c r="R29" s="16" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="S29" s="17" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="X29" s="16">
         <v>2</v>
       </c>
       <c r="Y29" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Z29" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA29" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="AC29" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="AD29" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="AE29" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="AA29" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="AC29" s="15" t="s">
-        <v>424</v>
-      </c>
-      <c r="AD29" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="AE29" s="18" t="s">
-        <v>64</v>
-      </c>
       <c r="AF29" s="16">
         <v>0</v>
       </c>
@@ -5093,16 +5093,16 @@
       <c r="AI29" s="16">
         <v>0</v>
       </c>
-      <c r="AJ29" s="16">
-        <v>0</v>
+      <c r="AJ29" s="24">
+        <v>2</v>
       </c>
       <c r="AK29" s="19" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="30" spans="1:37" s="16" customFormat="1">
       <c r="A30" s="19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C30" s="16">
         <v>0</v>
@@ -5141,7 +5141,7 @@
         <v>2</v>
       </c>
       <c r="O30" s="16" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P30" s="16">
         <v>0</v>
@@ -5150,35 +5150,35 @@
         <v>20</v>
       </c>
       <c r="R30" s="16" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S30" s="17" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="X30" s="16">
         <v>2</v>
       </c>
       <c r="Y30" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Z30" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA30" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC30" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="AD30" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="AE30" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="AA30" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB30" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="AC30" s="15" t="s">
-        <v>424</v>
-      </c>
-      <c r="AD30" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="AE30" s="18" t="s">
-        <v>64</v>
-      </c>
       <c r="AF30" s="16">
         <v>0</v>
       </c>
@@ -5192,15 +5192,15 @@
         <v>0</v>
       </c>
       <c r="AJ30" s="16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK30" s="19" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="31" spans="1:37" s="16" customFormat="1">
       <c r="A31" s="19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C31" s="16">
         <v>0</v>
@@ -5239,7 +5239,7 @@
         <v>2</v>
       </c>
       <c r="O31" s="16" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P31" s="16">
         <v>0</v>
@@ -5248,35 +5248,35 @@
         <v>20</v>
       </c>
       <c r="R31" s="16" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="S31" s="17" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="X31" s="16">
         <v>2</v>
       </c>
       <c r="Y31" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Z31" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA31" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="AC31" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="AD31" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="AE31" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="AA31" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB31" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="AC31" s="15" t="s">
-        <v>424</v>
-      </c>
-      <c r="AD31" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="AE31" s="18" t="s">
-        <v>64</v>
-      </c>
       <c r="AF31" s="16">
         <v>0</v>
       </c>
@@ -5289,16 +5289,16 @@
       <c r="AI31" s="16">
         <v>0</v>
       </c>
-      <c r="AJ31" s="16">
-        <v>0</v>
+      <c r="AJ31" s="24">
+        <v>2</v>
       </c>
       <c r="AK31" s="19" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="32" spans="1:37" s="16" customFormat="1">
       <c r="A32" s="19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C32" s="16">
         <v>0</v>
@@ -5337,7 +5337,7 @@
         <v>2</v>
       </c>
       <c r="O32" s="16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="P32" s="16">
         <v>0</v>
@@ -5346,35 +5346,35 @@
         <v>20</v>
       </c>
       <c r="R32" s="16" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="S32" s="17" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="X32" s="16">
         <v>2</v>
       </c>
       <c r="Y32" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Z32" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA32" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="AC32" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="AD32" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="AE32" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="AA32" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB32" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="AC32" s="15" t="s">
-        <v>424</v>
-      </c>
-      <c r="AD32" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="AE32" s="18" t="s">
-        <v>64</v>
-      </c>
       <c r="AF32" s="16">
         <v>0</v>
       </c>
@@ -5388,15 +5388,15 @@
         <v>0</v>
       </c>
       <c r="AJ32" s="16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK32" s="19" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="33" spans="1:37" s="16" customFormat="1">
       <c r="A33" s="19" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C33" s="16">
         <v>0</v>
@@ -5435,7 +5435,7 @@
         <v>2</v>
       </c>
       <c r="O33" s="16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="P33" s="16">
         <v>0</v>
@@ -5444,35 +5444,35 @@
         <v>20</v>
       </c>
       <c r="R33" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="S33" s="17" t="s">
         <v>355</v>
       </c>
-      <c r="S33" s="17" t="s">
-        <v>357</v>
-      </c>
       <c r="X33" s="16">
         <v>2</v>
       </c>
       <c r="Y33" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Z33" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA33" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="AC33" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="AD33" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="AE33" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="AA33" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB33" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="AC33" s="15" t="s">
-        <v>424</v>
-      </c>
-      <c r="AD33" s="16" t="s">
-        <v>256</v>
-      </c>
-      <c r="AE33" s="18" t="s">
-        <v>64</v>
-      </c>
       <c r="AF33" s="16">
         <v>0</v>
       </c>
@@ -5485,16 +5485,16 @@
       <c r="AI33" s="16">
         <v>0</v>
       </c>
-      <c r="AJ33" s="16">
-        <v>0</v>
+      <c r="AJ33" s="24">
+        <v>2</v>
       </c>
       <c r="AK33" s="19" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="34" spans="1:37" s="16" customFormat="1">
       <c r="A34" s="19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C34" s="16">
         <v>0</v>
@@ -5533,7 +5533,7 @@
         <v>2</v>
       </c>
       <c r="O34" s="16" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P34" s="16">
         <v>0</v>
@@ -5542,35 +5542,35 @@
         <v>20</v>
       </c>
       <c r="R34" s="17" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="S34" s="17" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="X34" s="16">
         <v>2</v>
       </c>
       <c r="Y34" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Z34" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA34" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="AC34" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="AD34" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="AE34" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="AA34" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB34" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="AC34" s="15" t="s">
-        <v>424</v>
-      </c>
-      <c r="AD34" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="AE34" s="18" t="s">
-        <v>64</v>
-      </c>
       <c r="AF34" s="16">
         <v>0</v>
       </c>
@@ -5584,15 +5584,15 @@
         <v>0</v>
       </c>
       <c r="AJ34" s="16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK34" s="19" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="35" spans="1:37" s="16" customFormat="1">
       <c r="A35" s="19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C35" s="16">
         <v>0</v>
@@ -5631,7 +5631,7 @@
         <v>2</v>
       </c>
       <c r="O35" s="16" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="P35" s="16">
         <v>0</v>
@@ -5640,35 +5640,35 @@
         <v>20</v>
       </c>
       <c r="R35" s="17" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="S35" s="17" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="X35" s="16">
         <v>2</v>
       </c>
       <c r="Y35" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Z35" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA35" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC35" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="AD35" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="AE35" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="AA35" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB35" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="AC35" s="15" t="s">
-        <v>424</v>
-      </c>
-      <c r="AD35" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="AE35" s="18" t="s">
-        <v>64</v>
-      </c>
       <c r="AF35" s="16">
         <v>0</v>
       </c>
@@ -5681,16 +5681,16 @@
       <c r="AI35" s="16">
         <v>0</v>
       </c>
-      <c r="AJ35" s="16">
-        <v>0</v>
+      <c r="AJ35" s="24">
+        <v>2</v>
       </c>
       <c r="AK35" s="19" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="36" spans="1:37" s="16" customFormat="1">
       <c r="A36" s="19" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C36" s="16">
         <v>0</v>
@@ -5729,7 +5729,7 @@
         <v>3</v>
       </c>
       <c r="O36" s="16" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="P36" s="16">
         <v>0</v>
@@ -5738,35 +5738,35 @@
         <v>20</v>
       </c>
       <c r="R36" s="17" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="S36" s="17" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="X36" s="16">
         <v>2</v>
       </c>
       <c r="Y36" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Z36" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA36" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="AC36" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="AD36" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="AE36" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="AA36" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB36" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="AC36" s="15" t="s">
-        <v>424</v>
-      </c>
-      <c r="AD36" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="AE36" s="18" t="s">
-        <v>64</v>
-      </c>
       <c r="AF36" s="16">
         <v>0</v>
       </c>
@@ -5780,15 +5780,15 @@
         <v>0</v>
       </c>
       <c r="AJ36" s="16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK36" s="19" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="37" spans="1:37" s="16" customFormat="1">
       <c r="A37" s="19" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C37" s="16">
         <v>0</v>
@@ -5827,7 +5827,7 @@
         <v>3</v>
       </c>
       <c r="O37" s="16" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P37" s="16">
         <v>0</v>
@@ -5836,35 +5836,35 @@
         <v>20</v>
       </c>
       <c r="R37" s="17" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="S37" s="17" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="X37" s="16">
         <v>2</v>
       </c>
       <c r="Y37" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Z37" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA37" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="AC37" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="AD37" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="AE37" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="AA37" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB37" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="AC37" s="15" t="s">
-        <v>424</v>
-      </c>
-      <c r="AD37" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="AE37" s="18" t="s">
-        <v>64</v>
-      </c>
       <c r="AF37" s="16">
         <v>0</v>
       </c>
@@ -5877,16 +5877,16 @@
       <c r="AI37" s="16">
         <v>0</v>
       </c>
-      <c r="AJ37" s="16">
-        <v>0</v>
+      <c r="AJ37" s="24">
+        <v>2</v>
       </c>
       <c r="AK37" s="19" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="38" spans="1:37" s="16" customFormat="1">
       <c r="A38" s="19" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C38" s="16">
         <v>0</v>
@@ -5925,7 +5925,7 @@
         <v>3</v>
       </c>
       <c r="O38" s="16" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="P38" s="16">
         <v>0</v>
@@ -5934,35 +5934,35 @@
         <v>20</v>
       </c>
       <c r="R38" s="17" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="S38" s="17" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="X38" s="16">
         <v>2</v>
       </c>
       <c r="Y38" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Z38" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA38" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="AC38" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="AD38" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="AE38" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="AA38" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB38" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="AC38" s="15" t="s">
-        <v>424</v>
-      </c>
-      <c r="AD38" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="AE38" s="18" t="s">
-        <v>64</v>
-      </c>
       <c r="AF38" s="16">
         <v>0</v>
       </c>
@@ -5976,15 +5976,15 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK38" s="19" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="39" spans="1:37" s="16" customFormat="1">
       <c r="A39" s="19" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C39" s="16">
         <v>0</v>
@@ -6023,7 +6023,7 @@
         <v>1</v>
       </c>
       <c r="O39" s="16" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="P39" s="16">
         <v>0</v>
@@ -6032,35 +6032,35 @@
         <v>20</v>
       </c>
       <c r="R39" s="17" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="S39" s="17" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="X39" s="16">
         <v>2</v>
       </c>
       <c r="Y39" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Z39" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA39" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="AC39" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="AD39" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="AE39" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="AA39" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB39" s="16" t="s">
-        <v>288</v>
-      </c>
-      <c r="AC39" s="15" t="s">
-        <v>424</v>
-      </c>
-      <c r="AD39" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="AE39" s="18" t="s">
-        <v>64</v>
-      </c>
       <c r="AF39" s="16">
         <v>0</v>
       </c>
@@ -6073,16 +6073,16 @@
       <c r="AI39" s="16">
         <v>0</v>
       </c>
-      <c r="AJ39" s="16">
-        <v>0</v>
+      <c r="AJ39" s="24">
+        <v>2</v>
       </c>
       <c r="AK39" s="19" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="40" spans="1:37" s="16" customFormat="1">
       <c r="A40" s="19" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C40" s="16">
         <v>0</v>
@@ -6121,7 +6121,7 @@
         <v>1</v>
       </c>
       <c r="O40" s="16" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="P40" s="16">
         <v>0</v>
@@ -6130,35 +6130,35 @@
         <v>20</v>
       </c>
       <c r="R40" s="17" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="S40" s="17" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="X40" s="16">
         <v>2</v>
       </c>
       <c r="Y40" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Z40" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA40" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="AC40" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="AD40" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="AE40" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="AA40" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB40" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="AC40" s="15" t="s">
-        <v>424</v>
-      </c>
-      <c r="AD40" s="16" t="s">
-        <v>292</v>
-      </c>
-      <c r="AE40" s="18" t="s">
-        <v>64</v>
-      </c>
       <c r="AF40" s="16">
         <v>0</v>
       </c>
@@ -6172,15 +6172,15 @@
         <v>0</v>
       </c>
       <c r="AJ40" s="16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK40" s="19" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="41" spans="1:37" s="16" customFormat="1">
       <c r="A41" s="19" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C41" s="16">
         <v>0</v>
@@ -6219,7 +6219,7 @@
         <v>1</v>
       </c>
       <c r="O41" s="16" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="P41" s="16">
         <v>0</v>
@@ -6228,35 +6228,35 @@
         <v>20</v>
       </c>
       <c r="R41" s="17" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="S41" s="17" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="X41" s="16">
         <v>2</v>
       </c>
       <c r="Y41" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Z41" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA41" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="AC41" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="AD41" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="AE41" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="AA41" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB41" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="AC41" s="15" t="s">
-        <v>424</v>
-      </c>
-      <c r="AD41" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="AE41" s="18" t="s">
-        <v>64</v>
-      </c>
       <c r="AF41" s="16">
         <v>0</v>
       </c>
@@ -6269,16 +6269,16 @@
       <c r="AI41" s="16">
         <v>0</v>
       </c>
-      <c r="AJ41" s="16">
-        <v>0</v>
+      <c r="AJ41" s="24">
+        <v>2</v>
       </c>
       <c r="AK41" s="19" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="42" spans="1:37" s="16" customFormat="1">
       <c r="A42" s="19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C42" s="16">
         <v>0</v>
@@ -6317,7 +6317,7 @@
         <v>2</v>
       </c>
       <c r="O42" s="16" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="P42" s="16">
         <v>0</v>
@@ -6326,35 +6326,35 @@
         <v>20</v>
       </c>
       <c r="R42" s="17" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="S42" s="17" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="X42" s="16">
         <v>2</v>
       </c>
       <c r="Y42" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Z42" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA42" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="AC42" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="AD42" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="AE42" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="AA42" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB42" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="AC42" s="15" t="s">
-        <v>424</v>
-      </c>
-      <c r="AD42" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="AE42" s="18" t="s">
-        <v>64</v>
-      </c>
       <c r="AF42" s="16">
         <v>0</v>
       </c>
@@ -6368,15 +6368,15 @@
         <v>0</v>
       </c>
       <c r="AJ42" s="16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK42" s="19" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="43" spans="1:37" s="16" customFormat="1">
       <c r="A43" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C43" s="16">
         <v>0</v>
@@ -6415,7 +6415,7 @@
         <v>2</v>
       </c>
       <c r="O43" s="16" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P43" s="16">
         <v>0</v>
@@ -6424,35 +6424,35 @@
         <v>20</v>
       </c>
       <c r="R43" s="17" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="S43" s="17" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="X43" s="16">
         <v>2</v>
       </c>
       <c r="Y43" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Z43" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA43" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="AC43" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="AD43" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="AE43" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="AA43" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB43" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="AC43" s="15" t="s">
-        <v>424</v>
-      </c>
-      <c r="AD43" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="AE43" s="18" t="s">
-        <v>64</v>
-      </c>
       <c r="AF43" s="16">
         <v>0</v>
       </c>
@@ -6465,16 +6465,16 @@
       <c r="AI43" s="16">
         <v>0</v>
       </c>
-      <c r="AJ43" s="16">
-        <v>0</v>
+      <c r="AJ43" s="24">
+        <v>2</v>
       </c>
       <c r="AK43" s="19" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="44" spans="1:37" s="16" customFormat="1">
       <c r="A44" s="19" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C44" s="16">
         <v>0</v>
@@ -6513,7 +6513,7 @@
         <v>2</v>
       </c>
       <c r="O44" s="16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="P44" s="16">
         <v>0</v>
@@ -6522,35 +6522,35 @@
         <v>20</v>
       </c>
       <c r="R44" s="17" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="S44" s="17" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="X44" s="16">
         <v>2</v>
       </c>
       <c r="Y44" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Z44" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA44" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC44" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="AD44" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="AE44" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="AA44" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB44" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="AC44" s="15" t="s">
-        <v>424</v>
-      </c>
-      <c r="AD44" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="AE44" s="18" t="s">
-        <v>64</v>
-      </c>
       <c r="AF44" s="16">
         <v>0</v>
       </c>
@@ -6564,15 +6564,15 @@
         <v>0</v>
       </c>
       <c r="AJ44" s="16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK44" s="19" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="45" spans="1:37" s="16" customFormat="1">
       <c r="A45" s="19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C45" s="16">
         <v>0</v>
@@ -6611,7 +6611,7 @@
         <v>2</v>
       </c>
       <c r="O45" s="16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="P45" s="16">
         <v>0</v>
@@ -6620,35 +6620,35 @@
         <v>20</v>
       </c>
       <c r="R45" s="17" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="S45" s="17" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="X45" s="16">
         <v>2</v>
       </c>
       <c r="Y45" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Z45" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA45" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="AC45" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="AD45" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="AE45" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="AA45" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB45" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="AC45" s="15" t="s">
-        <v>424</v>
-      </c>
-      <c r="AD45" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="AE45" s="18" t="s">
-        <v>64</v>
-      </c>
       <c r="AF45" s="16">
         <v>0</v>
       </c>
@@ -6661,16 +6661,16 @@
       <c r="AI45" s="16">
         <v>0</v>
       </c>
-      <c r="AJ45" s="16">
-        <v>0</v>
+      <c r="AJ45" s="24">
+        <v>2</v>
       </c>
       <c r="AK45" s="19" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="46" spans="1:37" s="16" customFormat="1">
       <c r="A46" s="19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C46" s="16">
         <v>0</v>
@@ -6709,7 +6709,7 @@
         <v>2</v>
       </c>
       <c r="O46" s="16" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="P46" s="16">
         <v>0</v>
@@ -6718,35 +6718,35 @@
         <v>20</v>
       </c>
       <c r="R46" s="17" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="S46" s="17" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="X46" s="16">
         <v>2</v>
       </c>
       <c r="Y46" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Z46" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA46" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="AC46" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="AD46" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="AE46" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="AA46" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB46" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="AC46" s="15" t="s">
-        <v>424</v>
-      </c>
-      <c r="AD46" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="AE46" s="18" t="s">
-        <v>64</v>
-      </c>
       <c r="AF46" s="16">
         <v>0</v>
       </c>
@@ -6760,15 +6760,15 @@
         <v>0</v>
       </c>
       <c r="AJ46" s="16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK46" s="19" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="47" spans="1:37" s="16" customFormat="1">
       <c r="A47" s="19" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C47" s="16">
         <v>0</v>
@@ -6807,7 +6807,7 @@
         <v>2</v>
       </c>
       <c r="O47" s="16" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="P47" s="16">
         <v>0</v>
@@ -6816,35 +6816,35 @@
         <v>20</v>
       </c>
       <c r="R47" s="17" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="S47" s="17" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="X47" s="16">
         <v>2</v>
       </c>
       <c r="Y47" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Z47" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA47" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC47" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="AD47" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="AE47" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="AA47" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB47" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="AC47" s="15" t="s">
-        <v>424</v>
-      </c>
-      <c r="AD47" s="16" t="s">
-        <v>267</v>
-      </c>
-      <c r="AE47" s="18" t="s">
-        <v>64</v>
-      </c>
       <c r="AF47" s="16">
         <v>0</v>
       </c>
@@ -6857,16 +6857,16 @@
       <c r="AI47" s="16">
         <v>0</v>
       </c>
-      <c r="AJ47" s="16">
-        <v>0</v>
+      <c r="AJ47" s="24">
+        <v>2</v>
       </c>
       <c r="AK47" s="19" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="48" spans="1:37" s="16" customFormat="1">
       <c r="A48" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C48" s="16">
         <v>0</v>
@@ -6905,7 +6905,7 @@
         <v>3</v>
       </c>
       <c r="O48" s="16" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P48" s="16">
         <v>0</v>
@@ -6914,35 +6914,35 @@
         <v>20</v>
       </c>
       <c r="R48" s="17" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="S48" s="17" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="X48" s="16">
         <v>2</v>
       </c>
       <c r="Y48" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Z48" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA48" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC48" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="AD48" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="AE48" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="AA48" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB48" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="AC48" s="15" t="s">
-        <v>424</v>
-      </c>
-      <c r="AD48" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="AE48" s="18" t="s">
-        <v>64</v>
-      </c>
       <c r="AF48" s="16">
         <v>0</v>
       </c>
@@ -6956,15 +6956,15 @@
         <v>0</v>
       </c>
       <c r="AJ48" s="16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK48" s="19" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="49" spans="1:37" s="16" customFormat="1">
       <c r="A49" s="19" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C49" s="16">
         <v>0</v>
@@ -7003,7 +7003,7 @@
         <v>3</v>
       </c>
       <c r="O49" s="16" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="P49" s="16">
         <v>0</v>
@@ -7012,35 +7012,35 @@
         <v>20</v>
       </c>
       <c r="R49" s="17" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="S49" s="17" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="X49" s="16">
         <v>2</v>
       </c>
       <c r="Y49" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Z49" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA49" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="AC49" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="AD49" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE49" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="AA49" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB49" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="AC49" s="15" t="s">
-        <v>424</v>
-      </c>
-      <c r="AD49" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="AE49" s="18" t="s">
-        <v>64</v>
-      </c>
       <c r="AF49" s="16">
         <v>0</v>
       </c>
@@ -7053,16 +7053,16 @@
       <c r="AI49" s="16">
         <v>0</v>
       </c>
-      <c r="AJ49" s="16">
-        <v>0</v>
+      <c r="AJ49" s="24">
+        <v>2</v>
       </c>
       <c r="AK49" s="19" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="50" spans="1:37" s="16" customFormat="1">
       <c r="A50" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C50" s="16">
         <v>0</v>
@@ -7101,7 +7101,7 @@
         <v>3</v>
       </c>
       <c r="O50" s="16" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="P50" s="16">
         <v>0</v>
@@ -7110,35 +7110,35 @@
         <v>20</v>
       </c>
       <c r="R50" s="17" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="S50" s="17" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="X50" s="16">
         <v>2</v>
       </c>
       <c r="Y50" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Z50" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA50" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="AC50" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="AD50" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="AE50" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="AA50" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB50" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="AC50" s="15" t="s">
-        <v>424</v>
-      </c>
-      <c r="AD50" s="16" t="s">
-        <v>270</v>
-      </c>
-      <c r="AE50" s="18" t="s">
-        <v>64</v>
-      </c>
       <c r="AF50" s="16">
         <v>0</v>
       </c>
@@ -7152,15 +7152,15 @@
         <v>0</v>
       </c>
       <c r="AJ50" s="16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK50" s="19" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="51" spans="1:37" s="16" customFormat="1">
       <c r="A51" s="19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C51" s="16">
         <v>0</v>
@@ -7199,7 +7199,7 @@
         <v>2</v>
       </c>
       <c r="O51" s="16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="P51" s="16">
         <v>0</v>
@@ -7208,35 +7208,35 @@
         <v>20</v>
       </c>
       <c r="R51" s="17" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="S51" s="17" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="X51" s="16">
         <v>2</v>
       </c>
       <c r="Y51" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Z51" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA51" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="AC51" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="AD51" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="AE51" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="AA51" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB51" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="AC51" s="15" t="s">
-        <v>424</v>
-      </c>
-      <c r="AD51" s="16" t="s">
-        <v>271</v>
-      </c>
-      <c r="AE51" s="18" t="s">
-        <v>64</v>
-      </c>
       <c r="AF51" s="16">
         <v>0</v>
       </c>
@@ -7249,16 +7249,16 @@
       <c r="AI51" s="16">
         <v>0</v>
       </c>
-      <c r="AJ51" s="16">
-        <v>0</v>
+      <c r="AJ51" s="24">
+        <v>2</v>
       </c>
       <c r="AK51" s="19" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="52" spans="1:37" s="16" customFormat="1">
       <c r="A52" s="19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C52" s="16">
         <v>0</v>
@@ -7297,7 +7297,7 @@
         <v>2</v>
       </c>
       <c r="O52" s="16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="P52" s="16">
         <v>0</v>
@@ -7306,35 +7306,35 @@
         <v>20</v>
       </c>
       <c r="R52" s="16" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="S52" s="17" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="X52" s="16">
         <v>2</v>
       </c>
       <c r="Y52" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Z52" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA52" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="AC52" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="AD52" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="AE52" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="AA52" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB52" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="AC52" s="15" t="s">
-        <v>424</v>
-      </c>
-      <c r="AD52" s="16" t="s">
-        <v>272</v>
-      </c>
-      <c r="AE52" s="18" t="s">
-        <v>64</v>
-      </c>
       <c r="AF52" s="16">
         <v>0</v>
       </c>
@@ -7348,15 +7348,15 @@
         <v>0</v>
       </c>
       <c r="AJ52" s="16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK52" s="19" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="53" spans="1:37" s="16" customFormat="1">
       <c r="A53" s="19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C53" s="16">
         <v>0</v>
@@ -7395,7 +7395,7 @@
         <v>2</v>
       </c>
       <c r="O53" s="16" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="P53" s="16">
         <v>0</v>
@@ -7404,35 +7404,35 @@
         <v>20</v>
       </c>
       <c r="R53" s="16" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S53" s="17" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="X53" s="16">
         <v>2</v>
       </c>
       <c r="Y53" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Z53" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA53" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC53" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="AD53" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="AE53" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="AA53" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB53" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="AC53" s="15" t="s">
-        <v>424</v>
-      </c>
-      <c r="AD53" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="AE53" s="18" t="s">
-        <v>64</v>
-      </c>
       <c r="AF53" s="16">
         <v>0</v>
       </c>
@@ -7445,16 +7445,16 @@
       <c r="AI53" s="16">
         <v>0</v>
       </c>
-      <c r="AJ53" s="16">
-        <v>0</v>
+      <c r="AJ53" s="24">
+        <v>2</v>
       </c>
       <c r="AK53" s="19" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="54" spans="1:37" s="16" customFormat="1">
       <c r="A54" s="19" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C54" s="16">
         <v>0</v>
@@ -7493,7 +7493,7 @@
         <v>3</v>
       </c>
       <c r="O54" s="16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="P54" s="16">
         <v>0</v>
@@ -7502,35 +7502,35 @@
         <v>20</v>
       </c>
       <c r="R54" s="16" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="S54" s="17" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="X54" s="16">
         <v>2</v>
       </c>
       <c r="Y54" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Z54" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA54" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="AC54" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="AD54" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="AE54" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="AA54" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB54" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="AC54" s="15" t="s">
-        <v>424</v>
-      </c>
-      <c r="AD54" s="16" t="s">
-        <v>274</v>
-      </c>
-      <c r="AE54" s="18" t="s">
-        <v>64</v>
-      </c>
       <c r="AF54" s="16">
         <v>0</v>
       </c>
@@ -7544,15 +7544,15 @@
         <v>0</v>
       </c>
       <c r="AJ54" s="16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK54" s="19" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="55" spans="1:37" s="16" customFormat="1">
       <c r="A55" s="19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C55" s="16">
         <v>0</v>
@@ -7591,7 +7591,7 @@
         <v>3</v>
       </c>
       <c r="O55" s="16" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="P55" s="16">
         <v>0</v>
@@ -7600,35 +7600,35 @@
         <v>20</v>
       </c>
       <c r="R55" s="16" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="S55" s="17" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="X55" s="16">
         <v>2</v>
       </c>
       <c r="Y55" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Z55" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA55" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="AC55" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="AD55" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="AE55" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="AA55" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB55" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="AC55" s="15" t="s">
-        <v>424</v>
-      </c>
-      <c r="AD55" s="16" t="s">
-        <v>275</v>
-      </c>
-      <c r="AE55" s="18" t="s">
-        <v>64</v>
-      </c>
       <c r="AF55" s="16">
         <v>0</v>
       </c>
@@ -7641,16 +7641,16 @@
       <c r="AI55" s="16">
         <v>0</v>
       </c>
-      <c r="AJ55" s="16">
-        <v>0</v>
+      <c r="AJ55" s="24">
+        <v>2</v>
       </c>
       <c r="AK55" s="19" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="56" spans="1:37" s="16" customFormat="1">
       <c r="A56" s="19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C56" s="16">
         <v>0</v>
@@ -7689,7 +7689,7 @@
         <v>3</v>
       </c>
       <c r="O56" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="P56" s="16">
         <v>0</v>
@@ -7698,35 +7698,35 @@
         <v>20</v>
       </c>
       <c r="R56" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="S56" s="17" t="s">
         <v>355</v>
       </c>
-      <c r="S56" s="17" t="s">
-        <v>357</v>
-      </c>
       <c r="X56" s="16">
         <v>2</v>
       </c>
       <c r="Y56" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Z56" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA56" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB56" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="AC56" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="AD56" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="AE56" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="AA56" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB56" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="AC56" s="15" t="s">
-        <v>424</v>
-      </c>
-      <c r="AD56" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="AE56" s="18" t="s">
-        <v>64</v>
-      </c>
       <c r="AF56" s="16">
         <v>0</v>
       </c>
@@ -7740,15 +7740,15 @@
         <v>0</v>
       </c>
       <c r="AJ56" s="16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK56" s="19" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="57" spans="1:37" s="16" customFormat="1">
       <c r="A57" s="19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C57" s="16">
         <v>0</v>
@@ -7787,7 +7787,7 @@
         <v>2</v>
       </c>
       <c r="O57" s="16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="P57" s="16">
         <v>0</v>
@@ -7796,35 +7796,35 @@
         <v>20</v>
       </c>
       <c r="R57" s="16" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="S57" s="17" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="X57" s="16">
         <v>2</v>
       </c>
       <c r="Y57" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Z57" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA57" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="AC57" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="AD57" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="AE57" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="AA57" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB57" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="AC57" s="15" t="s">
-        <v>424</v>
-      </c>
-      <c r="AD57" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="AE57" s="18" t="s">
-        <v>64</v>
-      </c>
       <c r="AF57" s="16">
         <v>0</v>
       </c>
@@ -7837,16 +7837,16 @@
       <c r="AI57" s="16">
         <v>0</v>
       </c>
-      <c r="AJ57" s="16">
-        <v>0</v>
+      <c r="AJ57" s="24">
+        <v>2</v>
       </c>
       <c r="AK57" s="19" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="58" spans="1:37" s="16" customFormat="1" ht="13.9" thickBot="1">
       <c r="A58" s="19" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C58" s="16">
         <v>0</v>
@@ -7885,7 +7885,7 @@
         <v>2</v>
       </c>
       <c r="O58" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="P58" s="16">
         <v>0</v>
@@ -7894,35 +7894,35 @@
         <v>20</v>
       </c>
       <c r="R58" s="16" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="S58" s="17" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="X58" s="16">
         <v>2</v>
       </c>
       <c r="Y58" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Z58" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA58" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="AC58" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="AD58" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="AE58" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="AA58" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB58" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="AC58" s="15" t="s">
-        <v>424</v>
-      </c>
-      <c r="AD58" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="AE58" s="18" t="s">
-        <v>64</v>
-      </c>
       <c r="AF58" s="16">
         <v>0</v>
       </c>
@@ -7936,15 +7936,15 @@
         <v>0</v>
       </c>
       <c r="AJ58" s="16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK58" s="20" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="59" spans="1:37" s="21" customFormat="1" ht="13.9" thickBot="1">
       <c r="A59" s="20" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C59" s="21">
         <v>0</v>
@@ -7983,7 +7983,7 @@
         <v>2</v>
       </c>
       <c r="O59" s="16" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="P59" s="21">
         <v>0</v>
@@ -7992,35 +7992,35 @@
         <v>20</v>
       </c>
       <c r="R59" s="16" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="S59" s="17" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="X59" s="21">
         <v>2</v>
       </c>
       <c r="Y59" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Z59" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA59" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="AC59" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="AD59" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="AE59" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="AA59" s="21">
-        <v>0</v>
-      </c>
-      <c r="AB59" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="AC59" s="15" t="s">
-        <v>424</v>
-      </c>
-      <c r="AD59" s="21" t="s">
-        <v>279</v>
-      </c>
-      <c r="AE59" s="22" t="s">
-        <v>64</v>
-      </c>
       <c r="AF59" s="21">
         <v>0</v>
       </c>
@@ -8033,16 +8033,16 @@
       <c r="AI59" s="21">
         <v>0</v>
       </c>
-      <c r="AJ59" s="21">
-        <v>0</v>
+      <c r="AJ59" s="24">
+        <v>2</v>
       </c>
       <c r="AK59" s="19" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="60" spans="1:37" s="16" customFormat="1">
       <c r="A60" s="19" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C60" s="16">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>2</v>
       </c>
       <c r="O60" s="16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="P60" s="16">
         <v>0</v>
@@ -8090,35 +8090,35 @@
         <v>20</v>
       </c>
       <c r="R60" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="S60" s="17" t="s">
         <v>355</v>
       </c>
-      <c r="S60" s="17" t="s">
-        <v>357</v>
-      </c>
       <c r="X60" s="16">
         <v>2</v>
       </c>
       <c r="Y60" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Z60" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA60" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="AC60" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="AD60" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="AE60" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="AA60" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB60" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="AC60" s="15" t="s">
-        <v>424</v>
-      </c>
-      <c r="AD60" s="16" t="s">
-        <v>280</v>
-      </c>
-      <c r="AE60" s="18" t="s">
-        <v>64</v>
-      </c>
       <c r="AF60" s="16">
         <v>0</v>
       </c>
@@ -8132,15 +8132,15 @@
         <v>0</v>
       </c>
       <c r="AJ60" s="16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK60" s="19" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="61" spans="1:37" s="16" customFormat="1" ht="13.9" thickBot="1">
       <c r="A61" s="19" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C61" s="16">
         <v>0</v>
@@ -8179,7 +8179,7 @@
         <v>2</v>
       </c>
       <c r="O61" s="16" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="P61" s="16">
         <v>0</v>
@@ -8188,35 +8188,35 @@
         <v>20</v>
       </c>
       <c r="R61" s="16" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="S61" s="17" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="X61" s="16">
         <v>2</v>
       </c>
       <c r="Y61" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Z61" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA61" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="AC61" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="AD61" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="AE61" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="AA61" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB61" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="AC61" s="15" t="s">
-        <v>424</v>
-      </c>
-      <c r="AD61" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="AE61" s="18" t="s">
-        <v>64</v>
-      </c>
       <c r="AF61" s="16">
         <v>0</v>
       </c>
@@ -8229,16 +8229,16 @@
       <c r="AI61" s="16">
         <v>0</v>
       </c>
-      <c r="AJ61" s="16">
-        <v>0</v>
+      <c r="AJ61" s="24">
+        <v>2</v>
       </c>
       <c r="AK61" s="20" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="62" spans="1:37" s="21" customFormat="1" ht="13.9" thickBot="1">
       <c r="A62" s="20" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C62" s="21">
         <v>0</v>
@@ -8277,7 +8277,7 @@
         <v>2</v>
       </c>
       <c r="O62" s="16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="P62" s="21">
         <v>0</v>
@@ -8286,35 +8286,35 @@
         <v>20</v>
       </c>
       <c r="R62" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="S62" s="17" t="s">
         <v>355</v>
       </c>
-      <c r="S62" s="17" t="s">
-        <v>357</v>
-      </c>
       <c r="X62" s="21">
         <v>2</v>
       </c>
       <c r="Y62" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Z62" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA62" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="AC62" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="AD62" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="AE62" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="AA62" s="21">
-        <v>0</v>
-      </c>
-      <c r="AB62" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="AC62" s="15" t="s">
-        <v>424</v>
-      </c>
-      <c r="AD62" s="21" t="s">
-        <v>282</v>
-      </c>
-      <c r="AE62" s="22" t="s">
-        <v>64</v>
-      </c>
       <c r="AF62" s="21">
         <v>0</v>
       </c>
@@ -8327,11 +8327,11 @@
       <c r="AI62" s="21">
         <v>0</v>
       </c>
-      <c r="AJ62" s="21">
-        <v>0</v>
+      <c r="AJ62" s="16">
+        <v>2</v>
       </c>
       <c r="AK62" s="21" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -8365,188 +8365,188 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:30" s="2" customFormat="1">
       <c r="A2" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:30" s="2" customFormat="1">
       <c r="A3" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -8638,7 +8638,7 @@
     </row>
     <row r="4" spans="1:30" s="2" customFormat="1">
       <c r="A4" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
@@ -8730,7 +8730,7 @@
     </row>
     <row r="5" spans="1:30" s="2" customFormat="1">
       <c r="A5" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -8822,7 +8822,7 @@
     </row>
     <row r="6" spans="1:30" s="2" customFormat="1">
       <c r="A6" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
@@ -8914,7 +8914,7 @@
     </row>
     <row r="7" spans="1:30" s="3" customFormat="1">
       <c r="A7" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="3">
         <v>0</v>
@@ -9006,7 +9006,7 @@
     </row>
     <row r="8" spans="1:30" s="3" customFormat="1">
       <c r="A8" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -9098,7 +9098,7 @@
     </row>
     <row r="9" spans="1:30" s="3" customFormat="1">
       <c r="A9" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
@@ -9190,94 +9190,94 @@
     </row>
     <row r="10" spans="1:30" s="4" customFormat="1" ht="54">
       <c r="A10" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="E10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="4" t="s">
+      <c r="J10" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="K10" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="L10" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="M10" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="N10" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="O10" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="N10" s="4" t="s">
+      <c r="P10" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="O10" s="4" t="s">
+      <c r="Q10" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="P10" s="4" t="s">
+      <c r="R10" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="Q10" s="4" t="s">
+      <c r="S10" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="R10" s="4" t="s">
+      <c r="T10" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="S10" s="4" t="s">
+      <c r="U10" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="T10" s="4" t="s">
+      <c r="V10" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="U10" s="4" t="s">
+      <c r="W10" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="V10" s="4" t="s">
+      <c r="X10" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="W10" s="4" t="s">
+      <c r="Y10" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="X10" s="4" t="s">
+      <c r="Z10" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="Y10" s="4" t="s">
+      <c r="AA10" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="Z10" s="4" t="s">
+      <c r="AB10" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="AA10" s="4" t="s">
+      <c r="AC10" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="AB10" s="4" t="s">
+      <c r="AD10" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="AC10" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD10" s="4" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:30">

--- a/_Out/NFDataCfg/Excel/NPC.xlsx
+++ b/_Out/NFDataCfg/Excel/NPC.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="424">
   <si>
     <t>Id</t>
   </si>
@@ -216,9 +216,6 @@
   </si>
   <si>
     <t>ConsumeData_1</t>
-  </si>
-  <si>
-    <t>UIResources/Sprites/Item</t>
   </si>
   <si>
     <t>UI/Hero/hero_tx_mul</t>
@@ -1554,7 +1551,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1590,9 +1587,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -2041,9 +2035,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AI10" sqref="AI10"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AC11" sqref="AC11:AC22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2086,7 +2080,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -2104,7 +2098,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>8</v>
@@ -2113,7 +2107,7 @@
         <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>13</v>
@@ -2122,7 +2116,7 @@
         <v>10</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>11</v>
@@ -2131,19 +2125,19 @@
         <v>12</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>13</v>
@@ -2170,7 +2164,7 @@
         <v>20</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AG1" s="1" t="s">
         <v>21</v>
@@ -2179,13 +2173,13 @@
         <v>22</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AJ1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="2" spans="1:37" s="2" customFormat="1" ht="14.25">
@@ -2868,7 +2862,7 @@
     </row>
     <row r="8" spans="1:37" s="3" customFormat="1">
       <c r="A8" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -3133,7 +3127,7 @@
         <v>47</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="T10" s="4" t="s">
         <v>48</v>
@@ -3172,7 +3166,7 @@
         <v>55</v>
       </c>
       <c r="AF10" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AG10" s="4" t="s">
         <v>56</v>
@@ -3181,13 +3175,13 @@
         <v>57</v>
       </c>
       <c r="AI10" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AJ10" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AK10" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:37" ht="13.9" thickBot="1">
@@ -3231,7 +3225,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -3239,11 +3233,11 @@
       <c r="Q11">
         <v>20</v>
       </c>
-      <c r="R11" s="35" t="s">
-        <v>331</v>
-      </c>
-      <c r="S11" s="35" t="s">
-        <v>355</v>
+      <c r="R11" s="34" t="s">
+        <v>330</v>
+      </c>
+      <c r="S11" s="34" t="s">
+        <v>354</v>
       </c>
       <c r="X11">
         <v>2</v>
@@ -3257,17 +3251,17 @@
       <c r="AA11">
         <v>0</v>
       </c>
-      <c r="AB11" s="36" t="s">
-        <v>326</v>
-      </c>
-      <c r="AC11" s="12" t="s">
-        <v>61</v>
+      <c r="AB11" s="35" t="s">
+        <v>325</v>
+      </c>
+      <c r="AC11" s="30" t="s">
+        <v>324</v>
       </c>
       <c r="AD11" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AE11" s="13" t="s">
-        <v>62</v>
+      <c r="AE11" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -3290,7 +3284,7 @@
     </row>
     <row r="12" spans="1:37" ht="13.9" thickBot="1">
       <c r="A12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -3329,7 +3323,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -3337,11 +3331,11 @@
       <c r="Q12">
         <v>20</v>
       </c>
-      <c r="R12" s="35" t="s">
-        <v>332</v>
-      </c>
-      <c r="S12" s="35" t="s">
-        <v>357</v>
+      <c r="R12" s="34" t="s">
+        <v>331</v>
+      </c>
+      <c r="S12" s="34" t="s">
+        <v>356</v>
       </c>
       <c r="X12">
         <v>2</v>
@@ -3355,18 +3349,18 @@
       <c r="AA12">
         <v>0</v>
       </c>
-      <c r="AB12" s="36" t="s">
-        <v>326</v>
-      </c>
-      <c r="AC12" s="12" t="s">
+      <c r="AB12" s="35" t="s">
+        <v>325</v>
+      </c>
+      <c r="AC12" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>305</v>
+      </c>
+      <c r="AE12" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="AD12" t="s">
-        <v>306</v>
-      </c>
-      <c r="AE12" s="13" t="s">
-        <v>62</v>
-      </c>
       <c r="AF12">
         <v>0</v>
       </c>
@@ -3383,12 +3377,12 @@
         <v>0</v>
       </c>
       <c r="AK12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="13" spans="1:37" ht="13.9" thickBot="1">
       <c r="A13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -3427,7 +3421,7 @@
         <v>2</v>
       </c>
       <c r="O13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -3435,11 +3429,11 @@
       <c r="Q13">
         <v>20</v>
       </c>
-      <c r="R13" s="35" t="s">
-        <v>333</v>
-      </c>
-      <c r="S13" s="35" t="s">
-        <v>358</v>
+      <c r="R13" s="34" t="s">
+        <v>332</v>
+      </c>
+      <c r="S13" s="34" t="s">
+        <v>357</v>
       </c>
       <c r="X13">
         <v>2</v>
@@ -3453,18 +3447,18 @@
       <c r="AA13">
         <v>0</v>
       </c>
-      <c r="AB13" s="36" t="s">
-        <v>326</v>
-      </c>
-      <c r="AC13" s="12" t="s">
+      <c r="AB13" s="35" t="s">
+        <v>325</v>
+      </c>
+      <c r="AC13" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>304</v>
+      </c>
+      <c r="AE13" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="AD13" t="s">
-        <v>305</v>
-      </c>
-      <c r="AE13" s="13" t="s">
-        <v>62</v>
-      </c>
       <c r="AF13">
         <v>0</v>
       </c>
@@ -3481,12 +3475,12 @@
         <v>0</v>
       </c>
       <c r="AK13" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="14" spans="1:37" ht="13.9" thickBot="1">
       <c r="A14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -3525,7 +3519,7 @@
         <v>2</v>
       </c>
       <c r="O14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -3533,11 +3527,11 @@
       <c r="Q14">
         <v>20</v>
       </c>
-      <c r="R14" s="35" t="s">
-        <v>334</v>
-      </c>
-      <c r="S14" s="35" t="s">
-        <v>359</v>
+      <c r="R14" s="34" t="s">
+        <v>333</v>
+      </c>
+      <c r="S14" s="34" t="s">
+        <v>358</v>
       </c>
       <c r="X14">
         <v>2</v>
@@ -3551,18 +3545,18 @@
       <c r="AA14">
         <v>0</v>
       </c>
-      <c r="AB14" s="36" t="s">
-        <v>326</v>
-      </c>
-      <c r="AC14" s="12" t="s">
+      <c r="AB14" s="35" t="s">
+        <v>325</v>
+      </c>
+      <c r="AC14" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE14" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="AD14" t="s">
-        <v>304</v>
-      </c>
-      <c r="AE14" s="13" t="s">
-        <v>62</v>
-      </c>
       <c r="AF14">
         <v>0</v>
       </c>
@@ -3579,12 +3573,12 @@
         <v>0</v>
       </c>
       <c r="AK14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="15" spans="1:37" ht="13.9" thickBot="1">
       <c r="A15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -3623,7 +3617,7 @@
         <v>2</v>
       </c>
       <c r="O15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -3631,11 +3625,11 @@
       <c r="Q15">
         <v>20</v>
       </c>
-      <c r="R15" s="35" t="s">
-        <v>335</v>
-      </c>
-      <c r="S15" s="35" t="s">
-        <v>360</v>
+      <c r="R15" s="34" t="s">
+        <v>334</v>
+      </c>
+      <c r="S15" s="34" t="s">
+        <v>359</v>
       </c>
       <c r="X15">
         <v>2</v>
@@ -3649,18 +3643,18 @@
       <c r="AA15">
         <v>0</v>
       </c>
-      <c r="AB15" s="36" t="s">
-        <v>326</v>
-      </c>
-      <c r="AC15" s="12" t="s">
+      <c r="AB15" s="35" t="s">
+        <v>325</v>
+      </c>
+      <c r="AC15" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>302</v>
+      </c>
+      <c r="AE15" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="AD15" t="s">
-        <v>303</v>
-      </c>
-      <c r="AE15" s="13" t="s">
-        <v>62</v>
-      </c>
       <c r="AF15">
         <v>0</v>
       </c>
@@ -3677,12 +3671,12 @@
         <v>0</v>
       </c>
       <c r="AK15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="16" spans="1:37" ht="13.9" thickBot="1">
       <c r="A16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -3721,7 +3715,7 @@
         <v>2</v>
       </c>
       <c r="O16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -3729,11 +3723,11 @@
       <c r="Q16">
         <v>20</v>
       </c>
-      <c r="R16" s="35" t="s">
-        <v>336</v>
-      </c>
-      <c r="S16" s="35" t="s">
-        <v>361</v>
+      <c r="R16" s="34" t="s">
+        <v>335</v>
+      </c>
+      <c r="S16" s="34" t="s">
+        <v>360</v>
       </c>
       <c r="X16">
         <v>2</v>
@@ -3747,18 +3741,18 @@
       <c r="AA16">
         <v>0</v>
       </c>
-      <c r="AB16" s="36" t="s">
-        <v>326</v>
-      </c>
-      <c r="AC16" s="12" t="s">
+      <c r="AB16" s="35" t="s">
+        <v>325</v>
+      </c>
+      <c r="AC16" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>301</v>
+      </c>
+      <c r="AE16" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="AD16" t="s">
-        <v>302</v>
-      </c>
-      <c r="AE16" s="13" t="s">
-        <v>62</v>
-      </c>
       <c r="AF16">
         <v>0</v>
       </c>
@@ -3775,12 +3769,12 @@
         <v>0</v>
       </c>
       <c r="AK16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:37" ht="13.9" thickBot="1">
       <c r="A17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -3819,7 +3813,7 @@
         <v>2</v>
       </c>
       <c r="O17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -3827,11 +3821,11 @@
       <c r="Q17">
         <v>20</v>
       </c>
-      <c r="R17" s="35" t="s">
-        <v>337</v>
-      </c>
-      <c r="S17" s="35" t="s">
-        <v>362</v>
+      <c r="R17" s="34" t="s">
+        <v>336</v>
+      </c>
+      <c r="S17" s="34" t="s">
+        <v>361</v>
       </c>
       <c r="X17">
         <v>2</v>
@@ -3845,18 +3839,18 @@
       <c r="AA17">
         <v>0</v>
       </c>
-      <c r="AB17" s="36" t="s">
-        <v>326</v>
-      </c>
-      <c r="AC17" s="12" t="s">
+      <c r="AB17" s="35" t="s">
+        <v>325</v>
+      </c>
+      <c r="AC17" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>299</v>
+      </c>
+      <c r="AE17" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="AD17" t="s">
-        <v>300</v>
-      </c>
-      <c r="AE17" s="13" t="s">
-        <v>62</v>
-      </c>
       <c r="AF17">
         <v>0</v>
       </c>
@@ -3873,12 +3867,12 @@
         <v>0</v>
       </c>
       <c r="AK17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="18" spans="1:37" ht="13.9" thickBot="1">
       <c r="A18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -3917,7 +3911,7 @@
         <v>2</v>
       </c>
       <c r="O18" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -3925,11 +3919,11 @@
       <c r="Q18">
         <v>20</v>
       </c>
-      <c r="R18" s="35" t="s">
-        <v>338</v>
-      </c>
-      <c r="S18" s="35" t="s">
-        <v>363</v>
+      <c r="R18" s="34" t="s">
+        <v>337</v>
+      </c>
+      <c r="S18" s="34" t="s">
+        <v>362</v>
       </c>
       <c r="X18">
         <v>2</v>
@@ -3943,18 +3937,18 @@
       <c r="AA18">
         <v>0</v>
       </c>
-      <c r="AB18" s="36" t="s">
-        <v>326</v>
-      </c>
-      <c r="AC18" s="12" t="s">
+      <c r="AB18" s="35" t="s">
+        <v>325</v>
+      </c>
+      <c r="AC18" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>300</v>
+      </c>
+      <c r="AE18" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="AD18" t="s">
-        <v>301</v>
-      </c>
-      <c r="AE18" s="13" t="s">
-        <v>62</v>
-      </c>
       <c r="AF18">
         <v>0</v>
       </c>
@@ -3971,12 +3965,12 @@
         <v>0</v>
       </c>
       <c r="AK18" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="19" spans="1:37" ht="13.9" thickBot="1">
       <c r="A19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -4015,7 +4009,7 @@
         <v>2</v>
       </c>
       <c r="O19" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -4023,11 +4017,11 @@
       <c r="Q19">
         <v>20</v>
       </c>
-      <c r="R19" s="35" t="s">
-        <v>339</v>
-      </c>
-      <c r="S19" s="35" t="s">
-        <v>364</v>
+      <c r="R19" s="34" t="s">
+        <v>338</v>
+      </c>
+      <c r="S19" s="34" t="s">
+        <v>363</v>
       </c>
       <c r="X19">
         <v>2</v>
@@ -4041,18 +4035,18 @@
       <c r="AA19">
         <v>0</v>
       </c>
-      <c r="AB19" s="36" t="s">
-        <v>326</v>
-      </c>
-      <c r="AC19" s="12" t="s">
+      <c r="AB19" s="35" t="s">
+        <v>325</v>
+      </c>
+      <c r="AC19" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>298</v>
+      </c>
+      <c r="AE19" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="AD19" t="s">
-        <v>299</v>
-      </c>
-      <c r="AE19" s="13" t="s">
-        <v>62</v>
-      </c>
       <c r="AF19">
         <v>0</v>
       </c>
@@ -4069,12 +4063,12 @@
         <v>0</v>
       </c>
       <c r="AK19" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="20" spans="1:37" ht="13.9" thickBot="1">
       <c r="A20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -4113,7 +4107,7 @@
         <v>2</v>
       </c>
       <c r="O20" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -4121,11 +4115,11 @@
       <c r="Q20">
         <v>20</v>
       </c>
-      <c r="R20" s="35" t="s">
-        <v>340</v>
-      </c>
-      <c r="S20" s="35" t="s">
-        <v>365</v>
+      <c r="R20" s="34" t="s">
+        <v>339</v>
+      </c>
+      <c r="S20" s="34" t="s">
+        <v>364</v>
       </c>
       <c r="X20">
         <v>2</v>
@@ -4139,18 +4133,18 @@
       <c r="AA20">
         <v>0</v>
       </c>
-      <c r="AB20" s="36" t="s">
-        <v>326</v>
-      </c>
-      <c r="AC20" s="12" t="s">
+      <c r="AB20" s="35" t="s">
+        <v>325</v>
+      </c>
+      <c r="AC20" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>297</v>
+      </c>
+      <c r="AE20" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="AD20" t="s">
-        <v>298</v>
-      </c>
-      <c r="AE20" s="13" t="s">
-        <v>62</v>
-      </c>
       <c r="AF20">
         <v>0</v>
       </c>
@@ -4167,12 +4161,12 @@
         <v>0</v>
       </c>
       <c r="AK20" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="21" spans="1:37" ht="13.9" thickBot="1">
       <c r="A21" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -4211,7 +4205,7 @@
         <v>2</v>
       </c>
       <c r="O21" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -4219,11 +4213,11 @@
       <c r="Q21">
         <v>20</v>
       </c>
-      <c r="R21" s="35" t="s">
-        <v>341</v>
-      </c>
-      <c r="S21" s="35" t="s">
-        <v>366</v>
+      <c r="R21" s="34" t="s">
+        <v>340</v>
+      </c>
+      <c r="S21" s="34" t="s">
+        <v>365</v>
       </c>
       <c r="X21">
         <v>2</v>
@@ -4237,18 +4231,18 @@
       <c r="AA21">
         <v>0</v>
       </c>
-      <c r="AB21" s="36" t="s">
-        <v>326</v>
-      </c>
-      <c r="AC21" s="12" t="s">
+      <c r="AB21" s="35" t="s">
+        <v>325</v>
+      </c>
+      <c r="AC21" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>296</v>
+      </c>
+      <c r="AE21" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="AD21" t="s">
-        <v>297</v>
-      </c>
-      <c r="AE21" s="13" t="s">
-        <v>62</v>
-      </c>
       <c r="AF21">
         <v>0</v>
       </c>
@@ -4265,12 +4259,12 @@
         <v>0</v>
       </c>
       <c r="AK21" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="22" spans="1:37" ht="13.9" thickBot="1">
       <c r="A22" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -4309,7 +4303,7 @@
         <v>2</v>
       </c>
       <c r="O22" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -4317,11 +4311,11 @@
       <c r="Q22">
         <v>20</v>
       </c>
-      <c r="R22" s="35" t="s">
-        <v>342</v>
-      </c>
-      <c r="S22" s="35" t="s">
-        <v>366</v>
+      <c r="R22" s="34" t="s">
+        <v>341</v>
+      </c>
+      <c r="S22" s="34" t="s">
+        <v>365</v>
       </c>
       <c r="X22">
         <v>2</v>
@@ -4335,4003 +4329,4003 @@
       <c r="AA22">
         <v>0</v>
       </c>
-      <c r="AB22" s="36" t="s">
+      <c r="AB22" s="35" t="s">
+        <v>325</v>
+      </c>
+      <c r="AC22" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>295</v>
+      </c>
+      <c r="AE22" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="37" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" s="28" customFormat="1" ht="13.9" thickBot="1">
+      <c r="A23" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="28">
+        <v>0</v>
+      </c>
+      <c r="D23" s="28">
+        <v>100</v>
+      </c>
+      <c r="E23" s="28">
+        <v>100</v>
+      </c>
+      <c r="F23" s="28">
+        <v>0</v>
+      </c>
+      <c r="G23" s="28">
+        <v>0</v>
+      </c>
+      <c r="H23" s="28">
+        <v>0</v>
+      </c>
+      <c r="I23" s="28">
+        <v>0</v>
+      </c>
+      <c r="J23" s="28">
+        <v>0</v>
+      </c>
+      <c r="K23" s="28">
+        <v>0</v>
+      </c>
+      <c r="L23" s="28">
+        <v>0</v>
+      </c>
+      <c r="M23" s="28">
+        <v>0</v>
+      </c>
+      <c r="N23" s="28">
+        <v>2</v>
+      </c>
+      <c r="O23" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="P23" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="28">
+        <v>20</v>
+      </c>
+      <c r="R23" s="33" t="s">
+        <v>342</v>
+      </c>
+      <c r="S23" s="33" t="s">
+        <v>354</v>
+      </c>
+      <c r="T23" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="U23" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="V23" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="W23" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="X23" s="28">
+        <v>2</v>
+      </c>
+      <c r="Y23" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z23" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA23" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="AC23" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="AD23" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE23" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF23" s="28">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="28">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="28">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="28">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="28">
+        <v>1</v>
+      </c>
+      <c r="AK23" s="32" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37" s="25" customFormat="1" ht="13.9" thickBot="1">
+      <c r="A24" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="25">
+        <v>0</v>
+      </c>
+      <c r="D24" s="28">
+        <v>100</v>
+      </c>
+      <c r="E24" s="28">
+        <v>100</v>
+      </c>
+      <c r="F24" s="25">
+        <v>0</v>
+      </c>
+      <c r="G24" s="25">
+        <v>0</v>
+      </c>
+      <c r="H24" s="25">
+        <v>0</v>
+      </c>
+      <c r="I24" s="25">
+        <v>0</v>
+      </c>
+      <c r="J24" s="25">
+        <v>0</v>
+      </c>
+      <c r="K24" s="25">
+        <v>0</v>
+      </c>
+      <c r="L24" s="25">
+        <v>0</v>
+      </c>
+      <c r="M24" s="25">
+        <v>0</v>
+      </c>
+      <c r="N24" s="28">
+        <v>2</v>
+      </c>
+      <c r="O24" s="25" t="s">
+        <v>319</v>
+      </c>
+      <c r="P24" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="25">
+        <v>20</v>
+      </c>
+      <c r="R24" s="33" t="s">
+        <v>343</v>
+      </c>
+      <c r="S24" s="33" t="s">
+        <v>356</v>
+      </c>
+      <c r="T24" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="U24" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="V24" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="W24" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="X24" s="25">
+        <v>2</v>
+      </c>
+      <c r="Y24" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z24" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA24" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="25" t="s">
         <v>326</v>
       </c>
-      <c r="AC22" s="12" t="s">
+      <c r="AC24" s="26" t="s">
+        <v>324</v>
+      </c>
+      <c r="AD24" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE24" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF24" s="25">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="25">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="25">
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="25">
+        <v>1</v>
+      </c>
+      <c r="AK24" s="32" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37" s="25" customFormat="1" ht="13.9" thickBot="1">
+      <c r="A25" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="25">
+        <v>0</v>
+      </c>
+      <c r="D25" s="28">
+        <v>100</v>
+      </c>
+      <c r="E25" s="28">
+        <v>100</v>
+      </c>
+      <c r="F25" s="25">
+        <v>0</v>
+      </c>
+      <c r="G25" s="25">
+        <v>0</v>
+      </c>
+      <c r="H25" s="25">
+        <v>0</v>
+      </c>
+      <c r="I25" s="25">
+        <v>0</v>
+      </c>
+      <c r="J25" s="25">
+        <v>0</v>
+      </c>
+      <c r="K25" s="25">
+        <v>0</v>
+      </c>
+      <c r="L25" s="25">
+        <v>0</v>
+      </c>
+      <c r="M25" s="25">
+        <v>0</v>
+      </c>
+      <c r="N25" s="28">
+        <v>2</v>
+      </c>
+      <c r="O25" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="P25" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="25">
+        <v>20</v>
+      </c>
+      <c r="R25" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="S25" s="33" t="s">
+        <v>357</v>
+      </c>
+      <c r="T25" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="U25" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="V25" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="W25" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="X25" s="25">
+        <v>2</v>
+      </c>
+      <c r="Y25" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z25" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA25" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="AC25" s="26" t="s">
+        <v>324</v>
+      </c>
+      <c r="AD25" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE25" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF25" s="25">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="25">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="25">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="25">
+        <v>1</v>
+      </c>
+      <c r="AK25" s="32" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37" s="25" customFormat="1">
+      <c r="A26" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="C26" s="25">
+        <v>0</v>
+      </c>
+      <c r="D26" s="28">
+        <v>100</v>
+      </c>
+      <c r="E26" s="28">
+        <v>100</v>
+      </c>
+      <c r="F26" s="25">
+        <v>0</v>
+      </c>
+      <c r="G26" s="25">
+        <v>0</v>
+      </c>
+      <c r="H26" s="25">
+        <v>0</v>
+      </c>
+      <c r="I26" s="25">
+        <v>0</v>
+      </c>
+      <c r="J26" s="25">
+        <v>0</v>
+      </c>
+      <c r="K26" s="25">
+        <v>0</v>
+      </c>
+      <c r="L26" s="25">
+        <v>0</v>
+      </c>
+      <c r="M26" s="25">
+        <v>0</v>
+      </c>
+      <c r="N26" s="28">
+        <v>2</v>
+      </c>
+      <c r="O26" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="P26" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="25">
+        <v>20</v>
+      </c>
+      <c r="R26" s="33" t="s">
+        <v>345</v>
+      </c>
+      <c r="S26" s="33" t="s">
+        <v>358</v>
+      </c>
+      <c r="T26" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="U26" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="V26" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="W26" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="X26" s="25">
+        <v>2</v>
+      </c>
+      <c r="Y26" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z26" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA26" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="25" t="s">
+        <v>328</v>
+      </c>
+      <c r="AC26" s="26" t="s">
+        <v>324</v>
+      </c>
+      <c r="AD26" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="AE26" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="AF26" s="25">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="25">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="25">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="25">
+        <v>1</v>
+      </c>
+      <c r="AK26" s="36" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37" s="23" customFormat="1">
+      <c r="A27" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="C27" s="23">
+        <v>0</v>
+      </c>
+      <c r="D27" s="23">
+        <v>100</v>
+      </c>
+      <c r="E27" s="23">
+        <v>100</v>
+      </c>
+      <c r="F27" s="23">
+        <v>0</v>
+      </c>
+      <c r="G27" s="23">
+        <v>0</v>
+      </c>
+      <c r="H27" s="23">
+        <v>0</v>
+      </c>
+      <c r="I27" s="23">
+        <v>0</v>
+      </c>
+      <c r="J27" s="23">
+        <v>0</v>
+      </c>
+      <c r="K27" s="23">
+        <v>0</v>
+      </c>
+      <c r="L27" s="23">
+        <v>2</v>
+      </c>
+      <c r="M27" s="23">
+        <v>2</v>
+      </c>
+      <c r="N27" s="23">
+        <v>2</v>
+      </c>
+      <c r="O27" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="P27" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="23">
+        <v>20</v>
+      </c>
+      <c r="R27" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="S27" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="X27" s="23">
+        <v>2</v>
+      </c>
+      <c r="Y27" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z27" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA27" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="AC27" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="AD27" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="AE27" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="AD22" t="s">
-        <v>296</v>
-      </c>
-      <c r="AE22" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF22">
-        <v>0</v>
-      </c>
-      <c r="AG22">
-        <v>0</v>
-      </c>
-      <c r="AH22">
-        <v>0</v>
-      </c>
-      <c r="AI22">
-        <v>0</v>
-      </c>
-      <c r="AJ22">
-        <v>0</v>
-      </c>
-      <c r="AK22" s="38" t="s">
+      <c r="AF27" s="23">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="23">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="23">
+        <v>0</v>
+      </c>
+      <c r="AI27" s="23">
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="23">
+        <v>2</v>
+      </c>
+      <c r="AK27" s="18" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="23" spans="1:37" s="29" customFormat="1" ht="13.9" thickBot="1">
-      <c r="A23" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="29">
-        <v>0</v>
-      </c>
-      <c r="D23" s="29">
+    <row r="28" spans="1:37" s="15" customFormat="1">
+      <c r="A28" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C28" s="15">
+        <v>0</v>
+      </c>
+      <c r="D28" s="23">
         <v>100</v>
       </c>
-      <c r="E23" s="29">
+      <c r="E28" s="23">
         <v>100</v>
       </c>
-      <c r="F23" s="29">
-        <v>0</v>
-      </c>
-      <c r="G23" s="29">
-        <v>0</v>
-      </c>
-      <c r="H23" s="29">
-        <v>0</v>
-      </c>
-      <c r="I23" s="29">
-        <v>0</v>
-      </c>
-      <c r="J23" s="29">
-        <v>0</v>
-      </c>
-      <c r="K23" s="29">
-        <v>0</v>
-      </c>
-      <c r="L23" s="29">
-        <v>0</v>
-      </c>
-      <c r="M23" s="29">
-        <v>0</v>
-      </c>
-      <c r="N23" s="29">
-        <v>2</v>
-      </c>
-      <c r="O23" s="29" t="s">
-        <v>319</v>
-      </c>
-      <c r="P23" s="29">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="29">
+      <c r="F28" s="15">
+        <v>0</v>
+      </c>
+      <c r="G28" s="15">
+        <v>0</v>
+      </c>
+      <c r="H28" s="15">
+        <v>0</v>
+      </c>
+      <c r="I28" s="15">
+        <v>0</v>
+      </c>
+      <c r="J28" s="15">
+        <v>0</v>
+      </c>
+      <c r="K28" s="15">
+        <v>0</v>
+      </c>
+      <c r="L28" s="15">
+        <v>0</v>
+      </c>
+      <c r="M28" s="15">
+        <v>2</v>
+      </c>
+      <c r="N28" s="23">
+        <v>2</v>
+      </c>
+      <c r="O28" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="P28" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="15">
         <v>20</v>
       </c>
-      <c r="R23" s="34" t="s">
+      <c r="R28" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="S28" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="X28" s="15">
+        <v>2</v>
+      </c>
+      <c r="Y28" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z28" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA28" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="AC28" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="AD28" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="AE28" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF28" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="15">
+        <v>2</v>
+      </c>
+      <c r="AK28" s="18" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="29" spans="1:37" s="15" customFormat="1">
+      <c r="A29" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="C29" s="15">
+        <v>0</v>
+      </c>
+      <c r="D29" s="23">
+        <v>100</v>
+      </c>
+      <c r="E29" s="23">
+        <v>100</v>
+      </c>
+      <c r="F29" s="15">
+        <v>0</v>
+      </c>
+      <c r="G29" s="15">
+        <v>0</v>
+      </c>
+      <c r="H29" s="15">
+        <v>0</v>
+      </c>
+      <c r="I29" s="15">
+        <v>0</v>
+      </c>
+      <c r="J29" s="15">
+        <v>0</v>
+      </c>
+      <c r="K29" s="15">
+        <v>0</v>
+      </c>
+      <c r="L29" s="15">
+        <v>0</v>
+      </c>
+      <c r="M29" s="15">
+        <v>2</v>
+      </c>
+      <c r="N29" s="23">
+        <v>2</v>
+      </c>
+      <c r="O29" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="P29" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="15">
+        <v>20</v>
+      </c>
+      <c r="R29" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="S29" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="X29" s="15">
+        <v>2</v>
+      </c>
+      <c r="Y29" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z29" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA29" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="AC29" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="AD29" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="AE29" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF29" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI29" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="23">
+        <v>2</v>
+      </c>
+      <c r="AK29" s="18" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37" s="15" customFormat="1">
+      <c r="A30" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C30" s="15">
+        <v>0</v>
+      </c>
+      <c r="D30" s="23">
+        <v>100</v>
+      </c>
+      <c r="E30" s="23">
+        <v>100</v>
+      </c>
+      <c r="F30" s="15">
+        <v>0</v>
+      </c>
+      <c r="G30" s="15">
+        <v>0</v>
+      </c>
+      <c r="H30" s="15">
+        <v>0</v>
+      </c>
+      <c r="I30" s="15">
+        <v>0</v>
+      </c>
+      <c r="J30" s="15">
+        <v>0</v>
+      </c>
+      <c r="K30" s="15">
+        <v>0</v>
+      </c>
+      <c r="L30" s="15">
+        <v>0</v>
+      </c>
+      <c r="M30" s="15">
+        <v>2</v>
+      </c>
+      <c r="N30" s="23">
+        <v>2</v>
+      </c>
+      <c r="O30" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="P30" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="15">
+        <v>20</v>
+      </c>
+      <c r="R30" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="S30" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="X30" s="15">
+        <v>2</v>
+      </c>
+      <c r="Y30" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z30" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA30" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="AC30" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="AD30" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="AE30" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF30" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI30" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="15">
+        <v>2</v>
+      </c>
+      <c r="AK30" s="18" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="31" spans="1:37" s="15" customFormat="1">
+      <c r="A31" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C31" s="15">
+        <v>0</v>
+      </c>
+      <c r="D31" s="23">
+        <v>100</v>
+      </c>
+      <c r="E31" s="23">
+        <v>100</v>
+      </c>
+      <c r="F31" s="15">
+        <v>0</v>
+      </c>
+      <c r="G31" s="15">
+        <v>0</v>
+      </c>
+      <c r="H31" s="15">
+        <v>0</v>
+      </c>
+      <c r="I31" s="15">
+        <v>0</v>
+      </c>
+      <c r="J31" s="15">
+        <v>0</v>
+      </c>
+      <c r="K31" s="15">
+        <v>0</v>
+      </c>
+      <c r="L31" s="15">
+        <v>0</v>
+      </c>
+      <c r="M31" s="15">
+        <v>2</v>
+      </c>
+      <c r="N31" s="23">
+        <v>2</v>
+      </c>
+      <c r="O31" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="P31" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="15">
+        <v>20</v>
+      </c>
+      <c r="R31" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="S31" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="X31" s="15">
+        <v>2</v>
+      </c>
+      <c r="Y31" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z31" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA31" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC31" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="AD31" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="AE31" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF31" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH31" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI31" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="23">
+        <v>2</v>
+      </c>
+      <c r="AK31" s="18" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="32" spans="1:37" s="15" customFormat="1">
+      <c r="A32" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="C32" s="15">
+        <v>0</v>
+      </c>
+      <c r="D32" s="23">
+        <v>100</v>
+      </c>
+      <c r="E32" s="23">
+        <v>100</v>
+      </c>
+      <c r="F32" s="15">
+        <v>0</v>
+      </c>
+      <c r="G32" s="15">
+        <v>0</v>
+      </c>
+      <c r="H32" s="15">
+        <v>0</v>
+      </c>
+      <c r="I32" s="15">
+        <v>0</v>
+      </c>
+      <c r="J32" s="15">
+        <v>0</v>
+      </c>
+      <c r="K32" s="15">
+        <v>0</v>
+      </c>
+      <c r="L32" s="15">
+        <v>0</v>
+      </c>
+      <c r="M32" s="15">
+        <v>2</v>
+      </c>
+      <c r="N32" s="23">
+        <v>2</v>
+      </c>
+      <c r="O32" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="P32" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="15">
+        <v>20</v>
+      </c>
+      <c r="R32" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="S32" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="X32" s="15">
+        <v>2</v>
+      </c>
+      <c r="Y32" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z32" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA32" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="AC32" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="AD32" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="AE32" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF32" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI32" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ32" s="15">
+        <v>2</v>
+      </c>
+      <c r="AK32" s="18" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="33" spans="1:37" s="15" customFormat="1">
+      <c r="A33" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C33" s="15">
+        <v>0</v>
+      </c>
+      <c r="D33" s="23">
+        <v>100</v>
+      </c>
+      <c r="E33" s="23">
+        <v>100</v>
+      </c>
+      <c r="F33" s="15">
+        <v>0</v>
+      </c>
+      <c r="G33" s="15">
+        <v>0</v>
+      </c>
+      <c r="H33" s="15">
+        <v>0</v>
+      </c>
+      <c r="I33" s="15">
+        <v>0</v>
+      </c>
+      <c r="J33" s="15">
+        <v>0</v>
+      </c>
+      <c r="K33" s="15">
+        <v>0</v>
+      </c>
+      <c r="L33" s="15">
+        <v>0</v>
+      </c>
+      <c r="M33" s="15">
+        <v>1</v>
+      </c>
+      <c r="N33" s="23">
+        <v>2</v>
+      </c>
+      <c r="O33" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="P33" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="15">
+        <v>20</v>
+      </c>
+      <c r="R33" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="S33" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="X33" s="15">
+        <v>2</v>
+      </c>
+      <c r="Y33" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z33" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA33" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="AC33" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="AD33" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="AE33" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF33" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI33" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="23">
+        <v>2</v>
+      </c>
+      <c r="AK33" s="18" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="34" spans="1:37" s="15" customFormat="1">
+      <c r="A34" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C34" s="15">
+        <v>0</v>
+      </c>
+      <c r="D34" s="23">
+        <v>100</v>
+      </c>
+      <c r="E34" s="23">
+        <v>100</v>
+      </c>
+      <c r="F34" s="15">
+        <v>0</v>
+      </c>
+      <c r="G34" s="15">
+        <v>0</v>
+      </c>
+      <c r="H34" s="15">
+        <v>0</v>
+      </c>
+      <c r="I34" s="15">
+        <v>0</v>
+      </c>
+      <c r="J34" s="15">
+        <v>0</v>
+      </c>
+      <c r="K34" s="15">
+        <v>0</v>
+      </c>
+      <c r="L34" s="15">
+        <v>0</v>
+      </c>
+      <c r="M34" s="15">
+        <v>1</v>
+      </c>
+      <c r="N34" s="23">
+        <v>2</v>
+      </c>
+      <c r="O34" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="P34" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="15">
+        <v>20</v>
+      </c>
+      <c r="R34" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="S34" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="X34" s="15">
+        <v>2</v>
+      </c>
+      <c r="Y34" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z34" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA34" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="AC34" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="AD34" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="AE34" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF34" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI34" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ34" s="15">
+        <v>2</v>
+      </c>
+      <c r="AK34" s="18" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="35" spans="1:37" s="15" customFormat="1">
+      <c r="A35" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="C35" s="15">
+        <v>0</v>
+      </c>
+      <c r="D35" s="23">
+        <v>100</v>
+      </c>
+      <c r="E35" s="23">
+        <v>100</v>
+      </c>
+      <c r="F35" s="15">
+        <v>0</v>
+      </c>
+      <c r="G35" s="15">
+        <v>0</v>
+      </c>
+      <c r="H35" s="15">
+        <v>0</v>
+      </c>
+      <c r="I35" s="15">
+        <v>0</v>
+      </c>
+      <c r="J35" s="15">
+        <v>0</v>
+      </c>
+      <c r="K35" s="15">
+        <v>0</v>
+      </c>
+      <c r="L35" s="15">
+        <v>0</v>
+      </c>
+      <c r="M35" s="15">
+        <v>1</v>
+      </c>
+      <c r="N35" s="23">
+        <v>2</v>
+      </c>
+      <c r="O35" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="P35" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="15">
+        <v>20</v>
+      </c>
+      <c r="R35" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="S35" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="X35" s="15">
+        <v>2</v>
+      </c>
+      <c r="Y35" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z35" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA35" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="AC35" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="AD35" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="AE35" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF35" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG35" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH35" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI35" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ35" s="23">
+        <v>2</v>
+      </c>
+      <c r="AK35" s="18" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="36" spans="1:37" s="15" customFormat="1">
+      <c r="A36" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C36" s="15">
+        <v>0</v>
+      </c>
+      <c r="D36" s="23">
+        <v>100</v>
+      </c>
+      <c r="E36" s="23">
+        <v>100</v>
+      </c>
+      <c r="F36" s="15">
+        <v>0</v>
+      </c>
+      <c r="G36" s="15">
+        <v>0</v>
+      </c>
+      <c r="H36" s="15">
+        <v>0</v>
+      </c>
+      <c r="I36" s="15">
+        <v>0</v>
+      </c>
+      <c r="J36" s="15">
+        <v>0</v>
+      </c>
+      <c r="K36" s="15">
+        <v>0</v>
+      </c>
+      <c r="L36" s="15">
+        <v>0</v>
+      </c>
+      <c r="M36" s="15">
+        <v>3</v>
+      </c>
+      <c r="N36" s="23">
+        <v>3</v>
+      </c>
+      <c r="O36" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="P36" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="15">
+        <v>20</v>
+      </c>
+      <c r="R36" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="S36" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="X36" s="15">
+        <v>2</v>
+      </c>
+      <c r="Y36" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z36" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA36" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC36" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="AD36" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="AE36" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF36" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH36" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI36" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ36" s="15">
+        <v>2</v>
+      </c>
+      <c r="AK36" s="18" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="37" spans="1:37" s="15" customFormat="1">
+      <c r="A37" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C37" s="15">
+        <v>0</v>
+      </c>
+      <c r="D37" s="23">
+        <v>100</v>
+      </c>
+      <c r="E37" s="23">
+        <v>100</v>
+      </c>
+      <c r="F37" s="15">
+        <v>0</v>
+      </c>
+      <c r="G37" s="15">
+        <v>0</v>
+      </c>
+      <c r="H37" s="15">
+        <v>0</v>
+      </c>
+      <c r="I37" s="15">
+        <v>0</v>
+      </c>
+      <c r="J37" s="15">
+        <v>0</v>
+      </c>
+      <c r="K37" s="15">
+        <v>0</v>
+      </c>
+      <c r="L37" s="15">
+        <v>0</v>
+      </c>
+      <c r="M37" s="15">
+        <v>3</v>
+      </c>
+      <c r="N37" s="23">
+        <v>3</v>
+      </c>
+      <c r="O37" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="P37" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="15">
+        <v>20</v>
+      </c>
+      <c r="R37" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="S37" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="X37" s="15">
+        <v>2</v>
+      </c>
+      <c r="Y37" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z37" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA37" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="AC37" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="AD37" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="AE37" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF37" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG37" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH37" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI37" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ37" s="23">
+        <v>2</v>
+      </c>
+      <c r="AK37" s="18" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="38" spans="1:37" s="15" customFormat="1">
+      <c r="A38" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="C38" s="15">
+        <v>0</v>
+      </c>
+      <c r="D38" s="23">
+        <v>100</v>
+      </c>
+      <c r="E38" s="23">
+        <v>100</v>
+      </c>
+      <c r="F38" s="15">
+        <v>0</v>
+      </c>
+      <c r="G38" s="15">
+        <v>0</v>
+      </c>
+      <c r="H38" s="15">
+        <v>0</v>
+      </c>
+      <c r="I38" s="15">
+        <v>0</v>
+      </c>
+      <c r="J38" s="15">
+        <v>0</v>
+      </c>
+      <c r="K38" s="15">
+        <v>0</v>
+      </c>
+      <c r="L38" s="15">
+        <v>0</v>
+      </c>
+      <c r="M38" s="15">
+        <v>3</v>
+      </c>
+      <c r="N38" s="23">
+        <v>3</v>
+      </c>
+      <c r="O38" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="P38" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="15">
+        <v>20</v>
+      </c>
+      <c r="R38" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="S38" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="X38" s="15">
+        <v>2</v>
+      </c>
+      <c r="Y38" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z38" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA38" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="AC38" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="AD38" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="AE38" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF38" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG38" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI38" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ38" s="15">
+        <v>2</v>
+      </c>
+      <c r="AK38" s="18" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="39" spans="1:37" s="15" customFormat="1">
+      <c r="A39" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="C39" s="15">
+        <v>0</v>
+      </c>
+      <c r="D39" s="23">
+        <v>100</v>
+      </c>
+      <c r="E39" s="23">
+        <v>100</v>
+      </c>
+      <c r="F39" s="15">
+        <v>0</v>
+      </c>
+      <c r="G39" s="15">
+        <v>0</v>
+      </c>
+      <c r="H39" s="15">
+        <v>0</v>
+      </c>
+      <c r="I39" s="15">
+        <v>0</v>
+      </c>
+      <c r="J39" s="15">
+        <v>0</v>
+      </c>
+      <c r="K39" s="15">
+        <v>0</v>
+      </c>
+      <c r="L39" s="15">
+        <v>0</v>
+      </c>
+      <c r="M39" s="15">
+        <v>1</v>
+      </c>
+      <c r="N39" s="23">
+        <v>1</v>
+      </c>
+      <c r="O39" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="P39" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="15">
+        <v>20</v>
+      </c>
+      <c r="R39" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="S39" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="X39" s="15">
+        <v>2</v>
+      </c>
+      <c r="Y39" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z39" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA39" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="AC39" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="AD39" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="AE39" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF39" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG39" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH39" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI39" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ39" s="23">
+        <v>2</v>
+      </c>
+      <c r="AK39" s="18" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="40" spans="1:37" s="15" customFormat="1">
+      <c r="A40" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="C40" s="15">
+        <v>0</v>
+      </c>
+      <c r="D40" s="23">
+        <v>100</v>
+      </c>
+      <c r="E40" s="23">
+        <v>100</v>
+      </c>
+      <c r="F40" s="15">
+        <v>0</v>
+      </c>
+      <c r="G40" s="15">
+        <v>0</v>
+      </c>
+      <c r="H40" s="15">
+        <v>0</v>
+      </c>
+      <c r="I40" s="15">
+        <v>0</v>
+      </c>
+      <c r="J40" s="15">
+        <v>0</v>
+      </c>
+      <c r="K40" s="15">
+        <v>0</v>
+      </c>
+      <c r="L40" s="15">
+        <v>0</v>
+      </c>
+      <c r="M40" s="15">
+        <v>1</v>
+      </c>
+      <c r="N40" s="23">
+        <v>1</v>
+      </c>
+      <c r="O40" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="P40" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="15">
+        <v>20</v>
+      </c>
+      <c r="R40" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="S40" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="X40" s="15">
+        <v>2</v>
+      </c>
+      <c r="Y40" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z40" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA40" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="AC40" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="AD40" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="AE40" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF40" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG40" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH40" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI40" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ40" s="15">
+        <v>2</v>
+      </c>
+      <c r="AK40" s="18" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="41" spans="1:37" s="15" customFormat="1">
+      <c r="A41" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="C41" s="15">
+        <v>0</v>
+      </c>
+      <c r="D41" s="23">
+        <v>100</v>
+      </c>
+      <c r="E41" s="23">
+        <v>100</v>
+      </c>
+      <c r="F41" s="15">
+        <v>0</v>
+      </c>
+      <c r="G41" s="15">
+        <v>0</v>
+      </c>
+      <c r="H41" s="15">
+        <v>0</v>
+      </c>
+      <c r="I41" s="15">
+        <v>0</v>
+      </c>
+      <c r="J41" s="15">
+        <v>0</v>
+      </c>
+      <c r="K41" s="15">
+        <v>0</v>
+      </c>
+      <c r="L41" s="15">
+        <v>0</v>
+      </c>
+      <c r="M41" s="15">
+        <v>1</v>
+      </c>
+      <c r="N41" s="23">
+        <v>1</v>
+      </c>
+      <c r="O41" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="P41" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="15">
+        <v>20</v>
+      </c>
+      <c r="R41" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="S41" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="X41" s="15">
+        <v>2</v>
+      </c>
+      <c r="Y41" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z41" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA41" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="AC41" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="AD41" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="AE41" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF41" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG41" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH41" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI41" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ41" s="23">
+        <v>2</v>
+      </c>
+      <c r="AK41" s="18" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="42" spans="1:37" s="15" customFormat="1">
+      <c r="A42" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C42" s="15">
+        <v>0</v>
+      </c>
+      <c r="D42" s="23">
+        <v>100</v>
+      </c>
+      <c r="E42" s="23">
+        <v>100</v>
+      </c>
+      <c r="F42" s="15">
+        <v>0</v>
+      </c>
+      <c r="G42" s="15">
+        <v>0</v>
+      </c>
+      <c r="H42" s="15">
+        <v>0</v>
+      </c>
+      <c r="I42" s="15">
+        <v>0</v>
+      </c>
+      <c r="J42" s="15">
+        <v>0</v>
+      </c>
+      <c r="K42" s="15">
+        <v>0</v>
+      </c>
+      <c r="L42" s="15">
+        <v>0</v>
+      </c>
+      <c r="M42" s="15">
+        <v>2</v>
+      </c>
+      <c r="N42" s="23">
+        <v>2</v>
+      </c>
+      <c r="O42" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="P42" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="15">
+        <v>20</v>
+      </c>
+      <c r="R42" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="S42" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="X42" s="15">
+        <v>2</v>
+      </c>
+      <c r="Y42" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z42" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA42" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="AC42" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="AD42" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="AE42" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF42" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG42" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH42" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI42" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ42" s="15">
+        <v>2</v>
+      </c>
+      <c r="AK42" s="18" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="43" spans="1:37" s="15" customFormat="1">
+      <c r="A43" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="C43" s="15">
+        <v>0</v>
+      </c>
+      <c r="D43" s="23">
+        <v>100</v>
+      </c>
+      <c r="E43" s="23">
+        <v>100</v>
+      </c>
+      <c r="F43" s="15">
+        <v>0</v>
+      </c>
+      <c r="G43" s="15">
+        <v>0</v>
+      </c>
+      <c r="H43" s="15">
+        <v>0</v>
+      </c>
+      <c r="I43" s="15">
+        <v>0</v>
+      </c>
+      <c r="J43" s="15">
+        <v>0</v>
+      </c>
+      <c r="K43" s="15">
+        <v>0</v>
+      </c>
+      <c r="L43" s="15">
+        <v>0</v>
+      </c>
+      <c r="M43" s="15">
+        <v>2</v>
+      </c>
+      <c r="N43" s="23">
+        <v>2</v>
+      </c>
+      <c r="O43" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="P43" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="15">
+        <v>20</v>
+      </c>
+      <c r="R43" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="S43" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="X43" s="15">
+        <v>2</v>
+      </c>
+      <c r="Y43" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z43" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA43" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="AC43" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="AD43" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="AE43" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF43" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG43" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH43" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI43" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ43" s="23">
+        <v>2</v>
+      </c>
+      <c r="AK43" s="18" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="44" spans="1:37" s="15" customFormat="1">
+      <c r="A44" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="C44" s="15">
+        <v>0</v>
+      </c>
+      <c r="D44" s="23">
+        <v>100</v>
+      </c>
+      <c r="E44" s="23">
+        <v>100</v>
+      </c>
+      <c r="F44" s="15">
+        <v>0</v>
+      </c>
+      <c r="G44" s="15">
+        <v>0</v>
+      </c>
+      <c r="H44" s="15">
+        <v>0</v>
+      </c>
+      <c r="I44" s="15">
+        <v>0</v>
+      </c>
+      <c r="J44" s="15">
+        <v>0</v>
+      </c>
+      <c r="K44" s="15">
+        <v>0</v>
+      </c>
+      <c r="L44" s="15">
+        <v>0</v>
+      </c>
+      <c r="M44" s="15">
+        <v>2</v>
+      </c>
+      <c r="N44" s="23">
+        <v>2</v>
+      </c>
+      <c r="O44" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="P44" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="15">
+        <v>20</v>
+      </c>
+      <c r="R44" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="S44" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="X44" s="15">
+        <v>2</v>
+      </c>
+      <c r="Y44" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z44" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA44" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="AC44" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="AD44" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="AE44" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF44" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG44" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH44" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI44" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ44" s="15">
+        <v>2</v>
+      </c>
+      <c r="AK44" s="18" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="45" spans="1:37" s="15" customFormat="1">
+      <c r="A45" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C45" s="15">
+        <v>0</v>
+      </c>
+      <c r="D45" s="23">
+        <v>100</v>
+      </c>
+      <c r="E45" s="23">
+        <v>100</v>
+      </c>
+      <c r="F45" s="15">
+        <v>0</v>
+      </c>
+      <c r="G45" s="15">
+        <v>0</v>
+      </c>
+      <c r="H45" s="15">
+        <v>0</v>
+      </c>
+      <c r="I45" s="15">
+        <v>0</v>
+      </c>
+      <c r="J45" s="15">
+        <v>0</v>
+      </c>
+      <c r="K45" s="15">
+        <v>0</v>
+      </c>
+      <c r="L45" s="15">
+        <v>0</v>
+      </c>
+      <c r="M45" s="15">
+        <v>2</v>
+      </c>
+      <c r="N45" s="23">
+        <v>2</v>
+      </c>
+      <c r="O45" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="P45" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="15">
+        <v>20</v>
+      </c>
+      <c r="R45" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="S45" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="X45" s="15">
+        <v>2</v>
+      </c>
+      <c r="Y45" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z45" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA45" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC45" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="AD45" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="AE45" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF45" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG45" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH45" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI45" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ45" s="23">
+        <v>2</v>
+      </c>
+      <c r="AK45" s="18" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="46" spans="1:37" s="15" customFormat="1">
+      <c r="A46" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="C46" s="15">
+        <v>0</v>
+      </c>
+      <c r="D46" s="23">
+        <v>100</v>
+      </c>
+      <c r="E46" s="23">
+        <v>100</v>
+      </c>
+      <c r="F46" s="15">
+        <v>0</v>
+      </c>
+      <c r="G46" s="15">
+        <v>0</v>
+      </c>
+      <c r="H46" s="15">
+        <v>0</v>
+      </c>
+      <c r="I46" s="15">
+        <v>0</v>
+      </c>
+      <c r="J46" s="15">
+        <v>0</v>
+      </c>
+      <c r="K46" s="15">
+        <v>0</v>
+      </c>
+      <c r="L46" s="15">
+        <v>0</v>
+      </c>
+      <c r="M46" s="15">
+        <v>2</v>
+      </c>
+      <c r="N46" s="23">
+        <v>2</v>
+      </c>
+      <c r="O46" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="P46" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="15">
+        <v>20</v>
+      </c>
+      <c r="R46" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="S46" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="X46" s="15">
+        <v>2</v>
+      </c>
+      <c r="Y46" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z46" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA46" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="AC46" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="AD46" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="AE46" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF46" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG46" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH46" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI46" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ46" s="15">
+        <v>2</v>
+      </c>
+      <c r="AK46" s="18" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="47" spans="1:37" s="15" customFormat="1">
+      <c r="A47" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="C47" s="15">
+        <v>0</v>
+      </c>
+      <c r="D47" s="23">
+        <v>100</v>
+      </c>
+      <c r="E47" s="23">
+        <v>100</v>
+      </c>
+      <c r="F47" s="15">
+        <v>0</v>
+      </c>
+      <c r="G47" s="15">
+        <v>0</v>
+      </c>
+      <c r="H47" s="15">
+        <v>0</v>
+      </c>
+      <c r="I47" s="15">
+        <v>0</v>
+      </c>
+      <c r="J47" s="15">
+        <v>0</v>
+      </c>
+      <c r="K47" s="15">
+        <v>0</v>
+      </c>
+      <c r="L47" s="15">
+        <v>0</v>
+      </c>
+      <c r="M47" s="15">
+        <v>2</v>
+      </c>
+      <c r="N47" s="23">
+        <v>2</v>
+      </c>
+      <c r="O47" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="P47" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="15">
+        <v>20</v>
+      </c>
+      <c r="R47" s="16" t="s">
         <v>343</v>
       </c>
-      <c r="S23" s="34" t="s">
-        <v>355</v>
-      </c>
-      <c r="T23" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="U23" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="V23" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="W23" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="X23" s="29">
-        <v>2</v>
-      </c>
-      <c r="Y23" s="30" t="s">
+      <c r="S47" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="X47" s="15">
+        <v>2</v>
+      </c>
+      <c r="Y47" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z23" s="29" t="s">
+      <c r="Z47" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AA23" s="29">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="29" t="s">
-        <v>326</v>
-      </c>
-      <c r="AC23" s="31" t="s">
-        <v>325</v>
-      </c>
-      <c r="AD23" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="AE23" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF23" s="29">
-        <v>0</v>
-      </c>
-      <c r="AG23" s="29">
-        <v>0</v>
-      </c>
-      <c r="AH23" s="29">
-        <v>0</v>
-      </c>
-      <c r="AI23" s="29">
-        <v>0</v>
-      </c>
-      <c r="AJ23" s="29">
-        <v>1</v>
-      </c>
-      <c r="AK23" s="33" t="s">
-        <v>416</v>
+      <c r="AA47" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="AC47" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="AD47" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="AE47" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF47" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG47" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH47" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI47" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ47" s="23">
+        <v>2</v>
+      </c>
+      <c r="AK47" s="18" t="s">
+        <v>399</v>
       </c>
     </row>
-    <row r="24" spans="1:37" s="26" customFormat="1" ht="13.9" thickBot="1">
-      <c r="A24" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="26">
-        <v>0</v>
-      </c>
-      <c r="D24" s="29">
+    <row r="48" spans="1:37" s="15" customFormat="1">
+      <c r="A48" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C48" s="15">
+        <v>0</v>
+      </c>
+      <c r="D48" s="23">
         <v>100</v>
       </c>
-      <c r="E24" s="29">
+      <c r="E48" s="23">
         <v>100</v>
       </c>
-      <c r="F24" s="26">
-        <v>0</v>
-      </c>
-      <c r="G24" s="26">
-        <v>0</v>
-      </c>
-      <c r="H24" s="26">
-        <v>0</v>
-      </c>
-      <c r="I24" s="26">
-        <v>0</v>
-      </c>
-      <c r="J24" s="26">
-        <v>0</v>
-      </c>
-      <c r="K24" s="26">
-        <v>0</v>
-      </c>
-      <c r="L24" s="26">
-        <v>0</v>
-      </c>
-      <c r="M24" s="26">
-        <v>0</v>
-      </c>
-      <c r="N24" s="29">
-        <v>2</v>
-      </c>
-      <c r="O24" s="26" t="s">
-        <v>320</v>
-      </c>
-      <c r="P24" s="26">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="26">
+      <c r="F48" s="15">
+        <v>0</v>
+      </c>
+      <c r="G48" s="15">
+        <v>0</v>
+      </c>
+      <c r="H48" s="15">
+        <v>0</v>
+      </c>
+      <c r="I48" s="15">
+        <v>0</v>
+      </c>
+      <c r="J48" s="15">
+        <v>0</v>
+      </c>
+      <c r="K48" s="15">
+        <v>0</v>
+      </c>
+      <c r="L48" s="15">
+        <v>0</v>
+      </c>
+      <c r="M48" s="15">
+        <v>3</v>
+      </c>
+      <c r="N48" s="23">
+        <v>3</v>
+      </c>
+      <c r="O48" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="P48" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="15">
         <v>20</v>
       </c>
-      <c r="R24" s="34" t="s">
+      <c r="R48" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="S24" s="34" t="s">
-        <v>357</v>
-      </c>
-      <c r="T24" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="U24" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="V24" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="W24" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="X24" s="26">
-        <v>2</v>
-      </c>
-      <c r="Y24" s="30" t="s">
+      <c r="S48" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="X48" s="15">
+        <v>2</v>
+      </c>
+      <c r="Y48" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z24" s="26" t="s">
+      <c r="Z48" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AA24" s="26">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="26" t="s">
-        <v>327</v>
-      </c>
-      <c r="AC24" s="27" t="s">
-        <v>325</v>
-      </c>
-      <c r="AD24" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="AE24" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF24" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG24" s="26">
-        <v>0</v>
-      </c>
-      <c r="AH24" s="26">
-        <v>0</v>
-      </c>
-      <c r="AI24" s="26">
-        <v>0</v>
-      </c>
-      <c r="AJ24" s="26">
-        <v>1</v>
-      </c>
-      <c r="AK24" s="33" t="s">
-        <v>417</v>
+      <c r="AA48" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC48" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="AD48" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="AE48" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF48" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG48" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH48" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI48" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ48" s="15">
+        <v>2</v>
+      </c>
+      <c r="AK48" s="18" t="s">
+        <v>400</v>
       </c>
     </row>
-    <row r="25" spans="1:37" s="26" customFormat="1" ht="13.9" thickBot="1">
-      <c r="A25" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="26">
-        <v>0</v>
-      </c>
-      <c r="D25" s="29">
+    <row r="49" spans="1:37" s="15" customFormat="1">
+      <c r="A49" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="C49" s="15">
+        <v>0</v>
+      </c>
+      <c r="D49" s="23">
         <v>100</v>
       </c>
-      <c r="E25" s="29">
+      <c r="E49" s="23">
         <v>100</v>
       </c>
-      <c r="F25" s="26">
-        <v>0</v>
-      </c>
-      <c r="G25" s="26">
-        <v>0</v>
-      </c>
-      <c r="H25" s="26">
-        <v>0</v>
-      </c>
-      <c r="I25" s="26">
-        <v>0</v>
-      </c>
-      <c r="J25" s="26">
-        <v>0</v>
-      </c>
-      <c r="K25" s="26">
-        <v>0</v>
-      </c>
-      <c r="L25" s="26">
-        <v>0</v>
-      </c>
-      <c r="M25" s="26">
-        <v>0</v>
-      </c>
-      <c r="N25" s="29">
-        <v>2</v>
-      </c>
-      <c r="O25" s="26" t="s">
-        <v>321</v>
-      </c>
-      <c r="P25" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="26">
+      <c r="F49" s="15">
+        <v>0</v>
+      </c>
+      <c r="G49" s="15">
+        <v>0</v>
+      </c>
+      <c r="H49" s="15">
+        <v>0</v>
+      </c>
+      <c r="I49" s="15">
+        <v>0</v>
+      </c>
+      <c r="J49" s="15">
+        <v>0</v>
+      </c>
+      <c r="K49" s="15">
+        <v>0</v>
+      </c>
+      <c r="L49" s="15">
+        <v>0</v>
+      </c>
+      <c r="M49" s="15">
+        <v>3</v>
+      </c>
+      <c r="N49" s="23">
+        <v>3</v>
+      </c>
+      <c r="O49" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="P49" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="15">
         <v>20</v>
       </c>
-      <c r="R25" s="34" t="s">
+      <c r="R49" s="16" t="s">
         <v>345</v>
       </c>
-      <c r="S25" s="34" t="s">
-        <v>358</v>
-      </c>
-      <c r="T25" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="U25" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="V25" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="W25" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="X25" s="26">
-        <v>2</v>
-      </c>
-      <c r="Y25" s="30" t="s">
+      <c r="S49" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="X49" s="15">
+        <v>2</v>
+      </c>
+      <c r="Y49" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z25" s="26" t="s">
+      <c r="Z49" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AA25" s="26">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="26" t="s">
-        <v>328</v>
-      </c>
-      <c r="AC25" s="27" t="s">
-        <v>325</v>
-      </c>
-      <c r="AD25" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="AE25" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF25" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG25" s="26">
-        <v>0</v>
-      </c>
-      <c r="AH25" s="26">
-        <v>0</v>
-      </c>
-      <c r="AI25" s="26">
-        <v>0</v>
-      </c>
-      <c r="AJ25" s="26">
-        <v>1</v>
-      </c>
-      <c r="AK25" s="33" t="s">
-        <v>418</v>
+      <c r="AA49" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC49" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="AD49" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="AE49" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF49" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG49" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH49" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI49" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ49" s="23">
+        <v>2</v>
+      </c>
+      <c r="AK49" s="18" t="s">
+        <v>401</v>
       </c>
     </row>
-    <row r="26" spans="1:37" s="26" customFormat="1">
-      <c r="A26" s="33" t="s">
-        <v>318</v>
-      </c>
-      <c r="C26" s="26">
-        <v>0</v>
-      </c>
-      <c r="D26" s="29">
+    <row r="50" spans="1:37" s="15" customFormat="1">
+      <c r="A50" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="C50" s="15">
+        <v>0</v>
+      </c>
+      <c r="D50" s="23">
         <v>100</v>
       </c>
-      <c r="E26" s="29">
+      <c r="E50" s="23">
         <v>100</v>
       </c>
-      <c r="F26" s="26">
-        <v>0</v>
-      </c>
-      <c r="G26" s="26">
-        <v>0</v>
-      </c>
-      <c r="H26" s="26">
-        <v>0</v>
-      </c>
-      <c r="I26" s="26">
-        <v>0</v>
-      </c>
-      <c r="J26" s="26">
-        <v>0</v>
-      </c>
-      <c r="K26" s="26">
-        <v>0</v>
-      </c>
-      <c r="L26" s="26">
-        <v>0</v>
-      </c>
-      <c r="M26" s="26">
-        <v>0</v>
-      </c>
-      <c r="N26" s="29">
-        <v>2</v>
-      </c>
-      <c r="O26" s="26" t="s">
-        <v>322</v>
-      </c>
-      <c r="P26" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="26">
+      <c r="F50" s="15">
+        <v>0</v>
+      </c>
+      <c r="G50" s="15">
+        <v>0</v>
+      </c>
+      <c r="H50" s="15">
+        <v>0</v>
+      </c>
+      <c r="I50" s="15">
+        <v>0</v>
+      </c>
+      <c r="J50" s="15">
+        <v>0</v>
+      </c>
+      <c r="K50" s="15">
+        <v>0</v>
+      </c>
+      <c r="L50" s="15">
+        <v>0</v>
+      </c>
+      <c r="M50" s="15">
+        <v>3</v>
+      </c>
+      <c r="N50" s="23">
+        <v>3</v>
+      </c>
+      <c r="O50" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="P50" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="15">
         <v>20</v>
       </c>
-      <c r="R26" s="34" t="s">
+      <c r="R50" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="S26" s="34" t="s">
-        <v>359</v>
-      </c>
-      <c r="T26" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="U26" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="V26" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="W26" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="X26" s="26">
-        <v>2</v>
-      </c>
-      <c r="Y26" s="30" t="s">
+      <c r="S50" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="X50" s="15">
+        <v>2</v>
+      </c>
+      <c r="Y50" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z26" s="26" t="s">
+      <c r="Z50" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AA26" s="26">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="26" t="s">
-        <v>329</v>
-      </c>
-      <c r="AC26" s="27" t="s">
-        <v>325</v>
-      </c>
-      <c r="AD26" s="14" t="s">
-        <v>324</v>
-      </c>
-      <c r="AE26" s="26" t="s">
-        <v>323</v>
-      </c>
-      <c r="AF26" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG26" s="26">
-        <v>0</v>
-      </c>
-      <c r="AH26" s="26">
-        <v>0</v>
-      </c>
-      <c r="AI26" s="26">
-        <v>0</v>
-      </c>
-      <c r="AJ26" s="26">
-        <v>1</v>
-      </c>
-      <c r="AK26" s="37" t="s">
-        <v>419</v>
+      <c r="AA50" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="AC50" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="AD50" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE50" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF50" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG50" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH50" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI50" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ50" s="15">
+        <v>2</v>
+      </c>
+      <c r="AK50" s="18" t="s">
+        <v>402</v>
       </c>
     </row>
-    <row r="27" spans="1:37" s="24" customFormat="1">
-      <c r="A27" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="C27" s="24">
-        <v>0</v>
-      </c>
-      <c r="D27" s="24">
+    <row r="51" spans="1:37" s="15" customFormat="1">
+      <c r="A51" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="C51" s="15">
+        <v>0</v>
+      </c>
+      <c r="D51" s="23">
         <v>100</v>
       </c>
-      <c r="E27" s="24">
+      <c r="E51" s="23">
         <v>100</v>
       </c>
-      <c r="F27" s="24">
-        <v>0</v>
-      </c>
-      <c r="G27" s="24">
-        <v>0</v>
-      </c>
-      <c r="H27" s="24">
-        <v>0</v>
-      </c>
-      <c r="I27" s="24">
-        <v>0</v>
-      </c>
-      <c r="J27" s="24">
-        <v>0</v>
-      </c>
-      <c r="K27" s="24">
-        <v>0</v>
-      </c>
-      <c r="L27" s="24">
-        <v>2</v>
-      </c>
-      <c r="M27" s="24">
-        <v>2</v>
-      </c>
-      <c r="N27" s="24">
-        <v>2</v>
-      </c>
-      <c r="O27" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="P27" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="24">
+      <c r="F51" s="15">
+        <v>0</v>
+      </c>
+      <c r="G51" s="15">
+        <v>0</v>
+      </c>
+      <c r="H51" s="15">
+        <v>0</v>
+      </c>
+      <c r="I51" s="15">
+        <v>0</v>
+      </c>
+      <c r="J51" s="15">
+        <v>0</v>
+      </c>
+      <c r="K51" s="15">
+        <v>0</v>
+      </c>
+      <c r="L51" s="15">
+        <v>0</v>
+      </c>
+      <c r="M51" s="15">
+        <v>2</v>
+      </c>
+      <c r="N51" s="23">
+        <v>2</v>
+      </c>
+      <c r="O51" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="P51" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="15">
         <v>20</v>
       </c>
-      <c r="R27" s="17" t="s">
+      <c r="R51" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="S27" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="X27" s="24">
-        <v>2</v>
-      </c>
-      <c r="Y27" s="15" t="s">
+      <c r="S51" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="X51" s="15">
+        <v>2</v>
+      </c>
+      <c r="Y51" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z27" s="24" t="s">
+      <c r="Z51" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AA27" s="24">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="24" t="s">
-        <v>215</v>
-      </c>
-      <c r="AC27" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="AD27" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="AE27" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF27" s="24">
-        <v>0</v>
-      </c>
-      <c r="AG27" s="24">
-        <v>0</v>
-      </c>
-      <c r="AH27" s="24">
-        <v>0</v>
-      </c>
-      <c r="AI27" s="24">
-        <v>0</v>
-      </c>
-      <c r="AJ27" s="24">
-        <v>2</v>
-      </c>
-      <c r="AK27" s="19" t="s">
-        <v>380</v>
+      <c r="AA51" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="AC51" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="AD51" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="AE51" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF51" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG51" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH51" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI51" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ51" s="23">
+        <v>2</v>
+      </c>
+      <c r="AK51" s="18" t="s">
+        <v>403</v>
       </c>
     </row>
-    <row r="28" spans="1:37" s="16" customFormat="1">
-      <c r="A28" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="C28" s="16">
-        <v>0</v>
-      </c>
-      <c r="D28" s="24">
+    <row r="52" spans="1:37" s="15" customFormat="1">
+      <c r="A52" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="C52" s="15">
+        <v>0</v>
+      </c>
+      <c r="D52" s="23">
         <v>100</v>
       </c>
-      <c r="E28" s="24">
+      <c r="E52" s="23">
         <v>100</v>
       </c>
-      <c r="F28" s="16">
-        <v>0</v>
-      </c>
-      <c r="G28" s="16">
-        <v>0</v>
-      </c>
-      <c r="H28" s="16">
-        <v>0</v>
-      </c>
-      <c r="I28" s="16">
-        <v>0</v>
-      </c>
-      <c r="J28" s="16">
-        <v>0</v>
-      </c>
-      <c r="K28" s="16">
-        <v>0</v>
-      </c>
-      <c r="L28" s="16">
-        <v>0</v>
-      </c>
-      <c r="M28" s="16">
-        <v>2</v>
-      </c>
-      <c r="N28" s="24">
-        <v>2</v>
-      </c>
-      <c r="O28" s="24" t="s">
-        <v>183</v>
-      </c>
-      <c r="P28" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="16">
+      <c r="F52" s="15">
+        <v>0</v>
+      </c>
+      <c r="G52" s="15">
+        <v>0</v>
+      </c>
+      <c r="H52" s="15">
+        <v>0</v>
+      </c>
+      <c r="I52" s="15">
+        <v>0</v>
+      </c>
+      <c r="J52" s="15">
+        <v>0</v>
+      </c>
+      <c r="K52" s="15">
+        <v>0</v>
+      </c>
+      <c r="L52" s="15">
+        <v>0</v>
+      </c>
+      <c r="M52" s="15">
+        <v>2</v>
+      </c>
+      <c r="N52" s="23">
+        <v>2</v>
+      </c>
+      <c r="O52" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="P52" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="15">
         <v>20</v>
       </c>
-      <c r="R28" s="17" t="s">
+      <c r="R52" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="S28" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="X28" s="16">
-        <v>2</v>
-      </c>
-      <c r="Y28" s="15" t="s">
+      <c r="S52" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="X52" s="15">
+        <v>2</v>
+      </c>
+      <c r="Y52" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z28" s="16" t="s">
+      <c r="Z52" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AA28" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="AC28" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="AD28" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="AE28" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF28" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG28" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH28" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI28" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ28" s="16">
-        <v>2</v>
-      </c>
-      <c r="AK28" s="19" t="s">
-        <v>381</v>
+      <c r="AA52" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="AC52" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="AD52" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="AE52" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF52" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG52" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH52" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI52" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ52" s="15">
+        <v>2</v>
+      </c>
+      <c r="AK52" s="18" t="s">
+        <v>404</v>
       </c>
     </row>
-    <row r="29" spans="1:37" s="16" customFormat="1">
-      <c r="A29" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="C29" s="16">
-        <v>0</v>
-      </c>
-      <c r="D29" s="24">
+    <row r="53" spans="1:37" s="15" customFormat="1">
+      <c r="A53" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="C53" s="15">
+        <v>0</v>
+      </c>
+      <c r="D53" s="23">
         <v>100</v>
       </c>
-      <c r="E29" s="24">
+      <c r="E53" s="23">
         <v>100</v>
       </c>
-      <c r="F29" s="16">
-        <v>0</v>
-      </c>
-      <c r="G29" s="16">
-        <v>0</v>
-      </c>
-      <c r="H29" s="16">
-        <v>0</v>
-      </c>
-      <c r="I29" s="16">
-        <v>0</v>
-      </c>
-      <c r="J29" s="16">
-        <v>0</v>
-      </c>
-      <c r="K29" s="16">
-        <v>0</v>
-      </c>
-      <c r="L29" s="16">
-        <v>0</v>
-      </c>
-      <c r="M29" s="16">
-        <v>2</v>
-      </c>
-      <c r="N29" s="24">
-        <v>2</v>
-      </c>
-      <c r="O29" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="P29" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="16">
+      <c r="F53" s="15">
+        <v>0</v>
+      </c>
+      <c r="G53" s="15">
+        <v>0</v>
+      </c>
+      <c r="H53" s="15">
+        <v>0</v>
+      </c>
+      <c r="I53" s="15">
+        <v>0</v>
+      </c>
+      <c r="J53" s="15">
+        <v>0</v>
+      </c>
+      <c r="K53" s="15">
+        <v>0</v>
+      </c>
+      <c r="L53" s="15">
+        <v>0</v>
+      </c>
+      <c r="M53" s="15">
+        <v>2</v>
+      </c>
+      <c r="N53" s="23">
+        <v>2</v>
+      </c>
+      <c r="O53" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="P53" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="15">
         <v>20</v>
       </c>
-      <c r="R29" s="16" t="s">
+      <c r="R53" s="15" t="s">
         <v>349</v>
       </c>
-      <c r="S29" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="X29" s="16">
-        <v>2</v>
-      </c>
-      <c r="Y29" s="15" t="s">
+      <c r="S53" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="X53" s="15">
+        <v>2</v>
+      </c>
+      <c r="Y53" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z29" s="16" t="s">
+      <c r="Z53" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AA29" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="AC29" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="AD29" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="AE29" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF29" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG29" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH29" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI29" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ29" s="24">
-        <v>2</v>
-      </c>
-      <c r="AK29" s="19" t="s">
-        <v>382</v>
+      <c r="AA53" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="AC53" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="AD53" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="AE53" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF53" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG53" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH53" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI53" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ53" s="23">
+        <v>2</v>
+      </c>
+      <c r="AK53" s="18" t="s">
+        <v>405</v>
       </c>
     </row>
-    <row r="30" spans="1:37" s="16" customFormat="1">
-      <c r="A30" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="C30" s="16">
-        <v>0</v>
-      </c>
-      <c r="D30" s="24">
+    <row r="54" spans="1:37" s="15" customFormat="1">
+      <c r="A54" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C54" s="15">
+        <v>0</v>
+      </c>
+      <c r="D54" s="23">
         <v>100</v>
       </c>
-      <c r="E30" s="24">
+      <c r="E54" s="23">
         <v>100</v>
       </c>
-      <c r="F30" s="16">
-        <v>0</v>
-      </c>
-      <c r="G30" s="16">
-        <v>0</v>
-      </c>
-      <c r="H30" s="16">
-        <v>0</v>
-      </c>
-      <c r="I30" s="16">
-        <v>0</v>
-      </c>
-      <c r="J30" s="16">
-        <v>0</v>
-      </c>
-      <c r="K30" s="16">
-        <v>0</v>
-      </c>
-      <c r="L30" s="16">
-        <v>0</v>
-      </c>
-      <c r="M30" s="16">
-        <v>2</v>
-      </c>
-      <c r="N30" s="24">
-        <v>2</v>
-      </c>
-      <c r="O30" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="P30" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="16">
+      <c r="F54" s="15">
+        <v>0</v>
+      </c>
+      <c r="G54" s="15">
+        <v>0</v>
+      </c>
+      <c r="H54" s="15">
+        <v>0</v>
+      </c>
+      <c r="I54" s="15">
+        <v>0</v>
+      </c>
+      <c r="J54" s="15">
+        <v>0</v>
+      </c>
+      <c r="K54" s="15">
+        <v>0</v>
+      </c>
+      <c r="L54" s="15">
+        <v>0</v>
+      </c>
+      <c r="M54" s="15">
+        <v>2</v>
+      </c>
+      <c r="N54" s="23">
+        <v>3</v>
+      </c>
+      <c r="O54" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="P54" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="15">
         <v>20</v>
       </c>
-      <c r="R30" s="16" t="s">
+      <c r="R54" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="S30" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="X30" s="16">
-        <v>2</v>
-      </c>
-      <c r="Y30" s="15" t="s">
+      <c r="S54" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="X54" s="15">
+        <v>2</v>
+      </c>
+      <c r="Y54" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z30" s="16" t="s">
+      <c r="Z54" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AA30" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB30" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="AC30" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="AD30" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="AE30" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF30" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG30" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH30" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI30" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ30" s="16">
-        <v>2</v>
-      </c>
-      <c r="AK30" s="19" t="s">
-        <v>383</v>
+      <c r="AA54" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC54" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="AD54" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="AE54" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF54" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG54" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH54" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI54" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ54" s="15">
+        <v>2</v>
+      </c>
+      <c r="AK54" s="18" t="s">
+        <v>406</v>
       </c>
     </row>
-    <row r="31" spans="1:37" s="16" customFormat="1">
-      <c r="A31" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="C31" s="16">
-        <v>0</v>
-      </c>
-      <c r="D31" s="24">
+    <row r="55" spans="1:37" s="15" customFormat="1">
+      <c r="A55" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="C55" s="15">
+        <v>0</v>
+      </c>
+      <c r="D55" s="23">
         <v>100</v>
       </c>
-      <c r="E31" s="24">
+      <c r="E55" s="23">
         <v>100</v>
       </c>
-      <c r="F31" s="16">
-        <v>0</v>
-      </c>
-      <c r="G31" s="16">
-        <v>0</v>
-      </c>
-      <c r="H31" s="16">
-        <v>0</v>
-      </c>
-      <c r="I31" s="16">
-        <v>0</v>
-      </c>
-      <c r="J31" s="16">
-        <v>0</v>
-      </c>
-      <c r="K31" s="16">
-        <v>0</v>
-      </c>
-      <c r="L31" s="16">
-        <v>0</v>
-      </c>
-      <c r="M31" s="16">
-        <v>2</v>
-      </c>
-      <c r="N31" s="24">
-        <v>2</v>
-      </c>
-      <c r="O31" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="P31" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="16">
+      <c r="F55" s="15">
+        <v>0</v>
+      </c>
+      <c r="G55" s="15">
+        <v>0</v>
+      </c>
+      <c r="H55" s="15">
+        <v>0</v>
+      </c>
+      <c r="I55" s="15">
+        <v>0</v>
+      </c>
+      <c r="J55" s="15">
+        <v>0</v>
+      </c>
+      <c r="K55" s="15">
+        <v>0</v>
+      </c>
+      <c r="L55" s="15">
+        <v>0</v>
+      </c>
+      <c r="M55" s="15">
+        <v>2</v>
+      </c>
+      <c r="N55" s="23">
+        <v>3</v>
+      </c>
+      <c r="O55" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="P55" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="15">
         <v>20</v>
       </c>
-      <c r="R31" s="16" t="s">
+      <c r="R55" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="S31" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="X31" s="16">
-        <v>2</v>
-      </c>
-      <c r="Y31" s="15" t="s">
+      <c r="S55" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="X55" s="15">
+        <v>2</v>
+      </c>
+      <c r="Y55" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z31" s="16" t="s">
+      <c r="Z55" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AA31" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB31" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="AC31" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="AD31" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="AE31" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF31" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG31" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH31" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI31" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ31" s="24">
-        <v>2</v>
-      </c>
-      <c r="AK31" s="19" t="s">
-        <v>384</v>
+      <c r="AA55" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="AC55" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="AD55" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="AE55" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF55" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG55" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH55" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI55" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ55" s="23">
+        <v>2</v>
+      </c>
+      <c r="AK55" s="18" t="s">
+        <v>407</v>
       </c>
     </row>
-    <row r="32" spans="1:37" s="16" customFormat="1">
-      <c r="A32" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="C32" s="16">
-        <v>0</v>
-      </c>
-      <c r="D32" s="24">
+    <row r="56" spans="1:37" s="15" customFormat="1">
+      <c r="A56" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="C56" s="15">
+        <v>0</v>
+      </c>
+      <c r="D56" s="23">
         <v>100</v>
       </c>
-      <c r="E32" s="24">
+      <c r="E56" s="23">
         <v>100</v>
       </c>
-      <c r="F32" s="16">
-        <v>0</v>
-      </c>
-      <c r="G32" s="16">
-        <v>0</v>
-      </c>
-      <c r="H32" s="16">
-        <v>0</v>
-      </c>
-      <c r="I32" s="16">
-        <v>0</v>
-      </c>
-      <c r="J32" s="16">
-        <v>0</v>
-      </c>
-      <c r="K32" s="16">
-        <v>0</v>
-      </c>
-      <c r="L32" s="16">
-        <v>0</v>
-      </c>
-      <c r="M32" s="16">
-        <v>2</v>
-      </c>
-      <c r="N32" s="24">
-        <v>2</v>
-      </c>
-      <c r="O32" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="P32" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="16">
+      <c r="F56" s="15">
+        <v>0</v>
+      </c>
+      <c r="G56" s="15">
+        <v>0</v>
+      </c>
+      <c r="H56" s="15">
+        <v>0</v>
+      </c>
+      <c r="I56" s="15">
+        <v>0</v>
+      </c>
+      <c r="J56" s="15">
+        <v>0</v>
+      </c>
+      <c r="K56" s="15">
+        <v>0</v>
+      </c>
+      <c r="L56" s="15">
+        <v>0</v>
+      </c>
+      <c r="M56" s="15">
+        <v>2</v>
+      </c>
+      <c r="N56" s="23">
+        <v>3</v>
+      </c>
+      <c r="O56" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="P56" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="15">
         <v>20</v>
       </c>
-      <c r="R32" s="16" t="s">
+      <c r="R56" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="S32" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="X32" s="16">
-        <v>2</v>
-      </c>
-      <c r="Y32" s="15" t="s">
+      <c r="S56" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="X56" s="15">
+        <v>2</v>
+      </c>
+      <c r="Y56" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z32" s="16" t="s">
+      <c r="Z56" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AA32" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB32" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="AC32" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="AD32" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="AE32" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF32" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG32" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH32" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI32" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ32" s="16">
-        <v>2</v>
-      </c>
-      <c r="AK32" s="19" t="s">
-        <v>385</v>
+      <c r="AA56" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB56" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="AC56" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="AD56" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="AE56" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF56" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG56" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH56" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI56" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ56" s="15">
+        <v>2</v>
+      </c>
+      <c r="AK56" s="18" t="s">
+        <v>408</v>
       </c>
     </row>
-    <row r="33" spans="1:37" s="16" customFormat="1">
-      <c r="A33" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="C33" s="16">
-        <v>0</v>
-      </c>
-      <c r="D33" s="24">
+    <row r="57" spans="1:37" s="15" customFormat="1">
+      <c r="A57" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C57" s="15">
+        <v>0</v>
+      </c>
+      <c r="D57" s="23">
         <v>100</v>
       </c>
-      <c r="E33" s="24">
+      <c r="E57" s="23">
         <v>100</v>
       </c>
-      <c r="F33" s="16">
-        <v>0</v>
-      </c>
-      <c r="G33" s="16">
-        <v>0</v>
-      </c>
-      <c r="H33" s="16">
-        <v>0</v>
-      </c>
-      <c r="I33" s="16">
-        <v>0</v>
-      </c>
-      <c r="J33" s="16">
-        <v>0</v>
-      </c>
-      <c r="K33" s="16">
-        <v>0</v>
-      </c>
-      <c r="L33" s="16">
-        <v>0</v>
-      </c>
-      <c r="M33" s="16">
-        <v>1</v>
-      </c>
-      <c r="N33" s="24">
-        <v>2</v>
-      </c>
-      <c r="O33" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="P33" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="16">
+      <c r="F57" s="15">
+        <v>0</v>
+      </c>
+      <c r="G57" s="15">
+        <v>0</v>
+      </c>
+      <c r="H57" s="15">
+        <v>0</v>
+      </c>
+      <c r="I57" s="15">
+        <v>0</v>
+      </c>
+      <c r="J57" s="15">
+        <v>0</v>
+      </c>
+      <c r="K57" s="15">
+        <v>0</v>
+      </c>
+      <c r="L57" s="15">
+        <v>0</v>
+      </c>
+      <c r="M57" s="23">
+        <v>2</v>
+      </c>
+      <c r="N57" s="23">
+        <v>2</v>
+      </c>
+      <c r="O57" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="P57" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="15">
         <v>20</v>
       </c>
-      <c r="R33" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="S33" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="X33" s="16">
-        <v>2</v>
-      </c>
-      <c r="Y33" s="15" t="s">
+      <c r="R57" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="S57" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="X57" s="15">
+        <v>2</v>
+      </c>
+      <c r="Y57" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z33" s="16" t="s">
+      <c r="Z57" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AA33" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB33" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="AC33" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="AD33" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="AE33" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF33" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG33" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH33" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI33" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ33" s="24">
-        <v>2</v>
-      </c>
-      <c r="AK33" s="19" t="s">
-        <v>386</v>
+      <c r="AA57" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="AC57" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="AD57" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="AE57" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF57" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG57" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH57" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI57" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ57" s="23">
+        <v>2</v>
+      </c>
+      <c r="AK57" s="18" t="s">
+        <v>409</v>
       </c>
     </row>
-    <row r="34" spans="1:37" s="16" customFormat="1">
-      <c r="A34" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="C34" s="16">
-        <v>0</v>
-      </c>
-      <c r="D34" s="24">
+    <row r="58" spans="1:37" s="15" customFormat="1" ht="13.9" thickBot="1">
+      <c r="A58" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="C58" s="15">
+        <v>0</v>
+      </c>
+      <c r="D58" s="23">
         <v>100</v>
       </c>
-      <c r="E34" s="24">
+      <c r="E58" s="23">
         <v>100</v>
       </c>
-      <c r="F34" s="16">
-        <v>0</v>
-      </c>
-      <c r="G34" s="16">
-        <v>0</v>
-      </c>
-      <c r="H34" s="16">
-        <v>0</v>
-      </c>
-      <c r="I34" s="16">
-        <v>0</v>
-      </c>
-      <c r="J34" s="16">
-        <v>0</v>
-      </c>
-      <c r="K34" s="16">
-        <v>0</v>
-      </c>
-      <c r="L34" s="16">
-        <v>0</v>
-      </c>
-      <c r="M34" s="16">
-        <v>1</v>
-      </c>
-      <c r="N34" s="24">
-        <v>2</v>
-      </c>
-      <c r="O34" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="P34" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="16">
+      <c r="F58" s="15">
+        <v>0</v>
+      </c>
+      <c r="G58" s="15">
+        <v>0</v>
+      </c>
+      <c r="H58" s="15">
+        <v>0</v>
+      </c>
+      <c r="I58" s="15">
+        <v>0</v>
+      </c>
+      <c r="J58" s="15">
+        <v>0</v>
+      </c>
+      <c r="K58" s="15">
+        <v>0</v>
+      </c>
+      <c r="L58" s="15">
+        <v>0</v>
+      </c>
+      <c r="M58" s="23">
+        <v>2</v>
+      </c>
+      <c r="N58" s="23">
+        <v>2</v>
+      </c>
+      <c r="O58" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="P58" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="15">
         <v>20</v>
       </c>
-      <c r="R34" s="17" t="s">
-        <v>331</v>
-      </c>
-      <c r="S34" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="X34" s="16">
-        <v>2</v>
-      </c>
-      <c r="Y34" s="15" t="s">
+      <c r="R58" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="S58" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="X58" s="15">
+        <v>2</v>
+      </c>
+      <c r="Y58" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z34" s="16" t="s">
+      <c r="Z58" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AA34" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB34" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="AC34" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="AD34" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="AE34" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF34" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG34" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH34" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI34" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ34" s="16">
-        <v>2</v>
-      </c>
-      <c r="AK34" s="19" t="s">
-        <v>387</v>
+      <c r="AA58" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="AC58" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="AD58" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="AE58" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF58" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG58" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH58" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI58" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ58" s="15">
+        <v>2</v>
+      </c>
+      <c r="AK58" s="19" t="s">
+        <v>410</v>
       </c>
     </row>
-    <row r="35" spans="1:37" s="16" customFormat="1">
-      <c r="A35" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="C35" s="16">
-        <v>0</v>
-      </c>
-      <c r="D35" s="24">
+    <row r="59" spans="1:37" s="20" customFormat="1" ht="13.9" thickBot="1">
+      <c r="A59" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="C59" s="20">
+        <v>0</v>
+      </c>
+      <c r="D59" s="23">
         <v>100</v>
       </c>
-      <c r="E35" s="24">
+      <c r="E59" s="23">
         <v>100</v>
       </c>
-      <c r="F35" s="16">
-        <v>0</v>
-      </c>
-      <c r="G35" s="16">
-        <v>0</v>
-      </c>
-      <c r="H35" s="16">
-        <v>0</v>
-      </c>
-      <c r="I35" s="16">
-        <v>0</v>
-      </c>
-      <c r="J35" s="16">
-        <v>0</v>
-      </c>
-      <c r="K35" s="16">
-        <v>0</v>
-      </c>
-      <c r="L35" s="16">
-        <v>0</v>
-      </c>
-      <c r="M35" s="16">
-        <v>1</v>
-      </c>
-      <c r="N35" s="24">
-        <v>2</v>
-      </c>
-      <c r="O35" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="P35" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="16">
+      <c r="F59" s="20">
+        <v>0</v>
+      </c>
+      <c r="G59" s="20">
+        <v>0</v>
+      </c>
+      <c r="H59" s="20">
+        <v>0</v>
+      </c>
+      <c r="I59" s="20">
+        <v>0</v>
+      </c>
+      <c r="J59" s="20">
+        <v>0</v>
+      </c>
+      <c r="K59" s="20">
+        <v>0</v>
+      </c>
+      <c r="L59" s="20">
+        <v>0</v>
+      </c>
+      <c r="M59" s="23">
+        <v>2</v>
+      </c>
+      <c r="N59" s="23">
+        <v>2</v>
+      </c>
+      <c r="O59" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="P59" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="20">
         <v>20</v>
       </c>
-      <c r="R35" s="17" t="s">
-        <v>332</v>
-      </c>
-      <c r="S35" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="X35" s="16">
-        <v>2</v>
-      </c>
-      <c r="Y35" s="15" t="s">
+      <c r="R59" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="S59" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="X59" s="20">
+        <v>2</v>
+      </c>
+      <c r="Y59" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z35" s="16" t="s">
+      <c r="Z59" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="AA35" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB35" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="AC35" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="AD35" s="16" t="s">
-        <v>256</v>
-      </c>
-      <c r="AE35" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF35" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG35" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH35" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI35" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ35" s="24">
-        <v>2</v>
-      </c>
-      <c r="AK35" s="19" t="s">
-        <v>388</v>
+      <c r="AA59" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="AC59" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="AD59" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="AE59" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF59" s="20">
+        <v>0</v>
+      </c>
+      <c r="AG59" s="20">
+        <v>0</v>
+      </c>
+      <c r="AH59" s="20">
+        <v>0</v>
+      </c>
+      <c r="AI59" s="20">
+        <v>0</v>
+      </c>
+      <c r="AJ59" s="23">
+        <v>2</v>
+      </c>
+      <c r="AK59" s="18" t="s">
+        <v>411</v>
       </c>
     </row>
-    <row r="36" spans="1:37" s="16" customFormat="1">
-      <c r="A36" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="C36" s="16">
-        <v>0</v>
-      </c>
-      <c r="D36" s="24">
+    <row r="60" spans="1:37" s="15" customFormat="1">
+      <c r="A60" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="C60" s="15">
+        <v>0</v>
+      </c>
+      <c r="D60" s="23">
         <v>100</v>
       </c>
-      <c r="E36" s="24">
+      <c r="E60" s="23">
         <v>100</v>
       </c>
-      <c r="F36" s="16">
-        <v>0</v>
-      </c>
-      <c r="G36" s="16">
-        <v>0</v>
-      </c>
-      <c r="H36" s="16">
-        <v>0</v>
-      </c>
-      <c r="I36" s="16">
-        <v>0</v>
-      </c>
-      <c r="J36" s="16">
-        <v>0</v>
-      </c>
-      <c r="K36" s="16">
-        <v>0</v>
-      </c>
-      <c r="L36" s="16">
-        <v>0</v>
-      </c>
-      <c r="M36" s="16">
-        <v>3</v>
-      </c>
-      <c r="N36" s="24">
-        <v>3</v>
-      </c>
-      <c r="O36" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="P36" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="16">
+      <c r="F60" s="15">
+        <v>0</v>
+      </c>
+      <c r="G60" s="15">
+        <v>0</v>
+      </c>
+      <c r="H60" s="15">
+        <v>0</v>
+      </c>
+      <c r="I60" s="15">
+        <v>0</v>
+      </c>
+      <c r="J60" s="15">
+        <v>0</v>
+      </c>
+      <c r="K60" s="15">
+        <v>0</v>
+      </c>
+      <c r="L60" s="15">
+        <v>0</v>
+      </c>
+      <c r="M60" s="15">
+        <v>1</v>
+      </c>
+      <c r="N60" s="23">
+        <v>2</v>
+      </c>
+      <c r="O60" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="P60" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="15">
         <v>20</v>
       </c>
-      <c r="R36" s="17" t="s">
-        <v>333</v>
-      </c>
-      <c r="S36" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="X36" s="16">
-        <v>2</v>
-      </c>
-      <c r="Y36" s="15" t="s">
+      <c r="R60" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="S60" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="X60" s="15">
+        <v>2</v>
+      </c>
+      <c r="Y60" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z36" s="16" t="s">
+      <c r="Z60" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AA36" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB36" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="AC36" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="AD36" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="AE36" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF36" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG36" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH36" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI36" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ36" s="16">
-        <v>2</v>
-      </c>
-      <c r="AK36" s="19" t="s">
-        <v>389</v>
+      <c r="AA60" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="AC60" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="AD60" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="AE60" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF60" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG60" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH60" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI60" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ60" s="15">
+        <v>2</v>
+      </c>
+      <c r="AK60" s="18" t="s">
+        <v>412</v>
       </c>
     </row>
-    <row r="37" spans="1:37" s="16" customFormat="1">
-      <c r="A37" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="C37" s="16">
-        <v>0</v>
-      </c>
-      <c r="D37" s="24">
+    <row r="61" spans="1:37" s="15" customFormat="1" ht="13.9" thickBot="1">
+      <c r="A61" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="C61" s="15">
+        <v>0</v>
+      </c>
+      <c r="D61" s="23">
         <v>100</v>
       </c>
-      <c r="E37" s="24">
+      <c r="E61" s="23">
         <v>100</v>
       </c>
-      <c r="F37" s="16">
-        <v>0</v>
-      </c>
-      <c r="G37" s="16">
-        <v>0</v>
-      </c>
-      <c r="H37" s="16">
-        <v>0</v>
-      </c>
-      <c r="I37" s="16">
-        <v>0</v>
-      </c>
-      <c r="J37" s="16">
-        <v>0</v>
-      </c>
-      <c r="K37" s="16">
-        <v>0</v>
-      </c>
-      <c r="L37" s="16">
-        <v>0</v>
-      </c>
-      <c r="M37" s="16">
-        <v>3</v>
-      </c>
-      <c r="N37" s="24">
-        <v>3</v>
-      </c>
-      <c r="O37" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="P37" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="16">
+      <c r="F61" s="15">
+        <v>0</v>
+      </c>
+      <c r="G61" s="15">
+        <v>0</v>
+      </c>
+      <c r="H61" s="15">
+        <v>0</v>
+      </c>
+      <c r="I61" s="15">
+        <v>0</v>
+      </c>
+      <c r="J61" s="15">
+        <v>0</v>
+      </c>
+      <c r="K61" s="15">
+        <v>0</v>
+      </c>
+      <c r="L61" s="15">
+        <v>0</v>
+      </c>
+      <c r="M61" s="15">
+        <v>1</v>
+      </c>
+      <c r="N61" s="23">
+        <v>2</v>
+      </c>
+      <c r="O61" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="P61" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="15">
         <v>20</v>
       </c>
-      <c r="R37" s="17" t="s">
-        <v>334</v>
-      </c>
-      <c r="S37" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="X37" s="16">
-        <v>2</v>
-      </c>
-      <c r="Y37" s="15" t="s">
+      <c r="R61" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="S61" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="X61" s="15">
+        <v>2</v>
+      </c>
+      <c r="Y61" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z37" s="16" t="s">
+      <c r="Z61" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AA37" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB37" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="AC37" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="AD37" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="AE37" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF37" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG37" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH37" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI37" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ37" s="24">
-        <v>2</v>
-      </c>
-      <c r="AK37" s="19" t="s">
-        <v>390</v>
+      <c r="AA61" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="AC61" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="AD61" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="AE61" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF61" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG61" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH61" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI61" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ61" s="23">
+        <v>2</v>
+      </c>
+      <c r="AK61" s="19" t="s">
+        <v>413</v>
       </c>
     </row>
-    <row r="38" spans="1:37" s="16" customFormat="1">
-      <c r="A38" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="C38" s="16">
-        <v>0</v>
-      </c>
-      <c r="D38" s="24">
+    <row r="62" spans="1:37" s="20" customFormat="1" ht="13.9" thickBot="1">
+      <c r="A62" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="C62" s="20">
+        <v>0</v>
+      </c>
+      <c r="D62" s="23">
         <v>100</v>
       </c>
-      <c r="E38" s="24">
+      <c r="E62" s="23">
         <v>100</v>
       </c>
-      <c r="F38" s="16">
-        <v>0</v>
-      </c>
-      <c r="G38" s="16">
-        <v>0</v>
-      </c>
-      <c r="H38" s="16">
-        <v>0</v>
-      </c>
-      <c r="I38" s="16">
-        <v>0</v>
-      </c>
-      <c r="J38" s="16">
-        <v>0</v>
-      </c>
-      <c r="K38" s="16">
-        <v>0</v>
-      </c>
-      <c r="L38" s="16">
-        <v>0</v>
-      </c>
-      <c r="M38" s="16">
-        <v>3</v>
-      </c>
-      <c r="N38" s="24">
-        <v>3</v>
-      </c>
-      <c r="O38" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="P38" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="16">
+      <c r="F62" s="20">
+        <v>0</v>
+      </c>
+      <c r="G62" s="20">
+        <v>0</v>
+      </c>
+      <c r="H62" s="20">
+        <v>0</v>
+      </c>
+      <c r="I62" s="20">
+        <v>0</v>
+      </c>
+      <c r="J62" s="20">
+        <v>0</v>
+      </c>
+      <c r="K62" s="20">
+        <v>0</v>
+      </c>
+      <c r="L62" s="20">
+        <v>0</v>
+      </c>
+      <c r="M62" s="20">
+        <v>1</v>
+      </c>
+      <c r="N62" s="23">
+        <v>2</v>
+      </c>
+      <c r="O62" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="P62" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="20">
         <v>20</v>
       </c>
-      <c r="R38" s="17" t="s">
-        <v>335</v>
-      </c>
-      <c r="S38" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="X38" s="16">
-        <v>2</v>
-      </c>
-      <c r="Y38" s="15" t="s">
+      <c r="R62" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="S62" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="X62" s="20">
+        <v>2</v>
+      </c>
+      <c r="Y62" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z38" s="16" t="s">
+      <c r="Z62" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="AA38" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB38" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="AC38" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="AD38" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="AE38" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF38" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG38" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH38" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI38" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ38" s="16">
-        <v>2</v>
-      </c>
-      <c r="AK38" s="19" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="39" spans="1:37" s="16" customFormat="1">
-      <c r="A39" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="C39" s="16">
-        <v>0</v>
-      </c>
-      <c r="D39" s="24">
-        <v>100</v>
-      </c>
-      <c r="E39" s="24">
-        <v>100</v>
-      </c>
-      <c r="F39" s="16">
-        <v>0</v>
-      </c>
-      <c r="G39" s="16">
-        <v>0</v>
-      </c>
-      <c r="H39" s="16">
-        <v>0</v>
-      </c>
-      <c r="I39" s="16">
-        <v>0</v>
-      </c>
-      <c r="J39" s="16">
-        <v>0</v>
-      </c>
-      <c r="K39" s="16">
-        <v>0</v>
-      </c>
-      <c r="L39" s="16">
-        <v>0</v>
-      </c>
-      <c r="M39" s="16">
-        <v>1</v>
-      </c>
-      <c r="N39" s="24">
-        <v>1</v>
-      </c>
-      <c r="O39" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="P39" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="16">
-        <v>20</v>
-      </c>
-      <c r="R39" s="17" t="s">
-        <v>336</v>
-      </c>
-      <c r="S39" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="X39" s="16">
-        <v>2</v>
-      </c>
-      <c r="Y39" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z39" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA39" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB39" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="AC39" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="AD39" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="AE39" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF39" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG39" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH39" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI39" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ39" s="24">
-        <v>2</v>
-      </c>
-      <c r="AK39" s="19" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="40" spans="1:37" s="16" customFormat="1">
-      <c r="A40" s="19" t="s">
-        <v>294</v>
-      </c>
-      <c r="C40" s="16">
-        <v>0</v>
-      </c>
-      <c r="D40" s="24">
-        <v>100</v>
-      </c>
-      <c r="E40" s="24">
-        <v>100</v>
-      </c>
-      <c r="F40" s="16">
-        <v>0</v>
-      </c>
-      <c r="G40" s="16">
-        <v>0</v>
-      </c>
-      <c r="H40" s="16">
-        <v>0</v>
-      </c>
-      <c r="I40" s="16">
-        <v>0</v>
-      </c>
-      <c r="J40" s="16">
-        <v>0</v>
-      </c>
-      <c r="K40" s="16">
-        <v>0</v>
-      </c>
-      <c r="L40" s="16">
-        <v>0</v>
-      </c>
-      <c r="M40" s="16">
-        <v>1</v>
-      </c>
-      <c r="N40" s="24">
-        <v>1</v>
-      </c>
-      <c r="O40" s="16" t="s">
-        <v>292</v>
-      </c>
-      <c r="P40" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="16">
-        <v>20</v>
-      </c>
-      <c r="R40" s="17" t="s">
-        <v>337</v>
-      </c>
-      <c r="S40" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="X40" s="16">
-        <v>2</v>
-      </c>
-      <c r="Y40" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z40" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA40" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB40" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="AC40" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="AD40" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="AE40" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF40" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG40" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH40" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI40" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ40" s="16">
-        <v>2</v>
-      </c>
-      <c r="AK40" s="19" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="41" spans="1:37" s="16" customFormat="1">
-      <c r="A41" s="19" t="s">
-        <v>295</v>
-      </c>
-      <c r="C41" s="16">
-        <v>0</v>
-      </c>
-      <c r="D41" s="24">
-        <v>100</v>
-      </c>
-      <c r="E41" s="24">
-        <v>100</v>
-      </c>
-      <c r="F41" s="16">
-        <v>0</v>
-      </c>
-      <c r="G41" s="16">
-        <v>0</v>
-      </c>
-      <c r="H41" s="16">
-        <v>0</v>
-      </c>
-      <c r="I41" s="16">
-        <v>0</v>
-      </c>
-      <c r="J41" s="16">
-        <v>0</v>
-      </c>
-      <c r="K41" s="16">
-        <v>0</v>
-      </c>
-      <c r="L41" s="16">
-        <v>0</v>
-      </c>
-      <c r="M41" s="16">
-        <v>1</v>
-      </c>
-      <c r="N41" s="24">
-        <v>1</v>
-      </c>
-      <c r="O41" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="P41" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="16">
-        <v>20</v>
-      </c>
-      <c r="R41" s="17" t="s">
-        <v>338</v>
-      </c>
-      <c r="S41" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="X41" s="16">
-        <v>2</v>
-      </c>
-      <c r="Y41" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z41" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA41" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB41" s="16" t="s">
-        <v>288</v>
-      </c>
-      <c r="AC41" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="AD41" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="AE41" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF41" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG41" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH41" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI41" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ41" s="24">
-        <v>2</v>
-      </c>
-      <c r="AK41" s="19" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="42" spans="1:37" s="16" customFormat="1">
-      <c r="A42" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="C42" s="16">
-        <v>0</v>
-      </c>
-      <c r="D42" s="24">
-        <v>100</v>
-      </c>
-      <c r="E42" s="24">
-        <v>100</v>
-      </c>
-      <c r="F42" s="16">
-        <v>0</v>
-      </c>
-      <c r="G42" s="16">
-        <v>0</v>
-      </c>
-      <c r="H42" s="16">
-        <v>0</v>
-      </c>
-      <c r="I42" s="16">
-        <v>0</v>
-      </c>
-      <c r="J42" s="16">
-        <v>0</v>
-      </c>
-      <c r="K42" s="16">
-        <v>0</v>
-      </c>
-      <c r="L42" s="16">
-        <v>0</v>
-      </c>
-      <c r="M42" s="16">
-        <v>2</v>
-      </c>
-      <c r="N42" s="24">
-        <v>2</v>
-      </c>
-      <c r="O42" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="P42" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="16">
-        <v>20</v>
-      </c>
-      <c r="R42" s="17" t="s">
-        <v>339</v>
-      </c>
-      <c r="S42" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="X42" s="16">
-        <v>2</v>
-      </c>
-      <c r="Y42" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z42" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA42" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB42" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="AC42" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="AD42" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="AE42" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF42" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG42" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH42" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI42" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ42" s="16">
-        <v>2</v>
-      </c>
-      <c r="AK42" s="19" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="43" spans="1:37" s="16" customFormat="1">
-      <c r="A43" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="C43" s="16">
-        <v>0</v>
-      </c>
-      <c r="D43" s="24">
-        <v>100</v>
-      </c>
-      <c r="E43" s="24">
-        <v>100</v>
-      </c>
-      <c r="F43" s="16">
-        <v>0</v>
-      </c>
-      <c r="G43" s="16">
-        <v>0</v>
-      </c>
-      <c r="H43" s="16">
-        <v>0</v>
-      </c>
-      <c r="I43" s="16">
-        <v>0</v>
-      </c>
-      <c r="J43" s="16">
-        <v>0</v>
-      </c>
-      <c r="K43" s="16">
-        <v>0</v>
-      </c>
-      <c r="L43" s="16">
-        <v>0</v>
-      </c>
-      <c r="M43" s="16">
-        <v>2</v>
-      </c>
-      <c r="N43" s="24">
-        <v>2</v>
-      </c>
-      <c r="O43" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="P43" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="16">
-        <v>20</v>
-      </c>
-      <c r="R43" s="17" t="s">
-        <v>340</v>
-      </c>
-      <c r="S43" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="X43" s="16">
-        <v>2</v>
-      </c>
-      <c r="Y43" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z43" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA43" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB43" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="AC43" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="AD43" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="AE43" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF43" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG43" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH43" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI43" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ43" s="24">
-        <v>2</v>
-      </c>
-      <c r="AK43" s="19" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="44" spans="1:37" s="16" customFormat="1">
-      <c r="A44" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="C44" s="16">
-        <v>0</v>
-      </c>
-      <c r="D44" s="24">
-        <v>100</v>
-      </c>
-      <c r="E44" s="24">
-        <v>100</v>
-      </c>
-      <c r="F44" s="16">
-        <v>0</v>
-      </c>
-      <c r="G44" s="16">
-        <v>0</v>
-      </c>
-      <c r="H44" s="16">
-        <v>0</v>
-      </c>
-      <c r="I44" s="16">
-        <v>0</v>
-      </c>
-      <c r="J44" s="16">
-        <v>0</v>
-      </c>
-      <c r="K44" s="16">
-        <v>0</v>
-      </c>
-      <c r="L44" s="16">
-        <v>0</v>
-      </c>
-      <c r="M44" s="16">
-        <v>2</v>
-      </c>
-      <c r="N44" s="24">
-        <v>2</v>
-      </c>
-      <c r="O44" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="P44" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="16">
-        <v>20</v>
-      </c>
-      <c r="R44" s="17" t="s">
-        <v>341</v>
-      </c>
-      <c r="S44" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="X44" s="16">
-        <v>2</v>
-      </c>
-      <c r="Y44" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z44" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA44" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB44" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="AC44" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="AD44" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="AE44" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF44" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG44" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH44" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI44" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ44" s="16">
-        <v>2</v>
-      </c>
-      <c r="AK44" s="19" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="45" spans="1:37" s="16" customFormat="1">
-      <c r="A45" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="C45" s="16">
-        <v>0</v>
-      </c>
-      <c r="D45" s="24">
-        <v>100</v>
-      </c>
-      <c r="E45" s="24">
-        <v>100</v>
-      </c>
-      <c r="F45" s="16">
-        <v>0</v>
-      </c>
-      <c r="G45" s="16">
-        <v>0</v>
-      </c>
-      <c r="H45" s="16">
-        <v>0</v>
-      </c>
-      <c r="I45" s="16">
-        <v>0</v>
-      </c>
-      <c r="J45" s="16">
-        <v>0</v>
-      </c>
-      <c r="K45" s="16">
-        <v>0</v>
-      </c>
-      <c r="L45" s="16">
-        <v>0</v>
-      </c>
-      <c r="M45" s="16">
-        <v>2</v>
-      </c>
-      <c r="N45" s="24">
-        <v>2</v>
-      </c>
-      <c r="O45" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="P45" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="16">
-        <v>20</v>
-      </c>
-      <c r="R45" s="17" t="s">
-        <v>342</v>
-      </c>
-      <c r="S45" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="X45" s="16">
-        <v>2</v>
-      </c>
-      <c r="Y45" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z45" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA45" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB45" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="AC45" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="AD45" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="AE45" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF45" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG45" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH45" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI45" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ45" s="24">
-        <v>2</v>
-      </c>
-      <c r="AK45" s="19" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="46" spans="1:37" s="16" customFormat="1">
-      <c r="A46" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="C46" s="16">
-        <v>0</v>
-      </c>
-      <c r="D46" s="24">
-        <v>100</v>
-      </c>
-      <c r="E46" s="24">
-        <v>100</v>
-      </c>
-      <c r="F46" s="16">
-        <v>0</v>
-      </c>
-      <c r="G46" s="16">
-        <v>0</v>
-      </c>
-      <c r="H46" s="16">
-        <v>0</v>
-      </c>
-      <c r="I46" s="16">
-        <v>0</v>
-      </c>
-      <c r="J46" s="16">
-        <v>0</v>
-      </c>
-      <c r="K46" s="16">
-        <v>0</v>
-      </c>
-      <c r="L46" s="16">
-        <v>0</v>
-      </c>
-      <c r="M46" s="16">
-        <v>2</v>
-      </c>
-      <c r="N46" s="24">
-        <v>2</v>
-      </c>
-      <c r="O46" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="P46" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="16">
-        <v>20</v>
-      </c>
-      <c r="R46" s="17" t="s">
-        <v>343</v>
-      </c>
-      <c r="S46" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="X46" s="16">
-        <v>2</v>
-      </c>
-      <c r="Y46" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z46" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA46" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB46" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="AC46" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="AD46" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="AE46" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF46" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG46" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH46" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI46" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ46" s="16">
-        <v>2</v>
-      </c>
-      <c r="AK46" s="19" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="47" spans="1:37" s="16" customFormat="1">
-      <c r="A47" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="C47" s="16">
-        <v>0</v>
-      </c>
-      <c r="D47" s="24">
-        <v>100</v>
-      </c>
-      <c r="E47" s="24">
-        <v>100</v>
-      </c>
-      <c r="F47" s="16">
-        <v>0</v>
-      </c>
-      <c r="G47" s="16">
-        <v>0</v>
-      </c>
-      <c r="H47" s="16">
-        <v>0</v>
-      </c>
-      <c r="I47" s="16">
-        <v>0</v>
-      </c>
-      <c r="J47" s="16">
-        <v>0</v>
-      </c>
-      <c r="K47" s="16">
-        <v>0</v>
-      </c>
-      <c r="L47" s="16">
-        <v>0</v>
-      </c>
-      <c r="M47" s="16">
-        <v>2</v>
-      </c>
-      <c r="N47" s="24">
-        <v>2</v>
-      </c>
-      <c r="O47" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="P47" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="16">
-        <v>20</v>
-      </c>
-      <c r="R47" s="17" t="s">
-        <v>344</v>
-      </c>
-      <c r="S47" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="X47" s="16">
-        <v>2</v>
-      </c>
-      <c r="Y47" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z47" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA47" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB47" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="AC47" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="AD47" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="AE47" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF47" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG47" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH47" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI47" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ47" s="24">
-        <v>2</v>
-      </c>
-      <c r="AK47" s="19" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="48" spans="1:37" s="16" customFormat="1">
-      <c r="A48" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="C48" s="16">
-        <v>0</v>
-      </c>
-      <c r="D48" s="24">
-        <v>100</v>
-      </c>
-      <c r="E48" s="24">
-        <v>100</v>
-      </c>
-      <c r="F48" s="16">
-        <v>0</v>
-      </c>
-      <c r="G48" s="16">
-        <v>0</v>
-      </c>
-      <c r="H48" s="16">
-        <v>0</v>
-      </c>
-      <c r="I48" s="16">
-        <v>0</v>
-      </c>
-      <c r="J48" s="16">
-        <v>0</v>
-      </c>
-      <c r="K48" s="16">
-        <v>0</v>
-      </c>
-      <c r="L48" s="16">
-        <v>0</v>
-      </c>
-      <c r="M48" s="16">
-        <v>3</v>
-      </c>
-      <c r="N48" s="24">
-        <v>3</v>
-      </c>
-      <c r="O48" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="P48" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="16">
-        <v>20</v>
-      </c>
-      <c r="R48" s="17" t="s">
-        <v>345</v>
-      </c>
-      <c r="S48" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="X48" s="16">
-        <v>2</v>
-      </c>
-      <c r="Y48" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z48" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA48" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB48" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="AC48" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="AD48" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="AE48" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF48" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG48" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH48" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI48" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ48" s="16">
-        <v>2</v>
-      </c>
-      <c r="AK48" s="19" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="49" spans="1:37" s="16" customFormat="1">
-      <c r="A49" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="C49" s="16">
-        <v>0</v>
-      </c>
-      <c r="D49" s="24">
-        <v>100</v>
-      </c>
-      <c r="E49" s="24">
-        <v>100</v>
-      </c>
-      <c r="F49" s="16">
-        <v>0</v>
-      </c>
-      <c r="G49" s="16">
-        <v>0</v>
-      </c>
-      <c r="H49" s="16">
-        <v>0</v>
-      </c>
-      <c r="I49" s="16">
-        <v>0</v>
-      </c>
-      <c r="J49" s="16">
-        <v>0</v>
-      </c>
-      <c r="K49" s="16">
-        <v>0</v>
-      </c>
-      <c r="L49" s="16">
-        <v>0</v>
-      </c>
-      <c r="M49" s="16">
-        <v>3</v>
-      </c>
-      <c r="N49" s="24">
-        <v>3</v>
-      </c>
-      <c r="O49" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="P49" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="16">
-        <v>20</v>
-      </c>
-      <c r="R49" s="17" t="s">
-        <v>346</v>
-      </c>
-      <c r="S49" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="X49" s="16">
-        <v>2</v>
-      </c>
-      <c r="Y49" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z49" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA49" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB49" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="AC49" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="AD49" s="16" t="s">
-        <v>267</v>
-      </c>
-      <c r="AE49" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF49" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG49" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH49" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI49" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ49" s="24">
-        <v>2</v>
-      </c>
-      <c r="AK49" s="19" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="50" spans="1:37" s="16" customFormat="1">
-      <c r="A50" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="C50" s="16">
-        <v>0</v>
-      </c>
-      <c r="D50" s="24">
-        <v>100</v>
-      </c>
-      <c r="E50" s="24">
-        <v>100</v>
-      </c>
-      <c r="F50" s="16">
-        <v>0</v>
-      </c>
-      <c r="G50" s="16">
-        <v>0</v>
-      </c>
-      <c r="H50" s="16">
-        <v>0</v>
-      </c>
-      <c r="I50" s="16">
-        <v>0</v>
-      </c>
-      <c r="J50" s="16">
-        <v>0</v>
-      </c>
-      <c r="K50" s="16">
-        <v>0</v>
-      </c>
-      <c r="L50" s="16">
-        <v>0</v>
-      </c>
-      <c r="M50" s="16">
-        <v>3</v>
-      </c>
-      <c r="N50" s="24">
-        <v>3</v>
-      </c>
-      <c r="O50" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="P50" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="16">
-        <v>20</v>
-      </c>
-      <c r="R50" s="17" t="s">
-        <v>347</v>
-      </c>
-      <c r="S50" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="X50" s="16">
-        <v>2</v>
-      </c>
-      <c r="Y50" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z50" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA50" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB50" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="AC50" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="AD50" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="AE50" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF50" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG50" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH50" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI50" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ50" s="16">
-        <v>2</v>
-      </c>
-      <c r="AK50" s="19" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="51" spans="1:37" s="16" customFormat="1">
-      <c r="A51" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="C51" s="16">
-        <v>0</v>
-      </c>
-      <c r="D51" s="24">
-        <v>100</v>
-      </c>
-      <c r="E51" s="24">
-        <v>100</v>
-      </c>
-      <c r="F51" s="16">
-        <v>0</v>
-      </c>
-      <c r="G51" s="16">
-        <v>0</v>
-      </c>
-      <c r="H51" s="16">
-        <v>0</v>
-      </c>
-      <c r="I51" s="16">
-        <v>0</v>
-      </c>
-      <c r="J51" s="16">
-        <v>0</v>
-      </c>
-      <c r="K51" s="16">
-        <v>0</v>
-      </c>
-      <c r="L51" s="16">
-        <v>0</v>
-      </c>
-      <c r="M51" s="16">
-        <v>2</v>
-      </c>
-      <c r="N51" s="24">
-        <v>2</v>
-      </c>
-      <c r="O51" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="P51" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="16">
-        <v>20</v>
-      </c>
-      <c r="R51" s="17" t="s">
-        <v>348</v>
-      </c>
-      <c r="S51" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="X51" s="16">
-        <v>2</v>
-      </c>
-      <c r="Y51" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z51" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA51" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB51" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="AC51" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="AD51" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="AE51" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF51" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG51" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH51" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI51" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ51" s="24">
-        <v>2</v>
-      </c>
-      <c r="AK51" s="19" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="52" spans="1:37" s="16" customFormat="1">
-      <c r="A52" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="C52" s="16">
-        <v>0</v>
-      </c>
-      <c r="D52" s="24">
-        <v>100</v>
-      </c>
-      <c r="E52" s="24">
-        <v>100</v>
-      </c>
-      <c r="F52" s="16">
-        <v>0</v>
-      </c>
-      <c r="G52" s="16">
-        <v>0</v>
-      </c>
-      <c r="H52" s="16">
-        <v>0</v>
-      </c>
-      <c r="I52" s="16">
-        <v>0</v>
-      </c>
-      <c r="J52" s="16">
-        <v>0</v>
-      </c>
-      <c r="K52" s="16">
-        <v>0</v>
-      </c>
-      <c r="L52" s="16">
-        <v>0</v>
-      </c>
-      <c r="M52" s="16">
-        <v>2</v>
-      </c>
-      <c r="N52" s="24">
-        <v>2</v>
-      </c>
-      <c r="O52" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="P52" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="16">
-        <v>20</v>
-      </c>
-      <c r="R52" s="16" t="s">
-        <v>349</v>
-      </c>
-      <c r="S52" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="X52" s="16">
-        <v>2</v>
-      </c>
-      <c r="Y52" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z52" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA52" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB52" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="AC52" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="AD52" s="16" t="s">
-        <v>270</v>
-      </c>
-      <c r="AE52" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF52" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG52" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH52" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI52" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ52" s="16">
-        <v>2</v>
-      </c>
-      <c r="AK52" s="19" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="53" spans="1:37" s="16" customFormat="1">
-      <c r="A53" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="C53" s="16">
-        <v>0</v>
-      </c>
-      <c r="D53" s="24">
-        <v>100</v>
-      </c>
-      <c r="E53" s="24">
-        <v>100</v>
-      </c>
-      <c r="F53" s="16">
-        <v>0</v>
-      </c>
-      <c r="G53" s="16">
-        <v>0</v>
-      </c>
-      <c r="H53" s="16">
-        <v>0</v>
-      </c>
-      <c r="I53" s="16">
-        <v>0</v>
-      </c>
-      <c r="J53" s="16">
-        <v>0</v>
-      </c>
-      <c r="K53" s="16">
-        <v>0</v>
-      </c>
-      <c r="L53" s="16">
-        <v>0</v>
-      </c>
-      <c r="M53" s="16">
-        <v>2</v>
-      </c>
-      <c r="N53" s="24">
-        <v>2</v>
-      </c>
-      <c r="O53" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="P53" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="16">
-        <v>20</v>
-      </c>
-      <c r="R53" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="S53" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="X53" s="16">
-        <v>2</v>
-      </c>
-      <c r="Y53" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z53" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA53" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB53" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="AC53" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="AD53" s="16" t="s">
-        <v>271</v>
-      </c>
-      <c r="AE53" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF53" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG53" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH53" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI53" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ53" s="24">
-        <v>2</v>
-      </c>
-      <c r="AK53" s="19" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="54" spans="1:37" s="16" customFormat="1">
-      <c r="A54" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="C54" s="16">
-        <v>0</v>
-      </c>
-      <c r="D54" s="24">
-        <v>100</v>
-      </c>
-      <c r="E54" s="24">
-        <v>100</v>
-      </c>
-      <c r="F54" s="16">
-        <v>0</v>
-      </c>
-      <c r="G54" s="16">
-        <v>0</v>
-      </c>
-      <c r="H54" s="16">
-        <v>0</v>
-      </c>
-      <c r="I54" s="16">
-        <v>0</v>
-      </c>
-      <c r="J54" s="16">
-        <v>0</v>
-      </c>
-      <c r="K54" s="16">
-        <v>0</v>
-      </c>
-      <c r="L54" s="16">
-        <v>0</v>
-      </c>
-      <c r="M54" s="16">
-        <v>2</v>
-      </c>
-      <c r="N54" s="24">
-        <v>3</v>
-      </c>
-      <c r="O54" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="P54" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="16">
-        <v>20</v>
-      </c>
-      <c r="R54" s="16" t="s">
-        <v>351</v>
-      </c>
-      <c r="S54" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="X54" s="16">
-        <v>2</v>
-      </c>
-      <c r="Y54" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z54" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA54" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB54" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="AC54" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="AD54" s="16" t="s">
-        <v>272</v>
-      </c>
-      <c r="AE54" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF54" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG54" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH54" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI54" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ54" s="16">
-        <v>2</v>
-      </c>
-      <c r="AK54" s="19" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="55" spans="1:37" s="16" customFormat="1">
-      <c r="A55" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="C55" s="16">
-        <v>0</v>
-      </c>
-      <c r="D55" s="24">
-        <v>100</v>
-      </c>
-      <c r="E55" s="24">
-        <v>100</v>
-      </c>
-      <c r="F55" s="16">
-        <v>0</v>
-      </c>
-      <c r="G55" s="16">
-        <v>0</v>
-      </c>
-      <c r="H55" s="16">
-        <v>0</v>
-      </c>
-      <c r="I55" s="16">
-        <v>0</v>
-      </c>
-      <c r="J55" s="16">
-        <v>0</v>
-      </c>
-      <c r="K55" s="16">
-        <v>0</v>
-      </c>
-      <c r="L55" s="16">
-        <v>0</v>
-      </c>
-      <c r="M55" s="16">
-        <v>2</v>
-      </c>
-      <c r="N55" s="24">
-        <v>3</v>
-      </c>
-      <c r="O55" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="P55" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="16">
-        <v>20</v>
-      </c>
-      <c r="R55" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="S55" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="X55" s="16">
-        <v>2</v>
-      </c>
-      <c r="Y55" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z55" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA55" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB55" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="AC55" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="AD55" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="AE55" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF55" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG55" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH55" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI55" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ55" s="24">
-        <v>2</v>
-      </c>
-      <c r="AK55" s="19" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="56" spans="1:37" s="16" customFormat="1">
-      <c r="A56" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="C56" s="16">
-        <v>0</v>
-      </c>
-      <c r="D56" s="24">
-        <v>100</v>
-      </c>
-      <c r="E56" s="24">
-        <v>100</v>
-      </c>
-      <c r="F56" s="16">
-        <v>0</v>
-      </c>
-      <c r="G56" s="16">
-        <v>0</v>
-      </c>
-      <c r="H56" s="16">
-        <v>0</v>
-      </c>
-      <c r="I56" s="16">
-        <v>0</v>
-      </c>
-      <c r="J56" s="16">
-        <v>0</v>
-      </c>
-      <c r="K56" s="16">
-        <v>0</v>
-      </c>
-      <c r="L56" s="16">
-        <v>0</v>
-      </c>
-      <c r="M56" s="16">
-        <v>2</v>
-      </c>
-      <c r="N56" s="24">
-        <v>3</v>
-      </c>
-      <c r="O56" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="P56" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="16">
-        <v>20</v>
-      </c>
-      <c r="R56" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="S56" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="X56" s="16">
-        <v>2</v>
-      </c>
-      <c r="Y56" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z56" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA56" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB56" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="AC56" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="AD56" s="16" t="s">
-        <v>274</v>
-      </c>
-      <c r="AE56" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF56" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG56" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH56" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI56" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ56" s="16">
-        <v>2</v>
-      </c>
-      <c r="AK56" s="19" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="57" spans="1:37" s="16" customFormat="1">
-      <c r="A57" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="C57" s="16">
-        <v>0</v>
-      </c>
-      <c r="D57" s="24">
-        <v>100</v>
-      </c>
-      <c r="E57" s="24">
-        <v>100</v>
-      </c>
-      <c r="F57" s="16">
-        <v>0</v>
-      </c>
-      <c r="G57" s="16">
-        <v>0</v>
-      </c>
-      <c r="H57" s="16">
-        <v>0</v>
-      </c>
-      <c r="I57" s="16">
-        <v>0</v>
-      </c>
-      <c r="J57" s="16">
-        <v>0</v>
-      </c>
-      <c r="K57" s="16">
-        <v>0</v>
-      </c>
-      <c r="L57" s="16">
-        <v>0</v>
-      </c>
-      <c r="M57" s="24">
-        <v>2</v>
-      </c>
-      <c r="N57" s="24">
-        <v>2</v>
-      </c>
-      <c r="O57" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="P57" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="16">
-        <v>20</v>
-      </c>
-      <c r="R57" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="S57" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="X57" s="16">
-        <v>2</v>
-      </c>
-      <c r="Y57" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z57" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA57" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB57" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="AC57" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="AD57" s="16" t="s">
-        <v>275</v>
-      </c>
-      <c r="AE57" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF57" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG57" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH57" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI57" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ57" s="24">
-        <v>2</v>
-      </c>
-      <c r="AK57" s="19" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="58" spans="1:37" s="16" customFormat="1" ht="13.9" thickBot="1">
-      <c r="A58" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="C58" s="16">
-        <v>0</v>
-      </c>
-      <c r="D58" s="24">
-        <v>100</v>
-      </c>
-      <c r="E58" s="24">
-        <v>100</v>
-      </c>
-      <c r="F58" s="16">
-        <v>0</v>
-      </c>
-      <c r="G58" s="16">
-        <v>0</v>
-      </c>
-      <c r="H58" s="16">
-        <v>0</v>
-      </c>
-      <c r="I58" s="16">
-        <v>0</v>
-      </c>
-      <c r="J58" s="16">
-        <v>0</v>
-      </c>
-      <c r="K58" s="16">
-        <v>0</v>
-      </c>
-      <c r="L58" s="16">
-        <v>0</v>
-      </c>
-      <c r="M58" s="24">
-        <v>2</v>
-      </c>
-      <c r="N58" s="24">
-        <v>2</v>
-      </c>
-      <c r="O58" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="P58" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="16">
-        <v>20</v>
-      </c>
-      <c r="R58" s="16" t="s">
-        <v>351</v>
-      </c>
-      <c r="S58" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="X58" s="16">
-        <v>2</v>
-      </c>
-      <c r="Y58" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z58" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA58" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB58" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="AC58" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="AD58" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="AE58" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF58" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG58" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH58" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI58" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ58" s="16">
-        <v>2</v>
-      </c>
-      <c r="AK58" s="20" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="59" spans="1:37" s="21" customFormat="1" ht="13.9" thickBot="1">
-      <c r="A59" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="C59" s="21">
-        <v>0</v>
-      </c>
-      <c r="D59" s="24">
-        <v>100</v>
-      </c>
-      <c r="E59" s="24">
-        <v>100</v>
-      </c>
-      <c r="F59" s="21">
-        <v>0</v>
-      </c>
-      <c r="G59" s="21">
-        <v>0</v>
-      </c>
-      <c r="H59" s="21">
-        <v>0</v>
-      </c>
-      <c r="I59" s="21">
-        <v>0</v>
-      </c>
-      <c r="J59" s="21">
-        <v>0</v>
-      </c>
-      <c r="K59" s="21">
-        <v>0</v>
-      </c>
-      <c r="L59" s="21">
-        <v>0</v>
-      </c>
-      <c r="M59" s="24">
-        <v>2</v>
-      </c>
-      <c r="N59" s="24">
-        <v>2</v>
-      </c>
-      <c r="O59" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="P59" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="21">
-        <v>20</v>
-      </c>
-      <c r="R59" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="S59" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="X59" s="21">
-        <v>2</v>
-      </c>
-      <c r="Y59" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z59" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA59" s="21">
-        <v>0</v>
-      </c>
-      <c r="AB59" s="21" t="s">
-        <v>244</v>
-      </c>
-      <c r="AC59" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="AD59" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="AE59" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF59" s="21">
-        <v>0</v>
-      </c>
-      <c r="AG59" s="21">
-        <v>0</v>
-      </c>
-      <c r="AH59" s="21">
-        <v>0</v>
-      </c>
-      <c r="AI59" s="21">
-        <v>0</v>
-      </c>
-      <c r="AJ59" s="24">
-        <v>2</v>
-      </c>
-      <c r="AK59" s="19" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="60" spans="1:37" s="16" customFormat="1">
-      <c r="A60" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="C60" s="16">
-        <v>0</v>
-      </c>
-      <c r="D60" s="24">
-        <v>100</v>
-      </c>
-      <c r="E60" s="24">
-        <v>100</v>
-      </c>
-      <c r="F60" s="16">
-        <v>0</v>
-      </c>
-      <c r="G60" s="16">
-        <v>0</v>
-      </c>
-      <c r="H60" s="16">
-        <v>0</v>
-      </c>
-      <c r="I60" s="16">
-        <v>0</v>
-      </c>
-      <c r="J60" s="16">
-        <v>0</v>
-      </c>
-      <c r="K60" s="16">
-        <v>0</v>
-      </c>
-      <c r="L60" s="16">
-        <v>0</v>
-      </c>
-      <c r="M60" s="16">
-        <v>1</v>
-      </c>
-      <c r="N60" s="24">
-        <v>2</v>
-      </c>
-      <c r="O60" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="P60" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="16">
-        <v>20</v>
-      </c>
-      <c r="R60" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="S60" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="X60" s="16">
-        <v>2</v>
-      </c>
-      <c r="Y60" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z60" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA60" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB60" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="AC60" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="AD60" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="AE60" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF60" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG60" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH60" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI60" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ60" s="16">
-        <v>2</v>
-      </c>
-      <c r="AK60" s="19" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="61" spans="1:37" s="16" customFormat="1" ht="13.9" thickBot="1">
-      <c r="A61" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="C61" s="16">
-        <v>0</v>
-      </c>
-      <c r="D61" s="24">
-        <v>100</v>
-      </c>
-      <c r="E61" s="24">
-        <v>100</v>
-      </c>
-      <c r="F61" s="16">
-        <v>0</v>
-      </c>
-      <c r="G61" s="16">
-        <v>0</v>
-      </c>
-      <c r="H61" s="16">
-        <v>0</v>
-      </c>
-      <c r="I61" s="16">
-        <v>0</v>
-      </c>
-      <c r="J61" s="16">
-        <v>0</v>
-      </c>
-      <c r="K61" s="16">
-        <v>0</v>
-      </c>
-      <c r="L61" s="16">
-        <v>0</v>
-      </c>
-      <c r="M61" s="16">
-        <v>1</v>
-      </c>
-      <c r="N61" s="24">
-        <v>2</v>
-      </c>
-      <c r="O61" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="P61" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="16">
-        <v>20</v>
-      </c>
-      <c r="R61" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="S61" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="X61" s="16">
-        <v>2</v>
-      </c>
-      <c r="Y61" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z61" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA61" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB61" s="16" t="s">
+      <c r="AA62" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="AC61" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="AD61" s="16" t="s">
+      <c r="AC62" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="AD62" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="AE61" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF61" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG61" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH61" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI61" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ61" s="24">
-        <v>2</v>
-      </c>
-      <c r="AK61" s="20" t="s">
+      <c r="AE62" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF62" s="20">
+        <v>0</v>
+      </c>
+      <c r="AG62" s="20">
+        <v>0</v>
+      </c>
+      <c r="AH62" s="20">
+        <v>0</v>
+      </c>
+      <c r="AI62" s="20">
+        <v>0</v>
+      </c>
+      <c r="AJ62" s="15">
+        <v>2</v>
+      </c>
+      <c r="AK62" s="20" t="s">
         <v>414</v>
-      </c>
-    </row>
-    <row r="62" spans="1:37" s="21" customFormat="1" ht="13.9" thickBot="1">
-      <c r="A62" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="C62" s="21">
-        <v>0</v>
-      </c>
-      <c r="D62" s="24">
-        <v>100</v>
-      </c>
-      <c r="E62" s="24">
-        <v>100</v>
-      </c>
-      <c r="F62" s="21">
-        <v>0</v>
-      </c>
-      <c r="G62" s="21">
-        <v>0</v>
-      </c>
-      <c r="H62" s="21">
-        <v>0</v>
-      </c>
-      <c r="I62" s="21">
-        <v>0</v>
-      </c>
-      <c r="J62" s="21">
-        <v>0</v>
-      </c>
-      <c r="K62" s="21">
-        <v>0</v>
-      </c>
-      <c r="L62" s="21">
-        <v>0</v>
-      </c>
-      <c r="M62" s="21">
-        <v>1</v>
-      </c>
-      <c r="N62" s="24">
-        <v>2</v>
-      </c>
-      <c r="O62" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="P62" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="21">
-        <v>20</v>
-      </c>
-      <c r="R62" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="S62" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="X62" s="21">
-        <v>2</v>
-      </c>
-      <c r="Y62" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z62" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA62" s="21">
-        <v>0</v>
-      </c>
-      <c r="AB62" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="AC62" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="AD62" s="21" t="s">
-        <v>280</v>
-      </c>
-      <c r="AE62" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF62" s="21">
-        <v>0</v>
-      </c>
-      <c r="AG62" s="21">
-        <v>0</v>
-      </c>
-      <c r="AH62" s="21">
-        <v>0</v>
-      </c>
-      <c r="AI62" s="21">
-        <v>0</v>
-      </c>
-      <c r="AJ62" s="16">
-        <v>2</v>
-      </c>
-      <c r="AK62" s="21" t="s">
-        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -8365,91 +8359,91 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:30" s="2" customFormat="1">
@@ -9006,7 +9000,7 @@
     </row>
     <row r="8" spans="1:30" s="3" customFormat="1">
       <c r="A8" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -9193,13 +9187,13 @@
         <v>35</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>39</v>
@@ -9211,73 +9205,73 @@
         <v>40</v>
       </c>
       <c r="H10" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="J10" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="K10" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="L10" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="M10" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="N10" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="N10" s="4" t="s">
+      <c r="O10" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="O10" s="4" t="s">
+      <c r="P10" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="P10" s="4" t="s">
+      <c r="Q10" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="Q10" s="4" t="s">
+      <c r="R10" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="R10" s="4" t="s">
+      <c r="S10" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="S10" s="4" t="s">
+      <c r="T10" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="T10" s="4" t="s">
+      <c r="U10" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="U10" s="4" t="s">
+      <c r="V10" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="V10" s="4" t="s">
+      <c r="W10" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="W10" s="4" t="s">
+      <c r="X10" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="X10" s="4" t="s">
+      <c r="Y10" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="Y10" s="4" t="s">
+      <c r="Z10" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="Z10" s="4" t="s">
+      <c r="AA10" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="AA10" s="4" t="s">
+      <c r="AB10" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="AB10" s="4" t="s">
+      <c r="AC10" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="AC10" s="4" t="s">
+      <c r="AD10" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="AD10" s="4" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:30">

--- a/_Out/NFDataCfg/Excel/NPC.xlsx
+++ b/_Out/NFDataCfg/Excel/NPC.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Desktop\NoahGameFrame\_Out\NFDataCfg\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/NoahGameFrame/_Out/NFDataCfg/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10343" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="1920" windowWidth="27940" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -21,19 +21,27 @@
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
   <fileRecoveryPr autoRecover="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Item" type="4" refreshedVersion="2" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="Item" type="4" refreshedVersion="2" background="1" saveData="1">
     <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\Item.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="445">
   <si>
     <t>Id</t>
   </si>
@@ -464,21 +472,6 @@
     <t>SKILL_Bristleback_THUMP</t>
   </si>
   <si>
-    <t>Idle</t>
-  </si>
-  <si>
-    <t>SKILL_Orc_Slinger_Idle</t>
-  </si>
-  <si>
-    <t>SKILL_Dwarf_Warrior_Idle</t>
-  </si>
-  <si>
-    <t>SKILL_Wererat_Soldier_Idle</t>
-  </si>
-  <si>
-    <t>SKILL_Bristleback_Idle</t>
-  </si>
-  <si>
     <t>Build_dragon_cannon_1</t>
   </si>
   <si>
@@ -1305,13 +1298,91 @@
   </si>
   <si>
     <t>英雄star</t>
+  </si>
+  <si>
+    <t>NPC_Magma_Demon-Orange</t>
+  </si>
+  <si>
+    <t>NPC_Magma_Demon-Blue</t>
+  </si>
+  <si>
+    <t>SKILL_PlantMonster_Normal</t>
+  </si>
+  <si>
+    <t>SKILL_PlantMonster_Attack</t>
+  </si>
+  <si>
+    <t>SKILL_PlantMonster_THUMP</t>
+  </si>
+  <si>
+    <t>SKILL_MushroomMonster_Normal</t>
+  </si>
+  <si>
+    <t>SKILL_MushroomMonster_Attack</t>
+  </si>
+  <si>
+    <t>SKILL_MushroomMonster_THUMP</t>
+  </si>
+  <si>
+    <t>SKILL_MonsterHornet_Attack</t>
+  </si>
+  <si>
+    <t>SKILL_MonsterHornet_Normal</t>
+  </si>
+  <si>
+    <t>SKILL_MonsterHornet_THUMP</t>
+  </si>
+  <si>
+    <t>SKILL_MonsterCatBat_Normal</t>
+  </si>
+  <si>
+    <t>SKILL_MonsterCatBat_Attack</t>
+  </si>
+  <si>
+    <t>SKILL_MonsterCatBat_THUMP</t>
+  </si>
+  <si>
+    <t>SKILL_MaskedOrc_Normal</t>
+  </si>
+  <si>
+    <t>SKILL_MaskedOrc_Attack</t>
+  </si>
+  <si>
+    <t>SKILL_MaskedOrc_THUMP</t>
+  </si>
+  <si>
+    <t>SKILL_Magma_Demon_Normal</t>
+  </si>
+  <si>
+    <t>SKILL_Magma_Demon_Attack</t>
+  </si>
+  <si>
+    <t>SKILL_Magma_Demon_THUMP</t>
+  </si>
+  <si>
+    <t>SKILL_FlowerMonster_Normal</t>
+  </si>
+  <si>
+    <t>SKILL_FlowerMonster_Attack</t>
+  </si>
+  <si>
+    <t>SKILL_FlowerMonster_THUMP</t>
+  </si>
+  <si>
+    <t>SKILL_CrawlingBug_Normal</t>
+  </si>
+  <si>
+    <t>SKILL_CrawlingBug_Attack</t>
+  </si>
+  <si>
+    <t>SKILL_CrawlingBug_THUMP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1341,6 +1412,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1395,7 +1472,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1545,13 +1622,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1666,6 +1756,24 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1687,8 +1795,8 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
-    <tableStyle name="MySqlDefault" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7">
+    <tableStyle name="MySqlDefault" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -2032,44 +2140,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AJ62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC11" sqref="AC11:AC22"/>
+      <selection pane="bottomLeft" activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.1328125" customWidth="1"/>
+    <col min="1" max="1" width="23.1640625" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="7.9296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.1328125" customWidth="1"/>
-    <col min="6" max="6" width="13.1328125" customWidth="1"/>
-    <col min="7" max="7" width="13.796875" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.1640625" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" customWidth="1"/>
     <col min="8" max="9" width="14.6640625" customWidth="1"/>
     <col min="10" max="10" width="21" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
     <col min="12" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="47.46484375" customWidth="1"/>
-    <col min="16" max="16" width="14.73046875" customWidth="1"/>
-    <col min="18" max="19" width="22.9296875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="27" customWidth="1"/>
-    <col min="21" max="23" width="27" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.796875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.796875" customWidth="1"/>
-    <col min="28" max="28" width="23.9296875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="27.3984375" customWidth="1"/>
-    <col min="30" max="30" width="22.1328125" customWidth="1"/>
-    <col min="31" max="31" width="36" customWidth="1"/>
-    <col min="32" max="32" width="9.9296875" customWidth="1"/>
-    <col min="34" max="35" width="12.59765625" customWidth="1"/>
-    <col min="37" max="37" width="25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="47.5" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" customWidth="1"/>
+    <col min="18" max="19" width="23" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="27" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.83203125" customWidth="1"/>
+    <col min="27" max="27" width="24" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="27.33203125" customWidth="1"/>
+    <col min="29" max="29" width="22.1640625" customWidth="1"/>
+    <col min="30" max="30" width="36" customWidth="1"/>
+    <col min="31" max="31" width="10" customWidth="1"/>
+    <col min="33" max="34" width="12.6640625" customWidth="1"/>
+    <col min="36" max="36" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="1" customFormat="1" ht="14.25">
+    <row r="1" spans="1:36" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2080,7 +2187,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -2098,7 +2205,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>8</v>
@@ -2107,7 +2214,7 @@
         <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>13</v>
@@ -2125,64 +2232,61 @@
         <v>12</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AC1" s="10" t="s">
+      <c r="AB1" s="10" t="s">
         <v>18</v>
       </c>
+      <c r="AC1" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="AD1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>20</v>
+        <v>417</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>422</v>
+        <v>21</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>22</v>
+        <v>414</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>419</v>
+        <v>23</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
-    <row r="2" spans="1:37" s="2" customFormat="1" ht="14.25">
+    <row r="2" spans="1:36" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
@@ -2250,52 +2354,49 @@
         <v>25</v>
       </c>
       <c r="W2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="X2" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="Y2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="Z2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AB2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="AC2" s="11" t="s">
+      <c r="AC2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="AD2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AH2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AK2" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:37" s="2" customFormat="1" ht="14.25">
+    <row r="3" spans="1:36" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>29</v>
       </c>
@@ -2377,23 +2478,23 @@
       <c r="AA3" s="2">
         <v>0</v>
       </c>
-      <c r="AB3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="11">
+      <c r="AB3" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="2">
         <v>0</v>
       </c>
       <c r="AD3" s="2">
         <v>0</v>
       </c>
       <c r="AE3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH3" s="2">
         <v>1</v>
@@ -2402,13 +2503,10 @@
         <v>1</v>
       </c>
       <c r="AJ3" s="2">
-        <v>1</v>
-      </c>
-      <c r="AK3" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:37" s="2" customFormat="1" ht="14.25">
+    <row r="4" spans="1:36" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>30</v>
       </c>
@@ -2490,17 +2588,17 @@
       <c r="AA4" s="2">
         <v>0</v>
       </c>
-      <c r="AB4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="11">
+      <c r="AB4" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="2">
         <v>0</v>
       </c>
       <c r="AD4" s="2">
         <v>0</v>
       </c>
       <c r="AE4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF4" s="2">
         <v>1</v>
@@ -2515,13 +2613,10 @@
         <v>1</v>
       </c>
       <c r="AJ4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AK4" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:37" s="2" customFormat="1" ht="14.25">
+    <row r="5" spans="1:36" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>31</v>
       </c>
@@ -2603,10 +2698,10 @@
       <c r="AA5" s="2">
         <v>0</v>
       </c>
-      <c r="AB5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="11">
+      <c r="AB5" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="2">
         <v>0</v>
       </c>
       <c r="AD5" s="2">
@@ -2616,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="AF5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG5" s="2">
         <v>1</v>
@@ -2625,16 +2720,13 @@
         <v>1</v>
       </c>
       <c r="AI5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="2">
         <v>0</v>
       </c>
-      <c r="AK5" s="2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="6" spans="1:37" s="2" customFormat="1" ht="14.25">
+    <row r="6" spans="1:36" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>32</v>
       </c>
@@ -2716,10 +2808,10 @@
       <c r="AA6" s="2">
         <v>0</v>
       </c>
-      <c r="AB6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="11">
+      <c r="AB6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="2">
         <v>0</v>
       </c>
       <c r="AD6" s="2">
@@ -2743,11 +2835,8 @@
       <c r="AJ6" s="2">
         <v>0</v>
       </c>
-      <c r="AK6" s="2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="7" spans="1:37" s="3" customFormat="1">
+    <row r="7" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>33</v>
       </c>
@@ -2817,20 +2906,20 @@
       <c r="W7" s="3">
         <v>0</v>
       </c>
-      <c r="X7" s="3">
-        <v>0</v>
+      <c r="X7" s="2">
+        <v>1</v>
       </c>
       <c r="Y7" s="2">
         <v>1</v>
       </c>
-      <c r="Z7" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="2">
-        <v>1</v>
+      <c r="Z7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>0</v>
       </c>
       <c r="AC7" s="3">
         <v>0</v>
@@ -2856,13 +2945,10 @@
       <c r="AJ7" s="3">
         <v>0</v>
       </c>
-      <c r="AK7" s="3">
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" spans="1:37" s="3" customFormat="1">
+    <row r="8" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -2969,11 +3055,8 @@
       <c r="AJ8" s="3">
         <v>0</v>
       </c>
-      <c r="AK8" s="3">
-        <v>0</v>
-      </c>
     </row>
-    <row r="9" spans="1:37" s="3" customFormat="1">
+    <row r="9" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
         <v>34</v>
       </c>
@@ -3082,11 +3165,8 @@
       <c r="AJ9" s="3">
         <v>0</v>
       </c>
-      <c r="AK9" s="3">
-        <v>0</v>
-      </c>
     </row>
-    <row r="10" spans="1:37" s="4" customFormat="1" ht="40.9" thickBot="1">
+    <row r="10" spans="1:36" s="4" customFormat="1" ht="43" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>35</v>
       </c>
@@ -3127,9 +3207,9 @@
         <v>47</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="T10" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="T10" s="41" t="s">
         <v>48</v>
       </c>
       <c r="U10" s="4" t="s">
@@ -3139,52 +3219,49 @@
         <v>48</v>
       </c>
       <c r="W10" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X10" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Y10" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Z10" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AA10" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB10" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AC10" s="11" t="s">
+      <c r="AB10" s="11" t="s">
         <v>18</v>
       </c>
+      <c r="AC10" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="AD10" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE10" s="4" t="s">
-        <v>55</v>
+        <v>418</v>
       </c>
       <c r="AF10" s="4" t="s">
-        <v>423</v>
+        <v>56</v>
       </c>
       <c r="AG10" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AH10" s="4" t="s">
-        <v>57</v>
+        <v>415</v>
       </c>
       <c r="AI10" s="4" t="s">
-        <v>420</v>
+        <v>361</v>
       </c>
       <c r="AJ10" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="AK10" s="4" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="13.9" thickBot="1">
+    <row r="11" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>58</v>
       </c>
@@ -3234,35 +3311,39 @@
         <v>20</v>
       </c>
       <c r="R11" s="34" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="S11" s="34" t="s">
-        <v>354</v>
-      </c>
-      <c r="X11">
-        <v>2</v>
-      </c>
-      <c r="Y11" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="T11" s="42"/>
+      <c r="W11">
+        <v>2</v>
+      </c>
+      <c r="X11" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="Y11" t="s">
         <v>60</v>
       </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="35" t="s">
-        <v>325</v>
-      </c>
-      <c r="AC11" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="AD11" s="9" t="s">
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="35" t="s">
+        <v>320</v>
+      </c>
+      <c r="AB11" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="AC11" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AE11" s="12" t="s">
+      <c r="AD11" s="12" t="s">
         <v>61</v>
       </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
       <c r="AF11">
         <v>0</v>
       </c>
@@ -3275,16 +3356,13 @@
       <c r="AI11">
         <v>0</v>
       </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
-      <c r="AK11" t="s">
+      <c r="AJ11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="13.9" thickBot="1">
+    <row r="12" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -3323,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -3332,35 +3410,47 @@
         <v>20</v>
       </c>
       <c r="R12" s="34" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="S12" s="34" t="s">
-        <v>356</v>
-      </c>
-      <c r="X12">
-        <v>2</v>
-      </c>
-      <c r="Y12" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="T12" s="43" t="s">
+        <v>421</v>
+      </c>
+      <c r="U12" s="40" t="s">
+        <v>422</v>
+      </c>
+      <c r="V12" s="38" t="s">
+        <v>423</v>
+      </c>
+      <c r="W12">
+        <v>2</v>
+      </c>
+      <c r="X12" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="Y12" t="s">
         <v>60</v>
       </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="35" t="s">
-        <v>325</v>
-      </c>
-      <c r="AC12" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>305</v>
-      </c>
-      <c r="AE12" s="12" t="s">
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="35" t="s">
+        <v>320</v>
+      </c>
+      <c r="AB12" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>300</v>
+      </c>
+      <c r="AD12" s="12" t="s">
         <v>61</v>
       </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
       <c r="AF12">
         <v>0</v>
       </c>
@@ -3373,16 +3463,13 @@
       <c r="AI12">
         <v>0</v>
       </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>368</v>
+      <c r="AJ12" t="s">
+        <v>363</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="13.9" thickBot="1">
+    <row r="13" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -3421,7 +3508,7 @@
         <v>2</v>
       </c>
       <c r="O13" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -3430,35 +3517,47 @@
         <v>20</v>
       </c>
       <c r="R13" s="34" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="S13" s="34" t="s">
-        <v>357</v>
-      </c>
-      <c r="X13">
-        <v>2</v>
-      </c>
-      <c r="Y13" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="T13" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="U13" s="38" t="s">
+        <v>425</v>
+      </c>
+      <c r="V13" s="38" t="s">
+        <v>426</v>
+      </c>
+      <c r="W13">
+        <v>2</v>
+      </c>
+      <c r="X13" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="Y13" t="s">
         <v>60</v>
       </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="35" t="s">
-        <v>325</v>
-      </c>
-      <c r="AC13" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>304</v>
-      </c>
-      <c r="AE13" s="12" t="s">
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="35" t="s">
+        <v>320</v>
+      </c>
+      <c r="AB13" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>299</v>
+      </c>
+      <c r="AD13" s="12" t="s">
         <v>61</v>
       </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
       <c r="AF13">
         <v>0</v>
       </c>
@@ -3471,16 +3570,13 @@
       <c r="AI13">
         <v>0</v>
       </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>369</v>
+      <c r="AJ13" t="s">
+        <v>364</v>
       </c>
     </row>
-    <row r="14" spans="1:37" ht="13.9" thickBot="1">
+    <row r="14" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -3519,7 +3615,7 @@
         <v>2</v>
       </c>
       <c r="O14" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -3528,35 +3624,47 @@
         <v>20</v>
       </c>
       <c r="R14" s="34" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="S14" s="34" t="s">
-        <v>358</v>
-      </c>
-      <c r="X14">
-        <v>2</v>
-      </c>
-      <c r="Y14" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="T14" s="38" t="s">
+        <v>428</v>
+      </c>
+      <c r="U14" s="38" t="s">
+        <v>427</v>
+      </c>
+      <c r="V14" s="38" t="s">
+        <v>429</v>
+      </c>
+      <c r="W14">
+        <v>2</v>
+      </c>
+      <c r="X14" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="Y14" t="s">
         <v>60</v>
       </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="35" t="s">
-        <v>325</v>
-      </c>
-      <c r="AC14" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>303</v>
-      </c>
-      <c r="AE14" s="12" t="s">
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="35" t="s">
+        <v>320</v>
+      </c>
+      <c r="AB14" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>298</v>
+      </c>
+      <c r="AD14" s="12" t="s">
         <v>61</v>
       </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
       <c r="AF14">
         <v>0</v>
       </c>
@@ -3569,16 +3677,13 @@
       <c r="AI14">
         <v>0</v>
       </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>370</v>
+      <c r="AJ14" t="s">
+        <v>365</v>
       </c>
     </row>
-    <row r="15" spans="1:37" ht="13.9" thickBot="1">
+    <row r="15" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -3617,7 +3722,7 @@
         <v>2</v>
       </c>
       <c r="O15" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -3626,35 +3731,47 @@
         <v>20</v>
       </c>
       <c r="R15" s="34" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="S15" s="34" t="s">
-        <v>359</v>
-      </c>
-      <c r="X15">
-        <v>2</v>
-      </c>
-      <c r="Y15" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="T15" s="38" t="s">
+        <v>430</v>
+      </c>
+      <c r="U15" s="38" t="s">
+        <v>431</v>
+      </c>
+      <c r="V15" s="38" t="s">
+        <v>432</v>
+      </c>
+      <c r="W15">
+        <v>2</v>
+      </c>
+      <c r="X15" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="Y15" t="s">
         <v>60</v>
       </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="35" t="s">
-        <v>325</v>
-      </c>
-      <c r="AC15" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>302</v>
-      </c>
-      <c r="AE15" s="12" t="s">
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="35" t="s">
+        <v>320</v>
+      </c>
+      <c r="AB15" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>297</v>
+      </c>
+      <c r="AD15" s="12" t="s">
         <v>61</v>
       </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
       <c r="AF15">
         <v>0</v>
       </c>
@@ -3667,16 +3784,13 @@
       <c r="AI15">
         <v>0</v>
       </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
-      <c r="AK15" t="s">
-        <v>371</v>
+      <c r="AJ15" t="s">
+        <v>366</v>
       </c>
     </row>
-    <row r="16" spans="1:37" ht="13.9" thickBot="1">
+    <row r="16" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -3715,7 +3829,7 @@
         <v>2</v>
       </c>
       <c r="O16" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -3724,35 +3838,47 @@
         <v>20</v>
       </c>
       <c r="R16" s="34" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="S16" s="34" t="s">
-        <v>360</v>
-      </c>
-      <c r="X16">
-        <v>2</v>
-      </c>
-      <c r="Y16" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="T16" s="38" t="s">
+        <v>433</v>
+      </c>
+      <c r="U16" s="38" t="s">
+        <v>434</v>
+      </c>
+      <c r="V16" s="38" t="s">
+        <v>435</v>
+      </c>
+      <c r="W16">
+        <v>2</v>
+      </c>
+      <c r="X16" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="Y16" t="s">
         <v>60</v>
       </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="35" t="s">
-        <v>325</v>
-      </c>
-      <c r="AC16" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>301</v>
-      </c>
-      <c r="AE16" s="12" t="s">
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="35" t="s">
+        <v>320</v>
+      </c>
+      <c r="AB16" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>296</v>
+      </c>
+      <c r="AD16" s="12" t="s">
         <v>61</v>
       </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
       <c r="AF16">
         <v>0</v>
       </c>
@@ -3765,16 +3891,13 @@
       <c r="AI16">
         <v>0</v>
       </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
-      <c r="AK16" t="s">
-        <v>372</v>
+      <c r="AJ16" t="s">
+        <v>367</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="13.9" thickBot="1">
+    <row r="17" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>299</v>
+        <v>419</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -3813,7 +3936,7 @@
         <v>2</v>
       </c>
       <c r="O17" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -3822,35 +3945,47 @@
         <v>20</v>
       </c>
       <c r="R17" s="34" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="S17" s="34" t="s">
-        <v>361</v>
-      </c>
-      <c r="X17">
-        <v>2</v>
-      </c>
-      <c r="Y17" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="T17" s="38" t="s">
+        <v>436</v>
+      </c>
+      <c r="U17" s="38" t="s">
+        <v>437</v>
+      </c>
+      <c r="V17" s="38" t="s">
+        <v>438</v>
+      </c>
+      <c r="W17">
+        <v>2</v>
+      </c>
+      <c r="X17" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="Y17" t="s">
         <v>60</v>
       </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="35" t="s">
-        <v>325</v>
-      </c>
-      <c r="AC17" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>299</v>
-      </c>
-      <c r="AE17" s="12" t="s">
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="35" t="s">
+        <v>320</v>
+      </c>
+      <c r="AB17" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>294</v>
+      </c>
+      <c r="AD17" s="12" t="s">
         <v>61</v>
       </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
       <c r="AF17">
         <v>0</v>
       </c>
@@ -3863,16 +3998,13 @@
       <c r="AI17">
         <v>0</v>
       </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>373</v>
+      <c r="AJ17" t="s">
+        <v>368</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="13.9" thickBot="1">
+    <row r="18" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>300</v>
+        <v>420</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -3911,7 +4043,7 @@
         <v>2</v>
       </c>
       <c r="O18" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -3920,35 +4052,47 @@
         <v>20</v>
       </c>
       <c r="R18" s="34" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="S18" s="34" t="s">
-        <v>362</v>
-      </c>
-      <c r="X18">
-        <v>2</v>
-      </c>
-      <c r="Y18" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="T18" s="38" t="s">
+        <v>436</v>
+      </c>
+      <c r="U18" s="38" t="s">
+        <v>437</v>
+      </c>
+      <c r="V18" s="38" t="s">
+        <v>438</v>
+      </c>
+      <c r="W18">
+        <v>2</v>
+      </c>
+      <c r="X18" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="Y18" t="s">
         <v>60</v>
       </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="35" t="s">
-        <v>325</v>
-      </c>
-      <c r="AC18" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>300</v>
-      </c>
-      <c r="AE18" s="12" t="s">
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="35" t="s">
+        <v>320</v>
+      </c>
+      <c r="AB18" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>295</v>
+      </c>
+      <c r="AD18" s="12" t="s">
         <v>61</v>
       </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
       <c r="AF18">
         <v>0</v>
       </c>
@@ -3961,16 +4105,13 @@
       <c r="AI18">
         <v>0</v>
       </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>374</v>
+      <c r="AJ18" t="s">
+        <v>369</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="13.9" thickBot="1">
+    <row r="19" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -4009,7 +4150,7 @@
         <v>2</v>
       </c>
       <c r="O19" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -4018,35 +4159,47 @@
         <v>20</v>
       </c>
       <c r="R19" s="34" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="S19" s="34" t="s">
-        <v>363</v>
-      </c>
-      <c r="X19">
-        <v>2</v>
-      </c>
-      <c r="Y19" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="T19" s="38" t="s">
+        <v>439</v>
+      </c>
+      <c r="U19" s="38" t="s">
+        <v>440</v>
+      </c>
+      <c r="V19" s="38" t="s">
+        <v>441</v>
+      </c>
+      <c r="W19">
+        <v>2</v>
+      </c>
+      <c r="X19" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="Y19" t="s">
         <v>60</v>
       </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="35" t="s">
-        <v>325</v>
-      </c>
-      <c r="AC19" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>298</v>
-      </c>
-      <c r="AE19" s="12" t="s">
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="35" t="s">
+        <v>320</v>
+      </c>
+      <c r="AB19" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>293</v>
+      </c>
+      <c r="AD19" s="12" t="s">
         <v>61</v>
       </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
       <c r="AF19">
         <v>0</v>
       </c>
@@ -4059,16 +4212,13 @@
       <c r="AI19">
         <v>0</v>
       </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
-      <c r="AK19" t="s">
-        <v>375</v>
+      <c r="AJ19" t="s">
+        <v>370</v>
       </c>
     </row>
-    <row r="20" spans="1:37" ht="13.9" thickBot="1">
+    <row r="20" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -4107,7 +4257,7 @@
         <v>2</v>
       </c>
       <c r="O20" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -4116,35 +4266,47 @@
         <v>20</v>
       </c>
       <c r="R20" s="34" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="S20" s="34" t="s">
-        <v>364</v>
-      </c>
-      <c r="X20">
-        <v>2</v>
-      </c>
-      <c r="Y20" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="T20" s="38" t="s">
+        <v>439</v>
+      </c>
+      <c r="U20" s="38" t="s">
+        <v>440</v>
+      </c>
+      <c r="V20" s="38" t="s">
+        <v>441</v>
+      </c>
+      <c r="W20">
+        <v>2</v>
+      </c>
+      <c r="X20" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="Y20" t="s">
         <v>60</v>
       </c>
-      <c r="AA20">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="35" t="s">
-        <v>325</v>
-      </c>
-      <c r="AC20" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>297</v>
-      </c>
-      <c r="AE20" s="12" t="s">
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="35" t="s">
+        <v>320</v>
+      </c>
+      <c r="AB20" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>292</v>
+      </c>
+      <c r="AD20" s="12" t="s">
         <v>61</v>
       </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
       <c r="AF20">
         <v>0</v>
       </c>
@@ -4157,16 +4319,13 @@
       <c r="AI20">
         <v>0</v>
       </c>
-      <c r="AJ20">
-        <v>0</v>
-      </c>
-      <c r="AK20" t="s">
-        <v>376</v>
+      <c r="AJ20" t="s">
+        <v>371</v>
       </c>
     </row>
-    <row r="21" spans="1:37" ht="13.9" thickBot="1">
+    <row r="21" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -4205,7 +4364,7 @@
         <v>2</v>
       </c>
       <c r="O21" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -4214,35 +4373,47 @@
         <v>20</v>
       </c>
       <c r="R21" s="34" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="S21" s="34" t="s">
-        <v>365</v>
-      </c>
-      <c r="X21">
-        <v>2</v>
-      </c>
-      <c r="Y21" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="T21" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="U21" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="V21" s="38" t="s">
+        <v>444</v>
+      </c>
+      <c r="W21">
+        <v>2</v>
+      </c>
+      <c r="X21" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="Y21" t="s">
         <v>60</v>
       </c>
-      <c r="AA21">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="35" t="s">
-        <v>325</v>
-      </c>
-      <c r="AC21" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>296</v>
-      </c>
-      <c r="AE21" s="12" t="s">
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="35" t="s">
+        <v>320</v>
+      </c>
+      <c r="AB21" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>291</v>
+      </c>
+      <c r="AD21" s="12" t="s">
         <v>61</v>
       </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
       <c r="AF21">
         <v>0</v>
       </c>
@@ -4255,16 +4426,13 @@
       <c r="AI21">
         <v>0</v>
       </c>
-      <c r="AJ21">
-        <v>0</v>
-      </c>
-      <c r="AK21" t="s">
-        <v>377</v>
+      <c r="AJ21" t="s">
+        <v>372</v>
       </c>
     </row>
-    <row r="22" spans="1:37" ht="13.9" thickBot="1">
+    <row r="22" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -4303,7 +4471,7 @@
         <v>2</v>
       </c>
       <c r="O22" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -4312,35 +4480,47 @@
         <v>20</v>
       </c>
       <c r="R22" s="34" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="S22" s="34" t="s">
-        <v>365</v>
-      </c>
-      <c r="X22">
-        <v>2</v>
-      </c>
-      <c r="Y22" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="T22" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="U22" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="V22" s="38" t="s">
+        <v>444</v>
+      </c>
+      <c r="W22">
+        <v>2</v>
+      </c>
+      <c r="X22" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="Y22" t="s">
         <v>60</v>
       </c>
-      <c r="AA22">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="35" t="s">
-        <v>325</v>
-      </c>
-      <c r="AC22" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>295</v>
-      </c>
-      <c r="AE22" s="12" t="s">
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="35" t="s">
+        <v>320</v>
+      </c>
+      <c r="AB22" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>290</v>
+      </c>
+      <c r="AD22" s="12" t="s">
         <v>61</v>
       </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
       <c r="AF22">
         <v>0</v>
       </c>
@@ -4353,14 +4533,11 @@
       <c r="AI22">
         <v>0</v>
       </c>
-      <c r="AJ22">
-        <v>0</v>
-      </c>
-      <c r="AK22" s="37" t="s">
-        <v>378</v>
+      <c r="AJ22" s="37" t="s">
+        <v>373</v>
       </c>
     </row>
-    <row r="23" spans="1:37" s="28" customFormat="1" ht="13.9" thickBot="1">
+    <row r="23" spans="1:36" s="28" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="27" t="s">
         <v>63</v>
       </c>
@@ -4401,7 +4578,7 @@
         <v>2</v>
       </c>
       <c r="O23" s="28" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="P23" s="28">
         <v>0</v>
@@ -4410,47 +4587,47 @@
         <v>20</v>
       </c>
       <c r="R23" s="33" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="S23" s="33" t="s">
-        <v>354</v>
-      </c>
-      <c r="T23" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="U23" s="28" t="s">
+        <v>349</v>
+      </c>
+      <c r="T23" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="V23" s="28" t="s">
+      <c r="U23" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="W23" s="28" t="s">
+      <c r="V23" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="X23" s="28">
-        <v>2</v>
-      </c>
-      <c r="Y23" s="29" t="s">
+      <c r="W23" s="28">
+        <v>2</v>
+      </c>
+      <c r="X23" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="Z23" s="28" t="s">
+      <c r="Y23" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="AA23" s="28">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="28" t="s">
-        <v>325</v>
-      </c>
-      <c r="AC23" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="AD23" s="31" t="s">
+      <c r="Z23" s="28">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="AB23" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="AC23" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="AE23" s="28" t="s">
+      <c r="AD23" s="28" t="s">
         <v>64</v>
       </c>
+      <c r="AE23" s="28">
+        <v>0</v>
+      </c>
       <c r="AF23" s="28">
         <v>0</v>
       </c>
@@ -4461,16 +4638,13 @@
         <v>0</v>
       </c>
       <c r="AI23" s="28">
-        <v>0</v>
-      </c>
-      <c r="AJ23" s="28">
-        <v>1</v>
-      </c>
-      <c r="AK23" s="32" t="s">
-        <v>415</v>
+        <v>1</v>
+      </c>
+      <c r="AJ23" s="32" t="s">
+        <v>410</v>
       </c>
     </row>
-    <row r="24" spans="1:37" s="25" customFormat="1" ht="13.9" thickBot="1">
+    <row r="24" spans="1:36" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="32" t="s">
         <v>65</v>
       </c>
@@ -4511,7 +4685,7 @@
         <v>2</v>
       </c>
       <c r="O24" s="25" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="P24" s="25">
         <v>1</v>
@@ -4520,47 +4694,47 @@
         <v>20</v>
       </c>
       <c r="R24" s="33" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="S24" s="33" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="T24" s="25" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="U24" s="25" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="V24" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="W24" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="X24" s="25">
-        <v>2</v>
-      </c>
-      <c r="Y24" s="29" t="s">
+      <c r="W24" s="25">
+        <v>2</v>
+      </c>
+      <c r="X24" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="Z24" s="25" t="s">
+      <c r="Y24" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="AA24" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="25" t="s">
-        <v>326</v>
-      </c>
-      <c r="AC24" s="26" t="s">
-        <v>324</v>
-      </c>
-      <c r="AD24" s="13" t="s">
+      <c r="Z24" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="AB24" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="AC24" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="AE24" s="25" t="s">
+      <c r="AD24" s="25" t="s">
         <v>66</v>
       </c>
+      <c r="AE24" s="25">
+        <v>0</v>
+      </c>
       <c r="AF24" s="25">
         <v>0</v>
       </c>
@@ -4571,16 +4745,13 @@
         <v>0</v>
       </c>
       <c r="AI24" s="25">
-        <v>0</v>
-      </c>
-      <c r="AJ24" s="25">
-        <v>1</v>
-      </c>
-      <c r="AK24" s="32" t="s">
-        <v>416</v>
+        <v>1</v>
+      </c>
+      <c r="AJ24" s="32" t="s">
+        <v>411</v>
       </c>
     </row>
-    <row r="25" spans="1:37" s="25" customFormat="1" ht="13.9" thickBot="1">
+    <row r="25" spans="1:36" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="32" t="s">
         <v>67</v>
       </c>
@@ -4621,7 +4792,7 @@
         <v>2</v>
       </c>
       <c r="O25" s="25" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="P25" s="25">
         <v>0</v>
@@ -4630,47 +4801,47 @@
         <v>20</v>
       </c>
       <c r="R25" s="33" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="S25" s="33" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="T25" s="25" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="U25" s="25" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="V25" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="W25" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="X25" s="25">
-        <v>2</v>
-      </c>
-      <c r="Y25" s="29" t="s">
+      <c r="W25" s="25">
+        <v>2</v>
+      </c>
+      <c r="X25" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="Z25" s="25" t="s">
+      <c r="Y25" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="AA25" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="25" t="s">
-        <v>327</v>
-      </c>
-      <c r="AC25" s="26" t="s">
-        <v>324</v>
-      </c>
-      <c r="AD25" s="13" t="s">
+      <c r="Z25" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="AB25" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="AC25" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="AE25" s="25" t="s">
+      <c r="AD25" s="25" t="s">
         <v>68</v>
       </c>
+      <c r="AE25" s="25">
+        <v>0</v>
+      </c>
       <c r="AF25" s="25">
         <v>0</v>
       </c>
@@ -4681,18 +4852,15 @@
         <v>0</v>
       </c>
       <c r="AI25" s="25">
-        <v>0</v>
-      </c>
-      <c r="AJ25" s="25">
-        <v>1</v>
-      </c>
-      <c r="AK25" s="32" t="s">
-        <v>417</v>
+        <v>1</v>
+      </c>
+      <c r="AJ25" s="32" t="s">
+        <v>412</v>
       </c>
     </row>
-    <row r="26" spans="1:37" s="25" customFormat="1">
+    <row r="26" spans="1:36" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="32" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C26" s="25">
         <v>0</v>
@@ -4731,7 +4899,7 @@
         <v>2</v>
       </c>
       <c r="O26" s="25" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="P26" s="25">
         <v>0</v>
@@ -4740,46 +4908,46 @@
         <v>20</v>
       </c>
       <c r="R26" s="33" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="S26" s="33" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="T26" s="25" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="U26" s="25" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="V26" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="W26" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="X26" s="25">
-        <v>2</v>
-      </c>
-      <c r="Y26" s="29" t="s">
+      <c r="W26" s="25">
+        <v>2</v>
+      </c>
+      <c r="X26" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="Z26" s="25" t="s">
+      <c r="Y26" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="AA26" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="25" t="s">
-        <v>328</v>
-      </c>
-      <c r="AC26" s="26" t="s">
-        <v>324</v>
-      </c>
-      <c r="AD26" s="13" t="s">
+      <c r="Z26" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="25" t="s">
         <v>323</v>
       </c>
-      <c r="AE26" s="25" t="s">
-        <v>322</v>
+      <c r="AB26" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="AC26" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="AD26" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="AE26" s="25">
+        <v>0</v>
       </c>
       <c r="AF26" s="25">
         <v>0</v>
@@ -4791,18 +4959,15 @@
         <v>0</v>
       </c>
       <c r="AI26" s="25">
-        <v>0</v>
-      </c>
-      <c r="AJ26" s="25">
-        <v>1</v>
-      </c>
-      <c r="AK26" s="36" t="s">
-        <v>418</v>
+        <v>1</v>
+      </c>
+      <c r="AJ26" s="36" t="s">
+        <v>413</v>
       </c>
     </row>
-    <row r="27" spans="1:37" s="23" customFormat="1">
+    <row r="27" spans="1:36" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="22" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C27" s="23">
         <v>0</v>
@@ -4841,7 +5006,7 @@
         <v>2</v>
       </c>
       <c r="O27" s="23" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="P27" s="23">
         <v>0</v>
@@ -4850,35 +5015,38 @@
         <v>20</v>
       </c>
       <c r="R27" s="16" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="S27" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="X27" s="23">
-        <v>2</v>
-      </c>
-      <c r="Y27" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="W27" s="23">
+        <v>2</v>
+      </c>
+      <c r="X27" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z27" s="23" t="s">
+      <c r="Y27" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="AA27" s="23">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="AC27" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="AD27" s="23" t="s">
-        <v>247</v>
-      </c>
-      <c r="AE27" s="24" t="s">
+      <c r="Z27" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="AB27" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="AC27" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="AD27" s="24" t="s">
         <v>61</v>
       </c>
+      <c r="AE27" s="23">
+        <v>0</v>
+      </c>
       <c r="AF27" s="23">
         <v>0</v>
       </c>
@@ -4889,18 +5057,15 @@
         <v>0</v>
       </c>
       <c r="AI27" s="23">
-        <v>0</v>
-      </c>
-      <c r="AJ27" s="23">
-        <v>2</v>
-      </c>
-      <c r="AK27" s="18" t="s">
-        <v>379</v>
+        <v>2</v>
+      </c>
+      <c r="AJ27" s="18" t="s">
+        <v>374</v>
       </c>
     </row>
-    <row r="28" spans="1:37" s="15" customFormat="1">
+    <row r="28" spans="1:36" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="18" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C28" s="15">
         <v>0</v>
@@ -4939,7 +5104,7 @@
         <v>2</v>
       </c>
       <c r="O28" s="23" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="P28" s="15">
         <v>0</v>
@@ -4948,35 +5113,38 @@
         <v>20</v>
       </c>
       <c r="R28" s="16" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="S28" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="X28" s="15">
-        <v>2</v>
-      </c>
-      <c r="Y28" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="W28" s="15">
+        <v>2</v>
+      </c>
+      <c r="X28" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z28" s="15" t="s">
+      <c r="Y28" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AA28" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="AC28" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="AD28" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="AE28" s="17" t="s">
+      <c r="Z28" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB28" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="AC28" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="AD28" s="17" t="s">
         <v>61</v>
       </c>
+      <c r="AE28" s="15">
+        <v>0</v>
+      </c>
       <c r="AF28" s="15">
         <v>0</v>
       </c>
@@ -4987,18 +5155,15 @@
         <v>0</v>
       </c>
       <c r="AI28" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ28" s="15">
-        <v>2</v>
-      </c>
-      <c r="AK28" s="18" t="s">
-        <v>380</v>
+        <v>2</v>
+      </c>
+      <c r="AJ28" s="18" t="s">
+        <v>375</v>
       </c>
     </row>
-    <row r="29" spans="1:37" s="15" customFormat="1">
+    <row r="29" spans="1:36" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="18" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C29" s="15">
         <v>0</v>
@@ -5037,7 +5202,7 @@
         <v>2</v>
       </c>
       <c r="O29" s="23" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="P29" s="15">
         <v>0</v>
@@ -5046,35 +5211,38 @@
         <v>20</v>
       </c>
       <c r="R29" s="15" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="S29" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="X29" s="15">
-        <v>2</v>
-      </c>
-      <c r="Y29" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="W29" s="15">
+        <v>2</v>
+      </c>
+      <c r="X29" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z29" s="15" t="s">
+      <c r="Y29" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AA29" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="AC29" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="AD29" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="AE29" s="17" t="s">
+      <c r="Z29" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB29" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="AC29" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="AD29" s="17" t="s">
         <v>61</v>
       </c>
+      <c r="AE29" s="15">
+        <v>0</v>
+      </c>
       <c r="AF29" s="15">
         <v>0</v>
       </c>
@@ -5084,19 +5252,16 @@
       <c r="AH29" s="15">
         <v>0</v>
       </c>
-      <c r="AI29" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ29" s="23">
-        <v>2</v>
-      </c>
-      <c r="AK29" s="18" t="s">
-        <v>381</v>
+      <c r="AI29" s="23">
+        <v>2</v>
+      </c>
+      <c r="AJ29" s="18" t="s">
+        <v>376</v>
       </c>
     </row>
-    <row r="30" spans="1:37" s="15" customFormat="1">
+    <row r="30" spans="1:36" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="18" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C30" s="15">
         <v>0</v>
@@ -5135,7 +5300,7 @@
         <v>2</v>
       </c>
       <c r="O30" s="15" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="P30" s="15">
         <v>0</v>
@@ -5144,35 +5309,38 @@
         <v>20</v>
       </c>
       <c r="R30" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="S30" s="16" t="s">
         <v>349</v>
       </c>
-      <c r="S30" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="X30" s="15">
-        <v>2</v>
-      </c>
-      <c r="Y30" s="14" t="s">
+      <c r="W30" s="15">
+        <v>2</v>
+      </c>
+      <c r="X30" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z30" s="15" t="s">
+      <c r="Y30" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AA30" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB30" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="AC30" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="AD30" s="15" t="s">
-        <v>250</v>
-      </c>
-      <c r="AE30" s="17" t="s">
+      <c r="Z30" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="AB30" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="AC30" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="AD30" s="17" t="s">
         <v>61</v>
       </c>
+      <c r="AE30" s="15">
+        <v>0</v>
+      </c>
       <c r="AF30" s="15">
         <v>0</v>
       </c>
@@ -5183,18 +5351,15 @@
         <v>0</v>
       </c>
       <c r="AI30" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ30" s="15">
-        <v>2</v>
-      </c>
-      <c r="AK30" s="18" t="s">
-        <v>382</v>
+        <v>2</v>
+      </c>
+      <c r="AJ30" s="18" t="s">
+        <v>377</v>
       </c>
     </row>
-    <row r="31" spans="1:37" s="15" customFormat="1">
+    <row r="31" spans="1:36" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="18" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C31" s="15">
         <v>0</v>
@@ -5233,7 +5398,7 @@
         <v>2</v>
       </c>
       <c r="O31" s="15" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="P31" s="15">
         <v>0</v>
@@ -5242,35 +5407,38 @@
         <v>20</v>
       </c>
       <c r="R31" s="15" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="S31" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="X31" s="15">
-        <v>2</v>
-      </c>
-      <c r="Y31" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="W31" s="15">
+        <v>2</v>
+      </c>
+      <c r="X31" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z31" s="15" t="s">
+      <c r="Y31" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AA31" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB31" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="AC31" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="AD31" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="AE31" s="17" t="s">
+      <c r="Z31" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="AB31" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="AC31" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="AD31" s="17" t="s">
         <v>61</v>
       </c>
+      <c r="AE31" s="15">
+        <v>0</v>
+      </c>
       <c r="AF31" s="15">
         <v>0</v>
       </c>
@@ -5280,19 +5448,16 @@
       <c r="AH31" s="15">
         <v>0</v>
       </c>
-      <c r="AI31" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ31" s="23">
-        <v>2</v>
-      </c>
-      <c r="AK31" s="18" t="s">
-        <v>383</v>
+      <c r="AI31" s="23">
+        <v>2</v>
+      </c>
+      <c r="AJ31" s="18" t="s">
+        <v>378</v>
       </c>
     </row>
-    <row r="32" spans="1:37" s="15" customFormat="1">
+    <row r="32" spans="1:36" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="18" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C32" s="15">
         <v>0</v>
@@ -5331,7 +5496,7 @@
         <v>2</v>
       </c>
       <c r="O32" s="15" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="P32" s="15">
         <v>0</v>
@@ -5340,35 +5505,38 @@
         <v>20</v>
       </c>
       <c r="R32" s="15" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="S32" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="X32" s="15">
-        <v>2</v>
-      </c>
-      <c r="Y32" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="W32" s="15">
+        <v>2</v>
+      </c>
+      <c r="X32" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z32" s="15" t="s">
+      <c r="Y32" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AA32" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB32" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="AC32" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="AD32" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="AE32" s="17" t="s">
+      <c r="Z32" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="AB32" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="AC32" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="AD32" s="17" t="s">
         <v>61</v>
       </c>
+      <c r="AE32" s="15">
+        <v>0</v>
+      </c>
       <c r="AF32" s="15">
         <v>0</v>
       </c>
@@ -5379,18 +5547,15 @@
         <v>0</v>
       </c>
       <c r="AI32" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ32" s="15">
-        <v>2</v>
-      </c>
-      <c r="AK32" s="18" t="s">
-        <v>384</v>
+        <v>2</v>
+      </c>
+      <c r="AJ32" s="18" t="s">
+        <v>379</v>
       </c>
     </row>
-    <row r="33" spans="1:37" s="15" customFormat="1">
+    <row r="33" spans="1:36" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="18" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C33" s="15">
         <v>0</v>
@@ -5429,7 +5594,7 @@
         <v>2</v>
       </c>
       <c r="O33" s="15" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="P33" s="15">
         <v>0</v>
@@ -5438,35 +5603,38 @@
         <v>20</v>
       </c>
       <c r="R33" s="15" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="S33" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="X33" s="15">
-        <v>2</v>
-      </c>
-      <c r="Y33" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="W33" s="15">
+        <v>2</v>
+      </c>
+      <c r="X33" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z33" s="15" t="s">
+      <c r="Y33" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AA33" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB33" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="AC33" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="AD33" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="AE33" s="17" t="s">
+      <c r="Z33" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="AB33" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="AC33" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="AD33" s="17" t="s">
         <v>61</v>
       </c>
+      <c r="AE33" s="15">
+        <v>0</v>
+      </c>
       <c r="AF33" s="15">
         <v>0</v>
       </c>
@@ -5476,19 +5644,16 @@
       <c r="AH33" s="15">
         <v>0</v>
       </c>
-      <c r="AI33" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ33" s="23">
-        <v>2</v>
-      </c>
-      <c r="AK33" s="18" t="s">
-        <v>385</v>
+      <c r="AI33" s="23">
+        <v>2</v>
+      </c>
+      <c r="AJ33" s="18" t="s">
+        <v>380</v>
       </c>
     </row>
-    <row r="34" spans="1:37" s="15" customFormat="1">
+    <row r="34" spans="1:36" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="18" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C34" s="15">
         <v>0</v>
@@ -5527,7 +5692,7 @@
         <v>2</v>
       </c>
       <c r="O34" s="15" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="P34" s="15">
         <v>0</v>
@@ -5536,35 +5701,38 @@
         <v>20</v>
       </c>
       <c r="R34" s="16" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="S34" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="X34" s="15">
-        <v>2</v>
-      </c>
-      <c r="Y34" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="W34" s="15">
+        <v>2</v>
+      </c>
+      <c r="X34" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z34" s="15" t="s">
+      <c r="Y34" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AA34" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB34" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="AC34" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="AD34" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="AE34" s="17" t="s">
+      <c r="Z34" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB34" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="AC34" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="AD34" s="17" t="s">
         <v>61</v>
       </c>
+      <c r="AE34" s="15">
+        <v>0</v>
+      </c>
       <c r="AF34" s="15">
         <v>0</v>
       </c>
@@ -5575,18 +5743,15 @@
         <v>0</v>
       </c>
       <c r="AI34" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ34" s="15">
-        <v>2</v>
-      </c>
-      <c r="AK34" s="18" t="s">
-        <v>386</v>
+        <v>2</v>
+      </c>
+      <c r="AJ34" s="18" t="s">
+        <v>381</v>
       </c>
     </row>
-    <row r="35" spans="1:37" s="15" customFormat="1">
+    <row r="35" spans="1:36" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="18" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C35" s="15">
         <v>0</v>
@@ -5625,7 +5790,7 @@
         <v>2</v>
       </c>
       <c r="O35" s="15" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="P35" s="15">
         <v>0</v>
@@ -5634,35 +5799,38 @@
         <v>20</v>
       </c>
       <c r="R35" s="16" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="S35" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="X35" s="15">
-        <v>2</v>
-      </c>
-      <c r="Y35" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="W35" s="15">
+        <v>2</v>
+      </c>
+      <c r="X35" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z35" s="15" t="s">
+      <c r="Y35" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AA35" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB35" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="AC35" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="AD35" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="AE35" s="17" t="s">
+      <c r="Z35" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB35" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="AC35" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="AD35" s="17" t="s">
         <v>61</v>
       </c>
+      <c r="AE35" s="15">
+        <v>0</v>
+      </c>
       <c r="AF35" s="15">
         <v>0</v>
       </c>
@@ -5672,19 +5840,16 @@
       <c r="AH35" s="15">
         <v>0</v>
       </c>
-      <c r="AI35" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ35" s="23">
-        <v>2</v>
-      </c>
-      <c r="AK35" s="18" t="s">
-        <v>387</v>
+      <c r="AI35" s="23">
+        <v>2</v>
+      </c>
+      <c r="AJ35" s="18" t="s">
+        <v>382</v>
       </c>
     </row>
-    <row r="36" spans="1:37" s="15" customFormat="1">
+    <row r="36" spans="1:36" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="18" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C36" s="15">
         <v>0</v>
@@ -5723,7 +5888,7 @@
         <v>3</v>
       </c>
       <c r="O36" s="15" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="P36" s="15">
         <v>0</v>
@@ -5732,35 +5897,38 @@
         <v>20</v>
       </c>
       <c r="R36" s="16" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="S36" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="X36" s="15">
-        <v>2</v>
-      </c>
-      <c r="Y36" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="W36" s="15">
+        <v>2</v>
+      </c>
+      <c r="X36" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z36" s="15" t="s">
+      <c r="Y36" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AA36" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB36" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="AC36" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="AD36" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="AE36" s="17" t="s">
+      <c r="Z36" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="AB36" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="AC36" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD36" s="17" t="s">
         <v>61</v>
       </c>
+      <c r="AE36" s="15">
+        <v>0</v>
+      </c>
       <c r="AF36" s="15">
         <v>0</v>
       </c>
@@ -5771,18 +5939,15 @@
         <v>0</v>
       </c>
       <c r="AI36" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ36" s="15">
-        <v>2</v>
-      </c>
-      <c r="AK36" s="18" t="s">
-        <v>388</v>
+        <v>2</v>
+      </c>
+      <c r="AJ36" s="18" t="s">
+        <v>383</v>
       </c>
     </row>
-    <row r="37" spans="1:37" s="15" customFormat="1">
+    <row r="37" spans="1:36" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="18" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C37" s="15">
         <v>0</v>
@@ -5821,7 +5986,7 @@
         <v>3</v>
       </c>
       <c r="O37" s="15" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="P37" s="15">
         <v>0</v>
@@ -5830,35 +5995,38 @@
         <v>20</v>
       </c>
       <c r="R37" s="16" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="S37" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="X37" s="15">
-        <v>2</v>
-      </c>
-      <c r="Y37" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="W37" s="15">
+        <v>2</v>
+      </c>
+      <c r="X37" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z37" s="15" t="s">
+      <c r="Y37" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AA37" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB37" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="AC37" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="AD37" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="AE37" s="17" t="s">
+      <c r="Z37" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="AB37" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="AC37" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="AD37" s="17" t="s">
         <v>61</v>
       </c>
+      <c r="AE37" s="15">
+        <v>0</v>
+      </c>
       <c r="AF37" s="15">
         <v>0</v>
       </c>
@@ -5868,19 +6036,16 @@
       <c r="AH37" s="15">
         <v>0</v>
       </c>
-      <c r="AI37" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ37" s="23">
-        <v>2</v>
-      </c>
-      <c r="AK37" s="18" t="s">
-        <v>389</v>
+      <c r="AI37" s="23">
+        <v>2</v>
+      </c>
+      <c r="AJ37" s="18" t="s">
+        <v>384</v>
       </c>
     </row>
-    <row r="38" spans="1:37" s="15" customFormat="1">
+    <row r="38" spans="1:36" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="18" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C38" s="15">
         <v>0</v>
@@ -5919,7 +6084,7 @@
         <v>3</v>
       </c>
       <c r="O38" s="15" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="P38" s="15">
         <v>0</v>
@@ -5928,35 +6093,38 @@
         <v>20</v>
       </c>
       <c r="R38" s="16" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="S38" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="X38" s="15">
-        <v>2</v>
-      </c>
-      <c r="Y38" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="W38" s="15">
+        <v>2</v>
+      </c>
+      <c r="X38" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z38" s="15" t="s">
+      <c r="Y38" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AA38" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB38" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="AC38" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="AD38" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="AE38" s="17" t="s">
+      <c r="Z38" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="AB38" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="AC38" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="AD38" s="17" t="s">
         <v>61</v>
       </c>
+      <c r="AE38" s="15">
+        <v>0</v>
+      </c>
       <c r="AF38" s="15">
         <v>0</v>
       </c>
@@ -5967,18 +6135,15 @@
         <v>0</v>
       </c>
       <c r="AI38" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ38" s="15">
-        <v>2</v>
-      </c>
-      <c r="AK38" s="18" t="s">
-        <v>390</v>
+        <v>2</v>
+      </c>
+      <c r="AJ38" s="18" t="s">
+        <v>385</v>
       </c>
     </row>
-    <row r="39" spans="1:37" s="15" customFormat="1">
+    <row r="39" spans="1:36" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="18" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C39" s="15">
         <v>0</v>
@@ -6017,7 +6182,7 @@
         <v>1</v>
       </c>
       <c r="O39" s="15" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="P39" s="15">
         <v>0</v>
@@ -6026,35 +6191,38 @@
         <v>20</v>
       </c>
       <c r="R39" s="16" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="S39" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="X39" s="15">
-        <v>2</v>
-      </c>
-      <c r="Y39" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="W39" s="15">
+        <v>2</v>
+      </c>
+      <c r="X39" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z39" s="15" t="s">
+      <c r="Y39" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AA39" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB39" s="15" t="s">
+      <c r="Z39" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="AB39" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="AC39" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="AC39" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="AD39" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="AE39" s="17" t="s">
+      <c r="AD39" s="17" t="s">
         <v>61</v>
       </c>
+      <c r="AE39" s="15">
+        <v>0</v>
+      </c>
       <c r="AF39" s="15">
         <v>0</v>
       </c>
@@ -6064,19 +6232,16 @@
       <c r="AH39" s="15">
         <v>0</v>
       </c>
-      <c r="AI39" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ39" s="23">
-        <v>2</v>
-      </c>
-      <c r="AK39" s="18" t="s">
-        <v>391</v>
+      <c r="AI39" s="23">
+        <v>2</v>
+      </c>
+      <c r="AJ39" s="18" t="s">
+        <v>386</v>
       </c>
     </row>
-    <row r="40" spans="1:37" s="15" customFormat="1">
+    <row r="40" spans="1:36" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="18" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C40" s="15">
         <v>0</v>
@@ -6115,7 +6280,7 @@
         <v>1</v>
       </c>
       <c r="O40" s="15" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="P40" s="15">
         <v>0</v>
@@ -6124,57 +6289,57 @@
         <v>20</v>
       </c>
       <c r="R40" s="16" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="S40" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="X40" s="15">
-        <v>2</v>
-      </c>
-      <c r="Y40" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="W40" s="15">
+        <v>2</v>
+      </c>
+      <c r="X40" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z40" s="15" t="s">
+      <c r="Y40" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AA40" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB40" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="AC40" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="AD40" s="15" t="s">
+      <c r="Z40" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="AB40" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="AC40" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="AD40" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE40" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF40" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG40" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH40" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI40" s="15">
+        <v>2</v>
+      </c>
+      <c r="AJ40" s="18" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="41" spans="1:36" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="18" t="s">
         <v>289</v>
-      </c>
-      <c r="AE40" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF40" s="15">
-        <v>0</v>
-      </c>
-      <c r="AG40" s="15">
-        <v>0</v>
-      </c>
-      <c r="AH40" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI40" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ40" s="15">
-        <v>2</v>
-      </c>
-      <c r="AK40" s="18" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="41" spans="1:37" s="15" customFormat="1">
-      <c r="A41" s="18" t="s">
-        <v>294</v>
       </c>
       <c r="C41" s="15">
         <v>0</v>
@@ -6213,7 +6378,7 @@
         <v>1</v>
       </c>
       <c r="O41" s="15" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="P41" s="15">
         <v>0</v>
@@ -6222,35 +6387,38 @@
         <v>20</v>
       </c>
       <c r="R41" s="16" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="S41" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="X41" s="15">
-        <v>2</v>
-      </c>
-      <c r="Y41" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="W41" s="15">
+        <v>2</v>
+      </c>
+      <c r="X41" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z41" s="15" t="s">
+      <c r="Y41" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AA41" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB41" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="AC41" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="AD41" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="AE41" s="17" t="s">
+      <c r="Z41" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="AB41" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="AC41" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="AD41" s="17" t="s">
         <v>61</v>
       </c>
+      <c r="AE41" s="15">
+        <v>0</v>
+      </c>
       <c r="AF41" s="15">
         <v>0</v>
       </c>
@@ -6260,19 +6428,16 @@
       <c r="AH41" s="15">
         <v>0</v>
       </c>
-      <c r="AI41" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ41" s="23">
-        <v>2</v>
-      </c>
-      <c r="AK41" s="18" t="s">
-        <v>393</v>
+      <c r="AI41" s="23">
+        <v>2</v>
+      </c>
+      <c r="AJ41" s="18" t="s">
+        <v>388</v>
       </c>
     </row>
-    <row r="42" spans="1:37" s="15" customFormat="1">
+    <row r="42" spans="1:36" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="18" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C42" s="15">
         <v>0</v>
@@ -6311,7 +6476,7 @@
         <v>2</v>
       </c>
       <c r="O42" s="15" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="P42" s="15">
         <v>0</v>
@@ -6320,35 +6485,38 @@
         <v>20</v>
       </c>
       <c r="R42" s="16" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="S42" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="X42" s="15">
-        <v>2</v>
-      </c>
-      <c r="Y42" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="W42" s="15">
+        <v>2</v>
+      </c>
+      <c r="X42" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z42" s="15" t="s">
+      <c r="Y42" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AA42" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB42" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="AC42" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="AD42" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="AE42" s="17" t="s">
+      <c r="Z42" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="AB42" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="AC42" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="AD42" s="17" t="s">
         <v>61</v>
       </c>
+      <c r="AE42" s="15">
+        <v>0</v>
+      </c>
       <c r="AF42" s="15">
         <v>0</v>
       </c>
@@ -6359,18 +6527,15 @@
         <v>0</v>
       </c>
       <c r="AI42" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ42" s="15">
-        <v>2</v>
-      </c>
-      <c r="AK42" s="18" t="s">
-        <v>394</v>
+        <v>2</v>
+      </c>
+      <c r="AJ42" s="18" t="s">
+        <v>389</v>
       </c>
     </row>
-    <row r="43" spans="1:37" s="15" customFormat="1">
+    <row r="43" spans="1:36" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="18" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C43" s="15">
         <v>0</v>
@@ -6409,7 +6574,7 @@
         <v>2</v>
       </c>
       <c r="O43" s="15" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="P43" s="15">
         <v>0</v>
@@ -6418,35 +6583,38 @@
         <v>20</v>
       </c>
       <c r="R43" s="16" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="S43" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="X43" s="15">
-        <v>2</v>
-      </c>
-      <c r="Y43" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="W43" s="15">
+        <v>2</v>
+      </c>
+      <c r="X43" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z43" s="15" t="s">
+      <c r="Y43" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AA43" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB43" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="AC43" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="AD43" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="AE43" s="17" t="s">
+      <c r="Z43" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB43" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="AC43" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="AD43" s="17" t="s">
         <v>61</v>
       </c>
+      <c r="AE43" s="15">
+        <v>0</v>
+      </c>
       <c r="AF43" s="15">
         <v>0</v>
       </c>
@@ -6456,19 +6624,16 @@
       <c r="AH43" s="15">
         <v>0</v>
       </c>
-      <c r="AI43" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ43" s="23">
-        <v>2</v>
-      </c>
-      <c r="AK43" s="18" t="s">
-        <v>395</v>
+      <c r="AI43" s="23">
+        <v>2</v>
+      </c>
+      <c r="AJ43" s="18" t="s">
+        <v>390</v>
       </c>
     </row>
-    <row r="44" spans="1:37" s="15" customFormat="1">
+    <row r="44" spans="1:36" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="18" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C44" s="15">
         <v>0</v>
@@ -6507,7 +6672,7 @@
         <v>2</v>
       </c>
       <c r="O44" s="15" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="P44" s="15">
         <v>0</v>
@@ -6516,35 +6681,38 @@
         <v>20</v>
       </c>
       <c r="R44" s="16" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="S44" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="X44" s="15">
-        <v>2</v>
-      </c>
-      <c r="Y44" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="W44" s="15">
+        <v>2</v>
+      </c>
+      <c r="X44" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z44" s="15" t="s">
+      <c r="Y44" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AA44" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB44" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="AC44" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="AD44" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="AE44" s="17" t="s">
+      <c r="Z44" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="AB44" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="AC44" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="AD44" s="17" t="s">
         <v>61</v>
       </c>
+      <c r="AE44" s="15">
+        <v>0</v>
+      </c>
       <c r="AF44" s="15">
         <v>0</v>
       </c>
@@ -6555,18 +6723,15 @@
         <v>0</v>
       </c>
       <c r="AI44" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ44" s="15">
-        <v>2</v>
-      </c>
-      <c r="AK44" s="18" t="s">
-        <v>396</v>
+        <v>2</v>
+      </c>
+      <c r="AJ44" s="18" t="s">
+        <v>391</v>
       </c>
     </row>
-    <row r="45" spans="1:37" s="15" customFormat="1">
+    <row r="45" spans="1:36" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="18" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C45" s="15">
         <v>0</v>
@@ -6605,7 +6770,7 @@
         <v>2</v>
       </c>
       <c r="O45" s="15" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="P45" s="15">
         <v>0</v>
@@ -6614,35 +6779,38 @@
         <v>20</v>
       </c>
       <c r="R45" s="16" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="S45" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="X45" s="15">
-        <v>2</v>
-      </c>
-      <c r="Y45" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="W45" s="15">
+        <v>2</v>
+      </c>
+      <c r="X45" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z45" s="15" t="s">
+      <c r="Y45" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AA45" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB45" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="AC45" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="AD45" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="AE45" s="17" t="s">
+      <c r="Z45" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="AB45" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="AC45" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="AD45" s="17" t="s">
         <v>61</v>
       </c>
+      <c r="AE45" s="15">
+        <v>0</v>
+      </c>
       <c r="AF45" s="15">
         <v>0</v>
       </c>
@@ -6652,19 +6820,16 @@
       <c r="AH45" s="15">
         <v>0</v>
       </c>
-      <c r="AI45" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ45" s="23">
-        <v>2</v>
-      </c>
-      <c r="AK45" s="18" t="s">
-        <v>397</v>
+      <c r="AI45" s="23">
+        <v>2</v>
+      </c>
+      <c r="AJ45" s="18" t="s">
+        <v>392</v>
       </c>
     </row>
-    <row r="46" spans="1:37" s="15" customFormat="1">
+    <row r="46" spans="1:36" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="18" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C46" s="15">
         <v>0</v>
@@ -6703,7 +6868,7 @@
         <v>2</v>
       </c>
       <c r="O46" s="15" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="P46" s="15">
         <v>0</v>
@@ -6712,35 +6877,38 @@
         <v>20</v>
       </c>
       <c r="R46" s="16" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="S46" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="X46" s="15">
-        <v>2</v>
-      </c>
-      <c r="Y46" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="W46" s="15">
+        <v>2</v>
+      </c>
+      <c r="X46" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z46" s="15" t="s">
+      <c r="Y46" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AA46" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB46" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="AC46" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="AD46" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="AE46" s="17" t="s">
+      <c r="Z46" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="AB46" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="AC46" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="AD46" s="17" t="s">
         <v>61</v>
       </c>
+      <c r="AE46" s="15">
+        <v>0</v>
+      </c>
       <c r="AF46" s="15">
         <v>0</v>
       </c>
@@ -6751,18 +6919,15 @@
         <v>0</v>
       </c>
       <c r="AI46" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ46" s="15">
-        <v>2</v>
-      </c>
-      <c r="AK46" s="18" t="s">
-        <v>398</v>
+        <v>2</v>
+      </c>
+      <c r="AJ46" s="18" t="s">
+        <v>393</v>
       </c>
     </row>
-    <row r="47" spans="1:37" s="15" customFormat="1">
+    <row r="47" spans="1:36" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="18" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C47" s="15">
         <v>0</v>
@@ -6801,7 +6966,7 @@
         <v>2</v>
       </c>
       <c r="O47" s="15" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="P47" s="15">
         <v>0</v>
@@ -6810,35 +6975,38 @@
         <v>20</v>
       </c>
       <c r="R47" s="16" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="S47" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="X47" s="15">
-        <v>2</v>
-      </c>
-      <c r="Y47" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="W47" s="15">
+        <v>2</v>
+      </c>
+      <c r="X47" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z47" s="15" t="s">
+      <c r="Y47" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AA47" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB47" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="AC47" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="AD47" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="AE47" s="17" t="s">
+      <c r="Z47" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="AB47" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="AC47" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="AD47" s="17" t="s">
         <v>61</v>
       </c>
+      <c r="AE47" s="15">
+        <v>0</v>
+      </c>
       <c r="AF47" s="15">
         <v>0</v>
       </c>
@@ -6848,19 +7016,16 @@
       <c r="AH47" s="15">
         <v>0</v>
       </c>
-      <c r="AI47" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ47" s="23">
-        <v>2</v>
-      </c>
-      <c r="AK47" s="18" t="s">
-        <v>399</v>
+      <c r="AI47" s="23">
+        <v>2</v>
+      </c>
+      <c r="AJ47" s="18" t="s">
+        <v>394</v>
       </c>
     </row>
-    <row r="48" spans="1:37" s="15" customFormat="1">
+    <row r="48" spans="1:36" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48" s="18" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C48" s="15">
         <v>0</v>
@@ -6899,7 +7064,7 @@
         <v>3</v>
       </c>
       <c r="O48" s="15" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="P48" s="15">
         <v>0</v>
@@ -6908,35 +7073,38 @@
         <v>20</v>
       </c>
       <c r="R48" s="16" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="S48" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="X48" s="15">
-        <v>2</v>
-      </c>
-      <c r="Y48" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="W48" s="15">
+        <v>2</v>
+      </c>
+      <c r="X48" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z48" s="15" t="s">
+      <c r="Y48" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AA48" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB48" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="AC48" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="AD48" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="AE48" s="17" t="s">
+      <c r="Z48" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="AB48" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="AC48" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="AD48" s="17" t="s">
         <v>61</v>
       </c>
+      <c r="AE48" s="15">
+        <v>0</v>
+      </c>
       <c r="AF48" s="15">
         <v>0</v>
       </c>
@@ -6947,18 +7115,15 @@
         <v>0</v>
       </c>
       <c r="AI48" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ48" s="15">
-        <v>2</v>
-      </c>
-      <c r="AK48" s="18" t="s">
-        <v>400</v>
+        <v>2</v>
+      </c>
+      <c r="AJ48" s="18" t="s">
+        <v>395</v>
       </c>
     </row>
-    <row r="49" spans="1:37" s="15" customFormat="1">
+    <row r="49" spans="1:36" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="18" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C49" s="15">
         <v>0</v>
@@ -6997,7 +7162,7 @@
         <v>3</v>
       </c>
       <c r="O49" s="15" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="P49" s="15">
         <v>0</v>
@@ -7006,35 +7171,38 @@
         <v>20</v>
       </c>
       <c r="R49" s="16" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="S49" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="X49" s="15">
-        <v>2</v>
-      </c>
-      <c r="Y49" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="W49" s="15">
+        <v>2</v>
+      </c>
+      <c r="X49" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z49" s="15" t="s">
+      <c r="Y49" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AA49" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB49" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="AC49" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="AD49" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="AE49" s="17" t="s">
+      <c r="Z49" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB49" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="AC49" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="AD49" s="17" t="s">
         <v>61</v>
       </c>
+      <c r="AE49" s="15">
+        <v>0</v>
+      </c>
       <c r="AF49" s="15">
         <v>0</v>
       </c>
@@ -7044,19 +7212,16 @@
       <c r="AH49" s="15">
         <v>0</v>
       </c>
-      <c r="AI49" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ49" s="23">
-        <v>2</v>
-      </c>
-      <c r="AK49" s="18" t="s">
-        <v>401</v>
+      <c r="AI49" s="23">
+        <v>2</v>
+      </c>
+      <c r="AJ49" s="18" t="s">
+        <v>396</v>
       </c>
     </row>
-    <row r="50" spans="1:37" s="15" customFormat="1">
+    <row r="50" spans="1:36" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A50" s="18" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C50" s="15">
         <v>0</v>
@@ -7095,7 +7260,7 @@
         <v>3</v>
       </c>
       <c r="O50" s="15" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="P50" s="15">
         <v>0</v>
@@ -7104,35 +7269,38 @@
         <v>20</v>
       </c>
       <c r="R50" s="16" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="S50" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="X50" s="15">
-        <v>2</v>
-      </c>
-      <c r="Y50" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="W50" s="15">
+        <v>2</v>
+      </c>
+      <c r="X50" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z50" s="15" t="s">
+      <c r="Y50" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AA50" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB50" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="AC50" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="AD50" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="AE50" s="17" t="s">
+      <c r="Z50" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="AB50" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="AC50" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="AD50" s="17" t="s">
         <v>61</v>
       </c>
+      <c r="AE50" s="15">
+        <v>0</v>
+      </c>
       <c r="AF50" s="15">
         <v>0</v>
       </c>
@@ -7143,18 +7311,15 @@
         <v>0</v>
       </c>
       <c r="AI50" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ50" s="15">
-        <v>2</v>
-      </c>
-      <c r="AK50" s="18" t="s">
-        <v>402</v>
+        <v>2</v>
+      </c>
+      <c r="AJ50" s="18" t="s">
+        <v>397</v>
       </c>
     </row>
-    <row r="51" spans="1:37" s="15" customFormat="1">
+    <row r="51" spans="1:36" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51" s="18" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C51" s="15">
         <v>0</v>
@@ -7193,7 +7358,7 @@
         <v>2</v>
       </c>
       <c r="O51" s="15" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="P51" s="15">
         <v>0</v>
@@ -7202,35 +7367,38 @@
         <v>20</v>
       </c>
       <c r="R51" s="16" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="S51" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="X51" s="15">
-        <v>2</v>
-      </c>
-      <c r="Y51" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="W51" s="15">
+        <v>2</v>
+      </c>
+      <c r="X51" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z51" s="15" t="s">
+      <c r="Y51" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AA51" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB51" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="AC51" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="AD51" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="AE51" s="17" t="s">
+      <c r="Z51" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="AB51" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="AC51" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="AD51" s="17" t="s">
         <v>61</v>
       </c>
+      <c r="AE51" s="15">
+        <v>0</v>
+      </c>
       <c r="AF51" s="15">
         <v>0</v>
       </c>
@@ -7240,19 +7408,16 @@
       <c r="AH51" s="15">
         <v>0</v>
       </c>
-      <c r="AI51" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ51" s="23">
-        <v>2</v>
-      </c>
-      <c r="AK51" s="18" t="s">
-        <v>403</v>
+      <c r="AI51" s="23">
+        <v>2</v>
+      </c>
+      <c r="AJ51" s="18" t="s">
+        <v>398</v>
       </c>
     </row>
-    <row r="52" spans="1:37" s="15" customFormat="1">
+    <row r="52" spans="1:36" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A52" s="18" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C52" s="15">
         <v>0</v>
@@ -7291,7 +7456,7 @@
         <v>2</v>
       </c>
       <c r="O52" s="15" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="P52" s="15">
         <v>0</v>
@@ -7300,35 +7465,38 @@
         <v>20</v>
       </c>
       <c r="R52" s="15" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="S52" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="X52" s="15">
-        <v>2</v>
-      </c>
-      <c r="Y52" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="W52" s="15">
+        <v>2</v>
+      </c>
+      <c r="X52" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z52" s="15" t="s">
+      <c r="Y52" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AA52" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB52" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="AC52" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="AD52" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="AE52" s="17" t="s">
+      <c r="Z52" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="AB52" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="AC52" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="AD52" s="17" t="s">
         <v>61</v>
       </c>
+      <c r="AE52" s="15">
+        <v>0</v>
+      </c>
       <c r="AF52" s="15">
         <v>0</v>
       </c>
@@ -7339,18 +7507,15 @@
         <v>0</v>
       </c>
       <c r="AI52" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ52" s="15">
-        <v>2</v>
-      </c>
-      <c r="AK52" s="18" t="s">
-        <v>404</v>
+        <v>2</v>
+      </c>
+      <c r="AJ52" s="18" t="s">
+        <v>399</v>
       </c>
     </row>
-    <row r="53" spans="1:37" s="15" customFormat="1">
+    <row r="53" spans="1:36" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="18" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C53" s="15">
         <v>0</v>
@@ -7389,7 +7554,7 @@
         <v>2</v>
       </c>
       <c r="O53" s="15" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="P53" s="15">
         <v>0</v>
@@ -7398,35 +7563,38 @@
         <v>20</v>
       </c>
       <c r="R53" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="S53" s="16" t="s">
         <v>349</v>
       </c>
-      <c r="S53" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="X53" s="15">
-        <v>2</v>
-      </c>
-      <c r="Y53" s="14" t="s">
+      <c r="W53" s="15">
+        <v>2</v>
+      </c>
+      <c r="X53" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z53" s="15" t="s">
+      <c r="Y53" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AA53" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB53" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="AC53" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="AD53" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="AE53" s="17" t="s">
+      <c r="Z53" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="AB53" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="AC53" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="AD53" s="17" t="s">
         <v>61</v>
       </c>
+      <c r="AE53" s="15">
+        <v>0</v>
+      </c>
       <c r="AF53" s="15">
         <v>0</v>
       </c>
@@ -7436,19 +7604,16 @@
       <c r="AH53" s="15">
         <v>0</v>
       </c>
-      <c r="AI53" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ53" s="23">
-        <v>2</v>
-      </c>
-      <c r="AK53" s="18" t="s">
-        <v>405</v>
+      <c r="AI53" s="23">
+        <v>2</v>
+      </c>
+      <c r="AJ53" s="18" t="s">
+        <v>400</v>
       </c>
     </row>
-    <row r="54" spans="1:37" s="15" customFormat="1">
+    <row r="54" spans="1:36" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A54" s="18" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C54" s="15">
         <v>0</v>
@@ -7487,7 +7652,7 @@
         <v>3</v>
       </c>
       <c r="O54" s="15" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="P54" s="15">
         <v>0</v>
@@ -7496,35 +7661,38 @@
         <v>20</v>
       </c>
       <c r="R54" s="15" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="S54" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="X54" s="15">
-        <v>2</v>
-      </c>
-      <c r="Y54" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="W54" s="15">
+        <v>2</v>
+      </c>
+      <c r="X54" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z54" s="15" t="s">
+      <c r="Y54" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AA54" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB54" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="AC54" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="AD54" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="AE54" s="17" t="s">
+      <c r="Z54" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="AB54" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="AC54" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="AD54" s="17" t="s">
         <v>61</v>
       </c>
+      <c r="AE54" s="15">
+        <v>0</v>
+      </c>
       <c r="AF54" s="15">
         <v>0</v>
       </c>
@@ -7535,18 +7703,15 @@
         <v>0</v>
       </c>
       <c r="AI54" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ54" s="15">
-        <v>2</v>
-      </c>
-      <c r="AK54" s="18" t="s">
-        <v>406</v>
+        <v>2</v>
+      </c>
+      <c r="AJ54" s="18" t="s">
+        <v>401</v>
       </c>
     </row>
-    <row r="55" spans="1:37" s="15" customFormat="1">
+    <row r="55" spans="1:36" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A55" s="18" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C55" s="15">
         <v>0</v>
@@ -7585,7 +7750,7 @@
         <v>3</v>
       </c>
       <c r="O55" s="15" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="P55" s="15">
         <v>0</v>
@@ -7594,35 +7759,38 @@
         <v>20</v>
       </c>
       <c r="R55" s="15" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="S55" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="X55" s="15">
-        <v>2</v>
-      </c>
-      <c r="Y55" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="W55" s="15">
+        <v>2</v>
+      </c>
+      <c r="X55" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z55" s="15" t="s">
+      <c r="Y55" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AA55" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB55" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="AC55" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="AD55" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="AE55" s="17" t="s">
+      <c r="Z55" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="AB55" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="AC55" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="AD55" s="17" t="s">
         <v>61</v>
       </c>
+      <c r="AE55" s="15">
+        <v>0</v>
+      </c>
       <c r="AF55" s="15">
         <v>0</v>
       </c>
@@ -7632,19 +7800,16 @@
       <c r="AH55" s="15">
         <v>0</v>
       </c>
-      <c r="AI55" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ55" s="23">
-        <v>2</v>
-      </c>
-      <c r="AK55" s="18" t="s">
-        <v>407</v>
+      <c r="AI55" s="23">
+        <v>2</v>
+      </c>
+      <c r="AJ55" s="18" t="s">
+        <v>402</v>
       </c>
     </row>
-    <row r="56" spans="1:37" s="15" customFormat="1">
+    <row r="56" spans="1:36" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A56" s="18" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C56" s="15">
         <v>0</v>
@@ -7683,7 +7848,7 @@
         <v>3</v>
       </c>
       <c r="O56" s="15" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="P56" s="15">
         <v>0</v>
@@ -7692,35 +7857,38 @@
         <v>20</v>
       </c>
       <c r="R56" s="15" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="S56" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="X56" s="15">
-        <v>2</v>
-      </c>
-      <c r="Y56" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="W56" s="15">
+        <v>2</v>
+      </c>
+      <c r="X56" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z56" s="15" t="s">
+      <c r="Y56" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AA56" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB56" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="AC56" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="AD56" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="AE56" s="17" t="s">
+      <c r="Z56" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA56" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="AB56" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="AC56" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="AD56" s="17" t="s">
         <v>61</v>
       </c>
+      <c r="AE56" s="15">
+        <v>0</v>
+      </c>
       <c r="AF56" s="15">
         <v>0</v>
       </c>
@@ -7731,18 +7899,15 @@
         <v>0</v>
       </c>
       <c r="AI56" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ56" s="15">
-        <v>2</v>
-      </c>
-      <c r="AK56" s="18" t="s">
-        <v>408</v>
+        <v>2</v>
+      </c>
+      <c r="AJ56" s="18" t="s">
+        <v>403</v>
       </c>
     </row>
-    <row r="57" spans="1:37" s="15" customFormat="1">
+    <row r="57" spans="1:36" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A57" s="18" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C57" s="15">
         <v>0</v>
@@ -7781,7 +7946,7 @@
         <v>2</v>
       </c>
       <c r="O57" s="15" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="P57" s="15">
         <v>0</v>
@@ -7790,35 +7955,38 @@
         <v>20</v>
       </c>
       <c r="R57" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="S57" s="16" t="s">
         <v>349</v>
       </c>
-      <c r="S57" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="X57" s="15">
-        <v>2</v>
-      </c>
-      <c r="Y57" s="14" t="s">
+      <c r="W57" s="15">
+        <v>2</v>
+      </c>
+      <c r="X57" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z57" s="15" t="s">
+      <c r="Y57" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AA57" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB57" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="AC57" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="AD57" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="AE57" s="17" t="s">
+      <c r="Z57" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="AB57" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="AC57" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="AD57" s="17" t="s">
         <v>61</v>
       </c>
+      <c r="AE57" s="15">
+        <v>0</v>
+      </c>
       <c r="AF57" s="15">
         <v>0</v>
       </c>
@@ -7828,19 +7996,16 @@
       <c r="AH57" s="15">
         <v>0</v>
       </c>
-      <c r="AI57" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ57" s="23">
-        <v>2</v>
-      </c>
-      <c r="AK57" s="18" t="s">
-        <v>409</v>
+      <c r="AI57" s="23">
+        <v>2</v>
+      </c>
+      <c r="AJ57" s="18" t="s">
+        <v>404</v>
       </c>
     </row>
-    <row r="58" spans="1:37" s="15" customFormat="1" ht="13.9" thickBot="1">
+    <row r="58" spans="1:36" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A58" s="18" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C58" s="15">
         <v>0</v>
@@ -7879,7 +8044,7 @@
         <v>2</v>
       </c>
       <c r="O58" s="15" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="P58" s="15">
         <v>0</v>
@@ -7888,35 +8053,38 @@
         <v>20</v>
       </c>
       <c r="R58" s="15" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="S58" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="X58" s="15">
-        <v>2</v>
-      </c>
-      <c r="Y58" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="W58" s="15">
+        <v>2</v>
+      </c>
+      <c r="X58" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z58" s="15" t="s">
+      <c r="Y58" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AA58" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB58" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="AC58" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="AD58" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="AE58" s="17" t="s">
+      <c r="Z58" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="AB58" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="AC58" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="AD58" s="17" t="s">
         <v>61</v>
       </c>
+      <c r="AE58" s="15">
+        <v>0</v>
+      </c>
       <c r="AF58" s="15">
         <v>0</v>
       </c>
@@ -7927,18 +8095,15 @@
         <v>0</v>
       </c>
       <c r="AI58" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ58" s="15">
-        <v>2</v>
-      </c>
-      <c r="AK58" s="19" t="s">
-        <v>410</v>
+        <v>2</v>
+      </c>
+      <c r="AJ58" s="19" t="s">
+        <v>405</v>
       </c>
     </row>
-    <row r="59" spans="1:37" s="20" customFormat="1" ht="13.9" thickBot="1">
+    <row r="59" spans="1:36" s="20" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A59" s="19" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C59" s="20">
         <v>0</v>
@@ -7977,7 +8142,7 @@
         <v>2</v>
       </c>
       <c r="O59" s="15" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="P59" s="20">
         <v>0</v>
@@ -7986,35 +8151,38 @@
         <v>20</v>
       </c>
       <c r="R59" s="15" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="S59" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="X59" s="20">
-        <v>2</v>
-      </c>
-      <c r="Y59" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="W59" s="20">
+        <v>2</v>
+      </c>
+      <c r="X59" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z59" s="20" t="s">
+      <c r="Y59" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="AA59" s="20">
-        <v>0</v>
-      </c>
-      <c r="AB59" s="20" t="s">
-        <v>243</v>
-      </c>
-      <c r="AC59" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="AD59" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="AE59" s="21" t="s">
+      <c r="Z59" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="AB59" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="AC59" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="AD59" s="21" t="s">
         <v>61</v>
       </c>
+      <c r="AE59" s="20">
+        <v>0</v>
+      </c>
       <c r="AF59" s="20">
         <v>0</v>
       </c>
@@ -8024,19 +8192,16 @@
       <c r="AH59" s="20">
         <v>0</v>
       </c>
-      <c r="AI59" s="20">
-        <v>0</v>
-      </c>
-      <c r="AJ59" s="23">
-        <v>2</v>
-      </c>
-      <c r="AK59" s="18" t="s">
-        <v>411</v>
+      <c r="AI59" s="23">
+        <v>2</v>
+      </c>
+      <c r="AJ59" s="18" t="s">
+        <v>406</v>
       </c>
     </row>
-    <row r="60" spans="1:37" s="15" customFormat="1">
+    <row r="60" spans="1:36" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A60" s="18" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C60" s="15">
         <v>0</v>
@@ -8075,7 +8240,7 @@
         <v>2</v>
       </c>
       <c r="O60" s="15" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="P60" s="15">
         <v>0</v>
@@ -8084,35 +8249,38 @@
         <v>20</v>
       </c>
       <c r="R60" s="15" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="S60" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="X60" s="15">
-        <v>2</v>
-      </c>
-      <c r="Y60" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="W60" s="15">
+        <v>2</v>
+      </c>
+      <c r="X60" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z60" s="15" t="s">
+      <c r="Y60" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AA60" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB60" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="AC60" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="AD60" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="AE60" s="17" t="s">
+      <c r="Z60" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="AB60" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="AC60" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="AD60" s="17" t="s">
         <v>61</v>
       </c>
+      <c r="AE60" s="15">
+        <v>0</v>
+      </c>
       <c r="AF60" s="15">
         <v>0</v>
       </c>
@@ -8123,18 +8291,15 @@
         <v>0</v>
       </c>
       <c r="AI60" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ60" s="15">
-        <v>2</v>
-      </c>
-      <c r="AK60" s="18" t="s">
-        <v>412</v>
+        <v>2</v>
+      </c>
+      <c r="AJ60" s="18" t="s">
+        <v>407</v>
       </c>
     </row>
-    <row r="61" spans="1:37" s="15" customFormat="1" ht="13.9" thickBot="1">
+    <row r="61" spans="1:36" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A61" s="18" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C61" s="15">
         <v>0</v>
@@ -8173,7 +8338,7 @@
         <v>2</v>
       </c>
       <c r="O61" s="15" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="P61" s="15">
         <v>0</v>
@@ -8182,35 +8347,38 @@
         <v>20</v>
       </c>
       <c r="R61" s="15" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="S61" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="X61" s="15">
-        <v>2</v>
-      </c>
-      <c r="Y61" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="W61" s="15">
+        <v>2</v>
+      </c>
+      <c r="X61" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z61" s="15" t="s">
+      <c r="Y61" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AA61" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB61" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="AC61" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="AD61" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="AE61" s="17" t="s">
+      <c r="Z61" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="AB61" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="AC61" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="AD61" s="17" t="s">
         <v>61</v>
       </c>
+      <c r="AE61" s="15">
+        <v>0</v>
+      </c>
       <c r="AF61" s="15">
         <v>0</v>
       </c>
@@ -8220,19 +8388,16 @@
       <c r="AH61" s="15">
         <v>0</v>
       </c>
-      <c r="AI61" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ61" s="23">
-        <v>2</v>
-      </c>
-      <c r="AK61" s="19" t="s">
-        <v>413</v>
+      <c r="AI61" s="23">
+        <v>2</v>
+      </c>
+      <c r="AJ61" s="19" t="s">
+        <v>408</v>
       </c>
     </row>
-    <row r="62" spans="1:37" s="20" customFormat="1" ht="13.9" thickBot="1">
+    <row r="62" spans="1:36" s="20" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A62" s="19" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C62" s="20">
         <v>0</v>
@@ -8271,7 +8436,7 @@
         <v>2</v>
       </c>
       <c r="O62" s="15" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="P62" s="20">
         <v>0</v>
@@ -8280,35 +8445,38 @@
         <v>20</v>
       </c>
       <c r="R62" s="15" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="S62" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="X62" s="20">
-        <v>2</v>
-      </c>
-      <c r="Y62" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="W62" s="20">
+        <v>2</v>
+      </c>
+      <c r="X62" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Z62" s="20" t="s">
+      <c r="Y62" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="AA62" s="20">
-        <v>0</v>
-      </c>
-      <c r="AB62" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="AC62" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="AD62" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="AE62" s="21" t="s">
+      <c r="Z62" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="AB62" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="AC62" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="AD62" s="21" t="s">
         <v>61</v>
       </c>
+      <c r="AE62" s="20">
+        <v>0</v>
+      </c>
       <c r="AF62" s="20">
         <v>0</v>
       </c>
@@ -8318,20 +8486,17 @@
       <c r="AH62" s="20">
         <v>0</v>
       </c>
-      <c r="AI62" s="20">
-        <v>0</v>
-      </c>
-      <c r="AJ62" s="15">
-        <v>2</v>
-      </c>
-      <c r="AK62" s="20" t="s">
-        <v>414</v>
+      <c r="AI62" s="15">
+        <v>2</v>
+      </c>
+      <c r="AJ62" s="20" t="s">
+        <v>409</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y8:Z9 AB8:AB9 R8:S9 B7:Q9 T7:X9 AA7:AA9 AC7:AK9" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X8:Y9 AA8:AA9 R8:S9 B7:Q9 Z7:Z9 AB7:AJ9 T7:W9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8342,19 +8507,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="1" customFormat="1" ht="27">
+    <row r="1" spans="1:30" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -8446,7 +8611,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="2" customFormat="1">
+    <row r="2" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
@@ -8538,7 +8703,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="2" customFormat="1">
+    <row r="3" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>29</v>
       </c>
@@ -8630,7 +8795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:30" s="2" customFormat="1">
+    <row r="4" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>30</v>
       </c>
@@ -8722,7 +8887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" s="2" customFormat="1">
+    <row r="5" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>31</v>
       </c>
@@ -8814,7 +8979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" s="2" customFormat="1">
+    <row r="6" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>32</v>
       </c>
@@ -8906,7 +9071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:30" s="3" customFormat="1">
+    <row r="7" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>33</v>
       </c>
@@ -8998,9 +9163,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:30" s="3" customFormat="1">
+    <row r="8" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -9090,7 +9255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:30" s="3" customFormat="1">
+    <row r="9" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
         <v>34</v>
       </c>
@@ -9182,7 +9347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:30" s="4" customFormat="1" ht="54">
+    <row r="10" spans="1:30" s="4" customFormat="1" ht="56" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
         <v>35</v>
       </c>
@@ -9274,70 +9439,70 @@
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="9"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="9"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="9"/>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="9"/>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="9"/>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="9"/>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="9"/>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="9"/>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="9"/>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="9"/>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="9"/>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="9"/>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="9"/>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="9"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:AD9" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:AD9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/_Out/NFDataCfg/Excel/NPC.xlsx
+++ b/_Out/NFDataCfg/Excel/NPC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="9930" activeTab="1"/>
+    <workbookView windowWidth="21495" windowHeight="9930"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -1382,10 +1382,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1427,11 +1427,77 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1443,16 +1509,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1461,6 +1535,28 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1475,104 +1571,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1635,7 +1635,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1647,19 +1761,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1671,139 +1803,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1981,11 +1981,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2005,17 +2031,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2049,38 +2069,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2092,130 +2092,130 @@
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2778,10 +2778,10 @@
   <sheetPr/>
   <dimension ref="A1:AJ62"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="AC16" sqref="AC16"/>
+      <selection pane="bottomLeft" activeCell="AH9" sqref="AH9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3075,7 +3075,7 @@
         <v>0</v>
       </c>
       <c r="O3" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" s="6">
         <v>0</v>
@@ -3108,25 +3108,25 @@
         <v>0</v>
       </c>
       <c r="Z3" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA3" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB3" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC3" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD3" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE3" s="6">
         <v>1</v>
       </c>
       <c r="AF3" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG3" s="6">
         <v>1</v>
@@ -3138,7 +3138,7 @@
         <v>1</v>
       </c>
       <c r="AJ3" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" s="6" customFormat="1" ht="15" spans="1:36">
@@ -3146,7 +3146,7 @@
         <v>41</v>
       </c>
       <c r="B4" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -3173,64 +3173,64 @@
         <v>1</v>
       </c>
       <c r="K4" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z4" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA4" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB4" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC4" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD4" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE4" s="6">
         <v>1</v>
@@ -3248,7 +3248,7 @@
         <v>1</v>
       </c>
       <c r="AJ4" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" s="6" customFormat="1" ht="15" spans="1:36">
@@ -9146,8 +9146,8 @@
   <sheetPr/>
   <dimension ref="A1:AF30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:AF10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9364,8 +9364,8 @@
       <c r="D3" s="7">
         <v>0</v>
       </c>
-      <c r="E3" s="7">
-        <v>0</v>
+      <c r="E3" s="6">
+        <v>1</v>
       </c>
       <c r="F3" s="7">
         <v>0</v>
@@ -10086,8 +10086,6 @@
       <c r="P10" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
       <c r="S10" s="8" t="s">
         <v>431</v>
       </c>
@@ -10193,7 +10191,7 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:Q3 R3 S3:V3 W3 X3 Y3:AF3 R7:R9 W7:W9 X7:X9 B7:Q9 S7:V9 Y7:AF9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:D3 F3:Q3 R3 S3:V3 W3 X3 Y3:AF3 R7:R9 W7:W9 X7:X9 B7:Q9 S7:V9 Y7:AF9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>

--- a/_Out/NFDataCfg/Excel/NPC.xlsx
+++ b/_Out/NFDataCfg/Excel/NPC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="9930"/>
+    <workbookView windowWidth="21495" windowHeight="9930" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -1383,9 +1383,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1435,23 +1435,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1463,16 +1463,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1486,39 +1486,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1534,14 +1511,45 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1555,24 +1563,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1635,13 +1635,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1653,121 +1713,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1785,13 +1731,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1803,7 +1791,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1975,6 +1975,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -2003,39 +2027,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2069,153 +2060,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2778,7 +2778,7 @@
   <sheetPr/>
   <dimension ref="A1:AJ62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+    <sheetView topLeftCell="AD1" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="AH9" sqref="AH9"/>
@@ -9146,8 +9146,8 @@
   <sheetPr/>
   <dimension ref="A1:AF30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AA3" sqref="AA3:AF3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9388,8 +9388,8 @@
       <c r="L3" s="7">
         <v>0</v>
       </c>
-      <c r="M3" s="7">
-        <v>0</v>
+      <c r="M3" s="6">
+        <v>1</v>
       </c>
       <c r="N3" s="7">
         <v>0</v>
@@ -9430,23 +9430,23 @@
       <c r="Z3" s="7">
         <v>0</v>
       </c>
-      <c r="AA3" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="7">
-        <v>0</v>
+      <c r="AA3" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="6">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="6">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="4" s="6" customFormat="1" spans="1:32">
@@ -10191,7 +10191,7 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:D3 F3:Q3 R3 S3:V3 W3 X3 Y3:AF3 R7:R9 W7:W9 X7:X9 B7:Q9 S7:V9 Y7:AF9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:D3 F3:L3 N3:Q3 R3 S3:V3 W3 X3 Y3:Z3 R7:R9 W7:W9 X7:X9 B7:Q9 S7:V9 Y7:AF9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
@@ -10208,7 +10208,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -10242,7 +10242,7 @@
         <v>40</v>
       </c>
       <c r="B4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:2">
@@ -10319,12 +10319,12 @@
     </row>
   </sheetData>
   <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4 B4 B7:B10 A5:B6">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A11:B11"/>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A12:B12">
       <formula1>"int,string,float,object"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B10 A4:B6">
-      <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:B3">
       <formula1>0</formula1>

--- a/_Out/NFDataCfg/Excel/NPC.xlsx
+++ b/_Out/NFDataCfg/Excel/NPC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="9930" activeTab="1"/>
+    <workbookView windowWidth="21495" windowHeight="9930"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451">
   <si>
     <t>Id</t>
   </si>
@@ -420,6 +420,9 @@
     <t>SKILL_Magma_Demon_THUMP</t>
   </si>
   <si>
+    <t>NPC_MagmaDemon-Orange</t>
+  </si>
+  <si>
     <t>DescID_Magma Demon-Orange</t>
   </si>
   <si>
@@ -433,6 +436,9 @@
   </si>
   <si>
     <t>97</t>
+  </si>
+  <si>
+    <t>NPC_MagmaDemon-Blue</t>
   </si>
   <si>
     <t>DescID_Magma Demon-Blue</t>
@@ -1427,113 +1433,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1549,7 +1451,119 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1563,16 +1577,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1635,7 +1641,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1653,13 +1755,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1671,31 +1779,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1707,103 +1809,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1972,15 +1978,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2000,7 +1997,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2031,17 +2028,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2065,7 +2056,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2074,148 +2080,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2778,10 +2784,10 @@
   <sheetPr/>
   <dimension ref="A1:AJ62"/>
   <sheetViews>
-    <sheetView topLeftCell="AD1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="AH9" sqref="AH9"/>
+      <selection pane="bottomLeft" activeCell="AC21" sqref="AC21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4530,7 +4536,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" ht="14.25" spans="1:36">
+    <row r="17" spans="1:36">
       <c r="A17" t="s">
         <v>123</v>
       </c>
@@ -4613,7 +4619,7 @@
         <v>81</v>
       </c>
       <c r="AC17" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="AD17" s="39" t="s">
         <v>82</v>
@@ -4634,12 +4640,12 @@
         <v>0</v>
       </c>
       <c r="AJ17" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25" spans="1:36">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36">
       <c r="A18" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -4678,7 +4684,7 @@
         <v>2</v>
       </c>
       <c r="O18" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -4687,10 +4693,10 @@
         <v>20</v>
       </c>
       <c r="R18" s="25" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="S18" s="25" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="T18" s="29" t="s">
         <v>127</v>
@@ -4720,7 +4726,7 @@
         <v>81</v>
       </c>
       <c r="AC18" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="AD18" s="39" t="s">
         <v>82</v>
@@ -4741,12 +4747,12 @@
         <v>0</v>
       </c>
       <c r="AJ18" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:36">
       <c r="A19" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -4785,7 +4791,7 @@
         <v>2</v>
       </c>
       <c r="O19" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -4794,19 +4800,19 @@
         <v>20</v>
       </c>
       <c r="R19" s="25" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="S19" s="25" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="T19" s="29" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="U19" s="29" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="V19" s="29" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="W19">
         <v>2</v>
@@ -4827,7 +4833,7 @@
         <v>81</v>
       </c>
       <c r="AC19" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AD19" s="39" t="s">
         <v>82</v>
@@ -4848,12 +4854,12 @@
         <v>0</v>
       </c>
       <c r="AJ19" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:36">
       <c r="A20" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -4892,7 +4898,7 @@
         <v>2</v>
       </c>
       <c r="O20" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -4901,19 +4907,19 @@
         <v>20</v>
       </c>
       <c r="R20" s="25" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="S20" s="25" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="T20" s="29" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="U20" s="29" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="V20" s="29" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="W20">
         <v>2</v>
@@ -4934,7 +4940,7 @@
         <v>81</v>
       </c>
       <c r="AC20" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AD20" s="39" t="s">
         <v>82</v>
@@ -4955,12 +4961,12 @@
         <v>0</v>
       </c>
       <c r="AJ20" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:36">
       <c r="A21" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -4999,7 +5005,7 @@
         <v>2</v>
       </c>
       <c r="O21" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -5008,19 +5014,19 @@
         <v>20</v>
       </c>
       <c r="R21" s="25" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="S21" s="25" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="T21" s="29" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="U21" s="29" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="V21" s="29" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="W21">
         <v>2</v>
@@ -5041,7 +5047,7 @@
         <v>81</v>
       </c>
       <c r="AC21" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AD21" s="39" t="s">
         <v>82</v>
@@ -5062,12 +5068,12 @@
         <v>0</v>
       </c>
       <c r="AJ21" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:36">
       <c r="A22" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -5106,7 +5112,7 @@
         <v>2</v>
       </c>
       <c r="O22" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -5115,19 +5121,19 @@
         <v>20</v>
       </c>
       <c r="R22" s="25" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="S22" s="25" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="T22" s="29" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="U22" s="29" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="V22" s="29" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="W22">
         <v>2</v>
@@ -5148,7 +5154,7 @@
         <v>81</v>
       </c>
       <c r="AC22" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AD22" s="39" t="s">
         <v>82</v>
@@ -5169,12 +5175,12 @@
         <v>0</v>
       </c>
       <c r="AJ22" s="46" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" s="14" customFormat="1" ht="14.25" spans="1:36">
       <c r="A23" s="19" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C23" s="14">
         <v>0</v>
@@ -5213,7 +5219,7 @@
         <v>2</v>
       </c>
       <c r="O23" s="14" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P23" s="14">
         <v>0</v>
@@ -5222,19 +5228,19 @@
         <v>20</v>
       </c>
       <c r="R23" s="30" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="S23" s="30" t="s">
         <v>77</v>
       </c>
       <c r="T23" s="31" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="U23" s="31" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="V23" s="31" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="W23" s="14">
         <v>2</v>
@@ -5255,10 +5261,10 @@
         <v>81</v>
       </c>
       <c r="AC23" s="40" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AD23" s="14" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AE23" s="14">
         <v>0</v>
@@ -5276,12 +5282,12 @@
         <v>1</v>
       </c>
       <c r="AJ23" s="20" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" s="15" customFormat="1" ht="14.25" spans="1:36">
       <c r="A24" s="20" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C24" s="15">
         <v>0</v>
@@ -5320,7 +5326,7 @@
         <v>2</v>
       </c>
       <c r="O24" s="15" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P24" s="15">
         <v>1</v>
@@ -5329,19 +5335,19 @@
         <v>20</v>
       </c>
       <c r="R24" s="30" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="S24" s="30" t="s">
         <v>86</v>
       </c>
       <c r="T24" s="15" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="U24" s="15" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="V24" s="15" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="W24" s="15">
         <v>2</v>
@@ -5356,16 +5362,16 @@
         <v>0</v>
       </c>
       <c r="AA24" s="15" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AB24" s="41" t="s">
         <v>81</v>
       </c>
       <c r="AC24" s="42" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AD24" s="15" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AE24" s="15">
         <v>0</v>
@@ -5383,12 +5389,12 @@
         <v>1</v>
       </c>
       <c r="AJ24" s="20" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" s="15" customFormat="1" ht="14.25" spans="1:36">
       <c r="A25" s="20" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C25" s="15">
         <v>0</v>
@@ -5427,7 +5433,7 @@
         <v>2</v>
       </c>
       <c r="O25" s="15" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P25" s="15">
         <v>0</v>
@@ -5436,19 +5442,19 @@
         <v>20</v>
       </c>
       <c r="R25" s="30" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="S25" s="30" t="s">
         <v>94</v>
       </c>
       <c r="T25" s="15" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="U25" s="15" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="V25" s="15" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="W25" s="15">
         <v>2</v>
@@ -5463,16 +5469,16 @@
         <v>0</v>
       </c>
       <c r="AA25" s="15" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AB25" s="41" t="s">
         <v>81</v>
       </c>
       <c r="AC25" s="42" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AD25" s="15" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AE25" s="15">
         <v>0</v>
@@ -5490,12 +5496,12 @@
         <v>1</v>
       </c>
       <c r="AJ25" s="20" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" s="15" customFormat="1" spans="1:36">
       <c r="A26" s="20" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C26" s="15">
         <v>0</v>
@@ -5534,7 +5540,7 @@
         <v>2</v>
       </c>
       <c r="O26" s="15" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P26" s="15">
         <v>0</v>
@@ -5543,19 +5549,19 @@
         <v>20</v>
       </c>
       <c r="R26" s="30" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="S26" s="30" t="s">
         <v>102</v>
       </c>
       <c r="T26" s="15" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="U26" s="15" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="V26" s="15" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="W26" s="15">
         <v>2</v>
@@ -5570,16 +5576,16 @@
         <v>0</v>
       </c>
       <c r="AA26" s="15" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AB26" s="41" t="s">
         <v>81</v>
       </c>
       <c r="AC26" s="42" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AD26" s="15" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AE26" s="15">
         <v>0</v>
@@ -5597,12 +5603,12 @@
         <v>1</v>
       </c>
       <c r="AJ26" s="47" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27" s="16" customFormat="1" spans="1:36">
       <c r="A27" s="21" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C27" s="16">
         <v>0</v>
@@ -5641,7 +5647,7 @@
         <v>2</v>
       </c>
       <c r="O27" s="16" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P27" s="16">
         <v>0</v>
@@ -5650,7 +5656,7 @@
         <v>20</v>
       </c>
       <c r="R27" s="33" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="S27" s="33" t="s">
         <v>77</v>
@@ -5668,13 +5674,13 @@
         <v>0</v>
       </c>
       <c r="AA27" s="16" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AB27" s="34" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AC27" s="16" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AD27" s="43" t="s">
         <v>82</v>
@@ -5695,12 +5701,12 @@
         <v>2</v>
       </c>
       <c r="AJ27" s="22" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28" s="17" customFormat="1" spans="1:36">
       <c r="A28" s="22" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C28" s="17">
         <v>0</v>
@@ -5739,7 +5745,7 @@
         <v>2</v>
       </c>
       <c r="O28" s="16" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P28" s="17">
         <v>0</v>
@@ -5748,7 +5754,7 @@
         <v>20</v>
       </c>
       <c r="R28" s="33" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="S28" s="33" t="s">
         <v>77</v>
@@ -5766,13 +5772,13 @@
         <v>0</v>
       </c>
       <c r="AA28" s="17" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AB28" s="34" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AC28" s="17" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AD28" s="44" t="s">
         <v>82</v>
@@ -5793,12 +5799,12 @@
         <v>2</v>
       </c>
       <c r="AJ28" s="22" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="29" s="17" customFormat="1" spans="1:36">
       <c r="A29" s="22" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C29" s="17">
         <v>0</v>
@@ -5837,7 +5843,7 @@
         <v>2</v>
       </c>
       <c r="O29" s="16" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="P29" s="17">
         <v>0</v>
@@ -5846,7 +5852,7 @@
         <v>20</v>
       </c>
       <c r="R29" s="17" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="S29" s="33" t="s">
         <v>77</v>
@@ -5864,13 +5870,13 @@
         <v>0</v>
       </c>
       <c r="AA29" s="17" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AB29" s="34" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AC29" s="17" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AD29" s="44" t="s">
         <v>82</v>
@@ -5891,12 +5897,12 @@
         <v>2</v>
       </c>
       <c r="AJ29" s="22" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30" s="17" customFormat="1" spans="1:36">
       <c r="A30" s="22" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C30" s="17">
         <v>0</v>
@@ -5935,7 +5941,7 @@
         <v>2</v>
       </c>
       <c r="O30" s="17" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P30" s="17">
         <v>0</v>
@@ -5944,7 +5950,7 @@
         <v>20</v>
       </c>
       <c r="R30" s="17" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="S30" s="33" t="s">
         <v>77</v>
@@ -5962,13 +5968,13 @@
         <v>0</v>
       </c>
       <c r="AA30" s="17" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AB30" s="34" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AC30" s="17" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AD30" s="44" t="s">
         <v>82</v>
@@ -5989,12 +5995,12 @@
         <v>2</v>
       </c>
       <c r="AJ30" s="22" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31" s="17" customFormat="1" spans="1:36">
       <c r="A31" s="22" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C31" s="17">
         <v>0</v>
@@ -6033,7 +6039,7 @@
         <v>2</v>
       </c>
       <c r="O31" s="17" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="P31" s="17">
         <v>0</v>
@@ -6042,7 +6048,7 @@
         <v>20</v>
       </c>
       <c r="R31" s="17" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="S31" s="33" t="s">
         <v>77</v>
@@ -6060,13 +6066,13 @@
         <v>0</v>
       </c>
       <c r="AA31" s="17" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AB31" s="34" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AC31" s="17" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AD31" s="44" t="s">
         <v>82</v>
@@ -6087,12 +6093,12 @@
         <v>2</v>
       </c>
       <c r="AJ31" s="22" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="32" s="17" customFormat="1" spans="1:36">
       <c r="A32" s="22" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C32" s="17">
         <v>0</v>
@@ -6131,7 +6137,7 @@
         <v>2</v>
       </c>
       <c r="O32" s="17" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="P32" s="17">
         <v>0</v>
@@ -6140,7 +6146,7 @@
         <v>20</v>
       </c>
       <c r="R32" s="17" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="S32" s="33" t="s">
         <v>77</v>
@@ -6158,13 +6164,13 @@
         <v>0</v>
       </c>
       <c r="AA32" s="17" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AB32" s="34" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AC32" s="17" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AD32" s="44" t="s">
         <v>82</v>
@@ -6185,12 +6191,12 @@
         <v>2</v>
       </c>
       <c r="AJ32" s="22" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="33" s="17" customFormat="1" spans="1:36">
       <c r="A33" s="22" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C33" s="17">
         <v>0</v>
@@ -6229,7 +6235,7 @@
         <v>2</v>
       </c>
       <c r="O33" s="17" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="P33" s="17">
         <v>0</v>
@@ -6238,7 +6244,7 @@
         <v>20</v>
       </c>
       <c r="R33" s="17" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="S33" s="33" t="s">
         <v>77</v>
@@ -6256,13 +6262,13 @@
         <v>0</v>
       </c>
       <c r="AA33" s="17" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AB33" s="34" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AC33" s="17" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AD33" s="44" t="s">
         <v>82</v>
@@ -6283,12 +6289,12 @@
         <v>2</v>
       </c>
       <c r="AJ33" s="22" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="34" s="17" customFormat="1" spans="1:36">
       <c r="A34" s="22" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C34" s="17">
         <v>0</v>
@@ -6327,7 +6333,7 @@
         <v>2</v>
       </c>
       <c r="O34" s="17" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="P34" s="17">
         <v>0</v>
@@ -6354,13 +6360,13 @@
         <v>0</v>
       </c>
       <c r="AA34" s="17" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AB34" s="34" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AC34" s="17" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AD34" s="44" t="s">
         <v>82</v>
@@ -6381,12 +6387,12 @@
         <v>2</v>
       </c>
       <c r="AJ34" s="22" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" s="17" customFormat="1" spans="1:36">
       <c r="A35" s="22" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C35" s="17">
         <v>0</v>
@@ -6425,7 +6431,7 @@
         <v>2</v>
       </c>
       <c r="O35" s="17" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="P35" s="17">
         <v>0</v>
@@ -6452,13 +6458,13 @@
         <v>0</v>
       </c>
       <c r="AA35" s="17" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AB35" s="34" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AC35" s="17" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AD35" s="44" t="s">
         <v>82</v>
@@ -6479,12 +6485,12 @@
         <v>2</v>
       </c>
       <c r="AJ35" s="22" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="36" s="17" customFormat="1" spans="1:36">
       <c r="A36" s="22" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C36" s="17">
         <v>0</v>
@@ -6523,7 +6529,7 @@
         <v>3</v>
       </c>
       <c r="O36" s="17" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P36" s="17">
         <v>0</v>
@@ -6550,13 +6556,13 @@
         <v>0</v>
       </c>
       <c r="AA36" s="17" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AB36" s="34" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AC36" s="17" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AD36" s="44" t="s">
         <v>82</v>
@@ -6577,12 +6583,12 @@
         <v>2</v>
       </c>
       <c r="AJ36" s="22" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="37" s="17" customFormat="1" spans="1:36">
       <c r="A37" s="22" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C37" s="17">
         <v>0</v>
@@ -6621,7 +6627,7 @@
         <v>3</v>
       </c>
       <c r="O37" s="17" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="P37" s="17">
         <v>0</v>
@@ -6648,13 +6654,13 @@
         <v>0</v>
       </c>
       <c r="AA37" s="17" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AB37" s="34" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AC37" s="17" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AD37" s="44" t="s">
         <v>82</v>
@@ -6675,12 +6681,12 @@
         <v>2</v>
       </c>
       <c r="AJ37" s="22" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="38" s="17" customFormat="1" spans="1:36">
       <c r="A38" s="22" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C38" s="17">
         <v>0</v>
@@ -6719,7 +6725,7 @@
         <v>3</v>
       </c>
       <c r="O38" s="17" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="P38" s="17">
         <v>0</v>
@@ -6746,13 +6752,13 @@
         <v>0</v>
       </c>
       <c r="AA38" s="17" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AB38" s="34" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AC38" s="17" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AD38" s="44" t="s">
         <v>82</v>
@@ -6773,12 +6779,12 @@
         <v>2</v>
       </c>
       <c r="AJ38" s="22" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="39" s="17" customFormat="1" spans="1:36">
       <c r="A39" s="22" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C39" s="17">
         <v>0</v>
@@ -6817,7 +6823,7 @@
         <v>1</v>
       </c>
       <c r="O39" s="17" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="P39" s="17">
         <v>0</v>
@@ -6844,13 +6850,13 @@
         <v>0</v>
       </c>
       <c r="AA39" s="17" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AB39" s="34" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AC39" s="17" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AD39" s="44" t="s">
         <v>82</v>
@@ -6871,12 +6877,12 @@
         <v>2</v>
       </c>
       <c r="AJ39" s="22" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="40" s="17" customFormat="1" spans="1:36">
       <c r="A40" s="22" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C40" s="17">
         <v>0</v>
@@ -6915,7 +6921,7 @@
         <v>1</v>
       </c>
       <c r="O40" s="17" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="P40" s="17">
         <v>0</v>
@@ -6942,13 +6948,13 @@
         <v>0</v>
       </c>
       <c r="AA40" s="17" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AB40" s="34" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AC40" s="17" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AD40" s="44" t="s">
         <v>82</v>
@@ -6969,12 +6975,12 @@
         <v>2</v>
       </c>
       <c r="AJ40" s="22" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="41" s="17" customFormat="1" spans="1:36">
       <c r="A41" s="22" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C41" s="17">
         <v>0</v>
@@ -7013,7 +7019,7 @@
         <v>1</v>
       </c>
       <c r="O41" s="17" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="P41" s="17">
         <v>0</v>
@@ -7022,7 +7028,7 @@
         <v>20</v>
       </c>
       <c r="R41" s="33" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="S41" s="33" t="s">
         <v>77</v>
@@ -7040,13 +7046,13 @@
         <v>0</v>
       </c>
       <c r="AA41" s="17" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AB41" s="34" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AC41" s="17" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AD41" s="44" t="s">
         <v>82</v>
@@ -7067,12 +7073,12 @@
         <v>2</v>
       </c>
       <c r="AJ41" s="22" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="42" s="17" customFormat="1" spans="1:36">
       <c r="A42" s="22" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C42" s="17">
         <v>0</v>
@@ -7111,7 +7117,7 @@
         <v>2</v>
       </c>
       <c r="O42" s="17" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="P42" s="17">
         <v>0</v>
@@ -7120,7 +7126,7 @@
         <v>20</v>
       </c>
       <c r="R42" s="33" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="S42" s="33" t="s">
         <v>77</v>
@@ -7138,13 +7144,13 @@
         <v>0</v>
       </c>
       <c r="AA42" s="17" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AB42" s="34" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AC42" s="17" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AD42" s="44" t="s">
         <v>82</v>
@@ -7165,12 +7171,12 @@
         <v>2</v>
       </c>
       <c r="AJ42" s="22" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="43" s="17" customFormat="1" spans="1:36">
       <c r="A43" s="22" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C43" s="17">
         <v>0</v>
@@ -7209,7 +7215,7 @@
         <v>2</v>
       </c>
       <c r="O43" s="17" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="P43" s="17">
         <v>0</v>
@@ -7218,7 +7224,7 @@
         <v>20</v>
       </c>
       <c r="R43" s="33" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="S43" s="33" t="s">
         <v>77</v>
@@ -7236,13 +7242,13 @@
         <v>0</v>
       </c>
       <c r="AA43" s="17" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AB43" s="34" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AC43" s="17" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AD43" s="44" t="s">
         <v>82</v>
@@ -7263,12 +7269,12 @@
         <v>2</v>
       </c>
       <c r="AJ43" s="22" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="44" s="17" customFormat="1" spans="1:36">
       <c r="A44" s="22" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C44" s="17">
         <v>0</v>
@@ -7307,7 +7313,7 @@
         <v>2</v>
       </c>
       <c r="O44" s="17" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="P44" s="17">
         <v>0</v>
@@ -7316,7 +7322,7 @@
         <v>20</v>
       </c>
       <c r="R44" s="33" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="S44" s="33" t="s">
         <v>77</v>
@@ -7334,13 +7340,13 @@
         <v>0</v>
       </c>
       <c r="AA44" s="17" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AB44" s="34" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AC44" s="17" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AD44" s="44" t="s">
         <v>82</v>
@@ -7361,12 +7367,12 @@
         <v>2</v>
       </c>
       <c r="AJ44" s="22" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="45" s="17" customFormat="1" spans="1:36">
       <c r="A45" s="22" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C45" s="17">
         <v>0</v>
@@ -7405,7 +7411,7 @@
         <v>2</v>
       </c>
       <c r="O45" s="17" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="P45" s="17">
         <v>0</v>
@@ -7414,7 +7420,7 @@
         <v>20</v>
       </c>
       <c r="R45" s="33" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="S45" s="33" t="s">
         <v>77</v>
@@ -7432,13 +7438,13 @@
         <v>0</v>
       </c>
       <c r="AA45" s="17" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AB45" s="34" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AC45" s="17" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AD45" s="44" t="s">
         <v>82</v>
@@ -7459,12 +7465,12 @@
         <v>2</v>
       </c>
       <c r="AJ45" s="22" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="46" s="17" customFormat="1" spans="1:36">
       <c r="A46" s="22" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C46" s="17">
         <v>0</v>
@@ -7503,7 +7509,7 @@
         <v>2</v>
       </c>
       <c r="O46" s="17" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="P46" s="17">
         <v>0</v>
@@ -7512,7 +7518,7 @@
         <v>20</v>
       </c>
       <c r="R46" s="33" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="S46" s="33" t="s">
         <v>77</v>
@@ -7530,13 +7536,13 @@
         <v>0</v>
       </c>
       <c r="AA46" s="17" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AB46" s="34" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AC46" s="17" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AD46" s="44" t="s">
         <v>82</v>
@@ -7557,12 +7563,12 @@
         <v>2</v>
       </c>
       <c r="AJ46" s="22" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="47" s="17" customFormat="1" spans="1:36">
       <c r="A47" s="22" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C47" s="17">
         <v>0</v>
@@ -7601,7 +7607,7 @@
         <v>2</v>
       </c>
       <c r="O47" s="17" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="P47" s="17">
         <v>0</v>
@@ -7610,7 +7616,7 @@
         <v>20</v>
       </c>
       <c r="R47" s="33" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="S47" s="33" t="s">
         <v>77</v>
@@ -7628,13 +7634,13 @@
         <v>0</v>
       </c>
       <c r="AA47" s="17" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AB47" s="34" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AC47" s="17" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AD47" s="44" t="s">
         <v>82</v>
@@ -7655,12 +7661,12 @@
         <v>2</v>
       </c>
       <c r="AJ47" s="22" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="48" s="17" customFormat="1" spans="1:36">
       <c r="A48" s="22" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C48" s="17">
         <v>0</v>
@@ -7699,7 +7705,7 @@
         <v>3</v>
       </c>
       <c r="O48" s="17" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="P48" s="17">
         <v>0</v>
@@ -7708,7 +7714,7 @@
         <v>20</v>
       </c>
       <c r="R48" s="33" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="S48" s="33" t="s">
         <v>77</v>
@@ -7726,13 +7732,13 @@
         <v>0</v>
       </c>
       <c r="AA48" s="17" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AB48" s="34" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AC48" s="17" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AD48" s="44" t="s">
         <v>82</v>
@@ -7753,12 +7759,12 @@
         <v>2</v>
       </c>
       <c r="AJ48" s="22" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="49" s="17" customFormat="1" spans="1:36">
       <c r="A49" s="22" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C49" s="17">
         <v>0</v>
@@ -7797,7 +7803,7 @@
         <v>3</v>
       </c>
       <c r="O49" s="17" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="P49" s="17">
         <v>0</v>
@@ -7806,7 +7812,7 @@
         <v>20</v>
       </c>
       <c r="R49" s="33" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="S49" s="33" t="s">
         <v>77</v>
@@ -7824,13 +7830,13 @@
         <v>0</v>
       </c>
       <c r="AA49" s="17" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AB49" s="34" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AC49" s="17" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AD49" s="44" t="s">
         <v>82</v>
@@ -7851,12 +7857,12 @@
         <v>2</v>
       </c>
       <c r="AJ49" s="22" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="50" s="17" customFormat="1" spans="1:36">
       <c r="A50" s="22" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C50" s="17">
         <v>0</v>
@@ -7895,7 +7901,7 @@
         <v>3</v>
       </c>
       <c r="O50" s="17" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="P50" s="17">
         <v>0</v>
@@ -7904,7 +7910,7 @@
         <v>20</v>
       </c>
       <c r="R50" s="33" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="S50" s="33" t="s">
         <v>77</v>
@@ -7922,13 +7928,13 @@
         <v>0</v>
       </c>
       <c r="AA50" s="17" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AB50" s="34" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AC50" s="17" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AD50" s="44" t="s">
         <v>82</v>
@@ -7949,12 +7955,12 @@
         <v>2</v>
       </c>
       <c r="AJ50" s="22" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="51" s="17" customFormat="1" spans="1:36">
       <c r="A51" s="22" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C51" s="17">
         <v>0</v>
@@ -7993,7 +7999,7 @@
         <v>2</v>
       </c>
       <c r="O51" s="17" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="P51" s="17">
         <v>0</v>
@@ -8002,7 +8008,7 @@
         <v>20</v>
       </c>
       <c r="R51" s="33" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="S51" s="33" t="s">
         <v>77</v>
@@ -8020,13 +8026,13 @@
         <v>0</v>
       </c>
       <c r="AA51" s="17" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AB51" s="34" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AC51" s="17" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AD51" s="44" t="s">
         <v>82</v>
@@ -8047,12 +8053,12 @@
         <v>2</v>
       </c>
       <c r="AJ51" s="22" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="52" s="17" customFormat="1" spans="1:36">
       <c r="A52" s="22" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C52" s="17">
         <v>0</v>
@@ -8091,7 +8097,7 @@
         <v>2</v>
       </c>
       <c r="O52" s="17" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="P52" s="17">
         <v>0</v>
@@ -8100,7 +8106,7 @@
         <v>20</v>
       </c>
       <c r="R52" s="17" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="S52" s="33" t="s">
         <v>77</v>
@@ -8118,13 +8124,13 @@
         <v>0</v>
       </c>
       <c r="AA52" s="17" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AB52" s="34" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AC52" s="17" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AD52" s="44" t="s">
         <v>82</v>
@@ -8145,12 +8151,12 @@
         <v>2</v>
       </c>
       <c r="AJ52" s="22" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="53" s="17" customFormat="1" spans="1:36">
       <c r="A53" s="22" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C53" s="17">
         <v>0</v>
@@ -8189,7 +8195,7 @@
         <v>2</v>
       </c>
       <c r="O53" s="17" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="P53" s="17">
         <v>0</v>
@@ -8198,7 +8204,7 @@
         <v>20</v>
       </c>
       <c r="R53" s="17" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="S53" s="33" t="s">
         <v>77</v>
@@ -8216,13 +8222,13 @@
         <v>0</v>
       </c>
       <c r="AA53" s="17" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AB53" s="34" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AC53" s="17" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="AD53" s="44" t="s">
         <v>82</v>
@@ -8243,12 +8249,12 @@
         <v>2</v>
       </c>
       <c r="AJ53" s="22" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="54" s="17" customFormat="1" spans="1:36">
       <c r="A54" s="22" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C54" s="17">
         <v>0</v>
@@ -8287,7 +8293,7 @@
         <v>3</v>
       </c>
       <c r="O54" s="17" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="P54" s="17">
         <v>0</v>
@@ -8296,7 +8302,7 @@
         <v>20</v>
       </c>
       <c r="R54" s="17" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="S54" s="33" t="s">
         <v>77</v>
@@ -8314,13 +8320,13 @@
         <v>0</v>
       </c>
       <c r="AA54" s="17" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="AB54" s="34" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AC54" s="17" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AD54" s="44" t="s">
         <v>82</v>
@@ -8341,12 +8347,12 @@
         <v>2</v>
       </c>
       <c r="AJ54" s="22" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="55" s="17" customFormat="1" spans="1:36">
       <c r="A55" s="22" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C55" s="17">
         <v>0</v>
@@ -8385,7 +8391,7 @@
         <v>3</v>
       </c>
       <c r="O55" s="17" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="P55" s="17">
         <v>0</v>
@@ -8394,7 +8400,7 @@
         <v>20</v>
       </c>
       <c r="R55" s="17" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="S55" s="33" t="s">
         <v>77</v>
@@ -8412,13 +8418,13 @@
         <v>0</v>
       </c>
       <c r="AA55" s="17" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AB55" s="34" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AC55" s="17" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AD55" s="44" t="s">
         <v>82</v>
@@ -8439,12 +8445,12 @@
         <v>2</v>
       </c>
       <c r="AJ55" s="22" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="56" s="17" customFormat="1" spans="1:36">
       <c r="A56" s="22" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C56" s="17">
         <v>0</v>
@@ -8483,7 +8489,7 @@
         <v>3</v>
       </c>
       <c r="O56" s="17" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="P56" s="17">
         <v>0</v>
@@ -8492,7 +8498,7 @@
         <v>20</v>
       </c>
       <c r="R56" s="17" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="S56" s="33" t="s">
         <v>77</v>
@@ -8510,13 +8516,13 @@
         <v>0</v>
       </c>
       <c r="AA56" s="17" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AB56" s="34" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AC56" s="17" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AD56" s="44" t="s">
         <v>82</v>
@@ -8537,12 +8543,12 @@
         <v>2</v>
       </c>
       <c r="AJ56" s="22" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="57" s="17" customFormat="1" spans="1:36">
       <c r="A57" s="22" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C57" s="17">
         <v>0</v>
@@ -8581,7 +8587,7 @@
         <v>2</v>
       </c>
       <c r="O57" s="17" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="P57" s="17">
         <v>0</v>
@@ -8590,7 +8596,7 @@
         <v>20</v>
       </c>
       <c r="R57" s="17" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="S57" s="33" t="s">
         <v>77</v>
@@ -8608,13 +8614,13 @@
         <v>0</v>
       </c>
       <c r="AA57" s="17" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="AB57" s="34" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AC57" s="17" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="AD57" s="44" t="s">
         <v>82</v>
@@ -8635,12 +8641,12 @@
         <v>2</v>
       </c>
       <c r="AJ57" s="22" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="58" s="17" customFormat="1" ht="14.25" spans="1:36">
       <c r="A58" s="22" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C58" s="17">
         <v>0</v>
@@ -8679,7 +8685,7 @@
         <v>2</v>
       </c>
       <c r="O58" s="17" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="P58" s="17">
         <v>0</v>
@@ -8688,7 +8694,7 @@
         <v>20</v>
       </c>
       <c r="R58" s="17" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="S58" s="33" t="s">
         <v>77</v>
@@ -8706,13 +8712,13 @@
         <v>0</v>
       </c>
       <c r="AA58" s="17" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AB58" s="34" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AC58" s="17" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AD58" s="44" t="s">
         <v>82</v>
@@ -8733,12 +8739,12 @@
         <v>2</v>
       </c>
       <c r="AJ58" s="23" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="59" s="18" customFormat="1" ht="14.25" spans="1:36">
       <c r="A59" s="23" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C59" s="18">
         <v>0</v>
@@ -8777,7 +8783,7 @@
         <v>2</v>
       </c>
       <c r="O59" s="17" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="P59" s="18">
         <v>0</v>
@@ -8786,7 +8792,7 @@
         <v>20</v>
       </c>
       <c r="R59" s="17" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="S59" s="33" t="s">
         <v>77</v>
@@ -8804,13 +8810,13 @@
         <v>0</v>
       </c>
       <c r="AA59" s="18" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="AB59" s="34" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AC59" s="18" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AD59" s="45" t="s">
         <v>82</v>
@@ -8831,12 +8837,12 @@
         <v>2</v>
       </c>
       <c r="AJ59" s="22" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="60" s="17" customFormat="1" spans="1:36">
       <c r="A60" s="22" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C60" s="17">
         <v>0</v>
@@ -8875,7 +8881,7 @@
         <v>2</v>
       </c>
       <c r="O60" s="17" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="P60" s="17">
         <v>0</v>
@@ -8884,7 +8890,7 @@
         <v>20</v>
       </c>
       <c r="R60" s="17" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="S60" s="33" t="s">
         <v>77</v>
@@ -8902,13 +8908,13 @@
         <v>0</v>
       </c>
       <c r="AA60" s="17" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="AB60" s="34" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AC60" s="17" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AD60" s="44" t="s">
         <v>82</v>
@@ -8929,12 +8935,12 @@
         <v>2</v>
       </c>
       <c r="AJ60" s="22" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="61" s="17" customFormat="1" ht="14.25" spans="1:36">
       <c r="A61" s="22" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C61" s="17">
         <v>0</v>
@@ -8973,7 +8979,7 @@
         <v>2</v>
       </c>
       <c r="O61" s="17" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="P61" s="17">
         <v>0</v>
@@ -8982,7 +8988,7 @@
         <v>20</v>
       </c>
       <c r="R61" s="17" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="S61" s="33" t="s">
         <v>77</v>
@@ -9000,13 +9006,13 @@
         <v>0</v>
       </c>
       <c r="AA61" s="17" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="AB61" s="34" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AC61" s="17" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AD61" s="44" t="s">
         <v>82</v>
@@ -9027,12 +9033,12 @@
         <v>2</v>
       </c>
       <c r="AJ61" s="23" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="62" s="18" customFormat="1" ht="14.25" spans="1:36">
       <c r="A62" s="23" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C62" s="18">
         <v>0</v>
@@ -9071,7 +9077,7 @@
         <v>2</v>
       </c>
       <c r="O62" s="17" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="P62" s="18">
         <v>0</v>
@@ -9080,7 +9086,7 @@
         <v>20</v>
       </c>
       <c r="R62" s="17" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="S62" s="33" t="s">
         <v>77</v>
@@ -9098,13 +9104,13 @@
         <v>0</v>
       </c>
       <c r="AA62" s="18" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AB62" s="34" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AC62" s="18" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="AD62" s="45" t="s">
         <v>82</v>
@@ -9125,7 +9131,7 @@
         <v>2</v>
       </c>
       <c r="AJ62" s="18" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -9146,7 +9152,7 @@
   <sheetPr/>
   <dimension ref="A1:AF30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+    <sheetView topLeftCell="O1" workbookViewId="0">
       <selection activeCell="AA3" sqref="AA3:AF3"/>
     </sheetView>
   </sheetViews>
@@ -9160,97 +9166,97 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AB1" s="5" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AC1" s="5" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AD1" s="5" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="AE1" s="5" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="AF1" s="5" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="2" s="6" customFormat="1" spans="1:32">
@@ -10042,13 +10048,13 @@
         <v>47</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>51</v>
@@ -10060,73 +10066,73 @@
         <v>52</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="S10" s="8" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="T10" s="8" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="U10" s="8" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="V10" s="8" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="W10" s="8" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="X10" s="8" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="Y10" s="8" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="Z10" s="8" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="AA10" s="8" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="AB10" s="8" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="AC10" s="8" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AD10" s="8" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="AE10" s="8" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AF10" s="8" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -10218,12 +10224,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B2" s="3">
         <v>8</v>
@@ -10231,7 +10237,7 @@
     </row>
     <row r="3" customFormat="1" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
@@ -10295,10 +10301,10 @@
     </row>
     <row r="11" customFormat="1" spans="1:2">
       <c r="A11" s="4" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:2">

--- a/_Out/NFDataCfg/Excel/NPC.xlsx
+++ b/_Out/NFDataCfg/Excel/NPC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="9930"/>
+    <workbookView windowWidth="21495" windowHeight="10335"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453">
   <si>
     <t>Id</t>
   </si>
@@ -78,7 +78,7 @@
     <t>Climb</t>
   </si>
   <si>
-    <t>AtkDis</t>
+    <t>CrisisDis</t>
   </si>
   <si>
     <t>DropPackList</t>
@@ -135,6 +135,9 @@
     <t>DescID</t>
   </si>
   <si>
+    <t>MeleeType</t>
+  </si>
+  <si>
     <t>Type</t>
   </si>
   <si>
@@ -204,7 +207,7 @@
     <t>Move类型</t>
   </si>
   <si>
-    <t>攻击距离</t>
+    <t>警戒范围</t>
   </si>
   <si>
     <t>掉落列表</t>
@@ -250,6 +253,9 @@
   </si>
   <si>
     <t>desc</t>
+  </si>
+  <si>
+    <t>Melee:0;MeleeDash:1;Ranger:2 EMeleeType</t>
   </si>
   <si>
     <t>Default</t>
@@ -1433,7 +1439,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1441,8 +1453,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1464,57 +1497,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1524,37 +1506,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1569,6 +1521,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -1578,7 +1576,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1641,7 +1647,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1653,79 +1689,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1743,31 +1725,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1785,19 +1773,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1809,7 +1797,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1978,6 +1984,54 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2002,17 +2056,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2027,201 +2081,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2782,12 +2788,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AJ62"/>
+  <dimension ref="A1:AK62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="AC21" sqref="AC21"/>
+      <selection pane="bottomLeft" activeCell="AL10" sqref="AL10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2804,10 +2810,12 @@
     <col min="12" max="14" width="13" customWidth="1"/>
     <col min="15" max="15" width="47.5" customWidth="1"/>
     <col min="16" max="16" width="14.6666666666667" customWidth="1"/>
+    <col min="17" max="17" width="13.625" customWidth="1"/>
     <col min="18" max="19" width="23" customWidth="1"/>
     <col min="20" max="22" width="27" customWidth="1"/>
-    <col min="24" max="24" width="11.6666666666667" customWidth="1"/>
-    <col min="25" max="26" width="13.8333333333333" customWidth="1"/>
+    <col min="24" max="24" width="17.125" customWidth="1"/>
+    <col min="25" max="25" width="13.8333333333333" customWidth="1"/>
+    <col min="26" max="26" width="20" customWidth="1"/>
     <col min="27" max="27" width="24" customWidth="1"/>
     <col min="28" max="28" width="27.3333333333333" customWidth="1"/>
     <col min="29" max="29" width="26.25" customWidth="1"/>
@@ -2815,9 +2823,10 @@
     <col min="31" max="31" width="10" customWidth="1"/>
     <col min="33" max="34" width="12.6666666666667" customWidth="1"/>
     <col min="36" max="36" width="25" customWidth="1"/>
+    <col min="37" max="37" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="27" spans="1:36">
+    <row r="1" s="5" customFormat="1" ht="15" spans="1:37">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2926,120 +2935,126 @@
       <c r="AJ1" s="5" t="s">
         <v>34</v>
       </c>
+      <c r="AK1" s="5" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="2" s="6" customFormat="1" ht="15" spans="1:36">
+    <row r="2" s="6" customFormat="1" ht="15" spans="1:37">
       <c r="A2" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="P2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="S2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="V2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="W2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="X2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="Y2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="Z2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="AB2" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="AF2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="AG2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="AJ2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="O2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z2" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB2" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH2" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ2" s="6" t="s">
-        <v>36</v>
-      </c>
     </row>
-    <row r="3" s="6" customFormat="1" ht="15" spans="1:36">
+    <row r="3" s="6" customFormat="1" ht="15" spans="1:37">
       <c r="A3" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B3" s="6">
         <v>0</v>
@@ -3146,10 +3161,13 @@
       <c r="AJ3" s="6">
         <v>1</v>
       </c>
+      <c r="AK3" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" s="6" customFormat="1" ht="15" spans="1:36">
+    <row r="4" s="6" customFormat="1" ht="15" spans="1:37">
       <c r="A4" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B4" s="6">
         <v>1</v>
@@ -3256,10 +3274,13 @@
       <c r="AJ4" s="6">
         <v>1</v>
       </c>
+      <c r="AK4" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" s="6" customFormat="1" ht="15" spans="1:36">
+    <row r="5" s="6" customFormat="1" ht="15" spans="1:37">
       <c r="A5" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B5" s="6">
         <v>0</v>
@@ -3366,10 +3387,13 @@
       <c r="AJ5" s="6">
         <v>0</v>
       </c>
+      <c r="AK5" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" s="6" customFormat="1" ht="15" spans="1:36">
+    <row r="6" s="6" customFormat="1" ht="15" spans="1:37">
       <c r="A6" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B6" s="6">
         <v>0</v>
@@ -3476,10 +3500,13 @@
       <c r="AJ6" s="6">
         <v>0</v>
       </c>
+      <c r="AK6" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" s="7" customFormat="1" spans="1:36">
+    <row r="7" s="7" customFormat="1" spans="1:37">
       <c r="A7" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B7" s="7">
         <v>0</v>
@@ -3586,10 +3613,13 @@
       <c r="AJ7" s="7">
         <v>0</v>
       </c>
+      <c r="AK7" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" s="7" customFormat="1" spans="1:36">
+    <row r="8" s="7" customFormat="1" spans="1:37">
       <c r="A8" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B8" s="7">
         <v>0</v>
@@ -3696,10 +3726,13 @@
       <c r="AJ8" s="7">
         <v>0</v>
       </c>
+      <c r="AK8" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" s="7" customFormat="1" spans="1:36">
+    <row r="9" s="7" customFormat="1" spans="1:37">
       <c r="A9" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B9" s="7">
         <v>0</v>
@@ -3806,105 +3839,111 @@
       <c r="AJ9" s="7">
         <v>0</v>
       </c>
+      <c r="AK9" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" s="8" customFormat="1" ht="41.25" spans="1:36">
+    <row r="10" s="8" customFormat="1" ht="54.75" spans="1:37">
       <c r="A10" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R10" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S10" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T10" s="24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U10" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V10" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W10" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="X10" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Y10" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Z10" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AA10" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AB10" s="36" t="s">
         <v>26</v>
       </c>
       <c r="AC10" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AD10" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AE10" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AF10" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AG10" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH10" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI10" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ10" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AK10" s="8" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="1:36">
+    <row r="11" ht="14.25" spans="1:37">
       <c r="A11" s="13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -3943,44 +3982,44 @@
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="R11" s="25" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S11" s="25" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="T11" s="26"/>
       <c r="W11">
         <v>2</v>
       </c>
       <c r="X11" s="13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z11">
         <v>0</v>
       </c>
       <c r="AA11" s="37" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AB11" s="38" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AC11" s="13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AD11" s="39" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AE11">
         <v>0</v>
@@ -3998,12 +4037,15 @@
         <v>0</v>
       </c>
       <c r="AJ11" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="1:36">
+    <row r="12" ht="14.25" spans="1:37">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -4042,53 +4084,53 @@
         <v>0</v>
       </c>
       <c r="O12" t="s">
+        <v>86</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>6</v>
+      </c>
+      <c r="R12" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="S12" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="T12" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="U12" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="V12" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="W12">
+        <v>2</v>
+      </c>
+      <c r="X12" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB12" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD12" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>20</v>
-      </c>
-      <c r="R12" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="S12" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="T12" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="U12" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="V12" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="W12">
-        <v>2</v>
-      </c>
-      <c r="X12" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB12" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD12" s="39" t="s">
-        <v>82</v>
-      </c>
       <c r="AE12">
         <v>0</v>
       </c>
@@ -4105,12 +4147,15 @@
         <v>0</v>
       </c>
       <c r="AJ12" t="s">
-        <v>90</v>
+        <v>92</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" ht="14.25" spans="1:36">
+    <row r="13" ht="14.25" spans="1:37">
       <c r="A13" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -4149,52 +4194,52 @@
         <v>2</v>
       </c>
       <c r="O13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="R13" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="S13" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="T13" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="U13" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="V13" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="W13">
+        <v>2</v>
+      </c>
+      <c r="X13" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB13" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC13" t="s">
         <v>93</v>
       </c>
-      <c r="S13" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="T13" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="U13" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="V13" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="W13">
-        <v>2</v>
-      </c>
-      <c r="X13" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB13" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>91</v>
-      </c>
       <c r="AD13" s="39" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AE13">
         <v>0</v>
@@ -4212,12 +4257,15 @@
         <v>0</v>
       </c>
       <c r="AJ13" t="s">
-        <v>98</v>
+        <v>100</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="1:36">
+    <row r="14" ht="14.25" spans="1:37">
       <c r="A14" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -4256,52 +4304,52 @@
         <v>2</v>
       </c>
       <c r="O14" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="R14" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="S14" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="T14" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="U14" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="V14" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="W14">
+        <v>2</v>
+      </c>
+      <c r="X14" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB14" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC14" t="s">
         <v>101</v>
       </c>
-      <c r="S14" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="T14" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="U14" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="V14" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="W14">
-        <v>2</v>
-      </c>
-      <c r="X14" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB14" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>99</v>
-      </c>
       <c r="AD14" s="39" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AE14">
         <v>0</v>
@@ -4319,12 +4367,15 @@
         <v>0</v>
       </c>
       <c r="AJ14" t="s">
-        <v>106</v>
+        <v>108</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="1:36">
+    <row r="15" ht="14.25" spans="1:37">
       <c r="A15" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -4363,52 +4414,52 @@
         <v>2</v>
       </c>
       <c r="O15" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="R15" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="S15" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="T15" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="U15" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="V15" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="W15">
+        <v>2</v>
+      </c>
+      <c r="X15" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB15" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC15" t="s">
         <v>109</v>
       </c>
-      <c r="S15" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="T15" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="U15" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="V15" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="W15">
-        <v>2</v>
-      </c>
-      <c r="X15" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z15">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB15" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>107</v>
-      </c>
       <c r="AD15" s="39" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AE15">
         <v>0</v>
@@ -4426,12 +4477,15 @@
         <v>0</v>
       </c>
       <c r="AJ15" t="s">
-        <v>114</v>
+        <v>116</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" ht="14.25" spans="1:36">
+    <row r="16" ht="14.25" spans="1:37">
       <c r="A16" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -4470,52 +4524,52 @@
         <v>2</v>
       </c>
       <c r="O16" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="R16" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="S16" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="T16" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="U16" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="V16" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="W16">
+        <v>2</v>
+      </c>
+      <c r="X16" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB16" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC16" t="s">
         <v>117</v>
       </c>
-      <c r="S16" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="T16" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="U16" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="V16" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="W16">
-        <v>2</v>
-      </c>
-      <c r="X16" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB16" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>115</v>
-      </c>
       <c r="AD16" s="39" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AE16">
         <v>0</v>
@@ -4533,12 +4587,15 @@
         <v>0</v>
       </c>
       <c r="AJ16" t="s">
-        <v>122</v>
+        <v>124</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" ht="14.25" spans="1:37">
       <c r="A17" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -4577,52 +4634,52 @@
         <v>2</v>
       </c>
       <c r="O17" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="R17" s="25" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="S17" s="25" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="T17" s="29" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="U17" s="29" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="V17" s="29" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="W17">
         <v>2</v>
       </c>
       <c r="X17" s="13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z17">
         <v>0</v>
       </c>
       <c r="AA17" s="37" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AB17" s="38" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AC17" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AD17" s="39" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AE17">
         <v>0</v>
@@ -4640,12 +4697,15 @@
         <v>0</v>
       </c>
       <c r="AJ17" t="s">
-        <v>131</v>
+        <v>133</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" ht="14.25" spans="1:37">
       <c r="A18" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -4684,52 +4744,52 @@
         <v>2</v>
       </c>
       <c r="O18" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="R18" s="25" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="S18" s="25" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="T18" s="29" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="U18" s="29" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="V18" s="29" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="W18">
         <v>2</v>
       </c>
       <c r="X18" s="13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y18" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z18">
         <v>0</v>
       </c>
       <c r="AA18" s="37" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AB18" s="38" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AC18" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AD18" s="39" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AE18">
         <v>0</v>
@@ -4747,12 +4807,15 @@
         <v>0</v>
       </c>
       <c r="AJ18" t="s">
-        <v>137</v>
+        <v>139</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" ht="14.25" spans="1:36">
+    <row r="19" ht="14.25" spans="1:37">
       <c r="A19" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -4791,52 +4854,52 @@
         <v>2</v>
       </c>
       <c r="O19" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="R19" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="S19" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="T19" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="U19" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="V19" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="W19">
+        <v>2</v>
+      </c>
+      <c r="X19" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB19" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC19" t="s">
         <v>140</v>
       </c>
-      <c r="S19" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="T19" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="U19" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="V19" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="W19">
-        <v>2</v>
-      </c>
-      <c r="X19" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB19" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>138</v>
-      </c>
       <c r="AD19" s="39" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AE19">
         <v>0</v>
@@ -4854,12 +4917,15 @@
         <v>0</v>
       </c>
       <c r="AJ19" t="s">
-        <v>145</v>
+        <v>147</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" ht="14.25" spans="1:36">
+    <row r="20" ht="14.25" spans="1:37">
       <c r="A20" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -4898,52 +4964,52 @@
         <v>2</v>
       </c>
       <c r="O20" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="R20" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="S20" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="T20" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="U20" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="V20" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="W20">
+        <v>2</v>
+      </c>
+      <c r="X20" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB20" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC20" t="s">
         <v>148</v>
       </c>
-      <c r="S20" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="T20" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="U20" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="V20" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="W20">
-        <v>2</v>
-      </c>
-      <c r="X20" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z20">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB20" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>146</v>
-      </c>
       <c r="AD20" s="39" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AE20">
         <v>0</v>
@@ -4961,12 +5027,15 @@
         <v>0</v>
       </c>
       <c r="AJ20" t="s">
-        <v>150</v>
+        <v>152</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" ht="14.25" spans="1:36">
+    <row r="21" ht="14.25" spans="1:37">
       <c r="A21" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -5005,52 +5074,52 @@
         <v>2</v>
       </c>
       <c r="O21" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="R21" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="S21" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="T21" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="U21" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="V21" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="W21">
+        <v>2</v>
+      </c>
+      <c r="X21" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB21" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC21" t="s">
         <v>153</v>
       </c>
-      <c r="S21" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="T21" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="U21" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="V21" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="W21">
-        <v>2</v>
-      </c>
-      <c r="X21" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z21">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB21" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>151</v>
-      </c>
       <c r="AD21" s="39" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AE21">
         <v>0</v>
@@ -5068,12 +5137,15 @@
         <v>0</v>
       </c>
       <c r="AJ21" t="s">
-        <v>158</v>
+        <v>160</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" ht="14.25" spans="1:36">
+    <row r="22" ht="14.25" spans="1:37">
       <c r="A22" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -5112,52 +5184,52 @@
         <v>2</v>
       </c>
       <c r="O22" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="R22" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="S22" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="T22" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="U22" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="V22" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="W22">
+        <v>2</v>
+      </c>
+      <c r="X22" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB22" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC22" t="s">
         <v>161</v>
       </c>
-      <c r="S22" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="T22" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="U22" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="V22" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="W22">
-        <v>2</v>
-      </c>
-      <c r="X22" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z22">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB22" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>159</v>
-      </c>
       <c r="AD22" s="39" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AE22">
         <v>0</v>
@@ -5175,12 +5247,15 @@
         <v>0</v>
       </c>
       <c r="AJ22" s="46" t="s">
-        <v>162</v>
+        <v>164</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" s="14" customFormat="1" ht="14.25" spans="1:36">
+    <row r="23" s="14" customFormat="1" ht="14.25" spans="1:37">
       <c r="A23" s="19" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C23" s="14">
         <v>0</v>
@@ -5219,52 +5294,52 @@
         <v>2</v>
       </c>
       <c r="O23" s="14" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P23" s="14">
         <v>0</v>
       </c>
-      <c r="Q23" s="14">
-        <v>20</v>
+      <c r="Q23">
+        <v>6</v>
       </c>
       <c r="R23" s="30" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="S23" s="30" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="T23" s="31" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="U23" s="31" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="V23" s="31" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="W23" s="14">
         <v>2</v>
       </c>
       <c r="X23" s="32" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y23" s="14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z23" s="14">
         <v>0</v>
       </c>
       <c r="AA23" s="14" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AB23" s="38" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AC23" s="40" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AD23" s="14" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AE23" s="14">
         <v>0</v>
@@ -5282,12 +5357,15 @@
         <v>1</v>
       </c>
       <c r="AJ23" s="20" t="s">
-        <v>171</v>
+        <v>173</v>
+      </c>
+      <c r="AK23" s="14">
+        <v>1</v>
       </c>
     </row>
-    <row r="24" s="15" customFormat="1" ht="14.25" spans="1:36">
+    <row r="24" s="15" customFormat="1" ht="14.25" spans="1:37">
       <c r="A24" s="20" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C24" s="15">
         <v>0</v>
@@ -5326,52 +5404,52 @@
         <v>2</v>
       </c>
       <c r="O24" s="15" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P24" s="15">
         <v>1</v>
       </c>
-      <c r="Q24" s="15">
-        <v>20</v>
+      <c r="Q24">
+        <v>6</v>
       </c>
       <c r="R24" s="30" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S24" s="30" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T24" s="15" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="U24" s="15" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="V24" s="15" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="W24" s="15">
         <v>2</v>
       </c>
       <c r="X24" s="32" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y24" s="15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z24" s="15">
         <v>0</v>
       </c>
       <c r="AA24" s="15" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AB24" s="41" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AC24" s="42" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AD24" s="15" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AE24" s="15">
         <v>0</v>
@@ -5389,12 +5467,15 @@
         <v>1</v>
       </c>
       <c r="AJ24" s="20" t="s">
-        <v>181</v>
+        <v>183</v>
+      </c>
+      <c r="AK24" s="15">
+        <v>1</v>
       </c>
     </row>
-    <row r="25" s="15" customFormat="1" ht="14.25" spans="1:36">
+    <row r="25" s="15" customFormat="1" ht="14.25" spans="1:37">
       <c r="A25" s="20" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C25" s="15">
         <v>0</v>
@@ -5433,52 +5514,52 @@
         <v>2</v>
       </c>
       <c r="O25" s="15" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P25" s="15">
         <v>0</v>
       </c>
-      <c r="Q25" s="15">
-        <v>20</v>
+      <c r="Q25">
+        <v>6</v>
       </c>
       <c r="R25" s="30" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="S25" s="30" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="T25" s="15" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="U25" s="15" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="V25" s="15" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="W25" s="15">
         <v>2</v>
       </c>
       <c r="X25" s="32" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y25" s="15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z25" s="15">
         <v>0</v>
       </c>
       <c r="AA25" s="15" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AB25" s="41" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AC25" s="42" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AD25" s="15" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AE25" s="15">
         <v>0</v>
@@ -5496,12 +5577,15 @@
         <v>1</v>
       </c>
       <c r="AJ25" s="20" t="s">
-        <v>191</v>
+        <v>193</v>
+      </c>
+      <c r="AK25" s="15">
+        <v>1</v>
       </c>
     </row>
-    <row r="26" s="15" customFormat="1" spans="1:36">
+    <row r="26" s="15" customFormat="1" spans="1:37">
       <c r="A26" s="20" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C26" s="15">
         <v>0</v>
@@ -5540,52 +5624,52 @@
         <v>2</v>
       </c>
       <c r="O26" s="15" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P26" s="15">
         <v>0</v>
       </c>
-      <c r="Q26" s="15">
-        <v>20</v>
+      <c r="Q26">
+        <v>6</v>
       </c>
       <c r="R26" s="30" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="S26" s="30" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="T26" s="15" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="U26" s="15" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="V26" s="15" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="W26" s="15">
         <v>2</v>
       </c>
       <c r="X26" s="32" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y26" s="15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z26" s="15">
         <v>0</v>
       </c>
       <c r="AA26" s="15" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AB26" s="41" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AC26" s="42" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AD26" s="15" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AE26" s="15">
         <v>0</v>
@@ -5603,12 +5687,15 @@
         <v>1</v>
       </c>
       <c r="AJ26" s="47" t="s">
-        <v>201</v>
+        <v>203</v>
+      </c>
+      <c r="AK26" s="15">
+        <v>1</v>
       </c>
     </row>
-    <row r="27" s="16" customFormat="1" spans="1:36">
+    <row r="27" s="16" customFormat="1" spans="1:37">
       <c r="A27" s="21" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C27" s="16">
         <v>0</v>
@@ -5647,43 +5734,43 @@
         <v>2</v>
       </c>
       <c r="O27" s="16" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P27" s="16">
         <v>0</v>
       </c>
-      <c r="Q27" s="16">
-        <v>20</v>
+      <c r="Q27">
+        <v>6</v>
       </c>
       <c r="R27" s="33" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="S27" s="33" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W27" s="16">
         <v>2</v>
       </c>
       <c r="X27" s="34" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y27" s="16" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z27" s="16">
         <v>0</v>
       </c>
       <c r="AA27" s="16" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AB27" s="34" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AC27" s="16" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AD27" s="43" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AE27" s="16">
         <v>0</v>
@@ -5701,12 +5788,15 @@
         <v>2</v>
       </c>
       <c r="AJ27" s="22" t="s">
-        <v>208</v>
+        <v>210</v>
+      </c>
+      <c r="AK27" s="16">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" s="17" customFormat="1" spans="1:36">
+    <row r="28" s="17" customFormat="1" spans="1:37">
       <c r="A28" s="22" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C28" s="17">
         <v>0</v>
@@ -5745,43 +5835,43 @@
         <v>2</v>
       </c>
       <c r="O28" s="16" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P28" s="17">
         <v>0</v>
       </c>
-      <c r="Q28" s="17">
-        <v>20</v>
+      <c r="Q28">
+        <v>6</v>
       </c>
       <c r="R28" s="33" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="S28" s="33" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W28" s="17">
         <v>2</v>
       </c>
       <c r="X28" s="34" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y28" s="17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z28" s="17">
         <v>0</v>
       </c>
       <c r="AA28" s="17" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AB28" s="34" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AC28" s="17" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AD28" s="44" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AE28" s="17">
         <v>0</v>
@@ -5799,12 +5889,15 @@
         <v>2</v>
       </c>
       <c r="AJ28" s="22" t="s">
-        <v>214</v>
+        <v>216</v>
+      </c>
+      <c r="AK28" s="17">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" s="17" customFormat="1" spans="1:36">
+    <row r="29" s="17" customFormat="1" spans="1:37">
       <c r="A29" s="22" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C29" s="17">
         <v>0</v>
@@ -5843,43 +5936,43 @@
         <v>2</v>
       </c>
       <c r="O29" s="16" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="P29" s="17">
         <v>0</v>
       </c>
-      <c r="Q29" s="17">
-        <v>20</v>
+      <c r="Q29">
+        <v>6</v>
       </c>
       <c r="R29" s="17" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="S29" s="33" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W29" s="17">
         <v>2</v>
       </c>
       <c r="X29" s="34" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y29" s="17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z29" s="17">
         <v>0</v>
       </c>
       <c r="AA29" s="17" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AB29" s="34" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AC29" s="17" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AD29" s="44" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AE29" s="17">
         <v>0</v>
@@ -5897,12 +5990,15 @@
         <v>2</v>
       </c>
       <c r="AJ29" s="22" t="s">
-        <v>220</v>
+        <v>222</v>
+      </c>
+      <c r="AK29" s="16">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" s="17" customFormat="1" spans="1:36">
+    <row r="30" s="17" customFormat="1" spans="1:37">
       <c r="A30" s="22" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C30" s="17">
         <v>0</v>
@@ -5941,43 +6037,43 @@
         <v>2</v>
       </c>
       <c r="O30" s="17" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="P30" s="17">
         <v>0</v>
       </c>
-      <c r="Q30" s="17">
-        <v>20</v>
+      <c r="Q30">
+        <v>6</v>
       </c>
       <c r="R30" s="17" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="S30" s="33" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W30" s="17">
         <v>2</v>
       </c>
       <c r="X30" s="34" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y30" s="17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z30" s="17">
         <v>0</v>
       </c>
       <c r="AA30" s="17" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AB30" s="34" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AC30" s="17" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AD30" s="44" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AE30" s="17">
         <v>0</v>
@@ -5995,12 +6091,15 @@
         <v>2</v>
       </c>
       <c r="AJ30" s="22" t="s">
-        <v>226</v>
+        <v>228</v>
+      </c>
+      <c r="AK30" s="17">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" s="17" customFormat="1" spans="1:36">
+    <row r="31" s="17" customFormat="1" spans="1:37">
       <c r="A31" s="22" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C31" s="17">
         <v>0</v>
@@ -6039,43 +6138,43 @@
         <v>2</v>
       </c>
       <c r="O31" s="17" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="P31" s="17">
         <v>0</v>
       </c>
-      <c r="Q31" s="17">
-        <v>20</v>
+      <c r="Q31">
+        <v>6</v>
       </c>
       <c r="R31" s="17" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="S31" s="33" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W31" s="17">
         <v>2</v>
       </c>
       <c r="X31" s="34" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y31" s="17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z31" s="17">
         <v>0</v>
       </c>
       <c r="AA31" s="17" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AB31" s="34" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AC31" s="17" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AD31" s="44" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AE31" s="17">
         <v>0</v>
@@ -6093,12 +6192,15 @@
         <v>2</v>
       </c>
       <c r="AJ31" s="22" t="s">
-        <v>232</v>
+        <v>234</v>
+      </c>
+      <c r="AK31" s="16">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" s="17" customFormat="1" spans="1:36">
+    <row r="32" s="17" customFormat="1" spans="1:37">
       <c r="A32" s="22" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C32" s="17">
         <v>0</v>
@@ -6137,43 +6239,43 @@
         <v>2</v>
       </c>
       <c r="O32" s="17" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P32" s="17">
         <v>0</v>
       </c>
-      <c r="Q32" s="17">
-        <v>20</v>
+      <c r="Q32">
+        <v>6</v>
       </c>
       <c r="R32" s="17" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="S32" s="33" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W32" s="17">
         <v>2</v>
       </c>
       <c r="X32" s="34" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y32" s="17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z32" s="17">
         <v>0</v>
       </c>
       <c r="AA32" s="17" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AB32" s="34" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AC32" s="17" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AD32" s="44" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AE32" s="17">
         <v>0</v>
@@ -6191,12 +6293,15 @@
         <v>2</v>
       </c>
       <c r="AJ32" s="22" t="s">
-        <v>238</v>
+        <v>240</v>
+      </c>
+      <c r="AK32" s="17">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" s="17" customFormat="1" spans="1:36">
+    <row r="33" s="17" customFormat="1" spans="1:37">
       <c r="A33" s="22" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C33" s="17">
         <v>0</v>
@@ -6235,43 +6340,43 @@
         <v>2</v>
       </c>
       <c r="O33" s="17" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="P33" s="17">
         <v>0</v>
       </c>
-      <c r="Q33" s="17">
-        <v>20</v>
+      <c r="Q33">
+        <v>6</v>
       </c>
       <c r="R33" s="17" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="S33" s="33" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W33" s="17">
         <v>2</v>
       </c>
       <c r="X33" s="34" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y33" s="17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z33" s="17">
         <v>0</v>
       </c>
       <c r="AA33" s="17" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AB33" s="34" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AC33" s="17" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AD33" s="44" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AE33" s="17">
         <v>0</v>
@@ -6289,12 +6394,15 @@
         <v>2</v>
       </c>
       <c r="AJ33" s="22" t="s">
-        <v>244</v>
+        <v>246</v>
+      </c>
+      <c r="AK33" s="16">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" s="17" customFormat="1" spans="1:36">
+    <row r="34" s="17" customFormat="1" spans="1:37">
       <c r="A34" s="22" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C34" s="17">
         <v>0</v>
@@ -6333,43 +6441,43 @@
         <v>2</v>
       </c>
       <c r="O34" s="17" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P34" s="17">
         <v>0</v>
       </c>
-      <c r="Q34" s="17">
-        <v>20</v>
+      <c r="Q34">
+        <v>6</v>
       </c>
       <c r="R34" s="33" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S34" s="33" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W34" s="17">
         <v>2</v>
       </c>
       <c r="X34" s="34" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y34" s="17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z34" s="17">
         <v>0</v>
       </c>
       <c r="AA34" s="17" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AB34" s="34" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AC34" s="17" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AD34" s="44" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AE34" s="17">
         <v>0</v>
@@ -6387,12 +6495,15 @@
         <v>2</v>
       </c>
       <c r="AJ34" s="22" t="s">
-        <v>249</v>
+        <v>251</v>
+      </c>
+      <c r="AK34" s="17">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" s="17" customFormat="1" spans="1:36">
+    <row r="35" s="17" customFormat="1" spans="1:37">
       <c r="A35" s="22" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C35" s="17">
         <v>0</v>
@@ -6431,43 +6542,43 @@
         <v>2</v>
       </c>
       <c r="O35" s="17" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="P35" s="17">
         <v>0</v>
       </c>
-      <c r="Q35" s="17">
-        <v>20</v>
+      <c r="Q35">
+        <v>6</v>
       </c>
       <c r="R35" s="33" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="S35" s="33" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W35" s="17">
         <v>2</v>
       </c>
       <c r="X35" s="34" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y35" s="17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z35" s="17">
         <v>0</v>
       </c>
       <c r="AA35" s="17" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AB35" s="34" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AC35" s="17" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AD35" s="44" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AE35" s="17">
         <v>0</v>
@@ -6485,12 +6596,15 @@
         <v>2</v>
       </c>
       <c r="AJ35" s="22" t="s">
-        <v>254</v>
+        <v>256</v>
+      </c>
+      <c r="AK35" s="16">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" s="17" customFormat="1" spans="1:36">
+    <row r="36" s="17" customFormat="1" spans="1:37">
       <c r="A36" s="22" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C36" s="17">
         <v>0</v>
@@ -6529,43 +6643,43 @@
         <v>3</v>
       </c>
       <c r="O36" s="17" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="P36" s="17">
         <v>0</v>
       </c>
-      <c r="Q36" s="17">
-        <v>20</v>
+      <c r="Q36">
+        <v>6</v>
       </c>
       <c r="R36" s="33" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="S36" s="33" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W36" s="17">
         <v>2</v>
       </c>
       <c r="X36" s="34" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y36" s="17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z36" s="17">
         <v>0</v>
       </c>
       <c r="AA36" s="17" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AB36" s="34" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AC36" s="17" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AD36" s="44" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AE36" s="17">
         <v>0</v>
@@ -6583,12 +6697,15 @@
         <v>2</v>
       </c>
       <c r="AJ36" s="22" t="s">
-        <v>259</v>
+        <v>261</v>
+      </c>
+      <c r="AK36" s="17">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" s="17" customFormat="1" spans="1:36">
+    <row r="37" s="17" customFormat="1" spans="1:37">
       <c r="A37" s="22" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C37" s="17">
         <v>0</v>
@@ -6627,43 +6744,43 @@
         <v>3</v>
       </c>
       <c r="O37" s="17" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="P37" s="17">
         <v>0</v>
       </c>
-      <c r="Q37" s="17">
-        <v>20</v>
+      <c r="Q37">
+        <v>6</v>
       </c>
       <c r="R37" s="33" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="S37" s="33" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W37" s="17">
         <v>2</v>
       </c>
       <c r="X37" s="34" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y37" s="17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z37" s="17">
         <v>0</v>
       </c>
       <c r="AA37" s="17" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AB37" s="34" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AC37" s="17" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AD37" s="44" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AE37" s="17">
         <v>0</v>
@@ -6681,12 +6798,15 @@
         <v>2</v>
       </c>
       <c r="AJ37" s="22" t="s">
-        <v>264</v>
+        <v>266</v>
+      </c>
+      <c r="AK37" s="16">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" s="17" customFormat="1" spans="1:36">
+    <row r="38" s="17" customFormat="1" spans="1:37">
       <c r="A38" s="22" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C38" s="17">
         <v>0</v>
@@ -6725,43 +6845,43 @@
         <v>3</v>
       </c>
       <c r="O38" s="17" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="P38" s="17">
         <v>0</v>
       </c>
-      <c r="Q38" s="17">
-        <v>20</v>
+      <c r="Q38">
+        <v>6</v>
       </c>
       <c r="R38" s="33" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="S38" s="33" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W38" s="17">
         <v>2</v>
       </c>
       <c r="X38" s="34" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y38" s="17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z38" s="17">
         <v>0</v>
       </c>
       <c r="AA38" s="17" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AB38" s="34" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AC38" s="17" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AD38" s="44" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AE38" s="17">
         <v>0</v>
@@ -6779,12 +6899,15 @@
         <v>2</v>
       </c>
       <c r="AJ38" s="22" t="s">
-        <v>269</v>
+        <v>271</v>
+      </c>
+      <c r="AK38" s="17">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" s="17" customFormat="1" spans="1:36">
+    <row r="39" s="17" customFormat="1" spans="1:37">
       <c r="A39" s="22" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C39" s="17">
         <v>0</v>
@@ -6823,43 +6946,43 @@
         <v>1</v>
       </c>
       <c r="O39" s="17" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="P39" s="17">
         <v>0</v>
       </c>
-      <c r="Q39" s="17">
-        <v>20</v>
+      <c r="Q39">
+        <v>6</v>
       </c>
       <c r="R39" s="33" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="S39" s="33" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W39" s="17">
         <v>2</v>
       </c>
       <c r="X39" s="34" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y39" s="17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z39" s="17">
         <v>0</v>
       </c>
       <c r="AA39" s="17" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AB39" s="34" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AC39" s="17" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AD39" s="44" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AE39" s="17">
         <v>0</v>
@@ -6877,12 +7000,15 @@
         <v>2</v>
       </c>
       <c r="AJ39" s="22" t="s">
-        <v>274</v>
+        <v>276</v>
+      </c>
+      <c r="AK39" s="16">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" s="17" customFormat="1" spans="1:36">
+    <row r="40" s="17" customFormat="1" spans="1:37">
       <c r="A40" s="22" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C40" s="17">
         <v>0</v>
@@ -6921,43 +7047,43 @@
         <v>1</v>
       </c>
       <c r="O40" s="17" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="P40" s="17">
         <v>0</v>
       </c>
-      <c r="Q40" s="17">
-        <v>20</v>
+      <c r="Q40">
+        <v>6</v>
       </c>
       <c r="R40" s="33" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="S40" s="33" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W40" s="17">
         <v>2</v>
       </c>
       <c r="X40" s="34" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y40" s="17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z40" s="17">
         <v>0</v>
       </c>
       <c r="AA40" s="17" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AB40" s="34" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AC40" s="17" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AD40" s="44" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AE40" s="17">
         <v>0</v>
@@ -6975,12 +7101,15 @@
         <v>2</v>
       </c>
       <c r="AJ40" s="22" t="s">
-        <v>279</v>
+        <v>281</v>
+      </c>
+      <c r="AK40" s="17">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" s="17" customFormat="1" spans="1:36">
+    <row r="41" s="17" customFormat="1" spans="1:37">
       <c r="A41" s="22" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C41" s="17">
         <v>0</v>
@@ -7019,43 +7148,43 @@
         <v>1</v>
       </c>
       <c r="O41" s="17" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="P41" s="17">
         <v>0</v>
       </c>
-      <c r="Q41" s="17">
-        <v>20</v>
+      <c r="Q41">
+        <v>6</v>
       </c>
       <c r="R41" s="33" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="S41" s="33" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W41" s="17">
         <v>2</v>
       </c>
       <c r="X41" s="34" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y41" s="17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z41" s="17">
         <v>0</v>
       </c>
       <c r="AA41" s="17" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AB41" s="34" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AC41" s="17" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AD41" s="44" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AE41" s="17">
         <v>0</v>
@@ -7073,12 +7202,15 @@
         <v>2</v>
       </c>
       <c r="AJ41" s="22" t="s">
-        <v>284</v>
+        <v>286</v>
+      </c>
+      <c r="AK41" s="16">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" s="17" customFormat="1" spans="1:36">
+    <row r="42" s="17" customFormat="1" spans="1:37">
       <c r="A42" s="22" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C42" s="17">
         <v>0</v>
@@ -7117,43 +7249,43 @@
         <v>2</v>
       </c>
       <c r="O42" s="17" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="P42" s="17">
         <v>0</v>
       </c>
-      <c r="Q42" s="17">
-        <v>20</v>
+      <c r="Q42">
+        <v>6</v>
       </c>
       <c r="R42" s="33" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="S42" s="33" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W42" s="17">
         <v>2</v>
       </c>
       <c r="X42" s="34" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y42" s="17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z42" s="17">
         <v>0</v>
       </c>
       <c r="AA42" s="17" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AB42" s="34" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AC42" s="17" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AD42" s="44" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AE42" s="17">
         <v>0</v>
@@ -7171,12 +7303,15 @@
         <v>2</v>
       </c>
       <c r="AJ42" s="22" t="s">
-        <v>289</v>
+        <v>291</v>
+      </c>
+      <c r="AK42" s="17">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" s="17" customFormat="1" spans="1:36">
+    <row r="43" s="17" customFormat="1" spans="1:37">
       <c r="A43" s="22" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C43" s="17">
         <v>0</v>
@@ -7215,43 +7350,43 @@
         <v>2</v>
       </c>
       <c r="O43" s="17" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="P43" s="17">
         <v>0</v>
       </c>
-      <c r="Q43" s="17">
-        <v>20</v>
+      <c r="Q43">
+        <v>6</v>
       </c>
       <c r="R43" s="33" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="S43" s="33" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W43" s="17">
         <v>2</v>
       </c>
       <c r="X43" s="34" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y43" s="17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z43" s="17">
         <v>0</v>
       </c>
       <c r="AA43" s="17" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AB43" s="34" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AC43" s="17" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AD43" s="44" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AE43" s="17">
         <v>0</v>
@@ -7269,12 +7404,15 @@
         <v>2</v>
       </c>
       <c r="AJ43" s="22" t="s">
-        <v>294</v>
+        <v>296</v>
+      </c>
+      <c r="AK43" s="16">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" s="17" customFormat="1" spans="1:36">
+    <row r="44" s="17" customFormat="1" spans="1:37">
       <c r="A44" s="22" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C44" s="17">
         <v>0</v>
@@ -7313,43 +7451,43 @@
         <v>2</v>
       </c>
       <c r="O44" s="17" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="P44" s="17">
         <v>0</v>
       </c>
-      <c r="Q44" s="17">
-        <v>20</v>
+      <c r="Q44">
+        <v>6</v>
       </c>
       <c r="R44" s="33" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="S44" s="33" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W44" s="17">
         <v>2</v>
       </c>
       <c r="X44" s="34" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y44" s="17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z44" s="17">
         <v>0</v>
       </c>
       <c r="AA44" s="17" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AB44" s="34" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AC44" s="17" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AD44" s="44" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AE44" s="17">
         <v>0</v>
@@ -7367,12 +7505,15 @@
         <v>2</v>
       </c>
       <c r="AJ44" s="22" t="s">
-        <v>299</v>
+        <v>301</v>
+      </c>
+      <c r="AK44" s="17">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" s="17" customFormat="1" spans="1:36">
+    <row r="45" s="17" customFormat="1" spans="1:37">
       <c r="A45" s="22" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C45" s="17">
         <v>0</v>
@@ -7411,43 +7552,43 @@
         <v>2</v>
       </c>
       <c r="O45" s="17" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="P45" s="17">
         <v>0</v>
       </c>
-      <c r="Q45" s="17">
-        <v>20</v>
+      <c r="Q45">
+        <v>6</v>
       </c>
       <c r="R45" s="33" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="S45" s="33" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W45" s="17">
         <v>2</v>
       </c>
       <c r="X45" s="34" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y45" s="17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z45" s="17">
         <v>0</v>
       </c>
       <c r="AA45" s="17" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AB45" s="34" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AC45" s="17" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AD45" s="44" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AE45" s="17">
         <v>0</v>
@@ -7465,12 +7606,15 @@
         <v>2</v>
       </c>
       <c r="AJ45" s="22" t="s">
-        <v>304</v>
+        <v>306</v>
+      </c>
+      <c r="AK45" s="16">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" s="17" customFormat="1" spans="1:36">
+    <row r="46" s="17" customFormat="1" spans="1:37">
       <c r="A46" s="22" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C46" s="17">
         <v>0</v>
@@ -7509,43 +7653,43 @@
         <v>2</v>
       </c>
       <c r="O46" s="17" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="P46" s="17">
         <v>0</v>
       </c>
-      <c r="Q46" s="17">
-        <v>20</v>
+      <c r="Q46">
+        <v>6</v>
       </c>
       <c r="R46" s="33" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="S46" s="33" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W46" s="17">
         <v>2</v>
       </c>
       <c r="X46" s="34" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y46" s="17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z46" s="17">
         <v>0</v>
       </c>
       <c r="AA46" s="17" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AB46" s="34" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AC46" s="17" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AD46" s="44" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AE46" s="17">
         <v>0</v>
@@ -7563,12 +7707,15 @@
         <v>2</v>
       </c>
       <c r="AJ46" s="22" t="s">
-        <v>309</v>
+        <v>311</v>
+      </c>
+      <c r="AK46" s="17">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" s="17" customFormat="1" spans="1:36">
+    <row r="47" s="17" customFormat="1" spans="1:37">
       <c r="A47" s="22" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C47" s="17">
         <v>0</v>
@@ -7607,43 +7754,43 @@
         <v>2</v>
       </c>
       <c r="O47" s="17" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="P47" s="17">
         <v>0</v>
       </c>
-      <c r="Q47" s="17">
-        <v>20</v>
+      <c r="Q47">
+        <v>6</v>
       </c>
       <c r="R47" s="33" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S47" s="33" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W47" s="17">
         <v>2</v>
       </c>
       <c r="X47" s="34" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y47" s="17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z47" s="17">
         <v>0</v>
       </c>
       <c r="AA47" s="17" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AB47" s="34" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AC47" s="17" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AD47" s="44" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AE47" s="17">
         <v>0</v>
@@ -7661,12 +7808,15 @@
         <v>2</v>
       </c>
       <c r="AJ47" s="22" t="s">
-        <v>314</v>
+        <v>316</v>
+      </c>
+      <c r="AK47" s="16">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" s="17" customFormat="1" spans="1:36">
+    <row r="48" s="17" customFormat="1" spans="1:37">
       <c r="A48" s="22" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C48" s="17">
         <v>0</v>
@@ -7705,43 +7855,43 @@
         <v>3</v>
       </c>
       <c r="O48" s="17" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="P48" s="17">
         <v>0</v>
       </c>
-      <c r="Q48" s="17">
-        <v>20</v>
+      <c r="Q48">
+        <v>6</v>
       </c>
       <c r="R48" s="33" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="S48" s="33" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W48" s="17">
         <v>2</v>
       </c>
       <c r="X48" s="34" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y48" s="17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z48" s="17">
         <v>0</v>
       </c>
       <c r="AA48" s="17" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AB48" s="34" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AC48" s="17" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AD48" s="44" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AE48" s="17">
         <v>0</v>
@@ -7759,12 +7909,15 @@
         <v>2</v>
       </c>
       <c r="AJ48" s="22" t="s">
-        <v>319</v>
+        <v>321</v>
+      </c>
+      <c r="AK48" s="17">
+        <v>0</v>
       </c>
     </row>
-    <row r="49" s="17" customFormat="1" spans="1:36">
+    <row r="49" s="17" customFormat="1" spans="1:37">
       <c r="A49" s="22" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C49" s="17">
         <v>0</v>
@@ -7803,43 +7956,43 @@
         <v>3</v>
       </c>
       <c r="O49" s="17" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="P49" s="17">
         <v>0</v>
       </c>
-      <c r="Q49" s="17">
-        <v>20</v>
+      <c r="Q49">
+        <v>6</v>
       </c>
       <c r="R49" s="33" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="S49" s="33" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W49" s="17">
         <v>2</v>
       </c>
       <c r="X49" s="34" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y49" s="17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z49" s="17">
         <v>0</v>
       </c>
       <c r="AA49" s="17" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AB49" s="34" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AC49" s="17" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AD49" s="44" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AE49" s="17">
         <v>0</v>
@@ -7857,12 +8010,15 @@
         <v>2</v>
       </c>
       <c r="AJ49" s="22" t="s">
-        <v>324</v>
+        <v>326</v>
+      </c>
+      <c r="AK49" s="16">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" s="17" customFormat="1" spans="1:36">
+    <row r="50" s="17" customFormat="1" spans="1:37">
       <c r="A50" s="22" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C50" s="17">
         <v>0</v>
@@ -7901,43 +8057,43 @@
         <v>3</v>
       </c>
       <c r="O50" s="17" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="P50" s="17">
         <v>0</v>
       </c>
-      <c r="Q50" s="17">
-        <v>20</v>
+      <c r="Q50">
+        <v>6</v>
       </c>
       <c r="R50" s="33" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="S50" s="33" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W50" s="17">
         <v>2</v>
       </c>
       <c r="X50" s="34" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y50" s="17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z50" s="17">
         <v>0</v>
       </c>
       <c r="AA50" s="17" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AB50" s="34" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AC50" s="17" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AD50" s="44" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AE50" s="17">
         <v>0</v>
@@ -7955,12 +8111,15 @@
         <v>2</v>
       </c>
       <c r="AJ50" s="22" t="s">
-        <v>329</v>
+        <v>331</v>
+      </c>
+      <c r="AK50" s="17">
+        <v>0</v>
       </c>
     </row>
-    <row r="51" s="17" customFormat="1" spans="1:36">
+    <row r="51" s="17" customFormat="1" spans="1:37">
       <c r="A51" s="22" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C51" s="17">
         <v>0</v>
@@ -7999,43 +8158,43 @@
         <v>2</v>
       </c>
       <c r="O51" s="17" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="P51" s="17">
         <v>0</v>
       </c>
-      <c r="Q51" s="17">
-        <v>20</v>
+      <c r="Q51">
+        <v>6</v>
       </c>
       <c r="R51" s="33" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="S51" s="33" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W51" s="17">
         <v>2</v>
       </c>
       <c r="X51" s="34" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y51" s="17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z51" s="17">
         <v>0</v>
       </c>
       <c r="AA51" s="17" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AB51" s="34" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AC51" s="17" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AD51" s="44" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AE51" s="17">
         <v>0</v>
@@ -8053,12 +8212,15 @@
         <v>2</v>
       </c>
       <c r="AJ51" s="22" t="s">
-        <v>334</v>
+        <v>336</v>
+      </c>
+      <c r="AK51" s="16">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" s="17" customFormat="1" spans="1:36">
+    <row r="52" s="17" customFormat="1" spans="1:37">
       <c r="A52" s="22" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C52" s="17">
         <v>0</v>
@@ -8097,43 +8259,43 @@
         <v>2</v>
       </c>
       <c r="O52" s="17" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="P52" s="17">
         <v>0</v>
       </c>
-      <c r="Q52" s="17">
-        <v>20</v>
+      <c r="Q52">
+        <v>6</v>
       </c>
       <c r="R52" s="17" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="S52" s="33" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W52" s="17">
         <v>2</v>
       </c>
       <c r="X52" s="34" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y52" s="17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z52" s="17">
         <v>0</v>
       </c>
       <c r="AA52" s="17" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AB52" s="34" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AC52" s="17" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AD52" s="44" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AE52" s="17">
         <v>0</v>
@@ -8151,12 +8313,15 @@
         <v>2</v>
       </c>
       <c r="AJ52" s="22" t="s">
-        <v>339</v>
+        <v>341</v>
+      </c>
+      <c r="AK52" s="17">
+        <v>0</v>
       </c>
     </row>
-    <row r="53" s="17" customFormat="1" spans="1:36">
+    <row r="53" s="17" customFormat="1" spans="1:37">
       <c r="A53" s="22" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C53" s="17">
         <v>0</v>
@@ -8195,43 +8360,43 @@
         <v>2</v>
       </c>
       <c r="O53" s="17" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P53" s="17">
         <v>0</v>
       </c>
-      <c r="Q53" s="17">
-        <v>20</v>
+      <c r="Q53">
+        <v>6</v>
       </c>
       <c r="R53" s="17" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="S53" s="33" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W53" s="17">
         <v>2</v>
       </c>
       <c r="X53" s="34" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y53" s="17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z53" s="17">
         <v>0</v>
       </c>
       <c r="AA53" s="17" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AB53" s="34" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AC53" s="17" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="AD53" s="44" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AE53" s="17">
         <v>0</v>
@@ -8249,12 +8414,15 @@
         <v>2</v>
       </c>
       <c r="AJ53" s="22" t="s">
-        <v>344</v>
+        <v>346</v>
+      </c>
+      <c r="AK53" s="16">
+        <v>0</v>
       </c>
     </row>
-    <row r="54" s="17" customFormat="1" spans="1:36">
+    <row r="54" s="17" customFormat="1" spans="1:37">
       <c r="A54" s="22" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C54" s="17">
         <v>0</v>
@@ -8293,43 +8461,43 @@
         <v>3</v>
       </c>
       <c r="O54" s="17" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="P54" s="17">
         <v>0</v>
       </c>
-      <c r="Q54" s="17">
-        <v>20</v>
+      <c r="Q54">
+        <v>6</v>
       </c>
       <c r="R54" s="17" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="S54" s="33" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W54" s="17">
         <v>2</v>
       </c>
       <c r="X54" s="34" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y54" s="17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z54" s="17">
         <v>0</v>
       </c>
       <c r="AA54" s="17" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AB54" s="34" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AC54" s="17" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AD54" s="44" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AE54" s="17">
         <v>0</v>
@@ -8347,12 +8515,15 @@
         <v>2</v>
       </c>
       <c r="AJ54" s="22" t="s">
-        <v>349</v>
+        <v>351</v>
+      </c>
+      <c r="AK54" s="17">
+        <v>0</v>
       </c>
     </row>
-    <row r="55" s="17" customFormat="1" spans="1:36">
+    <row r="55" s="17" customFormat="1" spans="1:37">
       <c r="A55" s="22" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C55" s="17">
         <v>0</v>
@@ -8391,43 +8562,43 @@
         <v>3</v>
       </c>
       <c r="O55" s="17" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="P55" s="17">
         <v>0</v>
       </c>
-      <c r="Q55" s="17">
-        <v>20</v>
+      <c r="Q55">
+        <v>6</v>
       </c>
       <c r="R55" s="17" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="S55" s="33" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W55" s="17">
         <v>2</v>
       </c>
       <c r="X55" s="34" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y55" s="17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z55" s="17">
         <v>0</v>
       </c>
       <c r="AA55" s="17" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="AB55" s="34" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AC55" s="17" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AD55" s="44" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AE55" s="17">
         <v>0</v>
@@ -8445,12 +8616,15 @@
         <v>2</v>
       </c>
       <c r="AJ55" s="22" t="s">
-        <v>354</v>
+        <v>356</v>
+      </c>
+      <c r="AK55" s="16">
+        <v>0</v>
       </c>
     </row>
-    <row r="56" s="17" customFormat="1" spans="1:36">
+    <row r="56" s="17" customFormat="1" spans="1:37">
       <c r="A56" s="22" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C56" s="17">
         <v>0</v>
@@ -8489,43 +8663,43 @@
         <v>3</v>
       </c>
       <c r="O56" s="17" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="P56" s="17">
         <v>0</v>
       </c>
-      <c r="Q56" s="17">
-        <v>20</v>
+      <c r="Q56">
+        <v>6</v>
       </c>
       <c r="R56" s="17" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="S56" s="33" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W56" s="17">
         <v>2</v>
       </c>
       <c r="X56" s="34" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y56" s="17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z56" s="17">
         <v>0</v>
       </c>
       <c r="AA56" s="17" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AB56" s="34" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AC56" s="17" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AD56" s="44" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AE56" s="17">
         <v>0</v>
@@ -8543,12 +8717,15 @@
         <v>2</v>
       </c>
       <c r="AJ56" s="22" t="s">
-        <v>359</v>
+        <v>361</v>
+      </c>
+      <c r="AK56" s="17">
+        <v>0</v>
       </c>
     </row>
-    <row r="57" s="17" customFormat="1" spans="1:36">
+    <row r="57" s="17" customFormat="1" spans="1:37">
       <c r="A57" s="22" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C57" s="17">
         <v>0</v>
@@ -8587,43 +8764,43 @@
         <v>2</v>
       </c>
       <c r="O57" s="17" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="P57" s="17">
         <v>0</v>
       </c>
-      <c r="Q57" s="17">
-        <v>20</v>
+      <c r="Q57">
+        <v>6</v>
       </c>
       <c r="R57" s="17" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="S57" s="33" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W57" s="17">
         <v>2</v>
       </c>
       <c r="X57" s="34" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y57" s="17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z57" s="17">
         <v>0</v>
       </c>
       <c r="AA57" s="17" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="AB57" s="34" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AC57" s="17" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AD57" s="44" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AE57" s="17">
         <v>0</v>
@@ -8641,12 +8818,15 @@
         <v>2</v>
       </c>
       <c r="AJ57" s="22" t="s">
-        <v>364</v>
+        <v>366</v>
+      </c>
+      <c r="AK57" s="16">
+        <v>0</v>
       </c>
     </row>
-    <row r="58" s="17" customFormat="1" ht="14.25" spans="1:36">
+    <row r="58" s="17" customFormat="1" ht="14.25" spans="1:37">
       <c r="A58" s="22" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C58" s="17">
         <v>0</v>
@@ -8685,43 +8865,43 @@
         <v>2</v>
       </c>
       <c r="O58" s="17" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="P58" s="17">
         <v>0</v>
       </c>
-      <c r="Q58" s="17">
-        <v>20</v>
+      <c r="Q58">
+        <v>6</v>
       </c>
       <c r="R58" s="17" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="S58" s="33" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W58" s="17">
         <v>2</v>
       </c>
       <c r="X58" s="34" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y58" s="17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z58" s="17">
         <v>0</v>
       </c>
       <c r="AA58" s="17" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AB58" s="34" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AC58" s="17" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AD58" s="44" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AE58" s="17">
         <v>0</v>
@@ -8739,12 +8919,15 @@
         <v>2</v>
       </c>
       <c r="AJ58" s="23" t="s">
-        <v>369</v>
+        <v>371</v>
+      </c>
+      <c r="AK58" s="17">
+        <v>0</v>
       </c>
     </row>
-    <row r="59" s="18" customFormat="1" ht="14.25" spans="1:36">
+    <row r="59" s="18" customFormat="1" ht="14.25" spans="1:37">
       <c r="A59" s="23" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C59" s="18">
         <v>0</v>
@@ -8783,43 +8966,43 @@
         <v>2</v>
       </c>
       <c r="O59" s="17" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="P59" s="18">
         <v>0</v>
       </c>
-      <c r="Q59" s="18">
-        <v>20</v>
+      <c r="Q59">
+        <v>6</v>
       </c>
       <c r="R59" s="17" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="S59" s="33" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W59" s="18">
         <v>2</v>
       </c>
       <c r="X59" s="34" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y59" s="18" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z59" s="18">
         <v>0</v>
       </c>
       <c r="AA59" s="18" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AB59" s="34" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AC59" s="18" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="AD59" s="45" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AE59" s="18">
         <v>0</v>
@@ -8837,12 +9020,15 @@
         <v>2</v>
       </c>
       <c r="AJ59" s="22" t="s">
-        <v>374</v>
+        <v>376</v>
+      </c>
+      <c r="AK59" s="16">
+        <v>0</v>
       </c>
     </row>
-    <row r="60" s="17" customFormat="1" spans="1:36">
+    <row r="60" s="17" customFormat="1" spans="1:37">
       <c r="A60" s="22" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C60" s="17">
         <v>0</v>
@@ -8881,43 +9067,43 @@
         <v>2</v>
       </c>
       <c r="O60" s="17" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="P60" s="17">
         <v>0</v>
       </c>
-      <c r="Q60" s="17">
-        <v>20</v>
+      <c r="Q60">
+        <v>6</v>
       </c>
       <c r="R60" s="17" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="S60" s="33" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W60" s="17">
         <v>2</v>
       </c>
       <c r="X60" s="34" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y60" s="17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z60" s="17">
         <v>0</v>
       </c>
       <c r="AA60" s="17" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AB60" s="34" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AC60" s="17" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="AD60" s="44" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AE60" s="17">
         <v>0</v>
@@ -8935,12 +9121,15 @@
         <v>2</v>
       </c>
       <c r="AJ60" s="22" t="s">
-        <v>379</v>
+        <v>381</v>
+      </c>
+      <c r="AK60" s="17">
+        <v>0</v>
       </c>
     </row>
-    <row r="61" s="17" customFormat="1" ht="14.25" spans="1:36">
+    <row r="61" s="17" customFormat="1" ht="14.25" spans="1:37">
       <c r="A61" s="22" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C61" s="17">
         <v>0</v>
@@ -8979,43 +9168,43 @@
         <v>2</v>
       </c>
       <c r="O61" s="17" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="P61" s="17">
         <v>0</v>
       </c>
-      <c r="Q61" s="17">
-        <v>20</v>
+      <c r="Q61">
+        <v>6</v>
       </c>
       <c r="R61" s="17" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="S61" s="33" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W61" s="17">
         <v>2</v>
       </c>
       <c r="X61" s="34" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y61" s="17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z61" s="17">
         <v>0</v>
       </c>
       <c r="AA61" s="17" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AB61" s="34" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AC61" s="17" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AD61" s="44" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AE61" s="17">
         <v>0</v>
@@ -9033,12 +9222,15 @@
         <v>2</v>
       </c>
       <c r="AJ61" s="23" t="s">
-        <v>384</v>
+        <v>386</v>
+      </c>
+      <c r="AK61" s="16">
+        <v>0</v>
       </c>
     </row>
-    <row r="62" s="18" customFormat="1" ht="14.25" spans="1:36">
+    <row r="62" s="18" customFormat="1" ht="14.25" spans="1:37">
       <c r="A62" s="23" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C62" s="18">
         <v>0</v>
@@ -9077,43 +9269,43 @@
         <v>2</v>
       </c>
       <c r="O62" s="17" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="P62" s="18">
         <v>0</v>
       </c>
-      <c r="Q62" s="18">
-        <v>20</v>
+      <c r="Q62">
+        <v>6</v>
       </c>
       <c r="R62" s="17" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="S62" s="33" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W62" s="18">
         <v>2</v>
       </c>
       <c r="X62" s="34" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y62" s="18" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z62" s="18">
         <v>0</v>
       </c>
       <c r="AA62" s="18" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AB62" s="34" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AC62" s="18" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AD62" s="45" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AE62" s="18">
         <v>0</v>
@@ -9131,13 +9323,16 @@
         <v>2</v>
       </c>
       <c r="AJ62" s="18" t="s">
-        <v>389</v>
+        <v>391</v>
+      </c>
+      <c r="AK62" s="17">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z7:Z9 AA8:AA9 R8:S9 X8:Y9 B7:Q9 AB7:AJ9 T7:W9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z7:Z9 AA8:AA9 AK7:AK9 R8:S9 X8:Y9 B7:Q9 AB7:AJ9 T7:W9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9166,200 +9361,200 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AB1" s="5" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="AC1" s="5" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="AD1" s="5" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AE1" s="5" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="AF1" s="5" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="2" s="6" customFormat="1" spans="1:32">
       <c r="A2" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Z2" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AB2" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AC2" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AD2" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AE2" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AF2" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" s="6" customFormat="1" spans="1:32">
       <c r="A3" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B3" s="7">
         <v>0</v>
@@ -9457,7 +9652,7 @@
     </row>
     <row r="4" s="6" customFormat="1" spans="1:32">
       <c r="A4" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B4" s="6">
         <v>1</v>
@@ -9555,7 +9750,7 @@
     </row>
     <row r="5" s="6" customFormat="1" spans="1:32">
       <c r="A5" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B5" s="6">
         <v>0</v>
@@ -9653,7 +9848,7 @@
     </row>
     <row r="6" s="6" customFormat="1" spans="1:32">
       <c r="A6" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B6" s="6">
         <v>0</v>
@@ -9751,7 +9946,7 @@
     </row>
     <row r="7" s="7" customFormat="1" spans="1:32">
       <c r="A7" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B7" s="7">
         <v>0</v>
@@ -9849,7 +10044,7 @@
     </row>
     <row r="8" s="7" customFormat="1" spans="1:32">
       <c r="A8" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B8" s="7">
         <v>0</v>
@@ -9947,7 +10142,7 @@
     </row>
     <row r="9" s="7" customFormat="1" spans="1:32">
       <c r="A9" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B9" s="7">
         <v>0</v>
@@ -10045,94 +10240,94 @@
     </row>
     <row r="10" s="8" customFormat="1" ht="68.25" spans="1:32">
       <c r="A10" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F10" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>52</v>
-      </c>
       <c r="H10" s="8" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="S10" s="8" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="T10" s="8" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="U10" s="8" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="V10" s="8" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="W10" s="8" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="X10" s="8" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="Y10" s="8" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="Z10" s="8" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="AA10" s="8" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AB10" s="8" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="AC10" s="8" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AD10" s="8" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AE10" s="8" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="AF10" s="8" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -10224,12 +10419,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B2" s="3">
         <v>8</v>
@@ -10237,7 +10432,7 @@
     </row>
     <row r="3" customFormat="1" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
@@ -10245,7 +10440,7 @@
     </row>
     <row r="4" customFormat="1" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
@@ -10253,7 +10448,7 @@
     </row>
     <row r="5" customFormat="1" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
@@ -10261,7 +10456,7 @@
     </row>
     <row r="6" customFormat="1" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
@@ -10269,7 +10464,7 @@
     </row>
     <row r="7" customFormat="1" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B7" s="3">
         <v>1</v>
@@ -10277,7 +10472,7 @@
     </row>
     <row r="8" customFormat="1" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -10285,7 +10480,7 @@
     </row>
     <row r="9" customFormat="1" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
@@ -10293,7 +10488,7 @@
     </row>
     <row r="10" customFormat="1" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
@@ -10301,26 +10496,26 @@
     </row>
     <row r="11" customFormat="1" spans="1:2">
       <c r="A11" s="4" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:2">
       <c r="A12" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:2">
       <c r="A13" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/_Out/NFDataCfg/Excel/NPC.xlsx
+++ b/_Out/NFDataCfg/Excel/NPC.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454">
   <si>
     <t>Id</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>MeleeType</t>
+  </si>
+  <si>
+    <t>FearOfFire</t>
   </si>
   <si>
     <t>Type</t>
@@ -1394,10 +1397,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1440,51 +1443,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1499,7 +1465,67 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1510,6 +1536,37 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1531,60 +1588,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1647,48 +1650,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1701,13 +1662,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1719,43 +1704,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1773,7 +1734,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1785,7 +1758,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1797,7 +1770,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1809,13 +1806,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1986,9 +1989,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1998,6 +2018,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2017,32 +2052,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2070,164 +2084,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2788,12 +2791,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AK62"/>
+  <dimension ref="A1:AL62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="AL10" sqref="AL10"/>
+      <selection pane="bottomLeft" activeCell="AL26" sqref="AL26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2824,9 +2827,10 @@
     <col min="33" max="34" width="12.6666666666667" customWidth="1"/>
     <col min="36" max="36" width="25" customWidth="1"/>
     <col min="37" max="37" width="11.875" customWidth="1"/>
+    <col min="38" max="38" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="15" spans="1:37">
+    <row r="1" s="5" customFormat="1" ht="15" spans="1:38">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2938,123 +2942,129 @@
       <c r="AK1" s="5" t="s">
         <v>35</v>
       </c>
+      <c r="AL1" s="5" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="2" s="6" customFormat="1" ht="15" spans="1:37">
+    <row r="2" s="6" customFormat="1" ht="15" spans="1:38">
       <c r="A2" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="P2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="S2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="V2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="W2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="X2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="Y2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="Z2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="AB2" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="AF2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="AG2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="AJ2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="O2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q2" s="6" t="s">
+      <c r="AL2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="X2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB2" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AJ2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="AK2" s="6" t="s">
-        <v>38</v>
-      </c>
     </row>
-    <row r="3" s="6" customFormat="1" ht="15" spans="1:37">
+    <row r="3" s="6" customFormat="1" ht="15" spans="1:38">
       <c r="A3" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B3" s="6">
         <v>0</v>
@@ -3164,10 +3174,13 @@
       <c r="AK3" s="6">
         <v>1</v>
       </c>
+      <c r="AL3" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" s="6" customFormat="1" ht="15" spans="1:37">
+    <row r="4" s="6" customFormat="1" ht="15" spans="1:38">
       <c r="A4" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="6">
         <v>1</v>
@@ -3277,10 +3290,13 @@
       <c r="AK4" s="6">
         <v>1</v>
       </c>
+      <c r="AL4" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" s="6" customFormat="1" ht="15" spans="1:37">
+    <row r="5" s="6" customFormat="1" ht="15" spans="1:38">
       <c r="A5" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B5" s="6">
         <v>0</v>
@@ -3390,10 +3406,13 @@
       <c r="AK5" s="6">
         <v>0</v>
       </c>
+      <c r="AL5" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" s="6" customFormat="1" ht="15" spans="1:37">
+    <row r="6" s="6" customFormat="1" ht="15" spans="1:38">
       <c r="A6" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B6" s="6">
         <v>0</v>
@@ -3503,10 +3522,13 @@
       <c r="AK6" s="6">
         <v>0</v>
       </c>
+      <c r="AL6" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" s="7" customFormat="1" spans="1:37">
+    <row r="7" s="7" customFormat="1" spans="1:38">
       <c r="A7" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B7" s="7">
         <v>0</v>
@@ -3616,10 +3638,13 @@
       <c r="AK7" s="7">
         <v>0</v>
       </c>
+      <c r="AL7" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" s="7" customFormat="1" spans="1:37">
+    <row r="8" s="7" customFormat="1" spans="1:38">
       <c r="A8" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B8" s="7">
         <v>0</v>
@@ -3729,10 +3754,13 @@
       <c r="AK8" s="7">
         <v>0</v>
       </c>
+      <c r="AL8" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" s="7" customFormat="1" spans="1:37">
+    <row r="9" s="7" customFormat="1" spans="1:38">
       <c r="A9" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B9" s="7">
         <v>0</v>
@@ -3842,108 +3870,114 @@
       <c r="AK9" s="7">
         <v>0</v>
       </c>
+      <c r="AL9" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" s="8" customFormat="1" ht="54.75" spans="1:37">
+    <row r="10" s="8" customFormat="1" ht="54.75" spans="1:38">
       <c r="A10" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q10" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R10" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S10" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T10" s="24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U10" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V10" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="W10" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="X10" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Y10" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Z10" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AA10" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AB10" s="36" t="s">
         <v>26</v>
       </c>
       <c r="AC10" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AD10" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AE10" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF10" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG10" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AH10" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI10" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ10" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK10" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="AL10" s="8">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="1:37">
+    <row r="11" ht="14.25" spans="1:38">
       <c r="A11" s="13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -3982,7 +4016,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -3991,35 +4025,35 @@
         <v>6</v>
       </c>
       <c r="R11" s="25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S11" s="25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T11" s="26"/>
       <c r="W11">
         <v>2</v>
       </c>
       <c r="X11" s="13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z11">
         <v>0</v>
       </c>
       <c r="AA11" s="37" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AB11" s="38" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC11" s="13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD11" s="39" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AE11">
         <v>0</v>
@@ -4037,15 +4071,18 @@
         <v>0</v>
       </c>
       <c r="AJ11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK11">
         <v>0</v>
       </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" ht="14.25" spans="1:37">
+    <row r="12" ht="14.25" spans="1:38">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -4084,7 +4121,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -4093,44 +4130,44 @@
         <v>6</v>
       </c>
       <c r="R12" s="25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="S12" s="25" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T12" s="27" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="U12" s="28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="V12" s="29" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="W12">
         <v>2</v>
       </c>
       <c r="X12" s="13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z12">
         <v>0</v>
       </c>
       <c r="AA12" s="37" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AB12" s="38" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC12" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD12" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="AD12" s="39" t="s">
-        <v>84</v>
-      </c>
       <c r="AE12">
         <v>0</v>
       </c>
@@ -4147,15 +4184,18 @@
         <v>0</v>
       </c>
       <c r="AJ12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AK12">
         <v>0</v>
       </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" ht="14.25" spans="1:37">
+    <row r="13" ht="14.25" spans="1:38">
       <c r="A13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -4194,7 +4234,7 @@
         <v>2</v>
       </c>
       <c r="O13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -4203,43 +4243,43 @@
         <v>6</v>
       </c>
       <c r="R13" s="25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="S13" s="25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="T13" s="29" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U13" s="29" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="V13" s="29" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="W13">
         <v>2</v>
       </c>
       <c r="X13" s="13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z13">
         <v>0</v>
       </c>
       <c r="AA13" s="37" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AB13" s="38" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AD13" s="39" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AE13">
         <v>0</v>
@@ -4257,15 +4297,18 @@
         <v>0</v>
       </c>
       <c r="AJ13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK13">
         <v>0</v>
       </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" ht="14.25" spans="1:37">
+    <row r="14" ht="14.25" spans="1:38">
       <c r="A14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -4304,7 +4347,7 @@
         <v>2</v>
       </c>
       <c r="O14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -4313,43 +4356,43 @@
         <v>6</v>
       </c>
       <c r="R14" s="25" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="S14" s="25" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="T14" s="29" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="U14" s="29" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="V14" s="29" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="W14">
         <v>2</v>
       </c>
       <c r="X14" s="13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z14">
         <v>0</v>
       </c>
       <c r="AA14" s="37" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AB14" s="38" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AD14" s="39" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AE14">
         <v>0</v>
@@ -4367,15 +4410,18 @@
         <v>0</v>
       </c>
       <c r="AJ14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AK14">
         <v>0</v>
       </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" ht="14.25" spans="1:37">
+    <row r="15" ht="14.25" spans="1:38">
       <c r="A15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -4414,7 +4460,7 @@
         <v>2</v>
       </c>
       <c r="O15" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -4423,43 +4469,43 @@
         <v>6</v>
       </c>
       <c r="R15" s="25" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="S15" s="25" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="T15" s="29" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="U15" s="29" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="V15" s="29" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="W15">
         <v>2</v>
       </c>
       <c r="X15" s="13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z15">
         <v>0</v>
       </c>
       <c r="AA15" s="37" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AB15" s="38" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AD15" s="39" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AE15">
         <v>0</v>
@@ -4477,15 +4523,18 @@
         <v>0</v>
       </c>
       <c r="AJ15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK15">
         <v>0</v>
       </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" ht="14.25" spans="1:37">
+    <row r="16" ht="14.25" spans="1:38">
       <c r="A16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -4524,7 +4573,7 @@
         <v>2</v>
       </c>
       <c r="O16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -4533,43 +4582,43 @@
         <v>6</v>
       </c>
       <c r="R16" s="25" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="S16" s="25" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="T16" s="29" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="U16" s="29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V16" s="29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="W16">
         <v>2</v>
       </c>
       <c r="X16" s="13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z16">
         <v>0</v>
       </c>
       <c r="AA16" s="37" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AB16" s="38" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AD16" s="39" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AE16">
         <v>0</v>
@@ -4587,15 +4636,18 @@
         <v>0</v>
       </c>
       <c r="AJ16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK16">
         <v>0</v>
       </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" ht="14.25" spans="1:37">
+    <row r="17" ht="14.25" spans="1:38">
       <c r="A17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -4634,7 +4686,7 @@
         <v>2</v>
       </c>
       <c r="O17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -4643,43 +4695,43 @@
         <v>6</v>
       </c>
       <c r="R17" s="25" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="S17" s="25" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="T17" s="29" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="U17" s="29" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="V17" s="29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="W17">
         <v>2</v>
       </c>
       <c r="X17" s="13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z17">
         <v>0</v>
       </c>
       <c r="AA17" s="37" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AB17" s="38" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AD17" s="39" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AE17">
         <v>0</v>
@@ -4697,15 +4749,18 @@
         <v>0</v>
       </c>
       <c r="AJ17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK17">
         <v>0</v>
       </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" ht="14.25" spans="1:37">
+    <row r="18" ht="14.25" spans="1:38">
       <c r="A18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -4744,7 +4799,7 @@
         <v>2</v>
       </c>
       <c r="O18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -4753,43 +4808,43 @@
         <v>6</v>
       </c>
       <c r="R18" s="25" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="S18" s="25" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="T18" s="29" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="U18" s="29" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="V18" s="29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="W18">
         <v>2</v>
       </c>
       <c r="X18" s="13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z18">
         <v>0</v>
       </c>
       <c r="AA18" s="37" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AB18" s="38" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AD18" s="39" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AE18">
         <v>0</v>
@@ -4807,15 +4862,18 @@
         <v>0</v>
       </c>
       <c r="AJ18" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK18">
         <v>0</v>
       </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" ht="14.25" spans="1:37">
+    <row r="19" ht="14.25" spans="1:38">
       <c r="A19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -4854,7 +4912,7 @@
         <v>2</v>
       </c>
       <c r="O19" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -4863,43 +4921,43 @@
         <v>6</v>
       </c>
       <c r="R19" s="25" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="S19" s="25" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="T19" s="29" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="U19" s="29" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="V19" s="29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="W19">
         <v>2</v>
       </c>
       <c r="X19" s="13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z19">
         <v>0</v>
       </c>
       <c r="AA19" s="37" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AB19" s="38" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AD19" s="39" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AE19">
         <v>0</v>
@@ -4917,15 +4975,18 @@
         <v>0</v>
       </c>
       <c r="AJ19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AK19">
         <v>0</v>
       </c>
+      <c r="AL19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" ht="14.25" spans="1:37">
+    <row r="20" ht="14.25" spans="1:38">
       <c r="A20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -4964,7 +5025,7 @@
         <v>2</v>
       </c>
       <c r="O20" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -4973,43 +5034,43 @@
         <v>6</v>
       </c>
       <c r="R20" s="25" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="S20" s="25" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="T20" s="29" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="U20" s="29" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="V20" s="29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="W20">
         <v>2</v>
       </c>
       <c r="X20" s="13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z20">
         <v>0</v>
       </c>
       <c r="AA20" s="37" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AB20" s="38" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AD20" s="39" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AE20">
         <v>0</v>
@@ -5027,15 +5088,18 @@
         <v>0</v>
       </c>
       <c r="AJ20" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AK20">
         <v>0</v>
       </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" ht="14.25" spans="1:37">
+    <row r="21" ht="14.25" spans="1:38">
       <c r="A21" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -5074,7 +5138,7 @@
         <v>2</v>
       </c>
       <c r="O21" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -5083,43 +5147,43 @@
         <v>6</v>
       </c>
       <c r="R21" s="25" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="S21" s="25" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="T21" s="29" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="U21" s="29" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="V21" s="29" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="W21">
         <v>2</v>
       </c>
       <c r="X21" s="13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z21">
         <v>0</v>
       </c>
       <c r="AA21" s="37" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AB21" s="38" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC21" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AD21" s="39" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AE21">
         <v>0</v>
@@ -5137,15 +5201,18 @@
         <v>0</v>
       </c>
       <c r="AJ21" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AK21">
         <v>0</v>
       </c>
+      <c r="AL21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" ht="14.25" spans="1:37">
+    <row r="22" ht="14.25" spans="1:38">
       <c r="A22" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -5184,7 +5251,7 @@
         <v>2</v>
       </c>
       <c r="O22" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -5193,43 +5260,43 @@
         <v>6</v>
       </c>
       <c r="R22" s="25" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="S22" s="25" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="T22" s="29" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="U22" s="29" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="V22" s="29" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="W22">
         <v>2</v>
       </c>
       <c r="X22" s="13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z22">
         <v>0</v>
       </c>
       <c r="AA22" s="37" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AB22" s="38" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC22" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AD22" s="39" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AE22">
         <v>0</v>
@@ -5247,15 +5314,18 @@
         <v>0</v>
       </c>
       <c r="AJ22" s="46" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AK22">
         <v>0</v>
       </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" s="14" customFormat="1" ht="14.25" spans="1:37">
+    <row r="23" s="14" customFormat="1" ht="14.25" spans="1:38">
       <c r="A23" s="19" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C23" s="14">
         <v>0</v>
@@ -5294,7 +5364,7 @@
         <v>2</v>
       </c>
       <c r="O23" s="14" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P23" s="14">
         <v>0</v>
@@ -5303,43 +5373,43 @@
         <v>6</v>
       </c>
       <c r="R23" s="30" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="S23" s="30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T23" s="31" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="U23" s="31" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="V23" s="31" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="W23" s="14">
         <v>2</v>
       </c>
       <c r="X23" s="32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y23" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z23" s="14">
         <v>0</v>
       </c>
       <c r="AA23" s="14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AB23" s="38" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC23" s="40" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AD23" s="14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AE23" s="14">
         <v>0</v>
@@ -5357,15 +5427,18 @@
         <v>1</v>
       </c>
       <c r="AJ23" s="20" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AK23" s="14">
         <v>1</v>
       </c>
+      <c r="AL23" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" s="15" customFormat="1" ht="14.25" spans="1:37">
+    <row r="24" s="15" customFormat="1" ht="14.25" spans="1:38">
       <c r="A24" s="20" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C24" s="15">
         <v>0</v>
@@ -5404,7 +5477,7 @@
         <v>2</v>
       </c>
       <c r="O24" s="15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P24" s="15">
         <v>1</v>
@@ -5413,43 +5486,43 @@
         <v>6</v>
       </c>
       <c r="R24" s="30" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="S24" s="30" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T24" s="15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="U24" s="15" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V24" s="15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="W24" s="15">
         <v>2</v>
       </c>
       <c r="X24" s="32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y24" s="15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z24" s="15">
         <v>0</v>
       </c>
       <c r="AA24" s="15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AB24" s="41" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC24" s="42" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AD24" s="15" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AE24" s="15">
         <v>0</v>
@@ -5467,15 +5540,18 @@
         <v>1</v>
       </c>
       <c r="AJ24" s="20" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AK24" s="15">
         <v>1</v>
       </c>
+      <c r="AL24" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" s="15" customFormat="1" ht="14.25" spans="1:37">
+    <row r="25" s="15" customFormat="1" ht="14.25" spans="1:38">
       <c r="A25" s="20" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C25" s="15">
         <v>0</v>
@@ -5514,7 +5590,7 @@
         <v>2</v>
       </c>
       <c r="O25" s="15" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P25" s="15">
         <v>0</v>
@@ -5523,43 +5599,43 @@
         <v>6</v>
       </c>
       <c r="R25" s="30" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="S25" s="30" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="T25" s="15" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="U25" s="15" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="V25" s="15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="W25" s="15">
         <v>2</v>
       </c>
       <c r="X25" s="32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y25" s="15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z25" s="15">
         <v>0</v>
       </c>
       <c r="AA25" s="15" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AB25" s="41" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC25" s="42" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AD25" s="15" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AE25" s="15">
         <v>0</v>
@@ -5577,15 +5653,18 @@
         <v>1</v>
       </c>
       <c r="AJ25" s="20" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AK25" s="15">
         <v>1</v>
       </c>
+      <c r="AL25" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" s="15" customFormat="1" spans="1:37">
+    <row r="26" s="15" customFormat="1" spans="1:38">
       <c r="A26" s="20" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C26" s="15">
         <v>0</v>
@@ -5624,7 +5703,7 @@
         <v>2</v>
       </c>
       <c r="O26" s="15" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P26" s="15">
         <v>0</v>
@@ -5633,43 +5712,43 @@
         <v>6</v>
       </c>
       <c r="R26" s="30" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="S26" s="30" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="T26" s="15" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="U26" s="15" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="V26" s="15" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="W26" s="15">
         <v>2</v>
       </c>
       <c r="X26" s="32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y26" s="15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z26" s="15">
         <v>0</v>
       </c>
       <c r="AA26" s="15" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AB26" s="41" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC26" s="42" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AD26" s="15" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AE26" s="15">
         <v>0</v>
@@ -5687,15 +5766,18 @@
         <v>1</v>
       </c>
       <c r="AJ26" s="47" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AK26" s="15">
         <v>1</v>
       </c>
+      <c r="AL26" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" s="16" customFormat="1" spans="1:37">
+    <row r="27" s="16" customFormat="1" spans="1:38">
       <c r="A27" s="21" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C27" s="16">
         <v>0</v>
@@ -5734,7 +5816,7 @@
         <v>2</v>
       </c>
       <c r="O27" s="16" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P27" s="16">
         <v>0</v>
@@ -5743,34 +5825,34 @@
         <v>6</v>
       </c>
       <c r="R27" s="33" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="S27" s="33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W27" s="16">
         <v>2</v>
       </c>
       <c r="X27" s="34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y27" s="16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z27" s="16">
         <v>0</v>
       </c>
       <c r="AA27" s="16" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AB27" s="34" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AC27" s="16" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AD27" s="43" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AE27" s="16">
         <v>0</v>
@@ -5788,15 +5870,18 @@
         <v>2</v>
       </c>
       <c r="AJ27" s="22" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AK27" s="16">
         <v>0</v>
       </c>
+      <c r="AL27" s="16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" s="17" customFormat="1" spans="1:37">
+    <row r="28" s="17" customFormat="1" spans="1:38">
       <c r="A28" s="22" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C28" s="17">
         <v>0</v>
@@ -5835,7 +5920,7 @@
         <v>2</v>
       </c>
       <c r="O28" s="16" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P28" s="17">
         <v>0</v>
@@ -5844,34 +5929,34 @@
         <v>6</v>
       </c>
       <c r="R28" s="33" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="S28" s="33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W28" s="17">
         <v>2</v>
       </c>
       <c r="X28" s="34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y28" s="17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z28" s="17">
         <v>0</v>
       </c>
       <c r="AA28" s="17" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AB28" s="34" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AC28" s="17" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AD28" s="44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AE28" s="17">
         <v>0</v>
@@ -5889,15 +5974,18 @@
         <v>2</v>
       </c>
       <c r="AJ28" s="22" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AK28" s="17">
         <v>0</v>
       </c>
+      <c r="AL28" s="17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" s="17" customFormat="1" spans="1:37">
+    <row r="29" s="17" customFormat="1" spans="1:38">
       <c r="A29" s="22" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C29" s="17">
         <v>0</v>
@@ -5936,7 +6024,7 @@
         <v>2</v>
       </c>
       <c r="O29" s="16" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P29" s="17">
         <v>0</v>
@@ -5945,34 +6033,34 @@
         <v>6</v>
       </c>
       <c r="R29" s="17" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="S29" s="33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W29" s="17">
         <v>2</v>
       </c>
       <c r="X29" s="34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y29" s="17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z29" s="17">
         <v>0</v>
       </c>
       <c r="AA29" s="17" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AB29" s="34" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AC29" s="17" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AD29" s="44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AE29" s="17">
         <v>0</v>
@@ -5990,15 +6078,18 @@
         <v>2</v>
       </c>
       <c r="AJ29" s="22" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AK29" s="16">
         <v>0</v>
       </c>
+      <c r="AL29" s="16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" s="17" customFormat="1" spans="1:37">
+    <row r="30" s="17" customFormat="1" spans="1:38">
       <c r="A30" s="22" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C30" s="17">
         <v>0</v>
@@ -6037,7 +6128,7 @@
         <v>2</v>
       </c>
       <c r="O30" s="17" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P30" s="17">
         <v>0</v>
@@ -6046,34 +6137,34 @@
         <v>6</v>
       </c>
       <c r="R30" s="17" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="S30" s="33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W30" s="17">
         <v>2</v>
       </c>
       <c r="X30" s="34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y30" s="17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z30" s="17">
         <v>0</v>
       </c>
       <c r="AA30" s="17" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AB30" s="34" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AC30" s="17" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AD30" s="44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AE30" s="17">
         <v>0</v>
@@ -6091,15 +6182,18 @@
         <v>2</v>
       </c>
       <c r="AJ30" s="22" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AK30" s="17">
         <v>0</v>
       </c>
+      <c r="AL30" s="17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" s="17" customFormat="1" spans="1:37">
+    <row r="31" s="17" customFormat="1" spans="1:38">
       <c r="A31" s="22" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C31" s="17">
         <v>0</v>
@@ -6138,7 +6232,7 @@
         <v>2</v>
       </c>
       <c r="O31" s="17" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P31" s="17">
         <v>0</v>
@@ -6147,34 +6241,34 @@
         <v>6</v>
       </c>
       <c r="R31" s="17" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="S31" s="33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W31" s="17">
         <v>2</v>
       </c>
       <c r="X31" s="34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y31" s="17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z31" s="17">
         <v>0</v>
       </c>
       <c r="AA31" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AB31" s="34" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AC31" s="17" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AD31" s="44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AE31" s="17">
         <v>0</v>
@@ -6192,15 +6286,18 @@
         <v>2</v>
       </c>
       <c r="AJ31" s="22" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AK31" s="16">
         <v>0</v>
       </c>
+      <c r="AL31" s="16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" s="17" customFormat="1" spans="1:37">
+    <row r="32" s="17" customFormat="1" spans="1:38">
       <c r="A32" s="22" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C32" s="17">
         <v>0</v>
@@ -6239,7 +6336,7 @@
         <v>2</v>
       </c>
       <c r="O32" s="17" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P32" s="17">
         <v>0</v>
@@ -6248,34 +6345,34 @@
         <v>6</v>
       </c>
       <c r="R32" s="17" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="S32" s="33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W32" s="17">
         <v>2</v>
       </c>
       <c r="X32" s="34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y32" s="17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z32" s="17">
         <v>0</v>
       </c>
       <c r="AA32" s="17" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AB32" s="34" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AC32" s="17" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AD32" s="44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AE32" s="17">
         <v>0</v>
@@ -6293,15 +6390,18 @@
         <v>2</v>
       </c>
       <c r="AJ32" s="22" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AK32" s="17">
         <v>0</v>
       </c>
+      <c r="AL32" s="17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" s="17" customFormat="1" spans="1:37">
+    <row r="33" s="17" customFormat="1" spans="1:38">
       <c r="A33" s="22" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C33" s="17">
         <v>0</v>
@@ -6340,7 +6440,7 @@
         <v>2</v>
       </c>
       <c r="O33" s="17" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P33" s="17">
         <v>0</v>
@@ -6349,34 +6449,34 @@
         <v>6</v>
       </c>
       <c r="R33" s="17" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="S33" s="33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W33" s="17">
         <v>2</v>
       </c>
       <c r="X33" s="34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y33" s="17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z33" s="17">
         <v>0</v>
       </c>
       <c r="AA33" s="17" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AB33" s="34" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AC33" s="17" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AD33" s="44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AE33" s="17">
         <v>0</v>
@@ -6394,15 +6494,18 @@
         <v>2</v>
       </c>
       <c r="AJ33" s="22" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AK33" s="16">
         <v>0</v>
       </c>
+      <c r="AL33" s="16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" s="17" customFormat="1" spans="1:37">
+    <row r="34" s="17" customFormat="1" spans="1:38">
       <c r="A34" s="22" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C34" s="17">
         <v>0</v>
@@ -6441,7 +6544,7 @@
         <v>2</v>
       </c>
       <c r="O34" s="17" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P34" s="17">
         <v>0</v>
@@ -6450,34 +6553,34 @@
         <v>6</v>
       </c>
       <c r="R34" s="33" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S34" s="33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W34" s="17">
         <v>2</v>
       </c>
       <c r="X34" s="34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y34" s="17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z34" s="17">
         <v>0</v>
       </c>
       <c r="AA34" s="17" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AB34" s="34" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AC34" s="17" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AD34" s="44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AE34" s="17">
         <v>0</v>
@@ -6495,15 +6598,18 @@
         <v>2</v>
       </c>
       <c r="AJ34" s="22" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AK34" s="17">
         <v>0</v>
       </c>
+      <c r="AL34" s="17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" s="17" customFormat="1" spans="1:37">
+    <row r="35" s="17" customFormat="1" spans="1:38">
       <c r="A35" s="22" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C35" s="17">
         <v>0</v>
@@ -6542,7 +6648,7 @@
         <v>2</v>
       </c>
       <c r="O35" s="17" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P35" s="17">
         <v>0</v>
@@ -6551,34 +6657,34 @@
         <v>6</v>
       </c>
       <c r="R35" s="33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="S35" s="33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W35" s="17">
         <v>2</v>
       </c>
       <c r="X35" s="34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y35" s="17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z35" s="17">
         <v>0</v>
       </c>
       <c r="AA35" s="17" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AB35" s="34" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AC35" s="17" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AD35" s="44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AE35" s="17">
         <v>0</v>
@@ -6596,15 +6702,18 @@
         <v>2</v>
       </c>
       <c r="AJ35" s="22" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AK35" s="16">
         <v>0</v>
       </c>
+      <c r="AL35" s="16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" s="17" customFormat="1" spans="1:37">
+    <row r="36" s="17" customFormat="1" spans="1:38">
       <c r="A36" s="22" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C36" s="17">
         <v>0</v>
@@ -6643,7 +6752,7 @@
         <v>3</v>
       </c>
       <c r="O36" s="17" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P36" s="17">
         <v>0</v>
@@ -6652,34 +6761,34 @@
         <v>6</v>
       </c>
       <c r="R36" s="33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="S36" s="33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W36" s="17">
         <v>2</v>
       </c>
       <c r="X36" s="34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y36" s="17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z36" s="17">
         <v>0</v>
       </c>
       <c r="AA36" s="17" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AB36" s="34" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AC36" s="17" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AD36" s="44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AE36" s="17">
         <v>0</v>
@@ -6697,15 +6806,18 @@
         <v>2</v>
       </c>
       <c r="AJ36" s="22" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AK36" s="17">
         <v>0</v>
       </c>
+      <c r="AL36" s="17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" s="17" customFormat="1" spans="1:37">
+    <row r="37" s="17" customFormat="1" spans="1:38">
       <c r="A37" s="22" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C37" s="17">
         <v>0</v>
@@ -6744,7 +6856,7 @@
         <v>3</v>
       </c>
       <c r="O37" s="17" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P37" s="17">
         <v>0</v>
@@ -6753,34 +6865,34 @@
         <v>6</v>
       </c>
       <c r="R37" s="33" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="S37" s="33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W37" s="17">
         <v>2</v>
       </c>
       <c r="X37" s="34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y37" s="17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z37" s="17">
         <v>0</v>
       </c>
       <c r="AA37" s="17" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AB37" s="34" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AC37" s="17" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AD37" s="44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AE37" s="17">
         <v>0</v>
@@ -6798,15 +6910,18 @@
         <v>2</v>
       </c>
       <c r="AJ37" s="22" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AK37" s="16">
         <v>0</v>
       </c>
+      <c r="AL37" s="16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" s="17" customFormat="1" spans="1:37">
+    <row r="38" s="17" customFormat="1" spans="1:38">
       <c r="A38" s="22" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C38" s="17">
         <v>0</v>
@@ -6845,7 +6960,7 @@
         <v>3</v>
       </c>
       <c r="O38" s="17" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P38" s="17">
         <v>0</v>
@@ -6854,34 +6969,34 @@
         <v>6</v>
       </c>
       <c r="R38" s="33" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="S38" s="33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W38" s="17">
         <v>2</v>
       </c>
       <c r="X38" s="34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y38" s="17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z38" s="17">
         <v>0</v>
       </c>
       <c r="AA38" s="17" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AB38" s="34" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AC38" s="17" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AD38" s="44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AE38" s="17">
         <v>0</v>
@@ -6899,15 +7014,18 @@
         <v>2</v>
       </c>
       <c r="AJ38" s="22" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AK38" s="17">
         <v>0</v>
       </c>
+      <c r="AL38" s="17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" s="17" customFormat="1" spans="1:37">
+    <row r="39" s="17" customFormat="1" spans="1:38">
       <c r="A39" s="22" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C39" s="17">
         <v>0</v>
@@ -6946,7 +7064,7 @@
         <v>1</v>
       </c>
       <c r="O39" s="17" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P39" s="17">
         <v>0</v>
@@ -6955,34 +7073,34 @@
         <v>6</v>
       </c>
       <c r="R39" s="33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="S39" s="33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W39" s="17">
         <v>2</v>
       </c>
       <c r="X39" s="34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y39" s="17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z39" s="17">
         <v>0</v>
       </c>
       <c r="AA39" s="17" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AB39" s="34" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AC39" s="17" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AD39" s="44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AE39" s="17">
         <v>0</v>
@@ -7000,15 +7118,18 @@
         <v>2</v>
       </c>
       <c r="AJ39" s="22" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AK39" s="16">
         <v>0</v>
       </c>
+      <c r="AL39" s="16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" s="17" customFormat="1" spans="1:37">
+    <row r="40" s="17" customFormat="1" spans="1:38">
       <c r="A40" s="22" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C40" s="17">
         <v>0</v>
@@ -7047,7 +7168,7 @@
         <v>1</v>
       </c>
       <c r="O40" s="17" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P40" s="17">
         <v>0</v>
@@ -7056,34 +7177,34 @@
         <v>6</v>
       </c>
       <c r="R40" s="33" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="S40" s="33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W40" s="17">
         <v>2</v>
       </c>
       <c r="X40" s="34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y40" s="17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z40" s="17">
         <v>0</v>
       </c>
       <c r="AA40" s="17" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AB40" s="34" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AC40" s="17" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AD40" s="44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AE40" s="17">
         <v>0</v>
@@ -7101,15 +7222,18 @@
         <v>2</v>
       </c>
       <c r="AJ40" s="22" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AK40" s="17">
         <v>0</v>
       </c>
+      <c r="AL40" s="17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" s="17" customFormat="1" spans="1:37">
+    <row r="41" s="17" customFormat="1" spans="1:38">
       <c r="A41" s="22" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C41" s="17">
         <v>0</v>
@@ -7148,7 +7272,7 @@
         <v>1</v>
       </c>
       <c r="O41" s="17" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="P41" s="17">
         <v>0</v>
@@ -7157,34 +7281,34 @@
         <v>6</v>
       </c>
       <c r="R41" s="33" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="S41" s="33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W41" s="17">
         <v>2</v>
       </c>
       <c r="X41" s="34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y41" s="17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z41" s="17">
         <v>0</v>
       </c>
       <c r="AA41" s="17" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AB41" s="34" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AC41" s="17" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AD41" s="44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AE41" s="17">
         <v>0</v>
@@ -7202,15 +7326,18 @@
         <v>2</v>
       </c>
       <c r="AJ41" s="22" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AK41" s="16">
         <v>0</v>
       </c>
+      <c r="AL41" s="16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" s="17" customFormat="1" spans="1:37">
+    <row r="42" s="17" customFormat="1" spans="1:38">
       <c r="A42" s="22" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C42" s="17">
         <v>0</v>
@@ -7249,7 +7376,7 @@
         <v>2</v>
       </c>
       <c r="O42" s="17" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P42" s="17">
         <v>0</v>
@@ -7258,34 +7385,34 @@
         <v>6</v>
       </c>
       <c r="R42" s="33" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="S42" s="33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W42" s="17">
         <v>2</v>
       </c>
       <c r="X42" s="34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y42" s="17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z42" s="17">
         <v>0</v>
       </c>
       <c r="AA42" s="17" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AB42" s="34" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AC42" s="17" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AD42" s="44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AE42" s="17">
         <v>0</v>
@@ -7303,15 +7430,18 @@
         <v>2</v>
       </c>
       <c r="AJ42" s="22" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AK42" s="17">
         <v>0</v>
       </c>
+      <c r="AL42" s="17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" s="17" customFormat="1" spans="1:37">
+    <row r="43" s="17" customFormat="1" spans="1:38">
       <c r="A43" s="22" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C43" s="17">
         <v>0</v>
@@ -7350,7 +7480,7 @@
         <v>2</v>
       </c>
       <c r="O43" s="17" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P43" s="17">
         <v>0</v>
@@ -7359,34 +7489,34 @@
         <v>6</v>
       </c>
       <c r="R43" s="33" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="S43" s="33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W43" s="17">
         <v>2</v>
       </c>
       <c r="X43" s="34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y43" s="17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z43" s="17">
         <v>0</v>
       </c>
       <c r="AA43" s="17" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AB43" s="34" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AC43" s="17" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AD43" s="44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AE43" s="17">
         <v>0</v>
@@ -7404,15 +7534,18 @@
         <v>2</v>
       </c>
       <c r="AJ43" s="22" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AK43" s="16">
         <v>0</v>
       </c>
+      <c r="AL43" s="16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" s="17" customFormat="1" spans="1:37">
+    <row r="44" s="17" customFormat="1" spans="1:38">
       <c r="A44" s="22" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C44" s="17">
         <v>0</v>
@@ -7451,7 +7584,7 @@
         <v>2</v>
       </c>
       <c r="O44" s="17" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="P44" s="17">
         <v>0</v>
@@ -7460,34 +7593,34 @@
         <v>6</v>
       </c>
       <c r="R44" s="33" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="S44" s="33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W44" s="17">
         <v>2</v>
       </c>
       <c r="X44" s="34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y44" s="17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z44" s="17">
         <v>0</v>
       </c>
       <c r="AA44" s="17" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AB44" s="34" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AC44" s="17" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AD44" s="44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AE44" s="17">
         <v>0</v>
@@ -7505,15 +7638,18 @@
         <v>2</v>
       </c>
       <c r="AJ44" s="22" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AK44" s="17">
         <v>0</v>
       </c>
+      <c r="AL44" s="17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" s="17" customFormat="1" spans="1:37">
+    <row r="45" s="17" customFormat="1" spans="1:38">
       <c r="A45" s="22" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C45" s="17">
         <v>0</v>
@@ -7552,7 +7688,7 @@
         <v>2</v>
       </c>
       <c r="O45" s="17" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P45" s="17">
         <v>0</v>
@@ -7561,34 +7697,34 @@
         <v>6</v>
       </c>
       <c r="R45" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="S45" s="33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W45" s="17">
         <v>2</v>
       </c>
       <c r="X45" s="34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y45" s="17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z45" s="17">
         <v>0</v>
       </c>
       <c r="AA45" s="17" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AB45" s="34" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AC45" s="17" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AD45" s="44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AE45" s="17">
         <v>0</v>
@@ -7606,15 +7742,18 @@
         <v>2</v>
       </c>
       <c r="AJ45" s="22" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AK45" s="16">
         <v>0</v>
       </c>
+      <c r="AL45" s="16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" s="17" customFormat="1" spans="1:37">
+    <row r="46" s="17" customFormat="1" spans="1:38">
       <c r="A46" s="22" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C46" s="17">
         <v>0</v>
@@ -7653,7 +7792,7 @@
         <v>2</v>
       </c>
       <c r="O46" s="17" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P46" s="17">
         <v>0</v>
@@ -7662,34 +7801,34 @@
         <v>6</v>
       </c>
       <c r="R46" s="33" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="S46" s="33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W46" s="17">
         <v>2</v>
       </c>
       <c r="X46" s="34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y46" s="17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z46" s="17">
         <v>0</v>
       </c>
       <c r="AA46" s="17" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AB46" s="34" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AC46" s="17" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AD46" s="44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AE46" s="17">
         <v>0</v>
@@ -7707,15 +7846,18 @@
         <v>2</v>
       </c>
       <c r="AJ46" s="22" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AK46" s="17">
         <v>0</v>
       </c>
+      <c r="AL46" s="17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" s="17" customFormat="1" spans="1:37">
+    <row r="47" s="17" customFormat="1" spans="1:38">
       <c r="A47" s="22" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C47" s="17">
         <v>0</v>
@@ -7754,7 +7896,7 @@
         <v>2</v>
       </c>
       <c r="O47" s="17" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="P47" s="17">
         <v>0</v>
@@ -7763,34 +7905,34 @@
         <v>6</v>
       </c>
       <c r="R47" s="33" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="S47" s="33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W47" s="17">
         <v>2</v>
       </c>
       <c r="X47" s="34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y47" s="17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z47" s="17">
         <v>0</v>
       </c>
       <c r="AA47" s="17" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AB47" s="34" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AC47" s="17" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AD47" s="44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AE47" s="17">
         <v>0</v>
@@ -7808,15 +7950,18 @@
         <v>2</v>
       </c>
       <c r="AJ47" s="22" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AK47" s="16">
         <v>0</v>
       </c>
+      <c r="AL47" s="16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" s="17" customFormat="1" spans="1:37">
+    <row r="48" s="17" customFormat="1" spans="1:38">
       <c r="A48" s="22" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C48" s="17">
         <v>0</v>
@@ -7855,7 +8000,7 @@
         <v>3</v>
       </c>
       <c r="O48" s="17" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P48" s="17">
         <v>0</v>
@@ -7864,34 +8009,34 @@
         <v>6</v>
       </c>
       <c r="R48" s="33" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="S48" s="33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W48" s="17">
         <v>2</v>
       </c>
       <c r="X48" s="34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y48" s="17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z48" s="17">
         <v>0</v>
       </c>
       <c r="AA48" s="17" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AB48" s="34" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AC48" s="17" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AD48" s="44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AE48" s="17">
         <v>0</v>
@@ -7909,15 +8054,18 @@
         <v>2</v>
       </c>
       <c r="AJ48" s="22" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AK48" s="17">
         <v>0</v>
       </c>
+      <c r="AL48" s="17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" s="17" customFormat="1" spans="1:37">
+    <row r="49" s="17" customFormat="1" spans="1:38">
       <c r="A49" s="22" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C49" s="17">
         <v>0</v>
@@ -7956,7 +8104,7 @@
         <v>3</v>
       </c>
       <c r="O49" s="17" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P49" s="17">
         <v>0</v>
@@ -7965,34 +8113,34 @@
         <v>6</v>
       </c>
       <c r="R49" s="33" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="S49" s="33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W49" s="17">
         <v>2</v>
       </c>
       <c r="X49" s="34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y49" s="17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z49" s="17">
         <v>0</v>
       </c>
       <c r="AA49" s="17" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AB49" s="34" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AC49" s="17" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AD49" s="44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AE49" s="17">
         <v>0</v>
@@ -8010,15 +8158,18 @@
         <v>2</v>
       </c>
       <c r="AJ49" s="22" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AK49" s="16">
         <v>0</v>
       </c>
+      <c r="AL49" s="16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" s="17" customFormat="1" spans="1:37">
+    <row r="50" s="17" customFormat="1" spans="1:38">
       <c r="A50" s="22" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C50" s="17">
         <v>0</v>
@@ -8057,7 +8208,7 @@
         <v>3</v>
       </c>
       <c r="O50" s="17" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P50" s="17">
         <v>0</v>
@@ -8066,34 +8217,34 @@
         <v>6</v>
       </c>
       <c r="R50" s="33" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="S50" s="33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W50" s="17">
         <v>2</v>
       </c>
       <c r="X50" s="34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y50" s="17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z50" s="17">
         <v>0</v>
       </c>
       <c r="AA50" s="17" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AB50" s="34" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AC50" s="17" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AD50" s="44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AE50" s="17">
         <v>0</v>
@@ -8111,15 +8262,18 @@
         <v>2</v>
       </c>
       <c r="AJ50" s="22" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AK50" s="17">
         <v>0</v>
       </c>
+      <c r="AL50" s="17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" s="17" customFormat="1" spans="1:37">
+    <row r="51" s="17" customFormat="1" spans="1:38">
       <c r="A51" s="22" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C51" s="17">
         <v>0</v>
@@ -8158,7 +8312,7 @@
         <v>2</v>
       </c>
       <c r="O51" s="17" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="P51" s="17">
         <v>0</v>
@@ -8167,34 +8321,34 @@
         <v>6</v>
       </c>
       <c r="R51" s="33" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="S51" s="33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W51" s="17">
         <v>2</v>
       </c>
       <c r="X51" s="34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y51" s="17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z51" s="17">
         <v>0</v>
       </c>
       <c r="AA51" s="17" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AB51" s="34" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AC51" s="17" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AD51" s="44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AE51" s="17">
         <v>0</v>
@@ -8212,15 +8366,18 @@
         <v>2</v>
       </c>
       <c r="AJ51" s="22" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AK51" s="16">
         <v>0</v>
       </c>
+      <c r="AL51" s="16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" s="17" customFormat="1" spans="1:37">
+    <row r="52" s="17" customFormat="1" spans="1:38">
       <c r="A52" s="22" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C52" s="17">
         <v>0</v>
@@ -8259,7 +8416,7 @@
         <v>2</v>
       </c>
       <c r="O52" s="17" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="P52" s="17">
         <v>0</v>
@@ -8268,34 +8425,34 @@
         <v>6</v>
       </c>
       <c r="R52" s="17" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="S52" s="33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W52" s="17">
         <v>2</v>
       </c>
       <c r="X52" s="34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y52" s="17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z52" s="17">
         <v>0</v>
       </c>
       <c r="AA52" s="17" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AB52" s="34" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AC52" s="17" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AD52" s="44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AE52" s="17">
         <v>0</v>
@@ -8313,15 +8470,18 @@
         <v>2</v>
       </c>
       <c r="AJ52" s="22" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AK52" s="17">
         <v>0</v>
       </c>
+      <c r="AL52" s="17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="53" s="17" customFormat="1" spans="1:37">
+    <row r="53" s="17" customFormat="1" spans="1:38">
       <c r="A53" s="22" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C53" s="17">
         <v>0</v>
@@ -8360,7 +8520,7 @@
         <v>2</v>
       </c>
       <c r="O53" s="17" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="P53" s="17">
         <v>0</v>
@@ -8369,34 +8529,34 @@
         <v>6</v>
       </c>
       <c r="R53" s="17" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="S53" s="33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W53" s="17">
         <v>2</v>
       </c>
       <c r="X53" s="34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y53" s="17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z53" s="17">
         <v>0</v>
       </c>
       <c r="AA53" s="17" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AB53" s="34" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AC53" s="17" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AD53" s="44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AE53" s="17">
         <v>0</v>
@@ -8414,15 +8574,18 @@
         <v>2</v>
       </c>
       <c r="AJ53" s="22" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AK53" s="16">
         <v>0</v>
       </c>
+      <c r="AL53" s="16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="54" s="17" customFormat="1" spans="1:37">
+    <row r="54" s="17" customFormat="1" spans="1:38">
       <c r="A54" s="22" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C54" s="17">
         <v>0</v>
@@ -8461,7 +8624,7 @@
         <v>3</v>
       </c>
       <c r="O54" s="17" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="P54" s="17">
         <v>0</v>
@@ -8470,34 +8633,34 @@
         <v>6</v>
       </c>
       <c r="R54" s="17" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="S54" s="33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W54" s="17">
         <v>2</v>
       </c>
       <c r="X54" s="34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y54" s="17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z54" s="17">
         <v>0</v>
       </c>
       <c r="AA54" s="17" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AB54" s="34" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AC54" s="17" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AD54" s="44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AE54" s="17">
         <v>0</v>
@@ -8515,15 +8678,18 @@
         <v>2</v>
       </c>
       <c r="AJ54" s="22" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AK54" s="17">
         <v>0</v>
       </c>
+      <c r="AL54" s="17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="55" s="17" customFormat="1" spans="1:37">
+    <row r="55" s="17" customFormat="1" spans="1:38">
       <c r="A55" s="22" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C55" s="17">
         <v>0</v>
@@ -8562,7 +8728,7 @@
         <v>3</v>
       </c>
       <c r="O55" s="17" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P55" s="17">
         <v>0</v>
@@ -8571,34 +8737,34 @@
         <v>6</v>
       </c>
       <c r="R55" s="17" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="S55" s="33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W55" s="17">
         <v>2</v>
       </c>
       <c r="X55" s="34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y55" s="17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z55" s="17">
         <v>0</v>
       </c>
       <c r="AA55" s="17" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AB55" s="34" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AC55" s="17" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AD55" s="44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AE55" s="17">
         <v>0</v>
@@ -8616,15 +8782,18 @@
         <v>2</v>
       </c>
       <c r="AJ55" s="22" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AK55" s="16">
         <v>0</v>
       </c>
+      <c r="AL55" s="16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="56" s="17" customFormat="1" spans="1:37">
+    <row r="56" s="17" customFormat="1" spans="1:38">
       <c r="A56" s="22" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C56" s="17">
         <v>0</v>
@@ -8663,7 +8832,7 @@
         <v>3</v>
       </c>
       <c r="O56" s="17" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="P56" s="17">
         <v>0</v>
@@ -8672,34 +8841,34 @@
         <v>6</v>
       </c>
       <c r="R56" s="17" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="S56" s="33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W56" s="17">
         <v>2</v>
       </c>
       <c r="X56" s="34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y56" s="17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z56" s="17">
         <v>0</v>
       </c>
       <c r="AA56" s="17" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AB56" s="34" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AC56" s="17" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AD56" s="44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AE56" s="17">
         <v>0</v>
@@ -8717,15 +8886,18 @@
         <v>2</v>
       </c>
       <c r="AJ56" s="22" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AK56" s="17">
         <v>0</v>
       </c>
+      <c r="AL56" s="17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" s="17" customFormat="1" spans="1:37">
+    <row r="57" s="17" customFormat="1" spans="1:38">
       <c r="A57" s="22" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C57" s="17">
         <v>0</v>
@@ -8764,7 +8936,7 @@
         <v>2</v>
       </c>
       <c r="O57" s="17" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="P57" s="17">
         <v>0</v>
@@ -8773,34 +8945,34 @@
         <v>6</v>
       </c>
       <c r="R57" s="17" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="S57" s="33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W57" s="17">
         <v>2</v>
       </c>
       <c r="X57" s="34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y57" s="17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z57" s="17">
         <v>0</v>
       </c>
       <c r="AA57" s="17" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AB57" s="34" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AC57" s="17" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AD57" s="44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AE57" s="17">
         <v>0</v>
@@ -8818,15 +8990,18 @@
         <v>2</v>
       </c>
       <c r="AJ57" s="22" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AK57" s="16">
         <v>0</v>
       </c>
+      <c r="AL57" s="16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" s="17" customFormat="1" ht="14.25" spans="1:37">
+    <row r="58" s="17" customFormat="1" ht="14.25" spans="1:38">
       <c r="A58" s="22" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C58" s="17">
         <v>0</v>
@@ -8865,7 +9040,7 @@
         <v>2</v>
       </c>
       <c r="O58" s="17" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="P58" s="17">
         <v>0</v>
@@ -8874,34 +9049,34 @@
         <v>6</v>
       </c>
       <c r="R58" s="17" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="S58" s="33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W58" s="17">
         <v>2</v>
       </c>
       <c r="X58" s="34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y58" s="17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z58" s="17">
         <v>0</v>
       </c>
       <c r="AA58" s="17" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AB58" s="34" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AC58" s="17" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AD58" s="44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AE58" s="17">
         <v>0</v>
@@ -8919,15 +9094,18 @@
         <v>2</v>
       </c>
       <c r="AJ58" s="23" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AK58" s="17">
         <v>0</v>
       </c>
+      <c r="AL58" s="17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="59" s="18" customFormat="1" ht="14.25" spans="1:37">
+    <row r="59" s="18" customFormat="1" ht="14.25" spans="1:38">
       <c r="A59" s="23" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C59" s="18">
         <v>0</v>
@@ -8966,7 +9144,7 @@
         <v>2</v>
       </c>
       <c r="O59" s="17" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="P59" s="18">
         <v>0</v>
@@ -8975,34 +9153,34 @@
         <v>6</v>
       </c>
       <c r="R59" s="17" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="S59" s="33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W59" s="18">
         <v>2</v>
       </c>
       <c r="X59" s="34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y59" s="18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z59" s="18">
         <v>0</v>
       </c>
       <c r="AA59" s="18" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AB59" s="34" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AC59" s="18" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AD59" s="45" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AE59" s="18">
         <v>0</v>
@@ -9020,15 +9198,18 @@
         <v>2</v>
       </c>
       <c r="AJ59" s="22" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AK59" s="16">
         <v>0</v>
       </c>
+      <c r="AL59" s="16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="60" s="17" customFormat="1" spans="1:37">
+    <row r="60" s="17" customFormat="1" spans="1:38">
       <c r="A60" s="22" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C60" s="17">
         <v>0</v>
@@ -9067,7 +9248,7 @@
         <v>2</v>
       </c>
       <c r="O60" s="17" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="P60" s="17">
         <v>0</v>
@@ -9076,34 +9257,34 @@
         <v>6</v>
       </c>
       <c r="R60" s="17" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="S60" s="33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W60" s="17">
         <v>2</v>
       </c>
       <c r="X60" s="34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y60" s="17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z60" s="17">
         <v>0</v>
       </c>
       <c r="AA60" s="17" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AB60" s="34" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AC60" s="17" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AD60" s="44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AE60" s="17">
         <v>0</v>
@@ -9121,15 +9302,18 @@
         <v>2</v>
       </c>
       <c r="AJ60" s="22" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AK60" s="17">
         <v>0</v>
       </c>
+      <c r="AL60" s="17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="61" s="17" customFormat="1" ht="14.25" spans="1:37">
+    <row r="61" s="17" customFormat="1" ht="14.25" spans="1:38">
       <c r="A61" s="22" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C61" s="17">
         <v>0</v>
@@ -9168,7 +9352,7 @@
         <v>2</v>
       </c>
       <c r="O61" s="17" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="P61" s="17">
         <v>0</v>
@@ -9177,34 +9361,34 @@
         <v>6</v>
       </c>
       <c r="R61" s="17" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="S61" s="33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W61" s="17">
         <v>2</v>
       </c>
       <c r="X61" s="34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y61" s="17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z61" s="17">
         <v>0</v>
       </c>
       <c r="AA61" s="17" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AB61" s="34" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AC61" s="17" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AD61" s="44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AE61" s="17">
         <v>0</v>
@@ -9222,15 +9406,18 @@
         <v>2</v>
       </c>
       <c r="AJ61" s="23" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AK61" s="16">
         <v>0</v>
       </c>
+      <c r="AL61" s="16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="62" s="18" customFormat="1" ht="14.25" spans="1:37">
+    <row r="62" s="18" customFormat="1" ht="14.25" spans="1:38">
       <c r="A62" s="23" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C62" s="18">
         <v>0</v>
@@ -9269,7 +9456,7 @@
         <v>2</v>
       </c>
       <c r="O62" s="17" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="P62" s="18">
         <v>0</v>
@@ -9278,34 +9465,34 @@
         <v>6</v>
       </c>
       <c r="R62" s="17" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="S62" s="33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W62" s="18">
         <v>2</v>
       </c>
       <c r="X62" s="34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y62" s="18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z62" s="18">
         <v>0</v>
       </c>
       <c r="AA62" s="18" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AB62" s="34" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AC62" s="18" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AD62" s="45" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AE62" s="18">
         <v>0</v>
@@ -9323,16 +9510,19 @@
         <v>2</v>
       </c>
       <c r="AJ62" s="18" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AK62" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL62" s="17">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z7:Z9 AA8:AA9 AK7:AK9 R8:S9 X8:Y9 B7:Q9 AB7:AJ9 T7:W9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z7:Z9 AA8:AA9 AK7:AK9 AL7:AL9 R8:S9 X8:Y9 B7:Q9 AB7:AJ9 T7:W9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9361,200 +9551,200 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AB1" s="5" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AC1" s="5" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AD1" s="5" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AE1" s="5" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AF1" s="5" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="2" s="6" customFormat="1" spans="1:32">
       <c r="A2" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z2" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB2" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC2" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD2" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE2" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF2" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" s="6" customFormat="1" spans="1:32">
       <c r="A3" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B3" s="7">
         <v>0</v>
@@ -9652,7 +9842,7 @@
     </row>
     <row r="4" s="6" customFormat="1" spans="1:32">
       <c r="A4" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="6">
         <v>1</v>
@@ -9750,7 +9940,7 @@
     </row>
     <row r="5" s="6" customFormat="1" spans="1:32">
       <c r="A5" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B5" s="6">
         <v>0</v>
@@ -9848,7 +10038,7 @@
     </row>
     <row r="6" s="6" customFormat="1" spans="1:32">
       <c r="A6" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B6" s="6">
         <v>0</v>
@@ -9946,7 +10136,7 @@
     </row>
     <row r="7" s="7" customFormat="1" spans="1:32">
       <c r="A7" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B7" s="7">
         <v>0</v>
@@ -10044,7 +10234,7 @@
     </row>
     <row r="8" s="7" customFormat="1" spans="1:32">
       <c r="A8" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B8" s="7">
         <v>0</v>
@@ -10142,7 +10332,7 @@
     </row>
     <row r="9" s="7" customFormat="1" spans="1:32">
       <c r="A9" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B9" s="7">
         <v>0</v>
@@ -10240,94 +10430,94 @@
     </row>
     <row r="10" s="8" customFormat="1" ht="68.25" spans="1:32">
       <c r="A10" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F10" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>53</v>
-      </c>
       <c r="H10" s="8" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="S10" s="8" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="T10" s="8" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="U10" s="8" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="V10" s="8" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="W10" s="8" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="X10" s="8" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Y10" s="8" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Z10" s="8" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AA10" s="8" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AB10" s="8" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AC10" s="8" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AD10" s="8" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AE10" s="8" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AF10" s="8" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -10419,12 +10609,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B2" s="3">
         <v>8</v>
@@ -10432,7 +10622,7 @@
     </row>
     <row r="3" customFormat="1" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
@@ -10440,7 +10630,7 @@
     </row>
     <row r="4" customFormat="1" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
@@ -10448,7 +10638,7 @@
     </row>
     <row r="5" customFormat="1" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
@@ -10456,7 +10646,7 @@
     </row>
     <row r="6" customFormat="1" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
@@ -10464,7 +10654,7 @@
     </row>
     <row r="7" customFormat="1" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B7" s="3">
         <v>1</v>
@@ -10472,7 +10662,7 @@
     </row>
     <row r="8" customFormat="1" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -10480,7 +10670,7 @@
     </row>
     <row r="9" customFormat="1" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
@@ -10488,7 +10678,7 @@
     </row>
     <row r="10" customFormat="1" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
@@ -10496,26 +10686,26 @@
     </row>
     <row r="11" customFormat="1" spans="1:2">
       <c r="A11" s="4" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:2">
       <c r="A12" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:2">
       <c r="A13" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/_Out/NFDataCfg/Excel/NPC.xlsx
+++ b/_Out/NFDataCfg/Excel/NPC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10335"/>
+    <workbookView windowWidth="18405" windowHeight="8115" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="455">
   <si>
     <t>Id</t>
   </si>
@@ -1302,6 +1302,9 @@
     <t>BUFF_GATE</t>
   </si>
   <si>
+    <t>LUCK</t>
+  </si>
+  <si>
     <t>吸血</t>
   </si>
   <si>
@@ -1326,10 +1329,10 @@
     <t>物理防御力</t>
   </si>
   <si>
-    <t>移动速度,默认单位是10000=1米</t>
-  </si>
-  <si>
-    <t>攻击速度默认10000</t>
+    <t>移动速度,默认单位是100=1米</t>
+  </si>
+  <si>
+    <t>攻击速度默认100</t>
   </si>
   <si>
     <t>火</t>
@@ -1397,10 +1400,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1432,7 +1435,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1444,21 +1447,143 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1466,129 +1591,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1650,6 +1653,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1662,73 +1809,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1740,85 +1821,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1989,10 +1992,17 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2013,11 +2023,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2054,33 +2079,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2089,148 +2092,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2381,55 +2384,55 @@
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -2793,10 +2796,10 @@
   <sheetPr/>
   <dimension ref="A1:AL62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+    <sheetView topLeftCell="AD1" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="AL26" sqref="AL26"/>
+      <selection pane="bottomLeft" activeCell="AJ27" sqref="AJ27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2830,7 +2833,7 @@
     <col min="38" max="38" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="15" spans="1:38">
+    <row r="1" s="5" customFormat="1" spans="1:38">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2946,7 +2949,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" s="6" customFormat="1" ht="15" spans="1:38">
+    <row r="2" s="6" customFormat="1" spans="1:38">
       <c r="A2" s="10" t="s">
         <v>37</v>
       </c>
@@ -3062,7 +3065,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" s="6" customFormat="1" ht="15" spans="1:38">
+    <row r="3" s="6" customFormat="1" spans="1:38">
       <c r="A3" s="10" t="s">
         <v>42</v>
       </c>
@@ -3178,7 +3181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" s="6" customFormat="1" ht="15" spans="1:38">
+    <row r="4" s="6" customFormat="1" spans="1:38">
       <c r="A4" s="10" t="s">
         <v>43</v>
       </c>
@@ -3294,7 +3297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" s="6" customFormat="1" ht="15" spans="1:38">
+    <row r="5" s="6" customFormat="1" spans="1:38">
       <c r="A5" s="10" t="s">
         <v>44</v>
       </c>
@@ -3410,7 +3413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="6" customFormat="1" ht="15" spans="1:38">
+    <row r="6" s="6" customFormat="1" spans="1:38">
       <c r="A6" s="10" t="s">
         <v>45</v>
       </c>
@@ -9535,18 +9538,18 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AF30"/>
+  <dimension ref="A1:AG30"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AA3" sqref="AA3:AF3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G14" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="27" spans="1:32">
+    <row r="1" s="5" customFormat="1" ht="27" spans="1:33">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -9643,8 +9646,11 @@
       <c r="AF1" s="5" t="s">
         <v>423</v>
       </c>
+      <c r="AG1" s="5" t="s">
+        <v>424</v>
+      </c>
     </row>
-    <row r="2" s="6" customFormat="1" spans="1:32">
+    <row r="2" s="6" customFormat="1" spans="1:33">
       <c r="A2" s="10" t="s">
         <v>37</v>
       </c>
@@ -9741,8 +9747,11 @@
       <c r="AF2" s="6" t="s">
         <v>39</v>
       </c>
+      <c r="AG2" s="6" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="3" s="6" customFormat="1" spans="1:32">
+    <row r="3" s="6" customFormat="1" spans="1:33">
       <c r="A3" s="10" t="s">
         <v>42</v>
       </c>
@@ -9839,8 +9848,11 @@
       <c r="AF3" s="6">
         <v>1</v>
       </c>
+      <c r="AG3" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" s="6" customFormat="1" spans="1:32">
+    <row r="4" s="6" customFormat="1" spans="1:33">
       <c r="A4" s="10" t="s">
         <v>43</v>
       </c>
@@ -9937,8 +9949,11 @@
       <c r="AF4" s="6">
         <v>1</v>
       </c>
+      <c r="AG4" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" s="6" customFormat="1" spans="1:32">
+    <row r="5" s="6" customFormat="1" spans="1:33">
       <c r="A5" s="10" t="s">
         <v>44</v>
       </c>
@@ -10035,8 +10050,11 @@
       <c r="AF5" s="6">
         <v>0</v>
       </c>
+      <c r="AG5" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" s="6" customFormat="1" spans="1:32">
+    <row r="6" s="6" customFormat="1" spans="1:33">
       <c r="A6" s="10" t="s">
         <v>45</v>
       </c>
@@ -10133,8 +10151,11 @@
       <c r="AF6" s="6">
         <v>0</v>
       </c>
+      <c r="AG6" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" s="7" customFormat="1" spans="1:32">
+    <row r="7" s="7" customFormat="1" spans="1:33">
       <c r="A7" s="11" t="s">
         <v>46</v>
       </c>
@@ -10231,8 +10252,11 @@
       <c r="AF7" s="7">
         <v>0</v>
       </c>
+      <c r="AG7" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" s="7" customFormat="1" spans="1:32">
+    <row r="8" s="7" customFormat="1" spans="1:33">
       <c r="A8" s="11" t="s">
         <v>47</v>
       </c>
@@ -10329,8 +10353,11 @@
       <c r="AF8" s="7">
         <v>0</v>
       </c>
+      <c r="AG8" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" s="7" customFormat="1" spans="1:32">
+    <row r="9" s="7" customFormat="1" spans="1:33">
       <c r="A9" s="11" t="s">
         <v>48</v>
       </c>
@@ -10427,19 +10454,22 @@
       <c r="AF9" s="7">
         <v>0</v>
       </c>
+      <c r="AG9" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" s="8" customFormat="1" ht="68.25" spans="1:32">
+    <row r="10" s="8" customFormat="1" ht="54.75" spans="1:32">
       <c r="A10" s="12" t="s">
         <v>49</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>53</v>
@@ -10451,73 +10481,73 @@
         <v>54</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="S10" s="8" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="T10" s="8" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="U10" s="8" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="V10" s="8" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="W10" s="8" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="X10" s="8" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Y10" s="8" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Z10" s="8" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AA10" s="8" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AB10" s="8" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AC10" s="8" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AD10" s="8" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AE10" s="8" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AF10" s="8" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -10582,7 +10612,7 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:D3 F3:L3 N3:Q3 R3 S3:V3 W3 X3 Y3:Z3 R7:R9 W7:W9 X7:X9 B7:Q9 S7:V9 Y7:AF9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:D3 F3:L3 N3:Q3 R3 S3:V3 W3 X3 Y3:Z3 R7:R9 W7:W9 X7:X9 AG7:AG9 B7:Q9 S7:V9 Y7:AF9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
@@ -10609,12 +10639,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B2" s="3">
         <v>8</v>
@@ -10622,7 +10652,7 @@
     </row>
     <row r="3" customFormat="1" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
@@ -10686,10 +10716,10 @@
     </row>
     <row r="11" customFormat="1" spans="1:2">
       <c r="A11" s="4" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:2">

--- a/_Out/NFDataCfg/Excel/NPC.xlsx
+++ b/_Out/NFDataCfg/Excel/NPC.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27980" windowHeight="17540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27940" windowHeight="17540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="656">
   <si>
     <t>Id</t>
   </si>
@@ -927,15 +927,6 @@
     <t>Name_Item_eneger_store_3</t>
   </si>
   <si>
-    <t>Name_Item_connon_1</t>
-  </si>
-  <si>
-    <t>Name_Item_connon_2</t>
-  </si>
-  <si>
-    <t>Name_Item_connon_3</t>
-  </si>
-  <si>
     <t>Name_Item_acid_1</t>
   </si>
   <si>
@@ -1017,15 +1008,6 @@
     <t>Name_Item_laser_3</t>
   </si>
   <si>
-    <t>Name_Item_macginegun_1</t>
-  </si>
-  <si>
-    <t>Name_Item_macginegun_2</t>
-  </si>
-  <si>
-    <t>Name_Item_macginegun_3</t>
-  </si>
-  <si>
     <t>Name_Item_mortar_1</t>
   </si>
   <si>
@@ -1062,15 +1044,6 @@
     <t>Name_Item_rocket_3</t>
   </si>
   <si>
-    <t>Name_Item_rcopter_1</t>
-  </si>
-  <si>
-    <t>Name_Item_rcopter_2</t>
-  </si>
-  <si>
-    <t>Name_Item_rcopter_3</t>
-  </si>
-  <si>
     <t>Name_Item_airship_1</t>
   </si>
   <si>
@@ -1152,15 +1125,6 @@
     <t>Icon_Item_eneger_store_3</t>
   </si>
   <si>
-    <t>Icon_Item_connon_1</t>
-  </si>
-  <si>
-    <t>Icon_Item_connon_2</t>
-  </si>
-  <si>
-    <t>Icon_Item_connon_3</t>
-  </si>
-  <si>
     <t>Icon_Item_acid_1</t>
   </si>
   <si>
@@ -1242,15 +1206,6 @@
     <t>Icon_Item_laser_3</t>
   </si>
   <si>
-    <t>Icon_Item_macginegun_1</t>
-  </si>
-  <si>
-    <t>Icon_Item_macginegun_2</t>
-  </si>
-  <si>
-    <t>Icon_Item_macginegun_3</t>
-  </si>
-  <si>
     <t>Icon_Item_mortar_1</t>
   </si>
   <si>
@@ -1287,15 +1242,6 @@
     <t>Icon_Item_rocket_3</t>
   </si>
   <si>
-    <t>Icon_Item_rcopter_1</t>
-  </si>
-  <si>
-    <t>Icon_Item_rcopter_2</t>
-  </si>
-  <si>
-    <t>Icon_Item_rcopter_3</t>
-  </si>
-  <si>
     <t>Icon_Item_airship_1</t>
   </si>
   <si>
@@ -1377,15 +1323,6 @@
     <t>Desc_Item_eneger_store_3</t>
   </si>
   <si>
-    <t>Desc_Item_connon_1</t>
-  </si>
-  <si>
-    <t>Desc_Item_connon_2</t>
-  </si>
-  <si>
-    <t>Desc_Item_connon_3</t>
-  </si>
-  <si>
     <t>Desc_Item_acid_1</t>
   </si>
   <si>
@@ -1467,15 +1404,6 @@
     <t>Desc_Item_laser_3</t>
   </si>
   <si>
-    <t>Desc_Item_macginegun_1</t>
-  </si>
-  <si>
-    <t>Desc_Item_macginegun_2</t>
-  </si>
-  <si>
-    <t>Desc_Item_macginegun_3</t>
-  </si>
-  <si>
     <t>Desc_Item_mortar_1</t>
   </si>
   <si>
@@ -1512,15 +1440,6 @@
     <t>Desc_Item_rocket_3</t>
   </si>
   <si>
-    <t>Desc_Item_rcopter_1</t>
-  </si>
-  <si>
-    <t>Desc_Item_rcopter_2</t>
-  </si>
-  <si>
-    <t>Desc_Item_rcopter_3</t>
-  </si>
-  <si>
     <t>Desc_Item_airship_1</t>
   </si>
   <si>
@@ -1602,15 +1521,6 @@
     <t>Building_NPC_eneger_store_3</t>
   </si>
   <si>
-    <t>Building_NPC_connon_1</t>
-  </si>
-  <si>
-    <t>Building_NPC_connon_2</t>
-  </si>
-  <si>
-    <t>Building_NPC_connon_3</t>
-  </si>
-  <si>
     <t>Building_NPC_acid_1</t>
   </si>
   <si>
@@ -1692,15 +1602,6 @@
     <t>Building_NPC_laser_3</t>
   </si>
   <si>
-    <t>Building_NPC_macginegun_1</t>
-  </si>
-  <si>
-    <t>Building_NPC_macginegun_2</t>
-  </si>
-  <si>
-    <t>Building_NPC_macginegun_3</t>
-  </si>
-  <si>
     <t>Building_NPC_mortar_1</t>
   </si>
   <si>
@@ -1737,15 +1638,6 @@
     <t>Building_NPC_rocket_3</t>
   </si>
   <si>
-    <t>Building_NPC_rcopter_1</t>
-  </si>
-  <si>
-    <t>Building_NPC_rcopter_2</t>
-  </si>
-  <si>
-    <t>Building_NPC_rcopter_3</t>
-  </si>
-  <si>
     <t>Building_NPC_airship_1</t>
   </si>
   <si>
@@ -1827,15 +1719,6 @@
     <t>Prefabs/Build/Building_NPC_eneger_store_3</t>
   </si>
   <si>
-    <t>Prefabs/Build/Building_NPC_connon_1</t>
-  </si>
-  <si>
-    <t>Prefabs/Build/Building_NPC_connon_2</t>
-  </si>
-  <si>
-    <t>Prefabs/Build/Building_NPC_connon_3</t>
-  </si>
-  <si>
     <t>Prefabs/Build/Building_NPC_acid_1</t>
   </si>
   <si>
@@ -1917,15 +1800,6 @@
     <t>Prefabs/Build/Building_NPC_laser_3</t>
   </si>
   <si>
-    <t>Prefabs/Build/Building_NPC_macginegun_1</t>
-  </si>
-  <si>
-    <t>Prefabs/Build/Building_NPC_macginegun_2</t>
-  </si>
-  <si>
-    <t>Prefabs/Build/Building_NPC_macginegun_3</t>
-  </si>
-  <si>
     <t>Prefabs/Build/Building_NPC_mortar_1</t>
   </si>
   <si>
@@ -1962,15 +1836,6 @@
     <t>Prefabs/Build/Building_NPC_rocket_3</t>
   </si>
   <si>
-    <t>Prefabs/Build/Building_NPC_rcopter_1</t>
-  </si>
-  <si>
-    <t>Prefabs/Build/Building_NPC_rcopter_2</t>
-  </si>
-  <si>
-    <t>Prefabs/Build/Building_NPC_rcopter_3</t>
-  </si>
-  <si>
     <t>Prefabs/Build/Building_NPC_airship_1</t>
   </si>
   <si>
@@ -2005,6 +1870,147 @@
   </si>
   <si>
     <t>Prefabs/Build/Building_NPC_spine_3</t>
+  </si>
+  <si>
+    <t>Building_NPC_machinegun_1</t>
+  </si>
+  <si>
+    <t>Building_NPC_machinegun_2</t>
+  </si>
+  <si>
+    <t>Building_NPC_machinegun_3</t>
+  </si>
+  <si>
+    <t>Prefabs/Build/Building_NPC_machinegun_3</t>
+  </si>
+  <si>
+    <t>Prefabs/Build/Building_NPC_machinegun_2</t>
+  </si>
+  <si>
+    <t>Prefabs/Build/Building_NPC_machinegun_1</t>
+  </si>
+  <si>
+    <t>Name_Item_machinegun_1</t>
+  </si>
+  <si>
+    <t>Name_Item_machinegun_2</t>
+  </si>
+  <si>
+    <t>Name_Item_machinegun_3</t>
+  </si>
+  <si>
+    <t>Icon_Item_machinegun_1</t>
+  </si>
+  <si>
+    <t>Icon_Item_machinegun_2</t>
+  </si>
+  <si>
+    <t>Icon_Item_machinegun_3</t>
+  </si>
+  <si>
+    <t>Desc_Item_machinegun_1</t>
+  </si>
+  <si>
+    <t>Desc_Item_machinegun_2</t>
+  </si>
+  <si>
+    <t>Desc_Item_machinegun_3</t>
+  </si>
+  <si>
+    <t>Desc_Item_copter_1</t>
+  </si>
+  <si>
+    <t>Desc_Item_copter_2</t>
+  </si>
+  <si>
+    <t>Desc_Item_copter_3</t>
+  </si>
+  <si>
+    <t>Building_NPC_copter_1</t>
+  </si>
+  <si>
+    <t>Building_NPC_copter_2</t>
+  </si>
+  <si>
+    <t>Building_NPC_copter_3</t>
+  </si>
+  <si>
+    <t>Prefabs/Build/Building_NPC_copter_3</t>
+  </si>
+  <si>
+    <t>Prefabs/Build/Building_NPC_copter_2</t>
+  </si>
+  <si>
+    <t>Prefabs/Build/Building_NPC_copter_1</t>
+  </si>
+  <si>
+    <t>Name_Item_copter_1</t>
+  </si>
+  <si>
+    <t>Name_Item_copter_2</t>
+  </si>
+  <si>
+    <t>Name_Item_copter_3</t>
+  </si>
+  <si>
+    <t>Icon_Item_copter_3</t>
+  </si>
+  <si>
+    <t>Icon_Item_copter_2</t>
+  </si>
+  <si>
+    <t>Icon_Item_copter_1</t>
+  </si>
+  <si>
+    <t>Building_NPC_cannon_1</t>
+  </si>
+  <si>
+    <t>Building_NPC_cannon_2</t>
+  </si>
+  <si>
+    <t>Building_NPC_cannon_3</t>
+  </si>
+  <si>
+    <t>Prefabs/Build/Building_NPC_cannon_1</t>
+  </si>
+  <si>
+    <t>Prefabs/Build/Building_NPC_cannon_2</t>
+  </si>
+  <si>
+    <t>Prefabs/Build/Building_NPC_cannon_3</t>
+  </si>
+  <si>
+    <t>Name_Item_cannon_1</t>
+  </si>
+  <si>
+    <t>Name_Item_cannon_2</t>
+  </si>
+  <si>
+    <t>Name_Item_cannon_3</t>
+  </si>
+  <si>
+    <t>Icon_Item_cannon_1</t>
+  </si>
+  <si>
+    <t>Icon_Item_cannon_2</t>
+  </si>
+  <si>
+    <t>Icon_Item_cannon_3</t>
+  </si>
+  <si>
+    <t>Desc_Item_cannon_1</t>
+  </si>
+  <si>
+    <t>Desc_Item_cannon_2</t>
+  </si>
+  <si>
+    <t>Desc_Item_cannon_3</t>
+  </si>
+  <si>
+    <t>Building_common_skill</t>
+  </si>
+  <si>
+    <t>MasterName</t>
   </si>
 </sst>
 </file>
@@ -2788,11 +2794,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM26"/>
+  <dimension ref="A1:AN26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="AC1" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD41" sqref="AD41"/>
+      <selection pane="bottomLeft" activeCell="AH11" sqref="AH11:AH26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2820,14 +2826,14 @@
     <col min="29" max="29" width="26.1640625" customWidth="1"/>
     <col min="30" max="30" width="36" customWidth="1"/>
     <col min="31" max="31" width="10" customWidth="1"/>
-    <col min="33" max="34" width="12.6640625" customWidth="1"/>
-    <col min="36" max="36" width="12.1640625" customWidth="1"/>
-    <col min="37" max="37" width="25" customWidth="1"/>
-    <col min="38" max="38" width="11.83203125" customWidth="1"/>
-    <col min="39" max="39" width="21.1640625" customWidth="1"/>
+    <col min="33" max="35" width="12.6640625" customWidth="1"/>
+    <col min="37" max="37" width="12.1640625" customWidth="1"/>
+    <col min="38" max="38" width="25" customWidth="1"/>
+    <col min="39" max="39" width="11.83203125" customWidth="1"/>
+    <col min="40" max="40" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:40" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2928,25 +2934,28 @@
         <v>31</v>
       </c>
       <c r="AH1" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="AI1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AK1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AL1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AM1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AN1" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:39" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:40" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>38</v>
       </c>
@@ -3041,31 +3050,34 @@
         <v>40</v>
       </c>
       <c r="AF2" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AG2" s="6" t="s">
         <v>42</v>
       </c>
       <c r="AH2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI2" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="AI2" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="AJ2" s="6" t="s">
         <v>40</v>
       </c>
       <c r="AK2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL2" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="AL2" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="AM2" s="6" t="s">
         <v>40</v>
       </c>
+      <c r="AN2" s="6" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="3" spans="1:39" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:40" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
         <v>43</v>
       </c>
@@ -3183,8 +3195,11 @@
       <c r="AM3" s="6">
         <v>1</v>
       </c>
+      <c r="AN3" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:39" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:40" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
         <v>44</v>
       </c>
@@ -3302,8 +3317,11 @@
       <c r="AM4" s="6">
         <v>1</v>
       </c>
+      <c r="AN4" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:39" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:40" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>45</v>
       </c>
@@ -3407,7 +3425,7 @@
         <v>1</v>
       </c>
       <c r="AI5" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ5" s="6">
         <v>0</v>
@@ -3421,8 +3439,11 @@
       <c r="AM5" s="6">
         <v>0</v>
       </c>
+      <c r="AN5" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:39" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:40" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
         <v>46</v>
       </c>
@@ -3540,8 +3561,11 @@
       <c r="AM6" s="6">
         <v>0</v>
       </c>
+      <c r="AN6" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:39" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:40" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="11" t="s">
         <v>47</v>
       </c>
@@ -3659,8 +3683,11 @@
       <c r="AM7" s="7">
         <v>0</v>
       </c>
+      <c r="AN7" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:39" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:40" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11" t="s">
         <v>48</v>
       </c>
@@ -3778,8 +3805,11 @@
       <c r="AM8" s="7">
         <v>0</v>
       </c>
+      <c r="AN8" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:39" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:40" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="11" t="s">
         <v>49</v>
       </c>
@@ -3897,8 +3927,11 @@
       <c r="AM9" s="7">
         <v>0</v>
       </c>
+      <c r="AN9" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:39" s="8" customFormat="1" ht="56" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:40" s="8" customFormat="1" ht="57" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>50</v>
       </c>
@@ -3984,25 +4017,28 @@
         <v>74</v>
       </c>
       <c r="AH10" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI10" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="AI10" s="8" t="s">
+      <c r="AJ10" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="AJ10" s="8" t="s">
+      <c r="AK10" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="AK10" s="8" t="s">
+      <c r="AL10" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AL10" s="8" t="s">
+      <c r="AM10" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="AM10" s="8" t="s">
+      <c r="AN10" s="8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>81</v>
       </c>
@@ -4040,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O11" t="s">
         <v>82</v>
@@ -4091,26 +4127,27 @@
       <c r="AG11">
         <v>0</v>
       </c>
-      <c r="AH11">
-        <v>0</v>
-      </c>
+      <c r="AH11" s="14"/>
       <c r="AI11">
         <v>0</v>
       </c>
       <c r="AJ11">
         <v>0</v>
       </c>
-      <c r="AK11" t="s">
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11" t="s">
         <v>81</v>
       </c>
-      <c r="AL11">
-        <v>0</v>
-      </c>
       <c r="AM11">
         <v>0</v>
       </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>90</v>
       </c>
@@ -4148,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O12" t="s">
         <v>91</v>
@@ -4207,26 +4244,27 @@
       <c r="AG12">
         <v>0</v>
       </c>
-      <c r="AH12">
-        <v>0</v>
-      </c>
+      <c r="AH12" s="15"/>
       <c r="AI12">
         <v>0</v>
       </c>
       <c r="AJ12">
         <v>0</v>
       </c>
-      <c r="AK12" t="s">
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12" t="s">
         <v>97</v>
       </c>
-      <c r="AL12">
-        <v>0</v>
-      </c>
       <c r="AM12">
         <v>0</v>
       </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>98</v>
       </c>
@@ -4323,26 +4361,27 @@
       <c r="AG13">
         <v>0</v>
       </c>
-      <c r="AH13">
-        <v>0</v>
-      </c>
+      <c r="AH13" s="14"/>
       <c r="AI13">
         <v>0</v>
       </c>
       <c r="AJ13">
         <v>0</v>
       </c>
-      <c r="AK13" t="s">
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13" t="s">
         <v>105</v>
       </c>
-      <c r="AL13">
-        <v>0</v>
-      </c>
       <c r="AM13">
         <v>0</v>
       </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>106</v>
       </c>
@@ -4439,26 +4478,27 @@
       <c r="AG14">
         <v>0</v>
       </c>
-      <c r="AH14">
-        <v>0</v>
-      </c>
+      <c r="AH14" s="15"/>
       <c r="AI14">
         <v>0</v>
       </c>
       <c r="AJ14">
         <v>0</v>
       </c>
-      <c r="AK14" t="s">
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14" t="s">
         <v>113</v>
       </c>
-      <c r="AL14">
-        <v>0</v>
-      </c>
       <c r="AM14">
         <v>0</v>
       </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>114</v>
       </c>
@@ -4555,26 +4595,27 @@
       <c r="AG15">
         <v>0</v>
       </c>
-      <c r="AH15">
-        <v>0</v>
-      </c>
+      <c r="AH15" s="14"/>
       <c r="AI15">
         <v>0</v>
       </c>
       <c r="AJ15">
         <v>0</v>
       </c>
-      <c r="AK15" t="s">
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15" t="s">
         <v>121</v>
       </c>
-      <c r="AL15">
-        <v>0</v>
-      </c>
       <c r="AM15">
         <v>0</v>
       </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>122</v>
       </c>
@@ -4671,26 +4712,27 @@
       <c r="AG16">
         <v>0</v>
       </c>
-      <c r="AH16">
-        <v>0</v>
-      </c>
+      <c r="AH16" s="15"/>
       <c r="AI16">
         <v>0</v>
       </c>
       <c r="AJ16">
         <v>0</v>
       </c>
-      <c r="AK16" t="s">
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16" t="s">
         <v>129</v>
       </c>
-      <c r="AL16">
-        <v>0</v>
-      </c>
       <c r="AM16">
         <v>0</v>
       </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>130</v>
       </c>
@@ -4787,26 +4829,27 @@
       <c r="AG17">
         <v>0</v>
       </c>
-      <c r="AH17">
-        <v>0</v>
-      </c>
+      <c r="AH17" s="14"/>
       <c r="AI17">
         <v>0</v>
       </c>
       <c r="AJ17">
         <v>0</v>
       </c>
-      <c r="AK17" t="s">
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17" t="s">
         <v>138</v>
       </c>
-      <c r="AL17">
-        <v>0</v>
-      </c>
       <c r="AM17">
         <v>0</v>
       </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>139</v>
       </c>
@@ -4903,26 +4946,27 @@
       <c r="AG18">
         <v>0</v>
       </c>
-      <c r="AH18">
-        <v>0</v>
-      </c>
+      <c r="AH18" s="15"/>
       <c r="AI18">
         <v>0</v>
       </c>
       <c r="AJ18">
         <v>0</v>
       </c>
-      <c r="AK18" t="s">
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18" t="s">
         <v>144</v>
       </c>
-      <c r="AL18">
-        <v>0</v>
-      </c>
       <c r="AM18">
         <v>0</v>
       </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>145</v>
       </c>
@@ -5019,26 +5063,27 @@
       <c r="AG19">
         <v>0</v>
       </c>
-      <c r="AH19">
-        <v>0</v>
-      </c>
+      <c r="AH19" s="14"/>
       <c r="AI19">
         <v>0</v>
       </c>
       <c r="AJ19">
         <v>0</v>
       </c>
-      <c r="AK19" t="s">
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19" t="s">
         <v>152</v>
       </c>
-      <c r="AL19">
-        <v>0</v>
-      </c>
       <c r="AM19">
         <v>0</v>
       </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>153</v>
       </c>
@@ -5135,26 +5180,27 @@
       <c r="AG20">
         <v>0</v>
       </c>
-      <c r="AH20">
-        <v>0</v>
-      </c>
+      <c r="AH20" s="15"/>
       <c r="AI20">
         <v>0</v>
       </c>
       <c r="AJ20">
         <v>0</v>
       </c>
-      <c r="AK20" t="s">
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20" t="s">
         <v>157</v>
       </c>
-      <c r="AL20">
-        <v>0</v>
-      </c>
       <c r="AM20">
         <v>0</v>
       </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>158</v>
       </c>
@@ -5251,26 +5297,27 @@
       <c r="AG21">
         <v>0</v>
       </c>
-      <c r="AH21">
-        <v>0</v>
-      </c>
+      <c r="AH21" s="14"/>
       <c r="AI21">
         <v>0</v>
       </c>
       <c r="AJ21">
         <v>0</v>
       </c>
-      <c r="AK21" t="s">
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21" t="s">
         <v>165</v>
       </c>
-      <c r="AL21">
-        <v>0</v>
-      </c>
       <c r="AM21">
         <v>0</v>
       </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>166</v>
       </c>
@@ -5367,26 +5414,27 @@
       <c r="AG22">
         <v>0</v>
       </c>
-      <c r="AH22">
-        <v>0</v>
-      </c>
+      <c r="AH22" s="15"/>
       <c r="AI22">
         <v>0</v>
       </c>
       <c r="AJ22">
         <v>0</v>
       </c>
-      <c r="AK22" s="46" t="s">
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="46" t="s">
         <v>169</v>
       </c>
-      <c r="AL22">
-        <v>0</v>
-      </c>
       <c r="AM22">
         <v>0</v>
       </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:39" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:40" s="33" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="35" t="s">
         <v>170</v>
       </c>
@@ -5483,26 +5531,27 @@
       <c r="AG23" s="33">
         <v>0</v>
       </c>
-      <c r="AH23" s="33">
-        <v>0</v>
-      </c>
+      <c r="AH23" s="14"/>
       <c r="AI23" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="33">
         <v>1</v>
       </c>
-      <c r="AK23" s="36" t="s">
+      <c r="AK23" s="33">
+        <v>1</v>
+      </c>
+      <c r="AL23" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="AL23" s="33">
-        <v>1</v>
-      </c>
       <c r="AM23" s="33">
+        <v>1</v>
+      </c>
+      <c r="AN23" s="33">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:39" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:40" s="34" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="36" t="s">
         <v>179</v>
       </c>
@@ -5599,26 +5648,27 @@
       <c r="AG24" s="34">
         <v>0</v>
       </c>
-      <c r="AH24" s="34">
-        <v>0</v>
-      </c>
+      <c r="AH24" s="15"/>
       <c r="AI24" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="34">
         <v>1</v>
       </c>
-      <c r="AK24" s="36" t="s">
+      <c r="AK24" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL24" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="AL24" s="34">
-        <v>1</v>
-      </c>
       <c r="AM24" s="34">
+        <v>1</v>
+      </c>
+      <c r="AN24" s="34">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:39" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:40" s="34" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="36" t="s">
         <v>189</v>
       </c>
@@ -5715,26 +5765,27 @@
       <c r="AG25" s="34">
         <v>0</v>
       </c>
-      <c r="AH25" s="34">
-        <v>0</v>
-      </c>
+      <c r="AH25" s="14"/>
       <c r="AI25" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="34">
         <v>1</v>
       </c>
-      <c r="AK25" s="36" t="s">
+      <c r="AK25" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL25" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="AL25" s="34">
-        <v>1</v>
-      </c>
       <c r="AM25" s="34">
+        <v>1</v>
+      </c>
+      <c r="AN25" s="34">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:39" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:40" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="36" t="s">
         <v>199</v>
       </c>
@@ -5831,29 +5882,30 @@
       <c r="AG26" s="34">
         <v>0</v>
       </c>
-      <c r="AH26" s="34">
-        <v>0</v>
-      </c>
+      <c r="AH26" s="15"/>
       <c r="AI26" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="34">
         <v>1</v>
       </c>
-      <c r="AK26" s="47" t="s">
+      <c r="AK26" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL26" s="47" t="s">
         <v>208</v>
       </c>
-      <c r="AL26" s="34">
-        <v>1</v>
-      </c>
       <c r="AM26" s="34">
+        <v>1</v>
+      </c>
+      <c r="AN26" s="34">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z7:Z9 AA8:AA9 AJ7:AJ9 AK7:AK9 AL7:AL9 AM7:AM9 R8:S9 X8:Y9 B7:Q9 T7:W9 AB7:AI9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z7:Z9 AA8:AA9 R8:S9 X8:Y9 B7:Q9 T7:W9 AB7:AN9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5865,11 +5917,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM85"/>
+  <dimension ref="A1:AN85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A83" sqref="A83"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AH11" sqref="AH11:AH85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -5897,14 +5949,14 @@
     <col min="29" max="29" width="26.1640625" customWidth="1"/>
     <col min="30" max="30" width="36" customWidth="1"/>
     <col min="31" max="31" width="10" customWidth="1"/>
-    <col min="33" max="34" width="12.6640625" customWidth="1"/>
-    <col min="36" max="36" width="12.1640625" customWidth="1"/>
-    <col min="37" max="37" width="25" customWidth="1"/>
-    <col min="38" max="38" width="11.83203125" customWidth="1"/>
-    <col min="39" max="39" width="21.1640625" customWidth="1"/>
+    <col min="33" max="35" width="12.6640625" customWidth="1"/>
+    <col min="37" max="37" width="12.1640625" customWidth="1"/>
+    <col min="38" max="38" width="25" customWidth="1"/>
+    <col min="39" max="39" width="11.83203125" customWidth="1"/>
+    <col min="40" max="40" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:40" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -6005,25 +6057,28 @@
         <v>31</v>
       </c>
       <c r="AH1" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="AI1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AK1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AL1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AM1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AN1" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:39" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:40" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>38</v>
       </c>
@@ -6118,31 +6173,34 @@
         <v>40</v>
       </c>
       <c r="AF2" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AG2" s="6" t="s">
         <v>42</v>
       </c>
       <c r="AH2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI2" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="AI2" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="AJ2" s="6" t="s">
         <v>40</v>
       </c>
       <c r="AK2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL2" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="AL2" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="AM2" s="6" t="s">
         <v>40</v>
       </c>
+      <c r="AN2" s="6" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="3" spans="1:39" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:40" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
         <v>43</v>
       </c>
@@ -6260,8 +6318,11 @@
       <c r="AM3" s="6">
         <v>1</v>
       </c>
+      <c r="AN3" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:39" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:40" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
         <v>44</v>
       </c>
@@ -6379,8 +6440,11 @@
       <c r="AM4" s="6">
         <v>1</v>
       </c>
+      <c r="AN4" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:39" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:40" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>45</v>
       </c>
@@ -6484,7 +6548,7 @@
         <v>1</v>
       </c>
       <c r="AI5" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ5" s="6">
         <v>0</v>
@@ -6498,8 +6562,11 @@
       <c r="AM5" s="6">
         <v>0</v>
       </c>
+      <c r="AN5" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:39" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:40" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
         <v>46</v>
       </c>
@@ -6617,8 +6684,11 @@
       <c r="AM6" s="6">
         <v>0</v>
       </c>
+      <c r="AN6" s="6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:39" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:40" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="11" t="s">
         <v>47</v>
       </c>
@@ -6736,8 +6806,11 @@
       <c r="AM7" s="7">
         <v>0</v>
       </c>
+      <c r="AN7" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:39" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:40" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11" t="s">
         <v>48</v>
       </c>
@@ -6855,8 +6928,11 @@
       <c r="AM8" s="7">
         <v>0</v>
       </c>
+      <c r="AN8" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:39" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:40" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="11" t="s">
         <v>49</v>
       </c>
@@ -6974,8 +7050,11 @@
       <c r="AM9" s="7">
         <v>0</v>
       </c>
+      <c r="AN9" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:39" s="8" customFormat="1" ht="56" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:40" s="8" customFormat="1" ht="56" x14ac:dyDescent="0.15">
       <c r="A10" s="12" t="s">
         <v>50</v>
       </c>
@@ -7061,27 +7140,30 @@
         <v>74</v>
       </c>
       <c r="AH10" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI10" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="AI10" s="8" t="s">
+      <c r="AJ10" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="AJ10" s="8" t="s">
+      <c r="AK10" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="AK10" s="8" t="s">
+      <c r="AL10" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AL10" s="8" t="s">
+      <c r="AM10" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="AM10" s="8" t="s">
+      <c r="AN10" s="8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:40" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="17" t="s">
-        <v>504</v>
+        <v>477</v>
       </c>
       <c r="C11" s="14">
         <v>0</v>
@@ -7120,7 +7202,7 @@
         <v>2</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>579</v>
+        <v>543</v>
       </c>
       <c r="P11" s="14">
         <v>0</v>
@@ -7134,8 +7216,11 @@
       <c r="S11" s="23" t="s">
         <v>84</v>
       </c>
+      <c r="T11" s="14" t="s">
+        <v>654</v>
+      </c>
       <c r="W11" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X11" s="24" t="s">
         <v>85</v>
@@ -7153,7 +7238,7 @@
         <v>210</v>
       </c>
       <c r="AC11" s="48" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="AD11" s="30" t="s">
         <v>89</v>
@@ -7167,28 +7252,28 @@
       <c r="AG11" s="14">
         <v>0</v>
       </c>
-      <c r="AH11" s="14">
-        <v>0</v>
-      </c>
       <c r="AI11" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="14">
         <v>2</v>
       </c>
-      <c r="AK11" s="48" t="s">
-        <v>429</v>
-      </c>
-      <c r="AL11" s="14">
-        <v>0</v>
+      <c r="AK11" s="14">
+        <v>2</v>
+      </c>
+      <c r="AL11" s="48" t="s">
+        <v>411</v>
       </c>
       <c r="AM11" s="14">
         <v>0</v>
       </c>
+      <c r="AN11" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:39" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:40" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="18" t="s">
-        <v>505</v>
+        <v>478</v>
       </c>
       <c r="C12" s="15">
         <v>0</v>
@@ -7227,7 +7312,7 @@
         <v>2</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>580</v>
+        <v>544</v>
       </c>
       <c r="P12" s="15">
         <v>0</v>
@@ -7241,8 +7326,11 @@
       <c r="S12" s="23" t="s">
         <v>84</v>
       </c>
+      <c r="T12" s="15" t="s">
+        <v>654</v>
+      </c>
       <c r="W12" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X12" s="24" t="s">
         <v>85</v>
@@ -7260,7 +7348,7 @@
         <v>210</v>
       </c>
       <c r="AC12" s="48" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="AD12" s="31" t="s">
         <v>89</v>
@@ -7274,28 +7362,28 @@
       <c r="AG12" s="15">
         <v>0</v>
       </c>
-      <c r="AH12" s="15">
-        <v>0</v>
-      </c>
       <c r="AI12" s="15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="15">
         <v>2</v>
       </c>
-      <c r="AK12" s="48" t="s">
-        <v>430</v>
-      </c>
-      <c r="AL12" s="15">
-        <v>0</v>
+      <c r="AK12" s="15">
+        <v>2</v>
+      </c>
+      <c r="AL12" s="48" t="s">
+        <v>412</v>
       </c>
       <c r="AM12" s="15">
         <v>0</v>
       </c>
+      <c r="AN12" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:39" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:40" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="18" t="s">
-        <v>506</v>
+        <v>479</v>
       </c>
       <c r="C13" s="15">
         <v>0</v>
@@ -7334,7 +7422,7 @@
         <v>2</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>581</v>
+        <v>545</v>
       </c>
       <c r="P13" s="15">
         <v>0</v>
@@ -7348,8 +7436,11 @@
       <c r="S13" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="W13" s="15">
-        <v>2</v>
+      <c r="T13" s="14" t="s">
+        <v>654</v>
+      </c>
+      <c r="W13" s="14">
+        <v>4</v>
       </c>
       <c r="X13" s="24" t="s">
         <v>85</v>
@@ -7367,7 +7458,7 @@
         <v>210</v>
       </c>
       <c r="AC13" s="48" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="AD13" s="31" t="s">
         <v>89</v>
@@ -7381,28 +7472,29 @@
       <c r="AG13" s="15">
         <v>0</v>
       </c>
-      <c r="AH13" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="14">
-        <v>2</v>
+      <c r="AH13" s="14"/>
+      <c r="AI13" s="15">
+        <v>0</v>
       </c>
       <c r="AJ13" s="14">
         <v>2</v>
       </c>
-      <c r="AK13" s="48" t="s">
-        <v>431</v>
-      </c>
-      <c r="AL13" s="14">
-        <v>0</v>
+      <c r="AK13" s="14">
+        <v>2</v>
+      </c>
+      <c r="AL13" s="48" t="s">
+        <v>413</v>
       </c>
       <c r="AM13" s="14">
         <v>0</v>
       </c>
+      <c r="AN13" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:39" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:40" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="18" t="s">
-        <v>507</v>
+        <v>480</v>
       </c>
       <c r="C14" s="15">
         <v>0</v>
@@ -7441,7 +7533,7 @@
         <v>2</v>
       </c>
       <c r="O14" s="15" t="s">
-        <v>582</v>
+        <v>546</v>
       </c>
       <c r="P14" s="15">
         <v>0</v>
@@ -7455,8 +7547,11 @@
       <c r="S14" s="23" t="s">
         <v>84</v>
       </c>
+      <c r="T14" s="15" t="s">
+        <v>654</v>
+      </c>
       <c r="W14" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X14" s="24" t="s">
         <v>85</v>
@@ -7474,7 +7569,7 @@
         <v>210</v>
       </c>
       <c r="AC14" s="48" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="AD14" s="31" t="s">
         <v>89</v>
@@ -7488,28 +7583,28 @@
       <c r="AG14" s="15">
         <v>0</v>
       </c>
-      <c r="AH14" s="15">
-        <v>0</v>
-      </c>
       <c r="AI14" s="15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="15">
         <v>2</v>
       </c>
-      <c r="AK14" s="48" t="s">
-        <v>432</v>
-      </c>
-      <c r="AL14" s="15">
-        <v>0</v>
+      <c r="AK14" s="15">
+        <v>2</v>
+      </c>
+      <c r="AL14" s="48" t="s">
+        <v>414</v>
       </c>
       <c r="AM14" s="15">
         <v>0</v>
       </c>
+      <c r="AN14" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:39" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:40" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="18" t="s">
-        <v>508</v>
+        <v>481</v>
       </c>
       <c r="C15" s="15">
         <v>0</v>
@@ -7548,7 +7643,7 @@
         <v>2</v>
       </c>
       <c r="O15" s="15" t="s">
-        <v>583</v>
+        <v>547</v>
       </c>
       <c r="P15" s="15">
         <v>0</v>
@@ -7562,8 +7657,11 @@
       <c r="S15" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="W15" s="15">
-        <v>2</v>
+      <c r="T15" s="14" t="s">
+        <v>654</v>
+      </c>
+      <c r="W15" s="14">
+        <v>4</v>
       </c>
       <c r="X15" s="24" t="s">
         <v>85</v>
@@ -7581,7 +7679,7 @@
         <v>210</v>
       </c>
       <c r="AC15" s="48" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="AD15" s="31" t="s">
         <v>89</v>
@@ -7595,28 +7693,29 @@
       <c r="AG15" s="15">
         <v>0</v>
       </c>
-      <c r="AH15" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI15" s="14">
-        <v>2</v>
+      <c r="AH15" s="14"/>
+      <c r="AI15" s="15">
+        <v>0</v>
       </c>
       <c r="AJ15" s="14">
         <v>2</v>
       </c>
-      <c r="AK15" s="48" t="s">
-        <v>433</v>
-      </c>
-      <c r="AL15" s="14">
-        <v>0</v>
+      <c r="AK15" s="14">
+        <v>2</v>
+      </c>
+      <c r="AL15" s="48" t="s">
+        <v>415</v>
       </c>
       <c r="AM15" s="14">
         <v>0</v>
       </c>
+      <c r="AN15" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:39" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:40" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="18" t="s">
-        <v>509</v>
+        <v>482</v>
       </c>
       <c r="C16" s="15">
         <v>0</v>
@@ -7655,7 +7754,7 @@
         <v>2</v>
       </c>
       <c r="O16" s="15" t="s">
-        <v>584</v>
+        <v>548</v>
       </c>
       <c r="P16" s="15">
         <v>0</v>
@@ -7669,8 +7768,11 @@
       <c r="S16" s="23" t="s">
         <v>84</v>
       </c>
+      <c r="T16" s="15" t="s">
+        <v>654</v>
+      </c>
       <c r="W16" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X16" s="24" t="s">
         <v>85</v>
@@ -7688,7 +7790,7 @@
         <v>210</v>
       </c>
       <c r="AC16" s="48" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="AD16" s="31" t="s">
         <v>89</v>
@@ -7702,28 +7804,28 @@
       <c r="AG16" s="15">
         <v>0</v>
       </c>
-      <c r="AH16" s="15">
-        <v>0</v>
-      </c>
       <c r="AI16" s="15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="15">
         <v>2</v>
       </c>
-      <c r="AK16" s="48" t="s">
-        <v>434</v>
-      </c>
-      <c r="AL16" s="15">
-        <v>0</v>
+      <c r="AK16" s="15">
+        <v>2</v>
+      </c>
+      <c r="AL16" s="48" t="s">
+        <v>416</v>
       </c>
       <c r="AM16" s="15">
         <v>0</v>
       </c>
+      <c r="AN16" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:39" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:40" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="18" t="s">
-        <v>510</v>
+        <v>483</v>
       </c>
       <c r="C17" s="15">
         <v>0</v>
@@ -7762,7 +7864,7 @@
         <v>2</v>
       </c>
       <c r="O17" s="15" t="s">
-        <v>585</v>
+        <v>549</v>
       </c>
       <c r="P17" s="15">
         <v>0</v>
@@ -7776,8 +7878,11 @@
       <c r="S17" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="W17" s="15">
-        <v>2</v>
+      <c r="T17" s="14" t="s">
+        <v>654</v>
+      </c>
+      <c r="W17" s="14">
+        <v>4</v>
       </c>
       <c r="X17" s="24" t="s">
         <v>85</v>
@@ -7795,7 +7900,7 @@
         <v>210</v>
       </c>
       <c r="AC17" s="48" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="AD17" s="31" t="s">
         <v>89</v>
@@ -7809,28 +7914,29 @@
       <c r="AG17" s="15">
         <v>0</v>
       </c>
-      <c r="AH17" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI17" s="14">
-        <v>2</v>
+      <c r="AH17" s="14"/>
+      <c r="AI17" s="15">
+        <v>0</v>
       </c>
       <c r="AJ17" s="14">
         <v>2</v>
       </c>
-      <c r="AK17" s="48" t="s">
-        <v>435</v>
-      </c>
-      <c r="AL17" s="14">
-        <v>0</v>
+      <c r="AK17" s="14">
+        <v>2</v>
+      </c>
+      <c r="AL17" s="48" t="s">
+        <v>417</v>
       </c>
       <c r="AM17" s="14">
         <v>0</v>
       </c>
+      <c r="AN17" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:39" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:40" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="18" t="s">
-        <v>511</v>
+        <v>484</v>
       </c>
       <c r="C18" s="15">
         <v>0</v>
@@ -7869,7 +7975,7 @@
         <v>2</v>
       </c>
       <c r="O18" s="15" t="s">
-        <v>586</v>
+        <v>550</v>
       </c>
       <c r="P18" s="15">
         <v>0</v>
@@ -7883,8 +7989,11 @@
       <c r="S18" s="23" t="s">
         <v>84</v>
       </c>
+      <c r="T18" s="15" t="s">
+        <v>654</v>
+      </c>
       <c r="W18" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X18" s="24" t="s">
         <v>85</v>
@@ -7902,7 +8011,7 @@
         <v>210</v>
       </c>
       <c r="AC18" s="48" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="AD18" s="31" t="s">
         <v>89</v>
@@ -7916,28 +8025,28 @@
       <c r="AG18" s="15">
         <v>0</v>
       </c>
-      <c r="AH18" s="15">
-        <v>0</v>
-      </c>
       <c r="AI18" s="15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="15">
         <v>2</v>
       </c>
-      <c r="AK18" s="48" t="s">
-        <v>436</v>
-      </c>
-      <c r="AL18" s="15">
-        <v>0</v>
+      <c r="AK18" s="15">
+        <v>2</v>
+      </c>
+      <c r="AL18" s="48" t="s">
+        <v>418</v>
       </c>
       <c r="AM18" s="15">
         <v>0</v>
       </c>
+      <c r="AN18" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:39" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:40" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="18" t="s">
-        <v>512</v>
+        <v>485</v>
       </c>
       <c r="C19" s="15">
         <v>0</v>
@@ -7976,7 +8085,7 @@
         <v>2</v>
       </c>
       <c r="O19" s="15" t="s">
-        <v>587</v>
+        <v>551</v>
       </c>
       <c r="P19" s="15">
         <v>0</v>
@@ -7990,8 +8099,11 @@
       <c r="S19" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="W19" s="15">
-        <v>2</v>
+      <c r="T19" s="14" t="s">
+        <v>654</v>
+      </c>
+      <c r="W19" s="14">
+        <v>4</v>
       </c>
       <c r="X19" s="24" t="s">
         <v>85</v>
@@ -8009,7 +8121,7 @@
         <v>210</v>
       </c>
       <c r="AC19" s="48" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="AD19" s="31" t="s">
         <v>89</v>
@@ -8023,28 +8135,29 @@
       <c r="AG19" s="15">
         <v>0</v>
       </c>
-      <c r="AH19" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI19" s="14">
-        <v>2</v>
+      <c r="AH19" s="14"/>
+      <c r="AI19" s="15">
+        <v>0</v>
       </c>
       <c r="AJ19" s="14">
         <v>2</v>
       </c>
-      <c r="AK19" s="48" t="s">
-        <v>437</v>
-      </c>
-      <c r="AL19" s="14">
-        <v>0</v>
+      <c r="AK19" s="14">
+        <v>2</v>
+      </c>
+      <c r="AL19" s="48" t="s">
+        <v>419</v>
       </c>
       <c r="AM19" s="14">
         <v>0</v>
       </c>
+      <c r="AN19" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:39" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:40" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="18" t="s">
-        <v>513</v>
+        <v>486</v>
       </c>
       <c r="C20" s="15">
         <v>0</v>
@@ -8083,7 +8196,7 @@
         <v>3</v>
       </c>
       <c r="O20" s="15" t="s">
-        <v>588</v>
+        <v>552</v>
       </c>
       <c r="P20" s="15">
         <v>0</v>
@@ -8097,8 +8210,11 @@
       <c r="S20" s="23" t="s">
         <v>84</v>
       </c>
+      <c r="T20" s="15" t="s">
+        <v>654</v>
+      </c>
       <c r="W20" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X20" s="24" t="s">
         <v>85</v>
@@ -8116,7 +8232,7 @@
         <v>210</v>
       </c>
       <c r="AC20" s="48" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="AD20" s="31" t="s">
         <v>89</v>
@@ -8130,28 +8246,28 @@
       <c r="AG20" s="15">
         <v>0</v>
       </c>
-      <c r="AH20" s="15">
-        <v>0</v>
-      </c>
       <c r="AI20" s="15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="15">
         <v>2</v>
       </c>
-      <c r="AK20" s="48" t="s">
-        <v>438</v>
-      </c>
-      <c r="AL20" s="15">
-        <v>0</v>
+      <c r="AK20" s="15">
+        <v>2</v>
+      </c>
+      <c r="AL20" s="48" t="s">
+        <v>420</v>
       </c>
       <c r="AM20" s="15">
         <v>0</v>
       </c>
+      <c r="AN20" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:39" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:40" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="18" t="s">
-        <v>514</v>
+        <v>487</v>
       </c>
       <c r="C21" s="15">
         <v>0</v>
@@ -8190,7 +8306,7 @@
         <v>3</v>
       </c>
       <c r="O21" s="15" t="s">
-        <v>589</v>
+        <v>553</v>
       </c>
       <c r="P21" s="15">
         <v>0</v>
@@ -8204,8 +8320,11 @@
       <c r="S21" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="W21" s="15">
-        <v>2</v>
+      <c r="T21" s="14" t="s">
+        <v>654</v>
+      </c>
+      <c r="W21" s="14">
+        <v>4</v>
       </c>
       <c r="X21" s="24" t="s">
         <v>85</v>
@@ -8223,7 +8342,7 @@
         <v>210</v>
       </c>
       <c r="AC21" s="48" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="AD21" s="31" t="s">
         <v>89</v>
@@ -8237,28 +8356,29 @@
       <c r="AG21" s="15">
         <v>0</v>
       </c>
-      <c r="AH21" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI21" s="14">
-        <v>2</v>
+      <c r="AH21" s="14"/>
+      <c r="AI21" s="15">
+        <v>0</v>
       </c>
       <c r="AJ21" s="14">
         <v>2</v>
       </c>
-      <c r="AK21" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="AL21" s="14">
-        <v>0</v>
+      <c r="AK21" s="14">
+        <v>2</v>
+      </c>
+      <c r="AL21" s="48" t="s">
+        <v>421</v>
       </c>
       <c r="AM21" s="14">
         <v>0</v>
       </c>
+      <c r="AN21" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:39" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:40" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="18" t="s">
-        <v>515</v>
+        <v>488</v>
       </c>
       <c r="C22" s="15">
         <v>0</v>
@@ -8297,7 +8417,7 @@
         <v>3</v>
       </c>
       <c r="O22" s="15" t="s">
-        <v>590</v>
+        <v>554</v>
       </c>
       <c r="P22" s="15">
         <v>0</v>
@@ -8311,8 +8431,11 @@
       <c r="S22" s="23" t="s">
         <v>84</v>
       </c>
+      <c r="T22" s="15" t="s">
+        <v>654</v>
+      </c>
       <c r="W22" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X22" s="24" t="s">
         <v>85</v>
@@ -8330,7 +8453,7 @@
         <v>210</v>
       </c>
       <c r="AC22" s="48" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="AD22" s="31" t="s">
         <v>89</v>
@@ -8344,28 +8467,28 @@
       <c r="AG22" s="15">
         <v>0</v>
       </c>
-      <c r="AH22" s="15">
-        <v>0</v>
-      </c>
       <c r="AI22" s="15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="15">
         <v>2</v>
       </c>
-      <c r="AK22" s="48" t="s">
-        <v>440</v>
-      </c>
-      <c r="AL22" s="15">
-        <v>0</v>
+      <c r="AK22" s="15">
+        <v>2</v>
+      </c>
+      <c r="AL22" s="48" t="s">
+        <v>422</v>
       </c>
       <c r="AM22" s="15">
         <v>0</v>
       </c>
+      <c r="AN22" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:39" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:40" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="18" t="s">
-        <v>516</v>
+        <v>489</v>
       </c>
       <c r="C23" s="15">
         <v>0</v>
@@ -8404,7 +8527,7 @@
         <v>1</v>
       </c>
       <c r="O23" s="15" t="s">
-        <v>591</v>
+        <v>555</v>
       </c>
       <c r="P23" s="15">
         <v>0</v>
@@ -8418,8 +8541,11 @@
       <c r="S23" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="W23" s="15">
-        <v>2</v>
+      <c r="T23" s="14" t="s">
+        <v>654</v>
+      </c>
+      <c r="W23" s="14">
+        <v>4</v>
       </c>
       <c r="X23" s="24" t="s">
         <v>85</v>
@@ -8437,7 +8563,7 @@
         <v>210</v>
       </c>
       <c r="AC23" s="48" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="AD23" s="31" t="s">
         <v>89</v>
@@ -8451,28 +8577,29 @@
       <c r="AG23" s="15">
         <v>0</v>
       </c>
-      <c r="AH23" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI23" s="14">
-        <v>2</v>
+      <c r="AH23" s="14"/>
+      <c r="AI23" s="15">
+        <v>0</v>
       </c>
       <c r="AJ23" s="14">
         <v>2</v>
       </c>
-      <c r="AK23" s="48" t="s">
-        <v>441</v>
-      </c>
-      <c r="AL23" s="14">
-        <v>0</v>
+      <c r="AK23" s="14">
+        <v>2</v>
+      </c>
+      <c r="AL23" s="48" t="s">
+        <v>423</v>
       </c>
       <c r="AM23" s="14">
         <v>0</v>
       </c>
+      <c r="AN23" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:39" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:40" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="18" t="s">
-        <v>517</v>
+        <v>490</v>
       </c>
       <c r="C24" s="15">
         <v>0</v>
@@ -8511,7 +8638,7 @@
         <v>1</v>
       </c>
       <c r="O24" s="15" t="s">
-        <v>592</v>
+        <v>556</v>
       </c>
       <c r="P24" s="15">
         <v>0</v>
@@ -8525,8 +8652,11 @@
       <c r="S24" s="23" t="s">
         <v>84</v>
       </c>
+      <c r="T24" s="15" t="s">
+        <v>654</v>
+      </c>
       <c r="W24" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X24" s="24" t="s">
         <v>85</v>
@@ -8544,7 +8674,7 @@
         <v>210</v>
       </c>
       <c r="AC24" s="48" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="AD24" s="31" t="s">
         <v>89</v>
@@ -8558,28 +8688,28 @@
       <c r="AG24" s="15">
         <v>0</v>
       </c>
-      <c r="AH24" s="15">
-        <v>0</v>
-      </c>
       <c r="AI24" s="15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="15">
         <v>2</v>
       </c>
-      <c r="AK24" s="48" t="s">
-        <v>442</v>
-      </c>
-      <c r="AL24" s="15">
-        <v>0</v>
+      <c r="AK24" s="15">
+        <v>2</v>
+      </c>
+      <c r="AL24" s="48" t="s">
+        <v>424</v>
       </c>
       <c r="AM24" s="15">
         <v>0</v>
       </c>
+      <c r="AN24" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:39" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:40" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="18" t="s">
-        <v>518</v>
+        <v>491</v>
       </c>
       <c r="C25" s="15">
         <v>0</v>
@@ -8618,7 +8748,7 @@
         <v>1</v>
       </c>
       <c r="O25" s="15" t="s">
-        <v>593</v>
+        <v>557</v>
       </c>
       <c r="P25" s="15">
         <v>0</v>
@@ -8632,8 +8762,11 @@
       <c r="S25" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="W25" s="15">
-        <v>2</v>
+      <c r="T25" s="14" t="s">
+        <v>654</v>
+      </c>
+      <c r="W25" s="14">
+        <v>4</v>
       </c>
       <c r="X25" s="24" t="s">
         <v>85</v>
@@ -8651,7 +8784,7 @@
         <v>210</v>
       </c>
       <c r="AC25" s="48" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="AD25" s="31" t="s">
         <v>89</v>
@@ -8665,28 +8798,29 @@
       <c r="AG25" s="15">
         <v>0</v>
       </c>
-      <c r="AH25" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI25" s="14">
-        <v>2</v>
+      <c r="AH25" s="14"/>
+      <c r="AI25" s="15">
+        <v>0</v>
       </c>
       <c r="AJ25" s="14">
         <v>2</v>
       </c>
-      <c r="AK25" s="48" t="s">
-        <v>443</v>
-      </c>
-      <c r="AL25" s="14">
-        <v>0</v>
+      <c r="AK25" s="14">
+        <v>2</v>
+      </c>
+      <c r="AL25" s="48" t="s">
+        <v>425</v>
       </c>
       <c r="AM25" s="14">
         <v>0</v>
       </c>
+      <c r="AN25" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:39" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:40" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="18" t="s">
-        <v>519</v>
+        <v>639</v>
       </c>
       <c r="C26" s="15">
         <v>0</v>
@@ -8725,7 +8859,7 @@
         <v>2</v>
       </c>
       <c r="O26" s="15" t="s">
-        <v>594</v>
+        <v>642</v>
       </c>
       <c r="P26" s="15">
         <v>0</v>
@@ -8739,8 +8873,11 @@
       <c r="S26" s="23" t="s">
         <v>84</v>
       </c>
+      <c r="T26" s="15" t="s">
+        <v>654</v>
+      </c>
       <c r="W26" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X26" s="24" t="s">
         <v>85</v>
@@ -8752,13 +8889,13 @@
         <v>0</v>
       </c>
       <c r="AA26" s="48" t="s">
-        <v>294</v>
+        <v>645</v>
       </c>
       <c r="AB26" s="24" t="s">
         <v>210</v>
       </c>
       <c r="AC26" s="48" t="s">
-        <v>369</v>
+        <v>648</v>
       </c>
       <c r="AD26" s="31" t="s">
         <v>89</v>
@@ -8772,28 +8909,28 @@
       <c r="AG26" s="15">
         <v>0</v>
       </c>
-      <c r="AH26" s="15">
-        <v>0</v>
-      </c>
       <c r="AI26" s="15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="15">
         <v>2</v>
       </c>
-      <c r="AK26" s="48" t="s">
-        <v>444</v>
-      </c>
-      <c r="AL26" s="15">
-        <v>0</v>
+      <c r="AK26" s="15">
+        <v>2</v>
+      </c>
+      <c r="AL26" s="48" t="s">
+        <v>651</v>
       </c>
       <c r="AM26" s="15">
         <v>0</v>
       </c>
+      <c r="AN26" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:39" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:40" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="18" t="s">
-        <v>520</v>
+        <v>640</v>
       </c>
       <c r="C27" s="15">
         <v>0</v>
@@ -8832,7 +8969,7 @@
         <v>2</v>
       </c>
       <c r="O27" s="15" t="s">
-        <v>595</v>
+        <v>643</v>
       </c>
       <c r="P27" s="15">
         <v>0</v>
@@ -8846,8 +8983,11 @@
       <c r="S27" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="W27" s="15">
-        <v>2</v>
+      <c r="T27" s="14" t="s">
+        <v>654</v>
+      </c>
+      <c r="W27" s="14">
+        <v>4</v>
       </c>
       <c r="X27" s="24" t="s">
         <v>85</v>
@@ -8859,13 +8999,13 @@
         <v>0</v>
       </c>
       <c r="AA27" s="48" t="s">
-        <v>295</v>
+        <v>646</v>
       </c>
       <c r="AB27" s="24" t="s">
         <v>210</v>
       </c>
       <c r="AC27" s="48" t="s">
-        <v>370</v>
+        <v>649</v>
       </c>
       <c r="AD27" s="31" t="s">
         <v>89</v>
@@ -8879,28 +9019,29 @@
       <c r="AG27" s="15">
         <v>0</v>
       </c>
-      <c r="AH27" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI27" s="14">
-        <v>2</v>
+      <c r="AH27" s="14"/>
+      <c r="AI27" s="15">
+        <v>0</v>
       </c>
       <c r="AJ27" s="14">
         <v>2</v>
       </c>
-      <c r="AK27" s="48" t="s">
-        <v>445</v>
-      </c>
-      <c r="AL27" s="14">
-        <v>0</v>
+      <c r="AK27" s="14">
+        <v>2</v>
+      </c>
+      <c r="AL27" s="48" t="s">
+        <v>652</v>
       </c>
       <c r="AM27" s="14">
         <v>0</v>
       </c>
+      <c r="AN27" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:39" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:40" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="18" t="s">
-        <v>521</v>
+        <v>641</v>
       </c>
       <c r="C28" s="15">
         <v>0</v>
@@ -8939,7 +9080,7 @@
         <v>2</v>
       </c>
       <c r="O28" s="15" t="s">
-        <v>596</v>
+        <v>644</v>
       </c>
       <c r="P28" s="15">
         <v>0</v>
@@ -8953,8 +9094,11 @@
       <c r="S28" s="23" t="s">
         <v>84</v>
       </c>
+      <c r="T28" s="15" t="s">
+        <v>654</v>
+      </c>
       <c r="W28" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X28" s="24" t="s">
         <v>85</v>
@@ -8966,13 +9110,13 @@
         <v>0</v>
       </c>
       <c r="AA28" s="48" t="s">
-        <v>296</v>
+        <v>647</v>
       </c>
       <c r="AB28" s="24" t="s">
         <v>210</v>
       </c>
       <c r="AC28" s="48" t="s">
-        <v>371</v>
+        <v>650</v>
       </c>
       <c r="AD28" s="31" t="s">
         <v>89</v>
@@ -8986,28 +9130,28 @@
       <c r="AG28" s="15">
         <v>0</v>
       </c>
-      <c r="AH28" s="15">
-        <v>0</v>
-      </c>
       <c r="AI28" s="15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ28" s="15">
         <v>2</v>
       </c>
-      <c r="AK28" s="48" t="s">
-        <v>446</v>
-      </c>
-      <c r="AL28" s="15">
-        <v>0</v>
+      <c r="AK28" s="15">
+        <v>2</v>
+      </c>
+      <c r="AL28" s="48" t="s">
+        <v>653</v>
       </c>
       <c r="AM28" s="15">
         <v>0</v>
       </c>
+      <c r="AN28" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:39" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:40" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="18" t="s">
-        <v>522</v>
+        <v>492</v>
       </c>
       <c r="C29" s="15">
         <v>0</v>
@@ -9046,7 +9190,7 @@
         <v>2</v>
       </c>
       <c r="O29" s="15" t="s">
-        <v>597</v>
+        <v>558</v>
       </c>
       <c r="P29" s="15">
         <v>0</v>
@@ -9060,8 +9204,11 @@
       <c r="S29" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="W29" s="15">
-        <v>2</v>
+      <c r="T29" s="14" t="s">
+        <v>654</v>
+      </c>
+      <c r="W29" s="14">
+        <v>4</v>
       </c>
       <c r="X29" s="24" t="s">
         <v>85</v>
@@ -9073,13 +9220,13 @@
         <v>0</v>
       </c>
       <c r="AA29" s="48" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="AB29" s="24" t="s">
         <v>210</v>
       </c>
       <c r="AC29" s="48" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="AD29" s="31" t="s">
         <v>89</v>
@@ -9093,28 +9240,29 @@
       <c r="AG29" s="15">
         <v>0</v>
       </c>
-      <c r="AH29" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI29" s="14">
-        <v>2</v>
+      <c r="AH29" s="14"/>
+      <c r="AI29" s="15">
+        <v>0</v>
       </c>
       <c r="AJ29" s="14">
         <v>2</v>
       </c>
-      <c r="AK29" s="48" t="s">
-        <v>447</v>
-      </c>
-      <c r="AL29" s="14">
-        <v>0</v>
+      <c r="AK29" s="14">
+        <v>2</v>
+      </c>
+      <c r="AL29" s="48" t="s">
+        <v>426</v>
       </c>
       <c r="AM29" s="14">
         <v>0</v>
       </c>
+      <c r="AN29" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:39" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:40" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="18" t="s">
-        <v>523</v>
+        <v>493</v>
       </c>
       <c r="C30" s="15">
         <v>0</v>
@@ -9153,7 +9301,7 @@
         <v>2</v>
       </c>
       <c r="O30" s="15" t="s">
-        <v>598</v>
+        <v>559</v>
       </c>
       <c r="P30" s="15">
         <v>0</v>
@@ -9167,8 +9315,11 @@
       <c r="S30" s="23" t="s">
         <v>84</v>
       </c>
+      <c r="T30" s="15" t="s">
+        <v>654</v>
+      </c>
       <c r="W30" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X30" s="24" t="s">
         <v>85</v>
@@ -9180,13 +9331,13 @@
         <v>0</v>
       </c>
       <c r="AA30" s="48" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="AB30" s="24" t="s">
         <v>210</v>
       </c>
       <c r="AC30" s="48" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="AD30" s="31" t="s">
         <v>89</v>
@@ -9200,28 +9351,28 @@
       <c r="AG30" s="15">
         <v>0</v>
       </c>
-      <c r="AH30" s="15">
-        <v>0</v>
-      </c>
       <c r="AI30" s="15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ30" s="15">
         <v>2</v>
       </c>
-      <c r="AK30" s="48" t="s">
-        <v>448</v>
-      </c>
-      <c r="AL30" s="15">
-        <v>0</v>
+      <c r="AK30" s="15">
+        <v>2</v>
+      </c>
+      <c r="AL30" s="48" t="s">
+        <v>427</v>
       </c>
       <c r="AM30" s="15">
         <v>0</v>
       </c>
+      <c r="AN30" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:39" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:40" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="18" t="s">
-        <v>524</v>
+        <v>494</v>
       </c>
       <c r="C31" s="15">
         <v>0</v>
@@ -9260,7 +9411,7 @@
         <v>2</v>
       </c>
       <c r="O31" s="15" t="s">
-        <v>599</v>
+        <v>560</v>
       </c>
       <c r="P31" s="15">
         <v>0</v>
@@ -9274,8 +9425,11 @@
       <c r="S31" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="W31" s="15">
-        <v>2</v>
+      <c r="T31" s="14" t="s">
+        <v>654</v>
+      </c>
+      <c r="W31" s="14">
+        <v>4</v>
       </c>
       <c r="X31" s="24" t="s">
         <v>85</v>
@@ -9287,13 +9441,13 @@
         <v>0</v>
       </c>
       <c r="AA31" s="48" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="AB31" s="24" t="s">
         <v>210</v>
       </c>
       <c r="AC31" s="48" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="AD31" s="31" t="s">
         <v>89</v>
@@ -9307,28 +9461,29 @@
       <c r="AG31" s="15">
         <v>0</v>
       </c>
-      <c r="AH31" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI31" s="14">
-        <v>2</v>
+      <c r="AH31" s="14"/>
+      <c r="AI31" s="15">
+        <v>0</v>
       </c>
       <c r="AJ31" s="14">
         <v>2</v>
       </c>
-      <c r="AK31" s="48" t="s">
-        <v>449</v>
-      </c>
-      <c r="AL31" s="14">
-        <v>0</v>
+      <c r="AK31" s="14">
+        <v>2</v>
+      </c>
+      <c r="AL31" s="48" t="s">
+        <v>428</v>
       </c>
       <c r="AM31" s="14">
         <v>0</v>
       </c>
+      <c r="AN31" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:39" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:40" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="18" t="s">
-        <v>525</v>
+        <v>495</v>
       </c>
       <c r="C32" s="15">
         <v>0</v>
@@ -9367,7 +9522,7 @@
         <v>3</v>
       </c>
       <c r="O32" s="15" t="s">
-        <v>600</v>
+        <v>561</v>
       </c>
       <c r="P32" s="15">
         <v>0</v>
@@ -9381,8 +9536,11 @@
       <c r="S32" s="23" t="s">
         <v>84</v>
       </c>
+      <c r="T32" s="15" t="s">
+        <v>654</v>
+      </c>
       <c r="W32" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X32" s="24" t="s">
         <v>85</v>
@@ -9394,13 +9552,13 @@
         <v>0</v>
       </c>
       <c r="AA32" s="48" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AB32" s="24" t="s">
         <v>210</v>
       </c>
       <c r="AC32" s="48" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="AD32" s="31" t="s">
         <v>89</v>
@@ -9414,28 +9572,28 @@
       <c r="AG32" s="15">
         <v>0</v>
       </c>
-      <c r="AH32" s="15">
-        <v>0</v>
-      </c>
       <c r="AI32" s="15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ32" s="15">
         <v>2</v>
       </c>
-      <c r="AK32" s="48" t="s">
-        <v>450</v>
-      </c>
-      <c r="AL32" s="15">
-        <v>0</v>
+      <c r="AK32" s="15">
+        <v>2</v>
+      </c>
+      <c r="AL32" s="48" t="s">
+        <v>429</v>
       </c>
       <c r="AM32" s="15">
         <v>0</v>
       </c>
+      <c r="AN32" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:39" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:40" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="18" t="s">
-        <v>526</v>
+        <v>496</v>
       </c>
       <c r="C33" s="15">
         <v>0</v>
@@ -9474,7 +9632,7 @@
         <v>3</v>
       </c>
       <c r="O33" s="15" t="s">
-        <v>601</v>
+        <v>562</v>
       </c>
       <c r="P33" s="15">
         <v>0</v>
@@ -9488,8 +9646,11 @@
       <c r="S33" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="W33" s="15">
-        <v>2</v>
+      <c r="T33" s="14" t="s">
+        <v>654</v>
+      </c>
+      <c r="W33" s="14">
+        <v>4</v>
       </c>
       <c r="X33" s="24" t="s">
         <v>85</v>
@@ -9501,13 +9662,13 @@
         <v>0</v>
       </c>
       <c r="AA33" s="48" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="AB33" s="24" t="s">
         <v>210</v>
       </c>
       <c r="AC33" s="48" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="AD33" s="31" t="s">
         <v>89</v>
@@ -9521,28 +9682,29 @@
       <c r="AG33" s="15">
         <v>0</v>
       </c>
-      <c r="AH33" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI33" s="14">
-        <v>2</v>
+      <c r="AH33" s="14"/>
+      <c r="AI33" s="15">
+        <v>0</v>
       </c>
       <c r="AJ33" s="14">
         <v>2</v>
       </c>
-      <c r="AK33" s="48" t="s">
-        <v>451</v>
-      </c>
-      <c r="AL33" s="14">
-        <v>0</v>
+      <c r="AK33" s="14">
+        <v>2</v>
+      </c>
+      <c r="AL33" s="48" t="s">
+        <v>430</v>
       </c>
       <c r="AM33" s="14">
         <v>0</v>
       </c>
+      <c r="AN33" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:39" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:40" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="18" t="s">
-        <v>527</v>
+        <v>497</v>
       </c>
       <c r="C34" s="15">
         <v>0</v>
@@ -9581,7 +9743,7 @@
         <v>3</v>
       </c>
       <c r="O34" s="15" t="s">
-        <v>602</v>
+        <v>563</v>
       </c>
       <c r="P34" s="15">
         <v>0</v>
@@ -9595,8 +9757,11 @@
       <c r="S34" s="23" t="s">
         <v>84</v>
       </c>
+      <c r="T34" s="15" t="s">
+        <v>654</v>
+      </c>
       <c r="W34" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X34" s="24" t="s">
         <v>85</v>
@@ -9608,13 +9773,13 @@
         <v>0</v>
       </c>
       <c r="AA34" s="48" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="AB34" s="24" t="s">
         <v>210</v>
       </c>
       <c r="AC34" s="48" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="AD34" s="31" t="s">
         <v>89</v>
@@ -9628,28 +9793,28 @@
       <c r="AG34" s="15">
         <v>0</v>
       </c>
-      <c r="AH34" s="15">
-        <v>0</v>
-      </c>
       <c r="AI34" s="15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ34" s="15">
         <v>2</v>
       </c>
-      <c r="AK34" s="48" t="s">
-        <v>452</v>
-      </c>
-      <c r="AL34" s="15">
-        <v>0</v>
+      <c r="AK34" s="15">
+        <v>2</v>
+      </c>
+      <c r="AL34" s="48" t="s">
+        <v>431</v>
       </c>
       <c r="AM34" s="15">
         <v>0</v>
       </c>
+      <c r="AN34" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:39" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:40" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="18" t="s">
-        <v>528</v>
+        <v>498</v>
       </c>
       <c r="C35" s="15">
         <v>0</v>
@@ -9688,7 +9853,7 @@
         <v>2</v>
       </c>
       <c r="O35" s="15" t="s">
-        <v>603</v>
+        <v>564</v>
       </c>
       <c r="P35" s="15">
         <v>0</v>
@@ -9702,8 +9867,11 @@
       <c r="S35" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="W35" s="15">
-        <v>2</v>
+      <c r="T35" s="14" t="s">
+        <v>654</v>
+      </c>
+      <c r="W35" s="14">
+        <v>4</v>
       </c>
       <c r="X35" s="24" t="s">
         <v>85</v>
@@ -9715,13 +9883,13 @@
         <v>0</v>
       </c>
       <c r="AA35" s="48" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="AB35" s="24" t="s">
         <v>210</v>
       </c>
       <c r="AC35" s="48" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="AD35" s="31" t="s">
         <v>89</v>
@@ -9735,28 +9903,29 @@
       <c r="AG35" s="15">
         <v>0</v>
       </c>
-      <c r="AH35" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI35" s="14">
-        <v>2</v>
+      <c r="AH35" s="14"/>
+      <c r="AI35" s="15">
+        <v>0</v>
       </c>
       <c r="AJ35" s="14">
         <v>2</v>
       </c>
-      <c r="AK35" s="48" t="s">
-        <v>453</v>
-      </c>
-      <c r="AL35" s="14">
-        <v>0</v>
+      <c r="AK35" s="14">
+        <v>2</v>
+      </c>
+      <c r="AL35" s="48" t="s">
+        <v>432</v>
       </c>
       <c r="AM35" s="14">
         <v>0</v>
       </c>
+      <c r="AN35" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:39" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:40" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="18" t="s">
-        <v>529</v>
+        <v>499</v>
       </c>
       <c r="C36" s="15">
         <v>0</v>
@@ -9795,7 +9964,7 @@
         <v>2</v>
       </c>
       <c r="O36" s="15" t="s">
-        <v>604</v>
+        <v>565</v>
       </c>
       <c r="P36" s="15">
         <v>0</v>
@@ -9809,8 +9978,11 @@
       <c r="S36" s="23" t="s">
         <v>84</v>
       </c>
+      <c r="T36" s="15" t="s">
+        <v>654</v>
+      </c>
       <c r="W36" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X36" s="24" t="s">
         <v>85</v>
@@ -9822,13 +9994,13 @@
         <v>0</v>
       </c>
       <c r="AA36" s="48" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AB36" s="24" t="s">
         <v>210</v>
       </c>
       <c r="AC36" s="48" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="AD36" s="31" t="s">
         <v>89</v>
@@ -9842,28 +10014,28 @@
       <c r="AG36" s="15">
         <v>0</v>
       </c>
-      <c r="AH36" s="15">
-        <v>0</v>
-      </c>
       <c r="AI36" s="15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ36" s="15">
         <v>2</v>
       </c>
-      <c r="AK36" s="48" t="s">
-        <v>454</v>
-      </c>
-      <c r="AL36" s="15">
-        <v>0</v>
+      <c r="AK36" s="15">
+        <v>2</v>
+      </c>
+      <c r="AL36" s="48" t="s">
+        <v>433</v>
       </c>
       <c r="AM36" s="15">
         <v>0</v>
       </c>
+      <c r="AN36" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:39" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:40" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="18" t="s">
-        <v>530</v>
+        <v>500</v>
       </c>
       <c r="C37" s="15">
         <v>0</v>
@@ -9902,7 +10074,7 @@
         <v>2</v>
       </c>
       <c r="O37" s="15" t="s">
-        <v>605</v>
+        <v>566</v>
       </c>
       <c r="P37" s="15">
         <v>0</v>
@@ -9916,8 +10088,11 @@
       <c r="S37" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="W37" s="15">
-        <v>2</v>
+      <c r="T37" s="14" t="s">
+        <v>654</v>
+      </c>
+      <c r="W37" s="14">
+        <v>4</v>
       </c>
       <c r="X37" s="24" t="s">
         <v>85</v>
@@ -9929,13 +10104,13 @@
         <v>0</v>
       </c>
       <c r="AA37" s="48" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="AB37" s="24" t="s">
         <v>210</v>
       </c>
       <c r="AC37" s="48" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="AD37" s="31" t="s">
         <v>89</v>
@@ -9949,28 +10124,29 @@
       <c r="AG37" s="15">
         <v>0</v>
       </c>
-      <c r="AH37" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI37" s="14">
-        <v>2</v>
+      <c r="AH37" s="14"/>
+      <c r="AI37" s="15">
+        <v>0</v>
       </c>
       <c r="AJ37" s="14">
         <v>2</v>
       </c>
-      <c r="AK37" s="48" t="s">
-        <v>455</v>
-      </c>
-      <c r="AL37" s="14">
-        <v>0</v>
+      <c r="AK37" s="14">
+        <v>2</v>
+      </c>
+      <c r="AL37" s="48" t="s">
+        <v>434</v>
       </c>
       <c r="AM37" s="14">
         <v>0</v>
       </c>
+      <c r="AN37" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:39" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:40" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="18" t="s">
-        <v>531</v>
+        <v>501</v>
       </c>
       <c r="C38" s="15">
         <v>0</v>
@@ -10009,7 +10185,7 @@
         <v>3</v>
       </c>
       <c r="O38" s="15" t="s">
-        <v>606</v>
+        <v>567</v>
       </c>
       <c r="P38" s="15">
         <v>0</v>
@@ -10023,8 +10199,11 @@
       <c r="S38" s="23" t="s">
         <v>84</v>
       </c>
+      <c r="T38" s="15" t="s">
+        <v>654</v>
+      </c>
       <c r="W38" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X38" s="24" t="s">
         <v>85</v>
@@ -10036,13 +10215,13 @@
         <v>0</v>
       </c>
       <c r="AA38" s="48" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="AB38" s="24" t="s">
         <v>210</v>
       </c>
       <c r="AC38" s="48" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="AD38" s="31" t="s">
         <v>89</v>
@@ -10056,28 +10235,28 @@
       <c r="AG38" s="15">
         <v>0</v>
       </c>
-      <c r="AH38" s="15">
-        <v>0</v>
-      </c>
       <c r="AI38" s="15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ38" s="15">
         <v>2</v>
       </c>
-      <c r="AK38" s="48" t="s">
-        <v>456</v>
-      </c>
-      <c r="AL38" s="15">
-        <v>0</v>
+      <c r="AK38" s="15">
+        <v>2</v>
+      </c>
+      <c r="AL38" s="48" t="s">
+        <v>435</v>
       </c>
       <c r="AM38" s="15">
         <v>0</v>
       </c>
+      <c r="AN38" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:39" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:40" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="18" t="s">
-        <v>532</v>
+        <v>502</v>
       </c>
       <c r="C39" s="15">
         <v>0</v>
@@ -10116,7 +10295,7 @@
         <v>3</v>
       </c>
       <c r="O39" s="15" t="s">
-        <v>607</v>
+        <v>568</v>
       </c>
       <c r="P39" s="15">
         <v>0</v>
@@ -10130,8 +10309,11 @@
       <c r="S39" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="W39" s="15">
-        <v>2</v>
+      <c r="T39" s="14" t="s">
+        <v>654</v>
+      </c>
+      <c r="W39" s="14">
+        <v>4</v>
       </c>
       <c r="X39" s="24" t="s">
         <v>85</v>
@@ -10143,13 +10325,13 @@
         <v>0</v>
       </c>
       <c r="AA39" s="48" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AB39" s="24" t="s">
         <v>210</v>
       </c>
       <c r="AC39" s="48" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="AD39" s="31" t="s">
         <v>89</v>
@@ -10163,28 +10345,29 @@
       <c r="AG39" s="15">
         <v>0</v>
       </c>
-      <c r="AH39" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI39" s="14">
-        <v>2</v>
+      <c r="AH39" s="14"/>
+      <c r="AI39" s="15">
+        <v>0</v>
       </c>
       <c r="AJ39" s="14">
         <v>2</v>
       </c>
-      <c r="AK39" s="48" t="s">
-        <v>457</v>
-      </c>
-      <c r="AL39" s="14">
-        <v>0</v>
+      <c r="AK39" s="14">
+        <v>2</v>
+      </c>
+      <c r="AL39" s="48" t="s">
+        <v>436</v>
       </c>
       <c r="AM39" s="14">
         <v>0</v>
       </c>
+      <c r="AN39" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:39" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:40" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="18" t="s">
-        <v>533</v>
+        <v>503</v>
       </c>
       <c r="C40" s="15">
         <v>0</v>
@@ -10223,7 +10406,7 @@
         <v>3</v>
       </c>
       <c r="O40" s="15" t="s">
-        <v>608</v>
+        <v>569</v>
       </c>
       <c r="P40" s="15">
         <v>0</v>
@@ -10237,8 +10420,11 @@
       <c r="S40" s="23" t="s">
         <v>84</v>
       </c>
+      <c r="T40" s="15" t="s">
+        <v>654</v>
+      </c>
       <c r="W40" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X40" s="24" t="s">
         <v>85</v>
@@ -10250,13 +10436,13 @@
         <v>0</v>
       </c>
       <c r="AA40" s="48" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AB40" s="24" t="s">
         <v>210</v>
       </c>
       <c r="AC40" s="48" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="AD40" s="31" t="s">
         <v>89</v>
@@ -10270,28 +10456,28 @@
       <c r="AG40" s="15">
         <v>0</v>
       </c>
-      <c r="AH40" s="15">
-        <v>0</v>
-      </c>
       <c r="AI40" s="15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ40" s="15">
         <v>2</v>
       </c>
-      <c r="AK40" s="48" t="s">
-        <v>458</v>
-      </c>
-      <c r="AL40" s="15">
-        <v>0</v>
+      <c r="AK40" s="15">
+        <v>2</v>
+      </c>
+      <c r="AL40" s="48" t="s">
+        <v>437</v>
       </c>
       <c r="AM40" s="15">
         <v>0</v>
       </c>
+      <c r="AN40" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:39" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:40" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="18" t="s">
-        <v>534</v>
+        <v>504</v>
       </c>
       <c r="C41" s="15">
         <v>0</v>
@@ -10330,7 +10516,7 @@
         <v>2</v>
       </c>
       <c r="O41" s="15" t="s">
-        <v>609</v>
+        <v>570</v>
       </c>
       <c r="P41" s="15">
         <v>0</v>
@@ -10344,8 +10530,11 @@
       <c r="S41" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="W41" s="15">
-        <v>2</v>
+      <c r="T41" s="14" t="s">
+        <v>654</v>
+      </c>
+      <c r="W41" s="14">
+        <v>4</v>
       </c>
       <c r="X41" s="24" t="s">
         <v>85</v>
@@ -10357,13 +10546,13 @@
         <v>0</v>
       </c>
       <c r="AA41" s="48" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="AB41" s="24" t="s">
         <v>210</v>
       </c>
       <c r="AC41" s="48" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="AD41" s="31" t="s">
         <v>89</v>
@@ -10377,28 +10566,29 @@
       <c r="AG41" s="15">
         <v>0</v>
       </c>
-      <c r="AH41" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI41" s="14">
-        <v>2</v>
+      <c r="AH41" s="14"/>
+      <c r="AI41" s="15">
+        <v>0</v>
       </c>
       <c r="AJ41" s="14">
         <v>2</v>
       </c>
-      <c r="AK41" s="48" t="s">
-        <v>459</v>
-      </c>
-      <c r="AL41" s="14">
-        <v>0</v>
+      <c r="AK41" s="14">
+        <v>2</v>
+      </c>
+      <c r="AL41" s="48" t="s">
+        <v>438</v>
       </c>
       <c r="AM41" s="14">
         <v>0</v>
       </c>
+      <c r="AN41" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:39" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:40" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="18" t="s">
-        <v>535</v>
+        <v>505</v>
       </c>
       <c r="C42" s="15">
         <v>0</v>
@@ -10437,7 +10627,7 @@
         <v>2</v>
       </c>
       <c r="O42" s="15" t="s">
-        <v>610</v>
+        <v>571</v>
       </c>
       <c r="P42" s="15">
         <v>0</v>
@@ -10451,8 +10641,11 @@
       <c r="S42" s="23" t="s">
         <v>84</v>
       </c>
+      <c r="T42" s="15" t="s">
+        <v>654</v>
+      </c>
       <c r="W42" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X42" s="24" t="s">
         <v>85</v>
@@ -10464,13 +10657,13 @@
         <v>0</v>
       </c>
       <c r="AA42" s="48" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="AB42" s="24" t="s">
         <v>210</v>
       </c>
       <c r="AC42" s="48" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="AD42" s="31" t="s">
         <v>89</v>
@@ -10484,28 +10677,28 @@
       <c r="AG42" s="15">
         <v>0</v>
       </c>
-      <c r="AH42" s="15">
-        <v>0</v>
-      </c>
       <c r="AI42" s="15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ42" s="15">
         <v>2</v>
       </c>
-      <c r="AK42" s="48" t="s">
-        <v>460</v>
-      </c>
-      <c r="AL42" s="15">
-        <v>0</v>
+      <c r="AK42" s="15">
+        <v>2</v>
+      </c>
+      <c r="AL42" s="48" t="s">
+        <v>439</v>
       </c>
       <c r="AM42" s="15">
         <v>0</v>
       </c>
+      <c r="AN42" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:39" s="16" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:40" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A43" s="19" t="s">
-        <v>536</v>
+        <v>506</v>
       </c>
       <c r="C43" s="16">
         <v>0</v>
@@ -10544,7 +10737,7 @@
         <v>2</v>
       </c>
       <c r="O43" s="15" t="s">
-        <v>611</v>
+        <v>572</v>
       </c>
       <c r="P43" s="16">
         <v>0</v>
@@ -10558,8 +10751,11 @@
       <c r="S43" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="W43" s="16">
-        <v>2</v>
+      <c r="T43" s="14" t="s">
+        <v>654</v>
+      </c>
+      <c r="W43" s="14">
+        <v>4</v>
       </c>
       <c r="X43" s="24" t="s">
         <v>85</v>
@@ -10571,13 +10767,13 @@
         <v>0</v>
       </c>
       <c r="AA43" s="48" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AB43" s="24" t="s">
         <v>210</v>
       </c>
       <c r="AC43" s="48" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="AD43" s="32" t="s">
         <v>89</v>
@@ -10591,28 +10787,29 @@
       <c r="AG43" s="16">
         <v>0</v>
       </c>
-      <c r="AH43" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI43" s="14">
-        <v>2</v>
+      <c r="AH43" s="14"/>
+      <c r="AI43" s="16">
+        <v>0</v>
       </c>
       <c r="AJ43" s="14">
         <v>2</v>
       </c>
-      <c r="AK43" s="48" t="s">
-        <v>461</v>
-      </c>
-      <c r="AL43" s="14">
-        <v>0</v>
+      <c r="AK43" s="14">
+        <v>2</v>
+      </c>
+      <c r="AL43" s="48" t="s">
+        <v>440</v>
       </c>
       <c r="AM43" s="14">
         <v>0</v>
       </c>
+      <c r="AN43" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:39" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:40" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="18" t="s">
-        <v>537</v>
+        <v>507</v>
       </c>
       <c r="C44" s="15">
         <v>0</v>
@@ -10651,7 +10848,7 @@
         <v>2</v>
       </c>
       <c r="O44" s="15" t="s">
-        <v>612</v>
+        <v>573</v>
       </c>
       <c r="P44" s="15">
         <v>0</v>
@@ -10665,8 +10862,11 @@
       <c r="S44" s="23" t="s">
         <v>84</v>
       </c>
+      <c r="T44" s="15" t="s">
+        <v>654</v>
+      </c>
       <c r="W44" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X44" s="24" t="s">
         <v>85</v>
@@ -10678,13 +10878,13 @@
         <v>0</v>
       </c>
       <c r="AA44" s="48" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="AB44" s="24" t="s">
         <v>210</v>
       </c>
       <c r="AC44" s="48" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="AD44" s="31" t="s">
         <v>89</v>
@@ -10698,28 +10898,28 @@
       <c r="AG44" s="15">
         <v>0</v>
       </c>
-      <c r="AH44" s="15">
-        <v>0</v>
-      </c>
       <c r="AI44" s="15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ44" s="15">
         <v>2</v>
       </c>
-      <c r="AK44" s="48" t="s">
-        <v>462</v>
-      </c>
-      <c r="AL44" s="15">
-        <v>0</v>
+      <c r="AK44" s="15">
+        <v>2</v>
+      </c>
+      <c r="AL44" s="48" t="s">
+        <v>441</v>
       </c>
       <c r="AM44" s="15">
         <v>0</v>
       </c>
+      <c r="AN44" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:39" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:40" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="18" t="s">
-        <v>538</v>
+        <v>508</v>
       </c>
       <c r="C45" s="15">
         <v>0</v>
@@ -10758,7 +10958,7 @@
         <v>2</v>
       </c>
       <c r="O45" s="15" t="s">
-        <v>613</v>
+        <v>574</v>
       </c>
       <c r="P45" s="15">
         <v>0</v>
@@ -10772,8 +10972,11 @@
       <c r="S45" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="W45" s="15">
-        <v>2</v>
+      <c r="T45" s="14" t="s">
+        <v>654</v>
+      </c>
+      <c r="W45" s="14">
+        <v>4</v>
       </c>
       <c r="X45" s="24" t="s">
         <v>85</v>
@@ -10785,13 +10988,13 @@
         <v>0</v>
       </c>
       <c r="AA45" s="48" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="AB45" s="24" t="s">
         <v>210</v>
       </c>
       <c r="AC45" s="48" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="AD45" s="31" t="s">
         <v>89</v>
@@ -10805,28 +11008,29 @@
       <c r="AG45" s="15">
         <v>0</v>
       </c>
-      <c r="AH45" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI45" s="14">
-        <v>2</v>
+      <c r="AH45" s="14"/>
+      <c r="AI45" s="15">
+        <v>0</v>
       </c>
       <c r="AJ45" s="14">
         <v>2</v>
       </c>
-      <c r="AK45" s="48" t="s">
-        <v>463</v>
-      </c>
-      <c r="AL45" s="14">
-        <v>0</v>
+      <c r="AK45" s="14">
+        <v>2</v>
+      </c>
+      <c r="AL45" s="48" t="s">
+        <v>442</v>
       </c>
       <c r="AM45" s="14">
         <v>0</v>
       </c>
+      <c r="AN45" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:39" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:40" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A46" s="19" t="s">
-        <v>539</v>
+        <v>509</v>
       </c>
       <c r="C46" s="16">
         <v>0</v>
@@ -10865,7 +11069,7 @@
         <v>2</v>
       </c>
       <c r="O46" s="15" t="s">
-        <v>614</v>
+        <v>575</v>
       </c>
       <c r="P46" s="16">
         <v>0</v>
@@ -10879,8 +11083,11 @@
       <c r="S46" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="W46" s="16">
-        <v>2</v>
+      <c r="T46" s="15" t="s">
+        <v>654</v>
+      </c>
+      <c r="W46" s="15">
+        <v>4</v>
       </c>
       <c r="X46" s="24" t="s">
         <v>85</v>
@@ -10892,13 +11099,13 @@
         <v>0</v>
       </c>
       <c r="AA46" s="48" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="AB46" s="24" t="s">
         <v>210</v>
       </c>
       <c r="AC46" s="48" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="AD46" s="32" t="s">
         <v>89</v>
@@ -10912,28 +11119,29 @@
       <c r="AG46" s="16">
         <v>0</v>
       </c>
-      <c r="AH46" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI46" s="15">
-        <v>2</v>
+      <c r="AH46" s="15"/>
+      <c r="AI46" s="16">
+        <v>0</v>
       </c>
       <c r="AJ46" s="15">
         <v>2</v>
       </c>
-      <c r="AK46" s="48" t="s">
-        <v>464</v>
-      </c>
-      <c r="AL46" s="15">
-        <v>0</v>
+      <c r="AK46" s="15">
+        <v>2</v>
+      </c>
+      <c r="AL46" s="48" t="s">
+        <v>443</v>
       </c>
       <c r="AM46" s="15">
         <v>0</v>
       </c>
+      <c r="AN46" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="B47" s="15"/>
       <c r="C47" s="15">
@@ -10973,7 +11181,7 @@
         <v>2</v>
       </c>
       <c r="O47" t="s">
-        <v>615</v>
+        <v>576</v>
       </c>
       <c r="P47" s="15">
         <v>0</v>
@@ -10987,11 +11195,13 @@
       <c r="S47" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="T47" s="15"/>
+      <c r="T47" s="14" t="s">
+        <v>654</v>
+      </c>
       <c r="U47" s="15"/>
       <c r="V47" s="15"/>
-      <c r="W47" s="15">
-        <v>2</v>
+      <c r="W47" s="14">
+        <v>4</v>
       </c>
       <c r="X47" s="24" t="s">
         <v>85</v>
@@ -11003,13 +11213,13 @@
         <v>0</v>
       </c>
       <c r="AA47" s="48" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AB47" s="24" t="s">
         <v>210</v>
       </c>
       <c r="AC47" s="48" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="AD47" s="31" t="s">
         <v>89</v>
@@ -11023,28 +11233,29 @@
       <c r="AG47" s="15">
         <v>0</v>
       </c>
-      <c r="AH47" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI47" s="14">
-        <v>2</v>
+      <c r="AH47" s="14"/>
+      <c r="AI47" s="15">
+        <v>0</v>
       </c>
       <c r="AJ47" s="14">
         <v>2</v>
       </c>
-      <c r="AK47" s="48" t="s">
-        <v>465</v>
-      </c>
-      <c r="AL47" s="15">
-        <v>0</v>
+      <c r="AK47" s="14">
+        <v>2</v>
+      </c>
+      <c r="AL47" s="48" t="s">
+        <v>444</v>
       </c>
       <c r="AM47" s="15">
         <v>0</v>
       </c>
+      <c r="AN47" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>541</v>
+        <v>511</v>
       </c>
       <c r="B48" s="15"/>
       <c r="C48" s="15">
@@ -11084,7 +11295,7 @@
         <v>2</v>
       </c>
       <c r="O48" t="s">
-        <v>616</v>
+        <v>577</v>
       </c>
       <c r="P48" s="15">
         <v>0</v>
@@ -11098,11 +11309,13 @@
       <c r="S48" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="T48" s="15"/>
+      <c r="T48" s="15" t="s">
+        <v>654</v>
+      </c>
       <c r="U48" s="15"/>
       <c r="V48" s="15"/>
       <c r="W48" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X48" s="24" t="s">
         <v>85</v>
@@ -11114,13 +11327,13 @@
         <v>0</v>
       </c>
       <c r="AA48" s="48" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AB48" s="24" t="s">
         <v>210</v>
       </c>
       <c r="AC48" s="48" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="AD48" s="32" t="s">
         <v>89</v>
@@ -11134,28 +11347,29 @@
       <c r="AG48" s="16">
         <v>0</v>
       </c>
-      <c r="AH48" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI48" s="15">
-        <v>2</v>
+      <c r="AH48" s="15"/>
+      <c r="AI48" s="16">
+        <v>0</v>
       </c>
       <c r="AJ48" s="15">
         <v>2</v>
       </c>
-      <c r="AK48" s="48" t="s">
-        <v>466</v>
-      </c>
-      <c r="AL48" s="14">
-        <v>0</v>
+      <c r="AK48" s="15">
+        <v>2</v>
+      </c>
+      <c r="AL48" s="48" t="s">
+        <v>445</v>
       </c>
       <c r="AM48" s="14">
         <v>0</v>
       </c>
+      <c r="AN48" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>542</v>
+        <v>512</v>
       </c>
       <c r="B49" s="16"/>
       <c r="C49" s="16">
@@ -11195,7 +11409,7 @@
         <v>2</v>
       </c>
       <c r="O49" t="s">
-        <v>617</v>
+        <v>578</v>
       </c>
       <c r="P49" s="16">
         <v>0</v>
@@ -11209,11 +11423,13 @@
       <c r="S49" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="T49" s="16"/>
+      <c r="T49" s="14" t="s">
+        <v>654</v>
+      </c>
       <c r="U49" s="16"/>
       <c r="V49" s="16"/>
-      <c r="W49" s="16">
-        <v>2</v>
+      <c r="W49" s="14">
+        <v>4</v>
       </c>
       <c r="X49" s="24" t="s">
         <v>85</v>
@@ -11225,13 +11441,13 @@
         <v>0</v>
       </c>
       <c r="AA49" s="48" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="AB49" s="24" t="s">
         <v>210</v>
       </c>
       <c r="AC49" s="48" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="AD49" s="31" t="s">
         <v>89</v>
@@ -11245,28 +11461,29 @@
       <c r="AG49" s="15">
         <v>0</v>
       </c>
-      <c r="AH49" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI49" s="14">
-        <v>2</v>
+      <c r="AH49" s="14"/>
+      <c r="AI49" s="15">
+        <v>0</v>
       </c>
       <c r="AJ49" s="14">
         <v>2</v>
       </c>
-      <c r="AK49" s="48" t="s">
-        <v>467</v>
-      </c>
-      <c r="AL49" s="15">
-        <v>0</v>
+      <c r="AK49" s="14">
+        <v>2</v>
+      </c>
+      <c r="AL49" s="48" t="s">
+        <v>446</v>
       </c>
       <c r="AM49" s="15">
         <v>0</v>
       </c>
+      <c r="AN49" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>543</v>
+        <v>513</v>
       </c>
       <c r="B50" s="15"/>
       <c r="C50" s="15">
@@ -11306,7 +11523,7 @@
         <v>2</v>
       </c>
       <c r="O50" t="s">
-        <v>618</v>
+        <v>579</v>
       </c>
       <c r="P50" s="15">
         <v>0</v>
@@ -11320,11 +11537,13 @@
       <c r="S50" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="T50" s="15"/>
+      <c r="T50" s="15" t="s">
+        <v>654</v>
+      </c>
       <c r="U50" s="15"/>
       <c r="V50" s="15"/>
       <c r="W50" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X50" s="24" t="s">
         <v>85</v>
@@ -11336,13 +11555,13 @@
         <v>0</v>
       </c>
       <c r="AA50" s="48" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="AB50" s="24" t="s">
         <v>210</v>
       </c>
       <c r="AC50" s="48" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="AD50" s="32" t="s">
         <v>89</v>
@@ -11356,28 +11575,29 @@
       <c r="AG50" s="16">
         <v>0</v>
       </c>
-      <c r="AH50" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI50" s="15">
-        <v>2</v>
+      <c r="AH50" s="15"/>
+      <c r="AI50" s="16">
+        <v>0</v>
       </c>
       <c r="AJ50" s="15">
         <v>2</v>
       </c>
-      <c r="AK50" s="48" t="s">
-        <v>468</v>
-      </c>
-      <c r="AL50" s="15">
-        <v>0</v>
+      <c r="AK50" s="15">
+        <v>2</v>
+      </c>
+      <c r="AL50" s="48" t="s">
+        <v>447</v>
       </c>
       <c r="AM50" s="15">
         <v>0</v>
       </c>
+      <c r="AN50" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>544</v>
+        <v>514</v>
       </c>
       <c r="B51" s="15"/>
       <c r="C51" s="15">
@@ -11417,7 +11637,7 @@
         <v>2</v>
       </c>
       <c r="O51" t="s">
-        <v>619</v>
+        <v>580</v>
       </c>
       <c r="P51" s="15">
         <v>0</v>
@@ -11431,11 +11651,13 @@
       <c r="S51" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="T51" s="15"/>
+      <c r="T51" s="14" t="s">
+        <v>654</v>
+      </c>
       <c r="U51" s="15"/>
       <c r="V51" s="15"/>
-      <c r="W51" s="15">
-        <v>2</v>
+      <c r="W51" s="14">
+        <v>4</v>
       </c>
       <c r="X51" s="24" t="s">
         <v>85</v>
@@ -11447,13 +11669,13 @@
         <v>0</v>
       </c>
       <c r="AA51" s="48" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="AB51" s="24" t="s">
         <v>210</v>
       </c>
       <c r="AC51" s="48" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="AD51" s="31" t="s">
         <v>89</v>
@@ -11467,28 +11689,29 @@
       <c r="AG51" s="15">
         <v>0</v>
       </c>
-      <c r="AH51" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI51" s="14">
-        <v>2</v>
+      <c r="AH51" s="14"/>
+      <c r="AI51" s="15">
+        <v>0</v>
       </c>
       <c r="AJ51" s="14">
         <v>2</v>
       </c>
-      <c r="AK51" s="48" t="s">
-        <v>469</v>
-      </c>
-      <c r="AL51" s="14">
-        <v>0</v>
+      <c r="AK51" s="14">
+        <v>2</v>
+      </c>
+      <c r="AL51" s="48" t="s">
+        <v>448</v>
       </c>
       <c r="AM51" s="14">
         <v>0</v>
       </c>
+      <c r="AN51" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>545</v>
+        <v>515</v>
       </c>
       <c r="B52" s="16"/>
       <c r="C52" s="16">
@@ -11528,7 +11751,7 @@
         <v>2</v>
       </c>
       <c r="O52" t="s">
-        <v>620</v>
+        <v>581</v>
       </c>
       <c r="P52" s="16">
         <v>0</v>
@@ -11542,11 +11765,13 @@
       <c r="S52" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="T52" s="16"/>
+      <c r="T52" s="15" t="s">
+        <v>654</v>
+      </c>
       <c r="U52" s="16"/>
       <c r="V52" s="16"/>
-      <c r="W52" s="16">
-        <v>2</v>
+      <c r="W52" s="15">
+        <v>4</v>
       </c>
       <c r="X52" s="24" t="s">
         <v>85</v>
@@ -11558,13 +11783,13 @@
         <v>0</v>
       </c>
       <c r="AA52" s="48" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="AB52" s="24" t="s">
         <v>210</v>
       </c>
       <c r="AC52" s="48" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="AD52" s="32" t="s">
         <v>89</v>
@@ -11578,28 +11803,29 @@
       <c r="AG52" s="16">
         <v>0</v>
       </c>
-      <c r="AH52" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI52" s="15">
-        <v>2</v>
+      <c r="AH52" s="15"/>
+      <c r="AI52" s="16">
+        <v>0</v>
       </c>
       <c r="AJ52" s="15">
         <v>2</v>
       </c>
-      <c r="AK52" s="48" t="s">
-        <v>470</v>
-      </c>
-      <c r="AL52" s="15">
-        <v>0</v>
+      <c r="AK52" s="15">
+        <v>2</v>
+      </c>
+      <c r="AL52" s="48" t="s">
+        <v>449</v>
       </c>
       <c r="AM52" s="15">
         <v>0</v>
       </c>
+      <c r="AN52" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>546</v>
+        <v>516</v>
       </c>
       <c r="B53" s="15"/>
       <c r="C53" s="15">
@@ -11639,7 +11865,7 @@
         <v>2</v>
       </c>
       <c r="O53" t="s">
-        <v>621</v>
+        <v>582</v>
       </c>
       <c r="P53" s="15">
         <v>0</v>
@@ -11653,11 +11879,13 @@
       <c r="S53" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="T53" s="15"/>
+      <c r="T53" s="14" t="s">
+        <v>654</v>
+      </c>
       <c r="U53" s="15"/>
       <c r="V53" s="15"/>
-      <c r="W53" s="15">
-        <v>2</v>
+      <c r="W53" s="14">
+        <v>4</v>
       </c>
       <c r="X53" s="24" t="s">
         <v>85</v>
@@ -11669,13 +11897,13 @@
         <v>0</v>
       </c>
       <c r="AA53" s="48" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="AB53" s="24" t="s">
         <v>210</v>
       </c>
       <c r="AC53" s="48" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="AD53" s="31" t="s">
         <v>89</v>
@@ -11689,28 +11917,29 @@
       <c r="AG53" s="15">
         <v>0</v>
       </c>
-      <c r="AH53" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI53" s="14">
-        <v>2</v>
+      <c r="AH53" s="14"/>
+      <c r="AI53" s="15">
+        <v>0</v>
       </c>
       <c r="AJ53" s="14">
         <v>2</v>
       </c>
-      <c r="AK53" s="48" t="s">
-        <v>471</v>
-      </c>
-      <c r="AL53" s="15">
-        <v>0</v>
+      <c r="AK53" s="14">
+        <v>2</v>
+      </c>
+      <c r="AL53" s="48" t="s">
+        <v>450</v>
       </c>
       <c r="AM53" s="15">
         <v>0</v>
       </c>
+      <c r="AN53" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="54" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>547</v>
+        <v>517</v>
       </c>
       <c r="B54" s="15"/>
       <c r="C54" s="15">
@@ -11750,7 +11979,7 @@
         <v>2</v>
       </c>
       <c r="O54" t="s">
-        <v>622</v>
+        <v>583</v>
       </c>
       <c r="P54" s="15">
         <v>0</v>
@@ -11764,11 +11993,13 @@
       <c r="S54" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="T54" s="15"/>
+      <c r="T54" s="15" t="s">
+        <v>654</v>
+      </c>
       <c r="U54" s="15"/>
       <c r="V54" s="15"/>
       <c r="W54" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X54" s="24" t="s">
         <v>85</v>
@@ -11780,13 +12011,13 @@
         <v>0</v>
       </c>
       <c r="AA54" s="48" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="AB54" s="24" t="s">
         <v>210</v>
       </c>
       <c r="AC54" s="48" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="AD54" s="32" t="s">
         <v>89</v>
@@ -11800,28 +12031,29 @@
       <c r="AG54" s="16">
         <v>0</v>
       </c>
-      <c r="AH54" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI54" s="15">
-        <v>2</v>
+      <c r="AH54" s="15"/>
+      <c r="AI54" s="16">
+        <v>0</v>
       </c>
       <c r="AJ54" s="15">
         <v>2</v>
       </c>
-      <c r="AK54" s="48" t="s">
-        <v>472</v>
-      </c>
-      <c r="AL54" s="14">
-        <v>0</v>
+      <c r="AK54" s="15">
+        <v>2</v>
+      </c>
+      <c r="AL54" s="48" t="s">
+        <v>451</v>
       </c>
       <c r="AM54" s="14">
         <v>0</v>
       </c>
+      <c r="AN54" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="55" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>548</v>
+        <v>518</v>
       </c>
       <c r="B55" s="16"/>
       <c r="C55" s="16">
@@ -11861,7 +12093,7 @@
         <v>2</v>
       </c>
       <c r="O55" t="s">
-        <v>623</v>
+        <v>584</v>
       </c>
       <c r="P55" s="16">
         <v>0</v>
@@ -11875,11 +12107,13 @@
       <c r="S55" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="T55" s="16"/>
+      <c r="T55" s="14" t="s">
+        <v>654</v>
+      </c>
       <c r="U55" s="16"/>
       <c r="V55" s="16"/>
-      <c r="W55" s="16">
-        <v>2</v>
+      <c r="W55" s="14">
+        <v>4</v>
       </c>
       <c r="X55" s="24" t="s">
         <v>85</v>
@@ -11891,13 +12125,13 @@
         <v>0</v>
       </c>
       <c r="AA55" s="48" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="AB55" s="24" t="s">
         <v>210</v>
       </c>
       <c r="AC55" s="48" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="AD55" s="31" t="s">
         <v>89</v>
@@ -11911,28 +12145,29 @@
       <c r="AG55" s="15">
         <v>0</v>
       </c>
-      <c r="AH55" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI55" s="14">
-        <v>2</v>
+      <c r="AH55" s="14"/>
+      <c r="AI55" s="15">
+        <v>0</v>
       </c>
       <c r="AJ55" s="14">
         <v>2</v>
       </c>
-      <c r="AK55" s="48" t="s">
-        <v>473</v>
-      </c>
-      <c r="AL55" s="15">
-        <v>0</v>
+      <c r="AK55" s="14">
+        <v>2</v>
+      </c>
+      <c r="AL55" s="48" t="s">
+        <v>452</v>
       </c>
       <c r="AM55" s="15">
         <v>0</v>
       </c>
+      <c r="AN55" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="56" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>549</v>
+        <v>609</v>
       </c>
       <c r="B56" s="15"/>
       <c r="C56" s="15">
@@ -11972,7 +12207,7 @@
         <v>2</v>
       </c>
       <c r="O56" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="P56" s="15">
         <v>0</v>
@@ -11986,11 +12221,13 @@
       <c r="S56" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="T56" s="15"/>
+      <c r="T56" s="15" t="s">
+        <v>654</v>
+      </c>
       <c r="U56" s="15"/>
       <c r="V56" s="15"/>
       <c r="W56" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X56" s="24" t="s">
         <v>85</v>
@@ -12002,13 +12239,13 @@
         <v>0</v>
       </c>
       <c r="AA56" s="48" t="s">
-        <v>324</v>
+        <v>615</v>
       </c>
       <c r="AB56" s="24" t="s">
         <v>210</v>
       </c>
       <c r="AC56" s="48" t="s">
-        <v>399</v>
+        <v>618</v>
       </c>
       <c r="AD56" s="32" t="s">
         <v>89</v>
@@ -12022,28 +12259,29 @@
       <c r="AG56" s="16">
         <v>0</v>
       </c>
-      <c r="AH56" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI56" s="15">
-        <v>2</v>
+      <c r="AH56" s="15"/>
+      <c r="AI56" s="16">
+        <v>0</v>
       </c>
       <c r="AJ56" s="15">
         <v>2</v>
       </c>
-      <c r="AK56" s="48" t="s">
-        <v>474</v>
-      </c>
-      <c r="AL56" s="15">
-        <v>0</v>
+      <c r="AK56" s="15">
+        <v>2</v>
+      </c>
+      <c r="AL56" s="48" t="s">
+        <v>621</v>
       </c>
       <c r="AM56" s="15">
         <v>0</v>
       </c>
+      <c r="AN56" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>550</v>
+        <v>610</v>
       </c>
       <c r="B57" s="15"/>
       <c r="C57" s="15">
@@ -12083,7 +12321,7 @@
         <v>2</v>
       </c>
       <c r="O57" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="P57" s="15">
         <v>0</v>
@@ -12097,11 +12335,13 @@
       <c r="S57" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="T57" s="15"/>
+      <c r="T57" s="14" t="s">
+        <v>654</v>
+      </c>
       <c r="U57" s="15"/>
       <c r="V57" s="15"/>
-      <c r="W57" s="15">
-        <v>2</v>
+      <c r="W57" s="14">
+        <v>4</v>
       </c>
       <c r="X57" s="24" t="s">
         <v>85</v>
@@ -12113,13 +12353,13 @@
         <v>0</v>
       </c>
       <c r="AA57" s="48" t="s">
-        <v>325</v>
+        <v>616</v>
       </c>
       <c r="AB57" s="24" t="s">
         <v>210</v>
       </c>
       <c r="AC57" s="48" t="s">
-        <v>400</v>
+        <v>619</v>
       </c>
       <c r="AD57" s="31" t="s">
         <v>89</v>
@@ -12133,28 +12373,29 @@
       <c r="AG57" s="15">
         <v>0</v>
       </c>
-      <c r="AH57" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI57" s="14">
-        <v>2</v>
+      <c r="AH57" s="14"/>
+      <c r="AI57" s="15">
+        <v>0</v>
       </c>
       <c r="AJ57" s="14">
         <v>2</v>
       </c>
-      <c r="AK57" s="48" t="s">
-        <v>475</v>
-      </c>
-      <c r="AL57" s="14">
-        <v>0</v>
+      <c r="AK57" s="14">
+        <v>2</v>
+      </c>
+      <c r="AL57" s="48" t="s">
+        <v>622</v>
       </c>
       <c r="AM57" s="14">
         <v>0</v>
       </c>
+      <c r="AN57" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>551</v>
+        <v>611</v>
       </c>
       <c r="B58" s="16"/>
       <c r="C58" s="16">
@@ -12194,7 +12435,7 @@
         <v>2</v>
       </c>
       <c r="O58" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="P58" s="16">
         <v>0</v>
@@ -12208,11 +12449,13 @@
       <c r="S58" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="T58" s="16"/>
+      <c r="T58" s="15" t="s">
+        <v>654</v>
+      </c>
       <c r="U58" s="16"/>
       <c r="V58" s="16"/>
-      <c r="W58" s="16">
-        <v>2</v>
+      <c r="W58" s="15">
+        <v>4</v>
       </c>
       <c r="X58" s="24" t="s">
         <v>85</v>
@@ -12224,13 +12467,13 @@
         <v>0</v>
       </c>
       <c r="AA58" s="48" t="s">
-        <v>326</v>
+        <v>617</v>
       </c>
       <c r="AB58" s="24" t="s">
         <v>210</v>
       </c>
       <c r="AC58" s="48" t="s">
-        <v>401</v>
+        <v>620</v>
       </c>
       <c r="AD58" s="32" t="s">
         <v>89</v>
@@ -12244,28 +12487,29 @@
       <c r="AG58" s="16">
         <v>0</v>
       </c>
-      <c r="AH58" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI58" s="15">
-        <v>2</v>
+      <c r="AH58" s="15"/>
+      <c r="AI58" s="16">
+        <v>0</v>
       </c>
       <c r="AJ58" s="15">
         <v>2</v>
       </c>
-      <c r="AK58" s="48" t="s">
-        <v>476</v>
-      </c>
-      <c r="AL58" s="15">
-        <v>0</v>
+      <c r="AK58" s="15">
+        <v>2</v>
+      </c>
+      <c r="AL58" s="48" t="s">
+        <v>623</v>
       </c>
       <c r="AM58" s="15">
         <v>0</v>
       </c>
+      <c r="AN58" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="59" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>552</v>
+        <v>519</v>
       </c>
       <c r="B59" s="15"/>
       <c r="C59" s="15">
@@ -12305,7 +12549,7 @@
         <v>2</v>
       </c>
       <c r="O59" t="s">
-        <v>627</v>
+        <v>585</v>
       </c>
       <c r="P59" s="15">
         <v>0</v>
@@ -12319,11 +12563,13 @@
       <c r="S59" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="T59" s="15"/>
+      <c r="T59" s="14" t="s">
+        <v>654</v>
+      </c>
       <c r="U59" s="15"/>
       <c r="V59" s="15"/>
-      <c r="W59" s="15">
-        <v>2</v>
+      <c r="W59" s="14">
+        <v>4</v>
       </c>
       <c r="X59" s="24" t="s">
         <v>85</v>
@@ -12335,13 +12581,13 @@
         <v>0</v>
       </c>
       <c r="AA59" s="48" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="AB59" s="24" t="s">
         <v>210</v>
       </c>
       <c r="AC59" s="48" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="AD59" s="31" t="s">
         <v>89</v>
@@ -12355,28 +12601,29 @@
       <c r="AG59" s="15">
         <v>0</v>
       </c>
-      <c r="AH59" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI59" s="14">
-        <v>2</v>
+      <c r="AH59" s="14"/>
+      <c r="AI59" s="15">
+        <v>0</v>
       </c>
       <c r="AJ59" s="14">
         <v>2</v>
       </c>
-      <c r="AK59" s="48" t="s">
-        <v>477</v>
-      </c>
-      <c r="AL59" s="15">
-        <v>0</v>
+      <c r="AK59" s="14">
+        <v>2</v>
+      </c>
+      <c r="AL59" s="48" t="s">
+        <v>453</v>
       </c>
       <c r="AM59" s="15">
         <v>0</v>
       </c>
+      <c r="AN59" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="60" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>553</v>
+        <v>520</v>
       </c>
       <c r="B60" s="15"/>
       <c r="C60" s="15">
@@ -12416,7 +12663,7 @@
         <v>2</v>
       </c>
       <c r="O60" t="s">
-        <v>628</v>
+        <v>586</v>
       </c>
       <c r="P60" s="15">
         <v>0</v>
@@ -12430,11 +12677,13 @@
       <c r="S60" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="T60" s="15"/>
+      <c r="T60" s="15" t="s">
+        <v>654</v>
+      </c>
       <c r="U60" s="15"/>
       <c r="V60" s="15"/>
       <c r="W60" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X60" s="24" t="s">
         <v>85</v>
@@ -12446,13 +12695,13 @@
         <v>0</v>
       </c>
       <c r="AA60" s="48" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="AB60" s="24" t="s">
         <v>210</v>
       </c>
       <c r="AC60" s="48" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="AD60" s="32" t="s">
         <v>89</v>
@@ -12466,28 +12715,29 @@
       <c r="AG60" s="16">
         <v>0</v>
       </c>
-      <c r="AH60" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI60" s="15">
-        <v>2</v>
+      <c r="AH60" s="15"/>
+      <c r="AI60" s="16">
+        <v>0</v>
       </c>
       <c r="AJ60" s="15">
         <v>2</v>
       </c>
-      <c r="AK60" s="48" t="s">
-        <v>478</v>
-      </c>
-      <c r="AL60" s="14">
-        <v>0</v>
+      <c r="AK60" s="15">
+        <v>2</v>
+      </c>
+      <c r="AL60" s="48" t="s">
+        <v>454</v>
       </c>
       <c r="AM60" s="14">
         <v>0</v>
       </c>
+      <c r="AN60" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="61" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>554</v>
+        <v>521</v>
       </c>
       <c r="B61" s="16"/>
       <c r="C61" s="16">
@@ -12527,7 +12777,7 @@
         <v>2</v>
       </c>
       <c r="O61" t="s">
-        <v>629</v>
+        <v>587</v>
       </c>
       <c r="P61" s="16">
         <v>0</v>
@@ -12541,11 +12791,13 @@
       <c r="S61" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="T61" s="16"/>
+      <c r="T61" s="14" t="s">
+        <v>654</v>
+      </c>
       <c r="U61" s="16"/>
       <c r="V61" s="16"/>
-      <c r="W61" s="16">
-        <v>2</v>
+      <c r="W61" s="14">
+        <v>4</v>
       </c>
       <c r="X61" s="24" t="s">
         <v>85</v>
@@ -12557,13 +12809,13 @@
         <v>0</v>
       </c>
       <c r="AA61" s="48" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="AB61" s="24" t="s">
         <v>210</v>
       </c>
       <c r="AC61" s="48" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="AD61" s="31" t="s">
         <v>89</v>
@@ -12577,28 +12829,29 @@
       <c r="AG61" s="15">
         <v>0</v>
       </c>
-      <c r="AH61" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI61" s="14">
-        <v>2</v>
+      <c r="AH61" s="14"/>
+      <c r="AI61" s="15">
+        <v>0</v>
       </c>
       <c r="AJ61" s="14">
         <v>2</v>
       </c>
-      <c r="AK61" s="48" t="s">
-        <v>479</v>
-      </c>
-      <c r="AL61" s="15">
-        <v>0</v>
+      <c r="AK61" s="14">
+        <v>2</v>
+      </c>
+      <c r="AL61" s="48" t="s">
+        <v>455</v>
       </c>
       <c r="AM61" s="15">
         <v>0</v>
       </c>
+      <c r="AN61" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="62" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>555</v>
+        <v>522</v>
       </c>
       <c r="B62" s="15"/>
       <c r="C62" s="15">
@@ -12638,7 +12891,7 @@
         <v>2</v>
       </c>
       <c r="O62" t="s">
-        <v>630</v>
+        <v>588</v>
       </c>
       <c r="P62" s="15">
         <v>0</v>
@@ -12652,11 +12905,13 @@
       <c r="S62" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="T62" s="15"/>
+      <c r="T62" s="15" t="s">
+        <v>654</v>
+      </c>
       <c r="U62" s="15"/>
       <c r="V62" s="15"/>
       <c r="W62" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X62" s="24" t="s">
         <v>85</v>
@@ -12668,13 +12923,13 @@
         <v>0</v>
       </c>
       <c r="AA62" s="48" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="AB62" s="24" t="s">
         <v>210</v>
       </c>
       <c r="AC62" s="48" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="AD62" s="31" t="s">
         <v>89</v>
@@ -12688,28 +12943,29 @@
       <c r="AG62" s="15">
         <v>0</v>
       </c>
-      <c r="AH62" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI62" s="14">
-        <v>2</v>
+      <c r="AH62" s="15"/>
+      <c r="AI62" s="15">
+        <v>0</v>
       </c>
       <c r="AJ62" s="14">
         <v>2</v>
       </c>
-      <c r="AK62" s="48" t="s">
-        <v>480</v>
-      </c>
-      <c r="AL62" s="15">
-        <v>0</v>
+      <c r="AK62" s="14">
+        <v>2</v>
+      </c>
+      <c r="AL62" s="48" t="s">
+        <v>456</v>
       </c>
       <c r="AM62" s="15">
         <v>0</v>
       </c>
+      <c r="AN62" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="63" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>556</v>
+        <v>523</v>
       </c>
       <c r="B63" s="15"/>
       <c r="C63" s="15">
@@ -12749,7 +13005,7 @@
         <v>2</v>
       </c>
       <c r="O63" t="s">
-        <v>631</v>
+        <v>589</v>
       </c>
       <c r="P63" s="15">
         <v>0</v>
@@ -12763,11 +13019,13 @@
       <c r="S63" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="T63" s="15"/>
+      <c r="T63" s="14" t="s">
+        <v>654</v>
+      </c>
       <c r="U63" s="15"/>
       <c r="V63" s="15"/>
-      <c r="W63" s="15">
-        <v>2</v>
+      <c r="W63" s="14">
+        <v>4</v>
       </c>
       <c r="X63" s="24" t="s">
         <v>85</v>
@@ -12779,13 +13037,13 @@
         <v>0</v>
       </c>
       <c r="AA63" s="48" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="AB63" s="24" t="s">
         <v>210</v>
       </c>
       <c r="AC63" s="48" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="AD63" s="32" t="s">
         <v>89</v>
@@ -12799,28 +13057,29 @@
       <c r="AG63" s="16">
         <v>0</v>
       </c>
-      <c r="AH63" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI63" s="15">
-        <v>2</v>
+      <c r="AH63" s="14"/>
+      <c r="AI63" s="16">
+        <v>0</v>
       </c>
       <c r="AJ63" s="15">
         <v>2</v>
       </c>
-      <c r="AK63" s="48" t="s">
-        <v>481</v>
-      </c>
-      <c r="AL63" s="14">
-        <v>0</v>
+      <c r="AK63" s="15">
+        <v>2</v>
+      </c>
+      <c r="AL63" s="48" t="s">
+        <v>457</v>
       </c>
       <c r="AM63" s="14">
         <v>0</v>
       </c>
+      <c r="AN63" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="64" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>557</v>
+        <v>524</v>
       </c>
       <c r="B64" s="16"/>
       <c r="C64" s="16">
@@ -12860,7 +13119,7 @@
         <v>2</v>
       </c>
       <c r="O64" t="s">
-        <v>632</v>
+        <v>590</v>
       </c>
       <c r="P64" s="16">
         <v>0</v>
@@ -12874,11 +13133,13 @@
       <c r="S64" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="T64" s="16"/>
+      <c r="T64" s="15" t="s">
+        <v>654</v>
+      </c>
       <c r="U64" s="16"/>
       <c r="V64" s="16"/>
-      <c r="W64" s="16">
-        <v>2</v>
+      <c r="W64" s="15">
+        <v>4</v>
       </c>
       <c r="X64" s="24" t="s">
         <v>85</v>
@@ -12890,13 +13151,13 @@
         <v>0</v>
       </c>
       <c r="AA64" s="48" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="AB64" s="24" t="s">
         <v>210</v>
       </c>
       <c r="AC64" s="48" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="AD64" s="31" t="s">
         <v>89</v>
@@ -12910,28 +13171,29 @@
       <c r="AG64" s="15">
         <v>0</v>
       </c>
-      <c r="AH64" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI64" s="14">
-        <v>2</v>
+      <c r="AH64" s="15"/>
+      <c r="AI64" s="15">
+        <v>0</v>
       </c>
       <c r="AJ64" s="14">
         <v>2</v>
       </c>
-      <c r="AK64" s="48" t="s">
-        <v>482</v>
-      </c>
-      <c r="AL64" s="15">
-        <v>0</v>
+      <c r="AK64" s="14">
+        <v>2</v>
+      </c>
+      <c r="AL64" s="48" t="s">
+        <v>458</v>
       </c>
       <c r="AM64" s="15">
         <v>0</v>
       </c>
+      <c r="AN64" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="65" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>558</v>
+        <v>525</v>
       </c>
       <c r="B65" s="15"/>
       <c r="C65" s="15">
@@ -12971,7 +13233,7 @@
         <v>2</v>
       </c>
       <c r="O65" t="s">
-        <v>633</v>
+        <v>591</v>
       </c>
       <c r="P65" s="15">
         <v>0</v>
@@ -12985,11 +13247,13 @@
       <c r="S65" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="T65" s="15"/>
+      <c r="T65" s="14" t="s">
+        <v>654</v>
+      </c>
       <c r="U65" s="15"/>
       <c r="V65" s="15"/>
-      <c r="W65" s="15">
-        <v>2</v>
+      <c r="W65" s="14">
+        <v>4</v>
       </c>
       <c r="X65" s="24" t="s">
         <v>85</v>
@@ -13001,13 +13265,13 @@
         <v>0</v>
       </c>
       <c r="AA65" s="48" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="AB65" s="24" t="s">
         <v>210</v>
       </c>
       <c r="AC65" s="48" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="AD65" s="32" t="s">
         <v>89</v>
@@ -13021,28 +13285,29 @@
       <c r="AG65" s="16">
         <v>0</v>
       </c>
-      <c r="AH65" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI65" s="15">
-        <v>2</v>
+      <c r="AH65" s="14"/>
+      <c r="AI65" s="16">
+        <v>0</v>
       </c>
       <c r="AJ65" s="15">
         <v>2</v>
       </c>
-      <c r="AK65" s="48" t="s">
-        <v>483</v>
-      </c>
-      <c r="AL65" s="15">
-        <v>0</v>
+      <c r="AK65" s="15">
+        <v>2</v>
+      </c>
+      <c r="AL65" s="48" t="s">
+        <v>459</v>
       </c>
       <c r="AM65" s="15">
         <v>0</v>
       </c>
+      <c r="AN65" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="66" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>559</v>
+        <v>526</v>
       </c>
       <c r="B66" s="15"/>
       <c r="C66" s="15">
@@ -13082,7 +13347,7 @@
         <v>2</v>
       </c>
       <c r="O66" t="s">
-        <v>634</v>
+        <v>592</v>
       </c>
       <c r="P66" s="15">
         <v>0</v>
@@ -13096,11 +13361,13 @@
       <c r="S66" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="T66" s="15"/>
+      <c r="T66" s="15" t="s">
+        <v>654</v>
+      </c>
       <c r="U66" s="15"/>
       <c r="V66" s="15"/>
       <c r="W66" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X66" s="24" t="s">
         <v>85</v>
@@ -13112,13 +13379,13 @@
         <v>0</v>
       </c>
       <c r="AA66" s="48" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="AB66" s="24" t="s">
         <v>210</v>
       </c>
       <c r="AC66" s="48" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="AD66" s="31" t="s">
         <v>89</v>
@@ -13132,28 +13399,29 @@
       <c r="AG66" s="15">
         <v>0</v>
       </c>
-      <c r="AH66" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI66" s="14">
-        <v>2</v>
+      <c r="AH66" s="15"/>
+      <c r="AI66" s="15">
+        <v>0</v>
       </c>
       <c r="AJ66" s="14">
         <v>2</v>
       </c>
-      <c r="AK66" s="48" t="s">
-        <v>484</v>
-      </c>
-      <c r="AL66" s="14">
-        <v>0</v>
+      <c r="AK66" s="14">
+        <v>2</v>
+      </c>
+      <c r="AL66" s="48" t="s">
+        <v>460</v>
       </c>
       <c r="AM66" s="14">
         <v>0</v>
       </c>
+      <c r="AN66" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="67" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>560</v>
+        <v>527</v>
       </c>
       <c r="B67" s="16"/>
       <c r="C67" s="16">
@@ -13193,7 +13461,7 @@
         <v>2</v>
       </c>
       <c r="O67" t="s">
-        <v>635</v>
+        <v>593</v>
       </c>
       <c r="P67" s="16">
         <v>0</v>
@@ -13207,11 +13475,13 @@
       <c r="S67" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="T67" s="16"/>
+      <c r="T67" s="14" t="s">
+        <v>654</v>
+      </c>
       <c r="U67" s="16"/>
       <c r="V67" s="16"/>
-      <c r="W67" s="16">
-        <v>2</v>
+      <c r="W67" s="14">
+        <v>4</v>
       </c>
       <c r="X67" s="24" t="s">
         <v>85</v>
@@ -13223,13 +13493,13 @@
         <v>0</v>
       </c>
       <c r="AA67" s="48" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="AB67" s="24" t="s">
         <v>210</v>
       </c>
       <c r="AC67" s="48" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="AD67" s="32" t="s">
         <v>89</v>
@@ -13243,28 +13513,29 @@
       <c r="AG67" s="16">
         <v>0</v>
       </c>
-      <c r="AH67" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI67" s="15">
-        <v>2</v>
+      <c r="AH67" s="14"/>
+      <c r="AI67" s="16">
+        <v>0</v>
       </c>
       <c r="AJ67" s="15">
         <v>2</v>
       </c>
-      <c r="AK67" s="48" t="s">
-        <v>485</v>
-      </c>
-      <c r="AL67" s="15">
-        <v>0</v>
+      <c r="AK67" s="15">
+        <v>2</v>
+      </c>
+      <c r="AL67" s="48" t="s">
+        <v>461</v>
       </c>
       <c r="AM67" s="15">
         <v>0</v>
       </c>
+      <c r="AN67" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="68" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>561</v>
+        <v>528</v>
       </c>
       <c r="B68" s="15"/>
       <c r="C68" s="15">
@@ -13304,7 +13575,7 @@
         <v>2</v>
       </c>
       <c r="O68" t="s">
-        <v>636</v>
+        <v>594</v>
       </c>
       <c r="P68" s="15">
         <v>0</v>
@@ -13318,11 +13589,13 @@
       <c r="S68" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="T68" s="15"/>
+      <c r="T68" s="15" t="s">
+        <v>654</v>
+      </c>
       <c r="U68" s="15"/>
       <c r="V68" s="15"/>
       <c r="W68" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X68" s="24" t="s">
         <v>85</v>
@@ -13334,13 +13607,13 @@
         <v>0</v>
       </c>
       <c r="AA68" s="48" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="AB68" s="24" t="s">
         <v>210</v>
       </c>
       <c r="AC68" s="48" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="AD68" s="31" t="s">
         <v>89</v>
@@ -13354,28 +13627,29 @@
       <c r="AG68" s="15">
         <v>0</v>
       </c>
-      <c r="AH68" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI68" s="14">
-        <v>2</v>
+      <c r="AH68" s="15"/>
+      <c r="AI68" s="15">
+        <v>0</v>
       </c>
       <c r="AJ68" s="14">
         <v>2</v>
       </c>
-      <c r="AK68" s="48" t="s">
-        <v>486</v>
-      </c>
-      <c r="AL68" s="15">
-        <v>0</v>
+      <c r="AK68" s="14">
+        <v>2</v>
+      </c>
+      <c r="AL68" s="48" t="s">
+        <v>462</v>
       </c>
       <c r="AM68" s="15">
         <v>0</v>
       </c>
+      <c r="AN68" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="69" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>562</v>
+        <v>529</v>
       </c>
       <c r="B69" s="15"/>
       <c r="C69" s="15">
@@ -13415,7 +13689,7 @@
         <v>2</v>
       </c>
       <c r="O69" t="s">
-        <v>637</v>
+        <v>595</v>
       </c>
       <c r="P69" s="15">
         <v>0</v>
@@ -13429,11 +13703,13 @@
       <c r="S69" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="T69" s="15"/>
+      <c r="T69" s="14" t="s">
+        <v>654</v>
+      </c>
       <c r="U69" s="15"/>
       <c r="V69" s="15"/>
-      <c r="W69" s="15">
-        <v>2</v>
+      <c r="W69" s="14">
+        <v>4</v>
       </c>
       <c r="X69" s="24" t="s">
         <v>85</v>
@@ -13445,13 +13721,13 @@
         <v>0</v>
       </c>
       <c r="AA69" s="48" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="AB69" s="24" t="s">
         <v>210</v>
       </c>
       <c r="AC69" s="48" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="AD69" s="32" t="s">
         <v>89</v>
@@ -13465,28 +13741,29 @@
       <c r="AG69" s="16">
         <v>0</v>
       </c>
-      <c r="AH69" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI69" s="15">
-        <v>2</v>
+      <c r="AH69" s="14"/>
+      <c r="AI69" s="16">
+        <v>0</v>
       </c>
       <c r="AJ69" s="15">
         <v>2</v>
       </c>
-      <c r="AK69" s="48" t="s">
-        <v>487</v>
-      </c>
-      <c r="AL69" s="14">
-        <v>0</v>
+      <c r="AK69" s="15">
+        <v>2</v>
+      </c>
+      <c r="AL69" s="48" t="s">
+        <v>463</v>
       </c>
       <c r="AM69" s="14">
         <v>0</v>
       </c>
+      <c r="AN69" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="70" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>563</v>
+        <v>530</v>
       </c>
       <c r="B70" s="16"/>
       <c r="C70" s="16">
@@ -13526,7 +13803,7 @@
         <v>2</v>
       </c>
       <c r="O70" t="s">
-        <v>638</v>
+        <v>596</v>
       </c>
       <c r="P70" s="16">
         <v>0</v>
@@ -13540,11 +13817,13 @@
       <c r="S70" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="T70" s="16"/>
+      <c r="T70" s="15" t="s">
+        <v>654</v>
+      </c>
       <c r="U70" s="16"/>
       <c r="V70" s="16"/>
-      <c r="W70" s="16">
-        <v>2</v>
+      <c r="W70" s="15">
+        <v>4</v>
       </c>
       <c r="X70" s="24" t="s">
         <v>85</v>
@@ -13556,13 +13835,13 @@
         <v>0</v>
       </c>
       <c r="AA70" s="48" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="AB70" s="24" t="s">
         <v>210</v>
       </c>
       <c r="AC70" s="48" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="AD70" s="31" t="s">
         <v>89</v>
@@ -13576,28 +13855,29 @@
       <c r="AG70" s="15">
         <v>0</v>
       </c>
-      <c r="AH70" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI70" s="14">
-        <v>2</v>
+      <c r="AH70" s="15"/>
+      <c r="AI70" s="15">
+        <v>0</v>
       </c>
       <c r="AJ70" s="14">
         <v>2</v>
       </c>
-      <c r="AK70" s="48" t="s">
-        <v>488</v>
-      </c>
-      <c r="AL70" s="15">
-        <v>0</v>
+      <c r="AK70" s="14">
+        <v>2</v>
+      </c>
+      <c r="AL70" s="48" t="s">
+        <v>464</v>
       </c>
       <c r="AM70" s="15">
         <v>0</v>
       </c>
+      <c r="AN70" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="71" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>564</v>
+        <v>627</v>
       </c>
       <c r="B71" s="15"/>
       <c r="C71" s="15">
@@ -13637,7 +13917,7 @@
         <v>2</v>
       </c>
       <c r="O71" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="P71" s="15">
         <v>0</v>
@@ -13651,11 +13931,13 @@
       <c r="S71" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="T71" s="15"/>
+      <c r="T71" s="14" t="s">
+        <v>654</v>
+      </c>
       <c r="U71" s="15"/>
       <c r="V71" s="15"/>
-      <c r="W71" s="15">
-        <v>2</v>
+      <c r="W71" s="14">
+        <v>4</v>
       </c>
       <c r="X71" s="24" t="s">
         <v>85</v>
@@ -13667,13 +13949,13 @@
         <v>0</v>
       </c>
       <c r="AA71" s="48" t="s">
-        <v>339</v>
+        <v>633</v>
       </c>
       <c r="AB71" s="24" t="s">
         <v>210</v>
       </c>
       <c r="AC71" s="48" t="s">
-        <v>414</v>
+        <v>638</v>
       </c>
       <c r="AD71" s="32" t="s">
         <v>89</v>
@@ -13687,28 +13969,29 @@
       <c r="AG71" s="16">
         <v>0</v>
       </c>
-      <c r="AH71" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI71" s="15">
-        <v>2</v>
+      <c r="AH71" s="14"/>
+      <c r="AI71" s="16">
+        <v>0</v>
       </c>
       <c r="AJ71" s="15">
         <v>2</v>
       </c>
-      <c r="AK71" s="48" t="s">
-        <v>489</v>
-      </c>
-      <c r="AL71" s="15">
-        <v>0</v>
+      <c r="AK71" s="15">
+        <v>2</v>
+      </c>
+      <c r="AL71" s="48" t="s">
+        <v>624</v>
       </c>
       <c r="AM71" s="15">
         <v>0</v>
       </c>
+      <c r="AN71" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="72" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>565</v>
+        <v>628</v>
       </c>
       <c r="B72" s="15"/>
       <c r="C72" s="15">
@@ -13748,7 +14031,7 @@
         <v>2</v>
       </c>
       <c r="O72" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="P72" s="15">
         <v>0</v>
@@ -13762,11 +14045,13 @@
       <c r="S72" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="T72" s="15"/>
+      <c r="T72" s="15" t="s">
+        <v>654</v>
+      </c>
       <c r="U72" s="15"/>
       <c r="V72" s="15"/>
       <c r="W72" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X72" s="24" t="s">
         <v>85</v>
@@ -13778,13 +14063,13 @@
         <v>0</v>
       </c>
       <c r="AA72" s="48" t="s">
-        <v>340</v>
+        <v>634</v>
       </c>
       <c r="AB72" s="24" t="s">
         <v>210</v>
       </c>
       <c r="AC72" s="48" t="s">
-        <v>415</v>
+        <v>637</v>
       </c>
       <c r="AD72" s="31" t="s">
         <v>89</v>
@@ -13798,28 +14083,29 @@
       <c r="AG72" s="15">
         <v>0</v>
       </c>
-      <c r="AH72" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI72" s="14">
-        <v>2</v>
+      <c r="AH72" s="15"/>
+      <c r="AI72" s="15">
+        <v>0</v>
       </c>
       <c r="AJ72" s="14">
         <v>2</v>
       </c>
-      <c r="AK72" s="48" t="s">
-        <v>490</v>
-      </c>
-      <c r="AL72" s="14">
-        <v>0</v>
+      <c r="AK72" s="14">
+        <v>2</v>
+      </c>
+      <c r="AL72" s="48" t="s">
+        <v>625</v>
       </c>
       <c r="AM72" s="14">
         <v>0</v>
       </c>
+      <c r="AN72" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="73" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>566</v>
+        <v>629</v>
       </c>
       <c r="B73" s="16"/>
       <c r="C73" s="16">
@@ -13859,7 +14145,7 @@
         <v>2</v>
       </c>
       <c r="O73" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="P73" s="16">
         <v>0</v>
@@ -13873,11 +14159,13 @@
       <c r="S73" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="T73" s="16"/>
+      <c r="T73" s="14" t="s">
+        <v>654</v>
+      </c>
       <c r="U73" s="16"/>
       <c r="V73" s="16"/>
-      <c r="W73" s="16">
-        <v>2</v>
+      <c r="W73" s="14">
+        <v>4</v>
       </c>
       <c r="X73" s="24" t="s">
         <v>85</v>
@@ -13889,13 +14177,13 @@
         <v>0</v>
       </c>
       <c r="AA73" s="48" t="s">
-        <v>341</v>
+        <v>635</v>
       </c>
       <c r="AB73" s="24" t="s">
         <v>210</v>
       </c>
       <c r="AC73" s="48" t="s">
-        <v>416</v>
+        <v>636</v>
       </c>
       <c r="AD73" s="32" t="s">
         <v>89</v>
@@ -13909,28 +14197,29 @@
       <c r="AG73" s="16">
         <v>0</v>
       </c>
-      <c r="AH73" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI73" s="15">
-        <v>2</v>
+      <c r="AH73" s="14"/>
+      <c r="AI73" s="16">
+        <v>0</v>
       </c>
       <c r="AJ73" s="15">
         <v>2</v>
       </c>
-      <c r="AK73" s="48" t="s">
-        <v>491</v>
-      </c>
-      <c r="AL73" s="15">
-        <v>0</v>
+      <c r="AK73" s="15">
+        <v>2</v>
+      </c>
+      <c r="AL73" s="48" t="s">
+        <v>626</v>
       </c>
       <c r="AM73" s="15">
         <v>0</v>
       </c>
+      <c r="AN73" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="74" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>567</v>
+        <v>531</v>
       </c>
       <c r="B74" s="15"/>
       <c r="C74" s="15">
@@ -13970,7 +14259,7 @@
         <v>2</v>
       </c>
       <c r="O74" t="s">
-        <v>642</v>
+        <v>597</v>
       </c>
       <c r="P74" s="15">
         <v>0</v>
@@ -13984,11 +14273,13 @@
       <c r="S74" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="T74" s="15"/>
+      <c r="T74" s="15" t="s">
+        <v>654</v>
+      </c>
       <c r="U74" s="15"/>
       <c r="V74" s="15"/>
       <c r="W74" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X74" s="24" t="s">
         <v>85</v>
@@ -14000,13 +14291,13 @@
         <v>0</v>
       </c>
       <c r="AA74" s="48" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="AB74" s="24" t="s">
         <v>210</v>
       </c>
       <c r="AC74" s="48" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="AD74" s="31" t="s">
         <v>89</v>
@@ -14020,28 +14311,29 @@
       <c r="AG74" s="15">
         <v>0</v>
       </c>
-      <c r="AH74" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI74" s="14">
-        <v>2</v>
+      <c r="AH74" s="15"/>
+      <c r="AI74" s="15">
+        <v>0</v>
       </c>
       <c r="AJ74" s="14">
         <v>2</v>
       </c>
-      <c r="AK74" s="48" t="s">
-        <v>492</v>
-      </c>
-      <c r="AL74" s="15">
-        <v>0</v>
+      <c r="AK74" s="14">
+        <v>2</v>
+      </c>
+      <c r="AL74" s="48" t="s">
+        <v>465</v>
       </c>
       <c r="AM74" s="15">
         <v>0</v>
       </c>
+      <c r="AN74" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="75" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>568</v>
+        <v>532</v>
       </c>
       <c r="B75" s="15"/>
       <c r="C75" s="15">
@@ -14081,7 +14373,7 @@
         <v>2</v>
       </c>
       <c r="O75" t="s">
-        <v>643</v>
+        <v>598</v>
       </c>
       <c r="P75" s="15">
         <v>0</v>
@@ -14095,11 +14387,13 @@
       <c r="S75" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="T75" s="15"/>
+      <c r="T75" s="14" t="s">
+        <v>654</v>
+      </c>
       <c r="U75" s="15"/>
       <c r="V75" s="15"/>
-      <c r="W75" s="15">
-        <v>2</v>
+      <c r="W75" s="14">
+        <v>4</v>
       </c>
       <c r="X75" s="24" t="s">
         <v>85</v>
@@ -14111,13 +14405,13 @@
         <v>0</v>
       </c>
       <c r="AA75" s="48" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="AB75" s="24" t="s">
         <v>210</v>
       </c>
       <c r="AC75" s="48" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="AD75" s="32" t="s">
         <v>89</v>
@@ -14131,28 +14425,29 @@
       <c r="AG75" s="16">
         <v>0</v>
       </c>
-      <c r="AH75" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI75" s="15">
-        <v>2</v>
+      <c r="AH75" s="14"/>
+      <c r="AI75" s="16">
+        <v>0</v>
       </c>
       <c r="AJ75" s="15">
         <v>2</v>
       </c>
-      <c r="AK75" s="48" t="s">
-        <v>493</v>
-      </c>
-      <c r="AL75" s="14">
-        <v>0</v>
+      <c r="AK75" s="15">
+        <v>2</v>
+      </c>
+      <c r="AL75" s="48" t="s">
+        <v>466</v>
       </c>
       <c r="AM75" s="14">
         <v>0</v>
       </c>
+      <c r="AN75" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="76" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>569</v>
+        <v>533</v>
       </c>
       <c r="B76" s="16"/>
       <c r="C76" s="16">
@@ -14192,7 +14487,7 @@
         <v>2</v>
       </c>
       <c r="O76" t="s">
-        <v>644</v>
+        <v>599</v>
       </c>
       <c r="P76" s="16">
         <v>0</v>
@@ -14206,11 +14501,13 @@
       <c r="S76" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="T76" s="16"/>
+      <c r="T76" s="15" t="s">
+        <v>654</v>
+      </c>
       <c r="U76" s="16"/>
       <c r="V76" s="16"/>
-      <c r="W76" s="16">
-        <v>2</v>
+      <c r="W76" s="15">
+        <v>4</v>
       </c>
       <c r="X76" s="24" t="s">
         <v>85</v>
@@ -14222,13 +14519,13 @@
         <v>0</v>
       </c>
       <c r="AA76" s="48" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="AB76" s="24" t="s">
         <v>210</v>
       </c>
       <c r="AC76" s="48" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="AD76" s="31" t="s">
         <v>89</v>
@@ -14242,28 +14539,29 @@
       <c r="AG76" s="15">
         <v>0</v>
       </c>
-      <c r="AH76" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI76" s="14">
-        <v>2</v>
+      <c r="AH76" s="15"/>
+      <c r="AI76" s="15">
+        <v>0</v>
       </c>
       <c r="AJ76" s="14">
         <v>2</v>
       </c>
-      <c r="AK76" s="48" t="s">
-        <v>494</v>
-      </c>
-      <c r="AL76" s="15">
-        <v>0</v>
+      <c r="AK76" s="14">
+        <v>2</v>
+      </c>
+      <c r="AL76" s="48" t="s">
+        <v>467</v>
       </c>
       <c r="AM76" s="15">
         <v>0</v>
       </c>
+      <c r="AN76" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="77" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>570</v>
+        <v>534</v>
       </c>
       <c r="B77" s="15"/>
       <c r="C77" s="15">
@@ -14303,7 +14601,7 @@
         <v>2</v>
       </c>
       <c r="O77" t="s">
-        <v>645</v>
+        <v>600</v>
       </c>
       <c r="P77" s="15">
         <v>0</v>
@@ -14317,11 +14615,13 @@
       <c r="S77" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="T77" s="15"/>
+      <c r="T77" s="14" t="s">
+        <v>654</v>
+      </c>
       <c r="U77" s="15"/>
       <c r="V77" s="15"/>
-      <c r="W77" s="15">
-        <v>2</v>
+      <c r="W77" s="14">
+        <v>4</v>
       </c>
       <c r="X77" s="24" t="s">
         <v>85</v>
@@ -14333,13 +14633,13 @@
         <v>0</v>
       </c>
       <c r="AA77" s="48" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="AB77" s="24" t="s">
         <v>210</v>
       </c>
       <c r="AC77" s="48" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="AD77" s="32" t="s">
         <v>89</v>
@@ -14353,28 +14653,29 @@
       <c r="AG77" s="16">
         <v>0</v>
       </c>
-      <c r="AH77" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI77" s="15">
-        <v>2</v>
+      <c r="AH77" s="14"/>
+      <c r="AI77" s="16">
+        <v>0</v>
       </c>
       <c r="AJ77" s="15">
         <v>2</v>
       </c>
-      <c r="AK77" s="48" t="s">
-        <v>495</v>
-      </c>
-      <c r="AL77" s="15">
-        <v>0</v>
+      <c r="AK77" s="15">
+        <v>2</v>
+      </c>
+      <c r="AL77" s="48" t="s">
+        <v>468</v>
       </c>
       <c r="AM77" s="15">
         <v>0</v>
       </c>
+      <c r="AN77" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="78" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>571</v>
+        <v>535</v>
       </c>
       <c r="B78" s="15"/>
       <c r="C78" s="15">
@@ -14414,7 +14715,7 @@
         <v>2</v>
       </c>
       <c r="O78" t="s">
-        <v>646</v>
+        <v>601</v>
       </c>
       <c r="P78" s="15">
         <v>0</v>
@@ -14428,11 +14729,13 @@
       <c r="S78" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="T78" s="15"/>
+      <c r="T78" s="15" t="s">
+        <v>654</v>
+      </c>
       <c r="U78" s="15"/>
       <c r="V78" s="15"/>
       <c r="W78" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X78" s="24" t="s">
         <v>85</v>
@@ -14444,13 +14747,13 @@
         <v>0</v>
       </c>
       <c r="AA78" s="48" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="AB78" s="24" t="s">
         <v>210</v>
       </c>
       <c r="AC78" s="48" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="AD78" s="31" t="s">
         <v>89</v>
@@ -14464,28 +14767,29 @@
       <c r="AG78" s="15">
         <v>0</v>
       </c>
-      <c r="AH78" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI78" s="14">
-        <v>2</v>
+      <c r="AH78" s="15"/>
+      <c r="AI78" s="15">
+        <v>0</v>
       </c>
       <c r="AJ78" s="14">
         <v>2</v>
       </c>
-      <c r="AK78" s="48" t="s">
-        <v>496</v>
-      </c>
-      <c r="AL78" s="14">
-        <v>0</v>
+      <c r="AK78" s="14">
+        <v>2</v>
+      </c>
+      <c r="AL78" s="48" t="s">
+        <v>469</v>
       </c>
       <c r="AM78" s="14">
         <v>0</v>
       </c>
+      <c r="AN78" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="79" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>572</v>
+        <v>536</v>
       </c>
       <c r="B79" s="16"/>
       <c r="C79" s="16">
@@ -14525,7 +14829,7 @@
         <v>2</v>
       </c>
       <c r="O79" t="s">
-        <v>647</v>
+        <v>602</v>
       </c>
       <c r="P79" s="16">
         <v>0</v>
@@ -14539,11 +14843,13 @@
       <c r="S79" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="T79" s="16"/>
+      <c r="T79" s="14" t="s">
+        <v>654</v>
+      </c>
       <c r="U79" s="16"/>
       <c r="V79" s="16"/>
-      <c r="W79" s="16">
-        <v>2</v>
+      <c r="W79" s="14">
+        <v>4</v>
       </c>
       <c r="X79" s="24" t="s">
         <v>85</v>
@@ -14555,13 +14861,13 @@
         <v>0</v>
       </c>
       <c r="AA79" s="48" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="AB79" s="24" t="s">
         <v>210</v>
       </c>
       <c r="AC79" s="48" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="AD79" s="32" t="s">
         <v>89</v>
@@ -14575,28 +14881,29 @@
       <c r="AG79" s="16">
         <v>0</v>
       </c>
-      <c r="AH79" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI79" s="15">
-        <v>2</v>
+      <c r="AH79" s="14"/>
+      <c r="AI79" s="16">
+        <v>0</v>
       </c>
       <c r="AJ79" s="15">
         <v>2</v>
       </c>
-      <c r="AK79" s="48" t="s">
-        <v>497</v>
-      </c>
-      <c r="AL79" s="15">
-        <v>0</v>
+      <c r="AK79" s="15">
+        <v>2</v>
+      </c>
+      <c r="AL79" s="48" t="s">
+        <v>470</v>
       </c>
       <c r="AM79" s="15">
         <v>0</v>
       </c>
+      <c r="AN79" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="80" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>573</v>
+        <v>537</v>
       </c>
       <c r="B80" s="15"/>
       <c r="C80" s="15">
@@ -14636,7 +14943,7 @@
         <v>2</v>
       </c>
       <c r="O80" t="s">
-        <v>648</v>
+        <v>603</v>
       </c>
       <c r="P80" s="15">
         <v>0</v>
@@ -14650,11 +14957,13 @@
       <c r="S80" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="T80" s="15"/>
+      <c r="T80" s="15" t="s">
+        <v>654</v>
+      </c>
       <c r="U80" s="15"/>
       <c r="V80" s="15"/>
       <c r="W80" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X80" s="24" t="s">
         <v>85</v>
@@ -14666,13 +14975,13 @@
         <v>0</v>
       </c>
       <c r="AA80" s="48" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="AB80" s="24" t="s">
         <v>210</v>
       </c>
       <c r="AC80" s="48" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="AD80" s="31" t="s">
         <v>89</v>
@@ -14686,28 +14995,29 @@
       <c r="AG80" s="15">
         <v>0</v>
       </c>
-      <c r="AH80" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI80" s="14">
-        <v>2</v>
+      <c r="AH80" s="15"/>
+      <c r="AI80" s="15">
+        <v>0</v>
       </c>
       <c r="AJ80" s="14">
         <v>2</v>
       </c>
-      <c r="AK80" s="48" t="s">
-        <v>498</v>
-      </c>
-      <c r="AL80" s="15">
-        <v>0</v>
+      <c r="AK80" s="14">
+        <v>2</v>
+      </c>
+      <c r="AL80" s="48" t="s">
+        <v>471</v>
       </c>
       <c r="AM80" s="15">
         <v>0</v>
       </c>
+      <c r="AN80" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="81" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>574</v>
+        <v>538</v>
       </c>
       <c r="B81" s="15"/>
       <c r="C81" s="15">
@@ -14747,7 +15057,7 @@
         <v>2</v>
       </c>
       <c r="O81" t="s">
-        <v>649</v>
+        <v>604</v>
       </c>
       <c r="P81" s="15">
         <v>0</v>
@@ -14761,11 +15071,13 @@
       <c r="S81" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="T81" s="15"/>
+      <c r="T81" s="14" t="s">
+        <v>654</v>
+      </c>
       <c r="U81" s="15"/>
       <c r="V81" s="15"/>
-      <c r="W81" s="15">
-        <v>2</v>
+      <c r="W81" s="14">
+        <v>4</v>
       </c>
       <c r="X81" s="24" t="s">
         <v>85</v>
@@ -14777,13 +15089,13 @@
         <v>0</v>
       </c>
       <c r="AA81" s="48" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="AB81" s="24" t="s">
         <v>210</v>
       </c>
       <c r="AC81" s="48" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="AD81" s="32" t="s">
         <v>89</v>
@@ -14797,28 +15109,29 @@
       <c r="AG81" s="16">
         <v>0</v>
       </c>
-      <c r="AH81" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI81" s="15">
-        <v>2</v>
+      <c r="AH81" s="14"/>
+      <c r="AI81" s="16">
+        <v>0</v>
       </c>
       <c r="AJ81" s="15">
         <v>2</v>
       </c>
-      <c r="AK81" s="48" t="s">
-        <v>499</v>
-      </c>
-      <c r="AL81" s="14">
-        <v>0</v>
+      <c r="AK81" s="15">
+        <v>2</v>
+      </c>
+      <c r="AL81" s="48" t="s">
+        <v>472</v>
       </c>
       <c r="AM81" s="14">
         <v>0</v>
       </c>
+      <c r="AN81" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="82" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>575</v>
+        <v>539</v>
       </c>
       <c r="B82" s="16"/>
       <c r="C82" s="16">
@@ -14858,7 +15171,7 @@
         <v>2</v>
       </c>
       <c r="O82" t="s">
-        <v>650</v>
+        <v>605</v>
       </c>
       <c r="P82" s="16">
         <v>0</v>
@@ -14872,11 +15185,13 @@
       <c r="S82" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="T82" s="16"/>
+      <c r="T82" s="15" t="s">
+        <v>654</v>
+      </c>
       <c r="U82" s="16"/>
       <c r="V82" s="16"/>
-      <c r="W82" s="16">
-        <v>2</v>
+      <c r="W82" s="15">
+        <v>4</v>
       </c>
       <c r="X82" s="24" t="s">
         <v>85</v>
@@ -14888,13 +15203,13 @@
         <v>0</v>
       </c>
       <c r="AA82" s="48" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="AB82" s="24" t="s">
         <v>210</v>
       </c>
       <c r="AC82" s="48" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="AD82" s="31" t="s">
         <v>89</v>
@@ -14908,28 +15223,29 @@
       <c r="AG82" s="15">
         <v>0</v>
       </c>
-      <c r="AH82" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI82" s="14">
-        <v>2</v>
+      <c r="AH82" s="15"/>
+      <c r="AI82" s="15">
+        <v>0</v>
       </c>
       <c r="AJ82" s="14">
         <v>2</v>
       </c>
-      <c r="AK82" s="48" t="s">
-        <v>500</v>
-      </c>
-      <c r="AL82" s="15">
-        <v>0</v>
+      <c r="AK82" s="14">
+        <v>2</v>
+      </c>
+      <c r="AL82" s="48" t="s">
+        <v>473</v>
       </c>
       <c r="AM82" s="15">
         <v>0</v>
       </c>
+      <c r="AN82" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="83" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>576</v>
+        <v>540</v>
       </c>
       <c r="B83" s="15"/>
       <c r="C83" s="15">
@@ -14969,7 +15285,7 @@
         <v>2</v>
       </c>
       <c r="O83" t="s">
-        <v>651</v>
+        <v>606</v>
       </c>
       <c r="P83" s="15">
         <v>0</v>
@@ -14983,11 +15299,13 @@
       <c r="S83" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="T83" s="15"/>
+      <c r="T83" s="14" t="s">
+        <v>654</v>
+      </c>
       <c r="U83" s="15"/>
       <c r="V83" s="15"/>
-      <c r="W83" s="15">
-        <v>2</v>
+      <c r="W83" s="14">
+        <v>4</v>
       </c>
       <c r="X83" s="24" t="s">
         <v>85</v>
@@ -14999,13 +15317,13 @@
         <v>0</v>
       </c>
       <c r="AA83" s="48" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="AB83" s="24" t="s">
         <v>210</v>
       </c>
       <c r="AC83" s="48" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="AD83" s="32" t="s">
         <v>89</v>
@@ -15019,28 +15337,29 @@
       <c r="AG83" s="16">
         <v>0</v>
       </c>
-      <c r="AH83" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI83" s="15">
-        <v>2</v>
+      <c r="AH83" s="14"/>
+      <c r="AI83" s="16">
+        <v>0</v>
       </c>
       <c r="AJ83" s="15">
         <v>2</v>
       </c>
-      <c r="AK83" s="48" t="s">
-        <v>501</v>
-      </c>
-      <c r="AL83" s="15">
-        <v>0</v>
+      <c r="AK83" s="15">
+        <v>2</v>
+      </c>
+      <c r="AL83" s="48" t="s">
+        <v>474</v>
       </c>
       <c r="AM83" s="15">
         <v>0</v>
       </c>
+      <c r="AN83" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="84" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>577</v>
+        <v>541</v>
       </c>
       <c r="B84" s="15"/>
       <c r="C84" s="15">
@@ -15080,7 +15399,7 @@
         <v>2</v>
       </c>
       <c r="O84" t="s">
-        <v>652</v>
+        <v>607</v>
       </c>
       <c r="P84" s="15">
         <v>0</v>
@@ -15094,11 +15413,13 @@
       <c r="S84" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="T84" s="15"/>
+      <c r="T84" s="15" t="s">
+        <v>654</v>
+      </c>
       <c r="U84" s="15"/>
       <c r="V84" s="15"/>
       <c r="W84" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X84" s="24" t="s">
         <v>85</v>
@@ -15110,13 +15431,13 @@
         <v>0</v>
       </c>
       <c r="AA84" s="48" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="AB84" s="24" t="s">
         <v>210</v>
       </c>
       <c r="AC84" s="48" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="AD84" s="31" t="s">
         <v>89</v>
@@ -15130,28 +15451,29 @@
       <c r="AG84" s="15">
         <v>0</v>
       </c>
-      <c r="AH84" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI84" s="14">
-        <v>2</v>
+      <c r="AH84" s="15"/>
+      <c r="AI84" s="15">
+        <v>0</v>
       </c>
       <c r="AJ84" s="14">
         <v>2</v>
       </c>
-      <c r="AK84" s="48" t="s">
-        <v>502</v>
-      </c>
-      <c r="AL84" s="14">
-        <v>0</v>
+      <c r="AK84" s="14">
+        <v>2</v>
+      </c>
+      <c r="AL84" s="48" t="s">
+        <v>475</v>
       </c>
       <c r="AM84" s="14">
         <v>0</v>
       </c>
+      <c r="AN84" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="85" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>578</v>
+        <v>542</v>
       </c>
       <c r="B85" s="16"/>
       <c r="C85" s="16">
@@ -15191,7 +15513,7 @@
         <v>2</v>
       </c>
       <c r="O85" t="s">
-        <v>653</v>
+        <v>608</v>
       </c>
       <c r="P85" s="16">
         <v>0</v>
@@ -15205,11 +15527,13 @@
       <c r="S85" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="T85" s="16"/>
+      <c r="T85" s="16" t="s">
+        <v>654</v>
+      </c>
       <c r="U85" s="16"/>
       <c r="V85" s="16"/>
-      <c r="W85" s="16">
-        <v>2</v>
+      <c r="W85" s="14">
+        <v>4</v>
       </c>
       <c r="X85" s="24" t="s">
         <v>85</v>
@@ -15221,13 +15545,13 @@
         <v>0</v>
       </c>
       <c r="AA85" s="48" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="AB85" s="24" t="s">
         <v>210</v>
       </c>
       <c r="AC85" s="48" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="AD85" s="32" t="s">
         <v>89</v>
@@ -15241,29 +15565,30 @@
       <c r="AG85" s="16">
         <v>0</v>
       </c>
-      <c r="AH85" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI85" s="15">
-        <v>2</v>
+      <c r="AH85" s="14"/>
+      <c r="AI85" s="16">
+        <v>0</v>
       </c>
       <c r="AJ85" s="15">
         <v>2</v>
       </c>
-      <c r="AK85" s="48" t="s">
-        <v>503</v>
-      </c>
-      <c r="AL85" s="15">
-        <v>0</v>
+      <c r="AK85" s="15">
+        <v>2</v>
+      </c>
+      <c r="AL85" s="48" t="s">
+        <v>476</v>
       </c>
       <c r="AM85" s="15">
+        <v>0</v>
+      </c>
+      <c r="AN85" s="15">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z7:Z9 AA8:AA9 R8:S9 X8:Y9 B7:Q9 T7:W9 AB7:AM9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z7:Z9 AA8:AA9 R8:S9 X8:Y9 B7:Q9 T7:W9 AB7:AN9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15277,7 +15602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG30"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>

--- a/_Out/NFDataCfg/Excel/NPC.xlsx
+++ b/_Out/NFDataCfg/Excel/NPC.xlsx
@@ -1825,10 +1825,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1873,7 +1873,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1885,16 +1885,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1908,7 +1922,53 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1924,59 +1984,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1984,15 +1992,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2007,15 +2015,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2054,6 +2054,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2078,7 +2084,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2090,25 +2234,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2120,145 +2258,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2436,17 +2436,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2475,17 +2469,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2505,22 +2495,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2529,152 +2529,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="40" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2735,6 +2735,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2750,7 +2756,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -2762,64 +2768,64 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3356,7 +3362,7 @@
       <c r="AA1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="23" t="s">
+      <c r="AB1" s="25" t="s">
         <v>26</v>
       </c>
       <c r="AC1" s="5" t="s">
@@ -3478,7 +3484,7 @@
       <c r="AA2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AB2" s="24" t="s">
+      <c r="AB2" s="26" t="s">
         <v>40</v>
       </c>
       <c r="AC2" s="6" t="s">
@@ -3600,7 +3606,7 @@
       <c r="AA3" s="6">
         <v>1</v>
       </c>
-      <c r="AB3" s="24">
+      <c r="AB3" s="26">
         <v>1</v>
       </c>
       <c r="AC3" s="6">
@@ -3722,7 +3728,7 @@
       <c r="AA4" s="6">
         <v>1</v>
       </c>
-      <c r="AB4" s="24">
+      <c r="AB4" s="26">
         <v>1</v>
       </c>
       <c r="AC4" s="6">
@@ -3844,7 +3850,7 @@
       <c r="AA5" s="6">
         <v>0</v>
       </c>
-      <c r="AB5" s="24">
+      <c r="AB5" s="26">
         <v>0</v>
       </c>
       <c r="AC5" s="6">
@@ -3966,7 +3972,7 @@
       <c r="AA6" s="6">
         <v>0</v>
       </c>
-      <c r="AB6" s="24">
+      <c r="AB6" s="26">
         <v>0</v>
       </c>
       <c r="AC6" s="6">
@@ -4415,7 +4421,7 @@
       <c r="S10" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="T10" s="20" t="s">
+      <c r="T10" s="22" t="s">
         <v>65</v>
       </c>
       <c r="U10" s="8" t="s">
@@ -4439,7 +4445,7 @@
       <c r="AA10" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="AB10" s="24" t="s">
+      <c r="AB10" s="26" t="s">
         <v>26</v>
       </c>
       <c r="AC10" s="8" t="s">
@@ -4528,13 +4534,13 @@
       <c r="Q11">
         <v>6</v>
       </c>
-      <c r="R11" s="33" t="s">
+      <c r="R11" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="S11" s="33" t="s">
+      <c r="S11" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="T11" s="34"/>
+      <c r="T11" s="36"/>
       <c r="W11">
         <v>2</v>
       </c>
@@ -4547,16 +4553,16 @@
       <c r="Z11">
         <v>0</v>
       </c>
-      <c r="AA11" s="41" t="s">
+      <c r="AA11" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="AB11" s="42" t="s">
+      <c r="AB11" s="44" t="s">
         <v>89</v>
       </c>
       <c r="AC11" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="AD11" s="43" t="s">
+      <c r="AD11" s="45" t="s">
         <v>90</v>
       </c>
       <c r="AE11">
@@ -4637,19 +4643,19 @@
       <c r="Q12">
         <v>6</v>
       </c>
-      <c r="R12" s="33" t="s">
+      <c r="R12" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="S12" s="33" t="s">
+      <c r="S12" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="T12" s="35" t="s">
+      <c r="T12" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="U12" s="36" t="s">
+      <c r="U12" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="V12" s="37" t="s">
+      <c r="V12" s="39" t="s">
         <v>97</v>
       </c>
       <c r="W12">
@@ -4664,16 +4670,16 @@
       <c r="Z12">
         <v>0</v>
       </c>
-      <c r="AA12" s="41" t="s">
+      <c r="AA12" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="AB12" s="42" t="s">
+      <c r="AB12" s="44" t="s">
         <v>89</v>
       </c>
       <c r="AC12" t="s">
         <v>91</v>
       </c>
-      <c r="AD12" s="43" t="s">
+      <c r="AD12" s="45" t="s">
         <v>90</v>
       </c>
       <c r="AE12">
@@ -4754,19 +4760,19 @@
       <c r="Q13">
         <v>6</v>
       </c>
-      <c r="R13" s="33" t="s">
+      <c r="R13" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="S13" s="33" t="s">
+      <c r="S13" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="T13" s="37" t="s">
+      <c r="T13" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="U13" s="37" t="s">
+      <c r="U13" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="V13" s="37" t="s">
+      <c r="V13" s="39" t="s">
         <v>105</v>
       </c>
       <c r="W13">
@@ -4781,16 +4787,16 @@
       <c r="Z13">
         <v>0</v>
       </c>
-      <c r="AA13" s="41" t="s">
+      <c r="AA13" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="AB13" s="42" t="s">
+      <c r="AB13" s="44" t="s">
         <v>89</v>
       </c>
       <c r="AC13" t="s">
         <v>99</v>
       </c>
-      <c r="AD13" s="43" t="s">
+      <c r="AD13" s="45" t="s">
         <v>90</v>
       </c>
       <c r="AE13">
@@ -4871,19 +4877,19 @@
       <c r="Q14">
         <v>6</v>
       </c>
-      <c r="R14" s="33" t="s">
+      <c r="R14" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="S14" s="33" t="s">
+      <c r="S14" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="T14" s="37" t="s">
+      <c r="T14" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="U14" s="37" t="s">
+      <c r="U14" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="V14" s="37" t="s">
+      <c r="V14" s="39" t="s">
         <v>113</v>
       </c>
       <c r="W14">
@@ -4898,16 +4904,16 @@
       <c r="Z14">
         <v>0</v>
       </c>
-      <c r="AA14" s="41" t="s">
+      <c r="AA14" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="AB14" s="42" t="s">
+      <c r="AB14" s="44" t="s">
         <v>89</v>
       </c>
       <c r="AC14" t="s">
         <v>107</v>
       </c>
-      <c r="AD14" s="43" t="s">
+      <c r="AD14" s="45" t="s">
         <v>90</v>
       </c>
       <c r="AE14">
@@ -4988,19 +4994,19 @@
       <c r="Q15">
         <v>6</v>
       </c>
-      <c r="R15" s="33" t="s">
+      <c r="R15" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="S15" s="33" t="s">
+      <c r="S15" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="T15" s="37" t="s">
+      <c r="T15" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="U15" s="37" t="s">
+      <c r="U15" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="V15" s="37" t="s">
+      <c r="V15" s="39" t="s">
         <v>121</v>
       </c>
       <c r="W15">
@@ -5015,16 +5021,16 @@
       <c r="Z15">
         <v>0</v>
       </c>
-      <c r="AA15" s="41" t="s">
+      <c r="AA15" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="AB15" s="42" t="s">
+      <c r="AB15" s="44" t="s">
         <v>89</v>
       </c>
       <c r="AC15" t="s">
         <v>115</v>
       </c>
-      <c r="AD15" s="43" t="s">
+      <c r="AD15" s="45" t="s">
         <v>90</v>
       </c>
       <c r="AE15">
@@ -5105,19 +5111,19 @@
       <c r="Q16">
         <v>6</v>
       </c>
-      <c r="R16" s="33" t="s">
+      <c r="R16" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="S16" s="33" t="s">
+      <c r="S16" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="T16" s="37" t="s">
+      <c r="T16" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="U16" s="37" t="s">
+      <c r="U16" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="V16" s="37" t="s">
+      <c r="V16" s="39" t="s">
         <v>129</v>
       </c>
       <c r="W16">
@@ -5132,16 +5138,16 @@
       <c r="Z16">
         <v>0</v>
       </c>
-      <c r="AA16" s="41" t="s">
+      <c r="AA16" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="AB16" s="42" t="s">
+      <c r="AB16" s="44" t="s">
         <v>89</v>
       </c>
       <c r="AC16" t="s">
         <v>123</v>
       </c>
-      <c r="AD16" s="43" t="s">
+      <c r="AD16" s="45" t="s">
         <v>90</v>
       </c>
       <c r="AE16">
@@ -5222,19 +5228,19 @@
       <c r="Q17">
         <v>6</v>
       </c>
-      <c r="R17" s="33" t="s">
+      <c r="R17" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="S17" s="33" t="s">
+      <c r="S17" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="T17" s="37" t="s">
+      <c r="T17" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="U17" s="37" t="s">
+      <c r="U17" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="V17" s="37" t="s">
+      <c r="V17" s="39" t="s">
         <v>137</v>
       </c>
       <c r="W17">
@@ -5249,16 +5255,16 @@
       <c r="Z17">
         <v>0</v>
       </c>
-      <c r="AA17" s="41" t="s">
+      <c r="AA17" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="AB17" s="42" t="s">
+      <c r="AB17" s="44" t="s">
         <v>89</v>
       </c>
       <c r="AC17" t="s">
         <v>138</v>
       </c>
-      <c r="AD17" s="43" t="s">
+      <c r="AD17" s="45" t="s">
         <v>90</v>
       </c>
       <c r="AE17">
@@ -5339,19 +5345,19 @@
       <c r="Q18">
         <v>6</v>
       </c>
-      <c r="R18" s="33" t="s">
+      <c r="R18" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="S18" s="33" t="s">
+      <c r="S18" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="T18" s="37" t="s">
+      <c r="T18" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="U18" s="37" t="s">
+      <c r="U18" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="V18" s="37" t="s">
+      <c r="V18" s="39" t="s">
         <v>137</v>
       </c>
       <c r="W18">
@@ -5366,16 +5372,16 @@
       <c r="Z18">
         <v>0</v>
       </c>
-      <c r="AA18" s="41" t="s">
+      <c r="AA18" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="AB18" s="42" t="s">
+      <c r="AB18" s="44" t="s">
         <v>89</v>
       </c>
       <c r="AC18" t="s">
         <v>144</v>
       </c>
-      <c r="AD18" s="43" t="s">
+      <c r="AD18" s="45" t="s">
         <v>90</v>
       </c>
       <c r="AE18">
@@ -5456,19 +5462,19 @@
       <c r="Q19">
         <v>6</v>
       </c>
-      <c r="R19" s="33" t="s">
+      <c r="R19" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="S19" s="33" t="s">
+      <c r="S19" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="T19" s="37" t="s">
+      <c r="T19" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="U19" s="37" t="s">
+      <c r="U19" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="V19" s="37" t="s">
+      <c r="V19" s="39" t="s">
         <v>152</v>
       </c>
       <c r="W19">
@@ -5483,16 +5489,16 @@
       <c r="Z19">
         <v>0</v>
       </c>
-      <c r="AA19" s="41" t="s">
+      <c r="AA19" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="AB19" s="42" t="s">
+      <c r="AB19" s="44" t="s">
         <v>89</v>
       </c>
       <c r="AC19" t="s">
         <v>146</v>
       </c>
-      <c r="AD19" s="43" t="s">
+      <c r="AD19" s="45" t="s">
         <v>90</v>
       </c>
       <c r="AE19">
@@ -5573,19 +5579,19 @@
       <c r="Q20">
         <v>6</v>
       </c>
-      <c r="R20" s="33" t="s">
+      <c r="R20" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="S20" s="33" t="s">
+      <c r="S20" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="T20" s="37" t="s">
+      <c r="T20" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="U20" s="37" t="s">
+      <c r="U20" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="V20" s="37" t="s">
+      <c r="V20" s="39" t="s">
         <v>152</v>
       </c>
       <c r="W20">
@@ -5600,16 +5606,16 @@
       <c r="Z20">
         <v>0</v>
       </c>
-      <c r="AA20" s="41" t="s">
+      <c r="AA20" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="AB20" s="42" t="s">
+      <c r="AB20" s="44" t="s">
         <v>89</v>
       </c>
       <c r="AC20" t="s">
         <v>154</v>
       </c>
-      <c r="AD20" s="43" t="s">
+      <c r="AD20" s="45" t="s">
         <v>90</v>
       </c>
       <c r="AE20">
@@ -5690,19 +5696,19 @@
       <c r="Q21">
         <v>6</v>
       </c>
-      <c r="R21" s="33" t="s">
+      <c r="R21" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="S21" s="33" t="s">
+      <c r="S21" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="T21" s="37" t="s">
+      <c r="T21" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="U21" s="37" t="s">
+      <c r="U21" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="V21" s="37" t="s">
+      <c r="V21" s="39" t="s">
         <v>165</v>
       </c>
       <c r="W21">
@@ -5717,16 +5723,16 @@
       <c r="Z21">
         <v>0</v>
       </c>
-      <c r="AA21" s="41" t="s">
+      <c r="AA21" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="AB21" s="42" t="s">
+      <c r="AB21" s="44" t="s">
         <v>89</v>
       </c>
       <c r="AC21" t="s">
         <v>159</v>
       </c>
-      <c r="AD21" s="43" t="s">
+      <c r="AD21" s="45" t="s">
         <v>90</v>
       </c>
       <c r="AE21">
@@ -5807,19 +5813,19 @@
       <c r="Q22">
         <v>6</v>
       </c>
-      <c r="R22" s="33" t="s">
+      <c r="R22" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="S22" s="33" t="s">
+      <c r="S22" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="T22" s="37" t="s">
+      <c r="T22" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="U22" s="37" t="s">
+      <c r="U22" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="V22" s="37" t="s">
+      <c r="V22" s="39" t="s">
         <v>165</v>
       </c>
       <c r="W22">
@@ -5834,16 +5840,16 @@
       <c r="Z22">
         <v>0</v>
       </c>
-      <c r="AA22" s="41" t="s">
+      <c r="AA22" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="AB22" s="42" t="s">
+      <c r="AB22" s="44" t="s">
         <v>89</v>
       </c>
       <c r="AC22" t="s">
         <v>167</v>
       </c>
-      <c r="AD22" s="43" t="s">
+      <c r="AD22" s="45" t="s">
         <v>90</v>
       </c>
       <c r="AE22">
@@ -5865,7 +5871,7 @@
       <c r="AK22">
         <v>0</v>
       </c>
-      <c r="AL22" s="47" t="s">
+      <c r="AL22" s="49" t="s">
         <v>170</v>
       </c>
       <c r="AM22">
@@ -5875,471 +5881,471 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" s="29" customFormat="1" ht="14.25" spans="1:40">
-      <c r="A23" s="31" t="s">
+    <row r="23" s="31" customFormat="1" ht="14.25" spans="1:40">
+      <c r="A23" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="C23" s="29">
-        <v>0</v>
-      </c>
-      <c r="D23" s="29">
+      <c r="C23" s="31">
+        <v>0</v>
+      </c>
+      <c r="D23" s="31">
         <v>100</v>
       </c>
-      <c r="E23" s="29">
+      <c r="E23" s="31">
         <v>100</v>
       </c>
-      <c r="F23" s="29">
-        <v>0</v>
-      </c>
-      <c r="G23" s="29">
-        <v>0</v>
-      </c>
-      <c r="H23" s="29">
-        <v>0</v>
-      </c>
-      <c r="I23" s="29">
-        <v>0</v>
-      </c>
-      <c r="J23" s="29">
-        <v>0</v>
-      </c>
-      <c r="K23" s="29">
-        <v>0</v>
-      </c>
-      <c r="L23" s="29">
-        <v>0</v>
-      </c>
-      <c r="M23" s="29">
-        <v>0</v>
-      </c>
-      <c r="N23" s="29">
-        <v>2</v>
-      </c>
-      <c r="O23" s="29" t="s">
+      <c r="F23" s="31">
+        <v>0</v>
+      </c>
+      <c r="G23" s="31">
+        <v>0</v>
+      </c>
+      <c r="H23" s="31">
+        <v>0</v>
+      </c>
+      <c r="I23" s="31">
+        <v>0</v>
+      </c>
+      <c r="J23" s="31">
+        <v>0</v>
+      </c>
+      <c r="K23" s="31">
+        <v>0</v>
+      </c>
+      <c r="L23" s="31">
+        <v>0</v>
+      </c>
+      <c r="M23" s="31">
+        <v>0</v>
+      </c>
+      <c r="N23" s="31">
+        <v>2</v>
+      </c>
+      <c r="O23" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="P23" s="29">
+      <c r="P23" s="31">
         <v>0</v>
       </c>
       <c r="Q23">
         <v>6</v>
       </c>
-      <c r="R23" s="38" t="s">
+      <c r="R23" s="40" t="s">
         <v>173</v>
       </c>
-      <c r="S23" s="38" t="s">
+      <c r="S23" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="T23" s="39" t="s">
+      <c r="T23" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="U23" s="39" t="s">
+      <c r="U23" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="V23" s="39" t="s">
+      <c r="V23" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="W23" s="29">
-        <v>2</v>
-      </c>
-      <c r="X23" s="40" t="s">
+      <c r="W23" s="31">
+        <v>2</v>
+      </c>
+      <c r="X23" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="Y23" s="29" t="s">
+      <c r="Y23" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="Z23" s="29">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="29" t="s">
+      <c r="Z23" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="AB23" s="42" t="s">
+      <c r="AB23" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="AC23" s="44" t="s">
+      <c r="AC23" s="46" t="s">
         <v>177</v>
       </c>
-      <c r="AD23" s="29" t="s">
+      <c r="AD23" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="AE23" s="29">
-        <v>0</v>
-      </c>
-      <c r="AF23" s="29">
-        <v>0</v>
-      </c>
-      <c r="AG23" s="29">
+      <c r="AE23" s="31">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="31">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="31">
         <v>0</v>
       </c>
       <c r="AH23" s="14"/>
-      <c r="AI23" s="29">
-        <v>0</v>
-      </c>
-      <c r="AJ23" s="29">
-        <v>1</v>
-      </c>
-      <c r="AK23" s="29">
-        <v>1</v>
-      </c>
-      <c r="AL23" s="32" t="s">
+      <c r="AI23" s="31">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="31">
+        <v>1</v>
+      </c>
+      <c r="AK23" s="31">
+        <v>1</v>
+      </c>
+      <c r="AL23" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="AM23" s="29">
-        <v>1</v>
-      </c>
-      <c r="AN23" s="29">
+      <c r="AM23" s="31">
+        <v>1</v>
+      </c>
+      <c r="AN23" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="24" s="30" customFormat="1" ht="14.25" spans="1:40">
-      <c r="A24" s="32" t="s">
+    <row r="24" s="32" customFormat="1" ht="14.25" spans="1:40">
+      <c r="A24" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="C24" s="30">
-        <v>0</v>
-      </c>
-      <c r="D24" s="29">
+      <c r="C24" s="32">
+        <v>0</v>
+      </c>
+      <c r="D24" s="31">
         <v>100</v>
       </c>
-      <c r="E24" s="29">
+      <c r="E24" s="31">
         <v>100</v>
       </c>
-      <c r="F24" s="30">
-        <v>0</v>
-      </c>
-      <c r="G24" s="30">
-        <v>0</v>
-      </c>
-      <c r="H24" s="30">
-        <v>0</v>
-      </c>
-      <c r="I24" s="30">
-        <v>0</v>
-      </c>
-      <c r="J24" s="30">
-        <v>0</v>
-      </c>
-      <c r="K24" s="30">
-        <v>0</v>
-      </c>
-      <c r="L24" s="30">
-        <v>0</v>
-      </c>
-      <c r="M24" s="30">
-        <v>0</v>
-      </c>
-      <c r="N24" s="29">
-        <v>2</v>
-      </c>
-      <c r="O24" s="30" t="s">
+      <c r="F24" s="32">
+        <v>0</v>
+      </c>
+      <c r="G24" s="32">
+        <v>0</v>
+      </c>
+      <c r="H24" s="32">
+        <v>0</v>
+      </c>
+      <c r="I24" s="32">
+        <v>0</v>
+      </c>
+      <c r="J24" s="32">
+        <v>0</v>
+      </c>
+      <c r="K24" s="32">
+        <v>0</v>
+      </c>
+      <c r="L24" s="32">
+        <v>0</v>
+      </c>
+      <c r="M24" s="32">
+        <v>0</v>
+      </c>
+      <c r="N24" s="31">
+        <v>2</v>
+      </c>
+      <c r="O24" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="P24" s="30">
+      <c r="P24" s="32">
         <v>1</v>
       </c>
       <c r="Q24">
         <v>6</v>
       </c>
-      <c r="R24" s="38" t="s">
+      <c r="R24" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="S24" s="38" t="s">
+      <c r="S24" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="T24" s="30" t="s">
+      <c r="T24" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="U24" s="30" t="s">
+      <c r="U24" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="V24" s="30" t="s">
+      <c r="V24" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="W24" s="30">
-        <v>2</v>
-      </c>
-      <c r="X24" s="40" t="s">
+      <c r="W24" s="32">
+        <v>2</v>
+      </c>
+      <c r="X24" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="Y24" s="30" t="s">
+      <c r="Y24" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="Z24" s="30">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="30" t="s">
+      <c r="Z24" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="AB24" s="45" t="s">
+      <c r="AB24" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="AC24" s="46" t="s">
+      <c r="AC24" s="48" t="s">
         <v>187</v>
       </c>
-      <c r="AD24" s="30" t="s">
+      <c r="AD24" s="32" t="s">
         <v>188</v>
       </c>
-      <c r="AE24" s="30">
-        <v>0</v>
-      </c>
-      <c r="AF24" s="30">
-        <v>0</v>
-      </c>
-      <c r="AG24" s="30">
+      <c r="AE24" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="32">
         <v>0</v>
       </c>
       <c r="AH24" s="15"/>
-      <c r="AI24" s="30">
-        <v>0</v>
-      </c>
-      <c r="AJ24" s="30">
-        <v>1</v>
-      </c>
-      <c r="AK24" s="30">
-        <v>1</v>
-      </c>
-      <c r="AL24" s="32" t="s">
+      <c r="AI24" s="32">
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="32">
+        <v>1</v>
+      </c>
+      <c r="AK24" s="32">
+        <v>1</v>
+      </c>
+      <c r="AL24" s="34" t="s">
         <v>189</v>
       </c>
-      <c r="AM24" s="30">
-        <v>1</v>
-      </c>
-      <c r="AN24" s="30">
+      <c r="AM24" s="32">
+        <v>1</v>
+      </c>
+      <c r="AN24" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="25" s="30" customFormat="1" ht="14.25" spans="1:40">
-      <c r="A25" s="32" t="s">
+    <row r="25" s="32" customFormat="1" ht="14.25" spans="1:40">
+      <c r="A25" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="C25" s="30">
-        <v>0</v>
-      </c>
-      <c r="D25" s="29">
+      <c r="C25" s="32">
+        <v>0</v>
+      </c>
+      <c r="D25" s="31">
         <v>100</v>
       </c>
-      <c r="E25" s="29">
+      <c r="E25" s="31">
         <v>100</v>
       </c>
-      <c r="F25" s="30">
-        <v>0</v>
-      </c>
-      <c r="G25" s="30">
-        <v>0</v>
-      </c>
-      <c r="H25" s="30">
-        <v>0</v>
-      </c>
-      <c r="I25" s="30">
-        <v>0</v>
-      </c>
-      <c r="J25" s="30">
-        <v>0</v>
-      </c>
-      <c r="K25" s="30">
-        <v>0</v>
-      </c>
-      <c r="L25" s="30">
-        <v>0</v>
-      </c>
-      <c r="M25" s="30">
-        <v>0</v>
-      </c>
-      <c r="N25" s="29">
-        <v>2</v>
-      </c>
-      <c r="O25" s="30" t="s">
+      <c r="F25" s="32">
+        <v>0</v>
+      </c>
+      <c r="G25" s="32">
+        <v>0</v>
+      </c>
+      <c r="H25" s="32">
+        <v>0</v>
+      </c>
+      <c r="I25" s="32">
+        <v>0</v>
+      </c>
+      <c r="J25" s="32">
+        <v>0</v>
+      </c>
+      <c r="K25" s="32">
+        <v>0</v>
+      </c>
+      <c r="L25" s="32">
+        <v>0</v>
+      </c>
+      <c r="M25" s="32">
+        <v>0</v>
+      </c>
+      <c r="N25" s="31">
+        <v>2</v>
+      </c>
+      <c r="O25" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="P25" s="30">
+      <c r="P25" s="32">
         <v>0</v>
       </c>
       <c r="Q25">
         <v>6</v>
       </c>
-      <c r="R25" s="38" t="s">
+      <c r="R25" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="S25" s="38" t="s">
+      <c r="S25" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="T25" s="30" t="s">
+      <c r="T25" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="U25" s="30" t="s">
+      <c r="U25" s="32" t="s">
         <v>194</v>
       </c>
-      <c r="V25" s="30" t="s">
+      <c r="V25" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="W25" s="30">
-        <v>2</v>
-      </c>
-      <c r="X25" s="40" t="s">
+      <c r="W25" s="32">
+        <v>2</v>
+      </c>
+      <c r="X25" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="Y25" s="30" t="s">
+      <c r="Y25" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="Z25" s="30">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="30" t="s">
+      <c r="Z25" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="AB25" s="45" t="s">
+      <c r="AB25" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="AC25" s="46" t="s">
+      <c r="AC25" s="48" t="s">
         <v>197</v>
       </c>
-      <c r="AD25" s="30" t="s">
+      <c r="AD25" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="AE25" s="30">
-        <v>0</v>
-      </c>
-      <c r="AF25" s="30">
-        <v>0</v>
-      </c>
-      <c r="AG25" s="30">
+      <c r="AE25" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="32">
         <v>0</v>
       </c>
       <c r="AH25" s="14"/>
-      <c r="AI25" s="30">
-        <v>0</v>
-      </c>
-      <c r="AJ25" s="30">
-        <v>1</v>
-      </c>
-      <c r="AK25" s="30">
-        <v>1</v>
-      </c>
-      <c r="AL25" s="32" t="s">
+      <c r="AI25" s="32">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="32">
+        <v>1</v>
+      </c>
+      <c r="AK25" s="32">
+        <v>1</v>
+      </c>
+      <c r="AL25" s="34" t="s">
         <v>199</v>
       </c>
-      <c r="AM25" s="30">
-        <v>1</v>
-      </c>
-      <c r="AN25" s="30">
+      <c r="AM25" s="32">
+        <v>1</v>
+      </c>
+      <c r="AN25" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="26" s="30" customFormat="1" spans="1:40">
-      <c r="A26" s="32" t="s">
+    <row r="26" s="32" customFormat="1" spans="1:40">
+      <c r="A26" s="34" t="s">
         <v>200</v>
       </c>
-      <c r="C26" s="30">
-        <v>0</v>
-      </c>
-      <c r="D26" s="29">
+      <c r="C26" s="32">
+        <v>0</v>
+      </c>
+      <c r="D26" s="31">
         <v>100</v>
       </c>
-      <c r="E26" s="29">
+      <c r="E26" s="31">
         <v>100</v>
       </c>
-      <c r="F26" s="30">
-        <v>0</v>
-      </c>
-      <c r="G26" s="30">
-        <v>0</v>
-      </c>
-      <c r="H26" s="30">
-        <v>0</v>
-      </c>
-      <c r="I26" s="30">
-        <v>0</v>
-      </c>
-      <c r="J26" s="30">
-        <v>0</v>
-      </c>
-      <c r="K26" s="30">
-        <v>0</v>
-      </c>
-      <c r="L26" s="30">
-        <v>0</v>
-      </c>
-      <c r="M26" s="30">
-        <v>0</v>
-      </c>
-      <c r="N26" s="29">
-        <v>2</v>
-      </c>
-      <c r="O26" s="30" t="s">
+      <c r="F26" s="32">
+        <v>0</v>
+      </c>
+      <c r="G26" s="32">
+        <v>0</v>
+      </c>
+      <c r="H26" s="32">
+        <v>0</v>
+      </c>
+      <c r="I26" s="32">
+        <v>0</v>
+      </c>
+      <c r="J26" s="32">
+        <v>0</v>
+      </c>
+      <c r="K26" s="32">
+        <v>0</v>
+      </c>
+      <c r="L26" s="32">
+        <v>0</v>
+      </c>
+      <c r="M26" s="32">
+        <v>0</v>
+      </c>
+      <c r="N26" s="31">
+        <v>2</v>
+      </c>
+      <c r="O26" s="32" t="s">
         <v>201</v>
       </c>
-      <c r="P26" s="30">
+      <c r="P26" s="32">
         <v>0</v>
       </c>
       <c r="Q26">
         <v>6</v>
       </c>
-      <c r="R26" s="38" t="s">
+      <c r="R26" s="40" t="s">
         <v>202</v>
       </c>
-      <c r="S26" s="38" t="s">
+      <c r="S26" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="T26" s="30" t="s">
+      <c r="T26" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="U26" s="30" t="s">
+      <c r="U26" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="V26" s="30" t="s">
+      <c r="V26" s="32" t="s">
         <v>205</v>
       </c>
-      <c r="W26" s="30">
-        <v>2</v>
-      </c>
-      <c r="X26" s="40" t="s">
+      <c r="W26" s="32">
+        <v>2</v>
+      </c>
+      <c r="X26" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="Y26" s="30" t="s">
+      <c r="Y26" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="Z26" s="30">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="30" t="s">
+      <c r="Z26" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="AB26" s="45" t="s">
+      <c r="AB26" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="AC26" s="46" t="s">
+      <c r="AC26" s="48" t="s">
         <v>207</v>
       </c>
-      <c r="AD26" s="30" t="s">
+      <c r="AD26" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="AE26" s="30">
-        <v>0</v>
-      </c>
-      <c r="AF26" s="30">
-        <v>0</v>
-      </c>
-      <c r="AG26" s="30">
+      <c r="AE26" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="32">
         <v>0</v>
       </c>
       <c r="AH26" s="15"/>
-      <c r="AI26" s="30">
-        <v>0</v>
-      </c>
-      <c r="AJ26" s="30">
-        <v>1</v>
-      </c>
-      <c r="AK26" s="30">
-        <v>1</v>
-      </c>
-      <c r="AL26" s="48" t="s">
+      <c r="AI26" s="32">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="32">
+        <v>1</v>
+      </c>
+      <c r="AK26" s="32">
+        <v>1</v>
+      </c>
+      <c r="AL26" s="50" t="s">
         <v>209</v>
       </c>
-      <c r="AM26" s="30">
-        <v>1</v>
-      </c>
-      <c r="AN26" s="30">
+      <c r="AM26" s="32">
+        <v>1</v>
+      </c>
+      <c r="AN26" s="32">
         <v>0</v>
       </c>
     </row>
@@ -6362,14 +6368,14 @@
   <dimension ref="A1:AN73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="10" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A74" sqref="$A74:$XFD79"/>
+      <selection pane="bottomLeft" activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="23.1666666666667" customWidth="1"/>
+    <col min="1" max="1" width="30.375" customWidth="1"/>
     <col min="2" max="2" width="11.6666666666667" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
     <col min="4" max="5" width="14.1666666666667" customWidth="1"/>
@@ -6481,7 +6487,7 @@
       <c r="AA1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="23" t="s">
+      <c r="AB1" s="25" t="s">
         <v>26</v>
       </c>
       <c r="AC1" s="5" t="s">
@@ -6603,7 +6609,7 @@
       <c r="AA2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AB2" s="24" t="s">
+      <c r="AB2" s="26" t="s">
         <v>40</v>
       </c>
       <c r="AC2" s="6" t="s">
@@ -6725,7 +6731,7 @@
       <c r="AA3" s="6">
         <v>1</v>
       </c>
-      <c r="AB3" s="24">
+      <c r="AB3" s="26">
         <v>1</v>
       </c>
       <c r="AC3" s="6">
@@ -6847,7 +6853,7 @@
       <c r="AA4" s="6">
         <v>1</v>
       </c>
-      <c r="AB4" s="24">
+      <c r="AB4" s="26">
         <v>1</v>
       </c>
       <c r="AC4" s="6">
@@ -6969,7 +6975,7 @@
       <c r="AA5" s="6">
         <v>0</v>
       </c>
-      <c r="AB5" s="24">
+      <c r="AB5" s="26">
         <v>0</v>
       </c>
       <c r="AC5" s="6">
@@ -7091,7 +7097,7 @@
       <c r="AA6" s="6">
         <v>0</v>
       </c>
-      <c r="AB6" s="24">
+      <c r="AB6" s="26">
         <v>0</v>
       </c>
       <c r="AC6" s="6">
@@ -7540,7 +7546,7 @@
       <c r="S10" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="T10" s="20" t="s">
+      <c r="T10" s="22" t="s">
         <v>65</v>
       </c>
       <c r="U10" s="8" t="s">
@@ -7564,7 +7570,7 @@
       <c r="AA10" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="AB10" s="24" t="s">
+      <c r="AB10" s="26" t="s">
         <v>26</v>
       </c>
       <c r="AC10" s="8" t="s">
@@ -7653,10 +7659,10 @@
       <c r="Q11">
         <v>6</v>
       </c>
-      <c r="R11" s="21" t="s">
+      <c r="R11" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="S11" s="21" t="s">
+      <c r="S11" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T11" s="14" t="s">
@@ -7665,7 +7671,7 @@
       <c r="W11" s="14">
         <v>4</v>
       </c>
-      <c r="X11" s="22" t="s">
+      <c r="X11" s="24" t="s">
         <v>86</v>
       </c>
       <c r="Y11" s="14" t="s">
@@ -7674,16 +7680,16 @@
       <c r="Z11" s="14">
         <v>0</v>
       </c>
-      <c r="AA11" s="25" t="s">
+      <c r="AA11" s="27" t="s">
         <v>214</v>
       </c>
-      <c r="AB11" s="22" t="s">
+      <c r="AB11" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="AC11" s="25" t="s">
+      <c r="AC11" s="27" t="s">
         <v>216</v>
       </c>
-      <c r="AD11" s="26" t="s">
+      <c r="AD11" s="28" t="s">
         <v>90</v>
       </c>
       <c r="AE11" s="14">
@@ -7704,7 +7710,7 @@
       <c r="AK11" s="14">
         <v>2</v>
       </c>
-      <c r="AL11" s="25" t="s">
+      <c r="AL11" s="27" t="s">
         <v>217</v>
       </c>
       <c r="AM11" s="14">
@@ -7763,10 +7769,10 @@
       <c r="Q12">
         <v>6</v>
       </c>
-      <c r="R12" s="21" t="s">
+      <c r="R12" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="S12" s="21" t="s">
+      <c r="S12" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T12" s="15" t="s">
@@ -7775,7 +7781,7 @@
       <c r="W12" s="15">
         <v>4</v>
       </c>
-      <c r="X12" s="22" t="s">
+      <c r="X12" s="24" t="s">
         <v>86</v>
       </c>
       <c r="Y12" s="15" t="s">
@@ -7784,16 +7790,16 @@
       <c r="Z12" s="15">
         <v>0</v>
       </c>
-      <c r="AA12" s="25" t="s">
+      <c r="AA12" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="AB12" s="22" t="s">
+      <c r="AB12" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="AC12" s="25" t="s">
+      <c r="AC12" s="27" t="s">
         <v>222</v>
       </c>
-      <c r="AD12" s="27" t="s">
+      <c r="AD12" s="29" t="s">
         <v>90</v>
       </c>
       <c r="AE12" s="15">
@@ -7814,7 +7820,7 @@
       <c r="AK12" s="15">
         <v>2</v>
       </c>
-      <c r="AL12" s="25" t="s">
+      <c r="AL12" s="27" t="s">
         <v>223</v>
       </c>
       <c r="AM12" s="15">
@@ -7876,7 +7882,7 @@
       <c r="R13" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="S13" s="21" t="s">
+      <c r="S13" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T13" s="14" t="s">
@@ -7885,7 +7891,7 @@
       <c r="W13" s="14">
         <v>4</v>
       </c>
-      <c r="X13" s="22" t="s">
+      <c r="X13" s="24" t="s">
         <v>86</v>
       </c>
       <c r="Y13" s="15" t="s">
@@ -7894,16 +7900,16 @@
       <c r="Z13" s="15">
         <v>0</v>
       </c>
-      <c r="AA13" s="25" t="s">
+      <c r="AA13" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="AB13" s="22" t="s">
+      <c r="AB13" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="AC13" s="25" t="s">
+      <c r="AC13" s="27" t="s">
         <v>228</v>
       </c>
-      <c r="AD13" s="27" t="s">
+      <c r="AD13" s="29" t="s">
         <v>90</v>
       </c>
       <c r="AE13" s="15">
@@ -7925,7 +7931,7 @@
       <c r="AK13" s="14">
         <v>2</v>
       </c>
-      <c r="AL13" s="25" t="s">
+      <c r="AL13" s="27" t="s">
         <v>229</v>
       </c>
       <c r="AM13" s="14">
@@ -7987,7 +7993,7 @@
       <c r="R14" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="S14" s="21" t="s">
+      <c r="S14" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T14" s="15" t="s">
@@ -7996,7 +8002,7 @@
       <c r="W14" s="15">
         <v>4</v>
       </c>
-      <c r="X14" s="22" t="s">
+      <c r="X14" s="24" t="s">
         <v>86</v>
       </c>
       <c r="Y14" s="15" t="s">
@@ -8005,16 +8011,16 @@
       <c r="Z14" s="15">
         <v>0</v>
       </c>
-      <c r="AA14" s="25" t="s">
+      <c r="AA14" s="27" t="s">
         <v>233</v>
       </c>
-      <c r="AB14" s="22" t="s">
+      <c r="AB14" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="AC14" s="25" t="s">
+      <c r="AC14" s="27" t="s">
         <v>234</v>
       </c>
-      <c r="AD14" s="27" t="s">
+      <c r="AD14" s="29" t="s">
         <v>90</v>
       </c>
       <c r="AE14" s="15">
@@ -8035,7 +8041,7 @@
       <c r="AK14" s="15">
         <v>2</v>
       </c>
-      <c r="AL14" s="25" t="s">
+      <c r="AL14" s="27" t="s">
         <v>235</v>
       </c>
       <c r="AM14" s="15">
@@ -8097,7 +8103,7 @@
       <c r="R15" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="S15" s="21" t="s">
+      <c r="S15" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T15" s="14" t="s">
@@ -8106,7 +8112,7 @@
       <c r="W15" s="14">
         <v>4</v>
       </c>
-      <c r="X15" s="22" t="s">
+      <c r="X15" s="24" t="s">
         <v>86</v>
       </c>
       <c r="Y15" s="15" t="s">
@@ -8115,16 +8121,16 @@
       <c r="Z15" s="15">
         <v>0</v>
       </c>
-      <c r="AA15" s="25" t="s">
+      <c r="AA15" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="AB15" s="22" t="s">
+      <c r="AB15" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="AC15" s="25" t="s">
+      <c r="AC15" s="27" t="s">
         <v>240</v>
       </c>
-      <c r="AD15" s="27" t="s">
+      <c r="AD15" s="29" t="s">
         <v>90</v>
       </c>
       <c r="AE15" s="15">
@@ -8146,7 +8152,7 @@
       <c r="AK15" s="14">
         <v>2</v>
       </c>
-      <c r="AL15" s="25" t="s">
+      <c r="AL15" s="27" t="s">
         <v>241</v>
       </c>
       <c r="AM15" s="14">
@@ -8208,7 +8214,7 @@
       <c r="R16" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="S16" s="21" t="s">
+      <c r="S16" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T16" s="15" t="s">
@@ -8217,7 +8223,7 @@
       <c r="W16" s="15">
         <v>4</v>
       </c>
-      <c r="X16" s="22" t="s">
+      <c r="X16" s="24" t="s">
         <v>86</v>
       </c>
       <c r="Y16" s="15" t="s">
@@ -8226,16 +8232,16 @@
       <c r="Z16" s="15">
         <v>0</v>
       </c>
-      <c r="AA16" s="25" t="s">
+      <c r="AA16" s="27" t="s">
         <v>245</v>
       </c>
-      <c r="AB16" s="22" t="s">
+      <c r="AB16" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="AC16" s="25" t="s">
+      <c r="AC16" s="27" t="s">
         <v>246</v>
       </c>
-      <c r="AD16" s="27" t="s">
+      <c r="AD16" s="29" t="s">
         <v>90</v>
       </c>
       <c r="AE16" s="15">
@@ -8256,7 +8262,7 @@
       <c r="AK16" s="15">
         <v>2</v>
       </c>
-      <c r="AL16" s="25" t="s">
+      <c r="AL16" s="27" t="s">
         <v>247</v>
       </c>
       <c r="AM16" s="15">
@@ -8318,7 +8324,7 @@
       <c r="R17" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="S17" s="21" t="s">
+      <c r="S17" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T17" s="14" t="s">
@@ -8327,7 +8333,7 @@
       <c r="W17" s="14">
         <v>4</v>
       </c>
-      <c r="X17" s="22" t="s">
+      <c r="X17" s="24" t="s">
         <v>86</v>
       </c>
       <c r="Y17" s="15" t="s">
@@ -8336,16 +8342,16 @@
       <c r="Z17" s="15">
         <v>0</v>
       </c>
-      <c r="AA17" s="25" t="s">
+      <c r="AA17" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="AB17" s="22" t="s">
+      <c r="AB17" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="AC17" s="25" t="s">
+      <c r="AC17" s="27" t="s">
         <v>252</v>
       </c>
-      <c r="AD17" s="27" t="s">
+      <c r="AD17" s="29" t="s">
         <v>90</v>
       </c>
       <c r="AE17" s="15">
@@ -8367,7 +8373,7 @@
       <c r="AK17" s="14">
         <v>2</v>
       </c>
-      <c r="AL17" s="25" t="s">
+      <c r="AL17" s="27" t="s">
         <v>253</v>
       </c>
       <c r="AM17" s="14">
@@ -8426,10 +8432,10 @@
       <c r="Q18">
         <v>6</v>
       </c>
-      <c r="R18" s="21" t="s">
+      <c r="R18" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="S18" s="21" t="s">
+      <c r="S18" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T18" s="15" t="s">
@@ -8438,7 +8444,7 @@
       <c r="W18" s="15">
         <v>4</v>
       </c>
-      <c r="X18" s="22" t="s">
+      <c r="X18" s="24" t="s">
         <v>86</v>
       </c>
       <c r="Y18" s="15" t="s">
@@ -8447,16 +8453,16 @@
       <c r="Z18" s="15">
         <v>0</v>
       </c>
-      <c r="AA18" s="25" t="s">
+      <c r="AA18" s="27" t="s">
         <v>256</v>
       </c>
-      <c r="AB18" s="22" t="s">
+      <c r="AB18" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="AC18" s="25" t="s">
+      <c r="AC18" s="27" t="s">
         <v>257</v>
       </c>
-      <c r="AD18" s="27" t="s">
+      <c r="AD18" s="29" t="s">
         <v>90</v>
       </c>
       <c r="AE18" s="15">
@@ -8477,7 +8483,7 @@
       <c r="AK18" s="15">
         <v>2</v>
       </c>
-      <c r="AL18" s="25" t="s">
+      <c r="AL18" s="27" t="s">
         <v>258</v>
       </c>
       <c r="AM18" s="15">
@@ -8536,10 +8542,10 @@
       <c r="Q19">
         <v>6</v>
       </c>
-      <c r="R19" s="21" t="s">
+      <c r="R19" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="S19" s="21" t="s">
+      <c r="S19" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T19" s="14" t="s">
@@ -8548,7 +8554,7 @@
       <c r="W19" s="14">
         <v>4</v>
       </c>
-      <c r="X19" s="22" t="s">
+      <c r="X19" s="24" t="s">
         <v>86</v>
       </c>
       <c r="Y19" s="15" t="s">
@@ -8557,16 +8563,16 @@
       <c r="Z19" s="15">
         <v>0</v>
       </c>
-      <c r="AA19" s="25" t="s">
+      <c r="AA19" s="27" t="s">
         <v>261</v>
       </c>
-      <c r="AB19" s="22" t="s">
+      <c r="AB19" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="AC19" s="25" t="s">
+      <c r="AC19" s="27" t="s">
         <v>262</v>
       </c>
-      <c r="AD19" s="27" t="s">
+      <c r="AD19" s="29" t="s">
         <v>90</v>
       </c>
       <c r="AE19" s="15">
@@ -8588,7 +8594,7 @@
       <c r="AK19" s="14">
         <v>2</v>
       </c>
-      <c r="AL19" s="25" t="s">
+      <c r="AL19" s="27" t="s">
         <v>263</v>
       </c>
       <c r="AM19" s="14">
@@ -8647,10 +8653,10 @@
       <c r="Q20">
         <v>6</v>
       </c>
-      <c r="R20" s="21" t="s">
+      <c r="R20" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="S20" s="21" t="s">
+      <c r="S20" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T20" s="15" t="s">
@@ -8659,7 +8665,7 @@
       <c r="W20" s="15">
         <v>4</v>
       </c>
-      <c r="X20" s="22" t="s">
+      <c r="X20" s="24" t="s">
         <v>86</v>
       </c>
       <c r="Y20" s="15" t="s">
@@ -8668,16 +8674,16 @@
       <c r="Z20" s="15">
         <v>0</v>
       </c>
-      <c r="AA20" s="25" t="s">
+      <c r="AA20" s="27" t="s">
         <v>266</v>
       </c>
-      <c r="AB20" s="22" t="s">
+      <c r="AB20" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="AC20" s="25" t="s">
+      <c r="AC20" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="AD20" s="27" t="s">
+      <c r="AD20" s="29" t="s">
         <v>90</v>
       </c>
       <c r="AE20" s="15">
@@ -8698,7 +8704,7 @@
       <c r="AK20" s="15">
         <v>2</v>
       </c>
-      <c r="AL20" s="25" t="s">
+      <c r="AL20" s="27" t="s">
         <v>268</v>
       </c>
       <c r="AM20" s="15">
@@ -8757,10 +8763,10 @@
       <c r="Q21">
         <v>6</v>
       </c>
-      <c r="R21" s="21" t="s">
+      <c r="R21" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="S21" s="21" t="s">
+      <c r="S21" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T21" s="14" t="s">
@@ -8769,7 +8775,7 @@
       <c r="W21" s="14">
         <v>4</v>
       </c>
-      <c r="X21" s="22" t="s">
+      <c r="X21" s="24" t="s">
         <v>86</v>
       </c>
       <c r="Y21" s="15" t="s">
@@ -8778,16 +8784,16 @@
       <c r="Z21" s="15">
         <v>0</v>
       </c>
-      <c r="AA21" s="25" t="s">
+      <c r="AA21" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="AB21" s="22" t="s">
+      <c r="AB21" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="AC21" s="25" t="s">
+      <c r="AC21" s="27" t="s">
         <v>272</v>
       </c>
-      <c r="AD21" s="27" t="s">
+      <c r="AD21" s="29" t="s">
         <v>90</v>
       </c>
       <c r="AE21" s="15">
@@ -8809,7 +8815,7 @@
       <c r="AK21" s="14">
         <v>2</v>
       </c>
-      <c r="AL21" s="25" t="s">
+      <c r="AL21" s="27" t="s">
         <v>273</v>
       </c>
       <c r="AM21" s="14">
@@ -8868,10 +8874,10 @@
       <c r="Q22">
         <v>6</v>
       </c>
-      <c r="R22" s="21" t="s">
+      <c r="R22" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="S22" s="21" t="s">
+      <c r="S22" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T22" s="15" t="s">
@@ -8880,7 +8886,7 @@
       <c r="W22" s="15">
         <v>4</v>
       </c>
-      <c r="X22" s="22" t="s">
+      <c r="X22" s="24" t="s">
         <v>86</v>
       </c>
       <c r="Y22" s="15" t="s">
@@ -8889,16 +8895,16 @@
       <c r="Z22" s="15">
         <v>0</v>
       </c>
-      <c r="AA22" s="25" t="s">
+      <c r="AA22" s="27" t="s">
         <v>276</v>
       </c>
-      <c r="AB22" s="22" t="s">
+      <c r="AB22" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="AC22" s="25" t="s">
+      <c r="AC22" s="27" t="s">
         <v>277</v>
       </c>
-      <c r="AD22" s="27" t="s">
+      <c r="AD22" s="29" t="s">
         <v>90</v>
       </c>
       <c r="AE22" s="15">
@@ -8919,7 +8925,7 @@
       <c r="AK22" s="15">
         <v>2</v>
       </c>
-      <c r="AL22" s="25" t="s">
+      <c r="AL22" s="27" t="s">
         <v>278</v>
       </c>
       <c r="AM22" s="15">
@@ -8978,10 +8984,10 @@
       <c r="Q23">
         <v>6</v>
       </c>
-      <c r="R23" s="21" t="s">
+      <c r="R23" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="S23" s="21" t="s">
+      <c r="S23" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T23" s="14" t="s">
@@ -8990,7 +8996,7 @@
       <c r="W23" s="14">
         <v>4</v>
       </c>
-      <c r="X23" s="22" t="s">
+      <c r="X23" s="24" t="s">
         <v>86</v>
       </c>
       <c r="Y23" s="15" t="s">
@@ -8999,16 +9005,16 @@
       <c r="Z23" s="15">
         <v>0</v>
       </c>
-      <c r="AA23" s="25" t="s">
+      <c r="AA23" s="27" t="s">
         <v>281</v>
       </c>
-      <c r="AB23" s="22" t="s">
+      <c r="AB23" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="AC23" s="25" t="s">
+      <c r="AC23" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="AD23" s="27" t="s">
+      <c r="AD23" s="29" t="s">
         <v>90</v>
       </c>
       <c r="AE23" s="15">
@@ -9030,7 +9036,7 @@
       <c r="AK23" s="14">
         <v>2</v>
       </c>
-      <c r="AL23" s="25" t="s">
+      <c r="AL23" s="27" t="s">
         <v>283</v>
       </c>
       <c r="AM23" s="14">
@@ -9089,10 +9095,10 @@
       <c r="Q24">
         <v>6</v>
       </c>
-      <c r="R24" s="21" t="s">
+      <c r="R24" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="S24" s="21" t="s">
+      <c r="S24" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T24" s="15" t="s">
@@ -9101,7 +9107,7 @@
       <c r="W24" s="15">
         <v>4</v>
       </c>
-      <c r="X24" s="22" t="s">
+      <c r="X24" s="24" t="s">
         <v>86</v>
       </c>
       <c r="Y24" s="15" t="s">
@@ -9110,16 +9116,16 @@
       <c r="Z24" s="15">
         <v>0</v>
       </c>
-      <c r="AA24" s="25" t="s">
+      <c r="AA24" s="27" t="s">
         <v>286</v>
       </c>
-      <c r="AB24" s="22" t="s">
+      <c r="AB24" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="AC24" s="25" t="s">
+      <c r="AC24" s="27" t="s">
         <v>287</v>
       </c>
-      <c r="AD24" s="27" t="s">
+      <c r="AD24" s="29" t="s">
         <v>90</v>
       </c>
       <c r="AE24" s="15">
@@ -9140,7 +9146,7 @@
       <c r="AK24" s="15">
         <v>2</v>
       </c>
-      <c r="AL24" s="25" t="s">
+      <c r="AL24" s="27" t="s">
         <v>288</v>
       </c>
       <c r="AM24" s="15">
@@ -9199,10 +9205,10 @@
       <c r="Q25">
         <v>6</v>
       </c>
-      <c r="R25" s="21" t="s">
+      <c r="R25" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="S25" s="21" t="s">
+      <c r="S25" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T25" s="14" t="s">
@@ -9211,7 +9217,7 @@
       <c r="W25" s="14">
         <v>4</v>
       </c>
-      <c r="X25" s="22" t="s">
+      <c r="X25" s="24" t="s">
         <v>86</v>
       </c>
       <c r="Y25" s="15" t="s">
@@ -9220,16 +9226,16 @@
       <c r="Z25" s="15">
         <v>0</v>
       </c>
-      <c r="AA25" s="25" t="s">
+      <c r="AA25" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="AB25" s="22" t="s">
+      <c r="AB25" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="AC25" s="25" t="s">
+      <c r="AC25" s="27" t="s">
         <v>292</v>
       </c>
-      <c r="AD25" s="27" t="s">
+      <c r="AD25" s="29" t="s">
         <v>90</v>
       </c>
       <c r="AE25" s="15">
@@ -9251,7 +9257,7 @@
       <c r="AK25" s="14">
         <v>2</v>
       </c>
-      <c r="AL25" s="25" t="s">
+      <c r="AL25" s="27" t="s">
         <v>293</v>
       </c>
       <c r="AM25" s="14">
@@ -9310,10 +9316,10 @@
       <c r="Q26">
         <v>6</v>
       </c>
-      <c r="R26" s="21" t="s">
+      <c r="R26" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="S26" s="21" t="s">
+      <c r="S26" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T26" s="15" t="s">
@@ -9322,7 +9328,7 @@
       <c r="W26" s="15">
         <v>4</v>
       </c>
-      <c r="X26" s="22" t="s">
+      <c r="X26" s="24" t="s">
         <v>86</v>
       </c>
       <c r="Y26" s="15" t="s">
@@ -9331,16 +9337,16 @@
       <c r="Z26" s="15">
         <v>0</v>
       </c>
-      <c r="AA26" s="25" t="s">
+      <c r="AA26" s="27" t="s">
         <v>296</v>
       </c>
-      <c r="AB26" s="22" t="s">
+      <c r="AB26" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="AC26" s="25" t="s">
+      <c r="AC26" s="27" t="s">
         <v>297</v>
       </c>
-      <c r="AD26" s="27" t="s">
+      <c r="AD26" s="29" t="s">
         <v>90</v>
       </c>
       <c r="AE26" s="15">
@@ -9361,7 +9367,7 @@
       <c r="AK26" s="15">
         <v>2</v>
       </c>
-      <c r="AL26" s="25" t="s">
+      <c r="AL26" s="27" t="s">
         <v>298</v>
       </c>
       <c r="AM26" s="15">
@@ -9420,10 +9426,10 @@
       <c r="Q27">
         <v>6</v>
       </c>
-      <c r="R27" s="21" t="s">
+      <c r="R27" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="S27" s="21" t="s">
+      <c r="S27" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T27" s="14" t="s">
@@ -9432,7 +9438,7 @@
       <c r="W27" s="14">
         <v>4</v>
       </c>
-      <c r="X27" s="22" t="s">
+      <c r="X27" s="24" t="s">
         <v>86</v>
       </c>
       <c r="Y27" s="15" t="s">
@@ -9441,16 +9447,16 @@
       <c r="Z27" s="15">
         <v>0</v>
       </c>
-      <c r="AA27" s="25" t="s">
+      <c r="AA27" s="27" t="s">
         <v>301</v>
       </c>
-      <c r="AB27" s="22" t="s">
+      <c r="AB27" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="AC27" s="25" t="s">
+      <c r="AC27" s="27" t="s">
         <v>302</v>
       </c>
-      <c r="AD27" s="27" t="s">
+      <c r="AD27" s="29" t="s">
         <v>90</v>
       </c>
       <c r="AE27" s="15">
@@ -9472,7 +9478,7 @@
       <c r="AK27" s="14">
         <v>2</v>
       </c>
-      <c r="AL27" s="25" t="s">
+      <c r="AL27" s="27" t="s">
         <v>303</v>
       </c>
       <c r="AM27" s="14">
@@ -9531,10 +9537,10 @@
       <c r="Q28">
         <v>6</v>
       </c>
-      <c r="R28" s="21" t="s">
+      <c r="R28" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="S28" s="21" t="s">
+      <c r="S28" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T28" s="15" t="s">
@@ -9543,7 +9549,7 @@
       <c r="W28" s="15">
         <v>4</v>
       </c>
-      <c r="X28" s="22" t="s">
+      <c r="X28" s="24" t="s">
         <v>86</v>
       </c>
       <c r="Y28" s="15" t="s">
@@ -9552,16 +9558,16 @@
       <c r="Z28" s="15">
         <v>0</v>
       </c>
-      <c r="AA28" s="25" t="s">
+      <c r="AA28" s="27" t="s">
         <v>306</v>
       </c>
-      <c r="AB28" s="22" t="s">
+      <c r="AB28" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="AC28" s="25" t="s">
+      <c r="AC28" s="27" t="s">
         <v>307</v>
       </c>
-      <c r="AD28" s="27" t="s">
+      <c r="AD28" s="29" t="s">
         <v>90</v>
       </c>
       <c r="AE28" s="15">
@@ -9582,7 +9588,7 @@
       <c r="AK28" s="15">
         <v>2</v>
       </c>
-      <c r="AL28" s="25" t="s">
+      <c r="AL28" s="27" t="s">
         <v>308</v>
       </c>
       <c r="AM28" s="15">
@@ -9641,10 +9647,10 @@
       <c r="Q29">
         <v>6</v>
       </c>
-      <c r="R29" s="21" t="s">
+      <c r="R29" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="S29" s="21" t="s">
+      <c r="S29" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T29" s="14" t="s">
@@ -9653,7 +9659,7 @@
       <c r="W29" s="14">
         <v>4</v>
       </c>
-      <c r="X29" s="22" t="s">
+      <c r="X29" s="24" t="s">
         <v>86</v>
       </c>
       <c r="Y29" s="15" t="s">
@@ -9662,16 +9668,16 @@
       <c r="Z29" s="15">
         <v>0</v>
       </c>
-      <c r="AA29" s="25" t="s">
+      <c r="AA29" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="AB29" s="22" t="s">
+      <c r="AB29" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="AC29" s="25" t="s">
+      <c r="AC29" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="AD29" s="27" t="s">
+      <c r="AD29" s="29" t="s">
         <v>90</v>
       </c>
       <c r="AE29" s="15">
@@ -9693,7 +9699,7 @@
       <c r="AK29" s="14">
         <v>2</v>
       </c>
-      <c r="AL29" s="25" t="s">
+      <c r="AL29" s="27" t="s">
         <v>313</v>
       </c>
       <c r="AM29" s="14">
@@ -9752,10 +9758,10 @@
       <c r="Q30">
         <v>6</v>
       </c>
-      <c r="R30" s="21" t="s">
+      <c r="R30" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="S30" s="21" t="s">
+      <c r="S30" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T30" s="15" t="s">
@@ -9764,7 +9770,7 @@
       <c r="W30" s="15">
         <v>4</v>
       </c>
-      <c r="X30" s="22" t="s">
+      <c r="X30" s="24" t="s">
         <v>86</v>
       </c>
       <c r="Y30" s="15" t="s">
@@ -9773,16 +9779,16 @@
       <c r="Z30" s="15">
         <v>0</v>
       </c>
-      <c r="AA30" s="25" t="s">
+      <c r="AA30" s="27" t="s">
         <v>316</v>
       </c>
-      <c r="AB30" s="22" t="s">
+      <c r="AB30" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="AC30" s="25" t="s">
+      <c r="AC30" s="27" t="s">
         <v>317</v>
       </c>
-      <c r="AD30" s="27" t="s">
+      <c r="AD30" s="29" t="s">
         <v>90</v>
       </c>
       <c r="AE30" s="15">
@@ -9803,7 +9809,7 @@
       <c r="AK30" s="15">
         <v>2</v>
       </c>
-      <c r="AL30" s="25" t="s">
+      <c r="AL30" s="27" t="s">
         <v>318</v>
       </c>
       <c r="AM30" s="15">
@@ -9862,10 +9868,10 @@
       <c r="Q31">
         <v>6</v>
       </c>
-      <c r="R31" s="21" t="s">
+      <c r="R31" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="S31" s="21" t="s">
+      <c r="S31" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T31" s="14" t="s">
@@ -9874,7 +9880,7 @@
       <c r="W31" s="14">
         <v>4</v>
       </c>
-      <c r="X31" s="22" t="s">
+      <c r="X31" s="24" t="s">
         <v>86</v>
       </c>
       <c r="Y31" s="15" t="s">
@@ -9883,16 +9889,16 @@
       <c r="Z31" s="15">
         <v>0</v>
       </c>
-      <c r="AA31" s="25" t="s">
+      <c r="AA31" s="27" t="s">
         <v>321</v>
       </c>
-      <c r="AB31" s="22" t="s">
+      <c r="AB31" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="AC31" s="25" t="s">
+      <c r="AC31" s="27" t="s">
         <v>322</v>
       </c>
-      <c r="AD31" s="27" t="s">
+      <c r="AD31" s="29" t="s">
         <v>90</v>
       </c>
       <c r="AE31" s="15">
@@ -9914,7 +9920,7 @@
       <c r="AK31" s="14">
         <v>2</v>
       </c>
-      <c r="AL31" s="25" t="s">
+      <c r="AL31" s="27" t="s">
         <v>323</v>
       </c>
       <c r="AM31" s="14">
@@ -9973,10 +9979,10 @@
       <c r="Q32">
         <v>6</v>
       </c>
-      <c r="R32" s="21" t="s">
+      <c r="R32" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="S32" s="21" t="s">
+      <c r="S32" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T32" s="15" t="s">
@@ -9985,7 +9991,7 @@
       <c r="W32" s="15">
         <v>4</v>
       </c>
-      <c r="X32" s="22" t="s">
+      <c r="X32" s="24" t="s">
         <v>86</v>
       </c>
       <c r="Y32" s="15" t="s">
@@ -9994,16 +10000,16 @@
       <c r="Z32" s="15">
         <v>0</v>
       </c>
-      <c r="AA32" s="25" t="s">
+      <c r="AA32" s="27" t="s">
         <v>326</v>
       </c>
-      <c r="AB32" s="22" t="s">
+      <c r="AB32" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="AC32" s="25" t="s">
+      <c r="AC32" s="27" t="s">
         <v>327</v>
       </c>
-      <c r="AD32" s="27" t="s">
+      <c r="AD32" s="29" t="s">
         <v>90</v>
       </c>
       <c r="AE32" s="15">
@@ -10024,7 +10030,7 @@
       <c r="AK32" s="15">
         <v>2</v>
       </c>
-      <c r="AL32" s="25" t="s">
+      <c r="AL32" s="27" t="s">
         <v>328</v>
       </c>
       <c r="AM32" s="15">
@@ -10083,10 +10089,10 @@
       <c r="Q33">
         <v>6</v>
       </c>
-      <c r="R33" s="21" t="s">
+      <c r="R33" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="S33" s="21" t="s">
+      <c r="S33" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T33" s="14" t="s">
@@ -10095,7 +10101,7 @@
       <c r="W33" s="14">
         <v>4</v>
       </c>
-      <c r="X33" s="22" t="s">
+      <c r="X33" s="24" t="s">
         <v>86</v>
       </c>
       <c r="Y33" s="15" t="s">
@@ -10104,16 +10110,16 @@
       <c r="Z33" s="15">
         <v>0</v>
       </c>
-      <c r="AA33" s="25" t="s">
+      <c r="AA33" s="27" t="s">
         <v>331</v>
       </c>
-      <c r="AB33" s="22" t="s">
+      <c r="AB33" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="AC33" s="25" t="s">
+      <c r="AC33" s="27" t="s">
         <v>332</v>
       </c>
-      <c r="AD33" s="27" t="s">
+      <c r="AD33" s="29" t="s">
         <v>90</v>
       </c>
       <c r="AE33" s="15">
@@ -10135,7 +10141,7 @@
       <c r="AK33" s="14">
         <v>2</v>
       </c>
-      <c r="AL33" s="25" t="s">
+      <c r="AL33" s="27" t="s">
         <v>333</v>
       </c>
       <c r="AM33" s="14">
@@ -10194,10 +10200,10 @@
       <c r="Q34">
         <v>6</v>
       </c>
-      <c r="R34" s="21" t="s">
+      <c r="R34" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="S34" s="21" t="s">
+      <c r="S34" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T34" s="15" t="s">
@@ -10206,7 +10212,7 @@
       <c r="W34" s="15">
         <v>4</v>
       </c>
-      <c r="X34" s="22" t="s">
+      <c r="X34" s="24" t="s">
         <v>86</v>
       </c>
       <c r="Y34" s="15" t="s">
@@ -10215,16 +10221,16 @@
       <c r="Z34" s="15">
         <v>0</v>
       </c>
-      <c r="AA34" s="25" t="s">
+      <c r="AA34" s="27" t="s">
         <v>336</v>
       </c>
-      <c r="AB34" s="22" t="s">
+      <c r="AB34" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="AC34" s="25" t="s">
+      <c r="AC34" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="AD34" s="27" t="s">
+      <c r="AD34" s="29" t="s">
         <v>90</v>
       </c>
       <c r="AE34" s="15">
@@ -10245,7 +10251,7 @@
       <c r="AK34" s="15">
         <v>2</v>
       </c>
-      <c r="AL34" s="25" t="s">
+      <c r="AL34" s="27" t="s">
         <v>338</v>
       </c>
       <c r="AM34" s="15">
@@ -10304,10 +10310,10 @@
       <c r="Q35">
         <v>6</v>
       </c>
-      <c r="R35" s="21" t="s">
+      <c r="R35" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="S35" s="21" t="s">
+      <c r="S35" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T35" s="14" t="s">
@@ -10316,7 +10322,7 @@
       <c r="W35" s="14">
         <v>4</v>
       </c>
-      <c r="X35" s="22" t="s">
+      <c r="X35" s="24" t="s">
         <v>86</v>
       </c>
       <c r="Y35" s="15" t="s">
@@ -10325,16 +10331,16 @@
       <c r="Z35" s="15">
         <v>0</v>
       </c>
-      <c r="AA35" s="25" t="s">
+      <c r="AA35" s="27" t="s">
         <v>341</v>
       </c>
-      <c r="AB35" s="22" t="s">
+      <c r="AB35" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="AC35" s="25" t="s">
+      <c r="AC35" s="27" t="s">
         <v>342</v>
       </c>
-      <c r="AD35" s="27" t="s">
+      <c r="AD35" s="29" t="s">
         <v>90</v>
       </c>
       <c r="AE35" s="15">
@@ -10356,7 +10362,7 @@
       <c r="AK35" s="14">
         <v>2</v>
       </c>
-      <c r="AL35" s="25" t="s">
+      <c r="AL35" s="27" t="s">
         <v>343</v>
       </c>
       <c r="AM35" s="14">
@@ -10418,7 +10424,7 @@
       <c r="R36" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="S36" s="21" t="s">
+      <c r="S36" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T36" s="15" t="s">
@@ -10427,7 +10433,7 @@
       <c r="W36" s="15">
         <v>4</v>
       </c>
-      <c r="X36" s="22" t="s">
+      <c r="X36" s="24" t="s">
         <v>86</v>
       </c>
       <c r="Y36" s="15" t="s">
@@ -10436,16 +10442,16 @@
       <c r="Z36" s="15">
         <v>0</v>
       </c>
-      <c r="AA36" s="25" t="s">
+      <c r="AA36" s="27" t="s">
         <v>346</v>
       </c>
-      <c r="AB36" s="22" t="s">
+      <c r="AB36" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="AC36" s="25" t="s">
+      <c r="AC36" s="27" t="s">
         <v>347</v>
       </c>
-      <c r="AD36" s="27" t="s">
+      <c r="AD36" s="29" t="s">
         <v>90</v>
       </c>
       <c r="AE36" s="15">
@@ -10466,7 +10472,7 @@
       <c r="AK36" s="15">
         <v>2</v>
       </c>
-      <c r="AL36" s="25" t="s">
+      <c r="AL36" s="27" t="s">
         <v>348</v>
       </c>
       <c r="AM36" s="15">
@@ -10528,7 +10534,7 @@
       <c r="R37" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="S37" s="21" t="s">
+      <c r="S37" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T37" s="14" t="s">
@@ -10537,7 +10543,7 @@
       <c r="W37" s="14">
         <v>4</v>
       </c>
-      <c r="X37" s="22" t="s">
+      <c r="X37" s="24" t="s">
         <v>86</v>
       </c>
       <c r="Y37" s="15" t="s">
@@ -10546,16 +10552,16 @@
       <c r="Z37" s="15">
         <v>0</v>
       </c>
-      <c r="AA37" s="25" t="s">
+      <c r="AA37" s="27" t="s">
         <v>351</v>
       </c>
-      <c r="AB37" s="22" t="s">
+      <c r="AB37" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="AC37" s="25" t="s">
+      <c r="AC37" s="27" t="s">
         <v>352</v>
       </c>
-      <c r="AD37" s="27" t="s">
+      <c r="AD37" s="29" t="s">
         <v>90</v>
       </c>
       <c r="AE37" s="15">
@@ -10577,7 +10583,7 @@
       <c r="AK37" s="14">
         <v>2</v>
       </c>
-      <c r="AL37" s="25" t="s">
+      <c r="AL37" s="27" t="s">
         <v>353</v>
       </c>
       <c r="AM37" s="14">
@@ -10639,7 +10645,7 @@
       <c r="R38" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="S38" s="21" t="s">
+      <c r="S38" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T38" s="15" t="s">
@@ -10648,7 +10654,7 @@
       <c r="W38" s="15">
         <v>4</v>
       </c>
-      <c r="X38" s="22" t="s">
+      <c r="X38" s="24" t="s">
         <v>86</v>
       </c>
       <c r="Y38" s="15" t="s">
@@ -10657,16 +10663,16 @@
       <c r="Z38" s="15">
         <v>0</v>
       </c>
-      <c r="AA38" s="25" t="s">
+      <c r="AA38" s="27" t="s">
         <v>356</v>
       </c>
-      <c r="AB38" s="22" t="s">
+      <c r="AB38" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="AC38" s="25" t="s">
+      <c r="AC38" s="27" t="s">
         <v>357</v>
       </c>
-      <c r="AD38" s="27" t="s">
+      <c r="AD38" s="29" t="s">
         <v>90</v>
       </c>
       <c r="AE38" s="15">
@@ -10687,7 +10693,7 @@
       <c r="AK38" s="15">
         <v>2</v>
       </c>
-      <c r="AL38" s="25" t="s">
+      <c r="AL38" s="27" t="s">
         <v>358</v>
       </c>
       <c r="AM38" s="15">
@@ -10749,7 +10755,7 @@
       <c r="R39" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="S39" s="21" t="s">
+      <c r="S39" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T39" s="14" t="s">
@@ -10758,7 +10764,7 @@
       <c r="W39" s="14">
         <v>4</v>
       </c>
-      <c r="X39" s="22" t="s">
+      <c r="X39" s="24" t="s">
         <v>86</v>
       </c>
       <c r="Y39" s="15" t="s">
@@ -10767,16 +10773,16 @@
       <c r="Z39" s="15">
         <v>0</v>
       </c>
-      <c r="AA39" s="25" t="s">
+      <c r="AA39" s="27" t="s">
         <v>361</v>
       </c>
-      <c r="AB39" s="22" t="s">
+      <c r="AB39" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="AC39" s="25" t="s">
+      <c r="AC39" s="27" t="s">
         <v>362</v>
       </c>
-      <c r="AD39" s="27" t="s">
+      <c r="AD39" s="29" t="s">
         <v>90</v>
       </c>
       <c r="AE39" s="15">
@@ -10798,7 +10804,7 @@
       <c r="AK39" s="14">
         <v>2</v>
       </c>
-      <c r="AL39" s="25" t="s">
+      <c r="AL39" s="27" t="s">
         <v>363</v>
       </c>
       <c r="AM39" s="14">
@@ -10860,7 +10866,7 @@
       <c r="R40" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="S40" s="21" t="s">
+      <c r="S40" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T40" s="15" t="s">
@@ -10869,7 +10875,7 @@
       <c r="W40" s="15">
         <v>4</v>
       </c>
-      <c r="X40" s="22" t="s">
+      <c r="X40" s="24" t="s">
         <v>86</v>
       </c>
       <c r="Y40" s="15" t="s">
@@ -10878,16 +10884,16 @@
       <c r="Z40" s="15">
         <v>0</v>
       </c>
-      <c r="AA40" s="25" t="s">
+      <c r="AA40" s="27" t="s">
         <v>366</v>
       </c>
-      <c r="AB40" s="22" t="s">
+      <c r="AB40" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="AC40" s="25" t="s">
+      <c r="AC40" s="27" t="s">
         <v>367</v>
       </c>
-      <c r="AD40" s="27" t="s">
+      <c r="AD40" s="29" t="s">
         <v>90</v>
       </c>
       <c r="AE40" s="15">
@@ -10908,7 +10914,7 @@
       <c r="AK40" s="15">
         <v>2</v>
       </c>
-      <c r="AL40" s="25" t="s">
+      <c r="AL40" s="27" t="s">
         <v>368</v>
       </c>
       <c r="AM40" s="15">
@@ -10970,7 +10976,7 @@
       <c r="R41" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="S41" s="21" t="s">
+      <c r="S41" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T41" s="14" t="s">
@@ -10979,7 +10985,7 @@
       <c r="W41" s="14">
         <v>4</v>
       </c>
-      <c r="X41" s="22" t="s">
+      <c r="X41" s="24" t="s">
         <v>86</v>
       </c>
       <c r="Y41" s="15" t="s">
@@ -10988,16 +10994,16 @@
       <c r="Z41" s="15">
         <v>0</v>
       </c>
-      <c r="AA41" s="25" t="s">
+      <c r="AA41" s="27" t="s">
         <v>371</v>
       </c>
-      <c r="AB41" s="22" t="s">
+      <c r="AB41" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="AC41" s="25" t="s">
+      <c r="AC41" s="27" t="s">
         <v>372</v>
       </c>
-      <c r="AD41" s="27" t="s">
+      <c r="AD41" s="29" t="s">
         <v>90</v>
       </c>
       <c r="AE41" s="15">
@@ -11019,7 +11025,7 @@
       <c r="AK41" s="14">
         <v>2</v>
       </c>
-      <c r="AL41" s="25" t="s">
+      <c r="AL41" s="27" t="s">
         <v>373</v>
       </c>
       <c r="AM41" s="14">
@@ -11081,7 +11087,7 @@
       <c r="R42" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="S42" s="21" t="s">
+      <c r="S42" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T42" s="15" t="s">
@@ -11090,7 +11096,7 @@
       <c r="W42" s="15">
         <v>4</v>
       </c>
-      <c r="X42" s="22" t="s">
+      <c r="X42" s="24" t="s">
         <v>86</v>
       </c>
       <c r="Y42" s="15" t="s">
@@ -11099,16 +11105,16 @@
       <c r="Z42" s="15">
         <v>0</v>
       </c>
-      <c r="AA42" s="25" t="s">
+      <c r="AA42" s="27" t="s">
         <v>376</v>
       </c>
-      <c r="AB42" s="22" t="s">
+      <c r="AB42" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="AC42" s="25" t="s">
+      <c r="AC42" s="27" t="s">
         <v>377</v>
       </c>
-      <c r="AD42" s="27" t="s">
+      <c r="AD42" s="29" t="s">
         <v>90</v>
       </c>
       <c r="AE42" s="15">
@@ -11129,7 +11135,7 @@
       <c r="AK42" s="15">
         <v>2</v>
       </c>
-      <c r="AL42" s="25" t="s">
+      <c r="AL42" s="27" t="s">
         <v>378</v>
       </c>
       <c r="AM42" s="15">
@@ -11191,7 +11197,7 @@
       <c r="R43" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="S43" s="21" t="s">
+      <c r="S43" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T43" s="14" t="s">
@@ -11200,7 +11206,7 @@
       <c r="W43" s="14">
         <v>4</v>
       </c>
-      <c r="X43" s="22" t="s">
+      <c r="X43" s="24" t="s">
         <v>86</v>
       </c>
       <c r="Y43" s="16" t="s">
@@ -11209,16 +11215,16 @@
       <c r="Z43" s="16">
         <v>0</v>
       </c>
-      <c r="AA43" s="25" t="s">
+      <c r="AA43" s="27" t="s">
         <v>381</v>
       </c>
-      <c r="AB43" s="22" t="s">
+      <c r="AB43" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="AC43" s="25" t="s">
+      <c r="AC43" s="27" t="s">
         <v>382</v>
       </c>
-      <c r="AD43" s="28" t="s">
+      <c r="AD43" s="30" t="s">
         <v>90</v>
       </c>
       <c r="AE43" s="16">
@@ -11240,7 +11246,7 @@
       <c r="AK43" s="14">
         <v>2</v>
       </c>
-      <c r="AL43" s="25" t="s">
+      <c r="AL43" s="27" t="s">
         <v>383</v>
       </c>
       <c r="AM43" s="14">
@@ -11302,7 +11308,7 @@
       <c r="R44" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="S44" s="21" t="s">
+      <c r="S44" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T44" s="15" t="s">
@@ -11311,7 +11317,7 @@
       <c r="W44" s="15">
         <v>4</v>
       </c>
-      <c r="X44" s="22" t="s">
+      <c r="X44" s="24" t="s">
         <v>86</v>
       </c>
       <c r="Y44" s="15" t="s">
@@ -11320,16 +11326,16 @@
       <c r="Z44" s="15">
         <v>0</v>
       </c>
-      <c r="AA44" s="25" t="s">
+      <c r="AA44" s="27" t="s">
         <v>386</v>
       </c>
-      <c r="AB44" s="22" t="s">
+      <c r="AB44" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="AC44" s="25" t="s">
+      <c r="AC44" s="27" t="s">
         <v>387</v>
       </c>
-      <c r="AD44" s="27" t="s">
+      <c r="AD44" s="29" t="s">
         <v>90</v>
       </c>
       <c r="AE44" s="15">
@@ -11350,7 +11356,7 @@
       <c r="AK44" s="15">
         <v>2</v>
       </c>
-      <c r="AL44" s="25" t="s">
+      <c r="AL44" s="27" t="s">
         <v>388</v>
       </c>
       <c r="AM44" s="15">
@@ -11412,7 +11418,7 @@
       <c r="R45" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="S45" s="21" t="s">
+      <c r="S45" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T45" s="14" t="s">
@@ -11421,7 +11427,7 @@
       <c r="W45" s="14">
         <v>4</v>
       </c>
-      <c r="X45" s="22" t="s">
+      <c r="X45" s="24" t="s">
         <v>86</v>
       </c>
       <c r="Y45" s="15" t="s">
@@ -11430,16 +11436,16 @@
       <c r="Z45" s="15">
         <v>0</v>
       </c>
-      <c r="AA45" s="25" t="s">
+      <c r="AA45" s="27" t="s">
         <v>391</v>
       </c>
-      <c r="AB45" s="22" t="s">
+      <c r="AB45" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="AC45" s="25" t="s">
+      <c r="AC45" s="27" t="s">
         <v>392</v>
       </c>
-      <c r="AD45" s="27" t="s">
+      <c r="AD45" s="29" t="s">
         <v>90</v>
       </c>
       <c r="AE45" s="15">
@@ -11461,7 +11467,7 @@
       <c r="AK45" s="14">
         <v>2</v>
       </c>
-      <c r="AL45" s="25" t="s">
+      <c r="AL45" s="27" t="s">
         <v>393</v>
       </c>
       <c r="AM45" s="14">
@@ -11472,7 +11478,7 @@
       </c>
     </row>
     <row r="46" s="16" customFormat="1" ht="14.25" spans="1:40">
-      <c r="A46" s="19" t="s">
+      <c r="A46" s="20" t="s">
         <v>394</v>
       </c>
       <c r="C46" s="16">
@@ -11523,7 +11529,7 @@
       <c r="R46" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="S46" s="21" t="s">
+      <c r="S46" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T46" s="15" t="s">
@@ -11532,7 +11538,7 @@
       <c r="W46" s="15">
         <v>4</v>
       </c>
-      <c r="X46" s="22" t="s">
+      <c r="X46" s="24" t="s">
         <v>86</v>
       </c>
       <c r="Y46" s="16" t="s">
@@ -11541,16 +11547,16 @@
       <c r="Z46" s="16">
         <v>0</v>
       </c>
-      <c r="AA46" s="25" t="s">
+      <c r="AA46" s="27" t="s">
         <v>396</v>
       </c>
-      <c r="AB46" s="22" t="s">
+      <c r="AB46" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="AC46" s="25" t="s">
+      <c r="AC46" s="27" t="s">
         <v>397</v>
       </c>
-      <c r="AD46" s="28" t="s">
+      <c r="AD46" s="30" t="s">
         <v>90</v>
       </c>
       <c r="AE46" s="16">
@@ -11572,7 +11578,7 @@
       <c r="AK46" s="15">
         <v>2</v>
       </c>
-      <c r="AL46" s="25" t="s">
+      <c r="AL46" s="27" t="s">
         <v>398</v>
       </c>
       <c r="AM46" s="15">
@@ -11583,7 +11589,7 @@
       </c>
     </row>
     <row r="47" spans="1:40">
-      <c r="A47" t="s">
+      <c r="A47" s="21" t="s">
         <v>399</v>
       </c>
       <c r="B47" s="15"/>
@@ -11635,7 +11641,7 @@
       <c r="R47" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="S47" s="21" t="s">
+      <c r="S47" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T47" s="14" t="s">
@@ -11646,7 +11652,7 @@
       <c r="W47" s="14">
         <v>4</v>
       </c>
-      <c r="X47" s="22" t="s">
+      <c r="X47" s="24" t="s">
         <v>86</v>
       </c>
       <c r="Y47" s="15" t="s">
@@ -11655,16 +11661,16 @@
       <c r="Z47" s="15">
         <v>0</v>
       </c>
-      <c r="AA47" s="25" t="s">
+      <c r="AA47" s="27" t="s">
         <v>401</v>
       </c>
-      <c r="AB47" s="22" t="s">
+      <c r="AB47" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="AC47" s="25" t="s">
+      <c r="AC47" s="27" t="s">
         <v>402</v>
       </c>
-      <c r="AD47" s="27" t="s">
+      <c r="AD47" s="29" t="s">
         <v>90</v>
       </c>
       <c r="AE47" s="15">
@@ -11686,7 +11692,7 @@
       <c r="AK47" s="14">
         <v>2</v>
       </c>
-      <c r="AL47" s="25" t="s">
+      <c r="AL47" s="27" t="s">
         <v>403</v>
       </c>
       <c r="AM47" s="15">
@@ -11697,7 +11703,7 @@
       </c>
     </row>
     <row r="48" ht="14.25" spans="1:40">
-      <c r="A48" t="s">
+      <c r="A48" s="21" t="s">
         <v>404</v>
       </c>
       <c r="B48" s="15"/>
@@ -11749,7 +11755,7 @@
       <c r="R48" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="S48" s="21" t="s">
+      <c r="S48" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T48" s="15" t="s">
@@ -11760,7 +11766,7 @@
       <c r="W48" s="15">
         <v>4</v>
       </c>
-      <c r="X48" s="22" t="s">
+      <c r="X48" s="24" t="s">
         <v>86</v>
       </c>
       <c r="Y48" s="15" t="s">
@@ -11769,16 +11775,16 @@
       <c r="Z48" s="15">
         <v>0</v>
       </c>
-      <c r="AA48" s="25" t="s">
+      <c r="AA48" s="27" t="s">
         <v>406</v>
       </c>
-      <c r="AB48" s="22" t="s">
+      <c r="AB48" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="AC48" s="25" t="s">
+      <c r="AC48" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="AD48" s="28" t="s">
+      <c r="AD48" s="30" t="s">
         <v>90</v>
       </c>
       <c r="AE48" s="16">
@@ -11800,7 +11806,7 @@
       <c r="AK48" s="15">
         <v>2</v>
       </c>
-      <c r="AL48" s="25" t="s">
+      <c r="AL48" s="27" t="s">
         <v>408</v>
       </c>
       <c r="AM48" s="14">
@@ -11811,7 +11817,7 @@
       </c>
     </row>
     <row r="49" ht="14.25" spans="1:40">
-      <c r="A49" t="s">
+      <c r="A49" s="21" t="s">
         <v>409</v>
       </c>
       <c r="B49" s="16"/>
@@ -11863,7 +11869,7 @@
       <c r="R49" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="S49" s="21" t="s">
+      <c r="S49" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T49" s="14" t="s">
@@ -11874,7 +11880,7 @@
       <c r="W49" s="14">
         <v>4</v>
       </c>
-      <c r="X49" s="22" t="s">
+      <c r="X49" s="24" t="s">
         <v>86</v>
       </c>
       <c r="Y49" s="16" t="s">
@@ -11883,16 +11889,16 @@
       <c r="Z49" s="16">
         <v>0</v>
       </c>
-      <c r="AA49" s="25" t="s">
+      <c r="AA49" s="27" t="s">
         <v>411</v>
       </c>
-      <c r="AB49" s="22" t="s">
+      <c r="AB49" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="AC49" s="25" t="s">
+      <c r="AC49" s="27" t="s">
         <v>412</v>
       </c>
-      <c r="AD49" s="27" t="s">
+      <c r="AD49" s="29" t="s">
         <v>90</v>
       </c>
       <c r="AE49" s="15">
@@ -11914,7 +11920,7 @@
       <c r="AK49" s="14">
         <v>2</v>
       </c>
-      <c r="AL49" s="25" t="s">
+      <c r="AL49" s="27" t="s">
         <v>413</v>
       </c>
       <c r="AM49" s="15">
@@ -11925,7 +11931,7 @@
       </c>
     </row>
     <row r="50" ht="14.25" spans="1:40">
-      <c r="A50" t="s">
+      <c r="A50" s="21" t="s">
         <v>414</v>
       </c>
       <c r="B50" s="15"/>
@@ -11977,7 +11983,7 @@
       <c r="R50" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="S50" s="21" t="s">
+      <c r="S50" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T50" s="15" t="s">
@@ -11988,7 +11994,7 @@
       <c r="W50" s="15">
         <v>4</v>
       </c>
-      <c r="X50" s="22" t="s">
+      <c r="X50" s="24" t="s">
         <v>86</v>
       </c>
       <c r="Y50" s="15" t="s">
@@ -11997,16 +12003,16 @@
       <c r="Z50" s="15">
         <v>0</v>
       </c>
-      <c r="AA50" s="25" t="s">
+      <c r="AA50" s="27" t="s">
         <v>416</v>
       </c>
-      <c r="AB50" s="22" t="s">
+      <c r="AB50" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="AC50" s="25" t="s">
+      <c r="AC50" s="27" t="s">
         <v>417</v>
       </c>
-      <c r="AD50" s="28" t="s">
+      <c r="AD50" s="30" t="s">
         <v>90</v>
       </c>
       <c r="AE50" s="16">
@@ -12028,7 +12034,7 @@
       <c r="AK50" s="15">
         <v>2</v>
       </c>
-      <c r="AL50" s="25" t="s">
+      <c r="AL50" s="27" t="s">
         <v>418</v>
       </c>
       <c r="AM50" s="15">
@@ -12039,7 +12045,7 @@
       </c>
     </row>
     <row r="51" spans="1:40">
-      <c r="A51" t="s">
+      <c r="A51" s="21" t="s">
         <v>419</v>
       </c>
       <c r="B51" s="15"/>
@@ -12091,7 +12097,7 @@
       <c r="R51" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="S51" s="21" t="s">
+      <c r="S51" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T51" s="14" t="s">
@@ -12102,7 +12108,7 @@
       <c r="W51" s="14">
         <v>4</v>
       </c>
-      <c r="X51" s="22" t="s">
+      <c r="X51" s="24" t="s">
         <v>86</v>
       </c>
       <c r="Y51" s="15" t="s">
@@ -12111,16 +12117,16 @@
       <c r="Z51" s="15">
         <v>0</v>
       </c>
-      <c r="AA51" s="25" t="s">
+      <c r="AA51" s="27" t="s">
         <v>421</v>
       </c>
-      <c r="AB51" s="22" t="s">
+      <c r="AB51" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="AC51" s="25" t="s">
+      <c r="AC51" s="27" t="s">
         <v>422</v>
       </c>
-      <c r="AD51" s="27" t="s">
+      <c r="AD51" s="29" t="s">
         <v>90</v>
       </c>
       <c r="AE51" s="15">
@@ -12142,7 +12148,7 @@
       <c r="AK51" s="14">
         <v>2</v>
       </c>
-      <c r="AL51" s="25" t="s">
+      <c r="AL51" s="27" t="s">
         <v>423</v>
       </c>
       <c r="AM51" s="14">
@@ -12153,7 +12159,7 @@
       </c>
     </row>
     <row r="52" ht="14.25" spans="1:40">
-      <c r="A52" t="s">
+      <c r="A52" s="21" t="s">
         <v>424</v>
       </c>
       <c r="B52" s="16"/>
@@ -12205,7 +12211,7 @@
       <c r="R52" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="S52" s="21" t="s">
+      <c r="S52" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T52" s="15" t="s">
@@ -12216,7 +12222,7 @@
       <c r="W52" s="15">
         <v>4</v>
       </c>
-      <c r="X52" s="22" t="s">
+      <c r="X52" s="24" t="s">
         <v>86</v>
       </c>
       <c r="Y52" s="16" t="s">
@@ -12225,16 +12231,16 @@
       <c r="Z52" s="16">
         <v>0</v>
       </c>
-      <c r="AA52" s="25" t="s">
+      <c r="AA52" s="27" t="s">
         <v>426</v>
       </c>
-      <c r="AB52" s="22" t="s">
+      <c r="AB52" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="AC52" s="25" t="s">
+      <c r="AC52" s="27" t="s">
         <v>427</v>
       </c>
-      <c r="AD52" s="28" t="s">
+      <c r="AD52" s="30" t="s">
         <v>90</v>
       </c>
       <c r="AE52" s="16">
@@ -12256,7 +12262,7 @@
       <c r="AK52" s="15">
         <v>2</v>
       </c>
-      <c r="AL52" s="25" t="s">
+      <c r="AL52" s="27" t="s">
         <v>428</v>
       </c>
       <c r="AM52" s="15">
@@ -12267,7 +12273,7 @@
       </c>
     </row>
     <row r="53" spans="1:40">
-      <c r="A53" t="s">
+      <c r="A53" s="21" t="s">
         <v>429</v>
       </c>
       <c r="B53" s="15"/>
@@ -12319,7 +12325,7 @@
       <c r="R53" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="S53" s="21" t="s">
+      <c r="S53" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T53" s="14" t="s">
@@ -12330,7 +12336,7 @@
       <c r="W53" s="14">
         <v>4</v>
       </c>
-      <c r="X53" s="22" t="s">
+      <c r="X53" s="24" t="s">
         <v>86</v>
       </c>
       <c r="Y53" s="15" t="s">
@@ -12339,16 +12345,16 @@
       <c r="Z53" s="15">
         <v>0</v>
       </c>
-      <c r="AA53" s="25" t="s">
+      <c r="AA53" s="27" t="s">
         <v>431</v>
       </c>
-      <c r="AB53" s="22" t="s">
+      <c r="AB53" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="AC53" s="25" t="s">
+      <c r="AC53" s="27" t="s">
         <v>432</v>
       </c>
-      <c r="AD53" s="27" t="s">
+      <c r="AD53" s="29" t="s">
         <v>90</v>
       </c>
       <c r="AE53" s="15">
@@ -12370,7 +12376,7 @@
       <c r="AK53" s="14">
         <v>2</v>
       </c>
-      <c r="AL53" s="25" t="s">
+      <c r="AL53" s="27" t="s">
         <v>433</v>
       </c>
       <c r="AM53" s="15">
@@ -12381,7 +12387,7 @@
       </c>
     </row>
     <row r="54" ht="14.25" spans="1:40">
-      <c r="A54" t="s">
+      <c r="A54" s="21" t="s">
         <v>434</v>
       </c>
       <c r="B54" s="15"/>
@@ -12433,7 +12439,7 @@
       <c r="R54" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="S54" s="21" t="s">
+      <c r="S54" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T54" s="15" t="s">
@@ -12444,7 +12450,7 @@
       <c r="W54" s="15">
         <v>4</v>
       </c>
-      <c r="X54" s="22" t="s">
+      <c r="X54" s="24" t="s">
         <v>86</v>
       </c>
       <c r="Y54" s="15" t="s">
@@ -12453,16 +12459,16 @@
       <c r="Z54" s="15">
         <v>0</v>
       </c>
-      <c r="AA54" s="25" t="s">
+      <c r="AA54" s="27" t="s">
         <v>436</v>
       </c>
-      <c r="AB54" s="22" t="s">
+      <c r="AB54" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="AC54" s="25" t="s">
+      <c r="AC54" s="27" t="s">
         <v>437</v>
       </c>
-      <c r="AD54" s="28" t="s">
+      <c r="AD54" s="30" t="s">
         <v>90</v>
       </c>
       <c r="AE54" s="16">
@@ -12484,7 +12490,7 @@
       <c r="AK54" s="15">
         <v>2</v>
       </c>
-      <c r="AL54" s="25" t="s">
+      <c r="AL54" s="27" t="s">
         <v>438</v>
       </c>
       <c r="AM54" s="14">
@@ -12495,7 +12501,7 @@
       </c>
     </row>
     <row r="55" ht="14.25" spans="1:40">
-      <c r="A55" t="s">
+      <c r="A55" s="21" t="s">
         <v>439</v>
       </c>
       <c r="B55" s="16"/>
@@ -12547,7 +12553,7 @@
       <c r="R55" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="S55" s="21" t="s">
+      <c r="S55" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T55" s="14" t="s">
@@ -12558,7 +12564,7 @@
       <c r="W55" s="14">
         <v>4</v>
       </c>
-      <c r="X55" s="22" t="s">
+      <c r="X55" s="24" t="s">
         <v>86</v>
       </c>
       <c r="Y55" s="16" t="s">
@@ -12567,16 +12573,16 @@
       <c r="Z55" s="16">
         <v>0</v>
       </c>
-      <c r="AA55" s="25" t="s">
+      <c r="AA55" s="27" t="s">
         <v>441</v>
       </c>
-      <c r="AB55" s="22" t="s">
+      <c r="AB55" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="AC55" s="25" t="s">
+      <c r="AC55" s="27" t="s">
         <v>442</v>
       </c>
-      <c r="AD55" s="27" t="s">
+      <c r="AD55" s="29" t="s">
         <v>90</v>
       </c>
       <c r="AE55" s="15">
@@ -12598,7 +12604,7 @@
       <c r="AK55" s="14">
         <v>2</v>
       </c>
-      <c r="AL55" s="25" t="s">
+      <c r="AL55" s="27" t="s">
         <v>443</v>
       </c>
       <c r="AM55" s="15">
@@ -12609,7 +12615,7 @@
       </c>
     </row>
     <row r="56" ht="14.25" spans="1:40">
-      <c r="A56" t="s">
+      <c r="A56" s="21" t="s">
         <v>444</v>
       </c>
       <c r="B56" s="15"/>
@@ -12661,7 +12667,7 @@
       <c r="R56" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="S56" s="21" t="s">
+      <c r="S56" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T56" s="15" t="s">
@@ -12672,7 +12678,7 @@
       <c r="W56" s="15">
         <v>4</v>
       </c>
-      <c r="X56" s="22" t="s">
+      <c r="X56" s="24" t="s">
         <v>86</v>
       </c>
       <c r="Y56" s="15" t="s">
@@ -12681,16 +12687,16 @@
       <c r="Z56" s="15">
         <v>0</v>
       </c>
-      <c r="AA56" s="25" t="s">
+      <c r="AA56" s="27" t="s">
         <v>446</v>
       </c>
-      <c r="AB56" s="22" t="s">
+      <c r="AB56" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="AC56" s="25" t="s">
+      <c r="AC56" s="27" t="s">
         <v>447</v>
       </c>
-      <c r="AD56" s="28" t="s">
+      <c r="AD56" s="30" t="s">
         <v>90</v>
       </c>
       <c r="AE56" s="16">
@@ -12712,7 +12718,7 @@
       <c r="AK56" s="15">
         <v>2</v>
       </c>
-      <c r="AL56" s="25" t="s">
+      <c r="AL56" s="27" t="s">
         <v>448</v>
       </c>
       <c r="AM56" s="15">
@@ -12723,7 +12729,7 @@
       </c>
     </row>
     <row r="57" spans="1:40">
-      <c r="A57" t="s">
+      <c r="A57" s="21" t="s">
         <v>449</v>
       </c>
       <c r="B57" s="15"/>
@@ -12775,7 +12781,7 @@
       <c r="R57" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="S57" s="21" t="s">
+      <c r="S57" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T57" s="14" t="s">
@@ -12786,7 +12792,7 @@
       <c r="W57" s="14">
         <v>4</v>
       </c>
-      <c r="X57" s="22" t="s">
+      <c r="X57" s="24" t="s">
         <v>86</v>
       </c>
       <c r="Y57" s="15" t="s">
@@ -12795,16 +12801,16 @@
       <c r="Z57" s="15">
         <v>0</v>
       </c>
-      <c r="AA57" s="25" t="s">
+      <c r="AA57" s="27" t="s">
         <v>451</v>
       </c>
-      <c r="AB57" s="22" t="s">
+      <c r="AB57" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="AC57" s="25" t="s">
+      <c r="AC57" s="27" t="s">
         <v>452</v>
       </c>
-      <c r="AD57" s="27" t="s">
+      <c r="AD57" s="29" t="s">
         <v>90</v>
       </c>
       <c r="AE57" s="15">
@@ -12826,7 +12832,7 @@
       <c r="AK57" s="14">
         <v>2</v>
       </c>
-      <c r="AL57" s="25" t="s">
+      <c r="AL57" s="27" t="s">
         <v>453</v>
       </c>
       <c r="AM57" s="14">
@@ -12837,7 +12843,7 @@
       </c>
     </row>
     <row r="58" ht="14.25" spans="1:40">
-      <c r="A58" t="s">
+      <c r="A58" s="21" t="s">
         <v>454</v>
       </c>
       <c r="B58" s="16"/>
@@ -12889,7 +12895,7 @@
       <c r="R58" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="S58" s="21" t="s">
+      <c r="S58" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T58" s="15" t="s">
@@ -12900,7 +12906,7 @@
       <c r="W58" s="15">
         <v>4</v>
       </c>
-      <c r="X58" s="22" t="s">
+      <c r="X58" s="24" t="s">
         <v>86</v>
       </c>
       <c r="Y58" s="16" t="s">
@@ -12909,16 +12915,16 @@
       <c r="Z58" s="16">
         <v>0</v>
       </c>
-      <c r="AA58" s="25" t="s">
+      <c r="AA58" s="27" t="s">
         <v>456</v>
       </c>
-      <c r="AB58" s="22" t="s">
+      <c r="AB58" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="AC58" s="25" t="s">
+      <c r="AC58" s="27" t="s">
         <v>457</v>
       </c>
-      <c r="AD58" s="28" t="s">
+      <c r="AD58" s="30" t="s">
         <v>90</v>
       </c>
       <c r="AE58" s="16">
@@ -12940,7 +12946,7 @@
       <c r="AK58" s="15">
         <v>2</v>
       </c>
-      <c r="AL58" s="25" t="s">
+      <c r="AL58" s="27" t="s">
         <v>458</v>
       </c>
       <c r="AM58" s="15">
@@ -12951,7 +12957,7 @@
       </c>
     </row>
     <row r="59" spans="1:40">
-      <c r="A59" t="s">
+      <c r="A59" s="21" t="s">
         <v>459</v>
       </c>
       <c r="B59" s="15"/>
@@ -13003,7 +13009,7 @@
       <c r="R59" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="S59" s="21" t="s">
+      <c r="S59" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T59" s="14" t="s">
@@ -13014,7 +13020,7 @@
       <c r="W59" s="14">
         <v>4</v>
       </c>
-      <c r="X59" s="22" t="s">
+      <c r="X59" s="24" t="s">
         <v>86</v>
       </c>
       <c r="Y59" s="15" t="s">
@@ -13023,16 +13029,16 @@
       <c r="Z59" s="15">
         <v>0</v>
       </c>
-      <c r="AA59" s="25" t="s">
+      <c r="AA59" s="27" t="s">
         <v>461</v>
       </c>
-      <c r="AB59" s="22" t="s">
+      <c r="AB59" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="AC59" s="25" t="s">
+      <c r="AC59" s="27" t="s">
         <v>462</v>
       </c>
-      <c r="AD59" s="27" t="s">
+      <c r="AD59" s="29" t="s">
         <v>90</v>
       </c>
       <c r="AE59" s="15">
@@ -13054,7 +13060,7 @@
       <c r="AK59" s="14">
         <v>2</v>
       </c>
-      <c r="AL59" s="25" t="s">
+      <c r="AL59" s="27" t="s">
         <v>463</v>
       </c>
       <c r="AM59" s="15">
@@ -13065,7 +13071,7 @@
       </c>
     </row>
     <row r="60" ht="14.25" spans="1:40">
-      <c r="A60" t="s">
+      <c r="A60" s="21" t="s">
         <v>464</v>
       </c>
       <c r="B60" s="15"/>
@@ -13117,7 +13123,7 @@
       <c r="R60" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="S60" s="21" t="s">
+      <c r="S60" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T60" s="15" t="s">
@@ -13128,7 +13134,7 @@
       <c r="W60" s="15">
         <v>4</v>
       </c>
-      <c r="X60" s="22" t="s">
+      <c r="X60" s="24" t="s">
         <v>86</v>
       </c>
       <c r="Y60" s="15" t="s">
@@ -13137,16 +13143,16 @@
       <c r="Z60" s="15">
         <v>0</v>
       </c>
-      <c r="AA60" s="25" t="s">
+      <c r="AA60" s="27" t="s">
         <v>466</v>
       </c>
-      <c r="AB60" s="22" t="s">
+      <c r="AB60" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="AC60" s="25" t="s">
+      <c r="AC60" s="27" t="s">
         <v>467</v>
       </c>
-      <c r="AD60" s="28" t="s">
+      <c r="AD60" s="30" t="s">
         <v>90</v>
       </c>
       <c r="AE60" s="16">
@@ -13168,7 +13174,7 @@
       <c r="AK60" s="15">
         <v>2</v>
       </c>
-      <c r="AL60" s="25" t="s">
+      <c r="AL60" s="27" t="s">
         <v>468</v>
       </c>
       <c r="AM60" s="14">
@@ -13179,7 +13185,7 @@
       </c>
     </row>
     <row r="61" ht="14.25" spans="1:40">
-      <c r="A61" t="s">
+      <c r="A61" s="21" t="s">
         <v>469</v>
       </c>
       <c r="B61" s="16"/>
@@ -13231,7 +13237,7 @@
       <c r="R61" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="S61" s="21" t="s">
+      <c r="S61" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T61" s="14" t="s">
@@ -13242,7 +13248,7 @@
       <c r="W61" s="14">
         <v>4</v>
       </c>
-      <c r="X61" s="22" t="s">
+      <c r="X61" s="24" t="s">
         <v>86</v>
       </c>
       <c r="Y61" s="16" t="s">
@@ -13251,16 +13257,16 @@
       <c r="Z61" s="16">
         <v>0</v>
       </c>
-      <c r="AA61" s="25" t="s">
+      <c r="AA61" s="27" t="s">
         <v>471</v>
       </c>
-      <c r="AB61" s="22" t="s">
+      <c r="AB61" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="AC61" s="25" t="s">
+      <c r="AC61" s="27" t="s">
         <v>472</v>
       </c>
-      <c r="AD61" s="27" t="s">
+      <c r="AD61" s="29" t="s">
         <v>90</v>
       </c>
       <c r="AE61" s="15">
@@ -13282,7 +13288,7 @@
       <c r="AK61" s="14">
         <v>2</v>
       </c>
-      <c r="AL61" s="25" t="s">
+      <c r="AL61" s="27" t="s">
         <v>473</v>
       </c>
       <c r="AM61" s="15">
@@ -13293,7 +13299,7 @@
       </c>
     </row>
     <row r="62" spans="1:40">
-      <c r="A62" t="s">
+      <c r="A62" s="21" t="s">
         <v>474</v>
       </c>
       <c r="B62" s="15"/>
@@ -13345,7 +13351,7 @@
       <c r="R62" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="S62" s="21" t="s">
+      <c r="S62" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T62" s="15" t="s">
@@ -13356,7 +13362,7 @@
       <c r="W62" s="15">
         <v>4</v>
       </c>
-      <c r="X62" s="22" t="s">
+      <c r="X62" s="24" t="s">
         <v>86</v>
       </c>
       <c r="Y62" s="15" t="s">
@@ -13365,16 +13371,16 @@
       <c r="Z62" s="15">
         <v>0</v>
       </c>
-      <c r="AA62" s="25" t="s">
+      <c r="AA62" s="27" t="s">
         <v>476</v>
       </c>
-      <c r="AB62" s="22" t="s">
+      <c r="AB62" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="AC62" s="25" t="s">
+      <c r="AC62" s="27" t="s">
         <v>477</v>
       </c>
-      <c r="AD62" s="27" t="s">
+      <c r="AD62" s="29" t="s">
         <v>90</v>
       </c>
       <c r="AE62" s="15">
@@ -13396,7 +13402,7 @@
       <c r="AK62" s="14">
         <v>2</v>
       </c>
-      <c r="AL62" s="25" t="s">
+      <c r="AL62" s="27" t="s">
         <v>478</v>
       </c>
       <c r="AM62" s="15">
@@ -13407,7 +13413,7 @@
       </c>
     </row>
     <row r="63" ht="14.25" spans="1:40">
-      <c r="A63" t="s">
+      <c r="A63" s="21" t="s">
         <v>479</v>
       </c>
       <c r="B63" s="15"/>
@@ -13459,7 +13465,7 @@
       <c r="R63" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="S63" s="21" t="s">
+      <c r="S63" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T63" s="14" t="s">
@@ -13470,7 +13476,7 @@
       <c r="W63" s="14">
         <v>4</v>
       </c>
-      <c r="X63" s="22" t="s">
+      <c r="X63" s="24" t="s">
         <v>86</v>
       </c>
       <c r="Y63" s="15" t="s">
@@ -13479,16 +13485,16 @@
       <c r="Z63" s="15">
         <v>0</v>
       </c>
-      <c r="AA63" s="25" t="s">
+      <c r="AA63" s="27" t="s">
         <v>481</v>
       </c>
-      <c r="AB63" s="22" t="s">
+      <c r="AB63" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="AC63" s="25" t="s">
+      <c r="AC63" s="27" t="s">
         <v>482</v>
       </c>
-      <c r="AD63" s="28" t="s">
+      <c r="AD63" s="30" t="s">
         <v>90</v>
       </c>
       <c r="AE63" s="16">
@@ -13510,7 +13516,7 @@
       <c r="AK63" s="15">
         <v>2</v>
       </c>
-      <c r="AL63" s="25" t="s">
+      <c r="AL63" s="27" t="s">
         <v>483</v>
       </c>
       <c r="AM63" s="14">
@@ -13521,7 +13527,7 @@
       </c>
     </row>
     <row r="64" ht="14.25" spans="1:40">
-      <c r="A64" t="s">
+      <c r="A64" s="21" t="s">
         <v>484</v>
       </c>
       <c r="B64" s="16"/>
@@ -13573,7 +13579,7 @@
       <c r="R64" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="S64" s="21" t="s">
+      <c r="S64" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T64" s="15" t="s">
@@ -13584,7 +13590,7 @@
       <c r="W64" s="15">
         <v>4</v>
       </c>
-      <c r="X64" s="22" t="s">
+      <c r="X64" s="24" t="s">
         <v>86</v>
       </c>
       <c r="Y64" s="16" t="s">
@@ -13593,16 +13599,16 @@
       <c r="Z64" s="16">
         <v>0</v>
       </c>
-      <c r="AA64" s="25" t="s">
+      <c r="AA64" s="27" t="s">
         <v>486</v>
       </c>
-      <c r="AB64" s="22" t="s">
+      <c r="AB64" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="AC64" s="25" t="s">
+      <c r="AC64" s="27" t="s">
         <v>487</v>
       </c>
-      <c r="AD64" s="27" t="s">
+      <c r="AD64" s="29" t="s">
         <v>90</v>
       </c>
       <c r="AE64" s="15">
@@ -13624,7 +13630,7 @@
       <c r="AK64" s="14">
         <v>2</v>
       </c>
-      <c r="AL64" s="25" t="s">
+      <c r="AL64" s="27" t="s">
         <v>488</v>
       </c>
       <c r="AM64" s="15">
@@ -13635,7 +13641,7 @@
       </c>
     </row>
     <row r="65" ht="14.25" spans="1:40">
-      <c r="A65" t="s">
+      <c r="A65" s="21" t="s">
         <v>489</v>
       </c>
       <c r="B65" s="15"/>
@@ -13687,7 +13693,7 @@
       <c r="R65" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="S65" s="21" t="s">
+      <c r="S65" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T65" s="14" t="s">
@@ -13698,7 +13704,7 @@
       <c r="W65" s="14">
         <v>4</v>
       </c>
-      <c r="X65" s="22" t="s">
+      <c r="X65" s="24" t="s">
         <v>86</v>
       </c>
       <c r="Y65" s="15" t="s">
@@ -13707,16 +13713,16 @@
       <c r="Z65" s="15">
         <v>0</v>
       </c>
-      <c r="AA65" s="25" t="s">
+      <c r="AA65" s="27" t="s">
         <v>491</v>
       </c>
-      <c r="AB65" s="22" t="s">
+      <c r="AB65" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="AC65" s="25" t="s">
+      <c r="AC65" s="27" t="s">
         <v>492</v>
       </c>
-      <c r="AD65" s="28" t="s">
+      <c r="AD65" s="30" t="s">
         <v>90</v>
       </c>
       <c r="AE65" s="16">
@@ -13738,7 +13744,7 @@
       <c r="AK65" s="15">
         <v>2</v>
       </c>
-      <c r="AL65" s="25" t="s">
+      <c r="AL65" s="27" t="s">
         <v>493</v>
       </c>
       <c r="AM65" s="15">
@@ -13749,7 +13755,7 @@
       </c>
     </row>
     <row r="66" spans="1:40">
-      <c r="A66" t="s">
+      <c r="A66" s="21" t="s">
         <v>494</v>
       </c>
       <c r="B66" s="15"/>
@@ -13801,7 +13807,7 @@
       <c r="R66" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="S66" s="21" t="s">
+      <c r="S66" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T66" s="15" t="s">
@@ -13812,7 +13818,7 @@
       <c r="W66" s="15">
         <v>4</v>
       </c>
-      <c r="X66" s="22" t="s">
+      <c r="X66" s="24" t="s">
         <v>86</v>
       </c>
       <c r="Y66" s="15" t="s">
@@ -13821,16 +13827,16 @@
       <c r="Z66" s="15">
         <v>0</v>
       </c>
-      <c r="AA66" s="25" t="s">
+      <c r="AA66" s="27" t="s">
         <v>496</v>
       </c>
-      <c r="AB66" s="22" t="s">
+      <c r="AB66" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="AC66" s="25" t="s">
+      <c r="AC66" s="27" t="s">
         <v>497</v>
       </c>
-      <c r="AD66" s="27" t="s">
+      <c r="AD66" s="29" t="s">
         <v>90</v>
       </c>
       <c r="AE66" s="15">
@@ -13852,7 +13858,7 @@
       <c r="AK66" s="14">
         <v>2</v>
       </c>
-      <c r="AL66" s="25" t="s">
+      <c r="AL66" s="27" t="s">
         <v>498</v>
       </c>
       <c r="AM66" s="14">
@@ -13863,7 +13869,7 @@
       </c>
     </row>
     <row r="67" ht="14.25" spans="1:40">
-      <c r="A67" t="s">
+      <c r="A67" s="21" t="s">
         <v>499</v>
       </c>
       <c r="B67" s="16"/>
@@ -13915,7 +13921,7 @@
       <c r="R67" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="S67" s="21" t="s">
+      <c r="S67" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T67" s="14" t="s">
@@ -13926,7 +13932,7 @@
       <c r="W67" s="14">
         <v>4</v>
       </c>
-      <c r="X67" s="22" t="s">
+      <c r="X67" s="24" t="s">
         <v>86</v>
       </c>
       <c r="Y67" s="16" t="s">
@@ -13935,16 +13941,16 @@
       <c r="Z67" s="16">
         <v>0</v>
       </c>
-      <c r="AA67" s="25" t="s">
+      <c r="AA67" s="27" t="s">
         <v>501</v>
       </c>
-      <c r="AB67" s="22" t="s">
+      <c r="AB67" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="AC67" s="25" t="s">
+      <c r="AC67" s="27" t="s">
         <v>502</v>
       </c>
-      <c r="AD67" s="28" t="s">
+      <c r="AD67" s="30" t="s">
         <v>90</v>
       </c>
       <c r="AE67" s="16">
@@ -13966,7 +13972,7 @@
       <c r="AK67" s="15">
         <v>2</v>
       </c>
-      <c r="AL67" s="25" t="s">
+      <c r="AL67" s="27" t="s">
         <v>503</v>
       </c>
       <c r="AM67" s="15">
@@ -13977,7 +13983,7 @@
       </c>
     </row>
     <row r="68" spans="1:40">
-      <c r="A68" t="s">
+      <c r="A68" s="21" t="s">
         <v>504</v>
       </c>
       <c r="B68" s="15"/>
@@ -14029,7 +14035,7 @@
       <c r="R68" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="S68" s="21" t="s">
+      <c r="S68" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T68" s="15" t="s">
@@ -14040,7 +14046,7 @@
       <c r="W68" s="15">
         <v>4</v>
       </c>
-      <c r="X68" s="22" t="s">
+      <c r="X68" s="24" t="s">
         <v>86</v>
       </c>
       <c r="Y68" s="15" t="s">
@@ -14049,16 +14055,16 @@
       <c r="Z68" s="15">
         <v>0</v>
       </c>
-      <c r="AA68" s="25" t="s">
+      <c r="AA68" s="27" t="s">
         <v>506</v>
       </c>
-      <c r="AB68" s="22" t="s">
+      <c r="AB68" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="AC68" s="25" t="s">
+      <c r="AC68" s="27" t="s">
         <v>507</v>
       </c>
-      <c r="AD68" s="27" t="s">
+      <c r="AD68" s="29" t="s">
         <v>90</v>
       </c>
       <c r="AE68" s="15">
@@ -14080,7 +14086,7 @@
       <c r="AK68" s="14">
         <v>2</v>
       </c>
-      <c r="AL68" s="25" t="s">
+      <c r="AL68" s="27" t="s">
         <v>508</v>
       </c>
       <c r="AM68" s="15">
@@ -14091,7 +14097,7 @@
       </c>
     </row>
     <row r="69" ht="14.25" spans="1:40">
-      <c r="A69" t="s">
+      <c r="A69" s="21" t="s">
         <v>509</v>
       </c>
       <c r="B69" s="15"/>
@@ -14143,7 +14149,7 @@
       <c r="R69" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="S69" s="21" t="s">
+      <c r="S69" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T69" s="14" t="s">
@@ -14154,7 +14160,7 @@
       <c r="W69" s="14">
         <v>4</v>
       </c>
-      <c r="X69" s="22" t="s">
+      <c r="X69" s="24" t="s">
         <v>86</v>
       </c>
       <c r="Y69" s="15" t="s">
@@ -14163,16 +14169,16 @@
       <c r="Z69" s="15">
         <v>0</v>
       </c>
-      <c r="AA69" s="25" t="s">
+      <c r="AA69" s="27" t="s">
         <v>511</v>
       </c>
-      <c r="AB69" s="22" t="s">
+      <c r="AB69" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="AC69" s="25" t="s">
+      <c r="AC69" s="27" t="s">
         <v>512</v>
       </c>
-      <c r="AD69" s="28" t="s">
+      <c r="AD69" s="30" t="s">
         <v>90</v>
       </c>
       <c r="AE69" s="16">
@@ -14194,7 +14200,7 @@
       <c r="AK69" s="15">
         <v>2</v>
       </c>
-      <c r="AL69" s="25" t="s">
+      <c r="AL69" s="27" t="s">
         <v>513</v>
       </c>
       <c r="AM69" s="14">
@@ -14204,8 +14210,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:40">
-      <c r="A70" t="s">
+    <row r="70" ht="14.25" spans="1:40">
+      <c r="A70" s="21" t="s">
         <v>514</v>
       </c>
       <c r="B70" s="16"/>
@@ -14257,7 +14263,7 @@
       <c r="R70" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="S70" s="21" t="s">
+      <c r="S70" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T70" s="15" t="s">
@@ -14268,7 +14274,7 @@
       <c r="W70" s="15">
         <v>4</v>
       </c>
-      <c r="X70" s="22" t="s">
+      <c r="X70" s="24" t="s">
         <v>86</v>
       </c>
       <c r="Y70" s="16" t="s">
@@ -14277,16 +14283,16 @@
       <c r="Z70" s="16">
         <v>0</v>
       </c>
-      <c r="AA70" s="25" t="s">
+      <c r="AA70" s="27" t="s">
         <v>516</v>
       </c>
-      <c r="AB70" s="22" t="s">
+      <c r="AB70" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="AC70" s="25" t="s">
+      <c r="AC70" s="27" t="s">
         <v>517</v>
       </c>
-      <c r="AD70" s="27" t="s">
+      <c r="AD70" s="29" t="s">
         <v>90</v>
       </c>
       <c r="AE70" s="15">
@@ -14308,7 +14314,7 @@
       <c r="AK70" s="14">
         <v>2</v>
       </c>
-      <c r="AL70" s="25" t="s">
+      <c r="AL70" s="27" t="s">
         <v>518</v>
       </c>
       <c r="AM70" s="15">
@@ -14319,7 +14325,7 @@
       </c>
     </row>
     <row r="71" ht="14.25" spans="1:40">
-      <c r="A71" t="s">
+      <c r="A71" s="21" t="s">
         <v>519</v>
       </c>
       <c r="B71" s="15"/>
@@ -14371,7 +14377,7 @@
       <c r="R71" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="S71" s="21" t="s">
+      <c r="S71" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T71" s="14" t="s">
@@ -14382,7 +14388,7 @@
       <c r="W71" s="14">
         <v>4</v>
       </c>
-      <c r="X71" s="22" t="s">
+      <c r="X71" s="24" t="s">
         <v>86</v>
       </c>
       <c r="Y71" s="15" t="s">
@@ -14391,16 +14397,16 @@
       <c r="Z71" s="15">
         <v>0</v>
       </c>
-      <c r="AA71" s="25" t="s">
+      <c r="AA71" s="27" t="s">
         <v>521</v>
       </c>
-      <c r="AB71" s="22" t="s">
+      <c r="AB71" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="AC71" s="25" t="s">
+      <c r="AC71" s="27" t="s">
         <v>522</v>
       </c>
-      <c r="AD71" s="28" t="s">
+      <c r="AD71" s="30" t="s">
         <v>90</v>
       </c>
       <c r="AE71" s="16">
@@ -14422,7 +14428,7 @@
       <c r="AK71" s="15">
         <v>2</v>
       </c>
-      <c r="AL71" s="25" t="s">
+      <c r="AL71" s="27" t="s">
         <v>523</v>
       </c>
       <c r="AM71" s="15">
@@ -14433,7 +14439,7 @@
       </c>
     </row>
     <row r="72" spans="1:40">
-      <c r="A72" t="s">
+      <c r="A72" s="21" t="s">
         <v>524</v>
       </c>
       <c r="B72" s="15"/>
@@ -14485,7 +14491,7 @@
       <c r="R72" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="S72" s="21" t="s">
+      <c r="S72" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T72" s="15" t="s">
@@ -14496,7 +14502,7 @@
       <c r="W72" s="15">
         <v>4</v>
       </c>
-      <c r="X72" s="22" t="s">
+      <c r="X72" s="24" t="s">
         <v>86</v>
       </c>
       <c r="Y72" s="15" t="s">
@@ -14505,16 +14511,16 @@
       <c r="Z72" s="15">
         <v>0</v>
       </c>
-      <c r="AA72" s="25" t="s">
+      <c r="AA72" s="27" t="s">
         <v>526</v>
       </c>
-      <c r="AB72" s="22" t="s">
+      <c r="AB72" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="AC72" s="25" t="s">
+      <c r="AC72" s="27" t="s">
         <v>527</v>
       </c>
-      <c r="AD72" s="27" t="s">
+      <c r="AD72" s="29" t="s">
         <v>90</v>
       </c>
       <c r="AE72" s="15">
@@ -14536,7 +14542,7 @@
       <c r="AK72" s="14">
         <v>2</v>
       </c>
-      <c r="AL72" s="25" t="s">
+      <c r="AL72" s="27" t="s">
         <v>528</v>
       </c>
       <c r="AM72" s="14">
@@ -14547,7 +14553,7 @@
       </c>
     </row>
     <row r="73" ht="14.25" spans="1:40">
-      <c r="A73" t="s">
+      <c r="A73" s="21" t="s">
         <v>529</v>
       </c>
       <c r="B73" s="16"/>
@@ -14599,7 +14605,7 @@
       <c r="R73" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="S73" s="21" t="s">
+      <c r="S73" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T73" s="14" t="s">
@@ -14610,7 +14616,7 @@
       <c r="W73" s="14">
         <v>4</v>
       </c>
-      <c r="X73" s="22" t="s">
+      <c r="X73" s="24" t="s">
         <v>86</v>
       </c>
       <c r="Y73" s="16" t="s">
@@ -14619,16 +14625,16 @@
       <c r="Z73" s="16">
         <v>0</v>
       </c>
-      <c r="AA73" s="25" t="s">
+      <c r="AA73" s="27" t="s">
         <v>531</v>
       </c>
-      <c r="AB73" s="22" t="s">
+      <c r="AB73" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="AC73" s="25" t="s">
+      <c r="AC73" s="27" t="s">
         <v>532</v>
       </c>
-      <c r="AD73" s="28" t="s">
+      <c r="AD73" s="30" t="s">
         <v>90</v>
       </c>
       <c r="AE73" s="16">
@@ -14650,7 +14656,7 @@
       <c r="AK73" s="15">
         <v>2</v>
       </c>
-      <c r="AL73" s="25" t="s">
+      <c r="AL73" s="27" t="s">
         <v>533</v>
       </c>
       <c r="AM73" s="15">
@@ -14679,7 +14685,7 @@
   <dimension ref="A1:AG30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -15767,7 +15773,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>

--- a/_Out/NFDataCfg/Excel/NPC.xlsx
+++ b/_Out/NFDataCfg/Excel/NPC.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="589">
   <si>
     <t>Id</t>
   </si>
@@ -668,9 +668,6 @@
     <t>Prefabs/Build/Building_NPC_town_1</t>
   </si>
   <si>
-    <t>Item_ATK_Water_5</t>
-  </si>
-  <si>
     <t>Building_common_skill</t>
   </si>
   <si>
@@ -692,9 +689,6 @@
     <t>Prefabs/Build/Building_NPC_town_2</t>
   </si>
   <si>
-    <t>Item_ATK_Water_6</t>
-  </si>
-  <si>
     <t>Name_Item_town_2</t>
   </si>
   <si>
@@ -710,9 +704,6 @@
     <t>Prefabs/Build/Building_NPC_town_3</t>
   </si>
   <si>
-    <t>Item_Avoid_Def_Water_1</t>
-  </si>
-  <si>
     <t>Name_Item_town_3</t>
   </si>
   <si>
@@ -728,9 +719,6 @@
     <t>Prefabs/Build/Building_NPC_gold_mine_1</t>
   </si>
   <si>
-    <t>Item_Avoid_Def_Water_2</t>
-  </si>
-  <si>
     <t>Name_Item_gold_mine_1</t>
   </si>
   <si>
@@ -746,9 +734,6 @@
     <t>Prefabs/Build/Building_NPC_gold_mine_2</t>
   </si>
   <si>
-    <t>Item_Avoid_Def_Water_3</t>
-  </si>
-  <si>
     <t>Name_Item_gold_mine_2</t>
   </si>
   <si>
@@ -764,9 +749,6 @@
     <t>Prefabs/Build/Building_NPC_gold_mine_3</t>
   </si>
   <si>
-    <t>Item_Avoid_Def_Water_4</t>
-  </si>
-  <si>
     <t>Name_Item_gold_mine_3</t>
   </si>
   <si>
@@ -780,9 +762,6 @@
   </si>
   <si>
     <t>Prefabs/Build/Building_NPC_eneger_mine_1</t>
-  </si>
-  <si>
-    <t>Item_Avoid_Def_Water_5</t>
   </si>
   <si>
     <t>Name_Item_eneger_mine_1</t>
@@ -1825,10 +1804,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1871,13 +1850,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1885,7 +1857,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1913,6 +1885,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -1922,9 +1902,47 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1946,28 +1964,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1982,9 +1978,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1993,29 +1995,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2084,13 +2063,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2102,19 +2207,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2132,60 +2231,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2193,72 +2238,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2427,24 +2406,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2463,8 +2424,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2495,17 +2480,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2529,148 +2508,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="40" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6367,10 +6346,10 @@
   <sheetPr/>
   <dimension ref="A1:AN73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D69" sqref="D69"/>
+      <selection pane="bottomLeft" activeCell="AK74" sqref="AK74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6399,9 +6378,10 @@
     <col min="30" max="30" width="36" customWidth="1"/>
     <col min="31" max="31" width="10" customWidth="1"/>
     <col min="33" max="35" width="12.6666666666667" customWidth="1"/>
-    <col min="37" max="37" width="12.1666666666667" customWidth="1"/>
+    <col min="36" max="36" width="13.25" customWidth="1"/>
+    <col min="37" max="37" width="22.5" customWidth="1"/>
     <col min="38" max="38" width="25" customWidth="1"/>
-    <col min="39" max="39" width="11.8333333333333" customWidth="1"/>
+    <col min="39" max="39" width="14.125" customWidth="1"/>
     <col min="40" max="40" width="21.1666666666667" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7657,16 +7637,14 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>6</v>
-      </c>
-      <c r="R11" s="23" t="s">
-        <v>212</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R11" s="23"/>
       <c r="S11" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T11" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W11" s="14">
         <v>4</v>
@@ -7681,13 +7659,13 @@
         <v>0</v>
       </c>
       <c r="AA11" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="AB11" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="AB11" s="24" t="s">
+      <c r="AC11" s="27" t="s">
         <v>215</v>
-      </c>
-      <c r="AC11" s="27" t="s">
-        <v>216</v>
       </c>
       <c r="AD11" s="28" t="s">
         <v>90</v>
@@ -7708,10 +7686,10 @@
         <v>2</v>
       </c>
       <c r="AK11" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL11" s="27" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AM11" s="14">
         <v>0</v>
@@ -7722,7 +7700,7 @@
     </row>
     <row r="12" s="15" customFormat="1" spans="1:40">
       <c r="A12" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C12" s="15">
         <v>0</v>
@@ -7761,22 +7739,20 @@
         <v>2</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P12" s="15">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>6</v>
-      </c>
-      <c r="R12" s="23" t="s">
-        <v>220</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R12" s="23"/>
       <c r="S12" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T12" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W12" s="15">
         <v>4</v>
@@ -7791,13 +7767,13 @@
         <v>0</v>
       </c>
       <c r="AA12" s="27" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AB12" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AC12" s="27" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AD12" s="29" t="s">
         <v>90</v>
@@ -7818,10 +7794,10 @@
         <v>2</v>
       </c>
       <c r="AK12" s="15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL12" s="27" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AM12" s="15">
         <v>0</v>
@@ -7832,7 +7808,7 @@
     </row>
     <row r="13" s="15" customFormat="1" spans="1:40">
       <c r="A13" s="18" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C13" s="15">
         <v>0</v>
@@ -7871,22 +7847,20 @@
         <v>2</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="P13" s="15">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>6</v>
-      </c>
-      <c r="R13" s="15" t="s">
-        <v>226</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R13" s="23"/>
       <c r="S13" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T13" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W13" s="14">
         <v>4</v>
@@ -7901,13 +7875,13 @@
         <v>0</v>
       </c>
       <c r="AA13" s="27" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AB13" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AC13" s="27" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="AD13" s="29" t="s">
         <v>90</v>
@@ -7929,10 +7903,10 @@
         <v>2</v>
       </c>
       <c r="AK13" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL13" s="27" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="AM13" s="14">
         <v>0</v>
@@ -7943,7 +7917,7 @@
     </row>
     <row r="14" s="15" customFormat="1" spans="1:40">
       <c r="A14" s="18" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C14" s="15">
         <v>0</v>
@@ -7982,22 +7956,20 @@
         <v>2</v>
       </c>
       <c r="O14" s="15" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="P14" s="15">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>6</v>
-      </c>
-      <c r="R14" s="15" t="s">
-        <v>232</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R14" s="23"/>
       <c r="S14" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T14" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W14" s="15">
         <v>4</v>
@@ -8012,13 +7984,13 @@
         <v>0</v>
       </c>
       <c r="AA14" s="27" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="AB14" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AC14" s="27" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="AD14" s="29" t="s">
         <v>90</v>
@@ -8039,10 +8011,10 @@
         <v>2</v>
       </c>
       <c r="AK14" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL14" s="27" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="AM14" s="15">
         <v>0</v>
@@ -8053,7 +8025,7 @@
     </row>
     <row r="15" s="15" customFormat="1" spans="1:40">
       <c r="A15" s="18" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C15" s="15">
         <v>0</v>
@@ -8092,22 +8064,20 @@
         <v>2</v>
       </c>
       <c r="O15" s="15" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="P15" s="15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
-      </c>
-      <c r="R15" s="15" t="s">
-        <v>238</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R15" s="23"/>
       <c r="S15" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T15" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W15" s="14">
         <v>4</v>
@@ -8122,13 +8092,13 @@
         <v>0</v>
       </c>
       <c r="AA15" s="27" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="AB15" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AC15" s="27" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="AD15" s="29" t="s">
         <v>90</v>
@@ -8150,10 +8120,10 @@
         <v>2</v>
       </c>
       <c r="AK15" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL15" s="27" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="AM15" s="14">
         <v>0</v>
@@ -8164,7 +8134,7 @@
     </row>
     <row r="16" s="15" customFormat="1" spans="1:40">
       <c r="A16" s="18" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C16" s="15">
         <v>0</v>
@@ -8203,22 +8173,20 @@
         <v>2</v>
       </c>
       <c r="O16" s="15" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="P16" s="15">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
-      </c>
-      <c r="R16" s="15" t="s">
-        <v>244</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R16" s="23"/>
       <c r="S16" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T16" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W16" s="15">
         <v>4</v>
@@ -8233,13 +8201,13 @@
         <v>0</v>
       </c>
       <c r="AA16" s="27" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="AB16" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AC16" s="27" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="AD16" s="29" t="s">
         <v>90</v>
@@ -8260,10 +8228,10 @@
         <v>2</v>
       </c>
       <c r="AK16" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL16" s="27" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="AM16" s="15">
         <v>0</v>
@@ -8274,7 +8242,7 @@
     </row>
     <row r="17" s="15" customFormat="1" spans="1:40">
       <c r="A17" s="18" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C17" s="15">
         <v>0</v>
@@ -8313,22 +8281,20 @@
         <v>2</v>
       </c>
       <c r="O17" s="15" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="P17" s="15">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>6</v>
-      </c>
-      <c r="R17" s="15" t="s">
-        <v>250</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R17" s="23"/>
       <c r="S17" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T17" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W17" s="14">
         <v>4</v>
@@ -8343,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="AA17" s="27" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="AB17" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AC17" s="27" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="AD17" s="29" t="s">
         <v>90</v>
@@ -8371,10 +8337,10 @@
         <v>2</v>
       </c>
       <c r="AK17" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL17" s="27" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="AM17" s="14">
         <v>0</v>
@@ -8385,7 +8351,7 @@
     </row>
     <row r="18" s="15" customFormat="1" spans="1:40">
       <c r="A18" s="18" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C18" s="15">
         <v>0</v>
@@ -8424,22 +8390,20 @@
         <v>2</v>
       </c>
       <c r="O18" s="15" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="P18" s="15">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>6</v>
-      </c>
-      <c r="R18" s="23" t="s">
-        <v>84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R18" s="23"/>
       <c r="S18" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T18" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W18" s="15">
         <v>4</v>
@@ -8454,13 +8418,13 @@
         <v>0</v>
       </c>
       <c r="AA18" s="27" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="AB18" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AC18" s="27" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="AD18" s="29" t="s">
         <v>90</v>
@@ -8481,10 +8445,10 @@
         <v>2</v>
       </c>
       <c r="AK18" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL18" s="27" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="AM18" s="15">
         <v>0</v>
@@ -8495,7 +8459,7 @@
     </row>
     <row r="19" s="15" customFormat="1" spans="1:40">
       <c r="A19" s="18" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C19" s="15">
         <v>0</v>
@@ -8534,22 +8498,20 @@
         <v>2</v>
       </c>
       <c r="O19" s="15" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="P19" s="15">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>6</v>
-      </c>
-      <c r="R19" s="23" t="s">
-        <v>93</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R19" s="23"/>
       <c r="S19" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T19" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W19" s="14">
         <v>4</v>
@@ -8564,13 +8526,13 @@
         <v>0</v>
       </c>
       <c r="AA19" s="27" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="AB19" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AC19" s="27" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="AD19" s="29" t="s">
         <v>90</v>
@@ -8592,10 +8554,10 @@
         <v>2</v>
       </c>
       <c r="AK19" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL19" s="27" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="AM19" s="14">
         <v>0</v>
@@ -8606,7 +8568,7 @@
     </row>
     <row r="20" s="15" customFormat="1" spans="1:40">
       <c r="A20" s="18" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C20" s="15">
         <v>0</v>
@@ -8645,22 +8607,20 @@
         <v>3</v>
       </c>
       <c r="O20" s="15" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="P20" s="15">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>6</v>
-      </c>
-      <c r="R20" s="23" t="s">
-        <v>101</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R20" s="23"/>
       <c r="S20" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T20" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W20" s="15">
         <v>4</v>
@@ -8675,13 +8635,13 @@
         <v>0</v>
       </c>
       <c r="AA20" s="27" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="AB20" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AC20" s="27" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="AD20" s="29" t="s">
         <v>90</v>
@@ -8702,10 +8662,10 @@
         <v>2</v>
       </c>
       <c r="AK20" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL20" s="27" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="AM20" s="15">
         <v>0</v>
@@ -8716,7 +8676,7 @@
     </row>
     <row r="21" s="15" customFormat="1" spans="1:40">
       <c r="A21" s="18" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C21" s="15">
         <v>0</v>
@@ -8755,22 +8715,20 @@
         <v>3</v>
       </c>
       <c r="O21" s="15" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="P21" s="15">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>6</v>
-      </c>
-      <c r="R21" s="23" t="s">
-        <v>109</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R21" s="23"/>
       <c r="S21" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T21" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W21" s="14">
         <v>4</v>
@@ -8785,13 +8743,13 @@
         <v>0</v>
       </c>
       <c r="AA21" s="27" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="AB21" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AC21" s="27" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="AD21" s="29" t="s">
         <v>90</v>
@@ -8813,10 +8771,10 @@
         <v>2</v>
       </c>
       <c r="AK21" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL21" s="27" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="AM21" s="14">
         <v>0</v>
@@ -8827,7 +8785,7 @@
     </row>
     <row r="22" s="15" customFormat="1" spans="1:40">
       <c r="A22" s="18" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C22" s="15">
         <v>0</v>
@@ -8866,22 +8824,20 @@
         <v>3</v>
       </c>
       <c r="O22" s="15" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="P22" s="15">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>6</v>
-      </c>
-      <c r="R22" s="23" t="s">
-        <v>117</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R22" s="23"/>
       <c r="S22" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T22" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W22" s="15">
         <v>4</v>
@@ -8896,13 +8852,13 @@
         <v>0</v>
       </c>
       <c r="AA22" s="27" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="AB22" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AC22" s="27" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="AD22" s="29" t="s">
         <v>90</v>
@@ -8923,10 +8879,10 @@
         <v>2</v>
       </c>
       <c r="AK22" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL22" s="27" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="AM22" s="15">
         <v>0</v>
@@ -8937,7 +8893,7 @@
     </row>
     <row r="23" s="15" customFormat="1" spans="1:40">
       <c r="A23" s="18" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C23" s="15">
         <v>0</v>
@@ -8976,22 +8932,20 @@
         <v>1</v>
       </c>
       <c r="O23" s="15" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="P23" s="15">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>6</v>
-      </c>
-      <c r="R23" s="23" t="s">
-        <v>125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R23" s="23"/>
       <c r="S23" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T23" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W23" s="14">
         <v>4</v>
@@ -9006,13 +8960,13 @@
         <v>0</v>
       </c>
       <c r="AA23" s="27" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="AB23" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AC23" s="27" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="AD23" s="29" t="s">
         <v>90</v>
@@ -9034,10 +8988,10 @@
         <v>2</v>
       </c>
       <c r="AK23" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL23" s="27" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="AM23" s="14">
         <v>0</v>
@@ -9048,7 +9002,7 @@
     </row>
     <row r="24" s="15" customFormat="1" spans="1:40">
       <c r="A24" s="18" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C24" s="15">
         <v>0</v>
@@ -9087,22 +9041,20 @@
         <v>1</v>
       </c>
       <c r="O24" s="15" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="P24" s="15">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>6</v>
-      </c>
-      <c r="R24" s="23" t="s">
-        <v>133</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R24" s="23"/>
       <c r="S24" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T24" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W24" s="15">
         <v>4</v>
@@ -9117,13 +9069,13 @@
         <v>0</v>
       </c>
       <c r="AA24" s="27" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="AB24" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AC24" s="27" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="AD24" s="29" t="s">
         <v>90</v>
@@ -9144,10 +9096,10 @@
         <v>2</v>
       </c>
       <c r="AK24" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL24" s="27" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="AM24" s="15">
         <v>0</v>
@@ -9158,7 +9110,7 @@
     </row>
     <row r="25" s="15" customFormat="1" spans="1:40">
       <c r="A25" s="18" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C25" s="15">
         <v>0</v>
@@ -9197,22 +9149,20 @@
         <v>1</v>
       </c>
       <c r="O25" s="15" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="P25" s="15">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>6</v>
-      </c>
-      <c r="R25" s="23" t="s">
-        <v>142</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R25" s="23"/>
       <c r="S25" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T25" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W25" s="14">
         <v>4</v>
@@ -9227,13 +9177,13 @@
         <v>0</v>
       </c>
       <c r="AA25" s="27" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="AB25" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AC25" s="27" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="AD25" s="29" t="s">
         <v>90</v>
@@ -9255,10 +9205,10 @@
         <v>2</v>
       </c>
       <c r="AK25" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL25" s="27" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="AM25" s="14">
         <v>0</v>
@@ -9269,7 +9219,7 @@
     </row>
     <row r="26" s="15" customFormat="1" spans="1:40">
       <c r="A26" s="18" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C26" s="15">
         <v>0</v>
@@ -9308,7 +9258,7 @@
         <v>2</v>
       </c>
       <c r="O26" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="P26" s="15">
         <v>0</v>
@@ -9316,14 +9266,12 @@
       <c r="Q26">
         <v>6</v>
       </c>
-      <c r="R26" s="23" t="s">
-        <v>148</v>
-      </c>
+      <c r="R26" s="23"/>
       <c r="S26" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T26" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W26" s="15">
         <v>4</v>
@@ -9338,13 +9286,13 @@
         <v>0</v>
       </c>
       <c r="AA26" s="27" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="AB26" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AC26" s="27" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="AD26" s="29" t="s">
         <v>90</v>
@@ -9365,10 +9313,10 @@
         <v>2</v>
       </c>
       <c r="AK26" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL26" s="27" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="AM26" s="15">
         <v>0</v>
@@ -9379,7 +9327,7 @@
     </row>
     <row r="27" s="15" customFormat="1" spans="1:40">
       <c r="A27" s="18" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C27" s="15">
         <v>0</v>
@@ -9418,7 +9366,7 @@
         <v>2</v>
       </c>
       <c r="O27" s="15" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="P27" s="15">
         <v>0</v>
@@ -9426,14 +9374,12 @@
       <c r="Q27">
         <v>6</v>
       </c>
-      <c r="R27" s="23" t="s">
-        <v>156</v>
-      </c>
+      <c r="R27" s="23"/>
       <c r="S27" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T27" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W27" s="14">
         <v>4</v>
@@ -9448,13 +9394,13 @@
         <v>0</v>
       </c>
       <c r="AA27" s="27" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="AB27" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AC27" s="27" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="AD27" s="29" t="s">
         <v>90</v>
@@ -9476,10 +9422,10 @@
         <v>2</v>
       </c>
       <c r="AK27" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL27" s="27" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="AM27" s="14">
         <v>0</v>
@@ -9490,7 +9436,7 @@
     </row>
     <row r="28" s="15" customFormat="1" spans="1:40">
       <c r="A28" s="18" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C28" s="15">
         <v>0</v>
@@ -9529,7 +9475,7 @@
         <v>2</v>
       </c>
       <c r="O28" s="15" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="P28" s="15">
         <v>0</v>
@@ -9537,14 +9483,12 @@
       <c r="Q28">
         <v>6</v>
       </c>
-      <c r="R28" s="23" t="s">
-        <v>161</v>
-      </c>
+      <c r="R28" s="23"/>
       <c r="S28" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T28" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W28" s="15">
         <v>4</v>
@@ -9559,13 +9503,13 @@
         <v>0</v>
       </c>
       <c r="AA28" s="27" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="AB28" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AC28" s="27" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="AD28" s="29" t="s">
         <v>90</v>
@@ -9586,10 +9530,10 @@
         <v>2</v>
       </c>
       <c r="AK28" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL28" s="27" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="AM28" s="15">
         <v>0</v>
@@ -9600,7 +9544,7 @@
     </row>
     <row r="29" s="15" customFormat="1" spans="1:40">
       <c r="A29" s="18" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="C29" s="15">
         <v>0</v>
@@ -9639,7 +9583,7 @@
         <v>2</v>
       </c>
       <c r="O29" s="15" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="P29" s="15">
         <v>0</v>
@@ -9647,14 +9591,12 @@
       <c r="Q29">
         <v>6</v>
       </c>
-      <c r="R29" s="23" t="s">
-        <v>169</v>
-      </c>
+      <c r="R29" s="23"/>
       <c r="S29" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T29" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W29" s="14">
         <v>4</v>
@@ -9669,13 +9611,13 @@
         <v>0</v>
       </c>
       <c r="AA29" s="27" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AB29" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AC29" s="27" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="AD29" s="29" t="s">
         <v>90</v>
@@ -9697,10 +9639,10 @@
         <v>2</v>
       </c>
       <c r="AK29" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL29" s="27" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="AM29" s="14">
         <v>0</v>
@@ -9711,7 +9653,7 @@
     </row>
     <row r="30" s="15" customFormat="1" spans="1:40">
       <c r="A30" s="18" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="C30" s="15">
         <v>0</v>
@@ -9750,7 +9692,7 @@
         <v>2</v>
       </c>
       <c r="O30" s="15" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="P30" s="15">
         <v>0</v>
@@ -9758,14 +9700,12 @@
       <c r="Q30">
         <v>6</v>
       </c>
-      <c r="R30" s="23" t="s">
-        <v>173</v>
-      </c>
+      <c r="R30" s="23"/>
       <c r="S30" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T30" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W30" s="15">
         <v>4</v>
@@ -9780,13 +9720,13 @@
         <v>0</v>
       </c>
       <c r="AA30" s="27" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AB30" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AC30" s="27" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AD30" s="29" t="s">
         <v>90</v>
@@ -9807,10 +9747,10 @@
         <v>2</v>
       </c>
       <c r="AK30" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL30" s="27" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="AM30" s="15">
         <v>0</v>
@@ -9821,7 +9761,7 @@
     </row>
     <row r="31" s="15" customFormat="1" spans="1:40">
       <c r="A31" s="18" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C31" s="15">
         <v>0</v>
@@ -9860,7 +9800,7 @@
         <v>2</v>
       </c>
       <c r="O31" s="15" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="P31" s="15">
         <v>0</v>
@@ -9868,14 +9808,12 @@
       <c r="Q31">
         <v>6</v>
       </c>
-      <c r="R31" s="23" t="s">
-        <v>182</v>
-      </c>
+      <c r="R31" s="23"/>
       <c r="S31" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T31" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W31" s="14">
         <v>4</v>
@@ -9890,13 +9828,13 @@
         <v>0</v>
       </c>
       <c r="AA31" s="27" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AB31" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AC31" s="27" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="AD31" s="29" t="s">
         <v>90</v>
@@ -9918,10 +9856,10 @@
         <v>2</v>
       </c>
       <c r="AK31" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL31" s="27" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="AM31" s="14">
         <v>0</v>
@@ -9932,7 +9870,7 @@
     </row>
     <row r="32" s="15" customFormat="1" spans="1:40">
       <c r="A32" s="18" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C32" s="15">
         <v>0</v>
@@ -9971,7 +9909,7 @@
         <v>3</v>
       </c>
       <c r="O32" s="15" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="P32" s="15">
         <v>0</v>
@@ -9979,14 +9917,12 @@
       <c r="Q32">
         <v>6</v>
       </c>
-      <c r="R32" s="23" t="s">
-        <v>192</v>
-      </c>
+      <c r="R32" s="23"/>
       <c r="S32" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T32" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W32" s="15">
         <v>4</v>
@@ -10001,13 +9937,13 @@
         <v>0</v>
       </c>
       <c r="AA32" s="27" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="AB32" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AC32" s="27" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="AD32" s="29" t="s">
         <v>90</v>
@@ -10028,10 +9964,10 @@
         <v>2</v>
       </c>
       <c r="AK32" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL32" s="27" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="AM32" s="15">
         <v>0</v>
@@ -10042,7 +9978,7 @@
     </row>
     <row r="33" s="15" customFormat="1" spans="1:40">
       <c r="A33" s="18" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C33" s="15">
         <v>0</v>
@@ -10081,7 +10017,7 @@
         <v>3</v>
       </c>
       <c r="O33" s="15" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="P33" s="15">
         <v>0</v>
@@ -10089,14 +10025,12 @@
       <c r="Q33">
         <v>6</v>
       </c>
-      <c r="R33" s="23" t="s">
-        <v>202</v>
-      </c>
+      <c r="R33" s="23"/>
       <c r="S33" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T33" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W33" s="14">
         <v>4</v>
@@ -10111,13 +10045,13 @@
         <v>0</v>
       </c>
       <c r="AA33" s="27" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="AB33" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AC33" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="AD33" s="29" t="s">
         <v>90</v>
@@ -10139,10 +10073,10 @@
         <v>2</v>
       </c>
       <c r="AK33" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL33" s="27" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AM33" s="14">
         <v>0</v>
@@ -10153,7 +10087,7 @@
     </row>
     <row r="34" s="15" customFormat="1" spans="1:40">
       <c r="A34" s="18" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="C34" s="15">
         <v>0</v>
@@ -10192,7 +10126,7 @@
         <v>3</v>
       </c>
       <c r="O34" s="15" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="P34" s="15">
         <v>0</v>
@@ -10200,14 +10134,12 @@
       <c r="Q34">
         <v>6</v>
       </c>
-      <c r="R34" s="23" t="s">
-        <v>212</v>
-      </c>
+      <c r="R34" s="23"/>
       <c r="S34" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T34" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W34" s="15">
         <v>4</v>
@@ -10222,13 +10154,13 @@
         <v>0</v>
       </c>
       <c r="AA34" s="27" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="AB34" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AC34" s="27" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="AD34" s="29" t="s">
         <v>90</v>
@@ -10249,10 +10181,10 @@
         <v>2</v>
       </c>
       <c r="AK34" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL34" s="27" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="AM34" s="15">
         <v>0</v>
@@ -10263,7 +10195,7 @@
     </row>
     <row r="35" s="15" customFormat="1" spans="1:40">
       <c r="A35" s="18" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C35" s="15">
         <v>0</v>
@@ -10302,7 +10234,7 @@
         <v>2</v>
       </c>
       <c r="O35" s="15" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="P35" s="15">
         <v>0</v>
@@ -10310,14 +10242,12 @@
       <c r="Q35">
         <v>6</v>
       </c>
-      <c r="R35" s="23" t="s">
-        <v>220</v>
-      </c>
+      <c r="R35" s="23"/>
       <c r="S35" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T35" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W35" s="14">
         <v>4</v>
@@ -10332,13 +10262,13 @@
         <v>0</v>
       </c>
       <c r="AA35" s="27" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="AB35" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AC35" s="27" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="AD35" s="29" t="s">
         <v>90</v>
@@ -10360,10 +10290,10 @@
         <v>2</v>
       </c>
       <c r="AK35" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL35" s="27" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="AM35" s="14">
         <v>0</v>
@@ -10374,7 +10304,7 @@
     </row>
     <row r="36" s="15" customFormat="1" spans="1:40">
       <c r="A36" s="18" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="C36" s="15">
         <v>0</v>
@@ -10413,7 +10343,7 @@
         <v>2</v>
       </c>
       <c r="O36" s="15" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="P36" s="15">
         <v>0</v>
@@ -10421,14 +10351,12 @@
       <c r="Q36">
         <v>6</v>
       </c>
-      <c r="R36" s="15" t="s">
-        <v>226</v>
-      </c>
+      <c r="R36" s="23"/>
       <c r="S36" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T36" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W36" s="15">
         <v>4</v>
@@ -10443,13 +10371,13 @@
         <v>0</v>
       </c>
       <c r="AA36" s="27" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="AB36" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AC36" s="27" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="AD36" s="29" t="s">
         <v>90</v>
@@ -10470,10 +10398,10 @@
         <v>2</v>
       </c>
       <c r="AK36" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL36" s="27" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="AM36" s="15">
         <v>0</v>
@@ -10484,7 +10412,7 @@
     </row>
     <row r="37" s="15" customFormat="1" spans="1:40">
       <c r="A37" s="18" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C37" s="15">
         <v>0</v>
@@ -10523,7 +10451,7 @@
         <v>2</v>
       </c>
       <c r="O37" s="15" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="P37" s="15">
         <v>0</v>
@@ -10531,14 +10459,12 @@
       <c r="Q37">
         <v>6</v>
       </c>
-      <c r="R37" s="15" t="s">
-        <v>232</v>
-      </c>
+      <c r="R37" s="23"/>
       <c r="S37" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T37" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W37" s="14">
         <v>4</v>
@@ -10553,13 +10479,13 @@
         <v>0</v>
       </c>
       <c r="AA37" s="27" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="AB37" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AC37" s="27" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="AD37" s="29" t="s">
         <v>90</v>
@@ -10581,10 +10507,10 @@
         <v>2</v>
       </c>
       <c r="AK37" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL37" s="27" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="AM37" s="14">
         <v>0</v>
@@ -10595,7 +10521,7 @@
     </row>
     <row r="38" s="15" customFormat="1" spans="1:40">
       <c r="A38" s="18" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="C38" s="15">
         <v>0</v>
@@ -10634,7 +10560,7 @@
         <v>3</v>
       </c>
       <c r="O38" s="15" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="P38" s="15">
         <v>0</v>
@@ -10642,14 +10568,12 @@
       <c r="Q38">
         <v>6</v>
       </c>
-      <c r="R38" s="15" t="s">
-        <v>238</v>
-      </c>
+      <c r="R38" s="23"/>
       <c r="S38" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T38" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W38" s="15">
         <v>4</v>
@@ -10664,13 +10588,13 @@
         <v>0</v>
       </c>
       <c r="AA38" s="27" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="AB38" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AC38" s="27" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="AD38" s="29" t="s">
         <v>90</v>
@@ -10691,10 +10615,10 @@
         <v>2</v>
       </c>
       <c r="AK38" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL38" s="27" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="AM38" s="15">
         <v>0</v>
@@ -10705,7 +10629,7 @@
     </row>
     <row r="39" s="15" customFormat="1" spans="1:40">
       <c r="A39" s="18" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C39" s="15">
         <v>0</v>
@@ -10744,7 +10668,7 @@
         <v>3</v>
       </c>
       <c r="O39" s="15" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="P39" s="15">
         <v>0</v>
@@ -10752,14 +10676,12 @@
       <c r="Q39">
         <v>6</v>
       </c>
-      <c r="R39" s="15" t="s">
-        <v>244</v>
-      </c>
+      <c r="R39" s="23"/>
       <c r="S39" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T39" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W39" s="14">
         <v>4</v>
@@ -10774,13 +10696,13 @@
         <v>0</v>
       </c>
       <c r="AA39" s="27" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="AB39" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AC39" s="27" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="AD39" s="29" t="s">
         <v>90</v>
@@ -10802,10 +10724,10 @@
         <v>2</v>
       </c>
       <c r="AK39" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL39" s="27" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="AM39" s="14">
         <v>0</v>
@@ -10816,7 +10738,7 @@
     </row>
     <row r="40" s="15" customFormat="1" spans="1:40">
       <c r="A40" s="18" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="C40" s="15">
         <v>0</v>
@@ -10855,7 +10777,7 @@
         <v>3</v>
       </c>
       <c r="O40" s="15" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="P40" s="15">
         <v>0</v>
@@ -10863,14 +10785,12 @@
       <c r="Q40">
         <v>6</v>
       </c>
-      <c r="R40" s="15" t="s">
-        <v>250</v>
-      </c>
+      <c r="R40" s="23"/>
       <c r="S40" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T40" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W40" s="15">
         <v>4</v>
@@ -10885,13 +10805,13 @@
         <v>0</v>
       </c>
       <c r="AA40" s="27" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="AB40" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AC40" s="27" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="AD40" s="29" t="s">
         <v>90</v>
@@ -10912,10 +10832,10 @@
         <v>2</v>
       </c>
       <c r="AK40" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL40" s="27" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="AM40" s="15">
         <v>0</v>
@@ -10926,7 +10846,7 @@
     </row>
     <row r="41" s="15" customFormat="1" spans="1:40">
       <c r="A41" s="18" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="C41" s="15">
         <v>0</v>
@@ -10965,7 +10885,7 @@
         <v>2</v>
       </c>
       <c r="O41" s="15" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="P41" s="15">
         <v>0</v>
@@ -10973,14 +10893,12 @@
       <c r="Q41">
         <v>6</v>
       </c>
-      <c r="R41" s="15" t="s">
-        <v>232</v>
-      </c>
+      <c r="R41" s="23"/>
       <c r="S41" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T41" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W41" s="14">
         <v>4</v>
@@ -10995,13 +10913,13 @@
         <v>0</v>
       </c>
       <c r="AA41" s="27" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="AB41" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AC41" s="27" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="AD41" s="29" t="s">
         <v>90</v>
@@ -11023,10 +10941,10 @@
         <v>2</v>
       </c>
       <c r="AK41" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL41" s="27" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="AM41" s="14">
         <v>0</v>
@@ -11037,7 +10955,7 @@
     </row>
     <row r="42" s="15" customFormat="1" spans="1:40">
       <c r="A42" s="18" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="C42" s="15">
         <v>0</v>
@@ -11076,7 +10994,7 @@
         <v>2</v>
       </c>
       <c r="O42" s="15" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="P42" s="15">
         <v>0</v>
@@ -11084,14 +11002,12 @@
       <c r="Q42">
         <v>6</v>
       </c>
-      <c r="R42" s="15" t="s">
-        <v>238</v>
-      </c>
+      <c r="R42" s="23"/>
       <c r="S42" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T42" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W42" s="15">
         <v>4</v>
@@ -11106,13 +11022,13 @@
         <v>0</v>
       </c>
       <c r="AA42" s="27" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="AB42" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AC42" s="27" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="AD42" s="29" t="s">
         <v>90</v>
@@ -11133,10 +11049,10 @@
         <v>2</v>
       </c>
       <c r="AK42" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL42" s="27" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="AM42" s="15">
         <v>0</v>
@@ -11147,7 +11063,7 @@
     </row>
     <row r="43" s="16" customFormat="1" ht="14.25" spans="1:40">
       <c r="A43" s="19" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="C43" s="16">
         <v>0</v>
@@ -11186,7 +11102,7 @@
         <v>2</v>
       </c>
       <c r="O43" s="15" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="P43" s="16">
         <v>0</v>
@@ -11194,14 +11110,12 @@
       <c r="Q43">
         <v>6</v>
       </c>
-      <c r="R43" s="15" t="s">
-        <v>244</v>
-      </c>
+      <c r="R43" s="23"/>
       <c r="S43" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T43" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W43" s="14">
         <v>4</v>
@@ -11216,13 +11130,13 @@
         <v>0</v>
       </c>
       <c r="AA43" s="27" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="AB43" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AC43" s="27" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="AD43" s="30" t="s">
         <v>90</v>
@@ -11244,10 +11158,10 @@
         <v>2</v>
       </c>
       <c r="AK43" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL43" s="27" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="AM43" s="14">
         <v>0</v>
@@ -11258,7 +11172,7 @@
     </row>
     <row r="44" s="15" customFormat="1" spans="1:40">
       <c r="A44" s="18" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="C44" s="15">
         <v>0</v>
@@ -11297,7 +11211,7 @@
         <v>2</v>
       </c>
       <c r="O44" s="15" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="P44" s="15">
         <v>0</v>
@@ -11305,14 +11219,12 @@
       <c r="Q44">
         <v>6</v>
       </c>
-      <c r="R44" s="15" t="s">
-        <v>250</v>
-      </c>
+      <c r="R44" s="23"/>
       <c r="S44" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T44" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W44" s="15">
         <v>4</v>
@@ -11327,13 +11239,13 @@
         <v>0</v>
       </c>
       <c r="AA44" s="27" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="AB44" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AC44" s="27" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="AD44" s="29" t="s">
         <v>90</v>
@@ -11354,10 +11266,10 @@
         <v>2</v>
       </c>
       <c r="AK44" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL44" s="27" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="AM44" s="15">
         <v>0</v>
@@ -11368,7 +11280,7 @@
     </row>
     <row r="45" s="15" customFormat="1" spans="1:40">
       <c r="A45" s="18" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="C45" s="15">
         <v>0</v>
@@ -11407,7 +11319,7 @@
         <v>2</v>
       </c>
       <c r="O45" s="15" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="P45" s="15">
         <v>0</v>
@@ -11415,14 +11327,12 @@
       <c r="Q45">
         <v>6</v>
       </c>
-      <c r="R45" s="15" t="s">
-        <v>244</v>
-      </c>
+      <c r="R45" s="23"/>
       <c r="S45" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T45" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W45" s="14">
         <v>4</v>
@@ -11437,13 +11347,13 @@
         <v>0</v>
       </c>
       <c r="AA45" s="27" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="AB45" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AC45" s="27" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="AD45" s="29" t="s">
         <v>90</v>
@@ -11465,10 +11375,10 @@
         <v>2</v>
       </c>
       <c r="AK45" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL45" s="27" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="AM45" s="14">
         <v>0</v>
@@ -11479,7 +11389,7 @@
     </row>
     <row r="46" s="16" customFormat="1" ht="14.25" spans="1:40">
       <c r="A46" s="20" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="C46" s="16">
         <v>0</v>
@@ -11518,7 +11428,7 @@
         <v>2</v>
       </c>
       <c r="O46" s="15" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="P46" s="16">
         <v>0</v>
@@ -11526,14 +11436,12 @@
       <c r="Q46">
         <v>6</v>
       </c>
-      <c r="R46" s="15" t="s">
-        <v>250</v>
-      </c>
+      <c r="R46" s="23"/>
       <c r="S46" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T46" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W46" s="15">
         <v>4</v>
@@ -11548,13 +11456,13 @@
         <v>0</v>
       </c>
       <c r="AA46" s="27" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AB46" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AC46" s="27" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="AD46" s="30" t="s">
         <v>90</v>
@@ -11576,10 +11484,10 @@
         <v>2</v>
       </c>
       <c r="AK46" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL46" s="27" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="AM46" s="15">
         <v>0</v>
@@ -11590,7 +11498,7 @@
     </row>
     <row r="47" spans="1:40">
       <c r="A47" s="21" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="B47" s="15"/>
       <c r="C47" s="15">
@@ -11630,7 +11538,7 @@
         <v>2</v>
       </c>
       <c r="O47" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="P47" s="15">
         <v>0</v>
@@ -11638,14 +11546,12 @@
       <c r="Q47">
         <v>6</v>
       </c>
-      <c r="R47" s="15" t="s">
-        <v>250</v>
-      </c>
+      <c r="R47" s="23"/>
       <c r="S47" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T47" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="U47" s="15"/>
       <c r="V47" s="15"/>
@@ -11662,13 +11568,13 @@
         <v>0</v>
       </c>
       <c r="AA47" s="27" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="AB47" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AC47" s="27" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="AD47" s="29" t="s">
         <v>90</v>
@@ -11690,10 +11596,10 @@
         <v>2</v>
       </c>
       <c r="AK47" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL47" s="27" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="AM47" s="15">
         <v>0</v>
@@ -11704,7 +11610,7 @@
     </row>
     <row r="48" ht="14.25" spans="1:40">
       <c r="A48" s="21" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="B48" s="15"/>
       <c r="C48" s="15">
@@ -11744,7 +11650,7 @@
         <v>2</v>
       </c>
       <c r="O48" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="P48" s="15">
         <v>0</v>
@@ -11752,14 +11658,12 @@
       <c r="Q48">
         <v>6</v>
       </c>
-      <c r="R48" s="15" t="s">
-        <v>244</v>
-      </c>
+      <c r="R48" s="23"/>
       <c r="S48" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T48" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="U48" s="15"/>
       <c r="V48" s="15"/>
@@ -11776,13 +11680,13 @@
         <v>0</v>
       </c>
       <c r="AA48" s="27" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="AB48" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AC48" s="27" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="AD48" s="30" t="s">
         <v>90</v>
@@ -11804,10 +11708,10 @@
         <v>2</v>
       </c>
       <c r="AK48" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL48" s="27" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="AM48" s="14">
         <v>0</v>
@@ -11818,7 +11722,7 @@
     </row>
     <row r="49" ht="14.25" spans="1:40">
       <c r="A49" s="21" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="B49" s="16"/>
       <c r="C49" s="16">
@@ -11858,7 +11762,7 @@
         <v>2</v>
       </c>
       <c r="O49" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="P49" s="16">
         <v>0</v>
@@ -11866,14 +11770,12 @@
       <c r="Q49">
         <v>6</v>
       </c>
-      <c r="R49" s="15" t="s">
-        <v>250</v>
-      </c>
+      <c r="R49" s="23"/>
       <c r="S49" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T49" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="U49" s="16"/>
       <c r="V49" s="16"/>
@@ -11890,13 +11792,13 @@
         <v>0</v>
       </c>
       <c r="AA49" s="27" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="AB49" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AC49" s="27" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="AD49" s="29" t="s">
         <v>90</v>
@@ -11918,10 +11820,10 @@
         <v>2</v>
       </c>
       <c r="AK49" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL49" s="27" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="AM49" s="15">
         <v>0</v>
@@ -11932,7 +11834,7 @@
     </row>
     <row r="50" ht="14.25" spans="1:40">
       <c r="A50" s="21" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="B50" s="15"/>
       <c r="C50" s="15">
@@ -11972,7 +11874,7 @@
         <v>2</v>
       </c>
       <c r="O50" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="P50" s="15">
         <v>0</v>
@@ -11980,14 +11882,12 @@
       <c r="Q50">
         <v>6</v>
       </c>
-      <c r="R50" s="15" t="s">
-        <v>250</v>
-      </c>
+      <c r="R50" s="23"/>
       <c r="S50" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T50" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="U50" s="15"/>
       <c r="V50" s="15"/>
@@ -12004,13 +11904,13 @@
         <v>0</v>
       </c>
       <c r="AA50" s="27" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="AB50" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AC50" s="27" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="AD50" s="30" t="s">
         <v>90</v>
@@ -12032,10 +11932,10 @@
         <v>2</v>
       </c>
       <c r="AK50" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL50" s="27" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="AM50" s="15">
         <v>0</v>
@@ -12046,7 +11946,7 @@
     </row>
     <row r="51" spans="1:40">
       <c r="A51" s="21" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="B51" s="15"/>
       <c r="C51" s="15">
@@ -12086,7 +11986,7 @@
         <v>2</v>
       </c>
       <c r="O51" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="P51" s="15">
         <v>0</v>
@@ -12094,14 +11994,12 @@
       <c r="Q51">
         <v>6</v>
       </c>
-      <c r="R51" s="15" t="s">
-        <v>244</v>
-      </c>
+      <c r="R51" s="23"/>
       <c r="S51" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T51" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="U51" s="15"/>
       <c r="V51" s="15"/>
@@ -12118,13 +12016,13 @@
         <v>0</v>
       </c>
       <c r="AA51" s="27" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="AB51" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AC51" s="27" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="AD51" s="29" t="s">
         <v>90</v>
@@ -12146,10 +12044,10 @@
         <v>2</v>
       </c>
       <c r="AK51" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL51" s="27" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="AM51" s="14">
         <v>0</v>
@@ -12160,7 +12058,7 @@
     </row>
     <row r="52" ht="14.25" spans="1:40">
       <c r="A52" s="21" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="B52" s="16"/>
       <c r="C52" s="16">
@@ -12200,7 +12098,7 @@
         <v>2</v>
       </c>
       <c r="O52" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="P52" s="16">
         <v>0</v>
@@ -12208,14 +12106,12 @@
       <c r="Q52">
         <v>6</v>
       </c>
-      <c r="R52" s="15" t="s">
-        <v>250</v>
-      </c>
+      <c r="R52" s="23"/>
       <c r="S52" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T52" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="U52" s="16"/>
       <c r="V52" s="16"/>
@@ -12232,13 +12128,13 @@
         <v>0</v>
       </c>
       <c r="AA52" s="27" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="AB52" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AC52" s="27" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="AD52" s="30" t="s">
         <v>90</v>
@@ -12260,10 +12156,10 @@
         <v>2</v>
       </c>
       <c r="AK52" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL52" s="27" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="AM52" s="15">
         <v>0</v>
@@ -12274,7 +12170,7 @@
     </row>
     <row r="53" spans="1:40">
       <c r="A53" s="21" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="B53" s="15"/>
       <c r="C53" s="15">
@@ -12314,7 +12210,7 @@
         <v>2</v>
       </c>
       <c r="O53" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="P53" s="15">
         <v>0</v>
@@ -12322,14 +12218,12 @@
       <c r="Q53">
         <v>6</v>
       </c>
-      <c r="R53" s="15" t="s">
-        <v>250</v>
-      </c>
+      <c r="R53" s="23"/>
       <c r="S53" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T53" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="U53" s="15"/>
       <c r="V53" s="15"/>
@@ -12346,13 +12240,13 @@
         <v>0</v>
       </c>
       <c r="AA53" s="27" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="AB53" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AC53" s="27" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="AD53" s="29" t="s">
         <v>90</v>
@@ -12374,10 +12268,10 @@
         <v>2</v>
       </c>
       <c r="AK53" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL53" s="27" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="AM53" s="15">
         <v>0</v>
@@ -12388,7 +12282,7 @@
     </row>
     <row r="54" ht="14.25" spans="1:40">
       <c r="A54" s="21" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="B54" s="15"/>
       <c r="C54" s="15">
@@ -12428,7 +12322,7 @@
         <v>2</v>
       </c>
       <c r="O54" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="P54" s="15">
         <v>0</v>
@@ -12436,14 +12330,12 @@
       <c r="Q54">
         <v>6</v>
       </c>
-      <c r="R54" s="15" t="s">
-        <v>244</v>
-      </c>
+      <c r="R54" s="23"/>
       <c r="S54" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T54" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="U54" s="15"/>
       <c r="V54" s="15"/>
@@ -12460,13 +12352,13 @@
         <v>0</v>
       </c>
       <c r="AA54" s="27" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="AB54" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AC54" s="27" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="AD54" s="30" t="s">
         <v>90</v>
@@ -12488,10 +12380,10 @@
         <v>2</v>
       </c>
       <c r="AK54" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL54" s="27" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="AM54" s="14">
         <v>0</v>
@@ -12502,7 +12394,7 @@
     </row>
     <row r="55" ht="14.25" spans="1:40">
       <c r="A55" s="21" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="B55" s="16"/>
       <c r="C55" s="16">
@@ -12542,7 +12434,7 @@
         <v>2</v>
       </c>
       <c r="O55" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="P55" s="16">
         <v>0</v>
@@ -12550,14 +12442,12 @@
       <c r="Q55">
         <v>6</v>
       </c>
-      <c r="R55" s="15" t="s">
-        <v>250</v>
-      </c>
+      <c r="R55" s="23"/>
       <c r="S55" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T55" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="U55" s="16"/>
       <c r="V55" s="16"/>
@@ -12574,13 +12464,13 @@
         <v>0</v>
       </c>
       <c r="AA55" s="27" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="AB55" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AC55" s="27" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="AD55" s="29" t="s">
         <v>90</v>
@@ -12602,10 +12492,10 @@
         <v>2</v>
       </c>
       <c r="AK55" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL55" s="27" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="AM55" s="15">
         <v>0</v>
@@ -12616,7 +12506,7 @@
     </row>
     <row r="56" ht="14.25" spans="1:40">
       <c r="A56" s="21" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="B56" s="15"/>
       <c r="C56" s="15">
@@ -12656,7 +12546,7 @@
         <v>2</v>
       </c>
       <c r="O56" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="P56" s="15">
         <v>0</v>
@@ -12664,14 +12554,12 @@
       <c r="Q56">
         <v>6</v>
       </c>
-      <c r="R56" s="15" t="s">
-        <v>250</v>
-      </c>
+      <c r="R56" s="23"/>
       <c r="S56" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T56" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="U56" s="15"/>
       <c r="V56" s="15"/>
@@ -12688,13 +12576,13 @@
         <v>0</v>
       </c>
       <c r="AA56" s="27" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="AB56" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AC56" s="27" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="AD56" s="30" t="s">
         <v>90</v>
@@ -12716,10 +12604,10 @@
         <v>2</v>
       </c>
       <c r="AK56" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL56" s="27" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="AM56" s="15">
         <v>0</v>
@@ -12730,7 +12618,7 @@
     </row>
     <row r="57" spans="1:40">
       <c r="A57" s="21" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="B57" s="15"/>
       <c r="C57" s="15">
@@ -12770,7 +12658,7 @@
         <v>2</v>
       </c>
       <c r="O57" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="P57" s="15">
         <v>0</v>
@@ -12778,14 +12666,12 @@
       <c r="Q57">
         <v>6</v>
       </c>
-      <c r="R57" s="15" t="s">
-        <v>244</v>
-      </c>
+      <c r="R57" s="23"/>
       <c r="S57" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T57" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="U57" s="15"/>
       <c r="V57" s="15"/>
@@ -12802,13 +12688,13 @@
         <v>0</v>
       </c>
       <c r="AA57" s="27" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="AB57" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AC57" s="27" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="AD57" s="29" t="s">
         <v>90</v>
@@ -12830,10 +12716,10 @@
         <v>2</v>
       </c>
       <c r="AK57" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL57" s="27" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="AM57" s="14">
         <v>0</v>
@@ -12844,7 +12730,7 @@
     </row>
     <row r="58" ht="14.25" spans="1:40">
       <c r="A58" s="21" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="B58" s="16"/>
       <c r="C58" s="16">
@@ -12884,7 +12770,7 @@
         <v>2</v>
       </c>
       <c r="O58" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="P58" s="16">
         <v>0</v>
@@ -12892,14 +12778,12 @@
       <c r="Q58">
         <v>6</v>
       </c>
-      <c r="R58" s="15" t="s">
-        <v>250</v>
-      </c>
+      <c r="R58" s="23"/>
       <c r="S58" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T58" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="U58" s="16"/>
       <c r="V58" s="16"/>
@@ -12916,13 +12800,13 @@
         <v>0</v>
       </c>
       <c r="AA58" s="27" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="AB58" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AC58" s="27" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="AD58" s="30" t="s">
         <v>90</v>
@@ -12944,10 +12828,10 @@
         <v>2</v>
       </c>
       <c r="AK58" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL58" s="27" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="AM58" s="15">
         <v>0</v>
@@ -12958,7 +12842,7 @@
     </row>
     <row r="59" spans="1:40">
       <c r="A59" s="21" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="B59" s="15"/>
       <c r="C59" s="15">
@@ -12998,7 +12882,7 @@
         <v>2</v>
       </c>
       <c r="O59" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="P59" s="15">
         <v>0</v>
@@ -13006,14 +12890,12 @@
       <c r="Q59">
         <v>6</v>
       </c>
-      <c r="R59" s="15" t="s">
-        <v>250</v>
-      </c>
+      <c r="R59" s="23"/>
       <c r="S59" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T59" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="U59" s="15"/>
       <c r="V59" s="15"/>
@@ -13030,13 +12912,13 @@
         <v>0</v>
       </c>
       <c r="AA59" s="27" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="AB59" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AC59" s="27" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="AD59" s="29" t="s">
         <v>90</v>
@@ -13058,10 +12940,10 @@
         <v>2</v>
       </c>
       <c r="AK59" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL59" s="27" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="AM59" s="15">
         <v>0</v>
@@ -13072,7 +12954,7 @@
     </row>
     <row r="60" ht="14.25" spans="1:40">
       <c r="A60" s="21" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="B60" s="15"/>
       <c r="C60" s="15">
@@ -13112,7 +12994,7 @@
         <v>2</v>
       </c>
       <c r="O60" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="P60" s="15">
         <v>0</v>
@@ -13120,14 +13002,12 @@
       <c r="Q60">
         <v>6</v>
       </c>
-      <c r="R60" s="15" t="s">
-        <v>244</v>
-      </c>
+      <c r="R60" s="23"/>
       <c r="S60" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T60" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="U60" s="15"/>
       <c r="V60" s="15"/>
@@ -13144,13 +13024,13 @@
         <v>0</v>
       </c>
       <c r="AA60" s="27" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="AB60" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AC60" s="27" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="AD60" s="30" t="s">
         <v>90</v>
@@ -13172,10 +13052,10 @@
         <v>2</v>
       </c>
       <c r="AK60" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL60" s="27" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="AM60" s="14">
         <v>0</v>
@@ -13186,7 +13066,7 @@
     </row>
     <row r="61" ht="14.25" spans="1:40">
       <c r="A61" s="21" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="B61" s="16"/>
       <c r="C61" s="16">
@@ -13226,7 +13106,7 @@
         <v>2</v>
       </c>
       <c r="O61" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="P61" s="16">
         <v>0</v>
@@ -13234,14 +13114,12 @@
       <c r="Q61">
         <v>6</v>
       </c>
-      <c r="R61" s="15" t="s">
-        <v>250</v>
-      </c>
+      <c r="R61" s="23"/>
       <c r="S61" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T61" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="U61" s="16"/>
       <c r="V61" s="16"/>
@@ -13258,13 +13136,13 @@
         <v>0</v>
       </c>
       <c r="AA61" s="27" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="AB61" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AC61" s="27" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="AD61" s="29" t="s">
         <v>90</v>
@@ -13286,10 +13164,10 @@
         <v>2</v>
       </c>
       <c r="AK61" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL61" s="27" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="AM61" s="15">
         <v>0</v>
@@ -13300,7 +13178,7 @@
     </row>
     <row r="62" spans="1:40">
       <c r="A62" s="21" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="B62" s="15"/>
       <c r="C62" s="15">
@@ -13340,7 +13218,7 @@
         <v>2</v>
       </c>
       <c r="O62" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="P62" s="15">
         <v>0</v>
@@ -13348,14 +13226,12 @@
       <c r="Q62">
         <v>6</v>
       </c>
-      <c r="R62" s="15" t="s">
-        <v>250</v>
-      </c>
+      <c r="R62" s="23"/>
       <c r="S62" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T62" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="U62" s="15"/>
       <c r="V62" s="15"/>
@@ -13372,13 +13248,13 @@
         <v>0</v>
       </c>
       <c r="AA62" s="27" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="AB62" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AC62" s="27" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AD62" s="29" t="s">
         <v>90</v>
@@ -13399,11 +13275,11 @@
       <c r="AJ62" s="14">
         <v>2</v>
       </c>
-      <c r="AK62" s="14">
-        <v>2</v>
+      <c r="AK62" s="15">
+        <v>1</v>
       </c>
       <c r="AL62" s="27" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AM62" s="15">
         <v>0</v>
@@ -13414,7 +13290,7 @@
     </row>
     <row r="63" ht="14.25" spans="1:40">
       <c r="A63" s="21" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="B63" s="15"/>
       <c r="C63" s="15">
@@ -13454,7 +13330,7 @@
         <v>2</v>
       </c>
       <c r="O63" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="P63" s="15">
         <v>0</v>
@@ -13462,14 +13338,12 @@
       <c r="Q63">
         <v>6</v>
       </c>
-      <c r="R63" s="15" t="s">
-        <v>244</v>
-      </c>
+      <c r="R63" s="23"/>
       <c r="S63" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T63" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="U63" s="15"/>
       <c r="V63" s="15"/>
@@ -13486,13 +13360,13 @@
         <v>0</v>
       </c>
       <c r="AA63" s="27" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="AB63" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AC63" s="27" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="AD63" s="30" t="s">
         <v>90</v>
@@ -13513,11 +13387,11 @@
       <c r="AJ63" s="15">
         <v>2</v>
       </c>
-      <c r="AK63" s="15">
-        <v>2</v>
+      <c r="AK63" s="14">
+        <v>1</v>
       </c>
       <c r="AL63" s="27" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AM63" s="14">
         <v>0</v>
@@ -13528,7 +13402,7 @@
     </row>
     <row r="64" ht="14.25" spans="1:40">
       <c r="A64" s="21" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="B64" s="16"/>
       <c r="C64" s="16">
@@ -13568,7 +13442,7 @@
         <v>2</v>
       </c>
       <c r="O64" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="P64" s="16">
         <v>0</v>
@@ -13576,14 +13450,12 @@
       <c r="Q64">
         <v>6</v>
       </c>
-      <c r="R64" s="15" t="s">
-        <v>250</v>
-      </c>
+      <c r="R64" s="23"/>
       <c r="S64" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T64" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="U64" s="16"/>
       <c r="V64" s="16"/>
@@ -13600,13 +13472,13 @@
         <v>0</v>
       </c>
       <c r="AA64" s="27" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="AB64" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AC64" s="27" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="AD64" s="29" t="s">
         <v>90</v>
@@ -13627,11 +13499,11 @@
       <c r="AJ64" s="14">
         <v>2</v>
       </c>
-      <c r="AK64" s="14">
-        <v>2</v>
+      <c r="AK64" s="15">
+        <v>1</v>
       </c>
       <c r="AL64" s="27" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="AM64" s="15">
         <v>0</v>
@@ -13642,7 +13514,7 @@
     </row>
     <row r="65" ht="14.25" spans="1:40">
       <c r="A65" s="21" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="B65" s="15"/>
       <c r="C65" s="15">
@@ -13682,7 +13554,7 @@
         <v>2</v>
       </c>
       <c r="O65" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="P65" s="15">
         <v>0</v>
@@ -13690,14 +13562,12 @@
       <c r="Q65">
         <v>6</v>
       </c>
-      <c r="R65" s="15" t="s">
-        <v>250</v>
-      </c>
+      <c r="R65" s="23"/>
       <c r="S65" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T65" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="U65" s="15"/>
       <c r="V65" s="15"/>
@@ -13714,13 +13584,13 @@
         <v>0</v>
       </c>
       <c r="AA65" s="27" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="AB65" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AC65" s="27" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="AD65" s="30" t="s">
         <v>90</v>
@@ -13741,11 +13611,11 @@
       <c r="AJ65" s="15">
         <v>2</v>
       </c>
-      <c r="AK65" s="15">
-        <v>2</v>
+      <c r="AK65" s="14">
+        <v>1</v>
       </c>
       <c r="AL65" s="27" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="AM65" s="15">
         <v>0</v>
@@ -13756,7 +13626,7 @@
     </row>
     <row r="66" spans="1:40">
       <c r="A66" s="21" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="B66" s="15"/>
       <c r="C66" s="15">
@@ -13796,7 +13666,7 @@
         <v>2</v>
       </c>
       <c r="O66" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="P66" s="15">
         <v>0</v>
@@ -13804,14 +13674,12 @@
       <c r="Q66">
         <v>6</v>
       </c>
-      <c r="R66" s="15" t="s">
-        <v>244</v>
-      </c>
+      <c r="R66" s="23"/>
       <c r="S66" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T66" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="U66" s="15"/>
       <c r="V66" s="15"/>
@@ -13828,13 +13696,13 @@
         <v>0</v>
       </c>
       <c r="AA66" s="27" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="AB66" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AC66" s="27" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="AD66" s="29" t="s">
         <v>90</v>
@@ -13855,11 +13723,11 @@
       <c r="AJ66" s="14">
         <v>2</v>
       </c>
-      <c r="AK66" s="14">
-        <v>2</v>
+      <c r="AK66" s="15">
+        <v>1</v>
       </c>
       <c r="AL66" s="27" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="AM66" s="14">
         <v>0</v>
@@ -13870,7 +13738,7 @@
     </row>
     <row r="67" ht="14.25" spans="1:40">
       <c r="A67" s="21" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="B67" s="16"/>
       <c r="C67" s="16">
@@ -13910,7 +13778,7 @@
         <v>2</v>
       </c>
       <c r="O67" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="P67" s="16">
         <v>0</v>
@@ -13918,14 +13786,12 @@
       <c r="Q67">
         <v>6</v>
       </c>
-      <c r="R67" s="15" t="s">
-        <v>250</v>
-      </c>
+      <c r="R67" s="23"/>
       <c r="S67" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T67" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="U67" s="16"/>
       <c r="V67" s="16"/>
@@ -13942,13 +13808,13 @@
         <v>0</v>
       </c>
       <c r="AA67" s="27" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="AB67" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AC67" s="27" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="AD67" s="30" t="s">
         <v>90</v>
@@ -13969,11 +13835,11 @@
       <c r="AJ67" s="15">
         <v>2</v>
       </c>
-      <c r="AK67" s="15">
-        <v>2</v>
+      <c r="AK67" s="14">
+        <v>1</v>
       </c>
       <c r="AL67" s="27" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="AM67" s="15">
         <v>0</v>
@@ -13984,7 +13850,7 @@
     </row>
     <row r="68" spans="1:40">
       <c r="A68" s="21" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="B68" s="15"/>
       <c r="C68" s="15">
@@ -14024,7 +13890,7 @@
         <v>2</v>
       </c>
       <c r="O68" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="P68" s="15">
         <v>0</v>
@@ -14032,14 +13898,12 @@
       <c r="Q68">
         <v>6</v>
       </c>
-      <c r="R68" s="15" t="s">
-        <v>250</v>
-      </c>
+      <c r="R68" s="23"/>
       <c r="S68" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T68" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="U68" s="15"/>
       <c r="V68" s="15"/>
@@ -14056,13 +13920,13 @@
         <v>0</v>
       </c>
       <c r="AA68" s="27" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="AB68" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AC68" s="27" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="AD68" s="29" t="s">
         <v>90</v>
@@ -14083,11 +13947,11 @@
       <c r="AJ68" s="14">
         <v>2</v>
       </c>
-      <c r="AK68" s="14">
-        <v>2</v>
+      <c r="AK68" s="15">
+        <v>1</v>
       </c>
       <c r="AL68" s="27" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="AM68" s="15">
         <v>0</v>
@@ -14098,7 +13962,7 @@
     </row>
     <row r="69" ht="14.25" spans="1:40">
       <c r="A69" s="21" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="B69" s="15"/>
       <c r="C69" s="15">
@@ -14138,7 +14002,7 @@
         <v>2</v>
       </c>
       <c r="O69" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="P69" s="15">
         <v>0</v>
@@ -14146,14 +14010,12 @@
       <c r="Q69">
         <v>6</v>
       </c>
-      <c r="R69" s="15" t="s">
-        <v>244</v>
-      </c>
+      <c r="R69" s="23"/>
       <c r="S69" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T69" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="U69" s="15"/>
       <c r="V69" s="15"/>
@@ -14170,13 +14032,13 @@
         <v>0</v>
       </c>
       <c r="AA69" s="27" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="AB69" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AC69" s="27" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="AD69" s="30" t="s">
         <v>90</v>
@@ -14197,11 +14059,11 @@
       <c r="AJ69" s="15">
         <v>2</v>
       </c>
-      <c r="AK69" s="15">
-        <v>2</v>
+      <c r="AK69" s="14">
+        <v>1</v>
       </c>
       <c r="AL69" s="27" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="AM69" s="14">
         <v>0</v>
@@ -14212,7 +14074,7 @@
     </row>
     <row r="70" ht="14.25" spans="1:40">
       <c r="A70" s="21" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="B70" s="16"/>
       <c r="C70" s="16">
@@ -14252,7 +14114,7 @@
         <v>2</v>
       </c>
       <c r="O70" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="P70" s="16">
         <v>0</v>
@@ -14260,14 +14122,12 @@
       <c r="Q70">
         <v>6</v>
       </c>
-      <c r="R70" s="15" t="s">
-        <v>250</v>
-      </c>
+      <c r="R70" s="23"/>
       <c r="S70" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T70" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="U70" s="16"/>
       <c r="V70" s="16"/>
@@ -14284,13 +14144,13 @@
         <v>0</v>
       </c>
       <c r="AA70" s="27" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="AB70" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AC70" s="27" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="AD70" s="29" t="s">
         <v>90</v>
@@ -14311,11 +14171,11 @@
       <c r="AJ70" s="14">
         <v>2</v>
       </c>
-      <c r="AK70" s="14">
-        <v>2</v>
+      <c r="AK70" s="15">
+        <v>1</v>
       </c>
       <c r="AL70" s="27" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="AM70" s="15">
         <v>0</v>
@@ -14326,7 +14186,7 @@
     </row>
     <row r="71" ht="14.25" spans="1:40">
       <c r="A71" s="21" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="B71" s="15"/>
       <c r="C71" s="15">
@@ -14366,22 +14226,20 @@
         <v>2</v>
       </c>
       <c r="O71" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="P71" s="15">
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>6</v>
-      </c>
-      <c r="R71" s="15" t="s">
-        <v>250</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R71" s="23"/>
       <c r="S71" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T71" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="U71" s="15"/>
       <c r="V71" s="15"/>
@@ -14398,13 +14256,13 @@
         <v>0</v>
       </c>
       <c r="AA71" s="27" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="AB71" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AC71" s="27" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="AD71" s="30" t="s">
         <v>90</v>
@@ -14425,11 +14283,11 @@
       <c r="AJ71" s="15">
         <v>2</v>
       </c>
-      <c r="AK71" s="15">
-        <v>2</v>
+      <c r="AK71" s="14">
+        <v>3</v>
       </c>
       <c r="AL71" s="27" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="AM71" s="15">
         <v>0</v>
@@ -14440,7 +14298,7 @@
     </row>
     <row r="72" spans="1:40">
       <c r="A72" s="21" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="B72" s="15"/>
       <c r="C72" s="15">
@@ -14480,22 +14338,20 @@
         <v>2</v>
       </c>
       <c r="O72" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="P72" s="15">
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>6</v>
-      </c>
-      <c r="R72" s="15" t="s">
-        <v>244</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R72" s="23"/>
       <c r="S72" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T72" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="U72" s="15"/>
       <c r="V72" s="15"/>
@@ -14512,13 +14368,13 @@
         <v>0</v>
       </c>
       <c r="AA72" s="27" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="AB72" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AC72" s="27" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="AD72" s="29" t="s">
         <v>90</v>
@@ -14539,11 +14395,11 @@
       <c r="AJ72" s="14">
         <v>2</v>
       </c>
-      <c r="AK72" s="14">
-        <v>2</v>
+      <c r="AK72" s="15">
+        <v>3</v>
       </c>
       <c r="AL72" s="27" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="AM72" s="14">
         <v>0</v>
@@ -14554,7 +14410,7 @@
     </row>
     <row r="73" ht="14.25" spans="1:40">
       <c r="A73" s="21" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="B73" s="16"/>
       <c r="C73" s="16">
@@ -14594,22 +14450,20 @@
         <v>2</v>
       </c>
       <c r="O73" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="P73" s="16">
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>6</v>
-      </c>
-      <c r="R73" s="15" t="s">
-        <v>250</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R73" s="23"/>
       <c r="S73" s="23" t="s">
         <v>85</v>
       </c>
       <c r="T73" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="U73" s="16"/>
       <c r="V73" s="16"/>
@@ -14626,13 +14480,13 @@
         <v>0</v>
       </c>
       <c r="AA73" s="27" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="AB73" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AC73" s="27" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="AD73" s="30" t="s">
         <v>90</v>
@@ -14653,11 +14507,11 @@
       <c r="AJ73" s="15">
         <v>2</v>
       </c>
-      <c r="AK73" s="15">
-        <v>2</v>
+      <c r="AK73" s="14">
+        <v>3</v>
       </c>
       <c r="AL73" s="27" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="AM73" s="15">
         <v>0</v>
@@ -14698,100 +14552,100 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>535</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>544</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>552</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>556</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>557</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>558</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>560</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>561</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>562</v>
-      </c>
-      <c r="AE1" s="5" t="s">
-        <v>563</v>
-      </c>
-      <c r="AF1" s="5" t="s">
-        <v>564</v>
-      </c>
-      <c r="AG1" s="5" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="2" s="6" customFormat="1" spans="1:33">
@@ -15607,13 +15461,13 @@
         <v>51</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>55</v>
@@ -15625,73 +15479,73 @@
         <v>56</v>
       </c>
       <c r="H10" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="O10" s="8" t="s">
         <v>569</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="P10" s="8" t="s">
         <v>570</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="S10" s="8" t="s">
         <v>571</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="T10" s="8" t="s">
         <v>572</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="U10" s="8" t="s">
         <v>573</v>
       </c>
-      <c r="M10" s="8" t="s">
+      <c r="V10" s="8" t="s">
         <v>574</v>
       </c>
-      <c r="N10" s="8" t="s">
+      <c r="W10" s="8" t="s">
         <v>575</v>
       </c>
-      <c r="O10" s="8" t="s">
+      <c r="X10" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="Y10" s="8" t="s">
         <v>576</v>
       </c>
-      <c r="P10" s="8" t="s">
+      <c r="Z10" s="8" t="s">
         <v>577</v>
       </c>
-      <c r="S10" s="8" t="s">
+      <c r="AA10" s="8" t="s">
         <v>578</v>
       </c>
-      <c r="T10" s="8" t="s">
+      <c r="AB10" s="8" t="s">
         <v>579</v>
       </c>
-      <c r="U10" s="8" t="s">
+      <c r="AC10" s="8" t="s">
         <v>580</v>
       </c>
-      <c r="V10" s="8" t="s">
+      <c r="AD10" s="8" t="s">
         <v>581</v>
       </c>
-      <c r="W10" s="8" t="s">
+      <c r="AE10" s="8" t="s">
         <v>582</v>
       </c>
-      <c r="X10" s="8" t="s">
-        <v>582</v>
-      </c>
-      <c r="Y10" s="8" t="s">
+      <c r="AF10" s="8" t="s">
         <v>583</v>
-      </c>
-      <c r="Z10" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="AA10" s="8" t="s">
-        <v>585</v>
-      </c>
-      <c r="AB10" s="8" t="s">
-        <v>586</v>
-      </c>
-      <c r="AC10" s="8" t="s">
-        <v>587</v>
-      </c>
-      <c r="AD10" s="8" t="s">
-        <v>588</v>
-      </c>
-      <c r="AE10" s="8" t="s">
-        <v>589</v>
-      </c>
-      <c r="AF10" s="8" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -15783,12 +15637,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="B2" s="3">
         <v>8</v>
@@ -15796,7 +15650,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
@@ -15860,10 +15714,10 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
     </row>
     <row r="12" spans="1:2">

--- a/_Out/NFDataCfg/Excel/NPC.xlsx
+++ b/_Out/NFDataCfg/Excel/NPC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8805" activeTab="1"/>
+    <workbookView windowWidth="32460" windowHeight="20280"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -21,16 +21,8 @@
 </workbook>
 </file>
 
-<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Item" type="4" background="1" refreshedVersion="2" saveData="1">
-    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\Item.xml" htmlFormat="all" htmlTables="1"/>
-  </connection>
-</connections>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756">
   <si>
     <t>Id</t>
   </si>
@@ -281,7 +273,7 @@
     <t>Default</t>
   </si>
   <si>
-    <t>Prefabs/Object/Dwarf_Warrior</t>
+    <t>Prefabs/Object/NPC001</t>
   </si>
   <si>
     <t>Item_MP1</t>
@@ -296,43 +288,40 @@
     <t>ConsumeData_1</t>
   </si>
   <si>
+    <t>UIResources/HeroSprite</t>
+  </si>
+  <si>
+    <t>UI/Hero/hero_tx_mul</t>
+  </si>
+  <si>
+    <t>NPC001</t>
+  </si>
+  <si>
+    <t>Item_MP2</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>SKILL_PlantMonster_Normal</t>
+  </si>
+  <si>
+    <t>SKILL_PlantMonster_Attack</t>
+  </si>
+  <si>
+    <t>SKILL_PlantMonster_THUMP</t>
+  </si>
+  <si>
     <t>NameID_Orc_Slinger</t>
   </si>
   <si>
-    <t>UIResources/HeroSprite</t>
-  </si>
-  <si>
-    <t>UI/Hero/hero_tx_mul</t>
-  </si>
-  <si>
-    <t>NPC_PlantMonster-Red</t>
-  </si>
-  <si>
-    <t>Prefabs/Object/NPC_PlantMonster-Red</t>
-  </si>
-  <si>
-    <t>Item_MP2</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>SKILL_PlantMonster_Normal</t>
-  </si>
-  <si>
-    <t>SKILL_PlantMonster_Attack</t>
-  </si>
-  <si>
-    <t>SKILL_PlantMonster_THUMP</t>
-  </si>
-  <si>
-    <t>DescID_PlantMonster-Red</t>
-  </si>
-  <si>
-    <t>NPC_MushroomMonster-Pink</t>
-  </si>
-  <si>
-    <t>Prefabs/Object/NPC_MushroomMonster-Pink</t>
+    <t>DescID_NPC001</t>
+  </si>
+  <si>
+    <t>NPC002</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/NPC002</t>
   </si>
   <si>
     <t>Item_MP3</t>
@@ -341,22 +330,25 @@
     <t>92</t>
   </si>
   <si>
-    <t>SKILL_MushroomMonster_Normal</t>
-  </si>
-  <si>
-    <t>SKILL_MushroomMonster_Attack</t>
-  </si>
-  <si>
-    <t>SKILL_MushroomMonster_THUMP</t>
-  </si>
-  <si>
-    <t>DescID_MushroomMonster-Pink</t>
-  </si>
-  <si>
-    <t>NPC_MonsterHornet-Green</t>
-  </si>
-  <si>
-    <t>Prefabs/Object/NPC_MonsterHornet-Green</t>
+    <t>SKILL_NORMAL_NPC001</t>
+  </si>
+  <si>
+    <t>SKILL_ATTACK_NPC001</t>
+  </si>
+  <si>
+    <t>SKILL_THUMP_NPC001</t>
+  </si>
+  <si>
+    <t>NameID_NPC001</t>
+  </si>
+  <si>
+    <t>DescID_NPC002</t>
+  </si>
+  <si>
+    <t>NPC003</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/NPC003</t>
   </si>
   <si>
     <t>Item_MP4</t>
@@ -365,22 +357,25 @@
     <t>93</t>
   </si>
   <si>
-    <t>SKILL_MonsterHornet_Normal</t>
-  </si>
-  <si>
-    <t>SKILL_MonsterHornet_Attack</t>
-  </si>
-  <si>
-    <t>SKILL_MonsterHornet_THUMP</t>
-  </si>
-  <si>
-    <t>DescID_MonsterHornet-Green</t>
-  </si>
-  <si>
-    <t>NPC_MonsterCatBat-Purple</t>
-  </si>
-  <si>
-    <t>Prefabs/Object/NPC_MonsterCatBat-Purple</t>
+    <t>SKILL_NORMAL_NPC002</t>
+  </si>
+  <si>
+    <t>SKILL_ATTACK_NPC002</t>
+  </si>
+  <si>
+    <t>SKILL_THUMP_NPC002</t>
+  </si>
+  <si>
+    <t>NameID_NPC002</t>
+  </si>
+  <si>
+    <t>DescID_NPC003</t>
+  </si>
+  <si>
+    <t>NPC004</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/NPC004</t>
   </si>
   <si>
     <t>Item_MP5</t>
@@ -389,22 +384,25 @@
     <t>94</t>
   </si>
   <si>
-    <t>SKILL_MonsterCatBat_Normal</t>
-  </si>
-  <si>
-    <t>SKILL_MonsterCatBat_Attack</t>
-  </si>
-  <si>
-    <t>SKILL_MonsterCatBat_THUMP</t>
-  </si>
-  <si>
-    <t>DescID_MonsterCatBat-Purple</t>
-  </si>
-  <si>
-    <t>NPC_MaskedOrc-Green</t>
-  </si>
-  <si>
-    <t>Prefabs/Object/NPC_MaskedOrc-Green</t>
+    <t>SKILL_NORMAL_NPC003</t>
+  </si>
+  <si>
+    <t>SKILL_ATTACK_NPC003</t>
+  </si>
+  <si>
+    <t>SKILL_THUMP_NPC003</t>
+  </si>
+  <si>
+    <t>NameID_NPC003</t>
+  </si>
+  <si>
+    <t>DescID_NPC004</t>
+  </si>
+  <si>
+    <t>NPC005</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/NPC005</t>
   </si>
   <si>
     <t>Item_MP6</t>
@@ -413,22 +411,25 @@
     <t>95</t>
   </si>
   <si>
-    <t>SKILL_MaskedOrc_Normal</t>
-  </si>
-  <si>
-    <t>SKILL_MaskedOrc_Attack</t>
-  </si>
-  <si>
-    <t>SKILL_MaskedOrc_THUMP</t>
-  </si>
-  <si>
-    <t>DescID_MaskedOrc-Green</t>
-  </si>
-  <si>
-    <t>NPC_Magma_Demon-Orange</t>
-  </si>
-  <si>
-    <t>Prefabs/Object/NPC_MagmaDemon-Orange</t>
+    <t>SKILL_NORMAL_NPC004</t>
+  </si>
+  <si>
+    <t>SKILL_ATTACK_NPC004</t>
+  </si>
+  <si>
+    <t>SKILL_THUMP_NPC004</t>
+  </si>
+  <si>
+    <t>NameID_NPC004</t>
+  </si>
+  <si>
+    <t>DescID_NPC005</t>
+  </si>
+  <si>
+    <t>NPC006</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/NPC006</t>
   </si>
   <si>
     <t>Item_HP1</t>
@@ -437,25 +438,25 @@
     <t>96</t>
   </si>
   <si>
-    <t>SKILL_Magma_Demon_Normal</t>
-  </si>
-  <si>
-    <t>SKILL_Magma_Demon_Attack</t>
-  </si>
-  <si>
-    <t>SKILL_Magma_Demon_THUMP</t>
-  </si>
-  <si>
-    <t>NPC_MagmaDemon-Orange</t>
-  </si>
-  <si>
-    <t>DescID_Magma Demon-Orange</t>
-  </si>
-  <si>
-    <t>NPC_Magma_Demon-Blue</t>
-  </si>
-  <si>
-    <t>Prefabs/Object/NPC_MagmaDemon-Blue</t>
+    <t>SKILL_NORMAL_NPC005</t>
+  </si>
+  <si>
+    <t>SKILL_ATTACK_NPC005</t>
+  </si>
+  <si>
+    <t>SKILL_THUMP_NPC005</t>
+  </si>
+  <si>
+    <t>NameID_NPC005</t>
+  </si>
+  <si>
+    <t>DescID_NPC006</t>
+  </si>
+  <si>
+    <t>NPC007</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/NPC007</t>
   </si>
   <si>
     <t>Item_HP2</t>
@@ -464,16 +465,25 @@
     <t>97</t>
   </si>
   <si>
-    <t>NPC_MagmaDemon-Blue</t>
-  </si>
-  <si>
-    <t>DescID_Magma Demon-Blue</t>
-  </si>
-  <si>
-    <t>NPC_FlowerMonster-Red</t>
-  </si>
-  <si>
-    <t>Prefabs/Object/NPC_FlowerMonster-Red</t>
+    <t>SKILL_NORMAL_NPC006</t>
+  </si>
+  <si>
+    <t>SKILL_ATTACK_NPC006</t>
+  </si>
+  <si>
+    <t>SKILL_THUMP_NPC006</t>
+  </si>
+  <si>
+    <t>NameID_NPC006</t>
+  </si>
+  <si>
+    <t>DescID_NPC007</t>
+  </si>
+  <si>
+    <t>NPC008</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/NPC008</t>
   </si>
   <si>
     <t>Item_HP3</t>
@@ -482,22 +492,25 @@
     <t>98</t>
   </si>
   <si>
-    <t>SKILL_FlowerMonster_Normal</t>
-  </si>
-  <si>
-    <t>SKILL_FlowerMonster_Attack</t>
-  </si>
-  <si>
-    <t>SKILL_FlowerMonster_THUMP</t>
-  </si>
-  <si>
-    <t>DescID_FlowerMonster-Red</t>
-  </si>
-  <si>
-    <t>NPC_FlowerMonster-Blue</t>
-  </si>
-  <si>
-    <t>Prefabs/Object/NPC_FlowerMonster-Blue</t>
+    <t>SKILL_NORMAL_NPC007</t>
+  </si>
+  <si>
+    <t>SKILL_ATTACK_NPC007</t>
+  </si>
+  <si>
+    <t>SKILL_THUMP_NPC007</t>
+  </si>
+  <si>
+    <t>NameID_NPC007</t>
+  </si>
+  <si>
+    <t>DescID_NPC008</t>
+  </si>
+  <si>
+    <t>NPC009</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/NPC009</t>
   </si>
   <si>
     <t>Item_HP4</t>
@@ -506,13 +519,25 @@
     <t>99</t>
   </si>
   <si>
-    <t>DescID_FlowerMonster-Blue</t>
-  </si>
-  <si>
-    <t>NPC_CrawlingBug-Red</t>
-  </si>
-  <si>
-    <t>Prefabs/Object/NPC_CrawlingBug-Red</t>
+    <t>SKILL_NORMAL_NPC008</t>
+  </si>
+  <si>
+    <t>SKILL_ATTACK_NPC008</t>
+  </si>
+  <si>
+    <t>SKILL_THUMP_NPC008</t>
+  </si>
+  <si>
+    <t>NameID_NPC008</t>
+  </si>
+  <si>
+    <t>DescID_NPC009</t>
+  </si>
+  <si>
+    <t>NPC010</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/NPC010</t>
   </si>
   <si>
     <t>Item_HP5</t>
@@ -521,145 +546,613 @@
     <t>100</t>
   </si>
   <si>
-    <t>SKILL_CrawlingBug_Normal</t>
-  </si>
-  <si>
-    <t>SKILL_CrawlingBug_Attack</t>
-  </si>
-  <si>
-    <t>SKILL_CrawlingBug_THUMP</t>
-  </si>
-  <si>
-    <t>DescID_CrawlingBug-Red</t>
-  </si>
-  <si>
-    <t>NPC_CrawlingBug-Green</t>
-  </si>
-  <si>
-    <t>Prefabs/Object/NPC_CrawlingBug-Green</t>
-  </si>
-  <si>
-    <t>Item_HP6</t>
-  </si>
-  <si>
-    <t>DescID_CrawlingBug-Green</t>
-  </si>
-  <si>
-    <t>NPC_HERO_Orc_Slinger</t>
-  </si>
-  <si>
-    <t>Prefabs/Object/Hero_Orc_Slinger</t>
+    <t>SKILL_NORMAL_NPC009</t>
+  </si>
+  <si>
+    <t>SKILL_ATTACK_NPC009</t>
+  </si>
+  <si>
+    <t>SKILL_THUMP_NPC009</t>
+  </si>
+  <si>
+    <t>NameID_NPC009</t>
+  </si>
+  <si>
+    <t>DescID_NPC010</t>
+  </si>
+  <si>
+    <t>Hero001</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/Hero_001</t>
   </si>
   <si>
     <t>Item_ATK_Water_1</t>
   </si>
   <si>
-    <t>SKILL_Orc_Slinger_Normal</t>
-  </si>
-  <si>
-    <t>SKILL_Orc_Slinger_Attack</t>
-  </si>
-  <si>
-    <t>SKILL_Orc_Slinger_THUMP</t>
-  </si>
-  <si>
-    <t>Hero_Orc_Slinger</t>
-  </si>
-  <si>
-    <t>UIResources/HeroSprite/Orc_Slinger</t>
-  </si>
-  <si>
-    <t>DescID_Orc_Slinger</t>
-  </si>
-  <si>
-    <t>NPC_HERO_Dwarf_Warrior</t>
-  </si>
-  <si>
-    <t>Prefabs/Object/Hero_Dwarf_Warrior</t>
+    <t>SKILL_NORMAL_Hero001</t>
+  </si>
+  <si>
+    <t>SKILL_ATTACK_Hero001</t>
+  </si>
+  <si>
+    <t>SKILL_THUMP_Hero001</t>
+  </si>
+  <si>
+    <t>NameID_Hero001</t>
+  </si>
+  <si>
+    <t>Hero_001</t>
+  </si>
+  <si>
+    <t>UIResources/HeroSprite/Hero001</t>
+  </si>
+  <si>
+    <t>DescID_Hero001</t>
+  </si>
+  <si>
+    <t>Hero002</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/Hero_002</t>
   </si>
   <si>
     <t>Item_ATK_Water_2</t>
   </si>
   <si>
-    <t>SKILL_Dwarf_Warrior_Normal</t>
-  </si>
-  <si>
-    <t>SKILL_Dwarf_Warrior_Attack</t>
-  </si>
-  <si>
-    <t>SKILL_Dwarf_Warrior_THUMP</t>
-  </si>
-  <si>
-    <t>NameID_Dwarf_Warrior</t>
-  </si>
-  <si>
-    <t>Hero_Dwarf_Warrior</t>
-  </si>
-  <si>
-    <t>UIResources/HeroSprite/Dwarf_Warrior</t>
-  </si>
-  <si>
-    <t>DescID_Dwarf_Warrior</t>
-  </si>
-  <si>
-    <t>NPC_HERO_Wererat_Soldier</t>
-  </si>
-  <si>
-    <t>Prefabs/Object/Hero_Wererat_Soldier</t>
+    <t>SKILL_NORMAL_Hero002</t>
+  </si>
+  <si>
+    <t>SKILL_ATTACK_Hero002</t>
+  </si>
+  <si>
+    <t>SKILL_THUMP_Hero002</t>
+  </si>
+  <si>
+    <t>NameID_Hero002</t>
+  </si>
+  <si>
+    <t>Hero_002</t>
+  </si>
+  <si>
+    <t>UIResources/HeroSprite/Hero002</t>
+  </si>
+  <si>
+    <t>DescID_Hero002</t>
+  </si>
+  <si>
+    <t>Hero003</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/Hero_003</t>
   </si>
   <si>
     <t>Item_ATK_Water_3</t>
   </si>
   <si>
-    <t>SKILL_Wererat_Soldier_Normal</t>
-  </si>
-  <si>
-    <t>SKILL_Wererat_Soldier_Attack</t>
-  </si>
-  <si>
-    <t>SKILL_Wererat_Soldier_THUMP</t>
-  </si>
-  <si>
-    <t>NameID_Wererat_Soldier</t>
-  </si>
-  <si>
-    <t>Hero_Wererat_Soldier</t>
-  </si>
-  <si>
-    <t>UIResources/HeroSprite/Wererat_Soldier</t>
-  </si>
-  <si>
-    <t>DescID_Wererat_Soldier</t>
-  </si>
-  <si>
-    <t>NPC_HERO_Samurai</t>
-  </si>
-  <si>
-    <t>Prefabs/Object/Hero_Samurai</t>
+    <t>SKILL_NORMAL_Hero003</t>
+  </si>
+  <si>
+    <t>SKILL_ATTACK_Hero003</t>
+  </si>
+  <si>
+    <t>SKILL_THUMP_Hero003</t>
+  </si>
+  <si>
+    <t>NameID_Hero003</t>
+  </si>
+  <si>
+    <t>Hero_003</t>
+  </si>
+  <si>
+    <t>UIResources/HeroSprite/Hero003</t>
+  </si>
+  <si>
+    <t>DescID_Hero003</t>
+  </si>
+  <si>
+    <t>Hero004</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/Hero_004</t>
   </si>
   <si>
     <t>Item_ATK_Water_4</t>
   </si>
   <si>
-    <t>SKILL_Bristleback_Normal</t>
-  </si>
-  <si>
-    <t>SKILL_Bristleback_Attack</t>
-  </si>
-  <si>
-    <t>SKILL_Bristleback_THUMP</t>
-  </si>
-  <si>
-    <t>NameID_Samurai</t>
-  </si>
-  <si>
-    <t>Hero_Samurai</t>
-  </si>
-  <si>
-    <t>UIResources/HeroSprite/Hero_Samurai</t>
-  </si>
-  <si>
-    <t>DescID_Samurai</t>
+    <t>SKILL_NORMAL_Hero004</t>
+  </si>
+  <si>
+    <t>SKILL_ATTACK_Hero004</t>
+  </si>
+  <si>
+    <t>SKILL_THUMP_Hero004</t>
+  </si>
+  <si>
+    <t>NameID_Hero004</t>
+  </si>
+  <si>
+    <t>Hero_004</t>
+  </si>
+  <si>
+    <t>UIResources/HeroSprite/Hero004</t>
+  </si>
+  <si>
+    <t>DescID_Hero004</t>
+  </si>
+  <si>
+    <t>Hero005</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/Hero_005</t>
+  </si>
+  <si>
+    <t>Item_ATK_Water_5</t>
+  </si>
+  <si>
+    <t>SKILL_NORMAL_Hero005</t>
+  </si>
+  <si>
+    <t>SKILL_ATTACK_Hero005</t>
+  </si>
+  <si>
+    <t>SKILL_THUMP_Hero005</t>
+  </si>
+  <si>
+    <t>NameID_Hero005</t>
+  </si>
+  <si>
+    <t>Hero_005</t>
+  </si>
+  <si>
+    <t>UIResources/HeroSprite/Hero005</t>
+  </si>
+  <si>
+    <t>DescID_Hero005</t>
+  </si>
+  <si>
+    <t>Hero006</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/Hero_006</t>
+  </si>
+  <si>
+    <t>Item_ATK_Water_6</t>
+  </si>
+  <si>
+    <t>SKILL_NORMAL_Hero006</t>
+  </si>
+  <si>
+    <t>SKILL_ATTACK_Hero006</t>
+  </si>
+  <si>
+    <t>SKILL_THUMP_Hero006</t>
+  </si>
+  <si>
+    <t>NameID_Hero006</t>
+  </si>
+  <si>
+    <t>Hero_006</t>
+  </si>
+  <si>
+    <t>UIResources/HeroSprite/Hero006</t>
+  </si>
+  <si>
+    <t>DescID_Hero006</t>
+  </si>
+  <si>
+    <t>Hero007</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/Hero_007</t>
+  </si>
+  <si>
+    <t>Item_ATK_Water_7</t>
+  </si>
+  <si>
+    <t>SKILL_NORMAL_Hero007</t>
+  </si>
+  <si>
+    <t>SKILL_ATTACK_Hero007</t>
+  </si>
+  <si>
+    <t>SKILL_THUMP_Hero007</t>
+  </si>
+  <si>
+    <t>NameID_Hero007</t>
+  </si>
+  <si>
+    <t>Hero_007</t>
+  </si>
+  <si>
+    <t>UIResources/HeroSprite/Hero007</t>
+  </si>
+  <si>
+    <t>DescID_Hero007</t>
+  </si>
+  <si>
+    <t>Hero008</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/Hero_008</t>
+  </si>
+  <si>
+    <t>Item_ATK_Water_8</t>
+  </si>
+  <si>
+    <t>SKILL_NORMAL_Hero008</t>
+  </si>
+  <si>
+    <t>SKILL_ATTACK_Hero008</t>
+  </si>
+  <si>
+    <t>SKILL_THUMP_Hero008</t>
+  </si>
+  <si>
+    <t>NameID_Hero008</t>
+  </si>
+  <si>
+    <t>Hero_008</t>
+  </si>
+  <si>
+    <t>UIResources/HeroSprite/Hero008</t>
+  </si>
+  <si>
+    <t>DescID_Hero008</t>
+  </si>
+  <si>
+    <t>Hero009</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/Hero_009</t>
+  </si>
+  <si>
+    <t>Item_ATK_Water_9</t>
+  </si>
+  <si>
+    <t>SKILL_NORMAL_Hero009</t>
+  </si>
+  <si>
+    <t>SKILL_ATTACK_Hero009</t>
+  </si>
+  <si>
+    <t>SKILL_THUMP_Hero009</t>
+  </si>
+  <si>
+    <t>NameID_Hero009</t>
+  </si>
+  <si>
+    <t>Hero_009</t>
+  </si>
+  <si>
+    <t>UIResources/HeroSprite/Hero009</t>
+  </si>
+  <si>
+    <t>DescID_Hero009</t>
+  </si>
+  <si>
+    <t>Hero010</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/Hero_010</t>
+  </si>
+  <si>
+    <t>Item_ATK_Water_10</t>
+  </si>
+  <si>
+    <t>SKILL_NORMAL_Hero010</t>
+  </si>
+  <si>
+    <t>SKILL_ATTACK_Hero010</t>
+  </si>
+  <si>
+    <t>SKILL_THUMP_Hero010</t>
+  </si>
+  <si>
+    <t>NameID_Hero010</t>
+  </si>
+  <si>
+    <t>Hero_010</t>
+  </si>
+  <si>
+    <t>UIResources/HeroSprite/Hero010</t>
+  </si>
+  <si>
+    <t>DescID_Hero010</t>
+  </si>
+  <si>
+    <t>Hero011</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/Hero_011</t>
+  </si>
+  <si>
+    <t>Item_ATK_Water_11</t>
+  </si>
+  <si>
+    <t>SKILL_NORMAL_Hero011</t>
+  </si>
+  <si>
+    <t>SKILL_ATTACK_Hero011</t>
+  </si>
+  <si>
+    <t>SKILL_THUMP_Hero011</t>
+  </si>
+  <si>
+    <t>NameID_Hero011</t>
+  </si>
+  <si>
+    <t>Hero_011</t>
+  </si>
+  <si>
+    <t>UIResources/HeroSprite/Hero011</t>
+  </si>
+  <si>
+    <t>DescID_Hero011</t>
+  </si>
+  <si>
+    <t>Hero012</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/Hero_012</t>
+  </si>
+  <si>
+    <t>Item_ATK_Water_12</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>SKILL_NORMAL_Hero012</t>
+  </si>
+  <si>
+    <t>SKILL_ATTACK_Hero012</t>
+  </si>
+  <si>
+    <t>SKILL_THUMP_Hero012</t>
+  </si>
+  <si>
+    <t>NameID_Hero012</t>
+  </si>
+  <si>
+    <t>Hero_012</t>
+  </si>
+  <si>
+    <t>UIResources/HeroSprite/Hero012</t>
+  </si>
+  <si>
+    <t>DescID_Hero012</t>
+  </si>
+  <si>
+    <t>Hero013</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/Hero_013</t>
+  </si>
+  <si>
+    <t>Item_ATK_Water_13</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>SKILL_NORMAL_Hero013</t>
+  </si>
+  <si>
+    <t>SKILL_ATTACK_Hero013</t>
+  </si>
+  <si>
+    <t>SKILL_THUMP_Hero013</t>
+  </si>
+  <si>
+    <t>NameID_Hero013</t>
+  </si>
+  <si>
+    <t>Hero_013</t>
+  </si>
+  <si>
+    <t>UIResources/HeroSprite/Hero013</t>
+  </si>
+  <si>
+    <t>DescID_Hero013</t>
+  </si>
+  <si>
+    <t>Hero014</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/Hero_014</t>
+  </si>
+  <si>
+    <t>Item_ATK_Water_14</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>SKILL_NORMAL_Hero014</t>
+  </si>
+  <si>
+    <t>SKILL_ATTACK_Hero014</t>
+  </si>
+  <si>
+    <t>SKILL_THUMP_Hero014</t>
+  </si>
+  <si>
+    <t>NameID_Hero014</t>
+  </si>
+  <si>
+    <t>Hero_014</t>
+  </si>
+  <si>
+    <t>UIResources/HeroSprite/Hero014</t>
+  </si>
+  <si>
+    <t>DescID_Hero014</t>
+  </si>
+  <si>
+    <t>Hero015</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/Hero_015</t>
+  </si>
+  <si>
+    <t>Item_ATK_Water_15</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>SKILL_NORMAL_Hero015</t>
+  </si>
+  <si>
+    <t>SKILL_ATTACK_Hero015</t>
+  </si>
+  <si>
+    <t>SKILL_THUMP_Hero015</t>
+  </si>
+  <si>
+    <t>NameID_Hero015</t>
+  </si>
+  <si>
+    <t>Hero_015</t>
+  </si>
+  <si>
+    <t>UIResources/HeroSprite/Hero015</t>
+  </si>
+  <si>
+    <t>DescID_Hero015</t>
+  </si>
+  <si>
+    <t>Hero016</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/Hero_016</t>
+  </si>
+  <si>
+    <t>Item_ATK_Water_16</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>SKILL_NORMAL_Hero016</t>
+  </si>
+  <si>
+    <t>SKILL_ATTACK_Hero016</t>
+  </si>
+  <si>
+    <t>SKILL_THUMP_Hero016</t>
+  </si>
+  <si>
+    <t>NameID_Hero016</t>
+  </si>
+  <si>
+    <t>Hero_016</t>
+  </si>
+  <si>
+    <t>UIResources/HeroSprite/Hero016</t>
+  </si>
+  <si>
+    <t>DescID_Hero016</t>
+  </si>
+  <si>
+    <t>Hero017</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/Hero_017</t>
+  </si>
+  <si>
+    <t>Item_ATK_Water_17</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>SKILL_NORMAL_Hero017</t>
+  </si>
+  <si>
+    <t>SKILL_ATTACK_Hero017</t>
+  </si>
+  <si>
+    <t>SKILL_THUMP_Hero017</t>
+  </si>
+  <si>
+    <t>NameID_Hero017</t>
+  </si>
+  <si>
+    <t>Hero_017</t>
+  </si>
+  <si>
+    <t>UIResources/HeroSprite/Hero017</t>
+  </si>
+  <si>
+    <t>DescID_Hero017</t>
+  </si>
+  <si>
+    <t>Hero018</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/Hero_018</t>
+  </si>
+  <si>
+    <t>Item_ATK_Water_18</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>SKILL_NORMAL_Hero018</t>
+  </si>
+  <si>
+    <t>SKILL_ATTACK_Hero018</t>
+  </si>
+  <si>
+    <t>SKILL_THUMP_Hero018</t>
+  </si>
+  <si>
+    <t>NameID_Hero018</t>
+  </si>
+  <si>
+    <t>Hero_018</t>
+  </si>
+  <si>
+    <t>UIResources/HeroSprite/Hero018</t>
+  </si>
+  <si>
+    <t>DescID_Hero018</t>
+  </si>
+  <si>
+    <t>Hero019</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/Hero_019</t>
+  </si>
+  <si>
+    <t>Item_ATK_Water_19</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>SKILL_NORMAL_Hero019</t>
+  </si>
+  <si>
+    <t>SKILL_ATTACK_Hero019</t>
+  </si>
+  <si>
+    <t>SKILL_THUMP_Hero019</t>
+  </si>
+  <si>
+    <t>NameID_Hero019</t>
+  </si>
+  <si>
+    <t>Hero_019</t>
+  </si>
+  <si>
+    <t>UIResources/HeroSprite/Hero019</t>
+  </si>
+  <si>
+    <t>DescID_Hero019</t>
   </si>
   <si>
     <t>Building_NPC_town_1</t>
@@ -1805,11 +2298,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1845,12 +2338,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1864,7 +2375,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1874,29 +2392,6 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1910,6 +2405,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1924,30 +2442,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1962,22 +2465,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1985,8 +2472,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1994,7 +2482,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2063,7 +2551,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2075,13 +2689,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2093,151 +2719,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2406,21 +2894,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -2445,11 +2918,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2483,22 +2962,31 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2508,152 +2996,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2756,9 +3244,6 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2766,9 +3251,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -2780,13 +3262,19 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2795,69 +3283,60 @@
     <xf numFmtId="49" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
     <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -3217,49 +3696,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AN26"/>
+  <dimension ref="A1:AN40"/>
   <sheetViews>
-    <sheetView topLeftCell="AC1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="AH11" sqref="AH11:AH26"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22:A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="23.1666666666667" customWidth="1"/>
-    <col min="2" max="2" width="11.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="50.1538461538462" customWidth="1"/>
+    <col min="2" max="2" width="11.6634615384615" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="5" width="14.1666666666667" customWidth="1"/>
-    <col min="6" max="6" width="13.1666666666667" customWidth="1"/>
-    <col min="7" max="7" width="13.8333333333333" customWidth="1"/>
-    <col min="8" max="9" width="14.6666666666667" customWidth="1"/>
+    <col min="4" max="5" width="14.1634615384615" customWidth="1"/>
+    <col min="6" max="6" width="13.1634615384615" customWidth="1"/>
+    <col min="7" max="7" width="13.8365384615385" customWidth="1"/>
+    <col min="8" max="9" width="14.6634615384615" customWidth="1"/>
     <col min="10" max="10" width="21" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
     <col min="12" max="14" width="13" customWidth="1"/>
     <col min="15" max="15" width="47.5" customWidth="1"/>
-    <col min="16" max="16" width="14.6666666666667" customWidth="1"/>
-    <col min="17" max="17" width="13.6666666666667" customWidth="1"/>
+    <col min="16" max="16" width="14.6634615384615" customWidth="1"/>
+    <col min="17" max="17" width="13.6634615384615" customWidth="1"/>
     <col min="18" max="19" width="23" customWidth="1"/>
-    <col min="20" max="22" width="27" customWidth="1"/>
-    <col min="24" max="24" width="17.1666666666667" customWidth="1"/>
-    <col min="25" max="25" width="13.8333333333333" customWidth="1"/>
+    <col min="20" max="20" width="36.3076923076923" customWidth="1"/>
+    <col min="21" max="21" width="35.0769230769231" customWidth="1"/>
+    <col min="22" max="22" width="37" customWidth="1"/>
+    <col min="24" max="24" width="17.1634615384615" customWidth="1"/>
+    <col min="25" max="25" width="13.8365384615385" customWidth="1"/>
     <col min="26" max="26" width="20" customWidth="1"/>
     <col min="27" max="27" width="24" customWidth="1"/>
-    <col min="28" max="28" width="27.3333333333333" customWidth="1"/>
-    <col min="29" max="29" width="26.1666666666667" customWidth="1"/>
+    <col min="28" max="28" width="27.3365384615385" customWidth="1"/>
+    <col min="29" max="29" width="33.3269230769231" customWidth="1"/>
     <col min="30" max="30" width="36" customWidth="1"/>
     <col min="31" max="31" width="10" customWidth="1"/>
-    <col min="33" max="35" width="12.6666666666667" customWidth="1"/>
-    <col min="37" max="37" width="12.1666666666667" customWidth="1"/>
+    <col min="33" max="35" width="12.6634615384615" customWidth="1"/>
+    <col min="37" max="37" width="12.1634615384615" customWidth="1"/>
     <col min="38" max="38" width="25" customWidth="1"/>
-    <col min="39" max="39" width="11.8333333333333" customWidth="1"/>
-    <col min="40" max="40" width="21.1666666666667" customWidth="1"/>
+    <col min="39" max="39" width="11.8365384615385" customWidth="1"/>
+    <col min="40" max="40" width="21.1634615384615" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="15" spans="1:40">
+    <row r="1" s="5" customFormat="1" ht="34" spans="1:40">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -3381,7 +3862,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" s="6" customFormat="1" ht="15" spans="1:40">
+    <row r="2" s="6" customFormat="1" ht="17" spans="1:40">
       <c r="A2" s="10" t="s">
         <v>39</v>
       </c>
@@ -3503,7 +3984,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" s="6" customFormat="1" ht="15" spans="1:40">
+    <row r="3" s="6" customFormat="1" ht="17" spans="1:40">
       <c r="A3" s="10" t="s">
         <v>44</v>
       </c>
@@ -3625,7 +4106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" s="6" customFormat="1" ht="15" spans="1:40">
+    <row r="4" s="6" customFormat="1" ht="17" spans="1:40">
       <c r="A4" s="10" t="s">
         <v>45</v>
       </c>
@@ -3747,7 +4228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" s="6" customFormat="1" ht="15" spans="1:40">
+    <row r="5" s="6" customFormat="1" ht="17" spans="1:40">
       <c r="A5" s="10" t="s">
         <v>46</v>
       </c>
@@ -3869,7 +4350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="6" customFormat="1" ht="15" spans="1:40">
+    <row r="6" s="6" customFormat="1" ht="17" spans="1:40">
       <c r="A6" s="10" t="s">
         <v>47</v>
       </c>
@@ -3991,7 +4472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="7" customFormat="1" spans="1:40">
+    <row r="7" s="7" customFormat="1" ht="17" spans="1:40">
       <c r="A7" s="11" t="s">
         <v>48</v>
       </c>
@@ -4113,7 +4594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="7" customFormat="1" spans="1:40">
+    <row r="8" s="7" customFormat="1" ht="17" spans="1:40">
       <c r="A8" s="11" t="s">
         <v>49</v>
       </c>
@@ -4235,7 +4716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="7" customFormat="1" spans="1:40">
+    <row r="9" s="7" customFormat="1" ht="17" spans="1:40">
       <c r="A9" s="11" t="s">
         <v>50</v>
       </c>
@@ -4357,7 +4838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="8" customFormat="1" ht="81.75" spans="1:40">
+    <row r="10" s="8" customFormat="1" ht="68.75" spans="1:40">
       <c r="A10" s="12" t="s">
         <v>51</v>
       </c>
@@ -4464,7 +4945,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="1:40">
+    <row r="11" ht="17.55" spans="1:40">
       <c r="A11" s="13" t="s">
         <v>82</v>
       </c>
@@ -4513,13 +4994,13 @@
       <c r="Q11">
         <v>6</v>
       </c>
-      <c r="R11" s="35" t="s">
+      <c r="R11" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="S11" s="35" t="s">
+      <c r="S11" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="T11" s="36"/>
+      <c r="T11" s="35"/>
       <c r="W11">
         <v>2</v>
       </c>
@@ -4532,17 +5013,17 @@
       <c r="Z11">
         <v>0</v>
       </c>
-      <c r="AA11" s="43" t="s">
+      <c r="AA11" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB11" s="42" t="s">
         <v>88</v>
-      </c>
-      <c r="AB11" s="44" t="s">
-        <v>89</v>
       </c>
       <c r="AC11" s="13" t="s">
         <v>82</v>
       </c>
       <c r="AD11" s="45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AE11">
         <v>0</v>
@@ -4573,9 +5054,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="1:40">
+    <row r="12" ht="17.55" spans="1:40">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -4614,7 +5095,7 @@
         <v>2</v>
       </c>
       <c r="O12" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -4622,20 +5103,20 @@
       <c r="Q12">
         <v>6</v>
       </c>
-      <c r="R12" s="35" t="s">
+      <c r="R12" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="S12" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="T12" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="S12" s="35" t="s">
+      <c r="U12" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="T12" s="37" t="s">
+      <c r="V12" s="37" t="s">
         <v>95</v>
-      </c>
-      <c r="U12" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="V12" s="39" t="s">
-        <v>97</v>
       </c>
       <c r="W12">
         <v>2</v>
@@ -4650,16 +5131,16 @@
         <v>0</v>
       </c>
       <c r="AA12" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB12" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="AB12" s="44" t="s">
+      <c r="AC12" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD12" s="45" t="s">
         <v>89</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD12" s="45" t="s">
-        <v>90</v>
       </c>
       <c r="AE12">
         <v>0</v>
@@ -4681,18 +5162,18 @@
         <v>0</v>
       </c>
       <c r="AL12" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="17.55" spans="1:40">
+      <c r="A13" t="s">
         <v>98</v>
-      </c>
-      <c r="AM12">
-        <v>0</v>
-      </c>
-      <c r="AN12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" spans="1:40">
-      <c r="A13" t="s">
-        <v>99</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -4731,7 +5212,7 @@
         <v>2</v>
       </c>
       <c r="O13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -4739,20 +5220,20 @@
       <c r="Q13">
         <v>6</v>
       </c>
-      <c r="R13" s="35" t="s">
+      <c r="R13" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="S13" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="S13" s="35" t="s">
+      <c r="T13" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="T13" s="39" t="s">
+      <c r="U13" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="U13" s="39" t="s">
+      <c r="V13" s="37" t="s">
         <v>104</v>
-      </c>
-      <c r="V13" s="39" t="s">
-        <v>105</v>
       </c>
       <c r="W13">
         <v>2</v>
@@ -4767,16 +5248,16 @@
         <v>0</v>
       </c>
       <c r="AA13" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB13" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="AB13" s="44" t="s">
+      <c r="AC13" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD13" s="45" t="s">
         <v>89</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>99</v>
-      </c>
-      <c r="AD13" s="45" t="s">
-        <v>90</v>
       </c>
       <c r="AE13">
         <v>0</v>
@@ -4807,7 +5288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="1:40">
+    <row r="14" ht="17.55" spans="1:40">
       <c r="A14" t="s">
         <v>107</v>
       </c>
@@ -4856,19 +5337,19 @@
       <c r="Q14">
         <v>6</v>
       </c>
-      <c r="R14" s="35" t="s">
+      <c r="R14" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="S14" s="35" t="s">
+      <c r="S14" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="T14" s="39" t="s">
+      <c r="T14" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="U14" s="39" t="s">
+      <c r="U14" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="V14" s="39" t="s">
+      <c r="V14" s="37" t="s">
         <v>113</v>
       </c>
       <c r="W14">
@@ -4884,16 +5365,16 @@
         <v>0</v>
       </c>
       <c r="AA14" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB14" s="42" t="s">
         <v>88</v>
-      </c>
-      <c r="AB14" s="44" t="s">
-        <v>89</v>
       </c>
       <c r="AC14" t="s">
         <v>107</v>
       </c>
       <c r="AD14" s="45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AE14">
         <v>0</v>
@@ -4915,7 +5396,7 @@
         <v>0</v>
       </c>
       <c r="AL14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AM14">
         <v>0</v>
@@ -4924,9 +5405,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="1:40">
+    <row r="15" ht="17.55" spans="1:40">
       <c r="A15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -4965,7 +5446,7 @@
         <v>2</v>
       </c>
       <c r="O15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -4973,20 +5454,20 @@
       <c r="Q15">
         <v>6</v>
       </c>
-      <c r="R15" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="S15" s="35" t="s">
+      <c r="R15" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="T15" s="39" t="s">
+      <c r="S15" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="U15" s="39" t="s">
+      <c r="T15" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="V15" s="39" t="s">
+      <c r="U15" s="37" t="s">
         <v>121</v>
+      </c>
+      <c r="V15" s="37" t="s">
+        <v>122</v>
       </c>
       <c r="W15">
         <v>2</v>
@@ -5001,16 +5482,16 @@
         <v>0</v>
       </c>
       <c r="AA15" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB15" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="AB15" s="44" t="s">
+      <c r="AC15" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD15" s="45" t="s">
         <v>89</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD15" s="45" t="s">
-        <v>90</v>
       </c>
       <c r="AE15">
         <v>0</v>
@@ -5032,7 +5513,7 @@
         <v>0</v>
       </c>
       <c r="AL15" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AM15">
         <v>0</v>
@@ -5041,9 +5522,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="14.25" spans="1:40">
+    <row r="16" ht="17.55" spans="1:40">
       <c r="A16" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -5082,7 +5563,7 @@
         <v>2</v>
       </c>
       <c r="O16" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -5090,20 +5571,20 @@
       <c r="Q16">
         <v>6</v>
       </c>
-      <c r="R16" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="S16" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="T16" s="39" t="s">
+      <c r="R16" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="U16" s="39" t="s">
+      <c r="S16" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="V16" s="39" t="s">
+      <c r="T16" s="37" t="s">
         <v>129</v>
+      </c>
+      <c r="U16" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="V16" s="37" t="s">
+        <v>131</v>
       </c>
       <c r="W16">
         <v>2</v>
@@ -5118,16 +5599,16 @@
         <v>0</v>
       </c>
       <c r="AA16" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB16" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="AB16" s="44" t="s">
+      <c r="AC16" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD16" s="45" t="s">
         <v>89</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD16" s="45" t="s">
-        <v>90</v>
       </c>
       <c r="AE16">
         <v>0</v>
@@ -5149,7 +5630,7 @@
         <v>0</v>
       </c>
       <c r="AL16" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AM16">
         <v>0</v>
@@ -5158,9 +5639,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="14.25" spans="1:40">
+    <row r="17" ht="17.55" spans="1:40">
       <c r="A17" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -5199,7 +5680,7 @@
         <v>2</v>
       </c>
       <c r="O17" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -5207,20 +5688,20 @@
       <c r="Q17">
         <v>6</v>
       </c>
-      <c r="R17" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="S17" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="T17" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="U17" s="39" t="s">
+      <c r="R17" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="V17" s="39" t="s">
+      <c r="S17" s="34" t="s">
         <v>137</v>
+      </c>
+      <c r="T17" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="U17" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="V17" s="37" t="s">
+        <v>140</v>
       </c>
       <c r="W17">
         <v>2</v>
@@ -5235,16 +5716,16 @@
         <v>0</v>
       </c>
       <c r="AA17" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB17" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="AB17" s="44" t="s">
+      <c r="AC17" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD17" s="45" t="s">
         <v>89</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>138</v>
-      </c>
-      <c r="AD17" s="45" t="s">
-        <v>90</v>
       </c>
       <c r="AE17">
         <v>0</v>
@@ -5266,7 +5747,7 @@
         <v>0</v>
       </c>
       <c r="AL17" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AM17">
         <v>0</v>
@@ -5275,9 +5756,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" ht="14.25" spans="1:40">
+    <row r="18" ht="17.55" spans="1:40">
       <c r="A18" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -5316,7 +5797,7 @@
         <v>2</v>
       </c>
       <c r="O18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -5324,20 +5805,20 @@
       <c r="Q18">
         <v>6</v>
       </c>
-      <c r="R18" s="35" t="s">
-        <v>142</v>
-      </c>
-      <c r="S18" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="T18" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="U18" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="V18" s="39" t="s">
-        <v>137</v>
+      <c r="R18" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="S18" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="T18" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="U18" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="V18" s="37" t="s">
+        <v>149</v>
       </c>
       <c r="W18">
         <v>2</v>
@@ -5352,16 +5833,16 @@
         <v>0</v>
       </c>
       <c r="AA18" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB18" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="AB18" s="44" t="s">
+      <c r="AC18" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD18" s="45" t="s">
         <v>89</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD18" s="45" t="s">
-        <v>90</v>
       </c>
       <c r="AE18">
         <v>0</v>
@@ -5383,7 +5864,7 @@
         <v>0</v>
       </c>
       <c r="AL18" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="AM18">
         <v>0</v>
@@ -5392,9 +5873,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="14.25" spans="1:40">
+    <row r="19" ht="17.55" spans="1:40">
       <c r="A19" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -5433,7 +5914,7 @@
         <v>2</v>
       </c>
       <c r="O19" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -5441,20 +5922,20 @@
       <c r="Q19">
         <v>6</v>
       </c>
-      <c r="R19" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="S19" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="T19" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="U19" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="V19" s="39" t="s">
-        <v>152</v>
+      <c r="R19" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="S19" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="T19" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="U19" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="V19" s="37" t="s">
+        <v>158</v>
       </c>
       <c r="W19">
         <v>2</v>
@@ -5469,16 +5950,16 @@
         <v>0</v>
       </c>
       <c r="AA19" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB19" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="AB19" s="44" t="s">
+      <c r="AC19" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD19" s="45" t="s">
         <v>89</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>146</v>
-      </c>
-      <c r="AD19" s="45" t="s">
-        <v>90</v>
       </c>
       <c r="AE19">
         <v>0</v>
@@ -5500,7 +5981,7 @@
         <v>0</v>
       </c>
       <c r="AL19" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="AM19">
         <v>0</v>
@@ -5509,9 +5990,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" ht="14.25" spans="1:40">
+    <row r="20" ht="17.55" spans="1:40">
       <c r="A20" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -5550,7 +6031,7 @@
         <v>2</v>
       </c>
       <c r="O20" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -5558,20 +6039,20 @@
       <c r="Q20">
         <v>6</v>
       </c>
-      <c r="R20" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="S20" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="T20" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="U20" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="V20" s="39" t="s">
-        <v>152</v>
+      <c r="R20" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="S20" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="T20" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="U20" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="V20" s="37" t="s">
+        <v>167</v>
       </c>
       <c r="W20">
         <v>2</v>
@@ -5586,16 +6067,16 @@
         <v>0</v>
       </c>
       <c r="AA20" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB20" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="AB20" s="44" t="s">
+      <c r="AC20" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD20" s="45" t="s">
         <v>89</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>154</v>
-      </c>
-      <c r="AD20" s="45" t="s">
-        <v>90</v>
       </c>
       <c r="AE20">
         <v>0</v>
@@ -5617,7 +6098,7 @@
         <v>0</v>
       </c>
       <c r="AL20" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="AM20">
         <v>0</v>
@@ -5626,9 +6107,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" ht="14.25" spans="1:40">
+    <row r="21" ht="17.55" spans="1:40">
       <c r="A21" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -5667,7 +6148,7 @@
         <v>2</v>
       </c>
       <c r="O21" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -5675,20 +6156,20 @@
       <c r="Q21">
         <v>6</v>
       </c>
-      <c r="R21" s="35" t="s">
-        <v>161</v>
-      </c>
-      <c r="S21" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="T21" s="39" t="s">
-        <v>163</v>
-      </c>
-      <c r="U21" s="39" t="s">
-        <v>164</v>
-      </c>
-      <c r="V21" s="39" t="s">
-        <v>165</v>
+      <c r="R21" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="S21" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="T21" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="U21" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="V21" s="37" t="s">
+        <v>176</v>
       </c>
       <c r="W21">
         <v>2</v>
@@ -5703,16 +6184,16 @@
         <v>0</v>
       </c>
       <c r="AA21" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB21" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="AB21" s="44" t="s">
+      <c r="AC21" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD21" s="45" t="s">
         <v>89</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>159</v>
-      </c>
-      <c r="AD21" s="45" t="s">
-        <v>90</v>
       </c>
       <c r="AE21">
         <v>0</v>
@@ -5734,7 +6215,7 @@
         <v>0</v>
       </c>
       <c r="AL21" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="AM21">
         <v>0</v>
@@ -5743,128 +6224,128 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" ht="14.25" spans="1:40">
-      <c r="A22" t="s">
-        <v>167</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>11</v>
-      </c>
-      <c r="E22">
+    <row r="22" s="31" customFormat="1" ht="17.55" spans="1:40">
+      <c r="A22" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="C22" s="31">
+        <v>0</v>
+      </c>
+      <c r="D22" s="31">
         <v>100</v>
       </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>2</v>
-      </c>
-      <c r="O22" t="s">
-        <v>168</v>
-      </c>
-      <c r="P22">
+      <c r="E22" s="31">
+        <v>100</v>
+      </c>
+      <c r="F22" s="31">
+        <v>0</v>
+      </c>
+      <c r="G22" s="31">
+        <v>0</v>
+      </c>
+      <c r="H22" s="31">
+        <v>0</v>
+      </c>
+      <c r="I22" s="31">
+        <v>0</v>
+      </c>
+      <c r="J22" s="31">
+        <v>0</v>
+      </c>
+      <c r="K22" s="31">
+        <v>0</v>
+      </c>
+      <c r="L22" s="31">
+        <v>0</v>
+      </c>
+      <c r="M22" s="31">
+        <v>0</v>
+      </c>
+      <c r="N22" s="31">
+        <v>2</v>
+      </c>
+      <c r="O22" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="P22" s="31">
         <v>0</v>
       </c>
       <c r="Q22">
         <v>6</v>
       </c>
-      <c r="R22" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="S22" s="35" t="s">
-        <v>162</v>
+      <c r="R22" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="S22" s="38" t="s">
+        <v>85</v>
       </c>
       <c r="T22" s="39" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="U22" s="39" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="V22" s="39" t="s">
-        <v>165</v>
-      </c>
-      <c r="W22">
-        <v>2</v>
-      </c>
-      <c r="X22" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="W22" s="31">
+        <v>2</v>
+      </c>
+      <c r="X22" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Y22" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="Z22">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="43" t="s">
+      <c r="Z22" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB22" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="AB22" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD22" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE22">
-        <v>0</v>
-      </c>
-      <c r="AF22">
-        <v>0</v>
-      </c>
-      <c r="AG22">
-        <v>0</v>
-      </c>
-      <c r="AH22" s="15"/>
-      <c r="AI22">
-        <v>0</v>
-      </c>
-      <c r="AJ22">
-        <v>0</v>
-      </c>
-      <c r="AK22">
-        <v>0</v>
-      </c>
-      <c r="AL22" s="49" t="s">
-        <v>170</v>
-      </c>
-      <c r="AM22">
-        <v>0</v>
-      </c>
-      <c r="AN22">
+      <c r="AC22" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD22" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE22" s="31">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="31">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="31">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="14"/>
+      <c r="AI22" s="31">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="31">
+        <v>1</v>
+      </c>
+      <c r="AK22" s="31">
+        <v>1</v>
+      </c>
+      <c r="AL22" s="47" t="s">
+        <v>188</v>
+      </c>
+      <c r="AM22" s="31">
+        <v>1</v>
+      </c>
+      <c r="AN22" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="23" s="31" customFormat="1" ht="14.25" spans="1:40">
+    <row r="23" s="32" customFormat="1" ht="17.55" spans="1:40">
       <c r="A23" s="33" t="s">
-        <v>171</v>
-      </c>
-      <c r="C23" s="31">
+        <v>189</v>
+      </c>
+      <c r="C23" s="32">
         <v>0</v>
       </c>
       <c r="D23" s="31">
@@ -5873,113 +6354,113 @@
       <c r="E23" s="31">
         <v>100</v>
       </c>
-      <c r="F23" s="31">
-        <v>0</v>
-      </c>
-      <c r="G23" s="31">
-        <v>0</v>
-      </c>
-      <c r="H23" s="31">
-        <v>0</v>
-      </c>
-      <c r="I23" s="31">
-        <v>0</v>
-      </c>
-      <c r="J23" s="31">
-        <v>0</v>
-      </c>
-      <c r="K23" s="31">
-        <v>0</v>
-      </c>
-      <c r="L23" s="31">
-        <v>0</v>
-      </c>
-      <c r="M23" s="31">
+      <c r="F23" s="32">
+        <v>0</v>
+      </c>
+      <c r="G23" s="32">
+        <v>0</v>
+      </c>
+      <c r="H23" s="32">
+        <v>0</v>
+      </c>
+      <c r="I23" s="32">
+        <v>0</v>
+      </c>
+      <c r="J23" s="32">
+        <v>0</v>
+      </c>
+      <c r="K23" s="32">
+        <v>0</v>
+      </c>
+      <c r="L23" s="32">
+        <v>0</v>
+      </c>
+      <c r="M23" s="32">
         <v>0</v>
       </c>
       <c r="N23" s="31">
         <v>2</v>
       </c>
       <c r="O23" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="P23" s="31">
-        <v>0</v>
+        <v>190</v>
+      </c>
+      <c r="P23" s="32">
+        <v>1</v>
       </c>
       <c r="Q23">
         <v>6</v>
       </c>
-      <c r="R23" s="40" t="s">
-        <v>173</v>
-      </c>
-      <c r="S23" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="T23" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="U23" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="V23" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="W23" s="31">
-        <v>2</v>
-      </c>
-      <c r="X23" s="42" t="s">
+      <c r="R23" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="S23" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="T23" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="U23" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="V23" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="W23" s="32">
+        <v>2</v>
+      </c>
+      <c r="X23" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="Y23" s="31" t="s">
+      <c r="Y23" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="Z23" s="31">
+      <c r="Z23" s="32">
         <v>0</v>
       </c>
       <c r="AA23" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="AB23" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="AB23" s="44" t="s">
-        <v>89</v>
-      </c>
       <c r="AC23" s="46" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="AD23" s="31" t="s">
-        <v>178</v>
-      </c>
-      <c r="AE23" s="31">
-        <v>0</v>
-      </c>
-      <c r="AF23" s="31">
-        <v>0</v>
-      </c>
-      <c r="AG23" s="31">
-        <v>0</v>
-      </c>
-      <c r="AH23" s="14"/>
-      <c r="AI23" s="31">
-        <v>0</v>
-      </c>
-      <c r="AJ23" s="31">
-        <v>1</v>
-      </c>
-      <c r="AK23" s="31">
-        <v>1</v>
-      </c>
-      <c r="AL23" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="AM23" s="31">
-        <v>1</v>
-      </c>
-      <c r="AN23" s="31">
+        <v>197</v>
+      </c>
+      <c r="AE23" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="32">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="15"/>
+      <c r="AI23" s="32">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="32">
+        <v>1</v>
+      </c>
+      <c r="AK23" s="32">
+        <v>1</v>
+      </c>
+      <c r="AL23" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="AM23" s="32">
+        <v>1</v>
+      </c>
+      <c r="AN23" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="24" s="32" customFormat="1" ht="14.25" spans="1:40">
-      <c r="A24" s="34" t="s">
-        <v>180</v>
+    <row r="24" s="32" customFormat="1" ht="17.55" spans="1:40">
+      <c r="A24" s="33" t="s">
+        <v>199</v>
       </c>
       <c r="C24" s="32">
         <v>0</v>
@@ -6017,34 +6498,34 @@
       <c r="N24" s="31">
         <v>2</v>
       </c>
-      <c r="O24" s="32" t="s">
-        <v>181</v>
+      <c r="O24" s="31" t="s">
+        <v>200</v>
       </c>
       <c r="P24" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>6</v>
       </c>
-      <c r="R24" s="40" t="s">
-        <v>182</v>
-      </c>
-      <c r="S24" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="T24" s="32" t="s">
-        <v>183</v>
-      </c>
-      <c r="U24" s="32" t="s">
-        <v>184</v>
-      </c>
-      <c r="V24" s="32" t="s">
-        <v>185</v>
+      <c r="R24" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="S24" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="T24" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="U24" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="V24" s="39" t="s">
+        <v>204</v>
       </c>
       <c r="W24" s="32">
         <v>2</v>
       </c>
-      <c r="X24" s="42" t="s">
+      <c r="X24" s="41" t="s">
         <v>86</v>
       </c>
       <c r="Y24" s="32" t="s">
@@ -6053,17 +6534,17 @@
       <c r="Z24" s="32">
         <v>0</v>
       </c>
-      <c r="AA24" s="32" t="s">
-        <v>186</v>
-      </c>
-      <c r="AB24" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC24" s="48" t="s">
-        <v>187</v>
-      </c>
-      <c r="AD24" s="32" t="s">
-        <v>188</v>
+      <c r="AA24" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB24" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC24" s="46" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD24" s="31" t="s">
+        <v>207</v>
       </c>
       <c r="AE24" s="32">
         <v>0</v>
@@ -6074,7 +6555,7 @@
       <c r="AG24" s="32">
         <v>0</v>
       </c>
-      <c r="AH24" s="15"/>
+      <c r="AH24" s="14"/>
       <c r="AI24" s="32">
         <v>0</v>
       </c>
@@ -6084,8 +6565,8 @@
       <c r="AK24" s="32">
         <v>1</v>
       </c>
-      <c r="AL24" s="34" t="s">
-        <v>189</v>
+      <c r="AL24" s="47" t="s">
+        <v>208</v>
       </c>
       <c r="AM24" s="32">
         <v>1</v>
@@ -6094,9 +6575,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" s="32" customFormat="1" ht="14.25" spans="1:40">
-      <c r="A25" s="34" t="s">
-        <v>190</v>
+    <row r="25" s="32" customFormat="1" ht="17.55" spans="1:40">
+      <c r="A25" s="33" t="s">
+        <v>209</v>
       </c>
       <c r="C25" s="32">
         <v>0</v>
@@ -6134,8 +6615,8 @@
       <c r="N25" s="31">
         <v>2</v>
       </c>
-      <c r="O25" s="32" t="s">
-        <v>191</v>
+      <c r="O25" s="31" t="s">
+        <v>210</v>
       </c>
       <c r="P25" s="32">
         <v>0</v>
@@ -6143,25 +6624,25 @@
       <c r="Q25">
         <v>6</v>
       </c>
-      <c r="R25" s="40" t="s">
-        <v>192</v>
-      </c>
-      <c r="S25" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="T25" s="32" t="s">
-        <v>193</v>
-      </c>
-      <c r="U25" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="V25" s="32" t="s">
-        <v>195</v>
+      <c r="R25" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="S25" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="T25" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="U25" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="V25" s="39" t="s">
+        <v>214</v>
       </c>
       <c r="W25" s="32">
         <v>2</v>
       </c>
-      <c r="X25" s="42" t="s">
+      <c r="X25" s="41" t="s">
         <v>86</v>
       </c>
       <c r="Y25" s="32" t="s">
@@ -6170,17 +6651,17 @@
       <c r="Z25" s="32">
         <v>0</v>
       </c>
-      <c r="AA25" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="AB25" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC25" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD25" s="32" t="s">
-        <v>198</v>
+      <c r="AA25" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="AB25" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC25" s="46" t="s">
+        <v>216</v>
+      </c>
+      <c r="AD25" s="31" t="s">
+        <v>217</v>
       </c>
       <c r="AE25" s="32">
         <v>0</v>
@@ -6191,7 +6672,7 @@
       <c r="AG25" s="32">
         <v>0</v>
       </c>
-      <c r="AH25" s="14"/>
+      <c r="AH25" s="15"/>
       <c r="AI25" s="32">
         <v>0</v>
       </c>
@@ -6201,8 +6682,8 @@
       <c r="AK25" s="32">
         <v>1</v>
       </c>
-      <c r="AL25" s="34" t="s">
-        <v>199</v>
+      <c r="AL25" s="47" t="s">
+        <v>218</v>
       </c>
       <c r="AM25" s="32">
         <v>1</v>
@@ -6211,11 +6692,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" s="32" customFormat="1" spans="1:40">
-      <c r="A26" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="C26" s="32">
+    <row r="26" ht="17.55" spans="1:40">
+      <c r="A26" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31">
         <v>0</v>
       </c>
       <c r="D26" s="31">
@@ -6224,107 +6706,1759 @@
       <c r="E26" s="31">
         <v>100</v>
       </c>
-      <c r="F26" s="32">
-        <v>0</v>
-      </c>
-      <c r="G26" s="32">
-        <v>0</v>
-      </c>
-      <c r="H26" s="32">
-        <v>0</v>
-      </c>
-      <c r="I26" s="32">
-        <v>0</v>
-      </c>
-      <c r="J26" s="32">
-        <v>0</v>
-      </c>
-      <c r="K26" s="32">
-        <v>0</v>
-      </c>
-      <c r="L26" s="32">
-        <v>0</v>
-      </c>
-      <c r="M26" s="32">
+      <c r="F26" s="31">
+        <v>0</v>
+      </c>
+      <c r="G26" s="31">
+        <v>0</v>
+      </c>
+      <c r="H26" s="31">
+        <v>0</v>
+      </c>
+      <c r="I26" s="31">
+        <v>0</v>
+      </c>
+      <c r="J26" s="31">
+        <v>0</v>
+      </c>
+      <c r="K26" s="31">
+        <v>0</v>
+      </c>
+      <c r="L26" s="31">
+        <v>0</v>
+      </c>
+      <c r="M26" s="31">
         <v>0</v>
       </c>
       <c r="N26" s="31">
         <v>2</v>
       </c>
-      <c r="O26" s="32" t="s">
-        <v>201</v>
-      </c>
-      <c r="P26" s="32">
+      <c r="O26" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="P26" s="31">
         <v>0</v>
       </c>
       <c r="Q26">
         <v>6</v>
       </c>
-      <c r="R26" s="40" t="s">
-        <v>202</v>
-      </c>
-      <c r="S26" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="T26" s="32" t="s">
-        <v>203</v>
-      </c>
-      <c r="U26" s="32" t="s">
-        <v>204</v>
-      </c>
-      <c r="V26" s="32" t="s">
-        <v>205</v>
-      </c>
-      <c r="W26" s="32">
-        <v>2</v>
-      </c>
-      <c r="X26" s="42" t="s">
+      <c r="R26" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="S26" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="T26" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="U26" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="V26" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="W26" s="31">
+        <v>2</v>
+      </c>
+      <c r="X26" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="Y26" s="32" t="s">
+      <c r="Y26" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="Z26" s="32">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="AB26" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC26" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="AD26" s="32" t="s">
-        <v>208</v>
-      </c>
-      <c r="AE26" s="32">
-        <v>0</v>
-      </c>
-      <c r="AF26" s="32">
-        <v>0</v>
-      </c>
-      <c r="AG26" s="32">
-        <v>0</v>
-      </c>
-      <c r="AH26" s="15"/>
-      <c r="AI26" s="32">
-        <v>0</v>
-      </c>
-      <c r="AJ26" s="32">
-        <v>1</v>
-      </c>
-      <c r="AK26" s="32">
-        <v>1</v>
-      </c>
-      <c r="AL26" s="50" t="s">
-        <v>209</v>
-      </c>
-      <c r="AM26" s="32">
-        <v>1</v>
-      </c>
-      <c r="AN26" s="32">
+      <c r="Z26" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="AB26" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC26" s="46" t="s">
+        <v>226</v>
+      </c>
+      <c r="AD26" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="AE26" s="31">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="31">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="31">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="14"/>
+      <c r="AI26" s="31">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="31">
+        <v>1</v>
+      </c>
+      <c r="AK26" s="31">
+        <v>1</v>
+      </c>
+      <c r="AL26" s="47" t="s">
+        <v>228</v>
+      </c>
+      <c r="AM26" s="31">
+        <v>1</v>
+      </c>
+      <c r="AN26" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" ht="17.55" spans="1:40">
+      <c r="A27" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32">
+        <v>0</v>
+      </c>
+      <c r="D27" s="31">
+        <v>100</v>
+      </c>
+      <c r="E27" s="31">
+        <v>100</v>
+      </c>
+      <c r="F27" s="32">
+        <v>0</v>
+      </c>
+      <c r="G27" s="32">
+        <v>0</v>
+      </c>
+      <c r="H27" s="32">
+        <v>0</v>
+      </c>
+      <c r="I27" s="32">
+        <v>0</v>
+      </c>
+      <c r="J27" s="32">
+        <v>0</v>
+      </c>
+      <c r="K27" s="32">
+        <v>0</v>
+      </c>
+      <c r="L27" s="32">
+        <v>0</v>
+      </c>
+      <c r="M27" s="32">
+        <v>0</v>
+      </c>
+      <c r="N27" s="31">
+        <v>2</v>
+      </c>
+      <c r="O27" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="P27" s="32">
+        <v>-0.1</v>
+      </c>
+      <c r="Q27">
+        <v>6</v>
+      </c>
+      <c r="R27" s="38" t="s">
+        <v>231</v>
+      </c>
+      <c r="S27" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="T27" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="U27" s="39" t="s">
+        <v>233</v>
+      </c>
+      <c r="V27" s="39" t="s">
+        <v>234</v>
+      </c>
+      <c r="W27" s="32">
+        <v>2</v>
+      </c>
+      <c r="X27" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y27" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z27" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="AB27" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC27" s="46" t="s">
+        <v>236</v>
+      </c>
+      <c r="AD27" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="AE27" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="32">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="15"/>
+      <c r="AI27" s="32">
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="32">
+        <v>1</v>
+      </c>
+      <c r="AK27" s="32">
+        <v>1</v>
+      </c>
+      <c r="AL27" s="47" t="s">
+        <v>238</v>
+      </c>
+      <c r="AM27" s="32">
+        <v>1</v>
+      </c>
+      <c r="AN27" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" ht="17.55" spans="1:40">
+      <c r="A28" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32">
+        <v>0</v>
+      </c>
+      <c r="D28" s="31">
+        <v>100</v>
+      </c>
+      <c r="E28" s="31">
+        <v>100</v>
+      </c>
+      <c r="F28" s="32">
+        <v>0</v>
+      </c>
+      <c r="G28" s="32">
+        <v>0</v>
+      </c>
+      <c r="H28" s="32">
+        <v>0</v>
+      </c>
+      <c r="I28" s="32">
+        <v>0</v>
+      </c>
+      <c r="J28" s="32">
+        <v>0</v>
+      </c>
+      <c r="K28" s="32">
+        <v>0</v>
+      </c>
+      <c r="L28" s="32">
+        <v>0</v>
+      </c>
+      <c r="M28" s="32">
+        <v>0</v>
+      </c>
+      <c r="N28" s="31">
+        <v>2</v>
+      </c>
+      <c r="O28" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="P28" s="32">
+        <v>-0.2</v>
+      </c>
+      <c r="Q28">
+        <v>6</v>
+      </c>
+      <c r="R28" s="38" t="s">
+        <v>241</v>
+      </c>
+      <c r="S28" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="T28" s="39" t="s">
+        <v>242</v>
+      </c>
+      <c r="U28" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="V28" s="39" t="s">
+        <v>244</v>
+      </c>
+      <c r="W28" s="32">
+        <v>2</v>
+      </c>
+      <c r="X28" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y28" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z28" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="AB28" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC28" s="46" t="s">
+        <v>246</v>
+      </c>
+      <c r="AD28" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="AE28" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="32">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="14"/>
+      <c r="AI28" s="32">
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="32">
+        <v>1</v>
+      </c>
+      <c r="AK28" s="32">
+        <v>1</v>
+      </c>
+      <c r="AL28" s="47" t="s">
+        <v>248</v>
+      </c>
+      <c r="AM28" s="32">
+        <v>1</v>
+      </c>
+      <c r="AN28" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" ht="17.55" spans="1:40">
+      <c r="A29" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32">
+        <v>0</v>
+      </c>
+      <c r="D29" s="31">
+        <v>100</v>
+      </c>
+      <c r="E29" s="31">
+        <v>100</v>
+      </c>
+      <c r="F29" s="32">
+        <v>0</v>
+      </c>
+      <c r="G29" s="32">
+        <v>0</v>
+      </c>
+      <c r="H29" s="32">
+        <v>0</v>
+      </c>
+      <c r="I29" s="32">
+        <v>0</v>
+      </c>
+      <c r="J29" s="32">
+        <v>0</v>
+      </c>
+      <c r="K29" s="32">
+        <v>0</v>
+      </c>
+      <c r="L29" s="32">
+        <v>0</v>
+      </c>
+      <c r="M29" s="32">
+        <v>0</v>
+      </c>
+      <c r="N29" s="31">
+        <v>2</v>
+      </c>
+      <c r="O29" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="P29" s="32">
+        <v>-0.3</v>
+      </c>
+      <c r="Q29">
+        <v>6</v>
+      </c>
+      <c r="R29" s="38" t="s">
+        <v>251</v>
+      </c>
+      <c r="S29" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="T29" s="39" t="s">
+        <v>252</v>
+      </c>
+      <c r="U29" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="V29" s="39" t="s">
+        <v>254</v>
+      </c>
+      <c r="W29" s="32">
+        <v>2</v>
+      </c>
+      <c r="X29" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y29" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z29" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="AB29" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC29" s="46" t="s">
+        <v>256</v>
+      </c>
+      <c r="AD29" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="AE29" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="32">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="15"/>
+      <c r="AI29" s="32">
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="32">
+        <v>1</v>
+      </c>
+      <c r="AK29" s="32">
+        <v>1</v>
+      </c>
+      <c r="AL29" s="47" t="s">
+        <v>258</v>
+      </c>
+      <c r="AM29" s="32">
+        <v>1</v>
+      </c>
+      <c r="AN29" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" ht="17.55" spans="1:40">
+      <c r="A30" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31">
+        <v>0</v>
+      </c>
+      <c r="D30" s="31">
+        <v>100</v>
+      </c>
+      <c r="E30" s="31">
+        <v>100</v>
+      </c>
+      <c r="F30" s="31">
+        <v>0</v>
+      </c>
+      <c r="G30" s="31">
+        <v>0</v>
+      </c>
+      <c r="H30" s="31">
+        <v>0</v>
+      </c>
+      <c r="I30" s="31">
+        <v>0</v>
+      </c>
+      <c r="J30" s="31">
+        <v>0</v>
+      </c>
+      <c r="K30" s="31">
+        <v>0</v>
+      </c>
+      <c r="L30" s="31">
+        <v>0</v>
+      </c>
+      <c r="M30" s="31">
+        <v>0</v>
+      </c>
+      <c r="N30" s="31">
+        <v>2</v>
+      </c>
+      <c r="O30" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="P30" s="31">
+        <v>-0.4</v>
+      </c>
+      <c r="Q30">
+        <v>6</v>
+      </c>
+      <c r="R30" s="38" t="s">
+        <v>261</v>
+      </c>
+      <c r="S30" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="T30" s="39" t="s">
+        <v>262</v>
+      </c>
+      <c r="U30" s="39" t="s">
+        <v>263</v>
+      </c>
+      <c r="V30" s="39" t="s">
+        <v>264</v>
+      </c>
+      <c r="W30" s="31">
+        <v>2</v>
+      </c>
+      <c r="X30" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y30" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z30" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="AB30" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC30" s="46" t="s">
+        <v>266</v>
+      </c>
+      <c r="AD30" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE30" s="31">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="31">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="31">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="14"/>
+      <c r="AI30" s="31">
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="31">
+        <v>1</v>
+      </c>
+      <c r="AK30" s="31">
+        <v>1</v>
+      </c>
+      <c r="AL30" s="47" t="s">
+        <v>268</v>
+      </c>
+      <c r="AM30" s="31">
+        <v>1</v>
+      </c>
+      <c r="AN30" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" ht="17.55" spans="1:40">
+      <c r="A31" s="33" t="s">
+        <v>269</v>
+      </c>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32">
+        <v>0</v>
+      </c>
+      <c r="D31" s="31">
+        <v>100</v>
+      </c>
+      <c r="E31" s="31">
+        <v>100</v>
+      </c>
+      <c r="F31" s="32">
+        <v>0</v>
+      </c>
+      <c r="G31" s="32">
+        <v>0</v>
+      </c>
+      <c r="H31" s="32">
+        <v>0</v>
+      </c>
+      <c r="I31" s="32">
+        <v>0</v>
+      </c>
+      <c r="J31" s="32">
+        <v>0</v>
+      </c>
+      <c r="K31" s="32">
+        <v>0</v>
+      </c>
+      <c r="L31" s="32">
+        <v>0</v>
+      </c>
+      <c r="M31" s="32">
+        <v>0</v>
+      </c>
+      <c r="N31" s="31">
+        <v>2</v>
+      </c>
+      <c r="O31" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="P31" s="32">
+        <v>-0.5</v>
+      </c>
+      <c r="Q31">
+        <v>6</v>
+      </c>
+      <c r="R31" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="S31" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="T31" s="39" t="s">
+        <v>272</v>
+      </c>
+      <c r="U31" s="39" t="s">
+        <v>273</v>
+      </c>
+      <c r="V31" s="39" t="s">
+        <v>274</v>
+      </c>
+      <c r="W31" s="32">
+        <v>2</v>
+      </c>
+      <c r="X31" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y31" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z31" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="AB31" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC31" s="46" t="s">
+        <v>276</v>
+      </c>
+      <c r="AD31" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="AE31" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="32">
+        <v>0</v>
+      </c>
+      <c r="AH31" s="15"/>
+      <c r="AI31" s="32">
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="32">
+        <v>1</v>
+      </c>
+      <c r="AK31" s="32">
+        <v>1</v>
+      </c>
+      <c r="AL31" s="47" t="s">
+        <v>278</v>
+      </c>
+      <c r="AM31" s="32">
+        <v>1</v>
+      </c>
+      <c r="AN31" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" ht="17.55" spans="1:40">
+      <c r="A32" s="33" t="s">
+        <v>279</v>
+      </c>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32">
+        <v>0</v>
+      </c>
+      <c r="D32" s="31">
+        <v>100</v>
+      </c>
+      <c r="E32" s="31">
+        <v>100</v>
+      </c>
+      <c r="F32" s="32">
+        <v>0</v>
+      </c>
+      <c r="G32" s="32">
+        <v>0</v>
+      </c>
+      <c r="H32" s="32">
+        <v>0</v>
+      </c>
+      <c r="I32" s="32">
+        <v>0</v>
+      </c>
+      <c r="J32" s="32">
+        <v>0</v>
+      </c>
+      <c r="K32" s="32">
+        <v>0</v>
+      </c>
+      <c r="L32" s="32">
+        <v>0</v>
+      </c>
+      <c r="M32" s="32">
+        <v>0</v>
+      </c>
+      <c r="N32" s="31">
+        <v>2</v>
+      </c>
+      <c r="O32" s="31" t="s">
+        <v>280</v>
+      </c>
+      <c r="P32" s="32">
+        <v>-0.6</v>
+      </c>
+      <c r="Q32">
+        <v>6</v>
+      </c>
+      <c r="R32" s="38" t="s">
+        <v>281</v>
+      </c>
+      <c r="S32" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="T32" s="39" t="s">
+        <v>282</v>
+      </c>
+      <c r="U32" s="39" t="s">
+        <v>283</v>
+      </c>
+      <c r="V32" s="39" t="s">
+        <v>284</v>
+      </c>
+      <c r="W32" s="32">
+        <v>2</v>
+      </c>
+      <c r="X32" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y32" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z32" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="31" t="s">
+        <v>285</v>
+      </c>
+      <c r="AB32" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC32" s="46" t="s">
+        <v>286</v>
+      </c>
+      <c r="AD32" s="31" t="s">
+        <v>287</v>
+      </c>
+      <c r="AE32" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="32">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="14"/>
+      <c r="AI32" s="32">
+        <v>0</v>
+      </c>
+      <c r="AJ32" s="32">
+        <v>1</v>
+      </c>
+      <c r="AK32" s="32">
+        <v>1</v>
+      </c>
+      <c r="AL32" s="47" t="s">
+        <v>288</v>
+      </c>
+      <c r="AM32" s="32">
+        <v>1</v>
+      </c>
+      <c r="AN32" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" ht="17.55" spans="1:40">
+      <c r="A33" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32">
+        <v>0</v>
+      </c>
+      <c r="D33" s="31">
+        <v>100</v>
+      </c>
+      <c r="E33" s="31">
+        <v>100</v>
+      </c>
+      <c r="F33" s="32">
+        <v>0</v>
+      </c>
+      <c r="G33" s="32">
+        <v>0</v>
+      </c>
+      <c r="H33" s="32">
+        <v>0</v>
+      </c>
+      <c r="I33" s="32">
+        <v>0</v>
+      </c>
+      <c r="J33" s="32">
+        <v>0</v>
+      </c>
+      <c r="K33" s="32">
+        <v>0</v>
+      </c>
+      <c r="L33" s="32">
+        <v>0</v>
+      </c>
+      <c r="M33" s="32">
+        <v>0</v>
+      </c>
+      <c r="N33" s="31">
+        <v>2</v>
+      </c>
+      <c r="O33" s="31" t="s">
+        <v>290</v>
+      </c>
+      <c r="P33" s="32">
+        <v>-0.7</v>
+      </c>
+      <c r="Q33">
+        <v>6</v>
+      </c>
+      <c r="R33" s="38" t="s">
+        <v>291</v>
+      </c>
+      <c r="S33" s="38" t="s">
+        <v>292</v>
+      </c>
+      <c r="T33" s="39" t="s">
+        <v>293</v>
+      </c>
+      <c r="U33" s="39" t="s">
+        <v>294</v>
+      </c>
+      <c r="V33" s="39" t="s">
+        <v>295</v>
+      </c>
+      <c r="W33" s="32">
+        <v>2</v>
+      </c>
+      <c r="X33" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y33" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z33" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="AB33" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC33" s="46" t="s">
+        <v>297</v>
+      </c>
+      <c r="AD33" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="AE33" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="32">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="15"/>
+      <c r="AI33" s="32">
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="32">
+        <v>1</v>
+      </c>
+      <c r="AK33" s="32">
+        <v>1</v>
+      </c>
+      <c r="AL33" s="47" t="s">
+        <v>299</v>
+      </c>
+      <c r="AM33" s="32">
+        <v>1</v>
+      </c>
+      <c r="AN33" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" ht="17.55" spans="1:40">
+      <c r="A34" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31">
+        <v>0</v>
+      </c>
+      <c r="D34" s="31">
+        <v>100</v>
+      </c>
+      <c r="E34" s="31">
+        <v>100</v>
+      </c>
+      <c r="F34" s="31">
+        <v>0</v>
+      </c>
+      <c r="G34" s="31">
+        <v>0</v>
+      </c>
+      <c r="H34" s="31">
+        <v>0</v>
+      </c>
+      <c r="I34" s="31">
+        <v>0</v>
+      </c>
+      <c r="J34" s="31">
+        <v>0</v>
+      </c>
+      <c r="K34" s="31">
+        <v>0</v>
+      </c>
+      <c r="L34" s="31">
+        <v>0</v>
+      </c>
+      <c r="M34" s="31">
+        <v>0</v>
+      </c>
+      <c r="N34" s="31">
+        <v>2</v>
+      </c>
+      <c r="O34" s="31" t="s">
+        <v>301</v>
+      </c>
+      <c r="P34" s="31">
+        <v>-0.8</v>
+      </c>
+      <c r="Q34">
+        <v>6</v>
+      </c>
+      <c r="R34" s="38" t="s">
+        <v>302</v>
+      </c>
+      <c r="S34" s="38" t="s">
+        <v>303</v>
+      </c>
+      <c r="T34" s="39" t="s">
+        <v>304</v>
+      </c>
+      <c r="U34" s="39" t="s">
+        <v>305</v>
+      </c>
+      <c r="V34" s="39" t="s">
+        <v>306</v>
+      </c>
+      <c r="W34" s="31">
+        <v>2</v>
+      </c>
+      <c r="X34" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y34" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z34" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="31" t="s">
+        <v>307</v>
+      </c>
+      <c r="AB34" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC34" s="46" t="s">
+        <v>308</v>
+      </c>
+      <c r="AD34" s="31" t="s">
+        <v>309</v>
+      </c>
+      <c r="AE34" s="31">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="31">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="31">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="14"/>
+      <c r="AI34" s="31">
+        <v>0</v>
+      </c>
+      <c r="AJ34" s="31">
+        <v>1</v>
+      </c>
+      <c r="AK34" s="31">
+        <v>1</v>
+      </c>
+      <c r="AL34" s="47" t="s">
+        <v>310</v>
+      </c>
+      <c r="AM34" s="31">
+        <v>1</v>
+      </c>
+      <c r="AN34" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" ht="17.55" spans="1:40">
+      <c r="A35" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32">
+        <v>0</v>
+      </c>
+      <c r="D35" s="31">
+        <v>100</v>
+      </c>
+      <c r="E35" s="31">
+        <v>100</v>
+      </c>
+      <c r="F35" s="32">
+        <v>0</v>
+      </c>
+      <c r="G35" s="32">
+        <v>0</v>
+      </c>
+      <c r="H35" s="32">
+        <v>0</v>
+      </c>
+      <c r="I35" s="32">
+        <v>0</v>
+      </c>
+      <c r="J35" s="32">
+        <v>0</v>
+      </c>
+      <c r="K35" s="32">
+        <v>0</v>
+      </c>
+      <c r="L35" s="32">
+        <v>0</v>
+      </c>
+      <c r="M35" s="32">
+        <v>0</v>
+      </c>
+      <c r="N35" s="31">
+        <v>2</v>
+      </c>
+      <c r="O35" s="31" t="s">
+        <v>312</v>
+      </c>
+      <c r="P35" s="32">
+        <v>-0.9</v>
+      </c>
+      <c r="Q35">
+        <v>6</v>
+      </c>
+      <c r="R35" s="38" t="s">
+        <v>313</v>
+      </c>
+      <c r="S35" s="38" t="s">
+        <v>314</v>
+      </c>
+      <c r="T35" s="39" t="s">
+        <v>315</v>
+      </c>
+      <c r="U35" s="39" t="s">
+        <v>316</v>
+      </c>
+      <c r="V35" s="39" t="s">
+        <v>317</v>
+      </c>
+      <c r="W35" s="32">
+        <v>2</v>
+      </c>
+      <c r="X35" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y35" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z35" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="31" t="s">
+        <v>318</v>
+      </c>
+      <c r="AB35" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC35" s="46" t="s">
+        <v>319</v>
+      </c>
+      <c r="AD35" s="31" t="s">
+        <v>320</v>
+      </c>
+      <c r="AE35" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG35" s="32">
+        <v>0</v>
+      </c>
+      <c r="AH35" s="15"/>
+      <c r="AI35" s="32">
+        <v>0</v>
+      </c>
+      <c r="AJ35" s="32">
+        <v>1</v>
+      </c>
+      <c r="AK35" s="32">
+        <v>1</v>
+      </c>
+      <c r="AL35" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="AM35" s="32">
+        <v>1</v>
+      </c>
+      <c r="AN35" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" ht="17.55" spans="1:40">
+      <c r="A36" s="33" t="s">
+        <v>322</v>
+      </c>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32">
+        <v>0</v>
+      </c>
+      <c r="D36" s="31">
+        <v>100</v>
+      </c>
+      <c r="E36" s="31">
+        <v>100</v>
+      </c>
+      <c r="F36" s="32">
+        <v>0</v>
+      </c>
+      <c r="G36" s="32">
+        <v>0</v>
+      </c>
+      <c r="H36" s="32">
+        <v>0</v>
+      </c>
+      <c r="I36" s="32">
+        <v>0</v>
+      </c>
+      <c r="J36" s="32">
+        <v>0</v>
+      </c>
+      <c r="K36" s="32">
+        <v>0</v>
+      </c>
+      <c r="L36" s="32">
+        <v>0</v>
+      </c>
+      <c r="M36" s="32">
+        <v>0</v>
+      </c>
+      <c r="N36" s="31">
+        <v>2</v>
+      </c>
+      <c r="O36" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="P36" s="32">
+        <v>-1</v>
+      </c>
+      <c r="Q36">
+        <v>6</v>
+      </c>
+      <c r="R36" s="38" t="s">
+        <v>324</v>
+      </c>
+      <c r="S36" s="38" t="s">
+        <v>325</v>
+      </c>
+      <c r="T36" s="39" t="s">
+        <v>326</v>
+      </c>
+      <c r="U36" s="39" t="s">
+        <v>327</v>
+      </c>
+      <c r="V36" s="39" t="s">
+        <v>328</v>
+      </c>
+      <c r="W36" s="32">
+        <v>2</v>
+      </c>
+      <c r="X36" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y36" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z36" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="31" t="s">
+        <v>329</v>
+      </c>
+      <c r="AB36" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC36" s="46" t="s">
+        <v>330</v>
+      </c>
+      <c r="AD36" s="31" t="s">
+        <v>331</v>
+      </c>
+      <c r="AE36" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="32">
+        <v>0</v>
+      </c>
+      <c r="AH36" s="14"/>
+      <c r="AI36" s="32">
+        <v>0</v>
+      </c>
+      <c r="AJ36" s="32">
+        <v>1</v>
+      </c>
+      <c r="AK36" s="32">
+        <v>1</v>
+      </c>
+      <c r="AL36" s="47" t="s">
+        <v>332</v>
+      </c>
+      <c r="AM36" s="32">
+        <v>1</v>
+      </c>
+      <c r="AN36" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" ht="17.55" spans="1:40">
+      <c r="A37" s="33" t="s">
+        <v>333</v>
+      </c>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32">
+        <v>0</v>
+      </c>
+      <c r="D37" s="31">
+        <v>100</v>
+      </c>
+      <c r="E37" s="31">
+        <v>100</v>
+      </c>
+      <c r="F37" s="32">
+        <v>0</v>
+      </c>
+      <c r="G37" s="32">
+        <v>0</v>
+      </c>
+      <c r="H37" s="32">
+        <v>0</v>
+      </c>
+      <c r="I37" s="32">
+        <v>0</v>
+      </c>
+      <c r="J37" s="32">
+        <v>0</v>
+      </c>
+      <c r="K37" s="32">
+        <v>0</v>
+      </c>
+      <c r="L37" s="32">
+        <v>0</v>
+      </c>
+      <c r="M37" s="32">
+        <v>0</v>
+      </c>
+      <c r="N37" s="31">
+        <v>2</v>
+      </c>
+      <c r="O37" s="31" t="s">
+        <v>334</v>
+      </c>
+      <c r="P37" s="32">
+        <v>-1.1</v>
+      </c>
+      <c r="Q37">
+        <v>6</v>
+      </c>
+      <c r="R37" s="38" t="s">
+        <v>335</v>
+      </c>
+      <c r="S37" s="38" t="s">
+        <v>336</v>
+      </c>
+      <c r="T37" s="39" t="s">
+        <v>337</v>
+      </c>
+      <c r="U37" s="39" t="s">
+        <v>338</v>
+      </c>
+      <c r="V37" s="39" t="s">
+        <v>339</v>
+      </c>
+      <c r="W37" s="32">
+        <v>2</v>
+      </c>
+      <c r="X37" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y37" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z37" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="31" t="s">
+        <v>340</v>
+      </c>
+      <c r="AB37" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC37" s="46" t="s">
+        <v>341</v>
+      </c>
+      <c r="AD37" s="31" t="s">
+        <v>342</v>
+      </c>
+      <c r="AE37" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG37" s="32">
+        <v>0</v>
+      </c>
+      <c r="AH37" s="15"/>
+      <c r="AI37" s="32">
+        <v>0</v>
+      </c>
+      <c r="AJ37" s="32">
+        <v>1</v>
+      </c>
+      <c r="AK37" s="32">
+        <v>1</v>
+      </c>
+      <c r="AL37" s="47" t="s">
+        <v>343</v>
+      </c>
+      <c r="AM37" s="32">
+        <v>1</v>
+      </c>
+      <c r="AN37" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" ht="17.55" spans="1:40">
+      <c r="A38" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31">
+        <v>0</v>
+      </c>
+      <c r="D38" s="31">
+        <v>100</v>
+      </c>
+      <c r="E38" s="31">
+        <v>100</v>
+      </c>
+      <c r="F38" s="31">
+        <v>0</v>
+      </c>
+      <c r="G38" s="31">
+        <v>0</v>
+      </c>
+      <c r="H38" s="31">
+        <v>0</v>
+      </c>
+      <c r="I38" s="31">
+        <v>0</v>
+      </c>
+      <c r="J38" s="31">
+        <v>0</v>
+      </c>
+      <c r="K38" s="31">
+        <v>0</v>
+      </c>
+      <c r="L38" s="31">
+        <v>0</v>
+      </c>
+      <c r="M38" s="31">
+        <v>0</v>
+      </c>
+      <c r="N38" s="31">
+        <v>2</v>
+      </c>
+      <c r="O38" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="P38" s="31">
+        <v>-1.2</v>
+      </c>
+      <c r="Q38">
+        <v>6</v>
+      </c>
+      <c r="R38" s="38" t="s">
+        <v>346</v>
+      </c>
+      <c r="S38" s="38" t="s">
+        <v>347</v>
+      </c>
+      <c r="T38" s="39" t="s">
+        <v>348</v>
+      </c>
+      <c r="U38" s="39" t="s">
+        <v>349</v>
+      </c>
+      <c r="V38" s="39" t="s">
+        <v>350</v>
+      </c>
+      <c r="W38" s="31">
+        <v>2</v>
+      </c>
+      <c r="X38" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y38" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z38" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="31" t="s">
+        <v>351</v>
+      </c>
+      <c r="AB38" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC38" s="46" t="s">
+        <v>352</v>
+      </c>
+      <c r="AD38" s="31" t="s">
+        <v>353</v>
+      </c>
+      <c r="AE38" s="31">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="31">
+        <v>0</v>
+      </c>
+      <c r="AG38" s="31">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="14"/>
+      <c r="AI38" s="31">
+        <v>0</v>
+      </c>
+      <c r="AJ38" s="31">
+        <v>1</v>
+      </c>
+      <c r="AK38" s="31">
+        <v>1</v>
+      </c>
+      <c r="AL38" s="47" t="s">
+        <v>354</v>
+      </c>
+      <c r="AM38" s="31">
+        <v>1</v>
+      </c>
+      <c r="AN38" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" ht="17.55" spans="1:40">
+      <c r="A39" s="33" t="s">
+        <v>355</v>
+      </c>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32">
+        <v>0</v>
+      </c>
+      <c r="D39" s="31">
+        <v>100</v>
+      </c>
+      <c r="E39" s="31">
+        <v>100</v>
+      </c>
+      <c r="F39" s="32">
+        <v>0</v>
+      </c>
+      <c r="G39" s="32">
+        <v>0</v>
+      </c>
+      <c r="H39" s="32">
+        <v>0</v>
+      </c>
+      <c r="I39" s="32">
+        <v>0</v>
+      </c>
+      <c r="J39" s="32">
+        <v>0</v>
+      </c>
+      <c r="K39" s="32">
+        <v>0</v>
+      </c>
+      <c r="L39" s="32">
+        <v>0</v>
+      </c>
+      <c r="M39" s="32">
+        <v>0</v>
+      </c>
+      <c r="N39" s="31">
+        <v>2</v>
+      </c>
+      <c r="O39" s="31" t="s">
+        <v>356</v>
+      </c>
+      <c r="P39" s="32">
+        <v>-1.3</v>
+      </c>
+      <c r="Q39">
+        <v>6</v>
+      </c>
+      <c r="R39" s="38" t="s">
+        <v>357</v>
+      </c>
+      <c r="S39" s="38" t="s">
+        <v>358</v>
+      </c>
+      <c r="T39" s="39" t="s">
+        <v>359</v>
+      </c>
+      <c r="U39" s="39" t="s">
+        <v>360</v>
+      </c>
+      <c r="V39" s="39" t="s">
+        <v>361</v>
+      </c>
+      <c r="W39" s="32">
+        <v>2</v>
+      </c>
+      <c r="X39" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y39" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z39" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="31" t="s">
+        <v>362</v>
+      </c>
+      <c r="AB39" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC39" s="46" t="s">
+        <v>363</v>
+      </c>
+      <c r="AD39" s="31" t="s">
+        <v>364</v>
+      </c>
+      <c r="AE39" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG39" s="32">
+        <v>0</v>
+      </c>
+      <c r="AH39" s="15"/>
+      <c r="AI39" s="32">
+        <v>0</v>
+      </c>
+      <c r="AJ39" s="32">
+        <v>1</v>
+      </c>
+      <c r="AK39" s="32">
+        <v>1</v>
+      </c>
+      <c r="AL39" s="47" t="s">
+        <v>365</v>
+      </c>
+      <c r="AM39" s="32">
+        <v>1</v>
+      </c>
+      <c r="AN39" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:40">
+      <c r="A40" s="33" t="s">
+        <v>366</v>
+      </c>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32">
+        <v>0</v>
+      </c>
+      <c r="D40" s="31">
+        <v>100</v>
+      </c>
+      <c r="E40" s="31">
+        <v>100</v>
+      </c>
+      <c r="F40" s="32">
+        <v>0</v>
+      </c>
+      <c r="G40" s="32">
+        <v>0</v>
+      </c>
+      <c r="H40" s="32">
+        <v>0</v>
+      </c>
+      <c r="I40" s="32">
+        <v>0</v>
+      </c>
+      <c r="J40" s="32">
+        <v>0</v>
+      </c>
+      <c r="K40" s="32">
+        <v>0</v>
+      </c>
+      <c r="L40" s="32">
+        <v>0</v>
+      </c>
+      <c r="M40" s="32">
+        <v>0</v>
+      </c>
+      <c r="N40" s="31">
+        <v>2</v>
+      </c>
+      <c r="O40" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="P40" s="32">
+        <v>-1.4</v>
+      </c>
+      <c r="Q40">
+        <v>6</v>
+      </c>
+      <c r="R40" s="38" t="s">
+        <v>368</v>
+      </c>
+      <c r="S40" s="38" t="s">
+        <v>369</v>
+      </c>
+      <c r="T40" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="U40" s="39" t="s">
+        <v>371</v>
+      </c>
+      <c r="V40" s="39" t="s">
+        <v>372</v>
+      </c>
+      <c r="W40" s="32">
+        <v>2</v>
+      </c>
+      <c r="X40" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y40" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z40" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="AB40" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC40" s="46" t="s">
+        <v>374</v>
+      </c>
+      <c r="AD40" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="AE40" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF40" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG40" s="32">
+        <v>0</v>
+      </c>
+      <c r="AH40" s="14"/>
+      <c r="AI40" s="32">
+        <v>0</v>
+      </c>
+      <c r="AJ40" s="32">
+        <v>1</v>
+      </c>
+      <c r="AK40" s="32">
+        <v>1</v>
+      </c>
+      <c r="AL40" s="47" t="s">
+        <v>376</v>
+      </c>
+      <c r="AM40" s="32">
+        <v>1</v>
+      </c>
+      <c r="AN40" s="32">
         <v>0</v>
       </c>
     </row>
@@ -6342,50 +8476,50 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:AN73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="AK74" sqref="AK74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="30.375" customWidth="1"/>
-    <col min="2" max="2" width="11.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="11.6634615384615" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="5" width="14.1666666666667" customWidth="1"/>
-    <col min="6" max="6" width="13.1666666666667" customWidth="1"/>
-    <col min="7" max="7" width="13.8333333333333" customWidth="1"/>
-    <col min="8" max="9" width="14.6666666666667" customWidth="1"/>
+    <col min="4" max="5" width="14.1634615384615" customWidth="1"/>
+    <col min="6" max="6" width="13.1634615384615" customWidth="1"/>
+    <col min="7" max="7" width="13.8365384615385" customWidth="1"/>
+    <col min="8" max="9" width="14.6634615384615" customWidth="1"/>
     <col min="10" max="10" width="21" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
     <col min="12" max="14" width="13" customWidth="1"/>
     <col min="15" max="15" width="47.5" customWidth="1"/>
-    <col min="16" max="16" width="14.6666666666667" customWidth="1"/>
-    <col min="17" max="17" width="13.6666666666667" customWidth="1"/>
+    <col min="16" max="16" width="14.6634615384615" customWidth="1"/>
+    <col min="17" max="17" width="13.6634615384615" customWidth="1"/>
     <col min="18" max="19" width="23" customWidth="1"/>
     <col min="20" max="22" width="27" customWidth="1"/>
-    <col min="24" max="24" width="17.1666666666667" customWidth="1"/>
-    <col min="25" max="25" width="13.8333333333333" customWidth="1"/>
+    <col min="24" max="24" width="17.1634615384615" customWidth="1"/>
+    <col min="25" max="25" width="13.8365384615385" customWidth="1"/>
     <col min="26" max="26" width="20" customWidth="1"/>
     <col min="27" max="27" width="24" customWidth="1"/>
-    <col min="28" max="28" width="27.3333333333333" customWidth="1"/>
-    <col min="29" max="29" width="26.1666666666667" customWidth="1"/>
+    <col min="28" max="28" width="27.3365384615385" customWidth="1"/>
+    <col min="29" max="29" width="26.1634615384615" customWidth="1"/>
     <col min="30" max="30" width="36" customWidth="1"/>
     <col min="31" max="31" width="10" customWidth="1"/>
-    <col min="33" max="35" width="12.6666666666667" customWidth="1"/>
+    <col min="33" max="35" width="12.6634615384615" customWidth="1"/>
     <col min="36" max="36" width="13.25" customWidth="1"/>
     <col min="37" max="37" width="22.5" customWidth="1"/>
     <col min="38" max="38" width="25" customWidth="1"/>
     <col min="39" max="39" width="14.125" customWidth="1"/>
-    <col min="40" max="40" width="21.1666666666667" customWidth="1"/>
+    <col min="40" max="40" width="21.1634615384615" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="15" spans="1:40">
+    <row r="1" s="5" customFormat="1" ht="34" spans="1:40">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -6507,7 +8641,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" s="6" customFormat="1" ht="15" spans="1:40">
+    <row r="2" s="6" customFormat="1" ht="17" spans="1:40">
       <c r="A2" s="10" t="s">
         <v>39</v>
       </c>
@@ -6629,7 +8763,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" s="6" customFormat="1" ht="15" spans="1:40">
+    <row r="3" s="6" customFormat="1" ht="17" spans="1:40">
       <c r="A3" s="10" t="s">
         <v>44</v>
       </c>
@@ -6751,7 +8885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" s="6" customFormat="1" ht="15" spans="1:40">
+    <row r="4" s="6" customFormat="1" ht="17" spans="1:40">
       <c r="A4" s="10" t="s">
         <v>45</v>
       </c>
@@ -6873,7 +9007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" s="6" customFormat="1" ht="15" spans="1:40">
+    <row r="5" s="6" customFormat="1" ht="17" spans="1:40">
       <c r="A5" s="10" t="s">
         <v>46</v>
       </c>
@@ -6995,7 +9129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="6" customFormat="1" ht="15" spans="1:40">
+    <row r="6" s="6" customFormat="1" ht="17" spans="1:40">
       <c r="A6" s="10" t="s">
         <v>47</v>
       </c>
@@ -7117,7 +9251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="7" customFormat="1" spans="1:40">
+    <row r="7" s="7" customFormat="1" ht="17" spans="1:40">
       <c r="A7" s="11" t="s">
         <v>48</v>
       </c>
@@ -7239,7 +9373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="7" customFormat="1" spans="1:40">
+    <row r="8" s="7" customFormat="1" ht="17" spans="1:40">
       <c r="A8" s="11" t="s">
         <v>49</v>
       </c>
@@ -7361,7 +9495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="7" customFormat="1" spans="1:40">
+    <row r="9" s="7" customFormat="1" ht="17" spans="1:40">
       <c r="A9" s="11" t="s">
         <v>50</v>
       </c>
@@ -7483,7 +9617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="8" customFormat="1" ht="81.75" spans="1:40">
+    <row r="10" s="8" customFormat="1" ht="51.75" spans="1:40">
       <c r="A10" s="12" t="s">
         <v>51</v>
       </c>
@@ -7592,7 +9726,7 @@
     </row>
     <row r="11" s="14" customFormat="1" spans="1:40">
       <c r="A11" s="17" t="s">
-        <v>210</v>
+        <v>377</v>
       </c>
       <c r="C11" s="14">
         <v>0</v>
@@ -7631,7 +9765,7 @@
         <v>2</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>211</v>
+        <v>378</v>
       </c>
       <c r="P11" s="14">
         <v>0</v>
@@ -7644,7 +9778,7 @@
         <v>85</v>
       </c>
       <c r="T11" s="14" t="s">
-        <v>212</v>
+        <v>379</v>
       </c>
       <c r="W11" s="14">
         <v>4</v>
@@ -7659,16 +9793,16 @@
         <v>0</v>
       </c>
       <c r="AA11" s="27" t="s">
-        <v>213</v>
+        <v>380</v>
       </c>
       <c r="AB11" s="24" t="s">
-        <v>214</v>
+        <v>381</v>
       </c>
       <c r="AC11" s="27" t="s">
-        <v>215</v>
+        <v>382</v>
       </c>
       <c r="AD11" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AE11" s="14">
         <v>0</v>
@@ -7689,7 +9823,7 @@
         <v>0</v>
       </c>
       <c r="AL11" s="27" t="s">
-        <v>216</v>
+        <v>383</v>
       </c>
       <c r="AM11" s="14">
         <v>0</v>
@@ -7700,7 +9834,7 @@
     </row>
     <row r="12" s="15" customFormat="1" spans="1:40">
       <c r="A12" s="18" t="s">
-        <v>217</v>
+        <v>384</v>
       </c>
       <c r="C12" s="15">
         <v>0</v>
@@ -7739,7 +9873,7 @@
         <v>2</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>218</v>
+        <v>385</v>
       </c>
       <c r="P12" s="15">
         <v>0</v>
@@ -7752,7 +9886,7 @@
         <v>85</v>
       </c>
       <c r="T12" s="15" t="s">
-        <v>212</v>
+        <v>379</v>
       </c>
       <c r="W12" s="15">
         <v>4</v>
@@ -7767,16 +9901,16 @@
         <v>0</v>
       </c>
       <c r="AA12" s="27" t="s">
-        <v>219</v>
+        <v>386</v>
       </c>
       <c r="AB12" s="24" t="s">
-        <v>214</v>
+        <v>381</v>
       </c>
       <c r="AC12" s="27" t="s">
-        <v>220</v>
+        <v>387</v>
       </c>
       <c r="AD12" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AE12" s="15">
         <v>0</v>
@@ -7797,7 +9931,7 @@
         <v>0</v>
       </c>
       <c r="AL12" s="27" t="s">
-        <v>221</v>
+        <v>388</v>
       </c>
       <c r="AM12" s="15">
         <v>0</v>
@@ -7808,7 +9942,7 @@
     </row>
     <row r="13" s="15" customFormat="1" spans="1:40">
       <c r="A13" s="18" t="s">
-        <v>222</v>
+        <v>389</v>
       </c>
       <c r="C13" s="15">
         <v>0</v>
@@ -7847,7 +9981,7 @@
         <v>2</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>223</v>
+        <v>390</v>
       </c>
       <c r="P13" s="15">
         <v>0</v>
@@ -7860,7 +9994,7 @@
         <v>85</v>
       </c>
       <c r="T13" s="14" t="s">
-        <v>212</v>
+        <v>379</v>
       </c>
       <c r="W13" s="14">
         <v>4</v>
@@ -7875,16 +10009,16 @@
         <v>0</v>
       </c>
       <c r="AA13" s="27" t="s">
-        <v>224</v>
+        <v>391</v>
       </c>
       <c r="AB13" s="24" t="s">
-        <v>214</v>
+        <v>381</v>
       </c>
       <c r="AC13" s="27" t="s">
-        <v>225</v>
+        <v>392</v>
       </c>
       <c r="AD13" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AE13" s="15">
         <v>0</v>
@@ -7906,7 +10040,7 @@
         <v>0</v>
       </c>
       <c r="AL13" s="27" t="s">
-        <v>226</v>
+        <v>393</v>
       </c>
       <c r="AM13" s="14">
         <v>0</v>
@@ -7917,7 +10051,7 @@
     </row>
     <row r="14" s="15" customFormat="1" spans="1:40">
       <c r="A14" s="18" t="s">
-        <v>227</v>
+        <v>394</v>
       </c>
       <c r="C14" s="15">
         <v>0</v>
@@ -7956,7 +10090,7 @@
         <v>2</v>
       </c>
       <c r="O14" s="15" t="s">
-        <v>228</v>
+        <v>395</v>
       </c>
       <c r="P14" s="15">
         <v>0</v>
@@ -7969,7 +10103,7 @@
         <v>85</v>
       </c>
       <c r="T14" s="15" t="s">
-        <v>212</v>
+        <v>379</v>
       </c>
       <c r="W14" s="15">
         <v>4</v>
@@ -7984,16 +10118,16 @@
         <v>0</v>
       </c>
       <c r="AA14" s="27" t="s">
-        <v>229</v>
+        <v>396</v>
       </c>
       <c r="AB14" s="24" t="s">
-        <v>214</v>
+        <v>381</v>
       </c>
       <c r="AC14" s="27" t="s">
-        <v>230</v>
+        <v>397</v>
       </c>
       <c r="AD14" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AE14" s="15">
         <v>0</v>
@@ -8014,7 +10148,7 @@
         <v>1</v>
       </c>
       <c r="AL14" s="27" t="s">
-        <v>231</v>
+        <v>398</v>
       </c>
       <c r="AM14" s="15">
         <v>0</v>
@@ -8025,7 +10159,7 @@
     </row>
     <row r="15" s="15" customFormat="1" spans="1:40">
       <c r="A15" s="18" t="s">
-        <v>232</v>
+        <v>399</v>
       </c>
       <c r="C15" s="15">
         <v>0</v>
@@ -8064,7 +10198,7 @@
         <v>2</v>
       </c>
       <c r="O15" s="15" t="s">
-        <v>233</v>
+        <v>400</v>
       </c>
       <c r="P15" s="15">
         <v>0</v>
@@ -8077,7 +10211,7 @@
         <v>85</v>
       </c>
       <c r="T15" s="14" t="s">
-        <v>212</v>
+        <v>379</v>
       </c>
       <c r="W15" s="14">
         <v>4</v>
@@ -8092,16 +10226,16 @@
         <v>0</v>
       </c>
       <c r="AA15" s="27" t="s">
-        <v>234</v>
+        <v>401</v>
       </c>
       <c r="AB15" s="24" t="s">
-        <v>214</v>
+        <v>381</v>
       </c>
       <c r="AC15" s="27" t="s">
-        <v>235</v>
+        <v>402</v>
       </c>
       <c r="AD15" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AE15" s="15">
         <v>0</v>
@@ -8123,7 +10257,7 @@
         <v>1</v>
       </c>
       <c r="AL15" s="27" t="s">
-        <v>236</v>
+        <v>403</v>
       </c>
       <c r="AM15" s="14">
         <v>0</v>
@@ -8134,7 +10268,7 @@
     </row>
     <row r="16" s="15" customFormat="1" spans="1:40">
       <c r="A16" s="18" t="s">
-        <v>237</v>
+        <v>404</v>
       </c>
       <c r="C16" s="15">
         <v>0</v>
@@ -8173,7 +10307,7 @@
         <v>2</v>
       </c>
       <c r="O16" s="15" t="s">
-        <v>238</v>
+        <v>405</v>
       </c>
       <c r="P16" s="15">
         <v>0</v>
@@ -8186,7 +10320,7 @@
         <v>85</v>
       </c>
       <c r="T16" s="15" t="s">
-        <v>212</v>
+        <v>379</v>
       </c>
       <c r="W16" s="15">
         <v>4</v>
@@ -8201,16 +10335,16 @@
         <v>0</v>
       </c>
       <c r="AA16" s="27" t="s">
-        <v>239</v>
+        <v>406</v>
       </c>
       <c r="AB16" s="24" t="s">
-        <v>214</v>
+        <v>381</v>
       </c>
       <c r="AC16" s="27" t="s">
-        <v>240</v>
+        <v>407</v>
       </c>
       <c r="AD16" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AE16" s="15">
         <v>0</v>
@@ -8231,7 +10365,7 @@
         <v>1</v>
       </c>
       <c r="AL16" s="27" t="s">
-        <v>241</v>
+        <v>408</v>
       </c>
       <c r="AM16" s="15">
         <v>0</v>
@@ -8242,7 +10376,7 @@
     </row>
     <row r="17" s="15" customFormat="1" spans="1:40">
       <c r="A17" s="18" t="s">
-        <v>242</v>
+        <v>409</v>
       </c>
       <c r="C17" s="15">
         <v>0</v>
@@ -8281,7 +10415,7 @@
         <v>2</v>
       </c>
       <c r="O17" s="15" t="s">
-        <v>243</v>
+        <v>410</v>
       </c>
       <c r="P17" s="15">
         <v>0</v>
@@ -8294,7 +10428,7 @@
         <v>85</v>
       </c>
       <c r="T17" s="14" t="s">
-        <v>212</v>
+        <v>379</v>
       </c>
       <c r="W17" s="14">
         <v>4</v>
@@ -8309,16 +10443,16 @@
         <v>0</v>
       </c>
       <c r="AA17" s="27" t="s">
-        <v>244</v>
+        <v>411</v>
       </c>
       <c r="AB17" s="24" t="s">
-        <v>214</v>
+        <v>381</v>
       </c>
       <c r="AC17" s="27" t="s">
-        <v>245</v>
+        <v>412</v>
       </c>
       <c r="AD17" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AE17" s="15">
         <v>0</v>
@@ -8340,7 +10474,7 @@
         <v>1</v>
       </c>
       <c r="AL17" s="27" t="s">
-        <v>246</v>
+        <v>413</v>
       </c>
       <c r="AM17" s="14">
         <v>0</v>
@@ -8351,7 +10485,7 @@
     </row>
     <row r="18" s="15" customFormat="1" spans="1:40">
       <c r="A18" s="18" t="s">
-        <v>247</v>
+        <v>414</v>
       </c>
       <c r="C18" s="15">
         <v>0</v>
@@ -8390,7 +10524,7 @@
         <v>2</v>
       </c>
       <c r="O18" s="15" t="s">
-        <v>248</v>
+        <v>415</v>
       </c>
       <c r="P18" s="15">
         <v>0</v>
@@ -8403,7 +10537,7 @@
         <v>85</v>
       </c>
       <c r="T18" s="15" t="s">
-        <v>212</v>
+        <v>379</v>
       </c>
       <c r="W18" s="15">
         <v>4</v>
@@ -8418,16 +10552,16 @@
         <v>0</v>
       </c>
       <c r="AA18" s="27" t="s">
-        <v>249</v>
+        <v>416</v>
       </c>
       <c r="AB18" s="24" t="s">
-        <v>214</v>
+        <v>381</v>
       </c>
       <c r="AC18" s="27" t="s">
-        <v>250</v>
+        <v>417</v>
       </c>
       <c r="AD18" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AE18" s="15">
         <v>0</v>
@@ -8448,7 +10582,7 @@
         <v>1</v>
       </c>
       <c r="AL18" s="27" t="s">
-        <v>251</v>
+        <v>418</v>
       </c>
       <c r="AM18" s="15">
         <v>0</v>
@@ -8459,7 +10593,7 @@
     </row>
     <row r="19" s="15" customFormat="1" spans="1:40">
       <c r="A19" s="18" t="s">
-        <v>252</v>
+        <v>419</v>
       </c>
       <c r="C19" s="15">
         <v>0</v>
@@ -8498,7 +10632,7 @@
         <v>2</v>
       </c>
       <c r="O19" s="15" t="s">
-        <v>253</v>
+        <v>420</v>
       </c>
       <c r="P19" s="15">
         <v>0</v>
@@ -8511,7 +10645,7 @@
         <v>85</v>
       </c>
       <c r="T19" s="14" t="s">
-        <v>212</v>
+        <v>379</v>
       </c>
       <c r="W19" s="14">
         <v>4</v>
@@ -8526,16 +10660,16 @@
         <v>0</v>
       </c>
       <c r="AA19" s="27" t="s">
-        <v>254</v>
+        <v>421</v>
       </c>
       <c r="AB19" s="24" t="s">
-        <v>214</v>
+        <v>381</v>
       </c>
       <c r="AC19" s="27" t="s">
-        <v>255</v>
+        <v>422</v>
       </c>
       <c r="AD19" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AE19" s="15">
         <v>0</v>
@@ -8557,7 +10691,7 @@
         <v>1</v>
       </c>
       <c r="AL19" s="27" t="s">
-        <v>256</v>
+        <v>423</v>
       </c>
       <c r="AM19" s="14">
         <v>0</v>
@@ -8568,7 +10702,7 @@
     </row>
     <row r="20" s="15" customFormat="1" spans="1:40">
       <c r="A20" s="18" t="s">
-        <v>257</v>
+        <v>424</v>
       </c>
       <c r="C20" s="15">
         <v>0</v>
@@ -8607,7 +10741,7 @@
         <v>3</v>
       </c>
       <c r="O20" s="15" t="s">
-        <v>258</v>
+        <v>425</v>
       </c>
       <c r="P20" s="15">
         <v>0</v>
@@ -8620,7 +10754,7 @@
         <v>85</v>
       </c>
       <c r="T20" s="15" t="s">
-        <v>212</v>
+        <v>379</v>
       </c>
       <c r="W20" s="15">
         <v>4</v>
@@ -8635,16 +10769,16 @@
         <v>0</v>
       </c>
       <c r="AA20" s="27" t="s">
-        <v>259</v>
+        <v>426</v>
       </c>
       <c r="AB20" s="24" t="s">
-        <v>214</v>
+        <v>381</v>
       </c>
       <c r="AC20" s="27" t="s">
-        <v>260</v>
+        <v>427</v>
       </c>
       <c r="AD20" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AE20" s="15">
         <v>0</v>
@@ -8665,7 +10799,7 @@
         <v>1</v>
       </c>
       <c r="AL20" s="27" t="s">
-        <v>261</v>
+        <v>428</v>
       </c>
       <c r="AM20" s="15">
         <v>0</v>
@@ -8676,7 +10810,7 @@
     </row>
     <row r="21" s="15" customFormat="1" spans="1:40">
       <c r="A21" s="18" t="s">
-        <v>262</v>
+        <v>429</v>
       </c>
       <c r="C21" s="15">
         <v>0</v>
@@ -8715,7 +10849,7 @@
         <v>3</v>
       </c>
       <c r="O21" s="15" t="s">
-        <v>263</v>
+        <v>430</v>
       </c>
       <c r="P21" s="15">
         <v>0</v>
@@ -8728,7 +10862,7 @@
         <v>85</v>
       </c>
       <c r="T21" s="14" t="s">
-        <v>212</v>
+        <v>379</v>
       </c>
       <c r="W21" s="14">
         <v>4</v>
@@ -8743,16 +10877,16 @@
         <v>0</v>
       </c>
       <c r="AA21" s="27" t="s">
-        <v>264</v>
+        <v>431</v>
       </c>
       <c r="AB21" s="24" t="s">
-        <v>214</v>
+        <v>381</v>
       </c>
       <c r="AC21" s="27" t="s">
-        <v>265</v>
+        <v>432</v>
       </c>
       <c r="AD21" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AE21" s="15">
         <v>0</v>
@@ -8774,7 +10908,7 @@
         <v>1</v>
       </c>
       <c r="AL21" s="27" t="s">
-        <v>266</v>
+        <v>433</v>
       </c>
       <c r="AM21" s="14">
         <v>0</v>
@@ -8785,7 +10919,7 @@
     </row>
     <row r="22" s="15" customFormat="1" spans="1:40">
       <c r="A22" s="18" t="s">
-        <v>267</v>
+        <v>434</v>
       </c>
       <c r="C22" s="15">
         <v>0</v>
@@ -8824,7 +10958,7 @@
         <v>3</v>
       </c>
       <c r="O22" s="15" t="s">
-        <v>268</v>
+        <v>435</v>
       </c>
       <c r="P22" s="15">
         <v>0</v>
@@ -8837,7 +10971,7 @@
         <v>85</v>
       </c>
       <c r="T22" s="15" t="s">
-        <v>212</v>
+        <v>379</v>
       </c>
       <c r="W22" s="15">
         <v>4</v>
@@ -8852,16 +10986,16 @@
         <v>0</v>
       </c>
       <c r="AA22" s="27" t="s">
-        <v>269</v>
+        <v>436</v>
       </c>
       <c r="AB22" s="24" t="s">
-        <v>214</v>
+        <v>381</v>
       </c>
       <c r="AC22" s="27" t="s">
-        <v>270</v>
+        <v>437</v>
       </c>
       <c r="AD22" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AE22" s="15">
         <v>0</v>
@@ -8882,7 +11016,7 @@
         <v>1</v>
       </c>
       <c r="AL22" s="27" t="s">
-        <v>271</v>
+        <v>438</v>
       </c>
       <c r="AM22" s="15">
         <v>0</v>
@@ -8893,7 +11027,7 @@
     </row>
     <row r="23" s="15" customFormat="1" spans="1:40">
       <c r="A23" s="18" t="s">
-        <v>272</v>
+        <v>439</v>
       </c>
       <c r="C23" s="15">
         <v>0</v>
@@ -8932,7 +11066,7 @@
         <v>1</v>
       </c>
       <c r="O23" s="15" t="s">
-        <v>273</v>
+        <v>440</v>
       </c>
       <c r="P23" s="15">
         <v>0</v>
@@ -8945,7 +11079,7 @@
         <v>85</v>
       </c>
       <c r="T23" s="14" t="s">
-        <v>212</v>
+        <v>379</v>
       </c>
       <c r="W23" s="14">
         <v>4</v>
@@ -8960,16 +11094,16 @@
         <v>0</v>
       </c>
       <c r="AA23" s="27" t="s">
-        <v>274</v>
+        <v>441</v>
       </c>
       <c r="AB23" s="24" t="s">
-        <v>214</v>
+        <v>381</v>
       </c>
       <c r="AC23" s="27" t="s">
-        <v>275</v>
+        <v>442</v>
       </c>
       <c r="AD23" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AE23" s="15">
         <v>0</v>
@@ -8991,7 +11125,7 @@
         <v>1</v>
       </c>
       <c r="AL23" s="27" t="s">
-        <v>276</v>
+        <v>443</v>
       </c>
       <c r="AM23" s="14">
         <v>0</v>
@@ -9002,7 +11136,7 @@
     </row>
     <row r="24" s="15" customFormat="1" spans="1:40">
       <c r="A24" s="18" t="s">
-        <v>277</v>
+        <v>444</v>
       </c>
       <c r="C24" s="15">
         <v>0</v>
@@ -9041,7 +11175,7 @@
         <v>1</v>
       </c>
       <c r="O24" s="15" t="s">
-        <v>278</v>
+        <v>445</v>
       </c>
       <c r="P24" s="15">
         <v>0</v>
@@ -9054,7 +11188,7 @@
         <v>85</v>
       </c>
       <c r="T24" s="15" t="s">
-        <v>212</v>
+        <v>379</v>
       </c>
       <c r="W24" s="15">
         <v>4</v>
@@ -9069,16 +11203,16 @@
         <v>0</v>
       </c>
       <c r="AA24" s="27" t="s">
-        <v>279</v>
+        <v>446</v>
       </c>
       <c r="AB24" s="24" t="s">
-        <v>214</v>
+        <v>381</v>
       </c>
       <c r="AC24" s="27" t="s">
-        <v>280</v>
+        <v>447</v>
       </c>
       <c r="AD24" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AE24" s="15">
         <v>0</v>
@@ -9099,7 +11233,7 @@
         <v>1</v>
       </c>
       <c r="AL24" s="27" t="s">
-        <v>281</v>
+        <v>448</v>
       </c>
       <c r="AM24" s="15">
         <v>0</v>
@@ -9110,7 +11244,7 @@
     </row>
     <row r="25" s="15" customFormat="1" spans="1:40">
       <c r="A25" s="18" t="s">
-        <v>282</v>
+        <v>449</v>
       </c>
       <c r="C25" s="15">
         <v>0</v>
@@ -9149,7 +11283,7 @@
         <v>1</v>
       </c>
       <c r="O25" s="15" t="s">
-        <v>283</v>
+        <v>450</v>
       </c>
       <c r="P25" s="15">
         <v>0</v>
@@ -9162,7 +11296,7 @@
         <v>85</v>
       </c>
       <c r="T25" s="14" t="s">
-        <v>212</v>
+        <v>379</v>
       </c>
       <c r="W25" s="14">
         <v>4</v>
@@ -9177,16 +11311,16 @@
         <v>0</v>
       </c>
       <c r="AA25" s="27" t="s">
-        <v>284</v>
+        <v>451</v>
       </c>
       <c r="AB25" s="24" t="s">
-        <v>214</v>
+        <v>381</v>
       </c>
       <c r="AC25" s="27" t="s">
-        <v>285</v>
+        <v>452</v>
       </c>
       <c r="AD25" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AE25" s="15">
         <v>0</v>
@@ -9208,7 +11342,7 @@
         <v>1</v>
       </c>
       <c r="AL25" s="27" t="s">
-        <v>286</v>
+        <v>453</v>
       </c>
       <c r="AM25" s="14">
         <v>0</v>
@@ -9219,7 +11353,7 @@
     </row>
     <row r="26" s="15" customFormat="1" spans="1:40">
       <c r="A26" s="18" t="s">
-        <v>287</v>
+        <v>454</v>
       </c>
       <c r="C26" s="15">
         <v>0</v>
@@ -9258,7 +11392,7 @@
         <v>2</v>
       </c>
       <c r="O26" s="15" t="s">
-        <v>288</v>
+        <v>455</v>
       </c>
       <c r="P26" s="15">
         <v>0</v>
@@ -9271,7 +11405,7 @@
         <v>85</v>
       </c>
       <c r="T26" s="15" t="s">
-        <v>212</v>
+        <v>379</v>
       </c>
       <c r="W26" s="15">
         <v>4</v>
@@ -9286,16 +11420,16 @@
         <v>0</v>
       </c>
       <c r="AA26" s="27" t="s">
-        <v>289</v>
+        <v>456</v>
       </c>
       <c r="AB26" s="24" t="s">
-        <v>214</v>
+        <v>381</v>
       </c>
       <c r="AC26" s="27" t="s">
-        <v>290</v>
+        <v>457</v>
       </c>
       <c r="AD26" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AE26" s="15">
         <v>0</v>
@@ -9316,7 +11450,7 @@
         <v>1</v>
       </c>
       <c r="AL26" s="27" t="s">
-        <v>291</v>
+        <v>458</v>
       </c>
       <c r="AM26" s="15">
         <v>0</v>
@@ -9327,7 +11461,7 @@
     </row>
     <row r="27" s="15" customFormat="1" spans="1:40">
       <c r="A27" s="18" t="s">
-        <v>292</v>
+        <v>459</v>
       </c>
       <c r="C27" s="15">
         <v>0</v>
@@ -9366,7 +11500,7 @@
         <v>2</v>
       </c>
       <c r="O27" s="15" t="s">
-        <v>293</v>
+        <v>460</v>
       </c>
       <c r="P27" s="15">
         <v>0</v>
@@ -9379,7 +11513,7 @@
         <v>85</v>
       </c>
       <c r="T27" s="14" t="s">
-        <v>212</v>
+        <v>379</v>
       </c>
       <c r="W27" s="14">
         <v>4</v>
@@ -9394,16 +11528,16 @@
         <v>0</v>
       </c>
       <c r="AA27" s="27" t="s">
-        <v>294</v>
+        <v>461</v>
       </c>
       <c r="AB27" s="24" t="s">
-        <v>214</v>
+        <v>381</v>
       </c>
       <c r="AC27" s="27" t="s">
-        <v>295</v>
+        <v>462</v>
       </c>
       <c r="AD27" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AE27" s="15">
         <v>0</v>
@@ -9425,7 +11559,7 @@
         <v>1</v>
       </c>
       <c r="AL27" s="27" t="s">
-        <v>296</v>
+        <v>463</v>
       </c>
       <c r="AM27" s="14">
         <v>0</v>
@@ -9436,7 +11570,7 @@
     </row>
     <row r="28" s="15" customFormat="1" spans="1:40">
       <c r="A28" s="18" t="s">
-        <v>297</v>
+        <v>464</v>
       </c>
       <c r="C28" s="15">
         <v>0</v>
@@ -9475,7 +11609,7 @@
         <v>2</v>
       </c>
       <c r="O28" s="15" t="s">
-        <v>298</v>
+        <v>465</v>
       </c>
       <c r="P28" s="15">
         <v>0</v>
@@ -9488,7 +11622,7 @@
         <v>85</v>
       </c>
       <c r="T28" s="15" t="s">
-        <v>212</v>
+        <v>379</v>
       </c>
       <c r="W28" s="15">
         <v>4</v>
@@ -9503,16 +11637,16 @@
         <v>0</v>
       </c>
       <c r="AA28" s="27" t="s">
-        <v>299</v>
+        <v>466</v>
       </c>
       <c r="AB28" s="24" t="s">
-        <v>214</v>
+        <v>381</v>
       </c>
       <c r="AC28" s="27" t="s">
-        <v>300</v>
+        <v>467</v>
       </c>
       <c r="AD28" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AE28" s="15">
         <v>0</v>
@@ -9533,7 +11667,7 @@
         <v>1</v>
       </c>
       <c r="AL28" s="27" t="s">
-        <v>301</v>
+        <v>468</v>
       </c>
       <c r="AM28" s="15">
         <v>0</v>
@@ -9544,7 +11678,7 @@
     </row>
     <row r="29" s="15" customFormat="1" spans="1:40">
       <c r="A29" s="18" t="s">
-        <v>302</v>
+        <v>469</v>
       </c>
       <c r="C29" s="15">
         <v>0</v>
@@ -9583,7 +11717,7 @@
         <v>2</v>
       </c>
       <c r="O29" s="15" t="s">
-        <v>303</v>
+        <v>470</v>
       </c>
       <c r="P29" s="15">
         <v>0</v>
@@ -9596,7 +11730,7 @@
         <v>85</v>
       </c>
       <c r="T29" s="14" t="s">
-        <v>212</v>
+        <v>379</v>
       </c>
       <c r="W29" s="14">
         <v>4</v>
@@ -9611,16 +11745,16 @@
         <v>0</v>
       </c>
       <c r="AA29" s="27" t="s">
-        <v>304</v>
+        <v>471</v>
       </c>
       <c r="AB29" s="24" t="s">
-        <v>214</v>
+        <v>381</v>
       </c>
       <c r="AC29" s="27" t="s">
-        <v>305</v>
+        <v>472</v>
       </c>
       <c r="AD29" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AE29" s="15">
         <v>0</v>
@@ -9642,7 +11776,7 @@
         <v>1</v>
       </c>
       <c r="AL29" s="27" t="s">
-        <v>306</v>
+        <v>473</v>
       </c>
       <c r="AM29" s="14">
         <v>0</v>
@@ -9653,7 +11787,7 @@
     </row>
     <row r="30" s="15" customFormat="1" spans="1:40">
       <c r="A30" s="18" t="s">
-        <v>307</v>
+        <v>474</v>
       </c>
       <c r="C30" s="15">
         <v>0</v>
@@ -9692,7 +11826,7 @@
         <v>2</v>
       </c>
       <c r="O30" s="15" t="s">
-        <v>308</v>
+        <v>475</v>
       </c>
       <c r="P30" s="15">
         <v>0</v>
@@ -9705,7 +11839,7 @@
         <v>85</v>
       </c>
       <c r="T30" s="15" t="s">
-        <v>212</v>
+        <v>379</v>
       </c>
       <c r="W30" s="15">
         <v>4</v>
@@ -9720,16 +11854,16 @@
         <v>0</v>
       </c>
       <c r="AA30" s="27" t="s">
-        <v>309</v>
+        <v>476</v>
       </c>
       <c r="AB30" s="24" t="s">
-        <v>214</v>
+        <v>381</v>
       </c>
       <c r="AC30" s="27" t="s">
-        <v>310</v>
+        <v>477</v>
       </c>
       <c r="AD30" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AE30" s="15">
         <v>0</v>
@@ -9750,7 +11884,7 @@
         <v>1</v>
       </c>
       <c r="AL30" s="27" t="s">
-        <v>311</v>
+        <v>478</v>
       </c>
       <c r="AM30" s="15">
         <v>0</v>
@@ -9761,7 +11895,7 @@
     </row>
     <row r="31" s="15" customFormat="1" spans="1:40">
       <c r="A31" s="18" t="s">
-        <v>312</v>
+        <v>479</v>
       </c>
       <c r="C31" s="15">
         <v>0</v>
@@ -9800,7 +11934,7 @@
         <v>2</v>
       </c>
       <c r="O31" s="15" t="s">
-        <v>313</v>
+        <v>480</v>
       </c>
       <c r="P31" s="15">
         <v>0</v>
@@ -9813,7 +11947,7 @@
         <v>85</v>
       </c>
       <c r="T31" s="14" t="s">
-        <v>212</v>
+        <v>379</v>
       </c>
       <c r="W31" s="14">
         <v>4</v>
@@ -9828,16 +11962,16 @@
         <v>0</v>
       </c>
       <c r="AA31" s="27" t="s">
-        <v>314</v>
+        <v>481</v>
       </c>
       <c r="AB31" s="24" t="s">
-        <v>214</v>
+        <v>381</v>
       </c>
       <c r="AC31" s="27" t="s">
-        <v>315</v>
+        <v>482</v>
       </c>
       <c r="AD31" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AE31" s="15">
         <v>0</v>
@@ -9859,7 +11993,7 @@
         <v>1</v>
       </c>
       <c r="AL31" s="27" t="s">
-        <v>316</v>
+        <v>483</v>
       </c>
       <c r="AM31" s="14">
         <v>0</v>
@@ -9870,7 +12004,7 @@
     </row>
     <row r="32" s="15" customFormat="1" spans="1:40">
       <c r="A32" s="18" t="s">
-        <v>317</v>
+        <v>484</v>
       </c>
       <c r="C32" s="15">
         <v>0</v>
@@ -9909,7 +12043,7 @@
         <v>3</v>
       </c>
       <c r="O32" s="15" t="s">
-        <v>318</v>
+        <v>485</v>
       </c>
       <c r="P32" s="15">
         <v>0</v>
@@ -9922,7 +12056,7 @@
         <v>85</v>
       </c>
       <c r="T32" s="15" t="s">
-        <v>212</v>
+        <v>379</v>
       </c>
       <c r="W32" s="15">
         <v>4</v>
@@ -9937,16 +12071,16 @@
         <v>0</v>
       </c>
       <c r="AA32" s="27" t="s">
-        <v>319</v>
+        <v>486</v>
       </c>
       <c r="AB32" s="24" t="s">
-        <v>214</v>
+        <v>381</v>
       </c>
       <c r=